--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDECE31-3AE8-438C-BA77-57E71AAC9B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,13 +456,13 @@
     <t>WN1 2TT</t>
   </si>
   <si>
-    <t>Pressure Gun 0975</t>
+    <t>Pressure Gun 250601000024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -968,12 +969,12 @@
     <cellStyle name="40% - Accent4" xfId="28" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent5" xfId="31" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent6" xfId="34" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1 2" xfId="36"/>
-    <cellStyle name="60% - Accent2 2" xfId="37"/>
-    <cellStyle name="60% - Accent3 2" xfId="38"/>
-    <cellStyle name="60% - Accent4 2" xfId="39"/>
-    <cellStyle name="60% - Accent5 2" xfId="40"/>
-    <cellStyle name="60% - Accent6 2" xfId="41"/>
+    <cellStyle name="60% - Accent1 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Accent1" xfId="17" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="23" builtinId="37" customBuiltin="1"/>
@@ -991,7 +992,7 @@
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="8" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="11" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral 2" xfId="35"/>
+    <cellStyle name="Neutral 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="14" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="9" builtinId="21" customBuiltin="1"/>
@@ -1274,11 +1275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDECE31-3AE8-438C-BA77-57E71AAC9B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864DB1A9-3CB5-407B-9985-CD7B11C48716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="186">
   <si>
     <t>--</t>
   </si>
@@ -457,6 +457,144 @@
   </si>
   <si>
     <t>Pressure Gun 250601000024</t>
+  </si>
+  <si>
+    <t>Bank reference ID MWGQIZASVWZLW6F</t>
+  </si>
+  <si>
+    <t>09-13439-21127</t>
+  </si>
+  <si>
+    <t>ottomihok1</t>
+  </si>
+  <si>
+    <t>Otto Mihok</t>
+  </si>
+  <si>
+    <t>FEE-6588436291717_11</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>N18 1PT</t>
+  </si>
+  <si>
+    <t>Baby Infant Bath Seat &amp; Support Foldable Chair 3 Positions Bather Cradle Blue UK</t>
+  </si>
+  <si>
+    <t>Baby Seat Blue 250601000019</t>
+  </si>
+  <si>
+    <t>17-13427-19331</t>
+  </si>
+  <si>
+    <t>FEE-6587832931417_11</t>
+  </si>
+  <si>
+    <t>02-13446-80551</t>
+  </si>
+  <si>
+    <t>amacgregor-2012</t>
+  </si>
+  <si>
+    <t>Audrey Murphy</t>
+  </si>
+  <si>
+    <t>FEE-6587427271817_11</t>
+  </si>
+  <si>
+    <t>Peterhead</t>
+  </si>
+  <si>
+    <t>Aberdeenshire</t>
+  </si>
+  <si>
+    <t>Ab421gp</t>
+  </si>
+  <si>
+    <t>25-13415-65790</t>
+  </si>
+  <si>
+    <t>123dave868</t>
+  </si>
+  <si>
+    <t>David Williams</t>
+  </si>
+  <si>
+    <t>FEE-6587296934317_11</t>
+  </si>
+  <si>
+    <t>West Bromwich</t>
+  </si>
+  <si>
+    <t>West Midlands</t>
+  </si>
+  <si>
+    <t>B71 1JJ</t>
+  </si>
+  <si>
+    <t>High Pressure Washer Spray Gun and 7M Washing Hose Kit For Car Jet Lance 160 bar</t>
+  </si>
+  <si>
+    <t>Spray Gun 250601000007</t>
+  </si>
+  <si>
+    <t>26-13414-03870</t>
+  </si>
+  <si>
+    <t>fi_790056</t>
+  </si>
+  <si>
+    <t>Fidan Xxx</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>M25 9TS</t>
+  </si>
+  <si>
+    <t>Dimmable LED Ceiling Light Modern Chandeliers Kid's Room Bedroom Cloud Lamp Tool</t>
+  </si>
+  <si>
+    <t>Cloud Light 250601000025</t>
+  </si>
+  <si>
+    <t>25-13415-21741</t>
+  </si>
+  <si>
+    <t>catallaza</t>
+  </si>
+  <si>
+    <t>catalin lazar</t>
+  </si>
+  <si>
+    <t>FEE-6586900243417_11</t>
+  </si>
+  <si>
+    <t>LONDON</t>
+  </si>
+  <si>
+    <t>TW14 9TG</t>
+  </si>
+  <si>
+    <t>03-13444-35810</t>
+  </si>
+  <si>
+    <t>kamor_9242</t>
+  </si>
+  <si>
+    <t>karen morley</t>
+  </si>
+  <si>
+    <t>FEE-6586754203417_11</t>
+  </si>
+  <si>
+    <t>Nottingham</t>
+  </si>
+  <si>
+    <t>NG2 1AT</t>
   </si>
 </sst>
 </file>
@@ -1276,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL74"/>
+  <dimension ref="A1:AL63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,22 +1678,22 @@
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45880</v>
+        <v>45878</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F13" t="s">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
         <v>0</v>
@@ -1570,16 +1708,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>-92.02</v>
+        <v>-1.98</v>
       </c>
       <c r="L13" t="s">
         <v>54</v>
       </c>
-      <c r="M13" t="s">
-        <v>0</v>
+      <c r="M13" s="1">
+        <v>45879</v>
       </c>
       <c r="N13">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O13" t="s">
         <v>55</v>
@@ -1590,8 +1728,8 @@
       <c r="Q13" t="s">
         <v>0</v>
       </c>
-      <c r="R13" t="s">
-        <v>0</v>
+      <c r="R13">
+        <v>187473651729</v>
       </c>
       <c r="S13" t="s">
         <v>0</v>
@@ -1639,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AH13">
-        <v>-92.02</v>
+        <v>-1.98</v>
       </c>
       <c r="AI13" t="s">
         <v>54</v>
@@ -1648,54 +1786,54 @@
         <v>0</v>
       </c>
       <c r="AK13" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="AL13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14">
+        <v>14.69</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
+      </c>
+      <c r="M14" s="1">
         <v>45879</v>
       </c>
-      <c r="B14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>-2.04</v>
-      </c>
-      <c r="L14" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="1">
-        <v>45880</v>
-      </c>
       <c r="N14">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O14" t="s">
         <v>55</v>
@@ -1709,22 +1847,22 @@
       <c r="R14">
         <v>187473651729</v>
       </c>
-      <c r="S14" t="s">
-        <v>0</v>
+      <c r="S14">
+        <v>10074515771704</v>
       </c>
       <c r="T14" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>0</v>
-      </c>
-      <c r="W14" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X14">
         <v>0</v>
       </c>
       <c r="Y14" t="s">
@@ -1736,14 +1874,14 @@
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>0</v>
+      <c r="AB14">
+        <v>-0.36</v>
+      </c>
+      <c r="AC14">
+        <v>-1.37</v>
+      </c>
+      <c r="AD14">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE14" t="s">
         <v>0</v>
@@ -1755,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AH14">
-        <v>-2.04</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="AI14" t="s">
         <v>54</v>
@@ -1764,54 +1902,54 @@
         <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>-1.98</v>
+      </c>
+      <c r="L15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M15" s="1">
         <v>45879</v>
       </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I15" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15">
-        <v>15.16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="1">
-        <v>45880</v>
-      </c>
       <c r="N15">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O15" t="s">
         <v>55</v>
@@ -1825,22 +1963,22 @@
       <c r="R15">
         <v>187473651729</v>
       </c>
-      <c r="S15">
-        <v>10074251319602</v>
+      <c r="S15" t="s">
+        <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>75</v>
-      </c>
-      <c r="V15">
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <v>16.989999999999998</v>
-      </c>
-      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="V15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" t="s">
         <v>0</v>
       </c>
       <c r="Y15" t="s">
@@ -1852,14 +1990,14 @@
       <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AB15">
-        <v>-0.36</v>
-      </c>
-      <c r="AC15">
-        <v>-1.4</v>
-      </c>
-      <c r="AD15">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>0</v>
       </c>
       <c r="AE15" t="s">
         <v>0</v>
@@ -1871,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>16.989999999999998</v>
+        <v>-1.98</v>
       </c>
       <c r="AI15" t="s">
         <v>54</v>
@@ -1880,54 +2018,54 @@
         <v>0</v>
       </c>
       <c r="AK15" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="AL15" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16">
+        <v>14.69</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" s="1">
         <v>45879</v>
       </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>-2.82</v>
-      </c>
-      <c r="L16" t="s">
-        <v>54</v>
-      </c>
-      <c r="M16" s="1">
-        <v>45880</v>
-      </c>
       <c r="N16">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O16" t="s">
         <v>55</v>
@@ -1939,24 +2077,24 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>186821285299</v>
-      </c>
-      <c r="S16" t="s">
-        <v>0</v>
+        <v>187473651729</v>
+      </c>
+      <c r="S16">
+        <v>10074509804604</v>
       </c>
       <c r="T16" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" t="s">
+        <v>75</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X16">
         <v>0</v>
       </c>
       <c r="Y16" t="s">
@@ -1968,14 +2106,14 @@
       <c r="AA16" s="2">
         <v>0</v>
       </c>
-      <c r="AB16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>0</v>
+      <c r="AB16">
+        <v>-0.36</v>
+      </c>
+      <c r="AC16">
+        <v>-1.37</v>
+      </c>
+      <c r="AD16">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE16" t="s">
         <v>0</v>
@@ -1987,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="AH16">
-        <v>-2.82</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="AI16" t="s">
         <v>54</v>
@@ -1996,30 +2134,30 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E17" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="G17" t="s">
         <v>0</v>
@@ -2040,10 +2178,10 @@
         <v>54</v>
       </c>
       <c r="M17" s="1">
-        <v>45880</v>
+        <v>45879</v>
       </c>
       <c r="N17">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O17" t="s">
         <v>55</v>
@@ -2112,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="AK17" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="AL17" t="s">
         <v>59</v>
@@ -2120,31 +2258,31 @@
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
         <v>53</v>
@@ -2156,10 +2294,10 @@
         <v>54</v>
       </c>
       <c r="M18" s="1">
-        <v>45880</v>
+        <v>45879</v>
       </c>
       <c r="N18">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O18" t="s">
         <v>55</v>
@@ -2174,7 +2312,7 @@
         <v>187473651729</v>
       </c>
       <c r="S18">
-        <v>10073949005420</v>
+        <v>10074191764922</v>
       </c>
       <c r="T18" t="s">
         <v>74</v>
@@ -2236,22 +2374,22 @@
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="F19" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="G19" t="s">
         <v>0</v>
@@ -2266,16 +2404,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>-7.2</v>
+        <v>-1.98</v>
       </c>
       <c r="L19" t="s">
         <v>54</v>
       </c>
       <c r="M19" s="1">
-        <v>45880</v>
+        <v>45879</v>
       </c>
       <c r="N19">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O19" t="s">
         <v>55</v>
@@ -2287,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="R19">
-        <v>187473652251</v>
+        <v>187473651729</v>
       </c>
       <c r="S19" t="s">
         <v>0</v>
@@ -2335,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <v>-7.2</v>
+        <v>-1.98</v>
       </c>
       <c r="AI19" t="s">
         <v>54</v>
@@ -2344,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="AK19" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="AL19" t="s">
         <v>59</v>
@@ -2352,46 +2490,46 @@
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>-1.98</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="1">
         <v>45879</v>
       </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" t="s">
-        <v>89</v>
-      </c>
-      <c r="H20" t="s">
-        <v>90</v>
-      </c>
-      <c r="I20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20">
-        <v>48.65</v>
-      </c>
-      <c r="L20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="1">
-        <v>45880</v>
-      </c>
       <c r="N20">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O20" t="s">
         <v>55</v>
@@ -2403,24 +2541,24 @@
         <v>0</v>
       </c>
       <c r="R20">
-        <v>187473652251</v>
-      </c>
-      <c r="S20">
-        <v>10073787907226</v>
+        <v>187473651729</v>
+      </c>
+      <c r="S20" t="s">
+        <v>0</v>
       </c>
       <c r="T20" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>93</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>59.99</v>
-      </c>
-      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="V20" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" t="s">
         <v>0</v>
       </c>
       <c r="Y20" t="s">
@@ -2432,17 +2570,17 @@
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AB20">
-        <v>-0.36</v>
-      </c>
-      <c r="AC20">
-        <v>-7.85</v>
-      </c>
-      <c r="AD20">
-        <v>-0.25</v>
-      </c>
-      <c r="AE20">
-        <v>-2.88</v>
+      <c r="AB20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>0</v>
       </c>
       <c r="AF20" t="s">
         <v>0</v>
@@ -2451,7 +2589,7 @@
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>59.99</v>
+        <v>-1.98</v>
       </c>
       <c r="AI20" t="s">
         <v>54</v>
@@ -2460,54 +2598,54 @@
         <v>0</v>
       </c>
       <c r="AK20" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AL20" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>132</v>
+      </c>
+      <c r="I21" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21">
+        <v>14.69</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="1">
         <v>45879</v>
       </c>
-      <c r="B21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>-4.5</v>
-      </c>
-      <c r="L21" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="1">
-        <v>45880</v>
-      </c>
       <c r="N21">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O21" t="s">
         <v>55</v>
@@ -2519,24 +2657,24 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>187473645996</v>
-      </c>
-      <c r="S21" t="s">
-        <v>0</v>
+        <v>187473651729</v>
+      </c>
+      <c r="S21">
+        <v>10079108229121</v>
       </c>
       <c r="T21" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="U21" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" t="s">
+        <v>75</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X21">
         <v>0</v>
       </c>
       <c r="Y21" t="s">
@@ -2548,14 +2686,14 @@
       <c r="AA21" s="2">
         <v>0</v>
       </c>
-      <c r="AB21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>0</v>
+      <c r="AB21">
+        <v>-0.36</v>
+      </c>
+      <c r="AC21">
+        <v>-1.37</v>
+      </c>
+      <c r="AD21">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE21" t="s">
         <v>0</v>
@@ -2567,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="AH21">
-        <v>-4.5</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="AI21" t="s">
         <v>54</v>
@@ -2576,54 +2714,54 @@
         <v>0</v>
       </c>
       <c r="AK21" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45879</v>
+        <v>45878</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
         <v>53</v>
       </c>
       <c r="K22">
-        <v>32.06</v>
+        <v>14.69</v>
       </c>
       <c r="L22" t="s">
         <v>54</v>
       </c>
       <c r="M22" s="1">
-        <v>45880</v>
+        <v>45879</v>
       </c>
       <c r="N22">
-        <v>7016714027</v>
+        <v>7015109387</v>
       </c>
       <c r="O22" t="s">
         <v>55</v>
@@ -2635,22 +2773,22 @@
         <v>0</v>
       </c>
       <c r="R22">
-        <v>187473645996</v>
+        <v>187473651729</v>
       </c>
       <c r="S22">
-        <v>10074613435815</v>
+        <v>10074156324105</v>
       </c>
       <c r="T22" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="U22" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22">
-        <v>37.49</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -2668,10 +2806,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC22">
-        <v>-4.91</v>
+        <v>-1.37</v>
       </c>
       <c r="AD22">
-        <v>-0.16</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE22" t="s">
         <v>0</v>
@@ -2683,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="AH22">
-        <v>37.49</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="AI22" t="s">
         <v>54</v>
@@ -2700,43 +2838,43 @@
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" t="s">
+        <v>137</v>
+      </c>
+      <c r="I23" t="s">
+        <v>138</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" s="1">
         <v>45879</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>-82.38</v>
-      </c>
-      <c r="L23" t="s">
-        <v>54</v>
-      </c>
-      <c r="M23" t="s">
-        <v>0</v>
       </c>
       <c r="N23">
         <v>7015109387</v>
@@ -2750,25 +2888,25 @@
       <c r="Q23" t="s">
         <v>0</v>
       </c>
-      <c r="R23" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>0</v>
+      <c r="R23">
+        <v>186821285299</v>
+      </c>
+      <c r="S23">
+        <v>10073988341008</v>
       </c>
       <c r="T23" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" t="s">
-        <v>0</v>
-      </c>
-      <c r="W23" t="s">
-        <v>0</v>
-      </c>
-      <c r="X23" t="s">
+        <v>139</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>23.49</v>
+      </c>
+      <c r="X23">
         <v>0</v>
       </c>
       <c r="Y23" t="s">
@@ -2780,17 +2918,17 @@
       <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AB23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>0</v>
+      <c r="AB23">
+        <v>-0.36</v>
+      </c>
+      <c r="AC23">
+        <v>-3.07</v>
+      </c>
+      <c r="AD23">
+        <v>-0.1</v>
+      </c>
+      <c r="AE23">
+        <v>-1.1299999999999999</v>
       </c>
       <c r="AF23" t="s">
         <v>0</v>
@@ -2799,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>-82.38</v>
+        <v>23.49</v>
       </c>
       <c r="AI23" t="s">
         <v>54</v>
@@ -2808,30 +2946,30 @@
         <v>0</v>
       </c>
       <c r="AK23" t="s">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45878</v>
+        <v>45881</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="G24" t="s">
         <v>0</v>
@@ -2846,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>-1.98</v>
+        <v>-174.38</v>
       </c>
       <c r="L24" t="s">
         <v>54</v>
       </c>
-      <c r="M24" s="1">
-        <v>45879</v>
+      <c r="M24" t="s">
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O24" t="s">
         <v>55</v>
@@ -2866,8 +3004,8 @@
       <c r="Q24" t="s">
         <v>0</v>
       </c>
-      <c r="R24">
-        <v>187473651729</v>
+      <c r="R24" t="s">
+        <v>0</v>
       </c>
       <c r="S24" t="s">
         <v>0</v>
@@ -2915,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>-1.98</v>
+        <v>-174.38</v>
       </c>
       <c r="AI24" t="s">
         <v>54</v>
@@ -2924,54 +3062,54 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="AL24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="G25" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>14.69</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="L25" t="s">
         <v>54</v>
       </c>
       <c r="M25" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N25">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O25" t="s">
         <v>55</v>
@@ -2983,24 +3121,24 @@
         <v>0</v>
       </c>
       <c r="R25">
-        <v>187473651729</v>
-      </c>
-      <c r="S25">
-        <v>10074515771704</v>
+        <v>187473672410</v>
+      </c>
+      <c r="S25" t="s">
+        <v>0</v>
       </c>
       <c r="T25" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U25" t="s">
-        <v>75</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>0</v>
+      </c>
+      <c r="X25" t="s">
         <v>0</v>
       </c>
       <c r="Y25" t="s">
@@ -3012,14 +3150,14 @@
       <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="AB25">
-        <v>-0.36</v>
-      </c>
-      <c r="AC25">
-        <v>-1.37</v>
-      </c>
-      <c r="AD25">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>0</v>
       </c>
       <c r="AE25" t="s">
         <v>0</v>
@@ -3031,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>16.489999999999998</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="AI25" t="s">
         <v>54</v>
@@ -3040,54 +3178,54 @@
         <v>0</v>
       </c>
       <c r="AK25" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="AL25" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="G26" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="J26" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>-1.98</v>
+        <v>13.47</v>
       </c>
       <c r="L26" t="s">
         <v>54</v>
       </c>
       <c r="M26" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N26">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O26" t="s">
         <v>55</v>
@@ -3099,24 +3237,24 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>187473651729</v>
-      </c>
-      <c r="S26" t="s">
-        <v>0</v>
+        <v>187473672410</v>
+      </c>
+      <c r="S26">
+        <v>10073981139209</v>
       </c>
       <c r="T26" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="U26" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" t="s">
+        <v>148</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>15.99</v>
+      </c>
+      <c r="X26">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
@@ -3128,14 +3266,14 @@
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>0</v>
+      <c r="AB26">
+        <v>-0.36</v>
+      </c>
+      <c r="AC26">
+        <v>-2.09</v>
+      </c>
+      <c r="AD26">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE26" t="s">
         <v>0</v>
@@ -3147,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>-1.98</v>
+        <v>15.99</v>
       </c>
       <c r="AI26" t="s">
         <v>54</v>
@@ -3156,54 +3294,54 @@
         <v>0</v>
       </c>
       <c r="AK26" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>14.69</v>
+        <v>-7.86</v>
       </c>
       <c r="L27" t="s">
         <v>54</v>
       </c>
       <c r="M27" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N27">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O27" t="s">
         <v>55</v>
@@ -3215,24 +3353,24 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>187473651729</v>
-      </c>
-      <c r="S27">
-        <v>10074509804604</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S27" t="s">
+        <v>0</v>
       </c>
       <c r="T27" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U27" t="s">
-        <v>75</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>0</v>
+      </c>
+      <c r="X27" t="s">
         <v>0</v>
       </c>
       <c r="Y27" t="s">
@@ -3244,14 +3382,14 @@
       <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27">
-        <v>-0.36</v>
-      </c>
-      <c r="AC27">
-        <v>-1.37</v>
-      </c>
-      <c r="AD27">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>0</v>
       </c>
       <c r="AE27" t="s">
         <v>0</v>
@@ -3263,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="AH27">
-        <v>16.489999999999998</v>
+        <v>-7.86</v>
       </c>
       <c r="AI27" t="s">
         <v>54</v>
@@ -3272,54 +3410,54 @@
         <v>0</v>
       </c>
       <c r="AK27" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AL27" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F28" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="G28" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="H28" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I28" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>-1.98</v>
+        <v>46.2</v>
       </c>
       <c r="L28" t="s">
         <v>54</v>
       </c>
       <c r="M28" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N28">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O28" t="s">
         <v>55</v>
@@ -3331,24 +3469,24 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>187473651729</v>
-      </c>
-      <c r="S28" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S28">
+        <v>10074647440317</v>
       </c>
       <c r="T28" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="U28" t="s">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
-        <v>0</v>
-      </c>
-      <c r="X28" t="s">
+        <v>93</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>56.99</v>
+      </c>
+      <c r="X28">
         <v>0</v>
       </c>
       <c r="Y28" t="s">
@@ -3360,17 +3498,17 @@
       <c r="AA28" s="2">
         <v>0</v>
       </c>
-      <c r="AB28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>0</v>
+      <c r="AB28">
+        <v>-0.36</v>
+      </c>
+      <c r="AC28">
+        <v>-7.45</v>
+      </c>
+      <c r="AD28">
+        <v>-0.24</v>
+      </c>
+      <c r="AE28">
+        <v>-2.74</v>
       </c>
       <c r="AF28" t="s">
         <v>0</v>
@@ -3379,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="AH28">
-        <v>-1.98</v>
+        <v>56.99</v>
       </c>
       <c r="AI28" t="s">
         <v>54</v>
@@ -3388,54 +3526,54 @@
         <v>0</v>
       </c>
       <c r="AK28" t="s">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F29" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>14.69</v>
+        <v>-9.9600000000000009</v>
       </c>
       <c r="L29" t="s">
         <v>54</v>
       </c>
       <c r="M29" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N29">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O29" t="s">
         <v>55</v>
@@ -3447,24 +3585,24 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>187473651729</v>
-      </c>
-      <c r="S29">
-        <v>10074191764922</v>
+        <v>187473645996</v>
+      </c>
+      <c r="S29" t="s">
+        <v>0</v>
       </c>
       <c r="T29" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U29" t="s">
-        <v>75</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>16.489999999999998</v>
-      </c>
-      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="V29" t="s">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>0</v>
+      </c>
+      <c r="X29" t="s">
         <v>0</v>
       </c>
       <c r="Y29" t="s">
@@ -3476,14 +3614,14 @@
       <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="AB29">
-        <v>-0.36</v>
-      </c>
-      <c r="AC29">
-        <v>-1.37</v>
-      </c>
-      <c r="AD29">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>0</v>
       </c>
       <c r="AE29" t="s">
         <v>0</v>
@@ -3495,7 +3633,7 @@
         <v>0</v>
       </c>
       <c r="AH29">
-        <v>16.489999999999998</v>
+        <v>-9.9600000000000009</v>
       </c>
       <c r="AI29" t="s">
         <v>54</v>
@@ -3504,54 +3642,54 @@
         <v>0</v>
       </c>
       <c r="AK29" t="s">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AL29" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="F30" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="G30" t="s">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I30" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="J30" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K30">
-        <v>-1.98</v>
+        <v>63.2</v>
       </c>
       <c r="L30" t="s">
         <v>54</v>
       </c>
       <c r="M30" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N30">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O30" t="s">
         <v>55</v>
@@ -3563,24 +3701,24 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>187473651729</v>
-      </c>
-      <c r="S30" t="s">
-        <v>0</v>
+        <v>187473645996</v>
+      </c>
+      <c r="S30">
+        <v>10074267504502</v>
       </c>
       <c r="T30" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="U30" t="s">
-        <v>0</v>
-      </c>
-      <c r="V30" t="s">
-        <v>0</v>
-      </c>
-      <c r="W30" t="s">
-        <v>0</v>
-      </c>
-      <c r="X30" t="s">
+        <v>102</v>
+      </c>
+      <c r="V30">
+        <v>2</v>
+      </c>
+      <c r="W30">
+        <v>73.48</v>
+      </c>
+      <c r="X30">
         <v>0</v>
       </c>
       <c r="Y30" t="s">
@@ -3592,14 +3730,14 @@
       <c r="AA30" s="2">
         <v>0</v>
       </c>
-      <c r="AB30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="s">
-        <v>0</v>
+      <c r="AB30">
+        <v>-0.36</v>
+      </c>
+      <c r="AC30">
+        <v>-9.61</v>
+      </c>
+      <c r="AD30">
+        <v>-0.31</v>
       </c>
       <c r="AE30" t="s">
         <v>0</v>
@@ -3611,7 +3749,7 @@
         <v>0</v>
       </c>
       <c r="AH30">
-        <v>-1.98</v>
+        <v>73.48</v>
       </c>
       <c r="AI30" t="s">
         <v>54</v>
@@ -3620,30 +3758,30 @@
         <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B31" t="s">
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -3658,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>-1.98</v>
+        <v>-1.55</v>
       </c>
       <c r="L31" t="s">
         <v>54</v>
       </c>
       <c r="M31" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N31">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O31" t="s">
         <v>55</v>
@@ -3679,7 +3817,7 @@
         <v>0</v>
       </c>
       <c r="R31">
-        <v>187473651729</v>
+        <v>187473655879</v>
       </c>
       <c r="S31" t="s">
         <v>0</v>
@@ -3727,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="AH31">
-        <v>-1.98</v>
+        <v>-1.55</v>
       </c>
       <c r="AI31" t="s">
         <v>54</v>
@@ -3736,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
       <c r="AL31" t="s">
         <v>59</v>
@@ -3744,46 +3882,46 @@
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="G32" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="H32" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="J32" t="s">
         <v>53</v>
       </c>
       <c r="K32">
-        <v>14.69</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="L32" t="s">
         <v>54</v>
       </c>
       <c r="M32" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N32">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O32" t="s">
         <v>55</v>
@@ -3795,22 +3933,22 @@
         <v>0</v>
       </c>
       <c r="R32">
-        <v>187473651729</v>
+        <v>187473655879</v>
       </c>
       <c r="S32">
-        <v>10079108229121</v>
+        <v>10073817277825</v>
       </c>
       <c r="T32" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="U32" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
       <c r="V32">
         <v>1</v>
       </c>
       <c r="W32">
-        <v>16.489999999999998</v>
+        <v>11.49</v>
       </c>
       <c r="X32">
         <v>0</v>
@@ -3828,13 +3966,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC32">
-        <v>-1.37</v>
+        <v>-1.5</v>
       </c>
       <c r="AD32">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>0</v>
+        <v>-0.05</v>
+      </c>
+      <c r="AE32">
+        <v>-0.55000000000000004</v>
       </c>
       <c r="AF32" t="s">
         <v>0</v>
@@ -3843,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>16.489999999999998</v>
+        <v>11.49</v>
       </c>
       <c r="AI32" t="s">
         <v>54</v>
@@ -3860,46 +3998,46 @@
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B33" t="s">
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D33" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="F33" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="H33" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J33" t="s">
         <v>53</v>
       </c>
       <c r="K33">
-        <v>14.69</v>
+        <v>24.37</v>
       </c>
       <c r="L33" t="s">
         <v>54</v>
       </c>
       <c r="M33" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N33">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O33" t="s">
         <v>55</v>
@@ -3911,22 +4049,22 @@
         <v>0</v>
       </c>
       <c r="R33">
-        <v>187473651729</v>
+        <v>187473659746</v>
       </c>
       <c r="S33">
-        <v>10074156324105</v>
+        <v>10073815207326</v>
       </c>
       <c r="T33" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="U33" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="V33">
         <v>1</v>
       </c>
       <c r="W33">
-        <v>16.489999999999998</v>
+        <v>28.99</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -3944,10 +4082,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC33">
-        <v>-1.37</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="AD33">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.12</v>
       </c>
       <c r="AE33" t="s">
         <v>0</v>
@@ -3959,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AH33">
-        <v>16.489999999999998</v>
+        <v>28.99</v>
       </c>
       <c r="AI33" t="s">
         <v>54</v>
@@ -3976,46 +4114,46 @@
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45878</v>
+        <v>45880</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="E34" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="F34" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="G34" t="s">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>18.829999999999998</v>
+        <v>-2.04</v>
       </c>
       <c r="L34" t="s">
         <v>54</v>
       </c>
       <c r="M34" s="1">
-        <v>45879</v>
+        <v>45881</v>
       </c>
       <c r="N34">
-        <v>7015109387</v>
+        <v>7018674083</v>
       </c>
       <c r="O34" t="s">
         <v>55</v>
@@ -4027,24 +4165,24 @@
         <v>0</v>
       </c>
       <c r="R34">
-        <v>186821285299</v>
-      </c>
-      <c r="S34">
-        <v>10073988341008</v>
+        <v>187473651729</v>
+      </c>
+      <c r="S34" t="s">
+        <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>139</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>23.49</v>
-      </c>
-      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="V34" t="s">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>0</v>
+      </c>
+      <c r="X34" t="s">
         <v>0</v>
       </c>
       <c r="Y34" t="s">
@@ -4056,17 +4194,17 @@
       <c r="AA34" s="2">
         <v>0</v>
       </c>
-      <c r="AB34">
-        <v>-0.36</v>
-      </c>
-      <c r="AC34">
-        <v>-3.07</v>
-      </c>
-      <c r="AD34">
-        <v>-0.1</v>
-      </c>
-      <c r="AE34">
-        <v>-1.1299999999999999</v>
+      <c r="AB34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>0</v>
       </c>
       <c r="AF34" t="s">
         <v>0</v>
@@ -4075,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>23.49</v>
+        <v>-2.04</v>
       </c>
       <c r="AI34" t="s">
         <v>54</v>
@@ -4084,459 +4222,1883 @@
         <v>0</v>
       </c>
       <c r="AK34" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="AL34" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="7"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="5"/>
+      <c r="A35" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" t="s">
+        <v>178</v>
+      </c>
+      <c r="H35" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" t="s">
+        <v>179</v>
+      </c>
+      <c r="J35" t="s">
+        <v>53</v>
+      </c>
+      <c r="K35">
+        <v>15.16</v>
+      </c>
+      <c r="L35" t="s">
+        <v>54</v>
+      </c>
+      <c r="M35" s="1">
+        <v>45881</v>
+      </c>
+      <c r="N35">
+        <v>7018674083</v>
+      </c>
+      <c r="O35" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>187473651729</v>
+      </c>
+      <c r="S35">
+        <v>10073814832125</v>
+      </c>
+      <c r="T35" t="s">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s">
+        <v>75</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>-0.36</v>
+      </c>
+      <c r="AC35">
+        <v>-1.4</v>
+      </c>
+      <c r="AD35">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="7"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
+      <c r="A36" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" t="s">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>-5.4</v>
+      </c>
+      <c r="L36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="1">
+        <v>45881</v>
+      </c>
+      <c r="N36">
+        <v>7018674083</v>
+      </c>
+      <c r="O36" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>187473645996</v>
+      </c>
+      <c r="S36" t="s">
+        <v>0</v>
+      </c>
+      <c r="T36" t="s">
+        <v>0</v>
+      </c>
+      <c r="U36" t="s">
+        <v>0</v>
+      </c>
+      <c r="V36" t="s">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>0</v>
+      </c>
+      <c r="X36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>-5.4</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ36" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>183</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
+      <c r="A37" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" t="s">
+        <v>184</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I37" t="s">
+        <v>185</v>
+      </c>
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37">
+        <v>32.06</v>
+      </c>
+      <c r="L37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M37" s="1">
+        <v>45881</v>
+      </c>
+      <c r="N37">
+        <v>7018674083</v>
+      </c>
+      <c r="O37" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>187473645996</v>
+      </c>
+      <c r="S37">
+        <v>10074860095703</v>
+      </c>
+      <c r="T37" t="s">
+        <v>101</v>
+      </c>
+      <c r="U37" t="s">
+        <v>102</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>37.49</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>-0.36</v>
+      </c>
+      <c r="AC37">
+        <v>-4.91</v>
+      </c>
+      <c r="AD37">
+        <v>-0.16</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>37.49</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
+      <c r="A38" s="1">
+        <v>45880</v>
+      </c>
+      <c r="B38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>-92.02</v>
+      </c>
+      <c r="L38" t="s">
+        <v>54</v>
+      </c>
+      <c r="M38" t="s">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>7016714027</v>
+      </c>
+      <c r="O38" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S38" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" t="s">
+        <v>0</v>
+      </c>
+      <c r="U38" t="s">
+        <v>0</v>
+      </c>
+      <c r="V38" t="s">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>0</v>
+      </c>
+      <c r="X38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>-92.02</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ38" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="7"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="5"/>
+      <c r="A39" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>-2.04</v>
+      </c>
+      <c r="L39" t="s">
+        <v>54</v>
+      </c>
+      <c r="M39" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N39">
+        <v>7016714027</v>
+      </c>
+      <c r="O39" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>187473651729</v>
+      </c>
+      <c r="S39" t="s">
+        <v>0</v>
+      </c>
+      <c r="T39" t="s">
+        <v>0</v>
+      </c>
+      <c r="U39" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" t="s">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>0</v>
+      </c>
+      <c r="X39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>-2.04</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="7"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
+      <c r="A40" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" t="s">
+        <v>71</v>
+      </c>
+      <c r="H40" t="s">
+        <v>72</v>
+      </c>
+      <c r="I40" t="s">
+        <v>73</v>
+      </c>
+      <c r="J40" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40">
+        <v>15.16</v>
+      </c>
+      <c r="L40" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N40">
+        <v>7016714027</v>
+      </c>
+      <c r="O40" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>187473651729</v>
+      </c>
+      <c r="S40">
+        <v>10074251319602</v>
+      </c>
+      <c r="T40" t="s">
+        <v>74</v>
+      </c>
+      <c r="U40" t="s">
+        <v>75</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>-0.36</v>
+      </c>
+      <c r="AC40">
+        <v>-1.4</v>
+      </c>
+      <c r="AD40">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="7"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
+      <c r="A41" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>-2.82</v>
+      </c>
+      <c r="L41" t="s">
+        <v>54</v>
+      </c>
+      <c r="M41" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N41">
+        <v>7016714027</v>
+      </c>
+      <c r="O41" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>186821285299</v>
+      </c>
+      <c r="S41" t="s">
+        <v>0</v>
+      </c>
+      <c r="T41" t="s">
+        <v>0</v>
+      </c>
+      <c r="U41" t="s">
+        <v>0</v>
+      </c>
+      <c r="V41" t="s">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>0</v>
+      </c>
+      <c r="X41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>-2.82</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ41" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="42" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="7"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
+      <c r="A42" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>-1.98</v>
+      </c>
+      <c r="L42" t="s">
+        <v>54</v>
+      </c>
+      <c r="M42" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N42">
+        <v>7016714027</v>
+      </c>
+      <c r="O42" t="s">
+        <v>55</v>
+      </c>
+      <c r="P42" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>187473651729</v>
+      </c>
+      <c r="S42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T42" t="s">
+        <v>0</v>
+      </c>
+      <c r="U42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V42" t="s">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>0</v>
+      </c>
+      <c r="X42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>-1.98</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="7"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="5"/>
+      <c r="A43" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G43" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" t="s">
+        <v>84</v>
+      </c>
+      <c r="J43" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43">
+        <v>14.69</v>
+      </c>
+      <c r="L43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M43" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N43">
+        <v>7016714027</v>
+      </c>
+      <c r="O43" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>187473651729</v>
+      </c>
+      <c r="S43">
+        <v>10073949005420</v>
+      </c>
+      <c r="T43" t="s">
+        <v>74</v>
+      </c>
+      <c r="U43" t="s">
+        <v>75</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43">
+        <v>-0.36</v>
+      </c>
+      <c r="AC43">
+        <v>-1.37</v>
+      </c>
+      <c r="AD43">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="3"/>
+      <c r="A44" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
+        <v>87</v>
+      </c>
+      <c r="G44" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>-7.2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>54</v>
+      </c>
+      <c r="M44" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N44">
+        <v>7016714027</v>
+      </c>
+      <c r="O44" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>187473652251</v>
+      </c>
+      <c r="S44" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" t="s">
+        <v>0</v>
+      </c>
+      <c r="U44" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>0</v>
+      </c>
+      <c r="X44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>-7.2</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="45" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="AA45" s="2"/>
+      <c r="A45" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45">
+        <v>48.65</v>
+      </c>
+      <c r="L45" t="s">
+        <v>54</v>
+      </c>
+      <c r="M45" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N45">
+        <v>7016714027</v>
+      </c>
+      <c r="O45" t="s">
+        <v>55</v>
+      </c>
+      <c r="P45" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>187473652251</v>
+      </c>
+      <c r="S45">
+        <v>10073787907226</v>
+      </c>
+      <c r="T45" t="s">
+        <v>92</v>
+      </c>
+      <c r="U45" t="s">
+        <v>93</v>
+      </c>
+      <c r="V45">
+        <v>1</v>
+      </c>
+      <c r="W45">
+        <v>59.99</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45">
+        <v>-0.36</v>
+      </c>
+      <c r="AC45">
+        <v>-7.85</v>
+      </c>
+      <c r="AD45">
+        <v>-0.25</v>
+      </c>
+      <c r="AE45">
+        <v>-2.88</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>59.99</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="AA46" s="2"/>
+      <c r="A46" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>94</v>
+      </c>
+      <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>-4.5</v>
+      </c>
+      <c r="L46" t="s">
+        <v>54</v>
+      </c>
+      <c r="M46" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N46">
+        <v>7016714027</v>
+      </c>
+      <c r="O46" t="s">
+        <v>55</v>
+      </c>
+      <c r="P46" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>187473645996</v>
+      </c>
+      <c r="S46" t="s">
+        <v>0</v>
+      </c>
+      <c r="T46" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" t="s">
+        <v>0</v>
+      </c>
+      <c r="V46" t="s">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>0</v>
+      </c>
+      <c r="X46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH46">
+        <v>-4.5</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="AA47" s="2"/>
+      <c r="A47" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E47" t="s">
+        <v>95</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H47" t="s">
+        <v>99</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K47">
+        <v>32.06</v>
+      </c>
+      <c r="L47" t="s">
+        <v>54</v>
+      </c>
+      <c r="M47" s="1">
+        <v>45880</v>
+      </c>
+      <c r="N47">
+        <v>7016714027</v>
+      </c>
+      <c r="O47" t="s">
+        <v>55</v>
+      </c>
+      <c r="P47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>187473645996</v>
+      </c>
+      <c r="S47">
+        <v>10074613435815</v>
+      </c>
+      <c r="T47" t="s">
+        <v>101</v>
+      </c>
+      <c r="U47" t="s">
+        <v>102</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>37.49</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47">
+        <v>-0.36</v>
+      </c>
+      <c r="AC47">
+        <v>-4.91</v>
+      </c>
+      <c r="AD47">
+        <v>-0.16</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>37.49</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="AA48" s="2"/>
+      <c r="A48" s="1">
+        <v>45879</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>-82.38</v>
+      </c>
+      <c r="L48" t="s">
+        <v>54</v>
+      </c>
+      <c r="M48" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>7015109387</v>
+      </c>
+      <c r="O48" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>0</v>
+      </c>
+      <c r="R48" t="s">
+        <v>0</v>
+      </c>
+      <c r="S48" t="s">
+        <v>0</v>
+      </c>
+      <c r="T48" t="s">
+        <v>0</v>
+      </c>
+      <c r="U48" t="s">
+        <v>0</v>
+      </c>
+      <c r="V48" t="s">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>0</v>
+      </c>
+      <c r="X48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>-82.38</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="49" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="AA49" s="2"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="3"/>
+      <c r="AI49" s="3"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="3"/>
+      <c r="AL49" s="3"/>
     </row>
     <row r="50" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="AA50" s="2"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="3"/>
+      <c r="AI50" s="3"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="3"/>
+      <c r="AL50" s="3"/>
     </row>
     <row r="51" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="AA51" s="2"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="3"/>
+      <c r="AI51" s="3"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="3"/>
+      <c r="AL51" s="3"/>
     </row>
     <row r="52" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="AA52" s="2"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="5"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="5"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="3"/>
+      <c r="AI52" s="3"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="3"/>
+      <c r="AL52" s="3"/>
     </row>
     <row r="53" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="AA53" s="2"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="5"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="3"/>
+      <c r="AI53" s="3"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="3"/>
+      <c r="AL53" s="3"/>
     </row>
     <row r="54" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="AA54" s="2"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="3"/>
+      <c r="AI54" s="3"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="3"/>
+      <c r="AL54" s="3"/>
     </row>
     <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
       <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
@@ -4573,14 +6135,14 @@
     <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="4"/>
@@ -4589,26 +6151,26 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
       <c r="Z56" s="5"/>
       <c r="AA56" s="7"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
       <c r="AG56" s="5"/>
       <c r="AH56" s="3"/>
       <c r="AI56" s="3"/>
       <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
+      <c r="AK56" s="3"/>
+      <c r="AL56" s="3"/>
     </row>
     <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
@@ -4628,7 +6190,7 @@
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="5"/>
-      <c r="R57" s="6"/>
+      <c r="R57" s="5"/>
       <c r="S57" s="5"/>
       <c r="T57" s="5"/>
       <c r="U57" s="5"/>
@@ -4647,16 +6209,16 @@
       <c r="AH57" s="3"/>
       <c r="AI57" s="3"/>
       <c r="AJ57" s="5"/>
-      <c r="AK57" s="3"/>
+      <c r="AK57" s="5"/>
       <c r="AL57" s="3"/>
     </row>
     <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="3"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -4693,14 +6255,14 @@
     <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="3"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
       <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="4"/>
@@ -4708,35 +6270,35 @@
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="5"/>
-      <c r="R59" s="6"/>
+      <c r="R59" s="5"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
       <c r="Z59" s="5"/>
       <c r="AA59" s="7"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
+      <c r="AB59" s="3"/>
+      <c r="AC59" s="3"/>
+      <c r="AD59" s="3"/>
+      <c r="AE59" s="3"/>
       <c r="AF59" s="5"/>
       <c r="AG59" s="5"/>
       <c r="AH59" s="3"/>
       <c r="AI59" s="3"/>
       <c r="AJ59" s="5"/>
       <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
+      <c r="AL59" s="5"/>
     </row>
     <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="3"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -4788,7 +6350,7 @@
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="5"/>
-      <c r="R61" s="6"/>
+      <c r="R61" s="5"/>
       <c r="S61" s="5"/>
       <c r="T61" s="5"/>
       <c r="U61" s="5"/>
@@ -4807,20 +6369,20 @@
       <c r="AH61" s="3"/>
       <c r="AI61" s="3"/>
       <c r="AJ61" s="5"/>
-      <c r="AK61" s="3"/>
+      <c r="AK61" s="5"/>
       <c r="AL61" s="3"/>
     </row>
     <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="4"/>
@@ -4828,9 +6390,9 @@
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="5"/>
-      <c r="R62" s="6"/>
+      <c r="R62" s="5"/>
       <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
+      <c r="T62" s="3"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
       <c r="W62" s="5"/>
@@ -4839,28 +6401,28 @@
       <c r="Z62" s="5"/>
       <c r="AA62" s="7"/>
       <c r="AB62" s="5"/>
-      <c r="AC62" s="5"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="5"/>
+      <c r="AC62" s="3"/>
+      <c r="AD62" s="3"/>
+      <c r="AE62" s="3"/>
       <c r="AF62" s="5"/>
       <c r="AG62" s="5"/>
       <c r="AH62" s="3"/>
       <c r="AI62" s="3"/>
       <c r="AJ62" s="5"/>
       <c r="AK62" s="3"/>
-      <c r="AL62" s="3"/>
+      <c r="AL62" s="5"/>
     </row>
     <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="3"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="4"/>
@@ -4869,466 +6431,26 @@
       <c r="P63" s="3"/>
       <c r="Q63" s="5"/>
       <c r="R63" s="6"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5"/>
-      <c r="V63" s="5"/>
-      <c r="W63" s="5"/>
-      <c r="X63" s="5"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+      <c r="W63" s="3"/>
+      <c r="X63" s="3"/>
       <c r="Y63" s="5"/>
       <c r="Z63" s="5"/>
       <c r="AA63" s="7"/>
-      <c r="AB63" s="5"/>
-      <c r="AC63" s="5"/>
-      <c r="AD63" s="5"/>
+      <c r="AB63" s="3"/>
+      <c r="AC63" s="3"/>
+      <c r="AD63" s="3"/>
       <c r="AE63" s="5"/>
       <c r="AF63" s="5"/>
       <c r="AG63" s="5"/>
       <c r="AH63" s="3"/>
       <c r="AI63" s="3"/>
       <c r="AJ63" s="5"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-    </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="5"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="7"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="5"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="5"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="3"/>
-      <c r="AL64" s="3"/>
-    </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5"/>
-      <c r="V65" s="5"/>
-      <c r="W65" s="5"/>
-      <c r="X65" s="5"/>
-      <c r="Y65" s="5"/>
-      <c r="Z65" s="5"/>
-      <c r="AA65" s="7"/>
-      <c r="AB65" s="5"/>
-      <c r="AC65" s="5"/>
-      <c r="AD65" s="5"/>
-      <c r="AE65" s="5"/>
-      <c r="AF65" s="5"/>
-      <c r="AG65" s="5"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
-      <c r="AJ65" s="5"/>
-      <c r="AK65" s="3"/>
-      <c r="AL65" s="3"/>
-    </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="5"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="5"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="7"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="5"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="5"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="3"/>
-      <c r="AL66" s="3"/>
-    </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="5"/>
-      <c r="AC67" s="5"/>
-      <c r="AD67" s="5"/>
-      <c r="AE67" s="5"/>
-      <c r="AF67" s="5"/>
-      <c r="AG67" s="5"/>
-      <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
-      <c r="AJ67" s="5"/>
-      <c r="AK67" s="3"/>
-      <c r="AL67" s="3"/>
-    </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="5"/>
-      <c r="AC68" s="5"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="5"/>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="5"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="5"/>
-      <c r="AL68" s="3"/>
-    </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-      <c r="AA69" s="7"/>
-      <c r="AB69" s="5"/>
-      <c r="AC69" s="5"/>
-      <c r="AD69" s="5"/>
-      <c r="AE69" s="5"/>
-      <c r="AF69" s="5"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
-      <c r="AJ69" s="5"/>
-      <c r="AK69" s="3"/>
-      <c r="AL69" s="3"/>
-    </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="5"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="7"/>
-      <c r="AB70" s="3"/>
-      <c r="AC70" s="3"/>
-      <c r="AD70" s="3"/>
-      <c r="AE70" s="3"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="5"/>
-      <c r="AH70" s="3"/>
-      <c r="AI70" s="3"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="3"/>
-      <c r="AL70" s="5"/>
-    </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="7"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="5"/>
-      <c r="AH71" s="3"/>
-      <c r="AI71" s="3"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="3"/>
-      <c r="AL71" s="3"/>
-    </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="5"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="5"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="5"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="7"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="5"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="5"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="5"/>
-      <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="5"/>
-      <c r="AL72" s="3"/>
-    </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="7"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="5"/>
-      <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="3"/>
-      <c r="AL73" s="5"/>
-    </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="5"/>
-      <c r="AF74" s="5"/>
-      <c r="AG74" s="5"/>
-      <c r="AH74" s="3"/>
-      <c r="AI74" s="3"/>
-      <c r="AJ74" s="5"/>
-      <c r="AK74" s="5"/>
-      <c r="AL74" s="5"/>
+      <c r="AK63" s="5"/>
+      <c r="AL63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="510">
   <si>
     <t>--</t>
   </si>
@@ -1437,6 +1437,135 @@
   </si>
   <si>
     <t>CA1 2XD</t>
+  </si>
+  <si>
+    <t>Bank reference ID 36CVLI3SID1Q968</t>
+  </si>
+  <si>
+    <t>11-13453-06468</t>
+  </si>
+  <si>
+    <t>derek2bee</t>
+  </si>
+  <si>
+    <t>ian bee</t>
+  </si>
+  <si>
+    <t>FEE-6598515702017_11</t>
+  </si>
+  <si>
+    <t>harrogate</t>
+  </si>
+  <si>
+    <t>hg14rb</t>
+  </si>
+  <si>
+    <t>25-13433-34631</t>
+  </si>
+  <si>
+    <t>chukwil-0</t>
+  </si>
+  <si>
+    <t>Chukwuemeka Ilobi</t>
+  </si>
+  <si>
+    <t>Basildon</t>
+  </si>
+  <si>
+    <t>Essex</t>
+  </si>
+  <si>
+    <t>SS15 6PP</t>
+  </si>
+  <si>
+    <t>LED Ceiling Light Chandelier vintage pendant lights fitting Bedroom Lamp Sputnik</t>
+  </si>
+  <si>
+    <t>Pendent Light Black 250601000021</t>
+  </si>
+  <si>
+    <t>07-13457-53418</t>
+  </si>
+  <si>
+    <t>fawuk2014</t>
+  </si>
+  <si>
+    <t>Nigel Fawn</t>
+  </si>
+  <si>
+    <t>FEE-6597950500617_11</t>
+  </si>
+  <si>
+    <t>East Grinstead</t>
+  </si>
+  <si>
+    <t>West Sussex</t>
+  </si>
+  <si>
+    <t>RH19 2RZ</t>
+  </si>
+  <si>
+    <t>Pressure Gun Charger only (1pc)</t>
+  </si>
+  <si>
+    <t>02-13464-21925</t>
+  </si>
+  <si>
+    <t>iszzyinn</t>
+  </si>
+  <si>
+    <t>Mike Messina</t>
+  </si>
+  <si>
+    <t>FEE-6597888619217_11</t>
+  </si>
+  <si>
+    <t>Walton-on-Thames</t>
+  </si>
+  <si>
+    <t>Surrey</t>
+  </si>
+  <si>
+    <t>KT123JL</t>
+  </si>
+  <si>
+    <t>05-13459-81985</t>
+  </si>
+  <si>
+    <t>davda1122.mrtd2e</t>
+  </si>
+  <si>
+    <t>david bradley</t>
+  </si>
+  <si>
+    <t>FEE-6597517456217_11</t>
+  </si>
+  <si>
+    <t>bushmills</t>
+  </si>
+  <si>
+    <t>Antrim</t>
+  </si>
+  <si>
+    <t>bt578aj</t>
+  </si>
+  <si>
+    <t>25-13432-51902</t>
+  </si>
+  <si>
+    <t>loisal-m</t>
+  </si>
+  <si>
+    <t>Karen Al-Muhandis</t>
+  </si>
+  <si>
+    <t>FEE-6597362484217_11</t>
+  </si>
+  <si>
+    <t>Barnoldswick</t>
+  </si>
+  <si>
+    <t>BB18 5TD</t>
   </si>
 </sst>
 </file>
@@ -2245,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL143"/>
+  <dimension ref="A1:AL155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98:XFD143"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12369,22 +12498,22 @@
     </row>
     <row r="98" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45884</v>
+        <v>45882</v>
       </c>
       <c r="B98" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="D98" t="s">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="E98" t="s">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="F98" t="s">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="G98" t="s">
         <v>0</v>
@@ -12399,16 +12528,16 @@
         <v>0</v>
       </c>
       <c r="K98">
-        <v>-102.46</v>
+        <v>-7.94</v>
       </c>
       <c r="L98" t="s">
         <v>54</v>
       </c>
-      <c r="M98" t="s">
-        <v>0</v>
+      <c r="M98" s="1">
+        <v>45883</v>
       </c>
       <c r="N98">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O98" t="s">
         <v>55</v>
@@ -12419,8 +12548,8 @@
       <c r="Q98" t="s">
         <v>0</v>
       </c>
-      <c r="R98" t="s">
-        <v>0</v>
+      <c r="R98">
+        <v>187473652251</v>
       </c>
       <c r="S98" t="s">
         <v>0</v>
@@ -12468,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="AH98">
-        <v>-102.46</v>
+        <v>-7.94</v>
       </c>
       <c r="AI98" t="s">
         <v>54</v>
@@ -12477,54 +12606,54 @@
         <v>0</v>
       </c>
       <c r="AK98" t="s">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="AL98" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" t="s">
+        <v>346</v>
+      </c>
+      <c r="D99" t="s">
+        <v>346</v>
+      </c>
+      <c r="E99" t="s">
+        <v>347</v>
+      </c>
+      <c r="F99" t="s">
+        <v>348</v>
+      </c>
+      <c r="G99" t="s">
+        <v>108</v>
+      </c>
+      <c r="H99" t="s">
+        <v>109</v>
+      </c>
+      <c r="I99" t="s">
+        <v>350</v>
+      </c>
+      <c r="J99" t="s">
+        <v>53</v>
+      </c>
+      <c r="K99">
+        <v>42.92</v>
+      </c>
+      <c r="L99" t="s">
+        <v>54</v>
+      </c>
+      <c r="M99" s="1">
         <v>45883</v>
       </c>
-      <c r="B99" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" t="s">
-        <v>419</v>
-      </c>
-      <c r="D99" t="s">
-        <v>419</v>
-      </c>
-      <c r="E99" t="s">
-        <v>420</v>
-      </c>
-      <c r="F99" t="s">
-        <v>421</v>
-      </c>
-      <c r="G99" t="s">
-        <v>0</v>
-      </c>
-      <c r="H99" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
-        <v>0</v>
-      </c>
-      <c r="J99" t="s">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>-2.87</v>
-      </c>
-      <c r="L99" t="s">
-        <v>54</v>
-      </c>
-      <c r="M99" s="1">
-        <v>45884</v>
-      </c>
       <c r="N99">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O99" t="s">
         <v>55</v>
@@ -12536,24 +12665,24 @@
         <v>0</v>
       </c>
       <c r="R99">
-        <v>186905975156</v>
-      </c>
-      <c r="S99" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S99">
+        <v>10073874983025</v>
       </c>
       <c r="T99" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="U99" t="s">
-        <v>0</v>
-      </c>
-      <c r="V99" t="s">
-        <v>0</v>
-      </c>
-      <c r="W99" t="s">
-        <v>0</v>
-      </c>
-      <c r="X99" t="s">
+        <v>93</v>
+      </c>
+      <c r="V99">
+        <v>1</v>
+      </c>
+      <c r="W99">
+        <v>52.99</v>
+      </c>
+      <c r="X99">
         <v>0</v>
       </c>
       <c r="Y99" t="s">
@@ -12565,17 +12694,17 @@
       <c r="AA99" s="2">
         <v>0</v>
       </c>
-      <c r="AB99" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC99" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD99" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE99" t="s">
-        <v>0</v>
+      <c r="AB99">
+        <v>-0.36</v>
+      </c>
+      <c r="AC99">
+        <v>-6.94</v>
+      </c>
+      <c r="AD99">
+        <v>-0.23</v>
+      </c>
+      <c r="AE99">
+        <v>-2.54</v>
       </c>
       <c r="AF99" t="s">
         <v>0</v>
@@ -12584,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="AH99">
-        <v>-2.87</v>
+        <v>52.99</v>
       </c>
       <c r="AI99" t="s">
         <v>54</v>
@@ -12593,54 +12722,54 @@
         <v>0</v>
       </c>
       <c r="AK99" t="s">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="AL99" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" t="s">
+        <v>351</v>
+      </c>
+      <c r="D100" t="s">
+        <v>351</v>
+      </c>
+      <c r="E100" t="s">
+        <v>352</v>
+      </c>
+      <c r="F100" t="s">
+        <v>353</v>
+      </c>
+      <c r="G100" t="s">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>-1.55</v>
+      </c>
+      <c r="L100" t="s">
+        <v>54</v>
+      </c>
+      <c r="M100" s="1">
         <v>45883</v>
       </c>
-      <c r="B100" t="s">
-        <v>52</v>
-      </c>
-      <c r="C100" t="s">
-        <v>419</v>
-      </c>
-      <c r="D100" t="s">
-        <v>419</v>
-      </c>
-      <c r="E100" t="s">
-        <v>420</v>
-      </c>
-      <c r="F100" t="s">
-        <v>421</v>
-      </c>
-      <c r="G100" t="s">
-        <v>423</v>
-      </c>
-      <c r="H100" t="s">
-        <v>424</v>
-      </c>
-      <c r="I100" t="s">
-        <v>425</v>
-      </c>
-      <c r="J100" t="s">
-        <v>53</v>
-      </c>
-      <c r="K100">
-        <v>17.84</v>
-      </c>
-      <c r="L100" t="s">
-        <v>54</v>
-      </c>
-      <c r="M100" s="1">
-        <v>45884</v>
-      </c>
       <c r="N100">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O100" t="s">
         <v>55</v>
@@ -12652,24 +12781,24 @@
         <v>0</v>
       </c>
       <c r="R100">
-        <v>186905975156</v>
-      </c>
-      <c r="S100">
-        <v>10074059702720</v>
+        <v>187473672410</v>
+      </c>
+      <c r="S100" t="s">
+        <v>0</v>
       </c>
       <c r="T100" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="U100" t="s">
-        <v>372</v>
-      </c>
-      <c r="V100">
-        <v>1</v>
-      </c>
-      <c r="W100">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="X100">
+        <v>0</v>
+      </c>
+      <c r="V100" t="s">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>0</v>
+      </c>
+      <c r="X100" t="s">
         <v>0</v>
       </c>
       <c r="Y100" t="s">
@@ -12681,14 +12810,14 @@
       <c r="AA100" s="2">
         <v>0</v>
       </c>
-      <c r="AB100">
-        <v>-0.36</v>
-      </c>
-      <c r="AC100">
-        <v>-1.66</v>
-      </c>
-      <c r="AD100">
-        <v>-0.08</v>
+      <c r="AB100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD100" t="s">
+        <v>0</v>
       </c>
       <c r="AE100" t="s">
         <v>0</v>
@@ -12700,7 +12829,7 @@
         <v>0</v>
       </c>
       <c r="AH100">
-        <v>19.940000000000001</v>
+        <v>-1.55</v>
       </c>
       <c r="AI100" t="s">
         <v>54</v>
@@ -12709,54 +12838,54 @@
         <v>0</v>
       </c>
       <c r="AK100" t="s">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="AL100" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B101" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" t="s">
+        <v>351</v>
+      </c>
+      <c r="D101" t="s">
+        <v>351</v>
+      </c>
+      <c r="E101" t="s">
+        <v>352</v>
+      </c>
+      <c r="F101" t="s">
+        <v>353</v>
+      </c>
+      <c r="G101" t="s">
+        <v>355</v>
+      </c>
+      <c r="H101" t="s">
+        <v>356</v>
+      </c>
+      <c r="I101" t="s">
+        <v>357</v>
+      </c>
+      <c r="J101" t="s">
+        <v>53</v>
+      </c>
+      <c r="K101">
+        <v>12.06</v>
+      </c>
+      <c r="L101" t="s">
+        <v>54</v>
+      </c>
+      <c r="M101" s="1">
         <v>45883</v>
       </c>
-      <c r="B101" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" t="s">
-        <v>426</v>
-      </c>
-      <c r="D101" t="s">
-        <v>426</v>
-      </c>
-      <c r="E101" t="s">
-        <v>427</v>
-      </c>
-      <c r="F101" t="s">
-        <v>428</v>
-      </c>
-      <c r="G101" t="s">
-        <v>0</v>
-      </c>
-      <c r="H101" t="s">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>0</v>
-      </c>
-      <c r="J101" t="s">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>-2.66</v>
-      </c>
-      <c r="L101" t="s">
-        <v>54</v>
-      </c>
-      <c r="M101" s="1">
-        <v>45884</v>
-      </c>
       <c r="N101">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O101" t="s">
         <v>55</v>
@@ -12768,24 +12897,24 @@
         <v>0</v>
       </c>
       <c r="R101">
-        <v>187483035573</v>
-      </c>
-      <c r="S101" t="s">
-        <v>0</v>
+        <v>187473672410</v>
+      </c>
+      <c r="S101">
+        <v>10073874388525</v>
       </c>
       <c r="T101" t="s">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="U101" t="s">
-        <v>0</v>
-      </c>
-      <c r="V101" t="s">
-        <v>0</v>
-      </c>
-      <c r="W101" t="s">
-        <v>0</v>
-      </c>
-      <c r="X101" t="s">
+        <v>148</v>
+      </c>
+      <c r="V101">
+        <v>1</v>
+      </c>
+      <c r="W101">
+        <v>14.35</v>
+      </c>
+      <c r="X101">
         <v>0</v>
       </c>
       <c r="Y101" t="s">
@@ -12797,14 +12926,14 @@
       <c r="AA101" s="2">
         <v>0</v>
       </c>
-      <c r="AB101" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC101" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD101" t="s">
-        <v>0</v>
+      <c r="AB101">
+        <v>-0.36</v>
+      </c>
+      <c r="AC101">
+        <v>-1.87</v>
+      </c>
+      <c r="AD101">
+        <v>-0.06</v>
       </c>
       <c r="AE101" t="s">
         <v>0</v>
@@ -12816,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="AH101">
-        <v>-2.66</v>
+        <v>14.35</v>
       </c>
       <c r="AI101" t="s">
         <v>54</v>
@@ -12825,54 +12954,54 @@
         <v>0</v>
       </c>
       <c r="AK101" t="s">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="AL101" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C102" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" t="s">
+        <v>236</v>
+      </c>
+      <c r="E102" t="s">
+        <v>237</v>
+      </c>
+      <c r="F102" t="s">
+        <v>238</v>
+      </c>
+      <c r="G102" t="s">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>-3.47</v>
+      </c>
+      <c r="L102" t="s">
+        <v>54</v>
+      </c>
+      <c r="M102" s="1">
         <v>45883</v>
       </c>
-      <c r="B102" t="s">
-        <v>52</v>
-      </c>
-      <c r="C102" t="s">
-        <v>426</v>
-      </c>
-      <c r="D102" t="s">
-        <v>426</v>
-      </c>
-      <c r="E102" t="s">
-        <v>427</v>
-      </c>
-      <c r="F102" t="s">
-        <v>428</v>
-      </c>
-      <c r="G102" t="s">
-        <v>430</v>
-      </c>
-      <c r="H102" t="s">
-        <v>431</v>
-      </c>
-      <c r="I102" t="s">
-        <v>432</v>
-      </c>
-      <c r="J102" t="s">
-        <v>53</v>
-      </c>
-      <c r="K102">
-        <v>16.98</v>
-      </c>
-      <c r="L102" t="s">
-        <v>54</v>
-      </c>
-      <c r="M102" s="1">
-        <v>45884</v>
-      </c>
       <c r="N102">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O102" t="s">
         <v>55</v>
@@ -12884,24 +13013,24 @@
         <v>0</v>
       </c>
       <c r="R102">
-        <v>187483035573</v>
-      </c>
-      <c r="S102">
-        <v>10074813066811</v>
+        <v>187483437282</v>
+      </c>
+      <c r="S102" t="s">
+        <v>0</v>
       </c>
       <c r="T102" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>372</v>
-      </c>
-      <c r="V102">
-        <v>1</v>
-      </c>
-      <c r="W102">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="X102">
+        <v>0</v>
+      </c>
+      <c r="V102" t="s">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>0</v>
+      </c>
+      <c r="X102" t="s">
         <v>0</v>
       </c>
       <c r="Y102" t="s">
@@ -12913,14 +13042,14 @@
       <c r="AA102" s="2">
         <v>0</v>
       </c>
-      <c r="AB102">
-        <v>-0.36</v>
-      </c>
-      <c r="AC102">
-        <v>-1.57</v>
-      </c>
-      <c r="AD102">
-        <v>-0.08</v>
+      <c r="AB102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>0</v>
       </c>
       <c r="AE102" t="s">
         <v>0</v>
@@ -12932,7 +13061,7 @@
         <v>0</v>
       </c>
       <c r="AH102">
-        <v>18.989999999999998</v>
+        <v>-3.47</v>
       </c>
       <c r="AI102" t="s">
         <v>54</v>
@@ -12941,54 +13070,54 @@
         <v>0</v>
       </c>
       <c r="AK102" t="s">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="AL102" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="103" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B103" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" t="s">
+        <v>359</v>
+      </c>
+      <c r="D103" t="s">
+        <v>359</v>
+      </c>
+      <c r="E103" t="s">
+        <v>360</v>
+      </c>
+      <c r="F103" t="s">
+        <v>361</v>
+      </c>
+      <c r="G103" t="s">
+        <v>362</v>
+      </c>
+      <c r="H103" t="s">
+        <v>363</v>
+      </c>
+      <c r="I103" t="s">
+        <v>364</v>
+      </c>
+      <c r="J103" t="s">
+        <v>53</v>
+      </c>
+      <c r="K103">
+        <v>6.36</v>
+      </c>
+      <c r="L103" t="s">
+        <v>54</v>
+      </c>
+      <c r="M103" s="1">
         <v>45883</v>
       </c>
-      <c r="B103" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" t="s">
-        <v>433</v>
-      </c>
-      <c r="D103" t="s">
-        <v>433</v>
-      </c>
-      <c r="E103" t="s">
-        <v>434</v>
-      </c>
-      <c r="F103" t="s">
-        <v>435</v>
-      </c>
-      <c r="G103" t="s">
-        <v>0</v>
-      </c>
-      <c r="H103" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
-        <v>0</v>
-      </c>
-      <c r="J103" t="s">
-        <v>0</v>
-      </c>
-      <c r="K103">
-        <v>-1.88</v>
-      </c>
-      <c r="L103" t="s">
-        <v>54</v>
-      </c>
-      <c r="M103" s="1">
-        <v>45884</v>
-      </c>
       <c r="N103">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O103" t="s">
         <v>55</v>
@@ -13000,24 +13129,24 @@
         <v>0</v>
       </c>
       <c r="R103">
-        <v>187473651729</v>
-      </c>
-      <c r="S103" t="s">
-        <v>0</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S103">
+        <v>10073869813626</v>
       </c>
       <c r="T103" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="U103" t="s">
-        <v>0</v>
-      </c>
-      <c r="V103" t="s">
-        <v>0</v>
-      </c>
-      <c r="W103" t="s">
-        <v>0</v>
-      </c>
-      <c r="X103" t="s">
+        <v>281</v>
+      </c>
+      <c r="V103">
+        <v>1</v>
+      </c>
+      <c r="W103">
+        <v>7.6</v>
+      </c>
+      <c r="X103">
         <v>0</v>
       </c>
       <c r="Y103" t="s">
@@ -13029,14 +13158,14 @@
       <c r="AA103" s="2">
         <v>0</v>
       </c>
-      <c r="AB103" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC103" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD103" t="s">
-        <v>0</v>
+      <c r="AB103">
+        <v>-0.12</v>
+      </c>
+      <c r="AC103">
+        <v>-1.08</v>
+      </c>
+      <c r="AD103">
+        <v>-0.04</v>
       </c>
       <c r="AE103" t="s">
         <v>0</v>
@@ -13048,7 +13177,7 @@
         <v>0</v>
       </c>
       <c r="AH103">
-        <v>-1.88</v>
+        <v>7.6</v>
       </c>
       <c r="AI103" t="s">
         <v>54</v>
@@ -13057,30 +13186,30 @@
         <v>0</v>
       </c>
       <c r="AK103" t="s">
-        <v>436</v>
+        <v>0</v>
       </c>
       <c r="AL103" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B104" t="s">
         <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D104" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="E104" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="F104" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G104" t="s">
         <v>0</v>
@@ -13095,16 +13224,16 @@
         <v>0</v>
       </c>
       <c r="K104">
-        <v>-1.19</v>
+        <v>-2.64</v>
       </c>
       <c r="L104" t="s">
         <v>54</v>
       </c>
       <c r="M104" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N104">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O104" t="s">
         <v>55</v>
@@ -13116,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="R104">
-        <v>187480578811</v>
+        <v>186821155525</v>
       </c>
       <c r="S104" t="s">
         <v>0</v>
@@ -13164,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="AH104">
-        <v>-1.19</v>
+        <v>-2.64</v>
       </c>
       <c r="AI104" t="s">
         <v>54</v>
@@ -13173,7 +13302,7 @@
         <v>0</v>
       </c>
       <c r="AK104" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="AL104" t="s">
         <v>59</v>
@@ -13181,46 +13310,46 @@
     </row>
     <row r="105" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B105" t="s">
         <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="D105" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
       <c r="E105" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="F105" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="G105" t="s">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="H105" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="J105" t="s">
         <v>53</v>
       </c>
       <c r="K105">
-        <v>15.61</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="L105" t="s">
         <v>54</v>
       </c>
       <c r="M105" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N105">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O105" t="s">
         <v>55</v>
@@ -13232,22 +13361,22 @@
         <v>0</v>
       </c>
       <c r="R105">
-        <v>187473651729</v>
+        <v>186821155525</v>
       </c>
       <c r="S105">
-        <v>10074726327214</v>
+        <v>10074701081916</v>
       </c>
       <c r="T105" t="s">
-        <v>74</v>
+        <v>371</v>
       </c>
       <c r="U105" t="s">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="V105">
         <v>1</v>
       </c>
       <c r="W105">
-        <v>17.489999999999998</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="X105">
         <v>0</v>
@@ -13265,7 +13394,7 @@
         <v>-0.36</v>
       </c>
       <c r="AC105">
-        <v>-1.45</v>
+        <v>-1.52</v>
       </c>
       <c r="AD105">
         <v>-7.0000000000000007E-2</v>
@@ -13280,7 +13409,7 @@
         <v>0</v>
       </c>
       <c r="AH105">
-        <v>17.489999999999998</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="AI105" t="s">
         <v>54</v>
@@ -13297,22 +13426,22 @@
     </row>
     <row r="106" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B106" t="s">
         <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="D106" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="E106" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="F106" t="s">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="G106" t="s">
         <v>0</v>
@@ -13327,16 +13456,16 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>-3.18</v>
+        <v>-1.42</v>
       </c>
       <c r="L106" t="s">
         <v>54</v>
       </c>
       <c r="M106" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N106">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O106" t="s">
         <v>55</v>
@@ -13348,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="R106">
-        <v>187483349258</v>
+        <v>187473655879</v>
       </c>
       <c r="S106" t="s">
         <v>0</v>
@@ -13396,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="AH106">
-        <v>-3.18</v>
+        <v>-1.42</v>
       </c>
       <c r="AI106" t="s">
         <v>54</v>
@@ -13405,7 +13534,7 @@
         <v>0</v>
       </c>
       <c r="AK106" t="s">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="AL106" t="s">
         <v>59</v>
@@ -13413,46 +13542,46 @@
     </row>
     <row r="107" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B107" t="s">
         <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="D107" t="s">
-        <v>440</v>
+        <v>373</v>
       </c>
       <c r="E107" t="s">
-        <v>441</v>
+        <v>374</v>
       </c>
       <c r="F107" t="s">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="G107" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
       <c r="H107" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="J107" t="s">
         <v>53</v>
       </c>
       <c r="K107">
-        <v>17.11</v>
+        <v>7.7</v>
       </c>
       <c r="L107" t="s">
         <v>54</v>
       </c>
       <c r="M107" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N107">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O107" t="s">
         <v>55</v>
@@ -13464,22 +13593,22 @@
         <v>0</v>
       </c>
       <c r="R107">
-        <v>187483349258</v>
+        <v>187473655879</v>
       </c>
       <c r="S107">
-        <v>10074757908710</v>
+        <v>10074659144219</v>
       </c>
       <c r="T107" t="s">
-        <v>445</v>
+        <v>165</v>
       </c>
       <c r="U107" t="s">
-        <v>446</v>
+        <v>166</v>
       </c>
       <c r="V107">
         <v>1</v>
       </c>
       <c r="W107">
-        <v>21.37</v>
+        <v>9.85</v>
       </c>
       <c r="X107">
         <v>0</v>
@@ -13497,13 +13626,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC107">
-        <v>-2.8</v>
+        <v>-1.28</v>
       </c>
       <c r="AD107">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AE107">
-        <v>-1.02</v>
+        <v>-0.47</v>
       </c>
       <c r="AF107" t="s">
         <v>0</v>
@@ -13512,7 +13641,7 @@
         <v>0</v>
       </c>
       <c r="AH107">
-        <v>21.37</v>
+        <v>9.85</v>
       </c>
       <c r="AI107" t="s">
         <v>54</v>
@@ -13529,22 +13658,22 @@
     </row>
     <row r="108" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B108" t="s">
         <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="D108" t="s">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="E108" t="s">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="F108" t="s">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="G108" t="s">
         <v>0</v>
@@ -13559,16 +13688,16 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>-0.12</v>
+        <v>-1.7</v>
       </c>
       <c r="L108" t="s">
         <v>54</v>
       </c>
       <c r="M108" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N108">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O108" t="s">
         <v>55</v>
@@ -13580,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="R108">
-        <v>187488931137</v>
+        <v>187473651729</v>
       </c>
       <c r="S108" t="s">
         <v>0</v>
@@ -13628,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="AH108">
-        <v>-0.12</v>
+        <v>-1.7</v>
       </c>
       <c r="AI108" t="s">
         <v>54</v>
@@ -13637,54 +13766,54 @@
         <v>0</v>
       </c>
       <c r="AK108" t="s">
-        <v>447</v>
+        <v>382</v>
       </c>
       <c r="AL108" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B109" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" t="s">
+        <v>379</v>
+      </c>
+      <c r="D109" t="s">
+        <v>379</v>
+      </c>
+      <c r="E109" t="s">
+        <v>380</v>
+      </c>
+      <c r="F109" t="s">
+        <v>381</v>
+      </c>
+      <c r="G109" t="s">
+        <v>383</v>
+      </c>
+      <c r="H109" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>384</v>
+      </c>
+      <c r="J109" t="s">
+        <v>53</v>
+      </c>
+      <c r="K109">
+        <v>14</v>
+      </c>
+      <c r="L109" t="s">
+        <v>54</v>
+      </c>
+      <c r="M109" s="1">
         <v>45883</v>
       </c>
-      <c r="B109" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" t="s">
-        <v>448</v>
-      </c>
-      <c r="D109" t="s">
-        <v>448</v>
-      </c>
-      <c r="E109" t="s">
-        <v>449</v>
-      </c>
-      <c r="F109" t="s">
-        <v>450</v>
-      </c>
-      <c r="G109" t="s">
-        <v>0</v>
-      </c>
-      <c r="H109" t="s">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
-        <v>0</v>
-      </c>
-      <c r="J109" t="s">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>-1.88</v>
-      </c>
-      <c r="L109" t="s">
-        <v>54</v>
-      </c>
-      <c r="M109" s="1">
-        <v>45884</v>
-      </c>
       <c r="N109">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O109" t="s">
         <v>55</v>
@@ -13698,22 +13827,22 @@
       <c r="R109">
         <v>187473651729</v>
       </c>
-      <c r="S109" t="s">
-        <v>0</v>
+      <c r="S109">
+        <v>10074780322411</v>
       </c>
       <c r="T109" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="U109" t="s">
-        <v>0</v>
-      </c>
-      <c r="V109" t="s">
-        <v>0</v>
-      </c>
-      <c r="W109" t="s">
-        <v>0</v>
-      </c>
-      <c r="X109" t="s">
+        <v>75</v>
+      </c>
+      <c r="V109">
+        <v>1</v>
+      </c>
+      <c r="W109">
+        <v>15.74</v>
+      </c>
+      <c r="X109">
         <v>0</v>
       </c>
       <c r="Y109" t="s">
@@ -13725,14 +13854,14 @@
       <c r="AA109" s="2">
         <v>0</v>
       </c>
-      <c r="AB109" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC109" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD109" t="s">
-        <v>0</v>
+      <c r="AB109">
+        <v>-0.36</v>
+      </c>
+      <c r="AC109">
+        <v>-1.31</v>
+      </c>
+      <c r="AD109">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE109" t="s">
         <v>0</v>
@@ -13744,7 +13873,7 @@
         <v>0</v>
       </c>
       <c r="AH109">
-        <v>-1.88</v>
+        <v>15.74</v>
       </c>
       <c r="AI109" t="s">
         <v>54</v>
@@ -13753,54 +13882,54 @@
         <v>0</v>
       </c>
       <c r="AK109" t="s">
-        <v>451</v>
+        <v>0</v>
       </c>
       <c r="AL109" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B110" t="s">
+        <v>58</v>
+      </c>
+      <c r="C110" t="s">
+        <v>385</v>
+      </c>
+      <c r="D110" t="s">
+        <v>385</v>
+      </c>
+      <c r="E110" t="s">
+        <v>386</v>
+      </c>
+      <c r="F110" t="s">
+        <v>387</v>
+      </c>
+      <c r="G110" t="s">
+        <v>0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>-1.7</v>
+      </c>
+      <c r="L110" t="s">
+        <v>54</v>
+      </c>
+      <c r="M110" s="1">
         <v>45883</v>
       </c>
-      <c r="B110" t="s">
-        <v>52</v>
-      </c>
-      <c r="C110" t="s">
-        <v>448</v>
-      </c>
-      <c r="D110" t="s">
-        <v>448</v>
-      </c>
-      <c r="E110" t="s">
-        <v>449</v>
-      </c>
-      <c r="F110" t="s">
-        <v>450</v>
-      </c>
-      <c r="G110" t="s">
-        <v>452</v>
-      </c>
-      <c r="H110" t="s">
-        <v>62</v>
-      </c>
-      <c r="I110" t="s">
-        <v>453</v>
-      </c>
-      <c r="J110" t="s">
-        <v>53</v>
-      </c>
-      <c r="K110">
-        <v>15.61</v>
-      </c>
-      <c r="L110" t="s">
-        <v>54</v>
-      </c>
-      <c r="M110" s="1">
-        <v>45884</v>
-      </c>
       <c r="N110">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O110" t="s">
         <v>55</v>
@@ -13814,22 +13943,22 @@
       <c r="R110">
         <v>187473651729</v>
       </c>
-      <c r="S110">
-        <v>10074805403811</v>
+      <c r="S110" t="s">
+        <v>0</v>
       </c>
       <c r="T110" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U110" t="s">
-        <v>75</v>
-      </c>
-      <c r="V110">
-        <v>1</v>
-      </c>
-      <c r="W110">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="V110" t="s">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>0</v>
+      </c>
+      <c r="X110" t="s">
         <v>0</v>
       </c>
       <c r="Y110" t="s">
@@ -13841,14 +13970,14 @@
       <c r="AA110" s="2">
         <v>0</v>
       </c>
-      <c r="AB110">
-        <v>-0.36</v>
-      </c>
-      <c r="AC110">
-        <v>-1.45</v>
-      </c>
-      <c r="AD110">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD110" t="s">
+        <v>0</v>
       </c>
       <c r="AE110" t="s">
         <v>0</v>
@@ -13860,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="AH110">
-        <v>17.489999999999998</v>
+        <v>-1.7</v>
       </c>
       <c r="AI110" t="s">
         <v>54</v>
@@ -13869,30 +13998,30 @@
         <v>0</v>
       </c>
       <c r="AK110" t="s">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="AL110" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="111" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B111" t="s">
         <v>58</v>
       </c>
       <c r="C111" t="s">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="F111" t="s">
-        <v>456</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>0</v>
@@ -13907,16 +14036,16 @@
         <v>0</v>
       </c>
       <c r="K111">
-        <v>-3.64</v>
+        <v>-0.12</v>
       </c>
       <c r="L111" t="s">
         <v>54</v>
       </c>
       <c r="M111" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N111">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O111" t="s">
         <v>55</v>
@@ -13928,7 +14057,7 @@
         <v>0</v>
       </c>
       <c r="R111">
-        <v>187473659746</v>
+        <v>187473657371</v>
       </c>
       <c r="S111" t="s">
         <v>0</v>
@@ -13976,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="AH111">
-        <v>-3.64</v>
+        <v>-0.12</v>
       </c>
       <c r="AI111" t="s">
         <v>54</v>
@@ -13985,54 +14114,54 @@
         <v>0</v>
       </c>
       <c r="AK111" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
       <c r="AL111" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
     </row>
     <row r="112" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B112" t="s">
         <v>52</v>
       </c>
       <c r="C112" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="D112" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="E112" t="s">
-        <v>455</v>
+        <v>386</v>
       </c>
       <c r="F112" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="G112" t="s">
-        <v>145</v>
+        <v>390</v>
       </c>
       <c r="H112" t="s">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="I112" t="s">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="J112" t="s">
         <v>53</v>
       </c>
       <c r="K112">
-        <v>23.12</v>
+        <v>14</v>
       </c>
       <c r="L112" t="s">
         <v>54</v>
       </c>
       <c r="M112" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N112">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O112" t="s">
         <v>55</v>
@@ -14044,22 +14173,22 @@
         <v>0</v>
       </c>
       <c r="R112">
-        <v>187473659746</v>
+        <v>187473651729</v>
       </c>
       <c r="S112">
-        <v>10074723358115</v>
+        <v>10074605238004</v>
       </c>
       <c r="T112" t="s">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="U112" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="V112">
         <v>1</v>
       </c>
       <c r="W112">
-        <v>27.54</v>
+        <v>15.74</v>
       </c>
       <c r="X112">
         <v>0</v>
@@ -14077,10 +14206,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC112">
-        <v>-3.94</v>
+        <v>-1.31</v>
       </c>
       <c r="AD112">
-        <v>-0.12</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE112" t="s">
         <v>0</v>
@@ -14092,7 +14221,7 @@
         <v>0</v>
       </c>
       <c r="AH112">
-        <v>27.54</v>
+        <v>15.74</v>
       </c>
       <c r="AI112" t="s">
         <v>54</v>
@@ -14109,7 +14238,7 @@
     </row>
     <row r="113" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B113" t="s">
         <v>58</v>
@@ -14145,10 +14274,10 @@
         <v>54</v>
       </c>
       <c r="M113" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N113">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O113" t="s">
         <v>55</v>
@@ -14160,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="R113">
-        <v>187488536001</v>
+        <v>187480927897</v>
       </c>
       <c r="S113" t="s">
         <v>0</v>
@@ -14217,7 +14346,7 @@
         <v>0</v>
       </c>
       <c r="AK113" t="s">
-        <v>459</v>
+        <v>392</v>
       </c>
       <c r="AL113" t="s">
         <v>287</v>
@@ -14225,22 +14354,22 @@
     </row>
     <row r="114" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B114" t="s">
         <v>58</v>
       </c>
       <c r="C114" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="D114" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="E114" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="F114" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="G114" t="s">
         <v>0</v>
@@ -14255,16 +14384,16 @@
         <v>0</v>
       </c>
       <c r="K114">
-        <v>-1.88</v>
+        <v>1.68</v>
       </c>
       <c r="L114" t="s">
         <v>54</v>
       </c>
       <c r="M114" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N114">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O114" t="s">
         <v>55</v>
@@ -14276,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="R114">
-        <v>187473651729</v>
+        <v>186905975156</v>
       </c>
       <c r="S114" t="s">
         <v>0</v>
@@ -14324,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="AH114">
-        <v>-1.88</v>
+        <v>1.68</v>
       </c>
       <c r="AI114" t="s">
         <v>54</v>
@@ -14333,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="AK114" t="s">
-        <v>463</v>
+        <v>396</v>
       </c>
       <c r="AL114" t="s">
         <v>59</v>
@@ -14341,46 +14470,46 @@
     </row>
     <row r="115" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>397</v>
       </c>
       <c r="C115" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="D115" t="s">
-        <v>460</v>
+        <v>393</v>
       </c>
       <c r="E115" t="s">
-        <v>461</v>
+        <v>394</v>
       </c>
       <c r="F115" t="s">
-        <v>462</v>
+        <v>395</v>
       </c>
       <c r="G115" t="s">
-        <v>464</v>
+        <v>398</v>
       </c>
       <c r="H115" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="I115" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="J115" t="s">
         <v>53</v>
       </c>
       <c r="K115">
-        <v>15.61</v>
+        <v>-10.29</v>
       </c>
       <c r="L115" t="s">
         <v>54</v>
       </c>
       <c r="M115" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="N115">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O115" t="s">
         <v>55</v>
@@ -14391,25 +14520,25 @@
       <c r="Q115" t="s">
         <v>0</v>
       </c>
-      <c r="R115">
-        <v>187473651729</v>
-      </c>
-      <c r="S115">
-        <v>10074273968605</v>
+      <c r="R115" t="s">
+        <v>0</v>
+      </c>
+      <c r="S115" t="s">
+        <v>0</v>
       </c>
       <c r="T115" t="s">
-        <v>74</v>
+        <v>265</v>
       </c>
       <c r="U115" t="s">
-        <v>75</v>
-      </c>
-      <c r="V115">
-        <v>1</v>
-      </c>
-      <c r="W115">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="X115">
+        <v>401</v>
+      </c>
+      <c r="V115" t="s">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s">
+        <v>0</v>
+      </c>
+      <c r="X115" t="s">
         <v>0</v>
       </c>
       <c r="Y115" t="s">
@@ -14422,13 +14551,13 @@
         <v>0</v>
       </c>
       <c r="AB115">
-        <v>-0.36</v>
+        <v>0.36</v>
       </c>
       <c r="AC115">
-        <v>-1.45</v>
+        <v>0.97</v>
       </c>
       <c r="AD115">
-        <v>-7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
       <c r="AE115" t="s">
         <v>0</v>
@@ -14440,7 +14569,7 @@
         <v>0</v>
       </c>
       <c r="AH115">
-        <v>17.489999999999998</v>
+        <v>-11.67</v>
       </c>
       <c r="AI115" t="s">
         <v>54</v>
@@ -14449,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="AK115" t="s">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="AL115" t="s">
         <v>0</v>
@@ -14457,43 +14586,43 @@
     </row>
     <row r="116" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
+        <v>45882</v>
+      </c>
+      <c r="B116" t="s">
+        <v>58</v>
+      </c>
+      <c r="C116" t="s">
+        <v>393</v>
+      </c>
+      <c r="D116" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116" t="s">
+        <v>394</v>
+      </c>
+      <c r="F116" t="s">
+        <v>395</v>
+      </c>
+      <c r="G116" t="s">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>-1.68</v>
+      </c>
+      <c r="L116" t="s">
+        <v>54</v>
+      </c>
+      <c r="M116" s="1">
         <v>45883</v>
-      </c>
-      <c r="B116" t="s">
-        <v>64</v>
-      </c>
-      <c r="C116" t="s">
-        <v>0</v>
-      </c>
-      <c r="D116" t="s">
-        <v>0</v>
-      </c>
-      <c r="E116" t="s">
-        <v>0</v>
-      </c>
-      <c r="F116" t="s">
-        <v>0</v>
-      </c>
-      <c r="G116" t="s">
-        <v>0</v>
-      </c>
-      <c r="H116" t="s">
-        <v>0</v>
-      </c>
-      <c r="I116" t="s">
-        <v>0</v>
-      </c>
-      <c r="J116" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116">
-        <v>-150.88999999999999</v>
-      </c>
-      <c r="L116" t="s">
-        <v>54</v>
-      </c>
-      <c r="M116" t="s">
-        <v>0</v>
       </c>
       <c r="N116">
         <v>7022519579</v>
@@ -14507,8 +14636,8 @@
       <c r="Q116" t="s">
         <v>0</v>
       </c>
-      <c r="R116" t="s">
-        <v>0</v>
+      <c r="R116">
+        <v>186905975156</v>
       </c>
       <c r="S116" t="s">
         <v>0</v>
@@ -14556,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="AH116">
-        <v>-150.88999999999999</v>
+        <v>-1.68</v>
       </c>
       <c r="AI116" t="s">
         <v>54</v>
@@ -14565,10 +14694,10 @@
         <v>0</v>
       </c>
       <c r="AK116" t="s">
-        <v>345</v>
+        <v>403</v>
       </c>
       <c r="AL116" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="117" spans="1:38" x14ac:dyDescent="0.25">
@@ -14576,34 +14705,34 @@
         <v>45882</v>
       </c>
       <c r="B117" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="D117" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="E117" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="F117" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="G117" t="s">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="H117" t="s">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="I117" t="s">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J117" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K117">
-        <v>-7.94</v>
+        <v>10.29</v>
       </c>
       <c r="L117" t="s">
         <v>54</v>
@@ -14624,24 +14753,24 @@
         <v>0</v>
       </c>
       <c r="R117">
-        <v>187473652251</v>
-      </c>
-      <c r="S117" t="s">
-        <v>0</v>
+        <v>186905975156</v>
+      </c>
+      <c r="S117">
+        <v>10078217174827</v>
       </c>
       <c r="T117" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="U117" t="s">
-        <v>0</v>
-      </c>
-      <c r="V117" t="s">
-        <v>0</v>
-      </c>
-      <c r="W117" t="s">
-        <v>0</v>
-      </c>
-      <c r="X117" t="s">
+        <v>401</v>
+      </c>
+      <c r="V117">
+        <v>1</v>
+      </c>
+      <c r="W117">
+        <v>11.67</v>
+      </c>
+      <c r="X117">
         <v>0</v>
       </c>
       <c r="Y117" t="s">
@@ -14653,14 +14782,14 @@
       <c r="AA117" s="2">
         <v>0</v>
       </c>
-      <c r="AB117" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC117" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD117" t="s">
-        <v>0</v>
+      <c r="AB117">
+        <v>-0.36</v>
+      </c>
+      <c r="AC117">
+        <v>-0.97</v>
+      </c>
+      <c r="AD117">
+        <v>-0.05</v>
       </c>
       <c r="AE117" t="s">
         <v>0</v>
@@ -14672,7 +14801,7 @@
         <v>0</v>
       </c>
       <c r="AH117">
-        <v>-7.94</v>
+        <v>11.67</v>
       </c>
       <c r="AI117" t="s">
         <v>54</v>
@@ -14681,10 +14810,10 @@
         <v>0</v>
       </c>
       <c r="AK117" t="s">
-        <v>349</v>
+        <v>0</v>
       </c>
       <c r="AL117" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:38" x14ac:dyDescent="0.25">
@@ -14692,34 +14821,34 @@
         <v>45882</v>
       </c>
       <c r="B118" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="D118" t="s">
-        <v>346</v>
+        <v>404</v>
       </c>
       <c r="E118" t="s">
-        <v>347</v>
+        <v>405</v>
       </c>
       <c r="F118" t="s">
-        <v>348</v>
+        <v>406</v>
       </c>
       <c r="G118" t="s">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K118">
-        <v>42.92</v>
+        <v>-1.68</v>
       </c>
       <c r="L118" t="s">
         <v>54</v>
@@ -14740,24 +14869,24 @@
         <v>0</v>
       </c>
       <c r="R118">
-        <v>187473652251</v>
-      </c>
-      <c r="S118">
-        <v>10073874983025</v>
+        <v>186821285299</v>
+      </c>
+      <c r="S118" t="s">
+        <v>0</v>
       </c>
       <c r="T118" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="U118" t="s">
-        <v>93</v>
-      </c>
-      <c r="V118">
-        <v>1</v>
-      </c>
-      <c r="W118">
-        <v>52.99</v>
-      </c>
-      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="V118" t="s">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s">
+        <v>0</v>
+      </c>
+      <c r="X118" t="s">
         <v>0</v>
       </c>
       <c r="Y118" t="s">
@@ -14769,17 +14898,17 @@
       <c r="AA118" s="2">
         <v>0</v>
       </c>
-      <c r="AB118">
-        <v>-0.36</v>
-      </c>
-      <c r="AC118">
-        <v>-6.94</v>
-      </c>
-      <c r="AD118">
-        <v>-0.23</v>
-      </c>
-      <c r="AE118">
-        <v>-2.54</v>
+      <c r="AB118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD118" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE118" t="s">
+        <v>0</v>
       </c>
       <c r="AF118" t="s">
         <v>0</v>
@@ -14788,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="AH118">
-        <v>52.99</v>
+        <v>-1.68</v>
       </c>
       <c r="AI118" t="s">
         <v>54</v>
@@ -14797,10 +14926,10 @@
         <v>0</v>
       </c>
       <c r="AK118" t="s">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="AL118" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="119" spans="1:38" x14ac:dyDescent="0.25">
@@ -14808,34 +14937,34 @@
         <v>45882</v>
       </c>
       <c r="B119" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="D119" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="E119" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="F119" t="s">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="G119" t="s">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="H119" t="s">
-        <v>0</v>
+        <v>212</v>
       </c>
       <c r="I119" t="s">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="J119" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K119">
-        <v>-1.55</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="L119" t="s">
         <v>54</v>
@@ -14856,24 +14985,24 @@
         <v>0</v>
       </c>
       <c r="R119">
-        <v>187473672410</v>
-      </c>
-      <c r="S119" t="s">
-        <v>0</v>
+        <v>186821285299</v>
+      </c>
+      <c r="S119">
+        <v>10074115150901</v>
       </c>
       <c r="T119" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U119" t="s">
-        <v>0</v>
-      </c>
-      <c r="V119" t="s">
-        <v>0</v>
-      </c>
-      <c r="W119" t="s">
-        <v>0</v>
-      </c>
-      <c r="X119" t="s">
+        <v>410</v>
+      </c>
+      <c r="V119">
+        <v>1</v>
+      </c>
+      <c r="W119">
+        <v>11.69</v>
+      </c>
+      <c r="X119">
         <v>0</v>
       </c>
       <c r="Y119" t="s">
@@ -14885,17 +15014,17 @@
       <c r="AA119" s="2">
         <v>0</v>
       </c>
-      <c r="AB119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD119" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE119" t="s">
-        <v>0</v>
+      <c r="AB119">
+        <v>-0.36</v>
+      </c>
+      <c r="AC119">
+        <v>-1.52</v>
+      </c>
+      <c r="AD119">
+        <v>-0.05</v>
+      </c>
+      <c r="AE119">
+        <v>-0.56000000000000005</v>
       </c>
       <c r="AF119" t="s">
         <v>0</v>
@@ -14904,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="AH119">
-        <v>-1.55</v>
+        <v>11.69</v>
       </c>
       <c r="AI119" t="s">
         <v>54</v>
@@ -14913,10 +15042,10 @@
         <v>0</v>
       </c>
       <c r="AK119" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="AL119" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:38" x14ac:dyDescent="0.25">
@@ -14924,34 +15053,34 @@
         <v>45882</v>
       </c>
       <c r="B120" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C120" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="D120" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="E120" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="F120" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="G120" t="s">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>357</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K120">
-        <v>12.06</v>
+        <v>-7.58</v>
       </c>
       <c r="L120" t="s">
         <v>54</v>
@@ -14972,24 +15101,24 @@
         <v>0</v>
       </c>
       <c r="R120">
-        <v>187473672410</v>
-      </c>
-      <c r="S120">
-        <v>10073874388525</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S120" t="s">
+        <v>0</v>
       </c>
       <c r="T120" t="s">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="U120" t="s">
-        <v>148</v>
-      </c>
-      <c r="V120">
-        <v>1</v>
-      </c>
-      <c r="W120">
-        <v>14.35</v>
-      </c>
-      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="V120" t="s">
+        <v>0</v>
+      </c>
+      <c r="W120" t="s">
+        <v>0</v>
+      </c>
+      <c r="X120" t="s">
         <v>0</v>
       </c>
       <c r="Y120" t="s">
@@ -15001,14 +15130,14 @@
       <c r="AA120" s="2">
         <v>0</v>
       </c>
-      <c r="AB120">
-        <v>-0.36</v>
-      </c>
-      <c r="AC120">
-        <v>-1.87</v>
-      </c>
-      <c r="AD120">
-        <v>-0.06</v>
+      <c r="AB120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD120" t="s">
+        <v>0</v>
       </c>
       <c r="AE120" t="s">
         <v>0</v>
@@ -15020,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="AH120">
-        <v>14.35</v>
+        <v>-7.58</v>
       </c>
       <c r="AI120" t="s">
         <v>54</v>
@@ -15029,10 +15158,10 @@
         <v>0</v>
       </c>
       <c r="AK120" t="s">
-        <v>0</v>
+        <v>414</v>
       </c>
       <c r="AL120" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121" spans="1:38" x14ac:dyDescent="0.25">
@@ -15040,34 +15169,34 @@
         <v>45882</v>
       </c>
       <c r="B121" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="D121" t="s">
-        <v>236</v>
+        <v>411</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>413</v>
       </c>
       <c r="G121" t="s">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="H121" t="s">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="I121" t="s">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="J121" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K121">
-        <v>-3.47</v>
+        <v>44.57</v>
       </c>
       <c r="L121" t="s">
         <v>54</v>
@@ -15088,24 +15217,24 @@
         <v>0</v>
       </c>
       <c r="R121">
-        <v>187483437282</v>
-      </c>
-      <c r="S121" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S121">
+        <v>10078216418827</v>
       </c>
       <c r="T121" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="U121" t="s">
-        <v>0</v>
-      </c>
-      <c r="V121" t="s">
-        <v>0</v>
-      </c>
-      <c r="W121" t="s">
-        <v>0</v>
-      </c>
-      <c r="X121" t="s">
+        <v>93</v>
+      </c>
+      <c r="V121">
+        <v>1</v>
+      </c>
+      <c r="W121">
+        <v>54.99</v>
+      </c>
+      <c r="X121">
         <v>0</v>
       </c>
       <c r="Y121" t="s">
@@ -15117,17 +15246,17 @@
       <c r="AA121" s="2">
         <v>0</v>
       </c>
-      <c r="AB121" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC121" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD121" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE121" t="s">
-        <v>0</v>
+      <c r="AB121">
+        <v>-0.36</v>
+      </c>
+      <c r="AC121">
+        <v>-7.19</v>
+      </c>
+      <c r="AD121">
+        <v>-0.23</v>
+      </c>
+      <c r="AE121">
+        <v>-2.64</v>
       </c>
       <c r="AF121" t="s">
         <v>0</v>
@@ -15136,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="AH121">
-        <v>-3.47</v>
+        <v>54.99</v>
       </c>
       <c r="AI121" t="s">
         <v>54</v>
@@ -15145,10 +15274,10 @@
         <v>0</v>
       </c>
       <c r="AK121" t="s">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="AL121" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:38" x14ac:dyDescent="0.25">
@@ -15156,43 +15285,43 @@
         <v>45882</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="D122" t="s">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F122" t="s">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="G122" t="s">
-        <v>362</v>
+        <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="I122" t="s">
-        <v>364</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>6.36</v>
+        <v>-376.65</v>
       </c>
       <c r="L122" t="s">
         <v>54</v>
       </c>
-      <c r="M122" s="1">
-        <v>45883</v>
+      <c r="M122" t="s">
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>7022519579</v>
+        <v>7020218435</v>
       </c>
       <c r="O122" t="s">
         <v>55</v>
@@ -15203,25 +15332,25 @@
       <c r="Q122" t="s">
         <v>0</v>
       </c>
-      <c r="R122">
-        <v>187480578811</v>
-      </c>
-      <c r="S122">
-        <v>10073869813626</v>
+      <c r="R122" t="s">
+        <v>0</v>
+      </c>
+      <c r="S122" t="s">
+        <v>0</v>
       </c>
       <c r="T122" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="U122" t="s">
-        <v>281</v>
-      </c>
-      <c r="V122">
-        <v>1</v>
-      </c>
-      <c r="W122">
-        <v>7.6</v>
-      </c>
-      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="V122" t="s">
+        <v>0</v>
+      </c>
+      <c r="W122" t="s">
+        <v>0</v>
+      </c>
+      <c r="X122" t="s">
         <v>0</v>
       </c>
       <c r="Y122" t="s">
@@ -15233,14 +15362,14 @@
       <c r="AA122" s="2">
         <v>0</v>
       </c>
-      <c r="AB122">
-        <v>-0.12</v>
-      </c>
-      <c r="AC122">
-        <v>-1.08</v>
-      </c>
-      <c r="AD122">
-        <v>-0.04</v>
+      <c r="AB122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD122" t="s">
+        <v>0</v>
       </c>
       <c r="AE122" t="s">
         <v>0</v>
@@ -15252,7 +15381,7 @@
         <v>0</v>
       </c>
       <c r="AH122">
-        <v>7.6</v>
+        <v>-376.65</v>
       </c>
       <c r="AI122" t="s">
         <v>54</v>
@@ -15261,10 +15390,10 @@
         <v>0</v>
       </c>
       <c r="AK122" t="s">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="AL122" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="123" spans="1:38" x14ac:dyDescent="0.25">
@@ -15275,16 +15404,16 @@
         <v>58</v>
       </c>
       <c r="C123" t="s">
-        <v>365</v>
+        <v>187</v>
       </c>
       <c r="D123" t="s">
-        <v>365</v>
+        <v>187</v>
       </c>
       <c r="E123" t="s">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="F123" t="s">
-        <v>367</v>
+        <v>189</v>
       </c>
       <c r="G123" t="s">
         <v>0</v>
@@ -15299,16 +15428,16 @@
         <v>0</v>
       </c>
       <c r="K123">
-        <v>-2.64</v>
+        <v>-1.84</v>
       </c>
       <c r="L123" t="s">
         <v>54</v>
       </c>
       <c r="M123" s="1">
-        <v>45883</v>
+        <v>45882</v>
       </c>
       <c r="N123">
-        <v>7022519579</v>
+        <v>7020218435</v>
       </c>
       <c r="O123" t="s">
         <v>55</v>
@@ -15320,7 +15449,7 @@
         <v>0</v>
       </c>
       <c r="R123">
-        <v>186821155525</v>
+        <v>187473651729</v>
       </c>
       <c r="S123" t="s">
         <v>0</v>
@@ -15368,7 +15497,7 @@
         <v>0</v>
       </c>
       <c r="AH123">
-        <v>-2.64</v>
+        <v>-1.84</v>
       </c>
       <c r="AI123" t="s">
         <v>54</v>
@@ -15377,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="AK123" t="s">
-        <v>368</v>
+        <v>190</v>
       </c>
       <c r="AL123" t="s">
         <v>59</v>
@@ -15391,31 +15520,31 @@
         <v>52</v>
       </c>
       <c r="C124" t="s">
-        <v>365</v>
+        <v>187</v>
       </c>
       <c r="D124" t="s">
-        <v>365</v>
+        <v>187</v>
       </c>
       <c r="E124" t="s">
-        <v>366</v>
+        <v>188</v>
       </c>
       <c r="F124" t="s">
-        <v>367</v>
+        <v>189</v>
       </c>
       <c r="G124" t="s">
-        <v>369</v>
+        <v>191</v>
       </c>
       <c r="H124" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I124" t="s">
-        <v>370</v>
+        <v>193</v>
       </c>
       <c r="J124" t="s">
         <v>53</v>
       </c>
       <c r="K124">
-        <v>16.399999999999999</v>
+        <v>13.6</v>
       </c>
       <c r="L124" t="s">
         <v>54</v>
@@ -15436,22 +15565,22 @@
         <v>0</v>
       </c>
       <c r="R124">
-        <v>186821155525</v>
+        <v>187473651729</v>
       </c>
       <c r="S124">
-        <v>10074701081916</v>
+        <v>10074010109609</v>
       </c>
       <c r="T124" t="s">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="U124" t="s">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="V124">
         <v>1</v>
       </c>
       <c r="W124">
-        <v>18.350000000000001</v>
+        <v>15.29</v>
       </c>
       <c r="X124">
         <v>0</v>
@@ -15469,10 +15598,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC124">
-        <v>-1.52</v>
+        <v>-1.27</v>
       </c>
       <c r="AD124">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.06</v>
       </c>
       <c r="AE124" t="s">
         <v>0</v>
@@ -15484,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="AH124">
-        <v>18.350000000000001</v>
+        <v>15.29</v>
       </c>
       <c r="AI124" t="s">
         <v>54</v>
@@ -15501,22 +15630,22 @@
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45882</v>
+        <v>45885</v>
       </c>
       <c r="B125" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>373</v>
+        <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="F125" t="s">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
         <v>0</v>
@@ -15531,16 +15660,16 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>-1.42</v>
+        <v>-112.5</v>
       </c>
       <c r="L125" t="s">
         <v>54</v>
       </c>
-      <c r="M125" s="1">
-        <v>45883</v>
+      <c r="M125" t="s">
+        <v>0</v>
       </c>
       <c r="N125">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O125" t="s">
         <v>55</v>
@@ -15551,8 +15680,8 @@
       <c r="Q125" t="s">
         <v>0</v>
       </c>
-      <c r="R125">
-        <v>187473655879</v>
+      <c r="R125" t="s">
+        <v>0</v>
       </c>
       <c r="S125" t="s">
         <v>0</v>
@@ -15600,7 +15729,7 @@
         <v>0</v>
       </c>
       <c r="AH125">
-        <v>-1.42</v>
+        <v>-112.5</v>
       </c>
       <c r="AI125" t="s">
         <v>54</v>
@@ -15609,54 +15738,54 @@
         <v>0</v>
       </c>
       <c r="AK125" t="s">
-        <v>376</v>
+        <v>467</v>
       </c>
       <c r="AL125" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B126" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C126" t="s">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="D126" t="s">
-        <v>373</v>
+        <v>468</v>
       </c>
       <c r="E126" t="s">
-        <v>374</v>
+        <v>469</v>
       </c>
       <c r="F126" t="s">
-        <v>375</v>
+        <v>470</v>
       </c>
       <c r="G126" t="s">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="H126" t="s">
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>7.7</v>
+        <v>-2.81</v>
       </c>
       <c r="L126" t="s">
         <v>54</v>
       </c>
       <c r="M126" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N126">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O126" t="s">
         <v>55</v>
@@ -15668,24 +15797,24 @@
         <v>0</v>
       </c>
       <c r="R126">
-        <v>187473655879</v>
-      </c>
-      <c r="S126">
-        <v>10074659144219</v>
+        <v>186905975156</v>
+      </c>
+      <c r="S126" t="s">
+        <v>0</v>
       </c>
       <c r="T126" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="U126" t="s">
-        <v>166</v>
-      </c>
-      <c r="V126">
-        <v>1</v>
-      </c>
-      <c r="W126">
-        <v>9.85</v>
-      </c>
-      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="V126" t="s">
+        <v>0</v>
+      </c>
+      <c r="W126" t="s">
+        <v>0</v>
+      </c>
+      <c r="X126" t="s">
         <v>0</v>
       </c>
       <c r="Y126" t="s">
@@ -15697,17 +15826,17 @@
       <c r="AA126" s="2">
         <v>0</v>
       </c>
-      <c r="AB126">
-        <v>-0.36</v>
-      </c>
-      <c r="AC126">
-        <v>-1.28</v>
-      </c>
-      <c r="AD126">
-        <v>-0.04</v>
-      </c>
-      <c r="AE126">
-        <v>-0.47</v>
+      <c r="AB126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD126" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE126" t="s">
+        <v>0</v>
       </c>
       <c r="AF126" t="s">
         <v>0</v>
@@ -15716,7 +15845,7 @@
         <v>0</v>
       </c>
       <c r="AH126">
-        <v>9.85</v>
+        <v>-2.81</v>
       </c>
       <c r="AI126" t="s">
         <v>54</v>
@@ -15725,83 +15854,83 @@
         <v>0</v>
       </c>
       <c r="AK126" t="s">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="AL126" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B127" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C127" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="D127" t="s">
-        <v>379</v>
+        <v>468</v>
       </c>
       <c r="E127" t="s">
-        <v>380</v>
+        <v>469</v>
       </c>
       <c r="F127" t="s">
-        <v>381</v>
+        <v>470</v>
       </c>
       <c r="G127" t="s">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H127" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I127" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="J127" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K127">
-        <v>-1.7</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L127" t="s">
         <v>54</v>
       </c>
-      <c r="M127" s="1">
-        <v>45883</v>
-      </c>
-      <c r="N127">
-        <v>7022519579</v>
+      <c r="M127" t="s">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
+        <v>0</v>
       </c>
       <c r="O127" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P127" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q127" t="s">
         <v>0</v>
       </c>
       <c r="R127">
-        <v>187473651729</v>
-      </c>
-      <c r="S127" t="s">
-        <v>0</v>
+        <v>186905975156</v>
+      </c>
+      <c r="S127">
+        <v>10074840794711</v>
       </c>
       <c r="T127" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="U127" t="s">
-        <v>0</v>
-      </c>
-      <c r="V127" t="s">
-        <v>0</v>
-      </c>
-      <c r="W127" t="s">
-        <v>0</v>
-      </c>
-      <c r="X127" t="s">
+        <v>372</v>
+      </c>
+      <c r="V127">
+        <v>1</v>
+      </c>
+      <c r="W127">
+        <v>19.47</v>
+      </c>
+      <c r="X127">
         <v>0</v>
       </c>
       <c r="Y127" t="s">
@@ -15813,14 +15942,14 @@
       <c r="AA127" s="2">
         <v>0</v>
       </c>
-      <c r="AB127" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC127" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD127" t="s">
-        <v>0</v>
+      <c r="AB127">
+        <v>-0.36</v>
+      </c>
+      <c r="AC127">
+        <v>-1.61</v>
+      </c>
+      <c r="AD127">
+        <v>-0.08</v>
       </c>
       <c r="AE127" t="s">
         <v>0</v>
@@ -15832,7 +15961,7 @@
         <v>0</v>
       </c>
       <c r="AH127">
-        <v>-1.7</v>
+        <v>19.47</v>
       </c>
       <c r="AI127" t="s">
         <v>54</v>
@@ -15841,54 +15970,54 @@
         <v>0</v>
       </c>
       <c r="AK127" t="s">
-        <v>382</v>
+        <v>0</v>
       </c>
       <c r="AL127" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B128" t="s">
         <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
       <c r="D128" t="s">
-        <v>379</v>
+        <v>474</v>
       </c>
       <c r="E128" t="s">
-        <v>380</v>
+        <v>475</v>
       </c>
       <c r="F128" t="s">
-        <v>381</v>
+        <v>476</v>
       </c>
       <c r="G128" t="s">
-        <v>383</v>
+        <v>477</v>
       </c>
       <c r="H128" t="s">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="I128" t="s">
-        <v>384</v>
+        <v>479</v>
       </c>
       <c r="J128" t="s">
         <v>53</v>
       </c>
       <c r="K128">
-        <v>14</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="L128" t="s">
         <v>54</v>
       </c>
       <c r="M128" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N128">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O128" t="s">
         <v>55</v>
@@ -15900,22 +16029,22 @@
         <v>0</v>
       </c>
       <c r="R128">
-        <v>187473651729</v>
+        <v>187492038669</v>
       </c>
       <c r="S128">
-        <v>10074780322411</v>
+        <v>10073917068725</v>
       </c>
       <c r="T128" t="s">
-        <v>74</v>
+        <v>480</v>
       </c>
       <c r="U128" t="s">
-        <v>75</v>
+        <v>481</v>
       </c>
       <c r="V128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W128">
-        <v>15.74</v>
+        <v>39.56</v>
       </c>
       <c r="X128">
         <v>0</v>
@@ -15930,13 +16059,13 @@
         <v>0</v>
       </c>
       <c r="AB128">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC128">
-        <v>-1.31</v>
+        <v>-5.65</v>
       </c>
       <c r="AD128">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.17</v>
       </c>
       <c r="AE128" t="s">
         <v>0</v>
@@ -15948,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="AH128">
-        <v>15.74</v>
+        <v>39.56</v>
       </c>
       <c r="AI128" t="s">
         <v>54</v>
@@ -15965,22 +16094,22 @@
     </row>
     <row r="129" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B129" t="s">
         <v>58</v>
       </c>
       <c r="C129" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="D129" t="s">
-        <v>385</v>
+        <v>482</v>
       </c>
       <c r="E129" t="s">
-        <v>386</v>
+        <v>483</v>
       </c>
       <c r="F129" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="G129" t="s">
         <v>0</v>
@@ -15995,16 +16124,16 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>-1.7</v>
+        <v>-1.04</v>
       </c>
       <c r="L129" t="s">
         <v>54</v>
       </c>
       <c r="M129" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N129">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O129" t="s">
         <v>55</v>
@@ -16016,7 +16145,7 @@
         <v>0</v>
       </c>
       <c r="R129">
-        <v>187473651729</v>
+        <v>186821285299</v>
       </c>
       <c r="S129" t="s">
         <v>0</v>
@@ -16064,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="AH129">
-        <v>-1.7</v>
+        <v>-1.04</v>
       </c>
       <c r="AI129" t="s">
         <v>54</v>
@@ -16073,7 +16202,7 @@
         <v>0</v>
       </c>
       <c r="AK129" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
       <c r="AL129" t="s">
         <v>59</v>
@@ -16081,46 +16210,46 @@
     </row>
     <row r="130" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B130" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C130" t="s">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="D130" t="s">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="E130" t="s">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="F130" t="s">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="G130" t="s">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="H130" t="s">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="I130" t="s">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="J130" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K130">
-        <v>-0.12</v>
+        <v>7.01</v>
       </c>
       <c r="L130" t="s">
         <v>54</v>
       </c>
       <c r="M130" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N130">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O130" t="s">
         <v>55</v>
@@ -16132,24 +16261,24 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <v>187473657371</v>
-      </c>
-      <c r="S130" t="s">
-        <v>0</v>
+        <v>186821285299</v>
+      </c>
+      <c r="S130">
+        <v>10079182588507</v>
       </c>
       <c r="T130" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U130" t="s">
-        <v>0</v>
-      </c>
-      <c r="V130" t="s">
-        <v>0</v>
-      </c>
-      <c r="W130" t="s">
-        <v>0</v>
-      </c>
-      <c r="X130" t="s">
+        <v>489</v>
+      </c>
+      <c r="V130">
+        <v>1</v>
+      </c>
+      <c r="W130">
+        <v>9.02</v>
+      </c>
+      <c r="X130">
         <v>0</v>
       </c>
       <c r="Y130" t="s">
@@ -16161,17 +16290,17 @@
       <c r="AA130" s="2">
         <v>0</v>
       </c>
-      <c r="AB130" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC130" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD130" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE130" t="s">
-        <v>0</v>
+      <c r="AB130">
+        <v>-0.36</v>
+      </c>
+      <c r="AC130">
+        <v>-1.18</v>
+      </c>
+      <c r="AD130">
+        <v>-0.04</v>
+      </c>
+      <c r="AE130">
+        <v>-0.43</v>
       </c>
       <c r="AF130" t="s">
         <v>0</v>
@@ -16180,7 +16309,7 @@
         <v>0</v>
       </c>
       <c r="AH130">
-        <v>-0.12</v>
+        <v>9.02</v>
       </c>
       <c r="AI130" t="s">
         <v>54</v>
@@ -16189,54 +16318,54 @@
         <v>0</v>
       </c>
       <c r="AK130" t="s">
-        <v>389</v>
+        <v>0</v>
       </c>
       <c r="AL130" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B131" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C131" t="s">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="D131" t="s">
-        <v>385</v>
+        <v>490</v>
       </c>
       <c r="E131" t="s">
-        <v>386</v>
+        <v>491</v>
       </c>
       <c r="F131" t="s">
-        <v>387</v>
+        <v>492</v>
       </c>
       <c r="G131" t="s">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>14</v>
+        <v>-8.35</v>
       </c>
       <c r="L131" t="s">
         <v>54</v>
       </c>
       <c r="M131" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N131">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O131" t="s">
         <v>55</v>
@@ -16248,24 +16377,24 @@
         <v>0</v>
       </c>
       <c r="R131">
-        <v>187473651729</v>
-      </c>
-      <c r="S131">
-        <v>10074605238004</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S131" t="s">
+        <v>0</v>
       </c>
       <c r="T131" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>75</v>
-      </c>
-      <c r="V131">
-        <v>1</v>
-      </c>
-      <c r="W131">
-        <v>15.74</v>
-      </c>
-      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="V131" t="s">
+        <v>0</v>
+      </c>
+      <c r="W131" t="s">
+        <v>0</v>
+      </c>
+      <c r="X131" t="s">
         <v>0</v>
       </c>
       <c r="Y131" t="s">
@@ -16277,14 +16406,14 @@
       <c r="AA131" s="2">
         <v>0</v>
       </c>
-      <c r="AB131">
-        <v>-0.36</v>
-      </c>
-      <c r="AC131">
-        <v>-1.31</v>
-      </c>
-      <c r="AD131">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB131" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD131" t="s">
+        <v>0</v>
       </c>
       <c r="AE131" t="s">
         <v>0</v>
@@ -16296,7 +16425,7 @@
         <v>0</v>
       </c>
       <c r="AH131">
-        <v>15.74</v>
+        <v>-8.35</v>
       </c>
       <c r="AI131" t="s">
         <v>54</v>
@@ -16305,54 +16434,54 @@
         <v>0</v>
       </c>
       <c r="AK131" t="s">
-        <v>0</v>
+        <v>493</v>
       </c>
       <c r="AL131" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="132" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B132" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C132" t="s">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="D132" t="s">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="E132" t="s">
-        <v>0</v>
+        <v>491</v>
       </c>
       <c r="F132" t="s">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="G132" t="s">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="H132" t="s">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="I132" t="s">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="J132" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K132">
-        <v>-0.12</v>
+        <v>47.03</v>
       </c>
       <c r="L132" t="s">
         <v>54</v>
       </c>
       <c r="M132" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N132">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O132" t="s">
         <v>55</v>
@@ -16364,24 +16493,24 @@
         <v>0</v>
       </c>
       <c r="R132">
-        <v>187480927897</v>
-      </c>
-      <c r="S132" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S132">
+        <v>10074365778202</v>
       </c>
       <c r="T132" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="U132" t="s">
-        <v>0</v>
-      </c>
-      <c r="V132" t="s">
-        <v>0</v>
-      </c>
-      <c r="W132" t="s">
-        <v>0</v>
-      </c>
-      <c r="X132" t="s">
+        <v>93</v>
+      </c>
+      <c r="V132">
+        <v>1</v>
+      </c>
+      <c r="W132">
+        <v>57.99</v>
+      </c>
+      <c r="X132">
         <v>0</v>
       </c>
       <c r="Y132" t="s">
@@ -16393,17 +16522,17 @@
       <c r="AA132" s="2">
         <v>0</v>
       </c>
-      <c r="AB132" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC132" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD132" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE132" t="s">
-        <v>0</v>
+      <c r="AB132">
+        <v>-0.36</v>
+      </c>
+      <c r="AC132">
+        <v>-7.58</v>
+      </c>
+      <c r="AD132">
+        <v>-0.24</v>
+      </c>
+      <c r="AE132">
+        <v>-2.78</v>
       </c>
       <c r="AF132" t="s">
         <v>0</v>
@@ -16412,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="AH132">
-        <v>-0.12</v>
+        <v>57.99</v>
       </c>
       <c r="AI132" t="s">
         <v>54</v>
@@ -16421,30 +16550,30 @@
         <v>0</v>
       </c>
       <c r="AK132" t="s">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="AL132" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B133" t="s">
         <v>58</v>
       </c>
       <c r="C133" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="D133" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="E133" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="F133" t="s">
-        <v>395</v>
+        <v>499</v>
       </c>
       <c r="G133" t="s">
         <v>0</v>
@@ -16459,16 +16588,16 @@
         <v>0</v>
       </c>
       <c r="K133">
-        <v>1.68</v>
+        <v>-4.67</v>
       </c>
       <c r="L133" t="s">
         <v>54</v>
       </c>
       <c r="M133" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N133">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O133" t="s">
         <v>55</v>
@@ -16480,7 +16609,7 @@
         <v>0</v>
       </c>
       <c r="R133">
-        <v>186905975156</v>
+        <v>187473645996</v>
       </c>
       <c r="S133" t="s">
         <v>0</v>
@@ -16528,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="AH133">
-        <v>1.68</v>
+        <v>-4.67</v>
       </c>
       <c r="AI133" t="s">
         <v>54</v>
@@ -16537,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="AK133" t="s">
-        <v>396</v>
+        <v>500</v>
       </c>
       <c r="AL133" t="s">
         <v>59</v>
@@ -16545,46 +16674,46 @@
     </row>
     <row r="134" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B134" t="s">
-        <v>397</v>
+        <v>52</v>
       </c>
       <c r="C134" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="D134" t="s">
-        <v>393</v>
+        <v>497</v>
       </c>
       <c r="E134" t="s">
-        <v>394</v>
+        <v>498</v>
       </c>
       <c r="F134" t="s">
-        <v>395</v>
+        <v>499</v>
       </c>
       <c r="G134" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="H134" t="s">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="I134" t="s">
-        <v>400</v>
+        <v>503</v>
       </c>
       <c r="J134" t="s">
         <v>53</v>
       </c>
       <c r="K134">
-        <v>-10.29</v>
+        <v>26.75</v>
       </c>
       <c r="L134" t="s">
         <v>54</v>
       </c>
       <c r="M134" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N134">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O134" t="s">
         <v>55</v>
@@ -16595,25 +16724,25 @@
       <c r="Q134" t="s">
         <v>0</v>
       </c>
-      <c r="R134" t="s">
-        <v>0</v>
-      </c>
-      <c r="S134" t="s">
-        <v>0</v>
+      <c r="R134">
+        <v>187473645996</v>
+      </c>
+      <c r="S134">
+        <v>10074299824805</v>
       </c>
       <c r="T134" t="s">
-        <v>265</v>
+        <v>101</v>
       </c>
       <c r="U134" t="s">
-        <v>401</v>
-      </c>
-      <c r="V134" t="s">
-        <v>0</v>
-      </c>
-      <c r="W134" t="s">
-        <v>0</v>
-      </c>
-      <c r="X134" t="s">
+        <v>102</v>
+      </c>
+      <c r="V134">
+        <v>1</v>
+      </c>
+      <c r="W134">
+        <v>31.34</v>
+      </c>
+      <c r="X134">
         <v>0</v>
       </c>
       <c r="Y134" t="s">
@@ -16626,13 +16755,13 @@
         <v>0</v>
       </c>
       <c r="AB134">
-        <v>0.36</v>
+        <v>-0.36</v>
       </c>
       <c r="AC134">
-        <v>0.97</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AD134">
-        <v>0.05</v>
+        <v>-0.13</v>
       </c>
       <c r="AE134" t="s">
         <v>0</v>
@@ -16644,7 +16773,7 @@
         <v>0</v>
       </c>
       <c r="AH134">
-        <v>-11.67</v>
+        <v>31.34</v>
       </c>
       <c r="AI134" t="s">
         <v>54</v>
@@ -16653,7 +16782,7 @@
         <v>0</v>
       </c>
       <c r="AK134" t="s">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="AL134" t="s">
         <v>0</v>
@@ -16661,22 +16790,22 @@
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B135" t="s">
         <v>58</v>
       </c>
       <c r="C135" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="D135" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="E135" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
       <c r="F135" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="G135" t="s">
         <v>0</v>
@@ -16691,16 +16820,16 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>-1.68</v>
+        <v>-2.52</v>
       </c>
       <c r="L135" t="s">
         <v>54</v>
       </c>
       <c r="M135" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N135">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O135" t="s">
         <v>55</v>
@@ -16712,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="R135">
-        <v>186905975156</v>
+        <v>186821285299</v>
       </c>
       <c r="S135" t="s">
         <v>0</v>
@@ -16760,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="AH135">
-        <v>-1.68</v>
+        <v>-2.52</v>
       </c>
       <c r="AI135" t="s">
         <v>54</v>
@@ -16769,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="AK135" t="s">
-        <v>403</v>
+        <v>507</v>
       </c>
       <c r="AL135" t="s">
         <v>59</v>
@@ -16777,46 +16906,46 @@
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B136" t="s">
         <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="D136" t="s">
-        <v>393</v>
+        <v>504</v>
       </c>
       <c r="E136" t="s">
-        <v>394</v>
+        <v>505</v>
       </c>
       <c r="F136" t="s">
-        <v>395</v>
+        <v>506</v>
       </c>
       <c r="G136" t="s">
-        <v>398</v>
+        <v>508</v>
       </c>
       <c r="H136" t="s">
-        <v>399</v>
+        <v>137</v>
       </c>
       <c r="I136" t="s">
-        <v>400</v>
+        <v>509</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
-        <v>10.29</v>
+        <v>17.48</v>
       </c>
       <c r="L136" t="s">
         <v>54</v>
       </c>
       <c r="M136" s="1">
-        <v>45883</v>
+        <v>45885</v>
       </c>
       <c r="N136">
-        <v>7022519579</v>
+        <v>7025493539</v>
       </c>
       <c r="O136" t="s">
         <v>55</v>
@@ -16828,22 +16957,22 @@
         <v>0</v>
       </c>
       <c r="R136">
-        <v>186905975156</v>
+        <v>186821285299</v>
       </c>
       <c r="S136">
-        <v>10078217174827</v>
+        <v>10073912362525</v>
       </c>
       <c r="T136" t="s">
-        <v>265</v>
+        <v>57</v>
       </c>
       <c r="U136" t="s">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="V136">
         <v>1</v>
       </c>
       <c r="W136">
-        <v>11.67</v>
+        <v>21.84</v>
       </c>
       <c r="X136">
         <v>0</v>
@@ -16861,13 +16990,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC136">
-        <v>-0.97</v>
+        <v>-2.86</v>
       </c>
       <c r="AD136">
-        <v>-0.05</v>
-      </c>
-      <c r="AE136" t="s">
-        <v>0</v>
+        <v>-0.1</v>
+      </c>
+      <c r="AE136">
+        <v>-1.04</v>
       </c>
       <c r="AF136" t="s">
         <v>0</v>
@@ -16876,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="AH136">
-        <v>11.67</v>
+        <v>21.84</v>
       </c>
       <c r="AI136" t="s">
         <v>54</v>
@@ -16893,22 +17022,22 @@
     </row>
     <row r="137" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="B137" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C137" t="s">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>405</v>
+        <v>0</v>
       </c>
       <c r="F137" t="s">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
         <v>0</v>
@@ -16923,16 +17052,16 @@
         <v>0</v>
       </c>
       <c r="K137">
-        <v>-1.68</v>
+        <v>-102.46</v>
       </c>
       <c r="L137" t="s">
         <v>54</v>
       </c>
-      <c r="M137" s="1">
-        <v>45883</v>
+      <c r="M137" t="s">
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>7022519579</v>
+        <v>7023633011</v>
       </c>
       <c r="O137" t="s">
         <v>55</v>
@@ -16943,8 +17072,8 @@
       <c r="Q137" t="s">
         <v>0</v>
       </c>
-      <c r="R137">
-        <v>186821285299</v>
+      <c r="R137" t="s">
+        <v>0</v>
       </c>
       <c r="S137" t="s">
         <v>0</v>
@@ -16992,7 +17121,7 @@
         <v>0</v>
       </c>
       <c r="AH137">
-        <v>-1.68</v>
+        <v>-102.46</v>
       </c>
       <c r="AI137" t="s">
         <v>54</v>
@@ -17001,54 +17130,54 @@
         <v>0</v>
       </c>
       <c r="AK137" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="AL137" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C138" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="D138" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="E138" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="F138" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="G138" t="s">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>9.1999999999999993</v>
+        <v>-2.87</v>
       </c>
       <c r="L138" t="s">
         <v>54</v>
       </c>
       <c r="M138" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="N138">
-        <v>7022519579</v>
+        <v>7023633011</v>
       </c>
       <c r="O138" t="s">
         <v>55</v>
@@ -17060,24 +17189,24 @@
         <v>0</v>
       </c>
       <c r="R138">
-        <v>186821285299</v>
-      </c>
-      <c r="S138">
-        <v>10074115150901</v>
+        <v>186905975156</v>
+      </c>
+      <c r="S138" t="s">
+        <v>0</v>
       </c>
       <c r="T138" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="U138" t="s">
-        <v>410</v>
-      </c>
-      <c r="V138">
-        <v>1</v>
-      </c>
-      <c r="W138">
-        <v>11.69</v>
-      </c>
-      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="V138" t="s">
+        <v>0</v>
+      </c>
+      <c r="W138" t="s">
+        <v>0</v>
+      </c>
+      <c r="X138" t="s">
         <v>0</v>
       </c>
       <c r="Y138" t="s">
@@ -17089,17 +17218,17 @@
       <c r="AA138" s="2">
         <v>0</v>
       </c>
-      <c r="AB138">
-        <v>-0.36</v>
-      </c>
-      <c r="AC138">
-        <v>-1.52</v>
-      </c>
-      <c r="AD138">
-        <v>-0.05</v>
-      </c>
-      <c r="AE138">
-        <v>-0.56000000000000005</v>
+      <c r="AB138" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD138" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE138" t="s">
+        <v>0</v>
       </c>
       <c r="AF138" t="s">
         <v>0</v>
@@ -17108,7 +17237,7 @@
         <v>0</v>
       </c>
       <c r="AH138">
-        <v>11.69</v>
+        <v>-2.87</v>
       </c>
       <c r="AI138" t="s">
         <v>54</v>
@@ -17117,54 +17246,54 @@
         <v>0</v>
       </c>
       <c r="AK138" t="s">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="AL138" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="139" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B139" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D139" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="E139" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="F139" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="G139" t="s">
-        <v>0</v>
+        <v>423</v>
       </c>
       <c r="H139" t="s">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="I139" t="s">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="J139" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K139">
-        <v>-7.58</v>
+        <v>17.84</v>
       </c>
       <c r="L139" t="s">
         <v>54</v>
       </c>
       <c r="M139" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="N139">
-        <v>7022519579</v>
+        <v>7023633011</v>
       </c>
       <c r="O139" t="s">
         <v>55</v>
@@ -17176,24 +17305,24 @@
         <v>0</v>
       </c>
       <c r="R139">
-        <v>187473652251</v>
-      </c>
-      <c r="S139" t="s">
-        <v>0</v>
+        <v>186905975156</v>
+      </c>
+      <c r="S139">
+        <v>10074059702720</v>
       </c>
       <c r="T139" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="U139" t="s">
-        <v>0</v>
-      </c>
-      <c r="V139" t="s">
-        <v>0</v>
-      </c>
-      <c r="W139" t="s">
-        <v>0</v>
-      </c>
-      <c r="X139" t="s">
+        <v>372</v>
+      </c>
+      <c r="V139">
+        <v>1</v>
+      </c>
+      <c r="W139">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="X139">
         <v>0</v>
       </c>
       <c r="Y139" t="s">
@@ -17205,14 +17334,14 @@
       <c r="AA139" s="2">
         <v>0</v>
       </c>
-      <c r="AB139" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC139" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD139" t="s">
-        <v>0</v>
+      <c r="AB139">
+        <v>-0.36</v>
+      </c>
+      <c r="AC139">
+        <v>-1.66</v>
+      </c>
+      <c r="AD139">
+        <v>-0.08</v>
       </c>
       <c r="AE139" t="s">
         <v>0</v>
@@ -17224,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="AH139">
-        <v>-7.58</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="AI139" t="s">
         <v>54</v>
@@ -17233,54 +17362,54 @@
         <v>0</v>
       </c>
       <c r="AK139" t="s">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="AL139" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B140" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="D140" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="E140" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="F140" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="G140" t="s">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>417</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K140">
-        <v>44.57</v>
+        <v>-2.66</v>
       </c>
       <c r="L140" t="s">
         <v>54</v>
       </c>
       <c r="M140" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="N140">
-        <v>7022519579</v>
+        <v>7023633011</v>
       </c>
       <c r="O140" t="s">
         <v>55</v>
@@ -17292,24 +17421,24 @@
         <v>0</v>
       </c>
       <c r="R140">
-        <v>187473652251</v>
-      </c>
-      <c r="S140">
-        <v>10078216418827</v>
+        <v>187483035573</v>
+      </c>
+      <c r="S140" t="s">
+        <v>0</v>
       </c>
       <c r="T140" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="U140" t="s">
-        <v>93</v>
-      </c>
-      <c r="V140">
-        <v>1</v>
-      </c>
-      <c r="W140">
-        <v>54.99</v>
-      </c>
-      <c r="X140">
+        <v>0</v>
+      </c>
+      <c r="V140" t="s">
+        <v>0</v>
+      </c>
+      <c r="W140" t="s">
+        <v>0</v>
+      </c>
+      <c r="X140" t="s">
         <v>0</v>
       </c>
       <c r="Y140" t="s">
@@ -17321,17 +17450,17 @@
       <c r="AA140" s="2">
         <v>0</v>
       </c>
-      <c r="AB140">
-        <v>-0.36</v>
-      </c>
-      <c r="AC140">
-        <v>-7.19</v>
-      </c>
-      <c r="AD140">
-        <v>-0.23</v>
-      </c>
-      <c r="AE140">
-        <v>-2.64</v>
+      <c r="AB140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD140" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE140" t="s">
+        <v>0</v>
       </c>
       <c r="AF140" t="s">
         <v>0</v>
@@ -17340,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="AH140">
-        <v>54.99</v>
+        <v>-2.66</v>
       </c>
       <c r="AI140" t="s">
         <v>54</v>
@@ -17349,54 +17478,54 @@
         <v>0</v>
       </c>
       <c r="AK140" t="s">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="AL140" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="141" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B141" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C141" t="s">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="D141" t="s">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="E141" t="s">
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="F141" t="s">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="G141" t="s">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="H141" t="s">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="I141" t="s">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="J141" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K141">
-        <v>-376.65</v>
+        <v>16.98</v>
       </c>
       <c r="L141" t="s">
         <v>54</v>
       </c>
-      <c r="M141" t="s">
-        <v>0</v>
+      <c r="M141" s="1">
+        <v>45884</v>
       </c>
       <c r="N141">
-        <v>7020218435</v>
+        <v>7023633011</v>
       </c>
       <c r="O141" t="s">
         <v>55</v>
@@ -17407,25 +17536,25 @@
       <c r="Q141" t="s">
         <v>0</v>
       </c>
-      <c r="R141" t="s">
-        <v>0</v>
-      </c>
-      <c r="S141" t="s">
-        <v>0</v>
+      <c r="R141">
+        <v>187483035573</v>
+      </c>
+      <c r="S141">
+        <v>10074813066811</v>
       </c>
       <c r="T141" t="s">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="U141" t="s">
-        <v>0</v>
-      </c>
-      <c r="V141" t="s">
-        <v>0</v>
-      </c>
-      <c r="W141" t="s">
-        <v>0</v>
-      </c>
-      <c r="X141" t="s">
+        <v>372</v>
+      </c>
+      <c r="V141">
+        <v>1</v>
+      </c>
+      <c r="W141">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X141">
         <v>0</v>
       </c>
       <c r="Y141" t="s">
@@ -17437,14 +17566,14 @@
       <c r="AA141" s="2">
         <v>0</v>
       </c>
-      <c r="AB141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC141" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD141" t="s">
-        <v>0</v>
+      <c r="AB141">
+        <v>-0.36</v>
+      </c>
+      <c r="AC141">
+        <v>-1.57</v>
+      </c>
+      <c r="AD141">
+        <v>-0.08</v>
       </c>
       <c r="AE141" t="s">
         <v>0</v>
@@ -17456,7 +17585,7 @@
         <v>0</v>
       </c>
       <c r="AH141">
-        <v>-376.65</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="AI141" t="s">
         <v>54</v>
@@ -17465,30 +17594,30 @@
         <v>0</v>
       </c>
       <c r="AK141" t="s">
-        <v>186</v>
+        <v>0</v>
       </c>
       <c r="AL141" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B142" t="s">
         <v>58</v>
       </c>
       <c r="C142" t="s">
-        <v>187</v>
+        <v>433</v>
       </c>
       <c r="D142" t="s">
-        <v>187</v>
+        <v>433</v>
       </c>
       <c r="E142" t="s">
-        <v>188</v>
+        <v>434</v>
       </c>
       <c r="F142" t="s">
-        <v>189</v>
+        <v>435</v>
       </c>
       <c r="G142" t="s">
         <v>0</v>
@@ -17503,16 +17632,16 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>-1.84</v>
+        <v>-1.88</v>
       </c>
       <c r="L142" t="s">
         <v>54</v>
       </c>
       <c r="M142" s="1">
-        <v>45882</v>
+        <v>45884</v>
       </c>
       <c r="N142">
-        <v>7020218435</v>
+        <v>7023633011</v>
       </c>
       <c r="O142" t="s">
         <v>55</v>
@@ -17572,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="AH142">
-        <v>-1.84</v>
+        <v>-1.88</v>
       </c>
       <c r="AI142" t="s">
         <v>54</v>
@@ -17581,7 +17710,7 @@
         <v>0</v>
       </c>
       <c r="AK142" t="s">
-        <v>190</v>
+        <v>436</v>
       </c>
       <c r="AL142" t="s">
         <v>59</v>
@@ -17589,46 +17718,46 @@
     </row>
     <row r="143" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="D143" t="s">
-        <v>187</v>
+        <v>359</v>
       </c>
       <c r="E143" t="s">
-        <v>188</v>
+        <v>360</v>
       </c>
       <c r="F143" t="s">
-        <v>189</v>
+        <v>361</v>
       </c>
       <c r="G143" t="s">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="I143" t="s">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K143">
-        <v>13.6</v>
+        <v>-1.19</v>
       </c>
       <c r="L143" t="s">
         <v>54</v>
       </c>
       <c r="M143" s="1">
-        <v>45883</v>
+        <v>45884</v>
       </c>
       <c r="N143">
-        <v>7022519579</v>
+        <v>7023633011</v>
       </c>
       <c r="O143" t="s">
         <v>55</v>
@@ -17640,67 +17769,1459 @@
         <v>0</v>
       </c>
       <c r="R143">
+        <v>187480578811</v>
+      </c>
+      <c r="S143" t="s">
+        <v>0</v>
+      </c>
+      <c r="T143" t="s">
+        <v>0</v>
+      </c>
+      <c r="U143" t="s">
+        <v>0</v>
+      </c>
+      <c r="V143" t="s">
+        <v>0</v>
+      </c>
+      <c r="W143" t="s">
+        <v>0</v>
+      </c>
+      <c r="X143" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>-1.19</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ143" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK143" t="s">
+        <v>437</v>
+      </c>
+      <c r="AL143" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="144" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B144" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" t="s">
+        <v>433</v>
+      </c>
+      <c r="D144" t="s">
+        <v>433</v>
+      </c>
+      <c r="E144" t="s">
+        <v>434</v>
+      </c>
+      <c r="F144" t="s">
+        <v>435</v>
+      </c>
+      <c r="G144" t="s">
+        <v>438</v>
+      </c>
+      <c r="H144" t="s">
+        <v>61</v>
+      </c>
+      <c r="I144" t="s">
+        <v>439</v>
+      </c>
+      <c r="J144" t="s">
+        <v>53</v>
+      </c>
+      <c r="K144">
+        <v>15.61</v>
+      </c>
+      <c r="L144" t="s">
+        <v>54</v>
+      </c>
+      <c r="M144" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N144">
+        <v>7023633011</v>
+      </c>
+      <c r="O144" t="s">
+        <v>55</v>
+      </c>
+      <c r="P144" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>0</v>
+      </c>
+      <c r="R144">
         <v>187473651729</v>
       </c>
-      <c r="S143">
-        <v>10074010109609</v>
-      </c>
-      <c r="T143" t="s">
+      <c r="S144">
+        <v>10074726327214</v>
+      </c>
+      <c r="T144" t="s">
         <v>74</v>
       </c>
-      <c r="U143" t="s">
+      <c r="U144" t="s">
         <v>75</v>
       </c>
-      <c r="V143">
+      <c r="V144">
         <v>1</v>
       </c>
-      <c r="W143">
-        <v>15.29</v>
-      </c>
-      <c r="X143">
-        <v>0</v>
-      </c>
-      <c r="Y143" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z143" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA143" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB143">
+      <c r="W144">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB144">
         <v>-0.36</v>
       </c>
-      <c r="AC143">
-        <v>-1.27</v>
-      </c>
-      <c r="AD143">
-        <v>-0.06</v>
-      </c>
-      <c r="AE143" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF143" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG143" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH143">
-        <v>15.29</v>
-      </c>
-      <c r="AI143" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ143" t="s">
-        <v>0</v>
-      </c>
-      <c r="AK143" t="s">
-        <v>0</v>
-      </c>
-      <c r="AL143" t="s">
-        <v>0</v>
+      <c r="AC144">
+        <v>-1.45</v>
+      </c>
+      <c r="AD144">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B145" t="s">
+        <v>58</v>
+      </c>
+      <c r="C145" t="s">
+        <v>440</v>
+      </c>
+      <c r="D145" t="s">
+        <v>440</v>
+      </c>
+      <c r="E145" t="s">
+        <v>441</v>
+      </c>
+      <c r="F145" t="s">
+        <v>442</v>
+      </c>
+      <c r="G145" t="s">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>0</v>
+      </c>
+      <c r="J145" t="s">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>-3.18</v>
+      </c>
+      <c r="L145" t="s">
+        <v>54</v>
+      </c>
+      <c r="M145" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N145">
+        <v>7023633011</v>
+      </c>
+      <c r="O145" t="s">
+        <v>55</v>
+      </c>
+      <c r="P145" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>187483349258</v>
+      </c>
+      <c r="S145" t="s">
+        <v>0</v>
+      </c>
+      <c r="T145" t="s">
+        <v>0</v>
+      </c>
+      <c r="U145" t="s">
+        <v>0</v>
+      </c>
+      <c r="V145" t="s">
+        <v>0</v>
+      </c>
+      <c r="W145" t="s">
+        <v>0</v>
+      </c>
+      <c r="X145" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y145" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>-3.18</v>
+      </c>
+      <c r="AI145" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ145" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK145" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL145" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B146" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" t="s">
+        <v>440</v>
+      </c>
+      <c r="D146" t="s">
+        <v>440</v>
+      </c>
+      <c r="E146" t="s">
+        <v>441</v>
+      </c>
+      <c r="F146" t="s">
+        <v>442</v>
+      </c>
+      <c r="G146" t="s">
+        <v>239</v>
+      </c>
+      <c r="H146" t="s">
+        <v>240</v>
+      </c>
+      <c r="I146" t="s">
+        <v>444</v>
+      </c>
+      <c r="J146" t="s">
+        <v>53</v>
+      </c>
+      <c r="K146">
+        <v>17.11</v>
+      </c>
+      <c r="L146" t="s">
+        <v>54</v>
+      </c>
+      <c r="M146" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N146">
+        <v>7023633011</v>
+      </c>
+      <c r="O146" t="s">
+        <v>55</v>
+      </c>
+      <c r="P146" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>187483349258</v>
+      </c>
+      <c r="S146">
+        <v>10074757908710</v>
+      </c>
+      <c r="T146" t="s">
+        <v>445</v>
+      </c>
+      <c r="U146" t="s">
+        <v>446</v>
+      </c>
+      <c r="V146">
+        <v>1</v>
+      </c>
+      <c r="W146">
+        <v>21.37</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>-0.36</v>
+      </c>
+      <c r="AC146">
+        <v>-2.8</v>
+      </c>
+      <c r="AD146">
+        <v>-0.08</v>
+      </c>
+      <c r="AE146">
+        <v>-1.02</v>
+      </c>
+      <c r="AF146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>21.37</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B147" t="s">
+        <v>58</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>0</v>
+      </c>
+      <c r="J147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>-0.12</v>
+      </c>
+      <c r="L147" t="s">
+        <v>54</v>
+      </c>
+      <c r="M147" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N147">
+        <v>7023633011</v>
+      </c>
+      <c r="O147" t="s">
+        <v>55</v>
+      </c>
+      <c r="P147" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>187488931137</v>
+      </c>
+      <c r="S147" t="s">
+        <v>0</v>
+      </c>
+      <c r="T147" t="s">
+        <v>0</v>
+      </c>
+      <c r="U147" t="s">
+        <v>0</v>
+      </c>
+      <c r="V147" t="s">
+        <v>0</v>
+      </c>
+      <c r="W147" t="s">
+        <v>0</v>
+      </c>
+      <c r="X147" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>-0.12</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ147" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK147" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL147" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B148" t="s">
+        <v>58</v>
+      </c>
+      <c r="C148" t="s">
+        <v>448</v>
+      </c>
+      <c r="D148" t="s">
+        <v>448</v>
+      </c>
+      <c r="E148" t="s">
+        <v>449</v>
+      </c>
+      <c r="F148" t="s">
+        <v>450</v>
+      </c>
+      <c r="G148" t="s">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>0</v>
+      </c>
+      <c r="J148" t="s">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>-1.88</v>
+      </c>
+      <c r="L148" t="s">
+        <v>54</v>
+      </c>
+      <c r="M148" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N148">
+        <v>7023633011</v>
+      </c>
+      <c r="O148" t="s">
+        <v>55</v>
+      </c>
+      <c r="P148" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>187473651729</v>
+      </c>
+      <c r="S148" t="s">
+        <v>0</v>
+      </c>
+      <c r="T148" t="s">
+        <v>0</v>
+      </c>
+      <c r="U148" t="s">
+        <v>0</v>
+      </c>
+      <c r="V148" t="s">
+        <v>0</v>
+      </c>
+      <c r="W148" t="s">
+        <v>0</v>
+      </c>
+      <c r="X148" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH148">
+        <v>-1.88</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ148" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK148" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL148" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B149" t="s">
+        <v>52</v>
+      </c>
+      <c r="C149" t="s">
+        <v>448</v>
+      </c>
+      <c r="D149" t="s">
+        <v>448</v>
+      </c>
+      <c r="E149" t="s">
+        <v>449</v>
+      </c>
+      <c r="F149" t="s">
+        <v>450</v>
+      </c>
+      <c r="G149" t="s">
+        <v>452</v>
+      </c>
+      <c r="H149" t="s">
+        <v>62</v>
+      </c>
+      <c r="I149" t="s">
+        <v>453</v>
+      </c>
+      <c r="J149" t="s">
+        <v>53</v>
+      </c>
+      <c r="K149">
+        <v>15.61</v>
+      </c>
+      <c r="L149" t="s">
+        <v>54</v>
+      </c>
+      <c r="M149" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N149">
+        <v>7023633011</v>
+      </c>
+      <c r="O149" t="s">
+        <v>55</v>
+      </c>
+      <c r="P149" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <v>187473651729</v>
+      </c>
+      <c r="S149">
+        <v>10074805403811</v>
+      </c>
+      <c r="T149" t="s">
+        <v>74</v>
+      </c>
+      <c r="U149" t="s">
+        <v>75</v>
+      </c>
+      <c r="V149">
+        <v>1</v>
+      </c>
+      <c r="W149">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>-0.36</v>
+      </c>
+      <c r="AC149">
+        <v>-1.45</v>
+      </c>
+      <c r="AD149">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE149" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF149" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ149" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK149" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B150" t="s">
+        <v>58</v>
+      </c>
+      <c r="C150" t="s">
+        <v>454</v>
+      </c>
+      <c r="D150" t="s">
+        <v>454</v>
+      </c>
+      <c r="E150" t="s">
+        <v>455</v>
+      </c>
+      <c r="F150" t="s">
+        <v>456</v>
+      </c>
+      <c r="G150" t="s">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>0</v>
+      </c>
+      <c r="J150" t="s">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>-3.64</v>
+      </c>
+      <c r="L150" t="s">
+        <v>54</v>
+      </c>
+      <c r="M150" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N150">
+        <v>7023633011</v>
+      </c>
+      <c r="O150" t="s">
+        <v>55</v>
+      </c>
+      <c r="P150" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>187473659746</v>
+      </c>
+      <c r="S150" t="s">
+        <v>0</v>
+      </c>
+      <c r="T150" t="s">
+        <v>0</v>
+      </c>
+      <c r="U150" t="s">
+        <v>0</v>
+      </c>
+      <c r="V150" t="s">
+        <v>0</v>
+      </c>
+      <c r="W150" t="s">
+        <v>0</v>
+      </c>
+      <c r="X150" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>-3.64</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ150" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK150" t="s">
+        <v>457</v>
+      </c>
+      <c r="AL150" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B151" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" t="s">
+        <v>454</v>
+      </c>
+      <c r="D151" t="s">
+        <v>454</v>
+      </c>
+      <c r="E151" t="s">
+        <v>455</v>
+      </c>
+      <c r="F151" t="s">
+        <v>456</v>
+      </c>
+      <c r="G151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H151" t="s">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>458</v>
+      </c>
+      <c r="J151" t="s">
+        <v>53</v>
+      </c>
+      <c r="K151">
+        <v>23.12</v>
+      </c>
+      <c r="L151" t="s">
+        <v>54</v>
+      </c>
+      <c r="M151" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N151">
+        <v>7023633011</v>
+      </c>
+      <c r="O151" t="s">
+        <v>55</v>
+      </c>
+      <c r="P151" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>0</v>
+      </c>
+      <c r="R151">
+        <v>187473659746</v>
+      </c>
+      <c r="S151">
+        <v>10074723358115</v>
+      </c>
+      <c r="T151" t="s">
+        <v>172</v>
+      </c>
+      <c r="U151" t="s">
+        <v>173</v>
+      </c>
+      <c r="V151">
+        <v>1</v>
+      </c>
+      <c r="W151">
+        <v>27.54</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z151" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>-0.36</v>
+      </c>
+      <c r="AC151">
+        <v>-3.94</v>
+      </c>
+      <c r="AD151">
+        <v>-0.12</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF151" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>27.54</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ151" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK151" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B152" t="s">
+        <v>58</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>0</v>
+      </c>
+      <c r="J152" t="s">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>-0.12</v>
+      </c>
+      <c r="L152" t="s">
+        <v>54</v>
+      </c>
+      <c r="M152" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N152">
+        <v>7023633011</v>
+      </c>
+      <c r="O152" t="s">
+        <v>55</v>
+      </c>
+      <c r="P152" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>187488536001</v>
+      </c>
+      <c r="S152" t="s">
+        <v>0</v>
+      </c>
+      <c r="T152" t="s">
+        <v>0</v>
+      </c>
+      <c r="U152" t="s">
+        <v>0</v>
+      </c>
+      <c r="V152" t="s">
+        <v>0</v>
+      </c>
+      <c r="W152" t="s">
+        <v>0</v>
+      </c>
+      <c r="X152" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH152">
+        <v>-0.12</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ152" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK152" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="153" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B153" t="s">
+        <v>58</v>
+      </c>
+      <c r="C153" t="s">
+        <v>460</v>
+      </c>
+      <c r="D153" t="s">
+        <v>460</v>
+      </c>
+      <c r="E153" t="s">
+        <v>461</v>
+      </c>
+      <c r="F153" t="s">
+        <v>462</v>
+      </c>
+      <c r="G153" t="s">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>0</v>
+      </c>
+      <c r="J153" t="s">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>-1.88</v>
+      </c>
+      <c r="L153" t="s">
+        <v>54</v>
+      </c>
+      <c r="M153" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N153">
+        <v>7023633011</v>
+      </c>
+      <c r="O153" t="s">
+        <v>55</v>
+      </c>
+      <c r="P153" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>187473651729</v>
+      </c>
+      <c r="S153" t="s">
+        <v>0</v>
+      </c>
+      <c r="T153" t="s">
+        <v>0</v>
+      </c>
+      <c r="U153" t="s">
+        <v>0</v>
+      </c>
+      <c r="V153" t="s">
+        <v>0</v>
+      </c>
+      <c r="W153" t="s">
+        <v>0</v>
+      </c>
+      <c r="X153" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH153">
+        <v>-1.88</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ153" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK153" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B154" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" t="s">
+        <v>460</v>
+      </c>
+      <c r="D154" t="s">
+        <v>460</v>
+      </c>
+      <c r="E154" t="s">
+        <v>461</v>
+      </c>
+      <c r="F154" t="s">
+        <v>462</v>
+      </c>
+      <c r="G154" t="s">
+        <v>464</v>
+      </c>
+      <c r="H154" t="s">
+        <v>465</v>
+      </c>
+      <c r="I154" t="s">
+        <v>466</v>
+      </c>
+      <c r="J154" t="s">
+        <v>53</v>
+      </c>
+      <c r="K154">
+        <v>15.61</v>
+      </c>
+      <c r="L154" t="s">
+        <v>54</v>
+      </c>
+      <c r="M154" s="1">
+        <v>45884</v>
+      </c>
+      <c r="N154">
+        <v>7023633011</v>
+      </c>
+      <c r="O154" t="s">
+        <v>55</v>
+      </c>
+      <c r="P154" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>187473651729</v>
+      </c>
+      <c r="S154">
+        <v>10074273968605</v>
+      </c>
+      <c r="T154" t="s">
+        <v>74</v>
+      </c>
+      <c r="U154" t="s">
+        <v>75</v>
+      </c>
+      <c r="V154">
+        <v>1</v>
+      </c>
+      <c r="W154">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB154">
+        <v>-0.36</v>
+      </c>
+      <c r="AC154">
+        <v>-1.45</v>
+      </c>
+      <c r="AD154">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH154">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B155" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>0</v>
+      </c>
+      <c r="G155" t="s">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>0</v>
+      </c>
+      <c r="J155" t="s">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>-150.88999999999999</v>
+      </c>
+      <c r="L155" t="s">
+        <v>54</v>
+      </c>
+      <c r="M155" t="s">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>7022519579</v>
+      </c>
+      <c r="O155" t="s">
+        <v>55</v>
+      </c>
+      <c r="P155" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>0</v>
+      </c>
+      <c r="R155" t="s">
+        <v>0</v>
+      </c>
+      <c r="S155" t="s">
+        <v>0</v>
+      </c>
+      <c r="T155" t="s">
+        <v>0</v>
+      </c>
+      <c r="U155" t="s">
+        <v>0</v>
+      </c>
+      <c r="V155" t="s">
+        <v>0</v>
+      </c>
+      <c r="W155" t="s">
+        <v>0</v>
+      </c>
+      <c r="X155" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH155">
+        <v>-150.88999999999999</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ155" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK155" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL155" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4058" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5281" uniqueCount="640">
   <si>
     <t>--</t>
   </si>
@@ -1566,6 +1566,396 @@
   </si>
   <si>
     <t>BB18 5TD</t>
+  </si>
+  <si>
+    <t>Bank reference ID JUU6N66SVKPXJ6K</t>
+  </si>
+  <si>
+    <t>03-13471-98282</t>
+  </si>
+  <si>
+    <t>ckzz_123</t>
+  </si>
+  <si>
+    <t>Curtus  Kennedy</t>
+  </si>
+  <si>
+    <t>FEE-6604234751417_11</t>
+  </si>
+  <si>
+    <t>M20 1LY</t>
+  </si>
+  <si>
+    <t>10-13462-04224</t>
+  </si>
+  <si>
+    <t>zaleisa-0</t>
+  </si>
+  <si>
+    <t>Zane Leisavniece</t>
+  </si>
+  <si>
+    <t>FEE-6603972128817_11</t>
+  </si>
+  <si>
+    <t>Bridgwater</t>
+  </si>
+  <si>
+    <t>Somerset</t>
+  </si>
+  <si>
+    <t>TA6 4RE</t>
+  </si>
+  <si>
+    <t>26-13439-79523</t>
+  </si>
+  <si>
+    <t>dogbook1959</t>
+  </si>
+  <si>
+    <t>steven eastham</t>
+  </si>
+  <si>
+    <t>FEE-6603604193517_11</t>
+  </si>
+  <si>
+    <t>Preston, Freckleton</t>
+  </si>
+  <si>
+    <t>PR4 1SQ</t>
+  </si>
+  <si>
+    <t>Massage Office Chair Gaming Computer Desk Swivel Recliner Chair Leather Footrest</t>
+  </si>
+  <si>
+    <t>Executive Black Chair 250601000002</t>
+  </si>
+  <si>
+    <t>02-13472-20705</t>
+  </si>
+  <si>
+    <t>teddysmith1</t>
+  </si>
+  <si>
+    <t>Anthony Sutcliffe JNR</t>
+  </si>
+  <si>
+    <t>FEE-6603528397717_11</t>
+  </si>
+  <si>
+    <t>Wigan, Appley Bridge</t>
+  </si>
+  <si>
+    <t>Greater Manchester</t>
+  </si>
+  <si>
+    <t>WN6 9LE</t>
+  </si>
+  <si>
+    <t>24-13457-04995</t>
+  </si>
+  <si>
+    <t>tina-amy</t>
+  </si>
+  <si>
+    <t>sheila brock</t>
+  </si>
+  <si>
+    <t>FEE-6603494806517_11</t>
+  </si>
+  <si>
+    <t>04-13469-24028</t>
+  </si>
+  <si>
+    <t>Tina Martin</t>
+  </si>
+  <si>
+    <t>FEE-6603494017617_11</t>
+  </si>
+  <si>
+    <t>Wisbech</t>
+  </si>
+  <si>
+    <t>PE13 3HS</t>
+  </si>
+  <si>
+    <t>8Led Usb Light Cool 250601000009 (4pc)</t>
+  </si>
+  <si>
+    <t>wisbech</t>
+  </si>
+  <si>
+    <t>pe133hb</t>
+  </si>
+  <si>
+    <t>19-13449-07201</t>
+  </si>
+  <si>
+    <t>jamesmchapman2008</t>
+  </si>
+  <si>
+    <t>James Chapman</t>
+  </si>
+  <si>
+    <t>FEE-6603471682017_11</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>LN2 5RS</t>
+  </si>
+  <si>
+    <t>08-13463-16075</t>
+  </si>
+  <si>
+    <t>reene13</t>
+  </si>
+  <si>
+    <t>malcolm pritchard</t>
+  </si>
+  <si>
+    <t>FEE-6603164948517_11</t>
+  </si>
+  <si>
+    <t>CAERPHILLY</t>
+  </si>
+  <si>
+    <t>Caerphilly</t>
+  </si>
+  <si>
+    <t>CF83 2UG</t>
+  </si>
+  <si>
+    <t>27-13437-52777</t>
+  </si>
+  <si>
+    <t>xr4i84</t>
+  </si>
+  <si>
+    <t>dave lowden</t>
+  </si>
+  <si>
+    <t>FEE-6602866787317_11</t>
+  </si>
+  <si>
+    <t>holmpton</t>
+  </si>
+  <si>
+    <t>hu19 2ra</t>
+  </si>
+  <si>
+    <t>02-13471-11562</t>
+  </si>
+  <si>
+    <t>bmer520161</t>
+  </si>
+  <si>
+    <t>David Coe</t>
+  </si>
+  <si>
+    <t>FEE-6602819957717_11</t>
+  </si>
+  <si>
+    <t>Manchester, Failsworth</t>
+  </si>
+  <si>
+    <t>M35 0QP</t>
+  </si>
+  <si>
+    <t>14-13454-64718</t>
+  </si>
+  <si>
+    <t>joseagy5</t>
+  </si>
+  <si>
+    <t>Joselyne Agyeman</t>
+  </si>
+  <si>
+    <t>FEE-6602715329217_11</t>
+  </si>
+  <si>
+    <t>Southend -on-sea</t>
+  </si>
+  <si>
+    <t>SS1 1DU</t>
+  </si>
+  <si>
+    <t>05-13466-70926</t>
+  </si>
+  <si>
+    <t>daballe-15</t>
+  </si>
+  <si>
+    <t>Dante Ballesteros</t>
+  </si>
+  <si>
+    <t>FEE-6602220949417_11</t>
+  </si>
+  <si>
+    <t>Lowestoft</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
+    <t>NR32 4WN</t>
+  </si>
+  <si>
+    <t>19-13447-29192</t>
+  </si>
+  <si>
+    <t>babatunde2</t>
+  </si>
+  <si>
+    <t>FOLA Ogunkola</t>
+  </si>
+  <si>
+    <t>FEE-6601986687717_11</t>
+  </si>
+  <si>
+    <t>N1 9SP</t>
+  </si>
+  <si>
+    <t>10-13458-62558</t>
+  </si>
+  <si>
+    <t>elm-2383</t>
+  </si>
+  <si>
+    <t>Tamer Elmasry</t>
+  </si>
+  <si>
+    <t>FEE-6601585080717_11</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>B928JF</t>
+  </si>
+  <si>
+    <t>25-13437-73483</t>
+  </si>
+  <si>
+    <t>karenelaine20</t>
+  </si>
+  <si>
+    <t>karen hart</t>
+  </si>
+  <si>
+    <t>FEE-6601037806017_11</t>
+  </si>
+  <si>
+    <t>S21 4HX</t>
+  </si>
+  <si>
+    <t>08-13460-05974</t>
+  </si>
+  <si>
+    <t>inkemerald</t>
+  </si>
+  <si>
+    <t>David Tyler</t>
+  </si>
+  <si>
+    <t>FEE-6600924132017_11</t>
+  </si>
+  <si>
+    <t>Seaford</t>
+  </si>
+  <si>
+    <t>East Sussex</t>
+  </si>
+  <si>
+    <t>BN25 3ES</t>
+  </si>
+  <si>
+    <t>FEE-6600915237317_11</t>
+  </si>
+  <si>
+    <t>26-13435-77918</t>
+  </si>
+  <si>
+    <t>123-basra</t>
+  </si>
+  <si>
+    <t>mr s basra</t>
+  </si>
+  <si>
+    <t>FEE-6600783854617_11</t>
+  </si>
+  <si>
+    <t>22-13441-16437</t>
+  </si>
+  <si>
+    <t>konaboy201_40</t>
+  </si>
+  <si>
+    <t>Christina Strang</t>
+  </si>
+  <si>
+    <t>FEE-6600774348717_11</t>
+  </si>
+  <si>
+    <t>kingswinford</t>
+  </si>
+  <si>
+    <t>dy6 9hu</t>
+  </si>
+  <si>
+    <t>Larbert</t>
+  </si>
+  <si>
+    <t>Stirlingshire</t>
+  </si>
+  <si>
+    <t>FK5 3DW</t>
+  </si>
+  <si>
+    <t>21-13442-10724</t>
+  </si>
+  <si>
+    <t>bunmutineer</t>
+  </si>
+  <si>
+    <t>John Carroll</t>
+  </si>
+  <si>
+    <t>FEE-6600677171817_11</t>
+  </si>
+  <si>
+    <t>Tewkesbury</t>
+  </si>
+  <si>
+    <t>Gloucestershire</t>
+  </si>
+  <si>
+    <t>GL20 8BP</t>
+  </si>
+  <si>
+    <t>20-13442-92855</t>
+  </si>
+  <si>
+    <t>sylme401</t>
+  </si>
+  <si>
+    <t>Sylvia Mead</t>
+  </si>
+  <si>
+    <t>FEE-6600070074217_11</t>
+  </si>
+  <si>
+    <t>Sheerness</t>
+  </si>
+  <si>
+    <t>ME12 3EW</t>
+  </si>
+  <si>
+    <t>FEE-6599833796317_11</t>
+  </si>
+  <si>
+    <t>FEE-6599699268017_11</t>
   </si>
 </sst>
 </file>
@@ -2374,10 +2764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL155"/>
+  <dimension ref="A1:AL199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:XFD155"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="E203" sqref="E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15630,22 +16020,22 @@
     </row>
     <row r="125" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45885</v>
+        <v>45883</v>
       </c>
       <c r="B125" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C125" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="D125" t="s">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="E125" t="s">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="F125" t="s">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="G125" t="s">
         <v>0</v>
@@ -15660,16 +16050,16 @@
         <v>0</v>
       </c>
       <c r="K125">
-        <v>-112.5</v>
+        <v>-2.87</v>
       </c>
       <c r="L125" t="s">
         <v>54</v>
       </c>
-      <c r="M125" t="s">
-        <v>0</v>
+      <c r="M125" s="1">
+        <v>45884</v>
       </c>
       <c r="N125">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O125" t="s">
         <v>55</v>
@@ -15680,8 +16070,8 @@
       <c r="Q125" t="s">
         <v>0</v>
       </c>
-      <c r="R125" t="s">
-        <v>0</v>
+      <c r="R125">
+        <v>186905975156</v>
       </c>
       <c r="S125" t="s">
         <v>0</v>
@@ -15729,7 +16119,7 @@
         <v>0</v>
       </c>
       <c r="AH125">
-        <v>-112.5</v>
+        <v>-2.87</v>
       </c>
       <c r="AI125" t="s">
         <v>54</v>
@@ -15738,54 +16128,54 @@
         <v>0</v>
       </c>
       <c r="AK125" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
       <c r="AL125" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="126" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B126" t="s">
+        <v>52</v>
+      </c>
+      <c r="C126" t="s">
+        <v>419</v>
+      </c>
+      <c r="D126" t="s">
+        <v>419</v>
+      </c>
+      <c r="E126" t="s">
+        <v>420</v>
+      </c>
+      <c r="F126" t="s">
+        <v>421</v>
+      </c>
+      <c r="G126" t="s">
+        <v>423</v>
+      </c>
+      <c r="H126" t="s">
+        <v>424</v>
+      </c>
+      <c r="I126" t="s">
+        <v>425</v>
+      </c>
+      <c r="J126" t="s">
+        <v>53</v>
+      </c>
+      <c r="K126">
+        <v>17.84</v>
+      </c>
+      <c r="L126" t="s">
+        <v>54</v>
+      </c>
+      <c r="M126" s="1">
         <v>45884</v>
       </c>
-      <c r="B126" t="s">
-        <v>58</v>
-      </c>
-      <c r="C126" t="s">
-        <v>468</v>
-      </c>
-      <c r="D126" t="s">
-        <v>468</v>
-      </c>
-      <c r="E126" t="s">
-        <v>469</v>
-      </c>
-      <c r="F126" t="s">
-        <v>470</v>
-      </c>
-      <c r="G126" t="s">
-        <v>0</v>
-      </c>
-      <c r="H126" t="s">
-        <v>0</v>
-      </c>
-      <c r="I126" t="s">
-        <v>0</v>
-      </c>
-      <c r="J126" t="s">
-        <v>0</v>
-      </c>
-      <c r="K126">
-        <v>-2.81</v>
-      </c>
-      <c r="L126" t="s">
-        <v>54</v>
-      </c>
-      <c r="M126" s="1">
-        <v>45885</v>
-      </c>
       <c r="N126">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O126" t="s">
         <v>55</v>
@@ -15799,22 +16189,22 @@
       <c r="R126">
         <v>186905975156</v>
       </c>
-      <c r="S126" t="s">
-        <v>0</v>
+      <c r="S126">
+        <v>10074059702720</v>
       </c>
       <c r="T126" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="U126" t="s">
-        <v>0</v>
-      </c>
-      <c r="V126" t="s">
-        <v>0</v>
-      </c>
-      <c r="W126" t="s">
-        <v>0</v>
-      </c>
-      <c r="X126" t="s">
+        <v>372</v>
+      </c>
+      <c r="V126">
+        <v>1</v>
+      </c>
+      <c r="W126">
+        <v>19.940000000000001</v>
+      </c>
+      <c r="X126">
         <v>0</v>
       </c>
       <c r="Y126" t="s">
@@ -15826,14 +16216,14 @@
       <c r="AA126" s="2">
         <v>0</v>
       </c>
-      <c r="AB126" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD126" t="s">
-        <v>0</v>
+      <c r="AB126">
+        <v>-0.36</v>
+      </c>
+      <c r="AC126">
+        <v>-1.66</v>
+      </c>
+      <c r="AD126">
+        <v>-0.08</v>
       </c>
       <c r="AE126" t="s">
         <v>0</v>
@@ -15845,7 +16235,7 @@
         <v>0</v>
       </c>
       <c r="AH126">
-        <v>-2.81</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="AI126" t="s">
         <v>54</v>
@@ -15854,83 +16244,83 @@
         <v>0</v>
       </c>
       <c r="AK126" t="s">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="AL126" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B127" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127" t="s">
+        <v>426</v>
+      </c>
+      <c r="D127" t="s">
+        <v>426</v>
+      </c>
+      <c r="E127" t="s">
+        <v>427</v>
+      </c>
+      <c r="F127" t="s">
+        <v>428</v>
+      </c>
+      <c r="G127" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>-2.66</v>
+      </c>
+      <c r="L127" t="s">
+        <v>54</v>
+      </c>
+      <c r="M127" s="1">
         <v>45884</v>
       </c>
-      <c r="B127" t="s">
-        <v>52</v>
-      </c>
-      <c r="C127" t="s">
-        <v>468</v>
-      </c>
-      <c r="D127" t="s">
-        <v>468</v>
-      </c>
-      <c r="E127" t="s">
-        <v>469</v>
-      </c>
-      <c r="F127" t="s">
-        <v>470</v>
-      </c>
-      <c r="G127" t="s">
-        <v>472</v>
-      </c>
-      <c r="H127" t="s">
-        <v>72</v>
-      </c>
-      <c r="I127" t="s">
-        <v>473</v>
-      </c>
-      <c r="J127" t="s">
-        <v>53</v>
-      </c>
-      <c r="K127">
-        <v>17.420000000000002</v>
-      </c>
-      <c r="L127" t="s">
-        <v>54</v>
-      </c>
-      <c r="M127" t="s">
-        <v>0</v>
-      </c>
-      <c r="N127" t="s">
-        <v>0</v>
+      <c r="N127">
+        <v>7023633011</v>
       </c>
       <c r="O127" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P127" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q127" t="s">
         <v>0</v>
       </c>
       <c r="R127">
-        <v>186905975156</v>
-      </c>
-      <c r="S127">
-        <v>10074840794711</v>
+        <v>187483035573</v>
+      </c>
+      <c r="S127" t="s">
+        <v>0</v>
       </c>
       <c r="T127" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="U127" t="s">
-        <v>372</v>
-      </c>
-      <c r="V127">
-        <v>1</v>
-      </c>
-      <c r="W127">
-        <v>19.47</v>
-      </c>
-      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="V127" t="s">
+        <v>0</v>
+      </c>
+      <c r="W127" t="s">
+        <v>0</v>
+      </c>
+      <c r="X127" t="s">
         <v>0</v>
       </c>
       <c r="Y127" t="s">
@@ -15942,14 +16332,14 @@
       <c r="AA127" s="2">
         <v>0</v>
       </c>
-      <c r="AB127">
-        <v>-0.36</v>
-      </c>
-      <c r="AC127">
-        <v>-1.61</v>
-      </c>
-      <c r="AD127">
-        <v>-0.08</v>
+      <c r="AB127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD127" t="s">
+        <v>0</v>
       </c>
       <c r="AE127" t="s">
         <v>0</v>
@@ -15961,7 +16351,7 @@
         <v>0</v>
       </c>
       <c r="AH127">
-        <v>19.47</v>
+        <v>-2.66</v>
       </c>
       <c r="AI127" t="s">
         <v>54</v>
@@ -15970,54 +16360,54 @@
         <v>0</v>
       </c>
       <c r="AK127" t="s">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="AL127" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="B128" t="s">
         <v>52</v>
       </c>
       <c r="C128" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="D128" t="s">
-        <v>474</v>
+        <v>426</v>
       </c>
       <c r="E128" t="s">
-        <v>475</v>
+        <v>427</v>
       </c>
       <c r="F128" t="s">
-        <v>476</v>
+        <v>428</v>
       </c>
       <c r="G128" t="s">
-        <v>477</v>
+        <v>430</v>
       </c>
       <c r="H128" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="I128" t="s">
-        <v>479</v>
+        <v>432</v>
       </c>
       <c r="J128" t="s">
         <v>53</v>
       </c>
       <c r="K128">
-        <v>33.619999999999997</v>
+        <v>16.98</v>
       </c>
       <c r="L128" t="s">
         <v>54</v>
       </c>
       <c r="M128" s="1">
-        <v>45885</v>
+        <v>45884</v>
       </c>
       <c r="N128">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O128" t="s">
         <v>55</v>
@@ -16029,22 +16419,22 @@
         <v>0</v>
       </c>
       <c r="R128">
-        <v>187492038669</v>
+        <v>187483035573</v>
       </c>
       <c r="S128">
-        <v>10073917068725</v>
+        <v>10074813066811</v>
       </c>
       <c r="T128" t="s">
-        <v>480</v>
+        <v>371</v>
       </c>
       <c r="U128" t="s">
-        <v>481</v>
+        <v>372</v>
       </c>
       <c r="V128">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W128">
-        <v>39.56</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="X128">
         <v>0</v>
@@ -16059,13 +16449,13 @@
         <v>0</v>
       </c>
       <c r="AB128">
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="AC128">
-        <v>-5.65</v>
+        <v>-1.57</v>
       </c>
       <c r="AD128">
-        <v>-0.17</v>
+        <v>-0.08</v>
       </c>
       <c r="AE128" t="s">
         <v>0</v>
@@ -16077,7 +16467,7 @@
         <v>0</v>
       </c>
       <c r="AH128">
-        <v>39.56</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="AI128" t="s">
         <v>54</v>
@@ -16094,22 +16484,22 @@
     </row>
     <row r="129" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="B129" t="s">
         <v>58</v>
       </c>
       <c r="C129" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="D129" t="s">
-        <v>482</v>
+        <v>433</v>
       </c>
       <c r="E129" t="s">
-        <v>483</v>
+        <v>434</v>
       </c>
       <c r="F129" t="s">
-        <v>484</v>
+        <v>435</v>
       </c>
       <c r="G129" t="s">
         <v>0</v>
@@ -16124,16 +16514,16 @@
         <v>0</v>
       </c>
       <c r="K129">
-        <v>-1.04</v>
+        <v>-1.88</v>
       </c>
       <c r="L129" t="s">
         <v>54</v>
       </c>
       <c r="M129" s="1">
-        <v>45885</v>
+        <v>45884</v>
       </c>
       <c r="N129">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O129" t="s">
         <v>55</v>
@@ -16145,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="R129">
-        <v>186821285299</v>
+        <v>187473651729</v>
       </c>
       <c r="S129" t="s">
         <v>0</v>
@@ -16193,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="AH129">
-        <v>-1.04</v>
+        <v>-1.88</v>
       </c>
       <c r="AI129" t="s">
         <v>54</v>
@@ -16202,7 +16592,7 @@
         <v>0</v>
       </c>
       <c r="AK129" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="AL129" t="s">
         <v>59</v>
@@ -16210,46 +16600,46 @@
     </row>
     <row r="130" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B130" t="s">
+        <v>58</v>
+      </c>
+      <c r="C130" t="s">
+        <v>359</v>
+      </c>
+      <c r="D130" t="s">
+        <v>359</v>
+      </c>
+      <c r="E130" t="s">
+        <v>360</v>
+      </c>
+      <c r="F130" t="s">
+        <v>361</v>
+      </c>
+      <c r="G130" t="s">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>-1.19</v>
+      </c>
+      <c r="L130" t="s">
+        <v>54</v>
+      </c>
+      <c r="M130" s="1">
         <v>45884</v>
       </c>
-      <c r="B130" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" t="s">
-        <v>482</v>
-      </c>
-      <c r="D130" t="s">
-        <v>482</v>
-      </c>
-      <c r="E130" t="s">
-        <v>483</v>
-      </c>
-      <c r="F130" t="s">
-        <v>484</v>
-      </c>
-      <c r="G130" t="s">
-        <v>486</v>
-      </c>
-      <c r="H130" t="s">
-        <v>487</v>
-      </c>
-      <c r="I130" t="s">
-        <v>488</v>
-      </c>
-      <c r="J130" t="s">
-        <v>53</v>
-      </c>
-      <c r="K130">
-        <v>7.01</v>
-      </c>
-      <c r="L130" t="s">
-        <v>54</v>
-      </c>
-      <c r="M130" s="1">
-        <v>45885</v>
-      </c>
       <c r="N130">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O130" t="s">
         <v>55</v>
@@ -16261,24 +16651,24 @@
         <v>0</v>
       </c>
       <c r="R130">
-        <v>186821285299</v>
-      </c>
-      <c r="S130">
-        <v>10079182588507</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S130" t="s">
+        <v>0</v>
       </c>
       <c r="T130" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="U130" t="s">
-        <v>489</v>
-      </c>
-      <c r="V130">
-        <v>1</v>
-      </c>
-      <c r="W130">
-        <v>9.02</v>
-      </c>
-      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="V130" t="s">
+        <v>0</v>
+      </c>
+      <c r="W130" t="s">
+        <v>0</v>
+      </c>
+      <c r="X130" t="s">
         <v>0</v>
       </c>
       <c r="Y130" t="s">
@@ -16290,17 +16680,17 @@
       <c r="AA130" s="2">
         <v>0</v>
       </c>
-      <c r="AB130">
-        <v>-0.36</v>
-      </c>
-      <c r="AC130">
-        <v>-1.18</v>
-      </c>
-      <c r="AD130">
-        <v>-0.04</v>
-      </c>
-      <c r="AE130">
-        <v>-0.43</v>
+      <c r="AB130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD130" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE130" t="s">
+        <v>0</v>
       </c>
       <c r="AF130" t="s">
         <v>0</v>
@@ -16309,7 +16699,7 @@
         <v>0</v>
       </c>
       <c r="AH130">
-        <v>9.02</v>
+        <v>-1.19</v>
       </c>
       <c r="AI130" t="s">
         <v>54</v>
@@ -16318,54 +16708,54 @@
         <v>0</v>
       </c>
       <c r="AK130" t="s">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="AL130" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="131" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B131" t="s">
+        <v>52</v>
+      </c>
+      <c r="C131" t="s">
+        <v>433</v>
+      </c>
+      <c r="D131" t="s">
+        <v>433</v>
+      </c>
+      <c r="E131" t="s">
+        <v>434</v>
+      </c>
+      <c r="F131" t="s">
+        <v>435</v>
+      </c>
+      <c r="G131" t="s">
+        <v>438</v>
+      </c>
+      <c r="H131" t="s">
+        <v>61</v>
+      </c>
+      <c r="I131" t="s">
+        <v>439</v>
+      </c>
+      <c r="J131" t="s">
+        <v>53</v>
+      </c>
+      <c r="K131">
+        <v>15.61</v>
+      </c>
+      <c r="L131" t="s">
+        <v>54</v>
+      </c>
+      <c r="M131" s="1">
         <v>45884</v>
       </c>
-      <c r="B131" t="s">
-        <v>58</v>
-      </c>
-      <c r="C131" t="s">
-        <v>490</v>
-      </c>
-      <c r="D131" t="s">
-        <v>490</v>
-      </c>
-      <c r="E131" t="s">
-        <v>491</v>
-      </c>
-      <c r="F131" t="s">
-        <v>492</v>
-      </c>
-      <c r="G131" t="s">
-        <v>0</v>
-      </c>
-      <c r="H131" t="s">
-        <v>0</v>
-      </c>
-      <c r="I131" t="s">
-        <v>0</v>
-      </c>
-      <c r="J131" t="s">
-        <v>0</v>
-      </c>
-      <c r="K131">
-        <v>-8.35</v>
-      </c>
-      <c r="L131" t="s">
-        <v>54</v>
-      </c>
-      <c r="M131" s="1">
-        <v>45885</v>
-      </c>
       <c r="N131">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O131" t="s">
         <v>55</v>
@@ -16377,24 +16767,24 @@
         <v>0</v>
       </c>
       <c r="R131">
-        <v>187473652251</v>
-      </c>
-      <c r="S131" t="s">
-        <v>0</v>
+        <v>187473651729</v>
+      </c>
+      <c r="S131">
+        <v>10074726327214</v>
       </c>
       <c r="T131" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="U131" t="s">
-        <v>0</v>
-      </c>
-      <c r="V131" t="s">
-        <v>0</v>
-      </c>
-      <c r="W131" t="s">
-        <v>0</v>
-      </c>
-      <c r="X131" t="s">
+        <v>75</v>
+      </c>
+      <c r="V131">
+        <v>1</v>
+      </c>
+      <c r="W131">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="X131">
         <v>0</v>
       </c>
       <c r="Y131" t="s">
@@ -16406,14 +16796,14 @@
       <c r="AA131" s="2">
         <v>0</v>
       </c>
-      <c r="AB131" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC131" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD131" t="s">
-        <v>0</v>
+      <c r="AB131">
+        <v>-0.36</v>
+      </c>
+      <c r="AC131">
+        <v>-1.45</v>
+      </c>
+      <c r="AD131">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE131" t="s">
         <v>0</v>
@@ -16425,7 +16815,7 @@
         <v>0</v>
       </c>
       <c r="AH131">
-        <v>-8.35</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="AI131" t="s">
         <v>54</v>
@@ -16434,54 +16824,54 @@
         <v>0</v>
       </c>
       <c r="AK131" t="s">
-        <v>493</v>
+        <v>0</v>
       </c>
       <c r="AL131" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B132" t="s">
+        <v>58</v>
+      </c>
+      <c r="C132" t="s">
+        <v>440</v>
+      </c>
+      <c r="D132" t="s">
+        <v>440</v>
+      </c>
+      <c r="E132" t="s">
+        <v>441</v>
+      </c>
+      <c r="F132" t="s">
+        <v>442</v>
+      </c>
+      <c r="G132" t="s">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>-3.18</v>
+      </c>
+      <c r="L132" t="s">
+        <v>54</v>
+      </c>
+      <c r="M132" s="1">
         <v>45884</v>
       </c>
-      <c r="B132" t="s">
-        <v>52</v>
-      </c>
-      <c r="C132" t="s">
-        <v>490</v>
-      </c>
-      <c r="D132" t="s">
-        <v>490</v>
-      </c>
-      <c r="E132" t="s">
-        <v>491</v>
-      </c>
-      <c r="F132" t="s">
-        <v>492</v>
-      </c>
-      <c r="G132" t="s">
-        <v>494</v>
-      </c>
-      <c r="H132" t="s">
-        <v>495</v>
-      </c>
-      <c r="I132" t="s">
-        <v>496</v>
-      </c>
-      <c r="J132" t="s">
-        <v>53</v>
-      </c>
-      <c r="K132">
-        <v>47.03</v>
-      </c>
-      <c r="L132" t="s">
-        <v>54</v>
-      </c>
-      <c r="M132" s="1">
-        <v>45885</v>
-      </c>
       <c r="N132">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O132" t="s">
         <v>55</v>
@@ -16493,24 +16883,24 @@
         <v>0</v>
       </c>
       <c r="R132">
-        <v>187473652251</v>
-      </c>
-      <c r="S132">
-        <v>10074365778202</v>
+        <v>187483349258</v>
+      </c>
+      <c r="S132" t="s">
+        <v>0</v>
       </c>
       <c r="T132" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="U132" t="s">
-        <v>93</v>
-      </c>
-      <c r="V132">
-        <v>1</v>
-      </c>
-      <c r="W132">
-        <v>57.99</v>
-      </c>
-      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="V132" t="s">
+        <v>0</v>
+      </c>
+      <c r="W132" t="s">
+        <v>0</v>
+      </c>
+      <c r="X132" t="s">
         <v>0</v>
       </c>
       <c r="Y132" t="s">
@@ -16522,17 +16912,17 @@
       <c r="AA132" s="2">
         <v>0</v>
       </c>
-      <c r="AB132">
-        <v>-0.36</v>
-      </c>
-      <c r="AC132">
-        <v>-7.58</v>
-      </c>
-      <c r="AD132">
-        <v>-0.24</v>
-      </c>
-      <c r="AE132">
-        <v>-2.78</v>
+      <c r="AB132" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD132" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE132" t="s">
+        <v>0</v>
       </c>
       <c r="AF132" t="s">
         <v>0</v>
@@ -16541,7 +16931,7 @@
         <v>0</v>
       </c>
       <c r="AH132">
-        <v>57.99</v>
+        <v>-3.18</v>
       </c>
       <c r="AI132" t="s">
         <v>54</v>
@@ -16550,54 +16940,54 @@
         <v>0</v>
       </c>
       <c r="AK132" t="s">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="AL132" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="133" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B133" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>440</v>
+      </c>
+      <c r="E133" t="s">
+        <v>441</v>
+      </c>
+      <c r="F133" t="s">
+        <v>442</v>
+      </c>
+      <c r="G133" t="s">
+        <v>239</v>
+      </c>
+      <c r="H133" t="s">
+        <v>240</v>
+      </c>
+      <c r="I133" t="s">
+        <v>444</v>
+      </c>
+      <c r="J133" t="s">
+        <v>53</v>
+      </c>
+      <c r="K133">
+        <v>17.11</v>
+      </c>
+      <c r="L133" t="s">
+        <v>54</v>
+      </c>
+      <c r="M133" s="1">
         <v>45884</v>
       </c>
-      <c r="B133" t="s">
-        <v>58</v>
-      </c>
-      <c r="C133" t="s">
-        <v>497</v>
-      </c>
-      <c r="D133" t="s">
-        <v>497</v>
-      </c>
-      <c r="E133" t="s">
-        <v>498</v>
-      </c>
-      <c r="F133" t="s">
-        <v>499</v>
-      </c>
-      <c r="G133" t="s">
-        <v>0</v>
-      </c>
-      <c r="H133" t="s">
-        <v>0</v>
-      </c>
-      <c r="I133" t="s">
-        <v>0</v>
-      </c>
-      <c r="J133" t="s">
-        <v>0</v>
-      </c>
-      <c r="K133">
-        <v>-4.67</v>
-      </c>
-      <c r="L133" t="s">
-        <v>54</v>
-      </c>
-      <c r="M133" s="1">
-        <v>45885</v>
-      </c>
       <c r="N133">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O133" t="s">
         <v>55</v>
@@ -16609,24 +16999,24 @@
         <v>0</v>
       </c>
       <c r="R133">
-        <v>187473645996</v>
-      </c>
-      <c r="S133" t="s">
-        <v>0</v>
+        <v>187483349258</v>
+      </c>
+      <c r="S133">
+        <v>10074757908710</v>
       </c>
       <c r="T133" t="s">
-        <v>0</v>
+        <v>445</v>
       </c>
       <c r="U133" t="s">
-        <v>0</v>
-      </c>
-      <c r="V133" t="s">
-        <v>0</v>
-      </c>
-      <c r="W133" t="s">
-        <v>0</v>
-      </c>
-      <c r="X133" t="s">
+        <v>446</v>
+      </c>
+      <c r="V133">
+        <v>1</v>
+      </c>
+      <c r="W133">
+        <v>21.37</v>
+      </c>
+      <c r="X133">
         <v>0</v>
       </c>
       <c r="Y133" t="s">
@@ -16638,17 +17028,17 @@
       <c r="AA133" s="2">
         <v>0</v>
       </c>
-      <c r="AB133" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC133" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD133" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE133" t="s">
-        <v>0</v>
+      <c r="AB133">
+        <v>-0.36</v>
+      </c>
+      <c r="AC133">
+        <v>-2.8</v>
+      </c>
+      <c r="AD133">
+        <v>-0.08</v>
+      </c>
+      <c r="AE133">
+        <v>-1.02</v>
       </c>
       <c r="AF133" t="s">
         <v>0</v>
@@ -16657,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="AH133">
-        <v>-4.67</v>
+        <v>21.37</v>
       </c>
       <c r="AI133" t="s">
         <v>54</v>
@@ -16666,54 +17056,54 @@
         <v>0</v>
       </c>
       <c r="AK133" t="s">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AL133" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B134" t="s">
+        <v>58</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>-0.12</v>
+      </c>
+      <c r="L134" t="s">
+        <v>54</v>
+      </c>
+      <c r="M134" s="1">
         <v>45884</v>
       </c>
-      <c r="B134" t="s">
-        <v>52</v>
-      </c>
-      <c r="C134" t="s">
-        <v>497</v>
-      </c>
-      <c r="D134" t="s">
-        <v>497</v>
-      </c>
-      <c r="E134" t="s">
-        <v>498</v>
-      </c>
-      <c r="F134" t="s">
-        <v>499</v>
-      </c>
-      <c r="G134" t="s">
-        <v>501</v>
-      </c>
-      <c r="H134" t="s">
-        <v>502</v>
-      </c>
-      <c r="I134" t="s">
-        <v>503</v>
-      </c>
-      <c r="J134" t="s">
-        <v>53</v>
-      </c>
-      <c r="K134">
-        <v>26.75</v>
-      </c>
-      <c r="L134" t="s">
-        <v>54</v>
-      </c>
-      <c r="M134" s="1">
-        <v>45885</v>
-      </c>
       <c r="N134">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O134" t="s">
         <v>55</v>
@@ -16725,24 +17115,24 @@
         <v>0</v>
       </c>
       <c r="R134">
-        <v>187473645996</v>
-      </c>
-      <c r="S134">
-        <v>10074299824805</v>
+        <v>187488931137</v>
+      </c>
+      <c r="S134" t="s">
+        <v>0</v>
       </c>
       <c r="T134" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="U134" t="s">
-        <v>102</v>
-      </c>
-      <c r="V134">
-        <v>1</v>
-      </c>
-      <c r="W134">
-        <v>31.34</v>
-      </c>
-      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="V134" t="s">
+        <v>0</v>
+      </c>
+      <c r="W134" t="s">
+        <v>0</v>
+      </c>
+      <c r="X134" t="s">
         <v>0</v>
       </c>
       <c r="Y134" t="s">
@@ -16754,14 +17144,14 @@
       <c r="AA134" s="2">
         <v>0</v>
       </c>
-      <c r="AB134">
-        <v>-0.36</v>
-      </c>
-      <c r="AC134">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="AD134">
-        <v>-0.13</v>
+      <c r="AB134" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD134" t="s">
+        <v>0</v>
       </c>
       <c r="AE134" t="s">
         <v>0</v>
@@ -16773,7 +17163,7 @@
         <v>0</v>
       </c>
       <c r="AH134">
-        <v>31.34</v>
+        <v>-0.12</v>
       </c>
       <c r="AI134" t="s">
         <v>54</v>
@@ -16782,30 +17172,30 @@
         <v>0</v>
       </c>
       <c r="AK134" t="s">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="AL134" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="135" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="B135" t="s">
         <v>58</v>
       </c>
       <c r="C135" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="D135" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="E135" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="F135" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="G135" t="s">
         <v>0</v>
@@ -16820,16 +17210,16 @@
         <v>0</v>
       </c>
       <c r="K135">
-        <v>-2.52</v>
+        <v>-1.88</v>
       </c>
       <c r="L135" t="s">
         <v>54</v>
       </c>
       <c r="M135" s="1">
-        <v>45885</v>
+        <v>45884</v>
       </c>
       <c r="N135">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O135" t="s">
         <v>55</v>
@@ -16841,7 +17231,7 @@
         <v>0</v>
       </c>
       <c r="R135">
-        <v>186821285299</v>
+        <v>187473651729</v>
       </c>
       <c r="S135" t="s">
         <v>0</v>
@@ -16889,7 +17279,7 @@
         <v>0</v>
       </c>
       <c r="AH135">
-        <v>-2.52</v>
+        <v>-1.88</v>
       </c>
       <c r="AI135" t="s">
         <v>54</v>
@@ -16898,7 +17288,7 @@
         <v>0</v>
       </c>
       <c r="AK135" t="s">
-        <v>507</v>
+        <v>451</v>
       </c>
       <c r="AL135" t="s">
         <v>59</v>
@@ -16906,46 +17296,46 @@
     </row>
     <row r="136" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45884</v>
+        <v>45883</v>
       </c>
       <c r="B136" t="s">
         <v>52</v>
       </c>
       <c r="C136" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="D136" t="s">
-        <v>504</v>
+        <v>448</v>
       </c>
       <c r="E136" t="s">
-        <v>505</v>
+        <v>449</v>
       </c>
       <c r="F136" t="s">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="G136" t="s">
-        <v>508</v>
+        <v>452</v>
       </c>
       <c r="H136" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="I136" t="s">
-        <v>509</v>
+        <v>453</v>
       </c>
       <c r="J136" t="s">
         <v>53</v>
       </c>
       <c r="K136">
-        <v>17.48</v>
+        <v>15.61</v>
       </c>
       <c r="L136" t="s">
         <v>54</v>
       </c>
       <c r="M136" s="1">
-        <v>45885</v>
+        <v>45884</v>
       </c>
       <c r="N136">
-        <v>7025493539</v>
+        <v>7023633011</v>
       </c>
       <c r="O136" t="s">
         <v>55</v>
@@ -16957,22 +17347,22 @@
         <v>0</v>
       </c>
       <c r="R136">
-        <v>186821285299</v>
+        <v>187473651729</v>
       </c>
       <c r="S136">
-        <v>10073912362525</v>
+        <v>10074805403811</v>
       </c>
       <c r="T136" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="U136" t="s">
-        <v>228</v>
+        <v>75</v>
       </c>
       <c r="V136">
         <v>1</v>
       </c>
       <c r="W136">
-        <v>21.84</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="X136">
         <v>0</v>
@@ -16990,13 +17380,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC136">
-        <v>-2.86</v>
+        <v>-1.45</v>
       </c>
       <c r="AD136">
-        <v>-0.1</v>
-      </c>
-      <c r="AE136">
-        <v>-1.04</v>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE136" t="s">
+        <v>0</v>
       </c>
       <c r="AF136" t="s">
         <v>0</v>
@@ -17005,7 +17395,7 @@
         <v>0</v>
       </c>
       <c r="AH136">
-        <v>21.84</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="AI136" t="s">
         <v>54</v>
@@ -17022,43 +17412,43 @@
     </row>
     <row r="137" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
+        <v>45883</v>
+      </c>
+      <c r="B137" t="s">
+        <v>58</v>
+      </c>
+      <c r="C137" t="s">
+        <v>454</v>
+      </c>
+      <c r="D137" t="s">
+        <v>454</v>
+      </c>
+      <c r="E137" t="s">
+        <v>455</v>
+      </c>
+      <c r="F137" t="s">
+        <v>456</v>
+      </c>
+      <c r="G137" t="s">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>-3.64</v>
+      </c>
+      <c r="L137" t="s">
+        <v>54</v>
+      </c>
+      <c r="M137" s="1">
         <v>45884</v>
-      </c>
-      <c r="B137" t="s">
-        <v>64</v>
-      </c>
-      <c r="C137" t="s">
-        <v>0</v>
-      </c>
-      <c r="D137" t="s">
-        <v>0</v>
-      </c>
-      <c r="E137" t="s">
-        <v>0</v>
-      </c>
-      <c r="F137" t="s">
-        <v>0</v>
-      </c>
-      <c r="G137" t="s">
-        <v>0</v>
-      </c>
-      <c r="H137" t="s">
-        <v>0</v>
-      </c>
-      <c r="I137" t="s">
-        <v>0</v>
-      </c>
-      <c r="J137" t="s">
-        <v>0</v>
-      </c>
-      <c r="K137">
-        <v>-102.46</v>
-      </c>
-      <c r="L137" t="s">
-        <v>54</v>
-      </c>
-      <c r="M137" t="s">
-        <v>0</v>
       </c>
       <c r="N137">
         <v>7023633011</v>
@@ -17072,8 +17462,8 @@
       <c r="Q137" t="s">
         <v>0</v>
       </c>
-      <c r="R137" t="s">
-        <v>0</v>
+      <c r="R137">
+        <v>187473659746</v>
       </c>
       <c r="S137" t="s">
         <v>0</v>
@@ -17121,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="AH137">
-        <v>-102.46</v>
+        <v>-3.64</v>
       </c>
       <c r="AI137" t="s">
         <v>54</v>
@@ -17130,10 +17520,10 @@
         <v>0</v>
       </c>
       <c r="AK137" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="AL137" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="138" spans="1:38" x14ac:dyDescent="0.25">
@@ -17141,34 +17531,34 @@
         <v>45883</v>
       </c>
       <c r="B138" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C138" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="D138" t="s">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="E138" t="s">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="F138" t="s">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="G138" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H138" t="s">
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="J138" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K138">
-        <v>-2.87</v>
+        <v>23.12</v>
       </c>
       <c r="L138" t="s">
         <v>54</v>
@@ -17189,24 +17579,24 @@
         <v>0</v>
       </c>
       <c r="R138">
-        <v>186905975156</v>
-      </c>
-      <c r="S138" t="s">
-        <v>0</v>
+        <v>187473659746</v>
+      </c>
+      <c r="S138">
+        <v>10074723358115</v>
       </c>
       <c r="T138" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="U138" t="s">
-        <v>0</v>
-      </c>
-      <c r="V138" t="s">
-        <v>0</v>
-      </c>
-      <c r="W138" t="s">
-        <v>0</v>
-      </c>
-      <c r="X138" t="s">
+        <v>173</v>
+      </c>
+      <c r="V138">
+        <v>1</v>
+      </c>
+      <c r="W138">
+        <v>27.54</v>
+      </c>
+      <c r="X138">
         <v>0</v>
       </c>
       <c r="Y138" t="s">
@@ -17218,14 +17608,14 @@
       <c r="AA138" s="2">
         <v>0</v>
       </c>
-      <c r="AB138" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC138" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD138" t="s">
-        <v>0</v>
+      <c r="AB138">
+        <v>-0.36</v>
+      </c>
+      <c r="AC138">
+        <v>-3.94</v>
+      </c>
+      <c r="AD138">
+        <v>-0.12</v>
       </c>
       <c r="AE138" t="s">
         <v>0</v>
@@ -17237,7 +17627,7 @@
         <v>0</v>
       </c>
       <c r="AH138">
-        <v>-2.87</v>
+        <v>27.54</v>
       </c>
       <c r="AI138" t="s">
         <v>54</v>
@@ -17246,10 +17636,10 @@
         <v>0</v>
       </c>
       <c r="AK138" t="s">
-        <v>422</v>
+        <v>0</v>
       </c>
       <c r="AL138" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:38" x14ac:dyDescent="0.25">
@@ -17257,34 +17647,34 @@
         <v>45883</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C139" t="s">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="F139" t="s">
-        <v>421</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>423</v>
+        <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K139">
-        <v>17.84</v>
+        <v>-0.12</v>
       </c>
       <c r="L139" t="s">
         <v>54</v>
@@ -17305,24 +17695,24 @@
         <v>0</v>
       </c>
       <c r="R139">
-        <v>186905975156</v>
-      </c>
-      <c r="S139">
-        <v>10074059702720</v>
+        <v>187488536001</v>
+      </c>
+      <c r="S139" t="s">
+        <v>0</v>
       </c>
       <c r="T139" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="U139" t="s">
-        <v>372</v>
-      </c>
-      <c r="V139">
-        <v>1</v>
-      </c>
-      <c r="W139">
-        <v>19.940000000000001</v>
-      </c>
-      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="V139" t="s">
+        <v>0</v>
+      </c>
+      <c r="W139" t="s">
+        <v>0</v>
+      </c>
+      <c r="X139" t="s">
         <v>0</v>
       </c>
       <c r="Y139" t="s">
@@ -17334,14 +17724,14 @@
       <c r="AA139" s="2">
         <v>0</v>
       </c>
-      <c r="AB139">
-        <v>-0.36</v>
-      </c>
-      <c r="AC139">
-        <v>-1.66</v>
-      </c>
-      <c r="AD139">
-        <v>-0.08</v>
+      <c r="AB139" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD139" t="s">
+        <v>0</v>
       </c>
       <c r="AE139" t="s">
         <v>0</v>
@@ -17353,7 +17743,7 @@
         <v>0</v>
       </c>
       <c r="AH139">
-        <v>19.940000000000001</v>
+        <v>-0.12</v>
       </c>
       <c r="AI139" t="s">
         <v>54</v>
@@ -17362,10 +17752,10 @@
         <v>0</v>
       </c>
       <c r="AK139" t="s">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="AL139" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:38" x14ac:dyDescent="0.25">
@@ -17376,16 +17766,16 @@
         <v>58</v>
       </c>
       <c r="C140" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="D140" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E140" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="F140" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="G140" t="s">
         <v>0</v>
@@ -17400,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="K140">
-        <v>-2.66</v>
+        <v>-1.88</v>
       </c>
       <c r="L140" t="s">
         <v>54</v>
@@ -17421,7 +17811,7 @@
         <v>0</v>
       </c>
       <c r="R140">
-        <v>187483035573</v>
+        <v>187473651729</v>
       </c>
       <c r="S140" t="s">
         <v>0</v>
@@ -17469,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="AH140">
-        <v>-2.66</v>
+        <v>-1.88</v>
       </c>
       <c r="AI140" t="s">
         <v>54</v>
@@ -17478,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="AK140" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="AL140" t="s">
         <v>59</v>
@@ -17492,31 +17882,31 @@
         <v>52</v>
       </c>
       <c r="C141" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="D141" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E141" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="F141" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="G141" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="H141" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="I141" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J141" t="s">
         <v>53</v>
       </c>
       <c r="K141">
-        <v>16.98</v>
+        <v>15.61</v>
       </c>
       <c r="L141" t="s">
         <v>54</v>
@@ -17537,22 +17927,22 @@
         <v>0</v>
       </c>
       <c r="R141">
-        <v>187483035573</v>
+        <v>187473651729</v>
       </c>
       <c r="S141">
-        <v>10074813066811</v>
+        <v>10074273968605</v>
       </c>
       <c r="T141" t="s">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="U141" t="s">
-        <v>372</v>
+        <v>75</v>
       </c>
       <c r="V141">
         <v>1</v>
       </c>
       <c r="W141">
-        <v>18.989999999999998</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="X141">
         <v>0</v>
@@ -17570,10 +17960,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC141">
-        <v>-1.57</v>
+        <v>-1.45</v>
       </c>
       <c r="AD141">
-        <v>-0.08</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE141" t="s">
         <v>0</v>
@@ -17585,7 +17975,7 @@
         <v>0</v>
       </c>
       <c r="AH141">
-        <v>18.989999999999998</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="AI141" t="s">
         <v>54</v>
@@ -17605,19 +17995,19 @@
         <v>45883</v>
       </c>
       <c r="B142" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C142" t="s">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="D142" t="s">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="F142" t="s">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="G142" t="s">
         <v>0</v>
@@ -17632,16 +18022,16 @@
         <v>0</v>
       </c>
       <c r="K142">
-        <v>-1.88</v>
+        <v>-150.88999999999999</v>
       </c>
       <c r="L142" t="s">
         <v>54</v>
       </c>
-      <c r="M142" s="1">
-        <v>45884</v>
+      <c r="M142" t="s">
+        <v>0</v>
       </c>
       <c r="N142">
-        <v>7023633011</v>
+        <v>7022519579</v>
       </c>
       <c r="O142" t="s">
         <v>55</v>
@@ -17652,8 +18042,8 @@
       <c r="Q142" t="s">
         <v>0</v>
       </c>
-      <c r="R142">
-        <v>187473651729</v>
+      <c r="R142" t="s">
+        <v>0</v>
       </c>
       <c r="S142" t="s">
         <v>0</v>
@@ -17701,7 +18091,7 @@
         <v>0</v>
       </c>
       <c r="AH142">
-        <v>-1.88</v>
+        <v>-150.88999999999999</v>
       </c>
       <c r="AI142" t="s">
         <v>54</v>
@@ -17710,30 +18100,30 @@
         <v>0</v>
       </c>
       <c r="AK142" t="s">
-        <v>436</v>
+        <v>345</v>
       </c>
       <c r="AL142" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="143" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B143" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C143" t="s">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="D143" t="s">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="F143" t="s">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="G143" t="s">
         <v>0</v>
@@ -17748,16 +18138,16 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>-1.19</v>
+        <v>-312.18</v>
       </c>
       <c r="L143" t="s">
         <v>54</v>
       </c>
-      <c r="M143" s="1">
-        <v>45884</v>
+      <c r="M143" t="s">
+        <v>0</v>
       </c>
       <c r="N143">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O143" t="s">
         <v>55</v>
@@ -17768,8 +18158,8 @@
       <c r="Q143" t="s">
         <v>0</v>
       </c>
-      <c r="R143">
-        <v>187480578811</v>
+      <c r="R143" t="s">
+        <v>0</v>
       </c>
       <c r="S143" t="s">
         <v>0</v>
@@ -17817,7 +18207,7 @@
         <v>0</v>
       </c>
       <c r="AH143">
-        <v>-1.19</v>
+        <v>-312.18</v>
       </c>
       <c r="AI143" t="s">
         <v>54</v>
@@ -17826,54 +18216,54 @@
         <v>0</v>
       </c>
       <c r="AK143" t="s">
-        <v>437</v>
+        <v>510</v>
       </c>
       <c r="AL143" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="144" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C144" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="D144" t="s">
-        <v>433</v>
+        <v>511</v>
       </c>
       <c r="E144" t="s">
-        <v>434</v>
+        <v>512</v>
       </c>
       <c r="F144" t="s">
-        <v>435</v>
+        <v>513</v>
       </c>
       <c r="G144" t="s">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K144">
-        <v>15.61</v>
+        <v>-1.58</v>
       </c>
       <c r="L144" t="s">
         <v>54</v>
       </c>
       <c r="M144" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N144">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O144" t="s">
         <v>55</v>
@@ -17885,24 +18275,24 @@
         <v>0</v>
       </c>
       <c r="R144">
-        <v>187473651729</v>
-      </c>
-      <c r="S144">
-        <v>10074726327214</v>
+        <v>187492038669</v>
+      </c>
+      <c r="S144" t="s">
+        <v>0</v>
       </c>
       <c r="T144" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U144" t="s">
-        <v>75</v>
-      </c>
-      <c r="V144">
-        <v>1</v>
-      </c>
-      <c r="W144">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="X144">
+        <v>0</v>
+      </c>
+      <c r="V144" t="s">
+        <v>0</v>
+      </c>
+      <c r="W144" t="s">
+        <v>0</v>
+      </c>
+      <c r="X144" t="s">
         <v>0</v>
       </c>
       <c r="Y144" t="s">
@@ -17914,14 +18304,14 @@
       <c r="AA144" s="2">
         <v>0</v>
       </c>
-      <c r="AB144">
-        <v>-0.36</v>
-      </c>
-      <c r="AC144">
-        <v>-1.45</v>
-      </c>
-      <c r="AD144">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD144" t="s">
+        <v>0</v>
       </c>
       <c r="AE144" t="s">
         <v>0</v>
@@ -17933,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="AH144">
-        <v>17.489999999999998</v>
+        <v>-1.58</v>
       </c>
       <c r="AI144" t="s">
         <v>54</v>
@@ -17942,83 +18332,83 @@
         <v>0</v>
       </c>
       <c r="AK144" t="s">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="AL144" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="B145" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C145" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="D145" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="E145" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="F145" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="G145" t="s">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H145" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I145" t="s">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="J145" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K145">
-        <v>-3.18</v>
+        <v>9.01</v>
       </c>
       <c r="L145" t="s">
         <v>54</v>
       </c>
-      <c r="M145" s="1">
-        <v>45884</v>
-      </c>
-      <c r="N145">
-        <v>7023633011</v>
+      <c r="M145" t="s">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
+        <v>0</v>
       </c>
       <c r="O145" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P145" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q145" t="s">
         <v>0</v>
       </c>
       <c r="R145">
-        <v>187483349258</v>
-      </c>
-      <c r="S145" t="s">
-        <v>0</v>
+        <v>187492038669</v>
+      </c>
+      <c r="S145">
+        <v>10075017216303</v>
       </c>
       <c r="T145" t="s">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="U145" t="s">
-        <v>0</v>
-      </c>
-      <c r="V145" t="s">
-        <v>0</v>
-      </c>
-      <c r="W145" t="s">
-        <v>0</v>
-      </c>
-      <c r="X145" t="s">
+        <v>481</v>
+      </c>
+      <c r="V145">
+        <v>1</v>
+      </c>
+      <c r="W145">
+        <v>10.99</v>
+      </c>
+      <c r="X145">
         <v>0</v>
       </c>
       <c r="Y145" t="s">
@@ -18030,14 +18420,14 @@
       <c r="AA145" s="2">
         <v>0</v>
       </c>
-      <c r="AB145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC145" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD145" t="s">
-        <v>0</v>
+      <c r="AB145">
+        <v>-0.36</v>
+      </c>
+      <c r="AC145">
+        <v>-1.57</v>
+      </c>
+      <c r="AD145">
+        <v>-0.05</v>
       </c>
       <c r="AE145" t="s">
         <v>0</v>
@@ -18049,7 +18439,7 @@
         <v>0</v>
       </c>
       <c r="AH145">
-        <v>-3.18</v>
+        <v>10.99</v>
       </c>
       <c r="AI145" t="s">
         <v>54</v>
@@ -18058,54 +18448,54 @@
         <v>0</v>
       </c>
       <c r="AK145" t="s">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="AL145" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B146" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C146" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="D146" t="s">
-        <v>440</v>
+        <v>516</v>
       </c>
       <c r="E146" t="s">
-        <v>441</v>
+        <v>517</v>
       </c>
       <c r="F146" t="s">
-        <v>442</v>
+        <v>518</v>
       </c>
       <c r="G146" t="s">
-        <v>239</v>
+        <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>444</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K146">
-        <v>17.11</v>
+        <v>-2.81</v>
       </c>
       <c r="L146" t="s">
         <v>54</v>
       </c>
       <c r="M146" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N146">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O146" t="s">
         <v>55</v>
@@ -18117,24 +18507,24 @@
         <v>0</v>
       </c>
       <c r="R146">
-        <v>187483349258</v>
-      </c>
-      <c r="S146">
-        <v>10074757908710</v>
+        <v>187483035573</v>
+      </c>
+      <c r="S146" t="s">
+        <v>0</v>
       </c>
       <c r="T146" t="s">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="U146" t="s">
-        <v>446</v>
-      </c>
-      <c r="V146">
-        <v>1</v>
-      </c>
-      <c r="W146">
-        <v>21.37</v>
-      </c>
-      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="V146" t="s">
+        <v>0</v>
+      </c>
+      <c r="W146" t="s">
+        <v>0</v>
+      </c>
+      <c r="X146" t="s">
         <v>0</v>
       </c>
       <c r="Y146" t="s">
@@ -18146,17 +18536,17 @@
       <c r="AA146" s="2">
         <v>0</v>
       </c>
-      <c r="AB146">
-        <v>-0.36</v>
-      </c>
-      <c r="AC146">
-        <v>-2.8</v>
-      </c>
-      <c r="AD146">
-        <v>-0.08</v>
-      </c>
-      <c r="AE146">
-        <v>-1.02</v>
+      <c r="AB146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="s">
+        <v>0</v>
       </c>
       <c r="AF146" t="s">
         <v>0</v>
@@ -18165,7 +18555,7 @@
         <v>0</v>
       </c>
       <c r="AH146">
-        <v>21.37</v>
+        <v>-2.81</v>
       </c>
       <c r="AI146" t="s">
         <v>54</v>
@@ -18174,54 +18564,54 @@
         <v>0</v>
       </c>
       <c r="AK146" t="s">
-        <v>0</v>
+        <v>519</v>
       </c>
       <c r="AL146" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B147" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C147" t="s">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="D147" t="s">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="E147" t="s">
-        <v>0</v>
+        <v>517</v>
       </c>
       <c r="F147" t="s">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="G147" t="s">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="H147" t="s">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="I147" t="s">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="J147" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K147">
-        <v>-0.12</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L147" t="s">
         <v>54</v>
       </c>
       <c r="M147" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N147">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O147" t="s">
         <v>55</v>
@@ -18233,24 +18623,24 @@
         <v>0</v>
       </c>
       <c r="R147">
-        <v>187488931137</v>
-      </c>
-      <c r="S147" t="s">
-        <v>0</v>
+        <v>187483035573</v>
+      </c>
+      <c r="S147">
+        <v>10074838802810</v>
       </c>
       <c r="T147" t="s">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="U147" t="s">
-        <v>0</v>
-      </c>
-      <c r="V147" t="s">
-        <v>0</v>
-      </c>
-      <c r="W147" t="s">
-        <v>0</v>
-      </c>
-      <c r="X147" t="s">
+        <v>372</v>
+      </c>
+      <c r="V147">
+        <v>1</v>
+      </c>
+      <c r="W147">
+        <v>19.47</v>
+      </c>
+      <c r="X147">
         <v>0</v>
       </c>
       <c r="Y147" t="s">
@@ -18262,14 +18652,14 @@
       <c r="AA147" s="2">
         <v>0</v>
       </c>
-      <c r="AB147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC147" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD147" t="s">
-        <v>0</v>
+      <c r="AB147">
+        <v>-0.36</v>
+      </c>
+      <c r="AC147">
+        <v>-1.61</v>
+      </c>
+      <c r="AD147">
+        <v>-0.08</v>
       </c>
       <c r="AE147" t="s">
         <v>0</v>
@@ -18281,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="AH147">
-        <v>-0.12</v>
+        <v>19.47</v>
       </c>
       <c r="AI147" t="s">
         <v>54</v>
@@ -18290,30 +18680,30 @@
         <v>0</v>
       </c>
       <c r="AK147" t="s">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="AL147" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B148" t="s">
         <v>58</v>
       </c>
       <c r="C148" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="D148" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="E148" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="F148" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="G148" t="s">
         <v>0</v>
@@ -18328,16 +18718,16 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>-1.88</v>
+        <v>-11.38</v>
       </c>
       <c r="L148" t="s">
         <v>54</v>
       </c>
       <c r="M148" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N148">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O148" t="s">
         <v>55</v>
@@ -18349,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="R148">
-        <v>187473651729</v>
+        <v>187494085885</v>
       </c>
       <c r="S148" t="s">
         <v>0</v>
@@ -18397,7 +18787,7 @@
         <v>0</v>
       </c>
       <c r="AH148">
-        <v>-1.88</v>
+        <v>-11.38</v>
       </c>
       <c r="AI148" t="s">
         <v>54</v>
@@ -18406,7 +18796,7 @@
         <v>0</v>
       </c>
       <c r="AK148" t="s">
-        <v>451</v>
+        <v>526</v>
       </c>
       <c r="AL148" t="s">
         <v>59</v>
@@ -18414,46 +18804,46 @@
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B149" t="s">
         <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="D149" t="s">
-        <v>448</v>
+        <v>523</v>
       </c>
       <c r="E149" t="s">
-        <v>449</v>
+        <v>524</v>
       </c>
       <c r="F149" t="s">
-        <v>450</v>
+        <v>525</v>
       </c>
       <c r="G149" t="s">
-        <v>452</v>
+        <v>527</v>
       </c>
       <c r="H149" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="I149" t="s">
-        <v>453</v>
+        <v>528</v>
       </c>
       <c r="J149" t="s">
         <v>53</v>
       </c>
       <c r="K149">
-        <v>15.61</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="L149" t="s">
         <v>54</v>
       </c>
       <c r="M149" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N149">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O149" t="s">
         <v>55</v>
@@ -18465,22 +18855,22 @@
         <v>0</v>
       </c>
       <c r="R149">
-        <v>187473651729</v>
+        <v>187494085885</v>
       </c>
       <c r="S149">
-        <v>10074805403811</v>
+        <v>10073961435426</v>
       </c>
       <c r="T149" t="s">
-        <v>74</v>
+        <v>529</v>
       </c>
       <c r="U149" t="s">
-        <v>75</v>
+        <v>530</v>
       </c>
       <c r="V149">
         <v>1</v>
       </c>
       <c r="W149">
-        <v>17.489999999999998</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="X149">
         <v>0</v>
@@ -18498,10 +18888,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC149">
-        <v>-1.45</v>
+        <v>-11.28</v>
       </c>
       <c r="AD149">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.34</v>
       </c>
       <c r="AE149" t="s">
         <v>0</v>
@@ -18513,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="AH149">
-        <v>17.489999999999998</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="AI149" t="s">
         <v>54</v>
@@ -18530,22 +18920,22 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B150" t="s">
         <v>58</v>
       </c>
       <c r="C150" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="D150" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="E150" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="F150" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="G150" t="s">
         <v>0</v>
@@ -18560,16 +18950,16 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>-3.64</v>
+        <v>-3.14</v>
       </c>
       <c r="L150" t="s">
         <v>54</v>
       </c>
       <c r="M150" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N150">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O150" t="s">
         <v>55</v>
@@ -18581,7 +18971,7 @@
         <v>0</v>
       </c>
       <c r="R150">
-        <v>187473659746</v>
+        <v>186821285299</v>
       </c>
       <c r="S150" t="s">
         <v>0</v>
@@ -18629,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="AH150">
-        <v>-3.64</v>
+        <v>-3.14</v>
       </c>
       <c r="AI150" t="s">
         <v>54</v>
@@ -18638,7 +19028,7 @@
         <v>0</v>
       </c>
       <c r="AK150" t="s">
-        <v>457</v>
+        <v>534</v>
       </c>
       <c r="AL150" t="s">
         <v>59</v>
@@ -18646,46 +19036,46 @@
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B151" t="s">
         <v>52</v>
       </c>
       <c r="C151" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="D151" t="s">
-        <v>454</v>
+        <v>531</v>
       </c>
       <c r="E151" t="s">
-        <v>455</v>
+        <v>532</v>
       </c>
       <c r="F151" t="s">
-        <v>456</v>
+        <v>533</v>
       </c>
       <c r="G151" t="s">
-        <v>145</v>
+        <v>535</v>
       </c>
       <c r="H151" t="s">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="I151" t="s">
-        <v>458</v>
+        <v>537</v>
       </c>
       <c r="J151" t="s">
         <v>53</v>
       </c>
       <c r="K151">
-        <v>23.12</v>
+        <v>17.48</v>
       </c>
       <c r="L151" t="s">
         <v>54</v>
       </c>
       <c r="M151" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N151">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O151" t="s">
         <v>55</v>
@@ -18697,22 +19087,22 @@
         <v>0</v>
       </c>
       <c r="R151">
-        <v>187473659746</v>
+        <v>186821285299</v>
       </c>
       <c r="S151">
-        <v>10074723358115</v>
+        <v>10074411711902</v>
       </c>
       <c r="T151" t="s">
-        <v>172</v>
+        <v>57</v>
       </c>
       <c r="U151" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="V151">
         <v>1</v>
       </c>
       <c r="W151">
-        <v>27.54</v>
+        <v>21.84</v>
       </c>
       <c r="X151">
         <v>0</v>
@@ -18730,13 +19120,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC151">
-        <v>-3.94</v>
+        <v>-2.86</v>
       </c>
       <c r="AD151">
-        <v>-0.12</v>
-      </c>
-      <c r="AE151" t="s">
-        <v>0</v>
+        <v>-0.1</v>
+      </c>
+      <c r="AE151">
+        <v>-1.04</v>
       </c>
       <c r="AF151" t="s">
         <v>0</v>
@@ -18745,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="AH151">
-        <v>27.54</v>
+        <v>21.84</v>
       </c>
       <c r="AI151" t="s">
         <v>54</v>
@@ -18762,22 +19152,22 @@
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B152" t="s">
         <v>58</v>
       </c>
       <c r="C152" t="s">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="D152" t="s">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="E152" t="s">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="F152" t="s">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G152" t="s">
         <v>0</v>
@@ -18792,16 +19182,16 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>-0.12</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="L152" t="s">
         <v>54</v>
       </c>
       <c r="M152" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N152">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O152" t="s">
         <v>55</v>
@@ -18813,7 +19203,7 @@
         <v>0</v>
       </c>
       <c r="R152">
-        <v>187488536001</v>
+        <v>187480578811</v>
       </c>
       <c r="S152" t="s">
         <v>0</v>
@@ -18861,7 +19251,7 @@
         <v>0</v>
       </c>
       <c r="AH152">
-        <v>-0.12</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AI152" t="s">
         <v>54</v>
@@ -18870,30 +19260,30 @@
         <v>0</v>
       </c>
       <c r="AK152" t="s">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="AL152" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B153" t="s">
         <v>58</v>
       </c>
       <c r="C153" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="D153" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="E153" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="F153" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="G153" t="s">
         <v>0</v>
@@ -18908,16 +19298,16 @@
         <v>0</v>
       </c>
       <c r="K153">
-        <v>-1.88</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="L153" t="s">
         <v>54</v>
       </c>
       <c r="M153" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N153">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O153" t="s">
         <v>55</v>
@@ -18929,7 +19319,7 @@
         <v>0</v>
       </c>
       <c r="R153">
-        <v>187473651729</v>
+        <v>187480578811</v>
       </c>
       <c r="S153" t="s">
         <v>0</v>
@@ -18977,7 +19367,7 @@
         <v>0</v>
       </c>
       <c r="AH153">
-        <v>-1.88</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AI153" t="s">
         <v>54</v>
@@ -18986,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="AK153" t="s">
-        <v>463</v>
+        <v>544</v>
       </c>
       <c r="AL153" t="s">
         <v>59</v>
@@ -18994,46 +19384,46 @@
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B154" t="s">
         <v>52</v>
       </c>
       <c r="C154" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="D154" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="E154" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="F154" t="s">
-        <v>462</v>
+        <v>543</v>
       </c>
       <c r="G154" t="s">
-        <v>464</v>
+        <v>545</v>
       </c>
       <c r="H154" t="s">
-        <v>465</v>
+        <v>192</v>
       </c>
       <c r="I154" t="s">
-        <v>466</v>
+        <v>546</v>
       </c>
       <c r="J154" t="s">
         <v>53</v>
       </c>
       <c r="K154">
-        <v>15.61</v>
+        <v>6.74</v>
       </c>
       <c r="L154" t="s">
         <v>54</v>
       </c>
       <c r="M154" s="1">
-        <v>45884</v>
+        <v>45887</v>
       </c>
       <c r="N154">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O154" t="s">
         <v>55</v>
@@ -19045,22 +19435,22 @@
         <v>0</v>
       </c>
       <c r="R154">
-        <v>187473651729</v>
+        <v>187480578811</v>
       </c>
       <c r="S154">
-        <v>10074273968605</v>
+        <v>10074700263704</v>
       </c>
       <c r="T154" t="s">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="U154" t="s">
-        <v>75</v>
+        <v>547</v>
       </c>
       <c r="V154">
         <v>1</v>
       </c>
       <c r="W154">
-        <v>17.489999999999998</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="X154">
         <v>0</v>
@@ -19075,13 +19465,13 @@
         <v>0</v>
       </c>
       <c r="AB154">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC154">
-        <v>-1.45</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AD154">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="AE154" t="s">
         <v>0</v>
@@ -19093,7 +19483,7 @@
         <v>0</v>
       </c>
       <c r="AH154">
-        <v>17.489999999999998</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AI154" t="s">
         <v>54</v>
@@ -19110,46 +19500,46 @@
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45883</v>
+        <v>45886</v>
       </c>
       <c r="B155" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="D155" t="s">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="E155" t="s">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="F155" t="s">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G155" t="s">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="H155" t="s">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="I155" t="s">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="J155" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K155">
-        <v>-150.88999999999999</v>
+        <v>6.74</v>
       </c>
       <c r="L155" t="s">
         <v>54</v>
       </c>
-      <c r="M155" t="s">
-        <v>0</v>
+      <c r="M155" s="1">
+        <v>45887</v>
       </c>
       <c r="N155">
-        <v>7022519579</v>
+        <v>7028615675</v>
       </c>
       <c r="O155" t="s">
         <v>55</v>
@@ -19160,25 +19550,25 @@
       <c r="Q155" t="s">
         <v>0</v>
       </c>
-      <c r="R155" t="s">
-        <v>0</v>
-      </c>
-      <c r="S155" t="s">
-        <v>0</v>
+      <c r="R155">
+        <v>187480578811</v>
+      </c>
+      <c r="S155">
+        <v>10074132029124</v>
       </c>
       <c r="T155" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="U155" t="s">
-        <v>0</v>
-      </c>
-      <c r="V155" t="s">
-        <v>0</v>
-      </c>
-      <c r="W155" t="s">
-        <v>0</v>
-      </c>
-      <c r="X155" t="s">
+        <v>547</v>
+      </c>
+      <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="W155">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="X155">
         <v>0</v>
       </c>
       <c r="Y155" t="s">
@@ -19190,14 +19580,14 @@
       <c r="AA155" s="2">
         <v>0</v>
       </c>
-      <c r="AB155" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC155" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD155" t="s">
-        <v>0</v>
+      <c r="AB155">
+        <v>-0.12</v>
+      </c>
+      <c r="AC155">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AD155">
+        <v>-0.04</v>
       </c>
       <c r="AE155" t="s">
         <v>0</v>
@@ -19209,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="AH155">
-        <v>-150.88999999999999</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AI155" t="s">
         <v>54</v>
@@ -19218,9 +19608,5113 @@
         <v>0</v>
       </c>
       <c r="AK155" t="s">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="AL155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156" t="s">
+        <v>550</v>
+      </c>
+      <c r="D156" t="s">
+        <v>550</v>
+      </c>
+      <c r="E156" t="s">
+        <v>551</v>
+      </c>
+      <c r="F156" t="s">
+        <v>552</v>
+      </c>
+      <c r="G156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>0</v>
+      </c>
+      <c r="J156" t="s">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>-2.81</v>
+      </c>
+      <c r="L156" t="s">
+        <v>54</v>
+      </c>
+      <c r="M156" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N156">
+        <v>7028615675</v>
+      </c>
+      <c r="O156" t="s">
+        <v>55</v>
+      </c>
+      <c r="P156" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>187483035573</v>
+      </c>
+      <c r="S156" t="s">
+        <v>0</v>
+      </c>
+      <c r="T156" t="s">
+        <v>0</v>
+      </c>
+      <c r="U156" t="s">
+        <v>0</v>
+      </c>
+      <c r="V156" t="s">
+        <v>0</v>
+      </c>
+      <c r="W156" t="s">
+        <v>0</v>
+      </c>
+      <c r="X156" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH156">
+        <v>-2.81</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ156" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK156" t="s">
+        <v>553</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B157" t="s">
+        <v>52</v>
+      </c>
+      <c r="C157" t="s">
+        <v>550</v>
+      </c>
+      <c r="D157" t="s">
+        <v>550</v>
+      </c>
+      <c r="E157" t="s">
+        <v>551</v>
+      </c>
+      <c r="F157" t="s">
+        <v>552</v>
+      </c>
+      <c r="G157" t="s">
+        <v>554</v>
+      </c>
+      <c r="H157" t="s">
+        <v>109</v>
+      </c>
+      <c r="I157" t="s">
+        <v>555</v>
+      </c>
+      <c r="J157" t="s">
+        <v>53</v>
+      </c>
+      <c r="K157">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="L157" t="s">
+        <v>54</v>
+      </c>
+      <c r="M157" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N157">
+        <v>7028615675</v>
+      </c>
+      <c r="O157" t="s">
+        <v>55</v>
+      </c>
+      <c r="P157" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>187483035573</v>
+      </c>
+      <c r="S157">
+        <v>10074759109019</v>
+      </c>
+      <c r="T157" t="s">
+        <v>371</v>
+      </c>
+      <c r="U157" t="s">
+        <v>372</v>
+      </c>
+      <c r="V157">
+        <v>1</v>
+      </c>
+      <c r="W157">
+        <v>19.47</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB157">
+        <v>-0.36</v>
+      </c>
+      <c r="AC157">
+        <v>-1.61</v>
+      </c>
+      <c r="AD157">
+        <v>-0.08</v>
+      </c>
+      <c r="AE157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH157">
+        <v>19.47</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B158" t="s">
+        <v>58</v>
+      </c>
+      <c r="C158" t="s">
+        <v>556</v>
+      </c>
+      <c r="D158" t="s">
+        <v>556</v>
+      </c>
+      <c r="E158" t="s">
+        <v>557</v>
+      </c>
+      <c r="F158" t="s">
+        <v>558</v>
+      </c>
+      <c r="G158" t="s">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>0</v>
+      </c>
+      <c r="J158" t="s">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>-1.5</v>
+      </c>
+      <c r="L158" t="s">
+        <v>54</v>
+      </c>
+      <c r="M158" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N158">
+        <v>7028615675</v>
+      </c>
+      <c r="O158" t="s">
+        <v>55</v>
+      </c>
+      <c r="P158" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>187473655879</v>
+      </c>
+      <c r="S158" t="s">
+        <v>0</v>
+      </c>
+      <c r="T158" t="s">
+        <v>0</v>
+      </c>
+      <c r="U158" t="s">
+        <v>0</v>
+      </c>
+      <c r="V158" t="s">
+        <v>0</v>
+      </c>
+      <c r="W158" t="s">
+        <v>0</v>
+      </c>
+      <c r="X158" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y158" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>-1.5</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ158" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK158" t="s">
+        <v>559</v>
+      </c>
+      <c r="AL158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B159" t="s">
+        <v>52</v>
+      </c>
+      <c r="C159" t="s">
+        <v>556</v>
+      </c>
+      <c r="D159" t="s">
+        <v>556</v>
+      </c>
+      <c r="E159" t="s">
+        <v>557</v>
+      </c>
+      <c r="F159" t="s">
+        <v>558</v>
+      </c>
+      <c r="G159" t="s">
+        <v>560</v>
+      </c>
+      <c r="H159" t="s">
+        <v>561</v>
+      </c>
+      <c r="I159" t="s">
+        <v>562</v>
+      </c>
+      <c r="J159" t="s">
+        <v>53</v>
+      </c>
+      <c r="K159">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="L159" t="s">
+        <v>54</v>
+      </c>
+      <c r="M159" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N159">
+        <v>7028615675</v>
+      </c>
+      <c r="O159" t="s">
+        <v>55</v>
+      </c>
+      <c r="P159" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>187473655879</v>
+      </c>
+      <c r="S159">
+        <v>10074179478608</v>
+      </c>
+      <c r="T159" t="s">
+        <v>165</v>
+      </c>
+      <c r="U159" t="s">
+        <v>166</v>
+      </c>
+      <c r="V159">
+        <v>1</v>
+      </c>
+      <c r="W159">
+        <v>10.4</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="Y159" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB159">
+        <v>-0.36</v>
+      </c>
+      <c r="AC159">
+        <v>-1.36</v>
+      </c>
+      <c r="AD159">
+        <v>-0.05</v>
+      </c>
+      <c r="AE159">
+        <v>-0.5</v>
+      </c>
+      <c r="AF159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH159">
+        <v>10.4</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B160" t="s">
+        <v>58</v>
+      </c>
+      <c r="C160" t="s">
+        <v>563</v>
+      </c>
+      <c r="D160" t="s">
+        <v>563</v>
+      </c>
+      <c r="E160" t="s">
+        <v>564</v>
+      </c>
+      <c r="F160" t="s">
+        <v>565</v>
+      </c>
+      <c r="G160" t="s">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>0</v>
+      </c>
+      <c r="J160" t="s">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>-2.1</v>
+      </c>
+      <c r="L160" t="s">
+        <v>54</v>
+      </c>
+      <c r="M160" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N160">
+        <v>7028615675</v>
+      </c>
+      <c r="O160" t="s">
+        <v>55</v>
+      </c>
+      <c r="P160" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>187483035573</v>
+      </c>
+      <c r="S160" t="s">
+        <v>0</v>
+      </c>
+      <c r="T160" t="s">
+        <v>0</v>
+      </c>
+      <c r="U160" t="s">
+        <v>0</v>
+      </c>
+      <c r="V160" t="s">
+        <v>0</v>
+      </c>
+      <c r="W160" t="s">
+        <v>0</v>
+      </c>
+      <c r="X160" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y160" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH160">
+        <v>-2.1</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ160" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK160" t="s">
+        <v>566</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B161" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s">
+        <v>563</v>
+      </c>
+      <c r="D161" t="s">
+        <v>563</v>
+      </c>
+      <c r="E161" t="s">
+        <v>564</v>
+      </c>
+      <c r="F161" t="s">
+        <v>565</v>
+      </c>
+      <c r="G161" t="s">
+        <v>567</v>
+      </c>
+      <c r="H161" t="s">
+        <v>219</v>
+      </c>
+      <c r="I161" t="s">
+        <v>568</v>
+      </c>
+      <c r="J161" t="s">
+        <v>53</v>
+      </c>
+      <c r="K161">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="L161" t="s">
+        <v>54</v>
+      </c>
+      <c r="M161" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N161">
+        <v>7028615675</v>
+      </c>
+      <c r="O161" t="s">
+        <v>55</v>
+      </c>
+      <c r="P161" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>187483035573</v>
+      </c>
+      <c r="S161">
+        <v>10078308458127</v>
+      </c>
+      <c r="T161" t="s">
+        <v>371</v>
+      </c>
+      <c r="U161" t="s">
+        <v>372</v>
+      </c>
+      <c r="V161">
+        <v>1</v>
+      </c>
+      <c r="W161">
+        <v>19.47</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="Y161" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB161">
+        <v>-0.36</v>
+      </c>
+      <c r="AC161">
+        <v>-1.61</v>
+      </c>
+      <c r="AD161">
+        <v>-0.08</v>
+      </c>
+      <c r="AE161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>19.47</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B162" t="s">
+        <v>58</v>
+      </c>
+      <c r="C162" t="s">
+        <v>569</v>
+      </c>
+      <c r="D162" t="s">
+        <v>569</v>
+      </c>
+      <c r="E162" t="s">
+        <v>570</v>
+      </c>
+      <c r="F162" t="s">
+        <v>571</v>
+      </c>
+      <c r="G162" t="s">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" t="s">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>-2.74</v>
+      </c>
+      <c r="L162" t="s">
+        <v>54</v>
+      </c>
+      <c r="M162" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N162">
+        <v>7028615675</v>
+      </c>
+      <c r="O162" t="s">
+        <v>55</v>
+      </c>
+      <c r="P162" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>187483035573</v>
+      </c>
+      <c r="S162" t="s">
+        <v>0</v>
+      </c>
+      <c r="T162" t="s">
+        <v>0</v>
+      </c>
+      <c r="U162" t="s">
+        <v>0</v>
+      </c>
+      <c r="V162" t="s">
+        <v>0</v>
+      </c>
+      <c r="W162" t="s">
+        <v>0</v>
+      </c>
+      <c r="X162" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y162" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH162">
+        <v>-2.74</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ162" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK162" t="s">
+        <v>572</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B163" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" t="s">
+        <v>569</v>
+      </c>
+      <c r="D163" t="s">
+        <v>569</v>
+      </c>
+      <c r="E163" t="s">
+        <v>570</v>
+      </c>
+      <c r="F163" t="s">
+        <v>571</v>
+      </c>
+      <c r="G163" t="s">
+        <v>573</v>
+      </c>
+      <c r="H163" t="s">
+        <v>137</v>
+      </c>
+      <c r="I163" t="s">
+        <v>574</v>
+      </c>
+      <c r="J163" t="s">
+        <v>53</v>
+      </c>
+      <c r="K163">
+        <v>16.98</v>
+      </c>
+      <c r="L163" t="s">
+        <v>54</v>
+      </c>
+      <c r="M163" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N163">
+        <v>7028615675</v>
+      </c>
+      <c r="O163" t="s">
+        <v>55</v>
+      </c>
+      <c r="P163" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>187483035573</v>
+      </c>
+      <c r="S163">
+        <v>10074405319302</v>
+      </c>
+      <c r="T163" t="s">
+        <v>371</v>
+      </c>
+      <c r="U163" t="s">
+        <v>372</v>
+      </c>
+      <c r="V163">
+        <v>1</v>
+      </c>
+      <c r="W163">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="Y163" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB163">
+        <v>-0.36</v>
+      </c>
+      <c r="AC163">
+        <v>-1.57</v>
+      </c>
+      <c r="AD163">
+        <v>-0.08</v>
+      </c>
+      <c r="AE163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH163">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B164" t="s">
+        <v>58</v>
+      </c>
+      <c r="C164" t="s">
+        <v>575</v>
+      </c>
+      <c r="D164" t="s">
+        <v>575</v>
+      </c>
+      <c r="E164" t="s">
+        <v>576</v>
+      </c>
+      <c r="F164" t="s">
+        <v>577</v>
+      </c>
+      <c r="G164" t="s">
+        <v>0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>0</v>
+      </c>
+      <c r="J164" t="s">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>-2.74</v>
+      </c>
+      <c r="L164" t="s">
+        <v>54</v>
+      </c>
+      <c r="M164" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N164">
+        <v>7028615675</v>
+      </c>
+      <c r="O164" t="s">
+        <v>55</v>
+      </c>
+      <c r="P164" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>187483035573</v>
+      </c>
+      <c r="S164" t="s">
+        <v>0</v>
+      </c>
+      <c r="T164" t="s">
+        <v>0</v>
+      </c>
+      <c r="U164" t="s">
+        <v>0</v>
+      </c>
+      <c r="V164" t="s">
+        <v>0</v>
+      </c>
+      <c r="W164" t="s">
+        <v>0</v>
+      </c>
+      <c r="X164" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y164" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH164">
+        <v>-2.74</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ164" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK164" t="s">
+        <v>578</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B165" t="s">
+        <v>52</v>
+      </c>
+      <c r="C165" t="s">
+        <v>575</v>
+      </c>
+      <c r="D165" t="s">
+        <v>575</v>
+      </c>
+      <c r="E165" t="s">
+        <v>576</v>
+      </c>
+      <c r="F165" t="s">
+        <v>577</v>
+      </c>
+      <c r="G165" t="s">
+        <v>579</v>
+      </c>
+      <c r="H165" t="s">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>580</v>
+      </c>
+      <c r="J165" t="s">
+        <v>53</v>
+      </c>
+      <c r="K165">
+        <v>16.98</v>
+      </c>
+      <c r="L165" t="s">
+        <v>54</v>
+      </c>
+      <c r="M165" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N165">
+        <v>7028615675</v>
+      </c>
+      <c r="O165" t="s">
+        <v>55</v>
+      </c>
+      <c r="P165" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>0</v>
+      </c>
+      <c r="R165">
+        <v>187483035573</v>
+      </c>
+      <c r="S165">
+        <v>10074789507614</v>
+      </c>
+      <c r="T165" t="s">
+        <v>371</v>
+      </c>
+      <c r="U165" t="s">
+        <v>372</v>
+      </c>
+      <c r="V165">
+        <v>1</v>
+      </c>
+      <c r="W165">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>-0.36</v>
+      </c>
+      <c r="AC165">
+        <v>-1.57</v>
+      </c>
+      <c r="AD165">
+        <v>-0.08</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH165">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B166" t="s">
+        <v>58</v>
+      </c>
+      <c r="C166" t="s">
+        <v>581</v>
+      </c>
+      <c r="D166" t="s">
+        <v>581</v>
+      </c>
+      <c r="E166" t="s">
+        <v>582</v>
+      </c>
+      <c r="F166" t="s">
+        <v>583</v>
+      </c>
+      <c r="G166" t="s">
+        <v>0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>0</v>
+      </c>
+      <c r="J166" t="s">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>-1.99</v>
+      </c>
+      <c r="L166" t="s">
+        <v>54</v>
+      </c>
+      <c r="M166" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N166">
+        <v>7028615675</v>
+      </c>
+      <c r="O166" t="s">
+        <v>55</v>
+      </c>
+      <c r="P166" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>187473651729</v>
+      </c>
+      <c r="S166" t="s">
+        <v>0</v>
+      </c>
+      <c r="T166" t="s">
+        <v>0</v>
+      </c>
+      <c r="U166" t="s">
+        <v>0</v>
+      </c>
+      <c r="V166" t="s">
+        <v>0</v>
+      </c>
+      <c r="W166" t="s">
+        <v>0</v>
+      </c>
+      <c r="X166" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH166">
+        <v>-1.99</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>584</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B167" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167" t="s">
+        <v>581</v>
+      </c>
+      <c r="D167" t="s">
+        <v>581</v>
+      </c>
+      <c r="E167" t="s">
+        <v>582</v>
+      </c>
+      <c r="F167" t="s">
+        <v>583</v>
+      </c>
+      <c r="G167" t="s">
+        <v>585</v>
+      </c>
+      <c r="H167" t="s">
+        <v>586</v>
+      </c>
+      <c r="I167" t="s">
+        <v>587</v>
+      </c>
+      <c r="J167" t="s">
+        <v>53</v>
+      </c>
+      <c r="K167">
+        <v>14.81</v>
+      </c>
+      <c r="L167" t="s">
+        <v>54</v>
+      </c>
+      <c r="M167" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N167">
+        <v>7028615675</v>
+      </c>
+      <c r="O167" t="s">
+        <v>55</v>
+      </c>
+      <c r="P167" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>187473651729</v>
+      </c>
+      <c r="S167">
+        <v>10074339214205</v>
+      </c>
+      <c r="T167" t="s">
+        <v>74</v>
+      </c>
+      <c r="U167" t="s">
+        <v>75</v>
+      </c>
+      <c r="V167">
+        <v>1</v>
+      </c>
+      <c r="W167">
+        <v>16.62</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB167">
+        <v>-0.36</v>
+      </c>
+      <c r="AC167">
+        <v>-1.38</v>
+      </c>
+      <c r="AD167">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH167">
+        <v>16.62</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B168" t="s">
+        <v>58</v>
+      </c>
+      <c r="C168" t="s">
+        <v>588</v>
+      </c>
+      <c r="D168" t="s">
+        <v>588</v>
+      </c>
+      <c r="E168" t="s">
+        <v>589</v>
+      </c>
+      <c r="F168" t="s">
+        <v>590</v>
+      </c>
+      <c r="G168" t="s">
+        <v>0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>0</v>
+      </c>
+      <c r="J168" t="s">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>-2.74</v>
+      </c>
+      <c r="L168" t="s">
+        <v>54</v>
+      </c>
+      <c r="M168" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N168">
+        <v>7028615675</v>
+      </c>
+      <c r="O168" t="s">
+        <v>55</v>
+      </c>
+      <c r="P168" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>0</v>
+      </c>
+      <c r="R168">
+        <v>187483035573</v>
+      </c>
+      <c r="S168" t="s">
+        <v>0</v>
+      </c>
+      <c r="T168" t="s">
+        <v>0</v>
+      </c>
+      <c r="U168" t="s">
+        <v>0</v>
+      </c>
+      <c r="V168" t="s">
+        <v>0</v>
+      </c>
+      <c r="W168" t="s">
+        <v>0</v>
+      </c>
+      <c r="X168" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH168">
+        <v>-2.74</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>591</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B169" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" t="s">
+        <v>588</v>
+      </c>
+      <c r="D169" t="s">
+        <v>588</v>
+      </c>
+      <c r="E169" t="s">
+        <v>589</v>
+      </c>
+      <c r="F169" t="s">
+        <v>590</v>
+      </c>
+      <c r="G169" t="s">
+        <v>145</v>
+      </c>
+      <c r="H169" t="s">
+        <v>145</v>
+      </c>
+      <c r="I169" t="s">
+        <v>592</v>
+      </c>
+      <c r="J169" t="s">
+        <v>53</v>
+      </c>
+      <c r="K169">
+        <v>16.98</v>
+      </c>
+      <c r="L169" t="s">
+        <v>54</v>
+      </c>
+      <c r="M169" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N169">
+        <v>7028615675</v>
+      </c>
+      <c r="O169" t="s">
+        <v>55</v>
+      </c>
+      <c r="P169" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>187483035573</v>
+      </c>
+      <c r="S169">
+        <v>10074747271119</v>
+      </c>
+      <c r="T169" t="s">
+        <v>371</v>
+      </c>
+      <c r="U169" t="s">
+        <v>372</v>
+      </c>
+      <c r="V169">
+        <v>1</v>
+      </c>
+      <c r="W169">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA169" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>-0.36</v>
+      </c>
+      <c r="AC169">
+        <v>-1.57</v>
+      </c>
+      <c r="AD169">
+        <v>-0.08</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH169">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B170" t="s">
+        <v>58</v>
+      </c>
+      <c r="C170" t="s">
+        <v>593</v>
+      </c>
+      <c r="D170" t="s">
+        <v>593</v>
+      </c>
+      <c r="E170" t="s">
+        <v>594</v>
+      </c>
+      <c r="F170" t="s">
+        <v>595</v>
+      </c>
+      <c r="G170" t="s">
+        <v>0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" t="s">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>-2.74</v>
+      </c>
+      <c r="L170" t="s">
+        <v>54</v>
+      </c>
+      <c r="M170" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N170">
+        <v>7028615675</v>
+      </c>
+      <c r="O170" t="s">
+        <v>55</v>
+      </c>
+      <c r="P170" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>187483035573</v>
+      </c>
+      <c r="S170" t="s">
+        <v>0</v>
+      </c>
+      <c r="T170" t="s">
+        <v>0</v>
+      </c>
+      <c r="U170" t="s">
+        <v>0</v>
+      </c>
+      <c r="V170" t="s">
+        <v>0</v>
+      </c>
+      <c r="W170" t="s">
+        <v>0</v>
+      </c>
+      <c r="X170" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA170" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>-2.74</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK170" t="s">
+        <v>596</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B171" t="s">
+        <v>52</v>
+      </c>
+      <c r="C171" t="s">
+        <v>593</v>
+      </c>
+      <c r="D171" t="s">
+        <v>593</v>
+      </c>
+      <c r="E171" t="s">
+        <v>594</v>
+      </c>
+      <c r="F171" t="s">
+        <v>595</v>
+      </c>
+      <c r="G171" t="s">
+        <v>597</v>
+      </c>
+      <c r="H171" t="s">
+        <v>163</v>
+      </c>
+      <c r="I171" t="s">
+        <v>598</v>
+      </c>
+      <c r="J171" t="s">
+        <v>53</v>
+      </c>
+      <c r="K171">
+        <v>16.98</v>
+      </c>
+      <c r="L171" t="s">
+        <v>54</v>
+      </c>
+      <c r="M171" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N171">
+        <v>7028615675</v>
+      </c>
+      <c r="O171" t="s">
+        <v>55</v>
+      </c>
+      <c r="P171" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>187483035573</v>
+      </c>
+      <c r="S171">
+        <v>10074816126710</v>
+      </c>
+      <c r="T171" t="s">
+        <v>371</v>
+      </c>
+      <c r="U171" t="s">
+        <v>372</v>
+      </c>
+      <c r="V171">
+        <v>1</v>
+      </c>
+      <c r="W171">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA171" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB171">
+        <v>-0.36</v>
+      </c>
+      <c r="AC171">
+        <v>-1.57</v>
+      </c>
+      <c r="AD171">
+        <v>-0.08</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH171">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B172" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172" t="s">
+        <v>599</v>
+      </c>
+      <c r="D172" t="s">
+        <v>599</v>
+      </c>
+      <c r="E172" t="s">
+        <v>600</v>
+      </c>
+      <c r="F172" t="s">
+        <v>601</v>
+      </c>
+      <c r="G172" t="s">
+        <v>0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>0</v>
+      </c>
+      <c r="J172" t="s">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>-1.26</v>
+      </c>
+      <c r="L172" t="s">
+        <v>54</v>
+      </c>
+      <c r="M172" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N172">
+        <v>7028615675</v>
+      </c>
+      <c r="O172" t="s">
+        <v>55</v>
+      </c>
+      <c r="P172" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>187480578811</v>
+      </c>
+      <c r="S172" t="s">
+        <v>0</v>
+      </c>
+      <c r="T172" t="s">
+        <v>0</v>
+      </c>
+      <c r="U172" t="s">
+        <v>0</v>
+      </c>
+      <c r="V172" t="s">
+        <v>0</v>
+      </c>
+      <c r="W172" t="s">
+        <v>0</v>
+      </c>
+      <c r="X172" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA172" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH172">
+        <v>-1.26</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>602</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B173" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" t="s">
+        <v>599</v>
+      </c>
+      <c r="D173" t="s">
+        <v>599</v>
+      </c>
+      <c r="E173" t="s">
+        <v>600</v>
+      </c>
+      <c r="F173" t="s">
+        <v>601</v>
+      </c>
+      <c r="G173" t="s">
+        <v>277</v>
+      </c>
+      <c r="H173" t="s">
+        <v>296</v>
+      </c>
+      <c r="I173" t="s">
+        <v>603</v>
+      </c>
+      <c r="J173" t="s">
+        <v>53</v>
+      </c>
+      <c r="K173">
+        <v>6.74</v>
+      </c>
+      <c r="L173" t="s">
+        <v>54</v>
+      </c>
+      <c r="M173" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N173">
+        <v>7028615675</v>
+      </c>
+      <c r="O173" t="s">
+        <v>55</v>
+      </c>
+      <c r="P173" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>187480578811</v>
+      </c>
+      <c r="S173">
+        <v>10073942003825</v>
+      </c>
+      <c r="T173" t="s">
+        <v>280</v>
+      </c>
+      <c r="U173" t="s">
+        <v>547</v>
+      </c>
+      <c r="V173">
+        <v>1</v>
+      </c>
+      <c r="W173">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA173" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB173">
+        <v>-0.12</v>
+      </c>
+      <c r="AC173">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AD173">
+        <v>-0.04</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH173">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B174" t="s">
+        <v>58</v>
+      </c>
+      <c r="C174" t="s">
+        <v>604</v>
+      </c>
+      <c r="D174" t="s">
+        <v>604</v>
+      </c>
+      <c r="E174" t="s">
+        <v>605</v>
+      </c>
+      <c r="F174" t="s">
+        <v>606</v>
+      </c>
+      <c r="G174" t="s">
+        <v>0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>-8.35</v>
+      </c>
+      <c r="L174" t="s">
+        <v>54</v>
+      </c>
+      <c r="M174" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N174">
+        <v>7028615675</v>
+      </c>
+      <c r="O174" t="s">
+        <v>55</v>
+      </c>
+      <c r="P174" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>187473652251</v>
+      </c>
+      <c r="S174" t="s">
+        <v>0</v>
+      </c>
+      <c r="T174" t="s">
+        <v>0</v>
+      </c>
+      <c r="U174" t="s">
+        <v>0</v>
+      </c>
+      <c r="V174" t="s">
+        <v>0</v>
+      </c>
+      <c r="W174" t="s">
+        <v>0</v>
+      </c>
+      <c r="X174" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA174" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH174">
+        <v>-8.35</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>607</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B175" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" t="s">
+        <v>604</v>
+      </c>
+      <c r="D175" t="s">
+        <v>604</v>
+      </c>
+      <c r="E175" t="s">
+        <v>605</v>
+      </c>
+      <c r="F175" t="s">
+        <v>606</v>
+      </c>
+      <c r="G175" t="s">
+        <v>608</v>
+      </c>
+      <c r="H175" t="s">
+        <v>609</v>
+      </c>
+      <c r="I175" t="s">
+        <v>610</v>
+      </c>
+      <c r="J175" t="s">
+        <v>53</v>
+      </c>
+      <c r="K175">
+        <v>47.03</v>
+      </c>
+      <c r="L175" t="s">
+        <v>54</v>
+      </c>
+      <c r="M175" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N175">
+        <v>7028615675</v>
+      </c>
+      <c r="O175" t="s">
+        <v>55</v>
+      </c>
+      <c r="P175" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>187473652251</v>
+      </c>
+      <c r="S175">
+        <v>10074161430808</v>
+      </c>
+      <c r="T175" t="s">
+        <v>92</v>
+      </c>
+      <c r="U175" t="s">
+        <v>93</v>
+      </c>
+      <c r="V175">
+        <v>1</v>
+      </c>
+      <c r="W175">
+        <v>57.99</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA175" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>-0.36</v>
+      </c>
+      <c r="AC175">
+        <v>-7.58</v>
+      </c>
+      <c r="AD175">
+        <v>-0.24</v>
+      </c>
+      <c r="AE175">
+        <v>-2.78</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH175">
+        <v>57.99</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B176" t="s">
+        <v>58</v>
+      </c>
+      <c r="C176" t="s">
+        <v>474</v>
+      </c>
+      <c r="D176" t="s">
+        <v>474</v>
+      </c>
+      <c r="E176" t="s">
+        <v>475</v>
+      </c>
+      <c r="F176" t="s">
+        <v>476</v>
+      </c>
+      <c r="G176" t="s">
+        <v>0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>-5.89</v>
+      </c>
+      <c r="L176" t="s">
+        <v>54</v>
+      </c>
+      <c r="M176" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N176">
+        <v>7028615675</v>
+      </c>
+      <c r="O176" t="s">
+        <v>55</v>
+      </c>
+      <c r="P176" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>187492038669</v>
+      </c>
+      <c r="S176" t="s">
+        <v>0</v>
+      </c>
+      <c r="T176" t="s">
+        <v>0</v>
+      </c>
+      <c r="U176" t="s">
+        <v>0</v>
+      </c>
+      <c r="V176" t="s">
+        <v>0</v>
+      </c>
+      <c r="W176" t="s">
+        <v>0</v>
+      </c>
+      <c r="X176" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA176" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH176">
+        <v>-5.89</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>611</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B177" t="s">
+        <v>58</v>
+      </c>
+      <c r="C177" t="s">
+        <v>612</v>
+      </c>
+      <c r="D177" t="s">
+        <v>612</v>
+      </c>
+      <c r="E177" t="s">
+        <v>613</v>
+      </c>
+      <c r="F177" t="s">
+        <v>614</v>
+      </c>
+      <c r="G177" t="s">
+        <v>0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>-2.1</v>
+      </c>
+      <c r="L177" t="s">
+        <v>54</v>
+      </c>
+      <c r="M177" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N177">
+        <v>7028615675</v>
+      </c>
+      <c r="O177" t="s">
+        <v>55</v>
+      </c>
+      <c r="P177" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>187473651729</v>
+      </c>
+      <c r="S177" t="s">
+        <v>0</v>
+      </c>
+      <c r="T177" t="s">
+        <v>0</v>
+      </c>
+      <c r="U177" t="s">
+        <v>0</v>
+      </c>
+      <c r="V177" t="s">
+        <v>0</v>
+      </c>
+      <c r="W177" t="s">
+        <v>0</v>
+      </c>
+      <c r="X177" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA177" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH177">
+        <v>-2.1</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="178" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B178" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" t="s">
+        <v>616</v>
+      </c>
+      <c r="D178" t="s">
+        <v>616</v>
+      </c>
+      <c r="E178" t="s">
+        <v>617</v>
+      </c>
+      <c r="F178" t="s">
+        <v>618</v>
+      </c>
+      <c r="G178" t="s">
+        <v>0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>0</v>
+      </c>
+      <c r="J178" t="s">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>-2.74</v>
+      </c>
+      <c r="L178" t="s">
+        <v>54</v>
+      </c>
+      <c r="M178" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N178">
+        <v>7028615675</v>
+      </c>
+      <c r="O178" t="s">
+        <v>55</v>
+      </c>
+      <c r="P178" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>187483035573</v>
+      </c>
+      <c r="S178" t="s">
+        <v>0</v>
+      </c>
+      <c r="T178" t="s">
+        <v>0</v>
+      </c>
+      <c r="U178" t="s">
+        <v>0</v>
+      </c>
+      <c r="V178" t="s">
+        <v>0</v>
+      </c>
+      <c r="W178" t="s">
+        <v>0</v>
+      </c>
+      <c r="X178" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA178" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH178">
+        <v>-2.74</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>619</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="179" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B179" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" t="s">
+        <v>612</v>
+      </c>
+      <c r="D179" t="s">
+        <v>612</v>
+      </c>
+      <c r="E179" t="s">
+        <v>613</v>
+      </c>
+      <c r="F179" t="s">
+        <v>614</v>
+      </c>
+      <c r="G179" t="s">
+        <v>620</v>
+      </c>
+      <c r="H179" t="s">
+        <v>163</v>
+      </c>
+      <c r="I179" t="s">
+        <v>621</v>
+      </c>
+      <c r="J179" t="s">
+        <v>53</v>
+      </c>
+      <c r="K179">
+        <v>15.61</v>
+      </c>
+      <c r="L179" t="s">
+        <v>54</v>
+      </c>
+      <c r="M179" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N179">
+        <v>7028615675</v>
+      </c>
+      <c r="O179" t="s">
+        <v>55</v>
+      </c>
+      <c r="P179" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>187473651729</v>
+      </c>
+      <c r="S179">
+        <v>10073937949526</v>
+      </c>
+      <c r="T179" t="s">
+        <v>74</v>
+      </c>
+      <c r="U179" t="s">
+        <v>75</v>
+      </c>
+      <c r="V179">
+        <v>1</v>
+      </c>
+      <c r="W179">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA179" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB179">
+        <v>-0.36</v>
+      </c>
+      <c r="AC179">
+        <v>-1.45</v>
+      </c>
+      <c r="AD179">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH179">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B180" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" t="s">
+        <v>616</v>
+      </c>
+      <c r="D180" t="s">
+        <v>616</v>
+      </c>
+      <c r="E180" t="s">
+        <v>617</v>
+      </c>
+      <c r="F180" t="s">
+        <v>618</v>
+      </c>
+      <c r="G180" t="s">
+        <v>622</v>
+      </c>
+      <c r="H180" t="s">
+        <v>623</v>
+      </c>
+      <c r="I180" t="s">
+        <v>624</v>
+      </c>
+      <c r="J180" t="s">
+        <v>53</v>
+      </c>
+      <c r="K180">
+        <v>16.98</v>
+      </c>
+      <c r="L180" t="s">
+        <v>54</v>
+      </c>
+      <c r="M180" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N180">
+        <v>7028615675</v>
+      </c>
+      <c r="O180" t="s">
+        <v>55</v>
+      </c>
+      <c r="P180" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>187483035573</v>
+      </c>
+      <c r="S180">
+        <v>10074360351822</v>
+      </c>
+      <c r="T180" t="s">
+        <v>371</v>
+      </c>
+      <c r="U180" t="s">
+        <v>372</v>
+      </c>
+      <c r="V180">
+        <v>1</v>
+      </c>
+      <c r="W180">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA180" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB180">
+        <v>-0.36</v>
+      </c>
+      <c r="AC180">
+        <v>-1.57</v>
+      </c>
+      <c r="AD180">
+        <v>-0.08</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH180">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK180" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B181" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181" t="s">
+        <v>625</v>
+      </c>
+      <c r="D181" t="s">
+        <v>625</v>
+      </c>
+      <c r="E181" t="s">
+        <v>626</v>
+      </c>
+      <c r="F181" t="s">
+        <v>627</v>
+      </c>
+      <c r="G181" t="s">
+        <v>0</v>
+      </c>
+      <c r="H181" t="s">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>0</v>
+      </c>
+      <c r="J181" t="s">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>-2.74</v>
+      </c>
+      <c r="L181" t="s">
+        <v>54</v>
+      </c>
+      <c r="M181" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N181">
+        <v>7028615675</v>
+      </c>
+      <c r="O181" t="s">
+        <v>55</v>
+      </c>
+      <c r="P181" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>187483035573</v>
+      </c>
+      <c r="S181" t="s">
+        <v>0</v>
+      </c>
+      <c r="T181" t="s">
+        <v>0</v>
+      </c>
+      <c r="U181" t="s">
+        <v>0</v>
+      </c>
+      <c r="V181" t="s">
+        <v>0</v>
+      </c>
+      <c r="W181" t="s">
+        <v>0</v>
+      </c>
+      <c r="X181" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA181" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH181">
+        <v>-2.74</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>628</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="182" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B182" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" t="s">
+        <v>625</v>
+      </c>
+      <c r="D182" t="s">
+        <v>625</v>
+      </c>
+      <c r="E182" t="s">
+        <v>626</v>
+      </c>
+      <c r="F182" t="s">
+        <v>627</v>
+      </c>
+      <c r="G182" t="s">
+        <v>629</v>
+      </c>
+      <c r="H182" t="s">
+        <v>630</v>
+      </c>
+      <c r="I182" t="s">
+        <v>631</v>
+      </c>
+      <c r="J182" t="s">
+        <v>53</v>
+      </c>
+      <c r="K182">
+        <v>16.98</v>
+      </c>
+      <c r="L182" t="s">
+        <v>54</v>
+      </c>
+      <c r="M182" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N182">
+        <v>7028615675</v>
+      </c>
+      <c r="O182" t="s">
+        <v>55</v>
+      </c>
+      <c r="P182" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>187483035573</v>
+      </c>
+      <c r="S182">
+        <v>10079276279721</v>
+      </c>
+      <c r="T182" t="s">
+        <v>371</v>
+      </c>
+      <c r="U182" t="s">
+        <v>372</v>
+      </c>
+      <c r="V182">
+        <v>1</v>
+      </c>
+      <c r="W182">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA182" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB182">
+        <v>-0.36</v>
+      </c>
+      <c r="AC182">
+        <v>-1.57</v>
+      </c>
+      <c r="AD182">
+        <v>-0.08</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH182">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B183" t="s">
+        <v>58</v>
+      </c>
+      <c r="C183" t="s">
+        <v>632</v>
+      </c>
+      <c r="D183" t="s">
+        <v>632</v>
+      </c>
+      <c r="E183" t="s">
+        <v>633</v>
+      </c>
+      <c r="F183" t="s">
+        <v>634</v>
+      </c>
+      <c r="G183" t="s">
+        <v>0</v>
+      </c>
+      <c r="H183" t="s">
+        <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>0</v>
+      </c>
+      <c r="J183" t="s">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>-2.74</v>
+      </c>
+      <c r="L183" t="s">
+        <v>54</v>
+      </c>
+      <c r="M183" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N183">
+        <v>7028615675</v>
+      </c>
+      <c r="O183" t="s">
+        <v>55</v>
+      </c>
+      <c r="P183" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>187483035573</v>
+      </c>
+      <c r="S183" t="s">
+        <v>0</v>
+      </c>
+      <c r="T183" t="s">
+        <v>0</v>
+      </c>
+      <c r="U183" t="s">
+        <v>0</v>
+      </c>
+      <c r="V183" t="s">
+        <v>0</v>
+      </c>
+      <c r="W183" t="s">
+        <v>0</v>
+      </c>
+      <c r="X183" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA183" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH183">
+        <v>-2.74</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>635</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B184" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" t="s">
+        <v>632</v>
+      </c>
+      <c r="D184" t="s">
+        <v>632</v>
+      </c>
+      <c r="E184" t="s">
+        <v>633</v>
+      </c>
+      <c r="F184" t="s">
+        <v>634</v>
+      </c>
+      <c r="G184" t="s">
+        <v>636</v>
+      </c>
+      <c r="H184" t="s">
+        <v>61</v>
+      </c>
+      <c r="I184" t="s">
+        <v>637</v>
+      </c>
+      <c r="J184" t="s">
+        <v>53</v>
+      </c>
+      <c r="K184">
+        <v>16.98</v>
+      </c>
+      <c r="L184" t="s">
+        <v>54</v>
+      </c>
+      <c r="M184" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N184">
+        <v>7028615675</v>
+      </c>
+      <c r="O184" t="s">
+        <v>55</v>
+      </c>
+      <c r="P184" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>187483035573</v>
+      </c>
+      <c r="S184">
+        <v>10074091967620</v>
+      </c>
+      <c r="T184" t="s">
+        <v>371</v>
+      </c>
+      <c r="U184" t="s">
+        <v>372</v>
+      </c>
+      <c r="V184">
+        <v>1</v>
+      </c>
+      <c r="W184">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA184" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB184">
+        <v>-0.36</v>
+      </c>
+      <c r="AC184">
+        <v>-1.57</v>
+      </c>
+      <c r="AD184">
+        <v>-0.08</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH184">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B185" t="s">
+        <v>58</v>
+      </c>
+      <c r="C185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>0</v>
+      </c>
+      <c r="F185" t="s">
+        <v>0</v>
+      </c>
+      <c r="G185" t="s">
+        <v>0</v>
+      </c>
+      <c r="H185" t="s">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>0</v>
+      </c>
+      <c r="J185" t="s">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>-0.12</v>
+      </c>
+      <c r="L185" t="s">
+        <v>54</v>
+      </c>
+      <c r="M185" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N185">
+        <v>7028615675</v>
+      </c>
+      <c r="O185" t="s">
+        <v>55</v>
+      </c>
+      <c r="P185" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>187494224842</v>
+      </c>
+      <c r="S185" t="s">
+        <v>0</v>
+      </c>
+      <c r="T185" t="s">
+        <v>0</v>
+      </c>
+      <c r="U185" t="s">
+        <v>0</v>
+      </c>
+      <c r="V185" t="s">
+        <v>0</v>
+      </c>
+      <c r="W185" t="s">
+        <v>0</v>
+      </c>
+      <c r="X185" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA185" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH185">
+        <v>-0.12</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>638</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="186" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B186" t="s">
+        <v>58</v>
+      </c>
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>0</v>
+      </c>
+      <c r="F186" t="s">
+        <v>0</v>
+      </c>
+      <c r="G186" t="s">
+        <v>0</v>
+      </c>
+      <c r="H186" t="s">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>0</v>
+      </c>
+      <c r="J186" t="s">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>-0.12</v>
+      </c>
+      <c r="L186" t="s">
+        <v>54</v>
+      </c>
+      <c r="M186" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N186">
+        <v>7028615675</v>
+      </c>
+      <c r="O186" t="s">
+        <v>55</v>
+      </c>
+      <c r="P186" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>0</v>
+      </c>
+      <c r="R186">
+        <v>187494085885</v>
+      </c>
+      <c r="S186" t="s">
+        <v>0</v>
+      </c>
+      <c r="T186" t="s">
+        <v>0</v>
+      </c>
+      <c r="U186" t="s">
+        <v>0</v>
+      </c>
+      <c r="V186" t="s">
+        <v>0</v>
+      </c>
+      <c r="W186" t="s">
+        <v>0</v>
+      </c>
+      <c r="X186" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA186" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH186">
+        <v>-0.12</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>639</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="187" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B187" t="s">
+        <v>64</v>
+      </c>
+      <c r="C187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>0</v>
+      </c>
+      <c r="F187" t="s">
+        <v>0</v>
+      </c>
+      <c r="G187" t="s">
+        <v>0</v>
+      </c>
+      <c r="H187" t="s">
+        <v>0</v>
+      </c>
+      <c r="I187" t="s">
+        <v>0</v>
+      </c>
+      <c r="J187" t="s">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>-112.5</v>
+      </c>
+      <c r="L187" t="s">
+        <v>54</v>
+      </c>
+      <c r="M187" t="s">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>7025493539</v>
+      </c>
+      <c r="O187" t="s">
+        <v>55</v>
+      </c>
+      <c r="P187" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>0</v>
+      </c>
+      <c r="R187" t="s">
+        <v>0</v>
+      </c>
+      <c r="S187" t="s">
+        <v>0</v>
+      </c>
+      <c r="T187" t="s">
+        <v>0</v>
+      </c>
+      <c r="U187" t="s">
+        <v>0</v>
+      </c>
+      <c r="V187" t="s">
+        <v>0</v>
+      </c>
+      <c r="W187" t="s">
+        <v>0</v>
+      </c>
+      <c r="X187" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA187" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH187">
+        <v>-112.5</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>467</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="188" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B188" t="s">
+        <v>58</v>
+      </c>
+      <c r="C188" t="s">
+        <v>468</v>
+      </c>
+      <c r="D188" t="s">
+        <v>468</v>
+      </c>
+      <c r="E188" t="s">
+        <v>469</v>
+      </c>
+      <c r="F188" t="s">
+        <v>470</v>
+      </c>
+      <c r="G188" t="s">
+        <v>0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>0</v>
+      </c>
+      <c r="I188" t="s">
+        <v>0</v>
+      </c>
+      <c r="J188" t="s">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>-2.81</v>
+      </c>
+      <c r="L188" t="s">
+        <v>54</v>
+      </c>
+      <c r="M188" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N188">
+        <v>7025493539</v>
+      </c>
+      <c r="O188" t="s">
+        <v>55</v>
+      </c>
+      <c r="P188" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>186905975156</v>
+      </c>
+      <c r="S188" t="s">
+        <v>0</v>
+      </c>
+      <c r="T188" t="s">
+        <v>0</v>
+      </c>
+      <c r="U188" t="s">
+        <v>0</v>
+      </c>
+      <c r="V188" t="s">
+        <v>0</v>
+      </c>
+      <c r="W188" t="s">
+        <v>0</v>
+      </c>
+      <c r="X188" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA188" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH188">
+        <v>-2.81</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>471</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="189" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B189" t="s">
+        <v>52</v>
+      </c>
+      <c r="C189" t="s">
+        <v>468</v>
+      </c>
+      <c r="D189" t="s">
+        <v>468</v>
+      </c>
+      <c r="E189" t="s">
+        <v>469</v>
+      </c>
+      <c r="F189" t="s">
+        <v>470</v>
+      </c>
+      <c r="G189" t="s">
+        <v>472</v>
+      </c>
+      <c r="H189" t="s">
+        <v>72</v>
+      </c>
+      <c r="I189" t="s">
+        <v>473</v>
+      </c>
+      <c r="J189" t="s">
+        <v>53</v>
+      </c>
+      <c r="K189">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="L189" t="s">
+        <v>54</v>
+      </c>
+      <c r="M189" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N189">
+        <v>7028615675</v>
+      </c>
+      <c r="O189" t="s">
+        <v>55</v>
+      </c>
+      <c r="P189" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>186905975156</v>
+      </c>
+      <c r="S189">
+        <v>10074840794711</v>
+      </c>
+      <c r="T189" t="s">
+        <v>265</v>
+      </c>
+      <c r="U189" t="s">
+        <v>372</v>
+      </c>
+      <c r="V189">
+        <v>1</v>
+      </c>
+      <c r="W189">
+        <v>19.47</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA189" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>-0.36</v>
+      </c>
+      <c r="AC189">
+        <v>-1.61</v>
+      </c>
+      <c r="AD189">
+        <v>-0.08</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH189">
+        <v>19.47</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B190" t="s">
+        <v>52</v>
+      </c>
+      <c r="C190" t="s">
+        <v>474</v>
+      </c>
+      <c r="D190" t="s">
+        <v>474</v>
+      </c>
+      <c r="E190" t="s">
+        <v>475</v>
+      </c>
+      <c r="F190" t="s">
+        <v>476</v>
+      </c>
+      <c r="G190" t="s">
+        <v>477</v>
+      </c>
+      <c r="H190" t="s">
+        <v>478</v>
+      </c>
+      <c r="I190" t="s">
+        <v>479</v>
+      </c>
+      <c r="J190" t="s">
+        <v>53</v>
+      </c>
+      <c r="K190">
+        <v>33.619999999999997</v>
+      </c>
+      <c r="L190" t="s">
+        <v>54</v>
+      </c>
+      <c r="M190" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N190">
+        <v>7025493539</v>
+      </c>
+      <c r="O190" t="s">
+        <v>55</v>
+      </c>
+      <c r="P190" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>187492038669</v>
+      </c>
+      <c r="S190">
+        <v>10073917068725</v>
+      </c>
+      <c r="T190" t="s">
+        <v>480</v>
+      </c>
+      <c r="U190" t="s">
+        <v>481</v>
+      </c>
+      <c r="V190">
+        <v>4</v>
+      </c>
+      <c r="W190">
+        <v>39.56</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA190" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB190">
+        <v>-0.12</v>
+      </c>
+      <c r="AC190">
+        <v>-5.65</v>
+      </c>
+      <c r="AD190">
+        <v>-0.17</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH190">
+        <v>39.56</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK190" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B191" t="s">
+        <v>58</v>
+      </c>
+      <c r="C191" t="s">
+        <v>482</v>
+      </c>
+      <c r="D191" t="s">
+        <v>482</v>
+      </c>
+      <c r="E191" t="s">
+        <v>483</v>
+      </c>
+      <c r="F191" t="s">
+        <v>484</v>
+      </c>
+      <c r="G191" t="s">
+        <v>0</v>
+      </c>
+      <c r="H191" t="s">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>0</v>
+      </c>
+      <c r="J191" t="s">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>-1.04</v>
+      </c>
+      <c r="L191" t="s">
+        <v>54</v>
+      </c>
+      <c r="M191" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N191">
+        <v>7025493539</v>
+      </c>
+      <c r="O191" t="s">
+        <v>55</v>
+      </c>
+      <c r="P191" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>186821285299</v>
+      </c>
+      <c r="S191" t="s">
+        <v>0</v>
+      </c>
+      <c r="T191" t="s">
+        <v>0</v>
+      </c>
+      <c r="U191" t="s">
+        <v>0</v>
+      </c>
+      <c r="V191" t="s">
+        <v>0</v>
+      </c>
+      <c r="W191" t="s">
+        <v>0</v>
+      </c>
+      <c r="X191" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA191" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH191">
+        <v>-1.04</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK191" t="s">
+        <v>485</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="192" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B192" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192" t="s">
+        <v>482</v>
+      </c>
+      <c r="D192" t="s">
+        <v>482</v>
+      </c>
+      <c r="E192" t="s">
+        <v>483</v>
+      </c>
+      <c r="F192" t="s">
+        <v>484</v>
+      </c>
+      <c r="G192" t="s">
+        <v>486</v>
+      </c>
+      <c r="H192" t="s">
+        <v>487</v>
+      </c>
+      <c r="I192" t="s">
+        <v>488</v>
+      </c>
+      <c r="J192" t="s">
+        <v>53</v>
+      </c>
+      <c r="K192">
+        <v>7.01</v>
+      </c>
+      <c r="L192" t="s">
+        <v>54</v>
+      </c>
+      <c r="M192" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N192">
+        <v>7025493539</v>
+      </c>
+      <c r="O192" t="s">
+        <v>55</v>
+      </c>
+      <c r="P192" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>186821285299</v>
+      </c>
+      <c r="S192">
+        <v>10079182588507</v>
+      </c>
+      <c r="T192" t="s">
+        <v>57</v>
+      </c>
+      <c r="U192" t="s">
+        <v>489</v>
+      </c>
+      <c r="V192">
+        <v>1</v>
+      </c>
+      <c r="W192">
+        <v>9.02</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA192" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <v>-0.36</v>
+      </c>
+      <c r="AC192">
+        <v>-1.18</v>
+      </c>
+      <c r="AD192">
+        <v>-0.04</v>
+      </c>
+      <c r="AE192">
+        <v>-0.43</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH192">
+        <v>9.02</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ192" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK192" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B193" t="s">
+        <v>58</v>
+      </c>
+      <c r="C193" t="s">
+        <v>490</v>
+      </c>
+      <c r="D193" t="s">
+        <v>490</v>
+      </c>
+      <c r="E193" t="s">
+        <v>491</v>
+      </c>
+      <c r="F193" t="s">
+        <v>492</v>
+      </c>
+      <c r="G193" t="s">
+        <v>0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
+        <v>0</v>
+      </c>
+      <c r="J193" t="s">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>-8.35</v>
+      </c>
+      <c r="L193" t="s">
+        <v>54</v>
+      </c>
+      <c r="M193" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N193">
+        <v>7025493539</v>
+      </c>
+      <c r="O193" t="s">
+        <v>55</v>
+      </c>
+      <c r="P193" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>0</v>
+      </c>
+      <c r="R193">
+        <v>187473652251</v>
+      </c>
+      <c r="S193" t="s">
+        <v>0</v>
+      </c>
+      <c r="T193" t="s">
+        <v>0</v>
+      </c>
+      <c r="U193" t="s">
+        <v>0</v>
+      </c>
+      <c r="V193" t="s">
+        <v>0</v>
+      </c>
+      <c r="W193" t="s">
+        <v>0</v>
+      </c>
+      <c r="X193" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA193" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH193">
+        <v>-8.35</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>493</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="194" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B194" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" t="s">
+        <v>490</v>
+      </c>
+      <c r="D194" t="s">
+        <v>490</v>
+      </c>
+      <c r="E194" t="s">
+        <v>491</v>
+      </c>
+      <c r="F194" t="s">
+        <v>492</v>
+      </c>
+      <c r="G194" t="s">
+        <v>494</v>
+      </c>
+      <c r="H194" t="s">
+        <v>495</v>
+      </c>
+      <c r="I194" t="s">
+        <v>496</v>
+      </c>
+      <c r="J194" t="s">
+        <v>53</v>
+      </c>
+      <c r="K194">
+        <v>47.03</v>
+      </c>
+      <c r="L194" t="s">
+        <v>54</v>
+      </c>
+      <c r="M194" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N194">
+        <v>7025493539</v>
+      </c>
+      <c r="O194" t="s">
+        <v>55</v>
+      </c>
+      <c r="P194" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>187473652251</v>
+      </c>
+      <c r="S194">
+        <v>10074365778202</v>
+      </c>
+      <c r="T194" t="s">
+        <v>92</v>
+      </c>
+      <c r="U194" t="s">
+        <v>93</v>
+      </c>
+      <c r="V194">
+        <v>1</v>
+      </c>
+      <c r="W194">
+        <v>57.99</v>
+      </c>
+      <c r="X194">
+        <v>0</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA194" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB194">
+        <v>-0.36</v>
+      </c>
+      <c r="AC194">
+        <v>-7.58</v>
+      </c>
+      <c r="AD194">
+        <v>-0.24</v>
+      </c>
+      <c r="AE194">
+        <v>-2.78</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH194">
+        <v>57.99</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK194" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B195" t="s">
+        <v>58</v>
+      </c>
+      <c r="C195" t="s">
+        <v>497</v>
+      </c>
+      <c r="D195" t="s">
+        <v>497</v>
+      </c>
+      <c r="E195" t="s">
+        <v>498</v>
+      </c>
+      <c r="F195" t="s">
+        <v>499</v>
+      </c>
+      <c r="G195" t="s">
+        <v>0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>-4.67</v>
+      </c>
+      <c r="L195" t="s">
+        <v>54</v>
+      </c>
+      <c r="M195" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N195">
+        <v>7025493539</v>
+      </c>
+      <c r="O195" t="s">
+        <v>55</v>
+      </c>
+      <c r="P195" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>187473645996</v>
+      </c>
+      <c r="S195" t="s">
+        <v>0</v>
+      </c>
+      <c r="T195" t="s">
+        <v>0</v>
+      </c>
+      <c r="U195" t="s">
+        <v>0</v>
+      </c>
+      <c r="V195" t="s">
+        <v>0</v>
+      </c>
+      <c r="W195" t="s">
+        <v>0</v>
+      </c>
+      <c r="X195" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA195" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH195">
+        <v>-4.67</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>500</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="196" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B196" t="s">
+        <v>52</v>
+      </c>
+      <c r="C196" t="s">
+        <v>497</v>
+      </c>
+      <c r="D196" t="s">
+        <v>497</v>
+      </c>
+      <c r="E196" t="s">
+        <v>498</v>
+      </c>
+      <c r="F196" t="s">
+        <v>499</v>
+      </c>
+      <c r="G196" t="s">
+        <v>501</v>
+      </c>
+      <c r="H196" t="s">
+        <v>502</v>
+      </c>
+      <c r="I196" t="s">
+        <v>503</v>
+      </c>
+      <c r="J196" t="s">
+        <v>53</v>
+      </c>
+      <c r="K196">
+        <v>26.75</v>
+      </c>
+      <c r="L196" t="s">
+        <v>54</v>
+      </c>
+      <c r="M196" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N196">
+        <v>7025493539</v>
+      </c>
+      <c r="O196" t="s">
+        <v>55</v>
+      </c>
+      <c r="P196" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>187473645996</v>
+      </c>
+      <c r="S196">
+        <v>10074299824805</v>
+      </c>
+      <c r="T196" t="s">
+        <v>101</v>
+      </c>
+      <c r="U196" t="s">
+        <v>102</v>
+      </c>
+      <c r="V196">
+        <v>1</v>
+      </c>
+      <c r="W196">
+        <v>31.34</v>
+      </c>
+      <c r="X196">
+        <v>0</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA196" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB196">
+        <v>-0.36</v>
+      </c>
+      <c r="AC196">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="AD196">
+        <v>-0.13</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH196">
+        <v>31.34</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B197" t="s">
+        <v>58</v>
+      </c>
+      <c r="C197" t="s">
+        <v>504</v>
+      </c>
+      <c r="D197" t="s">
+        <v>504</v>
+      </c>
+      <c r="E197" t="s">
+        <v>505</v>
+      </c>
+      <c r="F197" t="s">
+        <v>506</v>
+      </c>
+      <c r="G197" t="s">
+        <v>0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>0</v>
+      </c>
+      <c r="I197" t="s">
+        <v>0</v>
+      </c>
+      <c r="J197" t="s">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>-2.52</v>
+      </c>
+      <c r="L197" t="s">
+        <v>54</v>
+      </c>
+      <c r="M197" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N197">
+        <v>7025493539</v>
+      </c>
+      <c r="O197" t="s">
+        <v>55</v>
+      </c>
+      <c r="P197" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>186821285299</v>
+      </c>
+      <c r="S197" t="s">
+        <v>0</v>
+      </c>
+      <c r="T197" t="s">
+        <v>0</v>
+      </c>
+      <c r="U197" t="s">
+        <v>0</v>
+      </c>
+      <c r="V197" t="s">
+        <v>0</v>
+      </c>
+      <c r="W197" t="s">
+        <v>0</v>
+      </c>
+      <c r="X197" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA197" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH197">
+        <v>-2.52</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>507</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B198" t="s">
+        <v>52</v>
+      </c>
+      <c r="C198" t="s">
+        <v>504</v>
+      </c>
+      <c r="D198" t="s">
+        <v>504</v>
+      </c>
+      <c r="E198" t="s">
+        <v>505</v>
+      </c>
+      <c r="F198" t="s">
+        <v>506</v>
+      </c>
+      <c r="G198" t="s">
+        <v>508</v>
+      </c>
+      <c r="H198" t="s">
+        <v>137</v>
+      </c>
+      <c r="I198" t="s">
+        <v>509</v>
+      </c>
+      <c r="J198" t="s">
+        <v>53</v>
+      </c>
+      <c r="K198">
+        <v>17.48</v>
+      </c>
+      <c r="L198" t="s">
+        <v>54</v>
+      </c>
+      <c r="M198" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N198">
+        <v>7025493539</v>
+      </c>
+      <c r="O198" t="s">
+        <v>55</v>
+      </c>
+      <c r="P198" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>186821285299</v>
+      </c>
+      <c r="S198">
+        <v>10073912362525</v>
+      </c>
+      <c r="T198" t="s">
+        <v>57</v>
+      </c>
+      <c r="U198" t="s">
+        <v>228</v>
+      </c>
+      <c r="V198">
+        <v>1</v>
+      </c>
+      <c r="W198">
+        <v>21.84</v>
+      </c>
+      <c r="X198">
+        <v>0</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA198" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB198">
+        <v>-0.36</v>
+      </c>
+      <c r="AC198">
+        <v>-2.86</v>
+      </c>
+      <c r="AD198">
+        <v>-0.1</v>
+      </c>
+      <c r="AE198">
+        <v>-1.04</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH198">
+        <v>21.84</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK198" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B199" t="s">
+        <v>64</v>
+      </c>
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" t="s">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>0</v>
+      </c>
+      <c r="H199" t="s">
+        <v>0</v>
+      </c>
+      <c r="I199" t="s">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>-102.46</v>
+      </c>
+      <c r="L199" t="s">
+        <v>54</v>
+      </c>
+      <c r="M199" t="s">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>7023633011</v>
+      </c>
+      <c r="O199" t="s">
+        <v>55</v>
+      </c>
+      <c r="P199" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>0</v>
+      </c>
+      <c r="R199" t="s">
+        <v>0</v>
+      </c>
+      <c r="S199" t="s">
+        <v>0</v>
+      </c>
+      <c r="T199" t="s">
+        <v>0</v>
+      </c>
+      <c r="U199" t="s">
+        <v>0</v>
+      </c>
+      <c r="V199" t="s">
+        <v>0</v>
+      </c>
+      <c r="W199" t="s">
+        <v>0</v>
+      </c>
+      <c r="X199" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH199">
+        <v>-102.46</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK199" t="s">
+        <v>418</v>
+      </c>
+      <c r="AL199" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\email\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5385"/>
   </bookViews>
@@ -36,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5281" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5915" uniqueCount="713">
   <si>
     <t>--</t>
   </si>
@@ -1956,6 +1951,225 @@
   </si>
   <si>
     <t>FEE-6599699268017_11</t>
+  </si>
+  <si>
+    <t>05-13475-60248</t>
+  </si>
+  <si>
+    <t>jofoun-15</t>
+  </si>
+  <si>
+    <t>John Fountain</t>
+  </si>
+  <si>
+    <t>Ilkeston</t>
+  </si>
+  <si>
+    <t>DE7 4NB</t>
+  </si>
+  <si>
+    <t>Bank reference ID LJD3AAS6YQQHU6E</t>
+  </si>
+  <si>
+    <t>11-13466-09381</t>
+  </si>
+  <si>
+    <t>joshuabragg1</t>
+  </si>
+  <si>
+    <t>Joshua Bragg</t>
+  </si>
+  <si>
+    <t>FEE-6606873835317_11</t>
+  </si>
+  <si>
+    <t>Watford</t>
+  </si>
+  <si>
+    <t>Wd25 0JG</t>
+  </si>
+  <si>
+    <t>60W LED Rechargeable Cordless Work Site Flood Light Mobile Portable Camping Lamp</t>
+  </si>
+  <si>
+    <t>Flood Light 250601000020</t>
+  </si>
+  <si>
+    <t>17-13457-04575</t>
+  </si>
+  <si>
+    <t>howilk-44</t>
+  </si>
+  <si>
+    <t>Holly Wilkinson</t>
+  </si>
+  <si>
+    <t>FEE-6606447654317_11</t>
+  </si>
+  <si>
+    <t>Stockport</t>
+  </si>
+  <si>
+    <t>SK6 4EX</t>
+  </si>
+  <si>
+    <t>06-13471-16139</t>
+  </si>
+  <si>
+    <t>jecob29</t>
+  </si>
+  <si>
+    <t>Jenna Cobbold</t>
+  </si>
+  <si>
+    <t>FEE-6606016848617_11</t>
+  </si>
+  <si>
+    <t>Castleford</t>
+  </si>
+  <si>
+    <t>West Yorkshire</t>
+  </si>
+  <si>
+    <t>WF10 2GN</t>
+  </si>
+  <si>
+    <t>21-13449-85247</t>
+  </si>
+  <si>
+    <t>heulwen67</t>
+  </si>
+  <si>
+    <t>heulwen latcham</t>
+  </si>
+  <si>
+    <t>FEE-6605677592217_11</t>
+  </si>
+  <si>
+    <t>Barry, St. Athan</t>
+  </si>
+  <si>
+    <t>The Vale of Glamorgan</t>
+  </si>
+  <si>
+    <t>CF62 4JF</t>
+  </si>
+  <si>
+    <t>15-13458-01582</t>
+  </si>
+  <si>
+    <t>da6895</t>
+  </si>
+  <si>
+    <t>David Ward</t>
+  </si>
+  <si>
+    <t>FEE-6605668930017_11</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>TN23 7SG</t>
+  </si>
+  <si>
+    <t>06-13470-15663</t>
+  </si>
+  <si>
+    <t>indfi0</t>
+  </si>
+  <si>
+    <t>Ravi Kumar Gurram</t>
+  </si>
+  <si>
+    <t>FEE-6605531767217_11</t>
+  </si>
+  <si>
+    <t>Leeds</t>
+  </si>
+  <si>
+    <t>LS2 8JS</t>
+  </si>
+  <si>
+    <t>14-13459-04303</t>
+  </si>
+  <si>
+    <t>oyiade_59</t>
+  </si>
+  <si>
+    <t>Oyinade Adewale</t>
+  </si>
+  <si>
+    <t>FEE-6605471039817_11</t>
+  </si>
+  <si>
+    <t>SE5 9EB</t>
+  </si>
+  <si>
+    <t>Baby Infant Bath Seat &amp; Support Foldable Chair 3 Positions Bather Cradle Pink UK</t>
+  </si>
+  <si>
+    <t>Baby Seat Pink 250601000018</t>
+  </si>
+  <si>
+    <t>FEE-6605454654417_11</t>
+  </si>
+  <si>
+    <t>05-13471-32963</t>
+  </si>
+  <si>
+    <t>stawick3</t>
+  </si>
+  <si>
+    <t>Mariusz Stawicki</t>
+  </si>
+  <si>
+    <t>FEE-6605253865817_11</t>
+  </si>
+  <si>
+    <t>Harrogate</t>
+  </si>
+  <si>
+    <t>HG1 4GH</t>
+  </si>
+  <si>
+    <t>10-13463-97480</t>
+  </si>
+  <si>
+    <t>chrispydoc</t>
+  </si>
+  <si>
+    <t>Mr Chris Parnham</t>
+  </si>
+  <si>
+    <t>FEE-6605135738617_11</t>
+  </si>
+  <si>
+    <t>Derby, Allestree</t>
+  </si>
+  <si>
+    <t>DE22 2HG</t>
+  </si>
+  <si>
+    <t>21-13449-00551</t>
+  </si>
+  <si>
+    <t>katrina-261</t>
+  </si>
+  <si>
+    <t>Katrina Matthew</t>
+  </si>
+  <si>
+    <t>FEE-6605088351817_11</t>
+  </si>
+  <si>
+    <t>Forres</t>
+  </si>
+  <si>
+    <t>Morayshire</t>
+  </si>
+  <si>
+    <t>IV36 1FR</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +2970,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2764,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL199"/>
+  <dimension ref="A1:AL222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="A233" sqref="A233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18108,22 +18322,22 @@
     </row>
     <row r="143" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="B143" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C143" t="s">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="D143" t="s">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="E143" t="s">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="F143" t="s">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="G143" t="s">
         <v>0</v>
@@ -18138,16 +18352,16 @@
         <v>0</v>
       </c>
       <c r="K143">
-        <v>-312.18</v>
+        <v>-2.81</v>
       </c>
       <c r="L143" t="s">
         <v>54</v>
       </c>
-      <c r="M143" t="s">
-        <v>0</v>
+      <c r="M143" s="1">
+        <v>45885</v>
       </c>
       <c r="N143">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O143" t="s">
         <v>55</v>
@@ -18158,8 +18372,8 @@
       <c r="Q143" t="s">
         <v>0</v>
       </c>
-      <c r="R143" t="s">
-        <v>0</v>
+      <c r="R143">
+        <v>186905975156</v>
       </c>
       <c r="S143" t="s">
         <v>0</v>
@@ -18207,7 +18421,7 @@
         <v>0</v>
       </c>
       <c r="AH143">
-        <v>-312.18</v>
+        <v>-2.81</v>
       </c>
       <c r="AI143" t="s">
         <v>54</v>
@@ -18216,45 +18430,45 @@
         <v>0</v>
       </c>
       <c r="AK143" t="s">
-        <v>510</v>
+        <v>471</v>
       </c>
       <c r="AL143" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="B144" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C144" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="D144" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="E144" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="F144" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="G144" t="s">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="H144" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I144" t="s">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="J144" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K144">
-        <v>-1.58</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L144" t="s">
         <v>54</v>
@@ -18275,24 +18489,24 @@
         <v>0</v>
       </c>
       <c r="R144">
-        <v>187492038669</v>
-      </c>
-      <c r="S144" t="s">
-        <v>0</v>
+        <v>186905975156</v>
+      </c>
+      <c r="S144">
+        <v>10074840794711</v>
       </c>
       <c r="T144" t="s">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="U144" t="s">
-        <v>0</v>
-      </c>
-      <c r="V144" t="s">
-        <v>0</v>
-      </c>
-      <c r="W144" t="s">
-        <v>0</v>
-      </c>
-      <c r="X144" t="s">
+        <v>372</v>
+      </c>
+      <c r="V144">
+        <v>1</v>
+      </c>
+      <c r="W144">
+        <v>19.47</v>
+      </c>
+      <c r="X144">
         <v>0</v>
       </c>
       <c r="Y144" t="s">
@@ -18304,14 +18518,14 @@
       <c r="AA144" s="2">
         <v>0</v>
       </c>
-      <c r="AB144" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC144" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD144" t="s">
-        <v>0</v>
+      <c r="AB144">
+        <v>-0.36</v>
+      </c>
+      <c r="AC144">
+        <v>-1.61</v>
+      </c>
+      <c r="AD144">
+        <v>-0.08</v>
       </c>
       <c r="AE144" t="s">
         <v>0</v>
@@ -18323,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="AH144">
-        <v>-1.58</v>
+        <v>19.47</v>
       </c>
       <c r="AI144" t="s">
         <v>54</v>
@@ -18332,60 +18546,60 @@
         <v>0</v>
       </c>
       <c r="AK144" t="s">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="AL144" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45887</v>
+        <v>45884</v>
       </c>
       <c r="B145" t="s">
         <v>52</v>
       </c>
       <c r="C145" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="D145" t="s">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="E145" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="F145" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="G145" t="s">
-        <v>170</v>
+        <v>477</v>
       </c>
       <c r="H145" t="s">
-        <v>137</v>
+        <v>478</v>
       </c>
       <c r="I145" t="s">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="J145" t="s">
         <v>53</v>
       </c>
       <c r="K145">
-        <v>9.01</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="L145" t="s">
         <v>54</v>
       </c>
-      <c r="M145" t="s">
-        <v>0</v>
-      </c>
-      <c r="N145" t="s">
-        <v>0</v>
+      <c r="M145" s="1">
+        <v>45885</v>
+      </c>
+      <c r="N145">
+        <v>7025493539</v>
       </c>
       <c r="O145" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P145" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q145" t="s">
         <v>0</v>
@@ -18394,7 +18608,7 @@
         <v>187492038669</v>
       </c>
       <c r="S145">
-        <v>10075017216303</v>
+        <v>10073917068725</v>
       </c>
       <c r="T145" t="s">
         <v>480</v>
@@ -18403,10 +18617,10 @@
         <v>481</v>
       </c>
       <c r="V145">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W145">
-        <v>10.99</v>
+        <v>39.56</v>
       </c>
       <c r="X145">
         <v>0</v>
@@ -18421,13 +18635,13 @@
         <v>0</v>
       </c>
       <c r="AB145">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC145">
-        <v>-1.57</v>
+        <v>-5.65</v>
       </c>
       <c r="AD145">
-        <v>-0.05</v>
+        <v>-0.17</v>
       </c>
       <c r="AE145" t="s">
         <v>0</v>
@@ -18439,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="AH145">
-        <v>10.99</v>
+        <v>39.56</v>
       </c>
       <c r="AI145" t="s">
         <v>54</v>
@@ -18456,22 +18670,22 @@
     </row>
     <row r="146" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B146" t="s">
         <v>58</v>
       </c>
       <c r="C146" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="D146" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="E146" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="F146" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="G146" t="s">
         <v>0</v>
@@ -18486,16 +18700,16 @@
         <v>0</v>
       </c>
       <c r="K146">
-        <v>-2.81</v>
+        <v>-1.04</v>
       </c>
       <c r="L146" t="s">
         <v>54</v>
       </c>
       <c r="M146" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N146">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O146" t="s">
         <v>55</v>
@@ -18507,7 +18721,7 @@
         <v>0</v>
       </c>
       <c r="R146">
-        <v>187483035573</v>
+        <v>186821285299</v>
       </c>
       <c r="S146" t="s">
         <v>0</v>
@@ -18555,7 +18769,7 @@
         <v>0</v>
       </c>
       <c r="AH146">
-        <v>-2.81</v>
+        <v>-1.04</v>
       </c>
       <c r="AI146" t="s">
         <v>54</v>
@@ -18564,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="AK146" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="AL146" t="s">
         <v>59</v>
@@ -18572,46 +18786,46 @@
     </row>
     <row r="147" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B147" t="s">
         <v>52</v>
       </c>
       <c r="C147" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="D147" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="E147" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="F147" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="G147" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="H147" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="I147" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="J147" t="s">
         <v>53</v>
       </c>
       <c r="K147">
-        <v>17.420000000000002</v>
+        <v>7.01</v>
       </c>
       <c r="L147" t="s">
         <v>54</v>
       </c>
       <c r="M147" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N147">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O147" t="s">
         <v>55</v>
@@ -18623,22 +18837,22 @@
         <v>0</v>
       </c>
       <c r="R147">
-        <v>187483035573</v>
+        <v>186821285299</v>
       </c>
       <c r="S147">
-        <v>10074838802810</v>
+        <v>10079182588507</v>
       </c>
       <c r="T147" t="s">
-        <v>371</v>
+        <v>57</v>
       </c>
       <c r="U147" t="s">
-        <v>372</v>
+        <v>489</v>
       </c>
       <c r="V147">
         <v>1</v>
       </c>
       <c r="W147">
-        <v>19.47</v>
+        <v>9.02</v>
       </c>
       <c r="X147">
         <v>0</v>
@@ -18656,13 +18870,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC147">
-        <v>-1.61</v>
+        <v>-1.18</v>
       </c>
       <c r="AD147">
-        <v>-0.08</v>
-      </c>
-      <c r="AE147" t="s">
-        <v>0</v>
+        <v>-0.04</v>
+      </c>
+      <c r="AE147">
+        <v>-0.43</v>
       </c>
       <c r="AF147" t="s">
         <v>0</v>
@@ -18671,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="AH147">
-        <v>19.47</v>
+        <v>9.02</v>
       </c>
       <c r="AI147" t="s">
         <v>54</v>
@@ -18688,22 +18902,22 @@
     </row>
     <row r="148" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B148" t="s">
         <v>58</v>
       </c>
       <c r="C148" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="D148" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="E148" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="F148" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="G148" t="s">
         <v>0</v>
@@ -18718,16 +18932,16 @@
         <v>0</v>
       </c>
       <c r="K148">
-        <v>-11.38</v>
+        <v>-8.35</v>
       </c>
       <c r="L148" t="s">
         <v>54</v>
       </c>
       <c r="M148" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N148">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O148" t="s">
         <v>55</v>
@@ -18739,7 +18953,7 @@
         <v>0</v>
       </c>
       <c r="R148">
-        <v>187494085885</v>
+        <v>187473652251</v>
       </c>
       <c r="S148" t="s">
         <v>0</v>
@@ -18787,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="AH148">
-        <v>-11.38</v>
+        <v>-8.35</v>
       </c>
       <c r="AI148" t="s">
         <v>54</v>
@@ -18796,7 +19010,7 @@
         <v>0</v>
       </c>
       <c r="AK148" t="s">
-        <v>526</v>
+        <v>493</v>
       </c>
       <c r="AL148" t="s">
         <v>59</v>
@@ -18804,46 +19018,46 @@
     </row>
     <row r="149" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B149" t="s">
         <v>52</v>
       </c>
       <c r="C149" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="D149" t="s">
-        <v>523</v>
+        <v>490</v>
       </c>
       <c r="E149" t="s">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="F149" t="s">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="G149" t="s">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="H149" t="s">
-        <v>137</v>
+        <v>495</v>
       </c>
       <c r="I149" t="s">
-        <v>528</v>
+        <v>496</v>
       </c>
       <c r="J149" t="s">
         <v>53</v>
       </c>
       <c r="K149">
-        <v>67.010000000000005</v>
+        <v>47.03</v>
       </c>
       <c r="L149" t="s">
         <v>54</v>
       </c>
       <c r="M149" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N149">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O149" t="s">
         <v>55</v>
@@ -18855,22 +19069,22 @@
         <v>0</v>
       </c>
       <c r="R149">
-        <v>187494085885</v>
+        <v>187473652251</v>
       </c>
       <c r="S149">
-        <v>10073961435426</v>
+        <v>10074365778202</v>
       </c>
       <c r="T149" t="s">
-        <v>529</v>
+        <v>92</v>
       </c>
       <c r="U149" t="s">
-        <v>530</v>
+        <v>93</v>
       </c>
       <c r="V149">
         <v>1</v>
       </c>
       <c r="W149">
-        <v>78.989999999999995</v>
+        <v>57.99</v>
       </c>
       <c r="X149">
         <v>0</v>
@@ -18888,13 +19102,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC149">
-        <v>-11.28</v>
+        <v>-7.58</v>
       </c>
       <c r="AD149">
-        <v>-0.34</v>
-      </c>
-      <c r="AE149" t="s">
-        <v>0</v>
+        <v>-0.24</v>
+      </c>
+      <c r="AE149">
+        <v>-2.78</v>
       </c>
       <c r="AF149" t="s">
         <v>0</v>
@@ -18903,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="AH149">
-        <v>78.989999999999995</v>
+        <v>57.99</v>
       </c>
       <c r="AI149" t="s">
         <v>54</v>
@@ -18920,22 +19134,22 @@
     </row>
     <row r="150" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B150" t="s">
         <v>58</v>
       </c>
       <c r="C150" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="D150" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="E150" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="F150" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="G150" t="s">
         <v>0</v>
@@ -18950,16 +19164,16 @@
         <v>0</v>
       </c>
       <c r="K150">
-        <v>-3.14</v>
+        <v>-4.67</v>
       </c>
       <c r="L150" t="s">
         <v>54</v>
       </c>
       <c r="M150" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N150">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O150" t="s">
         <v>55</v>
@@ -18971,7 +19185,7 @@
         <v>0</v>
       </c>
       <c r="R150">
-        <v>186821285299</v>
+        <v>187473645996</v>
       </c>
       <c r="S150" t="s">
         <v>0</v>
@@ -19019,7 +19233,7 @@
         <v>0</v>
       </c>
       <c r="AH150">
-        <v>-3.14</v>
+        <v>-4.67</v>
       </c>
       <c r="AI150" t="s">
         <v>54</v>
@@ -19028,7 +19242,7 @@
         <v>0</v>
       </c>
       <c r="AK150" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="AL150" t="s">
         <v>59</v>
@@ -19036,46 +19250,46 @@
     </row>
     <row r="151" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B151" t="s">
         <v>52</v>
       </c>
       <c r="C151" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="D151" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
       <c r="E151" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="F151" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="G151" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="H151" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="I151" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
       <c r="J151" t="s">
         <v>53</v>
       </c>
       <c r="K151">
-        <v>17.48</v>
+        <v>26.75</v>
       </c>
       <c r="L151" t="s">
         <v>54</v>
       </c>
       <c r="M151" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N151">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O151" t="s">
         <v>55</v>
@@ -19087,22 +19301,22 @@
         <v>0</v>
       </c>
       <c r="R151">
-        <v>186821285299</v>
+        <v>187473645996</v>
       </c>
       <c r="S151">
-        <v>10074411711902</v>
+        <v>10074299824805</v>
       </c>
       <c r="T151" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="U151" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="V151">
         <v>1</v>
       </c>
       <c r="W151">
-        <v>21.84</v>
+        <v>31.34</v>
       </c>
       <c r="X151">
         <v>0</v>
@@ -19120,13 +19334,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC151">
-        <v>-2.86</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AD151">
-        <v>-0.1</v>
-      </c>
-      <c r="AE151">
-        <v>-1.04</v>
+        <v>-0.13</v>
+      </c>
+      <c r="AE151" t="s">
+        <v>0</v>
       </c>
       <c r="AF151" t="s">
         <v>0</v>
@@ -19135,7 +19349,7 @@
         <v>0</v>
       </c>
       <c r="AH151">
-        <v>21.84</v>
+        <v>31.34</v>
       </c>
       <c r="AI151" t="s">
         <v>54</v>
@@ -19152,22 +19366,22 @@
     </row>
     <row r="152" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B152" t="s">
         <v>58</v>
       </c>
       <c r="C152" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="D152" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="E152" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="F152" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="G152" t="s">
         <v>0</v>
@@ -19182,16 +19396,16 @@
         <v>0</v>
       </c>
       <c r="K152">
-        <v>-1.1599999999999999</v>
+        <v>-2.52</v>
       </c>
       <c r="L152" t="s">
         <v>54</v>
       </c>
       <c r="M152" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N152">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O152" t="s">
         <v>55</v>
@@ -19203,7 +19417,7 @@
         <v>0</v>
       </c>
       <c r="R152">
-        <v>187480578811</v>
+        <v>186821285299</v>
       </c>
       <c r="S152" t="s">
         <v>0</v>
@@ -19251,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="AH152">
-        <v>-1.1599999999999999</v>
+        <v>-2.52</v>
       </c>
       <c r="AI152" t="s">
         <v>54</v>
@@ -19260,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="AK152" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="AL152" t="s">
         <v>59</v>
@@ -19268,46 +19482,46 @@
     </row>
     <row r="153" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B153" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C153" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="D153" t="s">
-        <v>542</v>
+        <v>504</v>
       </c>
       <c r="E153" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
       <c r="F153" t="s">
-        <v>543</v>
+        <v>506</v>
       </c>
       <c r="G153" t="s">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="H153" t="s">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="I153" t="s">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="J153" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K153">
-        <v>-1.1599999999999999</v>
+        <v>17.48</v>
       </c>
       <c r="L153" t="s">
         <v>54</v>
       </c>
       <c r="M153" s="1">
-        <v>45887</v>
+        <v>45885</v>
       </c>
       <c r="N153">
-        <v>7028615675</v>
+        <v>7025493539</v>
       </c>
       <c r="O153" t="s">
         <v>55</v>
@@ -19319,24 +19533,24 @@
         <v>0</v>
       </c>
       <c r="R153">
-        <v>187480578811</v>
-      </c>
-      <c r="S153" t="s">
-        <v>0</v>
+        <v>186821285299</v>
+      </c>
+      <c r="S153">
+        <v>10073912362525</v>
       </c>
       <c r="T153" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U153" t="s">
-        <v>0</v>
-      </c>
-      <c r="V153" t="s">
-        <v>0</v>
-      </c>
-      <c r="W153" t="s">
-        <v>0</v>
-      </c>
-      <c r="X153" t="s">
+        <v>228</v>
+      </c>
+      <c r="V153">
+        <v>1</v>
+      </c>
+      <c r="W153">
+        <v>21.84</v>
+      </c>
+      <c r="X153">
         <v>0</v>
       </c>
       <c r="Y153" t="s">
@@ -19348,17 +19562,17 @@
       <c r="AA153" s="2">
         <v>0</v>
       </c>
-      <c r="AB153" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC153" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD153" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE153" t="s">
-        <v>0</v>
+      <c r="AB153">
+        <v>-0.36</v>
+      </c>
+      <c r="AC153">
+        <v>-2.86</v>
+      </c>
+      <c r="AD153">
+        <v>-0.1</v>
+      </c>
+      <c r="AE153">
+        <v>-1.04</v>
       </c>
       <c r="AF153" t="s">
         <v>0</v>
@@ -19367,7 +19581,7 @@
         <v>0</v>
       </c>
       <c r="AH153">
-        <v>-1.1599999999999999</v>
+        <v>21.84</v>
       </c>
       <c r="AI153" t="s">
         <v>54</v>
@@ -19376,54 +19590,54 @@
         <v>0</v>
       </c>
       <c r="AK153" t="s">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="AL153" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45886</v>
+        <v>45884</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C154" t="s">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>539</v>
+        <v>0</v>
       </c>
       <c r="F154" t="s">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>545</v>
+        <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>546</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>6.74</v>
+        <v>-102.46</v>
       </c>
       <c r="L154" t="s">
         <v>54</v>
       </c>
-      <c r="M154" s="1">
-        <v>45887</v>
+      <c r="M154" t="s">
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>7028615675</v>
+        <v>7023633011</v>
       </c>
       <c r="O154" t="s">
         <v>55</v>
@@ -19434,25 +19648,25 @@
       <c r="Q154" t="s">
         <v>0</v>
       </c>
-      <c r="R154">
-        <v>187480578811</v>
-      </c>
-      <c r="S154">
-        <v>10074700263704</v>
+      <c r="R154" t="s">
+        <v>0</v>
+      </c>
+      <c r="S154" t="s">
+        <v>0</v>
       </c>
       <c r="T154" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="U154" t="s">
-        <v>547</v>
-      </c>
-      <c r="V154">
-        <v>1</v>
-      </c>
-      <c r="W154">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="X154">
+        <v>0</v>
+      </c>
+      <c r="V154" t="s">
+        <v>0</v>
+      </c>
+      <c r="W154" t="s">
+        <v>0</v>
+      </c>
+      <c r="X154" t="s">
         <v>0</v>
       </c>
       <c r="Y154" t="s">
@@ -19464,14 +19678,14 @@
       <c r="AA154" s="2">
         <v>0</v>
       </c>
-      <c r="AB154">
-        <v>-0.12</v>
-      </c>
-      <c r="AC154">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="AD154">
-        <v>-0.04</v>
+      <c r="AB154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD154" t="s">
+        <v>0</v>
       </c>
       <c r="AE154" t="s">
         <v>0</v>
@@ -19483,7 +19697,7 @@
         <v>0</v>
       </c>
       <c r="AH154">
-        <v>8.0500000000000007</v>
+        <v>-102.46</v>
       </c>
       <c r="AI154" t="s">
         <v>54</v>
@@ -19492,81 +19706,81 @@
         <v>0</v>
       </c>
       <c r="AK154" t="s">
-        <v>0</v>
+        <v>418</v>
       </c>
       <c r="AL154" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="155" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="B155" t="s">
         <v>52</v>
       </c>
       <c r="C155" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="D155" t="s">
-        <v>538</v>
+        <v>640</v>
       </c>
       <c r="E155" t="s">
-        <v>539</v>
+        <v>641</v>
       </c>
       <c r="F155" t="s">
-        <v>540</v>
+        <v>642</v>
       </c>
       <c r="G155" t="s">
-        <v>548</v>
+        <v>643</v>
       </c>
       <c r="H155" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="I155" t="s">
-        <v>549</v>
+        <v>644</v>
       </c>
       <c r="J155" t="s">
         <v>53</v>
       </c>
       <c r="K155">
-        <v>6.74</v>
+        <v>7.39</v>
       </c>
       <c r="L155" t="s">
         <v>54</v>
       </c>
-      <c r="M155" s="1">
-        <v>45887</v>
-      </c>
-      <c r="N155">
-        <v>7028615675</v>
+      <c r="M155" t="s">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
+        <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P155" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q155" t="s">
         <v>0</v>
       </c>
       <c r="R155">
-        <v>187480578811</v>
+        <v>187499629184</v>
       </c>
       <c r="S155">
-        <v>10074132029124</v>
+        <v>10074390710905</v>
       </c>
       <c r="T155" t="s">
-        <v>280</v>
+        <v>57</v>
       </c>
       <c r="U155" t="s">
-        <v>547</v>
+        <v>489</v>
       </c>
       <c r="V155">
         <v>1</v>
       </c>
       <c r="W155">
-        <v>8.0500000000000007</v>
+        <v>9.49</v>
       </c>
       <c r="X155">
         <v>0</v>
@@ -19581,16 +19795,16 @@
         <v>0</v>
       </c>
       <c r="AB155">
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="AC155">
-        <v>-1.1499999999999999</v>
+        <v>-1.24</v>
       </c>
       <c r="AD155">
         <v>-0.04</v>
       </c>
-      <c r="AE155" t="s">
-        <v>0</v>
+      <c r="AE155">
+        <v>-0.46</v>
       </c>
       <c r="AF155" t="s">
         <v>0</v>
@@ -19599,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="AH155">
-        <v>8.0500000000000007</v>
+        <v>9.49</v>
       </c>
       <c r="AI155" t="s">
         <v>54</v>
@@ -19616,22 +19830,22 @@
     </row>
     <row r="156" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45886</v>
+        <v>45888</v>
       </c>
       <c r="B156" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C156" t="s">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="D156" t="s">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="F156" t="s">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>0</v>
@@ -19646,16 +19860,16 @@
         <v>0</v>
       </c>
       <c r="K156">
-        <v>-2.81</v>
+        <v>-247.68</v>
       </c>
       <c r="L156" t="s">
         <v>54</v>
       </c>
-      <c r="M156" s="1">
-        <v>45887</v>
+      <c r="M156" t="s">
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O156" t="s">
         <v>55</v>
@@ -19666,8 +19880,8 @@
       <c r="Q156" t="s">
         <v>0</v>
       </c>
-      <c r="R156">
-        <v>187483035573</v>
+      <c r="R156" t="s">
+        <v>0</v>
       </c>
       <c r="S156" t="s">
         <v>0</v>
@@ -19715,7 +19929,7 @@
         <v>0</v>
       </c>
       <c r="AH156">
-        <v>-2.81</v>
+        <v>-247.68</v>
       </c>
       <c r="AI156" t="s">
         <v>54</v>
@@ -19724,54 +19938,54 @@
         <v>0</v>
       </c>
       <c r="AK156" t="s">
-        <v>553</v>
+        <v>645</v>
       </c>
       <c r="AL156" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="157" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B157" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C157" t="s">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="D157" t="s">
-        <v>550</v>
+        <v>646</v>
       </c>
       <c r="E157" t="s">
-        <v>551</v>
+        <v>647</v>
       </c>
       <c r="F157" t="s">
-        <v>552</v>
+        <v>648</v>
       </c>
       <c r="G157" t="s">
-        <v>554</v>
+        <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K157">
-        <v>17.420000000000002</v>
+        <v>-8.59</v>
       </c>
       <c r="L157" t="s">
         <v>54</v>
       </c>
       <c r="M157" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N157">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O157" t="s">
         <v>55</v>
@@ -19783,24 +19997,24 @@
         <v>0</v>
       </c>
       <c r="R157">
-        <v>187483035573</v>
-      </c>
-      <c r="S157">
-        <v>10074759109019</v>
+        <v>187483325602</v>
+      </c>
+      <c r="S157" t="s">
+        <v>0</v>
       </c>
       <c r="T157" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U157" t="s">
-        <v>372</v>
-      </c>
-      <c r="V157">
-        <v>1</v>
-      </c>
-      <c r="W157">
-        <v>19.47</v>
-      </c>
-      <c r="X157">
+        <v>0</v>
+      </c>
+      <c r="V157" t="s">
+        <v>0</v>
+      </c>
+      <c r="W157" t="s">
+        <v>0</v>
+      </c>
+      <c r="X157" t="s">
         <v>0</v>
       </c>
       <c r="Y157" t="s">
@@ -19812,14 +20026,14 @@
       <c r="AA157" s="2">
         <v>0</v>
       </c>
-      <c r="AB157">
-        <v>-0.36</v>
-      </c>
-      <c r="AC157">
-        <v>-1.61</v>
-      </c>
-      <c r="AD157">
-        <v>-0.08</v>
+      <c r="AB157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD157" t="s">
+        <v>0</v>
       </c>
       <c r="AE157" t="s">
         <v>0</v>
@@ -19831,7 +20045,7 @@
         <v>0</v>
       </c>
       <c r="AH157">
-        <v>19.47</v>
+        <v>-8.59</v>
       </c>
       <c r="AI157" t="s">
         <v>54</v>
@@ -19840,54 +20054,54 @@
         <v>0</v>
       </c>
       <c r="AK157" t="s">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="AL157" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B158" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C158" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="D158" t="s">
-        <v>556</v>
+        <v>646</v>
       </c>
       <c r="E158" t="s">
-        <v>557</v>
+        <v>647</v>
       </c>
       <c r="F158" t="s">
-        <v>558</v>
+        <v>648</v>
       </c>
       <c r="G158" t="s">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="H158" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I158" t="s">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="J158" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K158">
-        <v>-1.5</v>
+        <v>48.36</v>
       </c>
       <c r="L158" t="s">
         <v>54</v>
       </c>
       <c r="M158" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N158">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O158" t="s">
         <v>55</v>
@@ -19899,24 +20113,24 @@
         <v>0</v>
       </c>
       <c r="R158">
-        <v>187473655879</v>
-      </c>
-      <c r="S158" t="s">
-        <v>0</v>
+        <v>187483325602</v>
+      </c>
+      <c r="S158">
+        <v>10074922723311</v>
       </c>
       <c r="T158" t="s">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="U158" t="s">
-        <v>0</v>
-      </c>
-      <c r="V158" t="s">
-        <v>0</v>
-      </c>
-      <c r="W158" t="s">
-        <v>0</v>
-      </c>
-      <c r="X158" t="s">
+        <v>653</v>
+      </c>
+      <c r="V158">
+        <v>4</v>
+      </c>
+      <c r="W158">
+        <v>59.64</v>
+      </c>
+      <c r="X158">
         <v>0</v>
       </c>
       <c r="Y158" t="s">
@@ -19928,17 +20142,17 @@
       <c r="AA158" s="2">
         <v>0</v>
       </c>
-      <c r="AB158" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC158" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD158" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE158" t="s">
-        <v>0</v>
+      <c r="AB158">
+        <v>-0.36</v>
+      </c>
+      <c r="AC158">
+        <v>-7.8</v>
+      </c>
+      <c r="AD158">
+        <v>-0.25</v>
+      </c>
+      <c r="AE158">
+        <v>-2.87</v>
       </c>
       <c r="AF158" t="s">
         <v>0</v>
@@ -19947,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="AH158">
-        <v>-1.5</v>
+        <v>59.64</v>
       </c>
       <c r="AI158" t="s">
         <v>54</v>
@@ -19956,54 +20170,54 @@
         <v>0</v>
       </c>
       <c r="AK158" t="s">
-        <v>559</v>
+        <v>0</v>
       </c>
       <c r="AL158" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C159" t="s">
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="D159" t="s">
-        <v>556</v>
+        <v>654</v>
       </c>
       <c r="E159" t="s">
-        <v>557</v>
+        <v>655</v>
       </c>
       <c r="F159" t="s">
-        <v>558</v>
+        <v>656</v>
       </c>
       <c r="G159" t="s">
-        <v>560</v>
+        <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>561</v>
+        <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K159">
-        <v>8.1300000000000008</v>
+        <v>-1.21</v>
       </c>
       <c r="L159" t="s">
         <v>54</v>
       </c>
       <c r="M159" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N159">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O159" t="s">
         <v>55</v>
@@ -20015,24 +20229,24 @@
         <v>0</v>
       </c>
       <c r="R159">
-        <v>187473655879</v>
-      </c>
-      <c r="S159">
-        <v>10074179478608</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S159" t="s">
+        <v>0</v>
       </c>
       <c r="T159" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="U159" t="s">
-        <v>166</v>
-      </c>
-      <c r="V159">
-        <v>1</v>
-      </c>
-      <c r="W159">
-        <v>10.4</v>
-      </c>
-      <c r="X159">
+        <v>0</v>
+      </c>
+      <c r="V159" t="s">
+        <v>0</v>
+      </c>
+      <c r="W159" t="s">
+        <v>0</v>
+      </c>
+      <c r="X159" t="s">
         <v>0</v>
       </c>
       <c r="Y159" t="s">
@@ -20044,17 +20258,17 @@
       <c r="AA159" s="2">
         <v>0</v>
       </c>
-      <c r="AB159">
-        <v>-0.36</v>
-      </c>
-      <c r="AC159">
-        <v>-1.36</v>
-      </c>
-      <c r="AD159">
-        <v>-0.05</v>
-      </c>
-      <c r="AE159">
-        <v>-0.5</v>
+      <c r="AB159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD159" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE159" t="s">
+        <v>0</v>
       </c>
       <c r="AF159" t="s">
         <v>0</v>
@@ -20063,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="AH159">
-        <v>10.4</v>
+        <v>-1.21</v>
       </c>
       <c r="AI159" t="s">
         <v>54</v>
@@ -20072,54 +20286,54 @@
         <v>0</v>
       </c>
       <c r="AK159" t="s">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="AL159" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B160" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C160" t="s">
-        <v>563</v>
+        <v>654</v>
       </c>
       <c r="D160" t="s">
-        <v>563</v>
+        <v>654</v>
       </c>
       <c r="E160" t="s">
-        <v>564</v>
+        <v>655</v>
       </c>
       <c r="F160" t="s">
-        <v>565</v>
+        <v>656</v>
       </c>
       <c r="G160" t="s">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="H160" t="s">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="I160" t="s">
-        <v>0</v>
+        <v>659</v>
       </c>
       <c r="J160" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K160">
-        <v>-2.1</v>
+        <v>7.08</v>
       </c>
       <c r="L160" t="s">
         <v>54</v>
       </c>
       <c r="M160" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N160">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O160" t="s">
         <v>55</v>
@@ -20131,24 +20345,24 @@
         <v>0</v>
       </c>
       <c r="R160">
-        <v>187483035573</v>
-      </c>
-      <c r="S160" t="s">
-        <v>0</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S160">
+        <v>10074831823817</v>
       </c>
       <c r="T160" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="U160" t="s">
-        <v>0</v>
-      </c>
-      <c r="V160" t="s">
-        <v>0</v>
-      </c>
-      <c r="W160" t="s">
-        <v>0</v>
-      </c>
-      <c r="X160" t="s">
+        <v>281</v>
+      </c>
+      <c r="V160">
+        <v>1</v>
+      </c>
+      <c r="W160">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="X160">
         <v>0</v>
       </c>
       <c r="Y160" t="s">
@@ -20160,14 +20374,14 @@
       <c r="AA160" s="2">
         <v>0</v>
       </c>
-      <c r="AB160" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC160" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD160" t="s">
-        <v>0</v>
+      <c r="AB160">
+        <v>-0.12</v>
+      </c>
+      <c r="AC160">
+        <v>-1.21</v>
+      </c>
+      <c r="AD160">
+        <v>-0.04</v>
       </c>
       <c r="AE160" t="s">
         <v>0</v>
@@ -20179,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="AH160">
-        <v>-2.1</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AI160" t="s">
         <v>54</v>
@@ -20188,54 +20402,54 @@
         <v>0</v>
       </c>
       <c r="AK160" t="s">
-        <v>566</v>
+        <v>0</v>
       </c>
       <c r="AL160" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B161" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C161" t="s">
-        <v>563</v>
+        <v>660</v>
       </c>
       <c r="D161" t="s">
-        <v>563</v>
+        <v>660</v>
       </c>
       <c r="E161" t="s">
-        <v>564</v>
+        <v>661</v>
       </c>
       <c r="F161" t="s">
-        <v>565</v>
+        <v>662</v>
       </c>
       <c r="G161" t="s">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="I161" t="s">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K161">
-        <v>17.420000000000002</v>
+        <v>-4.91</v>
       </c>
       <c r="L161" t="s">
         <v>54</v>
       </c>
       <c r="M161" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N161">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O161" t="s">
         <v>55</v>
@@ -20247,24 +20461,24 @@
         <v>0</v>
       </c>
       <c r="R161">
-        <v>187483035573</v>
-      </c>
-      <c r="S161">
-        <v>10078308458127</v>
+        <v>187473645996</v>
+      </c>
+      <c r="S161" t="s">
+        <v>0</v>
       </c>
       <c r="T161" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U161" t="s">
-        <v>372</v>
-      </c>
-      <c r="V161">
-        <v>1</v>
-      </c>
-      <c r="W161">
-        <v>19.47</v>
-      </c>
-      <c r="X161">
+        <v>0</v>
+      </c>
+      <c r="V161" t="s">
+        <v>0</v>
+      </c>
+      <c r="W161" t="s">
+        <v>0</v>
+      </c>
+      <c r="X161" t="s">
         <v>0</v>
       </c>
       <c r="Y161" t="s">
@@ -20276,14 +20490,14 @@
       <c r="AA161" s="2">
         <v>0</v>
       </c>
-      <c r="AB161">
-        <v>-0.36</v>
-      </c>
-      <c r="AC161">
-        <v>-1.61</v>
-      </c>
-      <c r="AD161">
-        <v>-0.08</v>
+      <c r="AB161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD161" t="s">
+        <v>0</v>
       </c>
       <c r="AE161" t="s">
         <v>0</v>
@@ -20295,7 +20509,7 @@
         <v>0</v>
       </c>
       <c r="AH161">
-        <v>19.47</v>
+        <v>-4.91</v>
       </c>
       <c r="AI161" t="s">
         <v>54</v>
@@ -20304,54 +20518,54 @@
         <v>0</v>
       </c>
       <c r="AK161" t="s">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="AL161" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="162" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B162" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C162" t="s">
-        <v>569</v>
+        <v>660</v>
       </c>
       <c r="D162" t="s">
-        <v>569</v>
+        <v>660</v>
       </c>
       <c r="E162" t="s">
-        <v>570</v>
+        <v>661</v>
       </c>
       <c r="F162" t="s">
-        <v>571</v>
+        <v>662</v>
       </c>
       <c r="G162" t="s">
-        <v>0</v>
+        <v>664</v>
       </c>
       <c r="H162" t="s">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="I162" t="s">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="J162" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K162">
-        <v>-2.74</v>
+        <v>28.17</v>
       </c>
       <c r="L162" t="s">
         <v>54</v>
       </c>
       <c r="M162" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N162">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O162" t="s">
         <v>55</v>
@@ -20363,24 +20577,24 @@
         <v>0</v>
       </c>
       <c r="R162">
-        <v>187483035573</v>
-      </c>
-      <c r="S162" t="s">
-        <v>0</v>
+        <v>187473645996</v>
+      </c>
+      <c r="S162">
+        <v>10075054253006</v>
       </c>
       <c r="T162" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="U162" t="s">
-        <v>0</v>
-      </c>
-      <c r="V162" t="s">
-        <v>0</v>
-      </c>
-      <c r="W162" t="s">
-        <v>0</v>
-      </c>
-      <c r="X162" t="s">
+        <v>102</v>
+      </c>
+      <c r="V162">
+        <v>1</v>
+      </c>
+      <c r="W162">
+        <v>32.99</v>
+      </c>
+      <c r="X162">
         <v>0</v>
       </c>
       <c r="Y162" t="s">
@@ -20392,14 +20606,14 @@
       <c r="AA162" s="2">
         <v>0</v>
       </c>
-      <c r="AB162" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC162" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD162" t="s">
-        <v>0</v>
+      <c r="AB162">
+        <v>-0.36</v>
+      </c>
+      <c r="AC162">
+        <v>-4.32</v>
+      </c>
+      <c r="AD162">
+        <v>-0.14000000000000001</v>
       </c>
       <c r="AE162" t="s">
         <v>0</v>
@@ -20411,7 +20625,7 @@
         <v>0</v>
       </c>
       <c r="AH162">
-        <v>-2.74</v>
+        <v>32.99</v>
       </c>
       <c r="AI162" t="s">
         <v>54</v>
@@ -20420,54 +20634,54 @@
         <v>0</v>
       </c>
       <c r="AK162" t="s">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AL162" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C163" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="D163" t="s">
-        <v>569</v>
+        <v>667</v>
       </c>
       <c r="E163" t="s">
-        <v>570</v>
+        <v>668</v>
       </c>
       <c r="F163" t="s">
-        <v>571</v>
+        <v>669</v>
       </c>
       <c r="G163" t="s">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>574</v>
+        <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K163">
-        <v>16.98</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="L163" t="s">
         <v>54</v>
       </c>
       <c r="M163" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N163">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O163" t="s">
         <v>55</v>
@@ -20479,24 +20693,24 @@
         <v>0</v>
       </c>
       <c r="R163">
-        <v>187483035573</v>
-      </c>
-      <c r="S163">
-        <v>10074405319302</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S163" t="s">
+        <v>0</v>
       </c>
       <c r="T163" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U163" t="s">
-        <v>372</v>
-      </c>
-      <c r="V163">
-        <v>1</v>
-      </c>
-      <c r="W163">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="X163">
+        <v>0</v>
+      </c>
+      <c r="V163" t="s">
+        <v>0</v>
+      </c>
+      <c r="W163" t="s">
+        <v>0</v>
+      </c>
+      <c r="X163" t="s">
         <v>0</v>
       </c>
       <c r="Y163" t="s">
@@ -20508,14 +20722,14 @@
       <c r="AA163" s="2">
         <v>0</v>
       </c>
-      <c r="AB163">
-        <v>-0.36</v>
-      </c>
-      <c r="AC163">
-        <v>-1.57</v>
-      </c>
-      <c r="AD163">
-        <v>-0.08</v>
+      <c r="AB163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD163" t="s">
+        <v>0</v>
       </c>
       <c r="AE163" t="s">
         <v>0</v>
@@ -20527,7 +20741,7 @@
         <v>0</v>
       </c>
       <c r="AH163">
-        <v>18.989999999999998</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="AI163" t="s">
         <v>54</v>
@@ -20536,54 +20750,54 @@
         <v>0</v>
       </c>
       <c r="AK163" t="s">
-        <v>0</v>
+        <v>670</v>
       </c>
       <c r="AL163" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B164" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C164" t="s">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="D164" t="s">
-        <v>575</v>
+        <v>667</v>
       </c>
       <c r="E164" t="s">
-        <v>576</v>
+        <v>668</v>
       </c>
       <c r="F164" t="s">
-        <v>577</v>
+        <v>669</v>
       </c>
       <c r="G164" t="s">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="H164" t="s">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="I164" t="s">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J164" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K164">
-        <v>-2.74</v>
+        <v>47.03</v>
       </c>
       <c r="L164" t="s">
         <v>54</v>
       </c>
       <c r="M164" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N164">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O164" t="s">
         <v>55</v>
@@ -20595,24 +20809,24 @@
         <v>0</v>
       </c>
       <c r="R164">
-        <v>187483035573</v>
-      </c>
-      <c r="S164" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S164">
+        <v>10079321591621</v>
       </c>
       <c r="T164" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="U164" t="s">
-        <v>0</v>
-      </c>
-      <c r="V164" t="s">
-        <v>0</v>
-      </c>
-      <c r="W164" t="s">
-        <v>0</v>
-      </c>
-      <c r="X164" t="s">
+        <v>93</v>
+      </c>
+      <c r="V164">
+        <v>1</v>
+      </c>
+      <c r="W164">
+        <v>57.99</v>
+      </c>
+      <c r="X164">
         <v>0</v>
       </c>
       <c r="Y164" t="s">
@@ -20624,17 +20838,17 @@
       <c r="AA164" s="2">
         <v>0</v>
       </c>
-      <c r="AB164" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC164" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD164" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE164" t="s">
-        <v>0</v>
+      <c r="AB164">
+        <v>-0.36</v>
+      </c>
+      <c r="AC164">
+        <v>-7.58</v>
+      </c>
+      <c r="AD164">
+        <v>-0.24</v>
+      </c>
+      <c r="AE164">
+        <v>-2.78</v>
       </c>
       <c r="AF164" t="s">
         <v>0</v>
@@ -20643,7 +20857,7 @@
         <v>0</v>
       </c>
       <c r="AH164">
-        <v>-2.74</v>
+        <v>57.99</v>
       </c>
       <c r="AI164" t="s">
         <v>54</v>
@@ -20652,54 +20866,54 @@
         <v>0</v>
       </c>
       <c r="AK164" t="s">
-        <v>578</v>
+        <v>0</v>
       </c>
       <c r="AL164" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B165" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C165" t="s">
-        <v>575</v>
+        <v>674</v>
       </c>
       <c r="D165" t="s">
-        <v>575</v>
+        <v>674</v>
       </c>
       <c r="E165" t="s">
-        <v>576</v>
+        <v>675</v>
       </c>
       <c r="F165" t="s">
-        <v>577</v>
+        <v>676</v>
       </c>
       <c r="G165" t="s">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="H165" t="s">
         <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K165">
-        <v>16.98</v>
+        <v>-2.95</v>
       </c>
       <c r="L165" t="s">
         <v>54</v>
       </c>
       <c r="M165" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N165">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O165" t="s">
         <v>55</v>
@@ -20713,22 +20927,22 @@
       <c r="R165">
         <v>187483035573</v>
       </c>
-      <c r="S165">
-        <v>10074789507614</v>
+      <c r="S165" t="s">
+        <v>0</v>
       </c>
       <c r="T165" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U165" t="s">
-        <v>372</v>
-      </c>
-      <c r="V165">
-        <v>1</v>
-      </c>
-      <c r="W165">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="X165">
+        <v>0</v>
+      </c>
+      <c r="V165" t="s">
+        <v>0</v>
+      </c>
+      <c r="W165" t="s">
+        <v>0</v>
+      </c>
+      <c r="X165" t="s">
         <v>0</v>
       </c>
       <c r="Y165" t="s">
@@ -20740,14 +20954,14 @@
       <c r="AA165" s="2">
         <v>0</v>
       </c>
-      <c r="AB165">
-        <v>-0.36</v>
-      </c>
-      <c r="AC165">
-        <v>-1.57</v>
-      </c>
-      <c r="AD165">
-        <v>-0.08</v>
+      <c r="AB165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>0</v>
       </c>
       <c r="AE165" t="s">
         <v>0</v>
@@ -20759,7 +20973,7 @@
         <v>0</v>
       </c>
       <c r="AH165">
-        <v>18.989999999999998</v>
+        <v>-2.95</v>
       </c>
       <c r="AI165" t="s">
         <v>54</v>
@@ -20768,54 +20982,54 @@
         <v>0</v>
       </c>
       <c r="AK165" t="s">
-        <v>0</v>
+        <v>677</v>
       </c>
       <c r="AL165" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B166" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C166" t="s">
-        <v>581</v>
+        <v>674</v>
       </c>
       <c r="D166" t="s">
-        <v>581</v>
+        <v>674</v>
       </c>
       <c r="E166" t="s">
-        <v>582</v>
+        <v>675</v>
       </c>
       <c r="F166" t="s">
-        <v>583</v>
+        <v>676</v>
       </c>
       <c r="G166" t="s">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="H166" t="s">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I166" t="s">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="J166" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K166">
-        <v>-1.99</v>
+        <v>18.36</v>
       </c>
       <c r="L166" t="s">
         <v>54</v>
       </c>
       <c r="M166" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N166">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O166" t="s">
         <v>55</v>
@@ -20827,24 +21041,24 @@
         <v>0</v>
       </c>
       <c r="R166">
-        <v>187473651729</v>
-      </c>
-      <c r="S166" t="s">
-        <v>0</v>
+        <v>187483035573</v>
+      </c>
+      <c r="S166">
+        <v>10074824902815</v>
       </c>
       <c r="T166" t="s">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="U166" t="s">
-        <v>0</v>
-      </c>
-      <c r="V166" t="s">
-        <v>0</v>
-      </c>
-      <c r="W166" t="s">
-        <v>0</v>
-      </c>
-      <c r="X166" t="s">
+        <v>372</v>
+      </c>
+      <c r="V166">
+        <v>1</v>
+      </c>
+      <c r="W166">
+        <v>20.49</v>
+      </c>
+      <c r="X166">
         <v>0</v>
       </c>
       <c r="Y166" t="s">
@@ -20856,14 +21070,14 @@
       <c r="AA166" s="2">
         <v>0</v>
       </c>
-      <c r="AB166" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC166" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD166" t="s">
-        <v>0</v>
+      <c r="AB166">
+        <v>-0.36</v>
+      </c>
+      <c r="AC166">
+        <v>-1.69</v>
+      </c>
+      <c r="AD166">
+        <v>-0.08</v>
       </c>
       <c r="AE166" t="s">
         <v>0</v>
@@ -20875,7 +21089,7 @@
         <v>0</v>
       </c>
       <c r="AH166">
-        <v>-1.99</v>
+        <v>20.49</v>
       </c>
       <c r="AI166" t="s">
         <v>54</v>
@@ -20884,54 +21098,54 @@
         <v>0</v>
       </c>
       <c r="AK166" t="s">
-        <v>584</v>
+        <v>0</v>
       </c>
       <c r="AL166" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B167" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>581</v>
+        <v>680</v>
       </c>
       <c r="D167" t="s">
-        <v>581</v>
+        <v>680</v>
       </c>
       <c r="E167" t="s">
-        <v>582</v>
+        <v>681</v>
       </c>
       <c r="F167" t="s">
-        <v>583</v>
+        <v>682</v>
       </c>
       <c r="G167" t="s">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K167">
-        <v>14.81</v>
+        <v>-11.38</v>
       </c>
       <c r="L167" t="s">
         <v>54</v>
       </c>
       <c r="M167" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N167">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O167" t="s">
         <v>55</v>
@@ -20943,24 +21157,24 @@
         <v>0</v>
       </c>
       <c r="R167">
-        <v>187473651729</v>
-      </c>
-      <c r="S167">
-        <v>10074339214205</v>
+        <v>187494085885</v>
+      </c>
+      <c r="S167" t="s">
+        <v>0</v>
       </c>
       <c r="T167" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U167" t="s">
-        <v>75</v>
-      </c>
-      <c r="V167">
-        <v>1</v>
-      </c>
-      <c r="W167">
-        <v>16.62</v>
-      </c>
-      <c r="X167">
+        <v>0</v>
+      </c>
+      <c r="V167" t="s">
+        <v>0</v>
+      </c>
+      <c r="W167" t="s">
+        <v>0</v>
+      </c>
+      <c r="X167" t="s">
         <v>0</v>
       </c>
       <c r="Y167" t="s">
@@ -20972,14 +21186,14 @@
       <c r="AA167" s="2">
         <v>0</v>
       </c>
-      <c r="AB167">
-        <v>-0.36</v>
-      </c>
-      <c r="AC167">
-        <v>-1.38</v>
-      </c>
-      <c r="AD167">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>0</v>
       </c>
       <c r="AE167" t="s">
         <v>0</v>
@@ -20991,7 +21205,7 @@
         <v>0</v>
       </c>
       <c r="AH167">
-        <v>16.62</v>
+        <v>-11.38</v>
       </c>
       <c r="AI167" t="s">
         <v>54</v>
@@ -21000,54 +21214,54 @@
         <v>0</v>
       </c>
       <c r="AK167" t="s">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="AL167" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B168" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
-        <v>588</v>
+        <v>680</v>
       </c>
       <c r="D168" t="s">
-        <v>588</v>
+        <v>680</v>
       </c>
       <c r="E168" t="s">
-        <v>589</v>
+        <v>681</v>
       </c>
       <c r="F168" t="s">
-        <v>590</v>
+        <v>682</v>
       </c>
       <c r="G168" t="s">
-        <v>0</v>
+        <v>684</v>
       </c>
       <c r="H168" t="s">
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="J168" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K168">
-        <v>-2.74</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="L168" t="s">
         <v>54</v>
       </c>
       <c r="M168" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N168">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O168" t="s">
         <v>55</v>
@@ -21059,24 +21273,24 @@
         <v>0</v>
       </c>
       <c r="R168">
-        <v>187483035573</v>
-      </c>
-      <c r="S168" t="s">
-        <v>0</v>
+        <v>187494085885</v>
+      </c>
+      <c r="S168">
+        <v>10075048559406</v>
       </c>
       <c r="T168" t="s">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="U168" t="s">
-        <v>0</v>
-      </c>
-      <c r="V168" t="s">
-        <v>0</v>
-      </c>
-      <c r="W168" t="s">
-        <v>0</v>
-      </c>
-      <c r="X168" t="s">
+        <v>530</v>
+      </c>
+      <c r="V168">
+        <v>1</v>
+      </c>
+      <c r="W168">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="X168">
         <v>0</v>
       </c>
       <c r="Y168" t="s">
@@ -21088,14 +21302,14 @@
       <c r="AA168" s="2">
         <v>0</v>
       </c>
-      <c r="AB168" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC168" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD168" t="s">
-        <v>0</v>
+      <c r="AB168">
+        <v>-0.36</v>
+      </c>
+      <c r="AC168">
+        <v>-11.28</v>
+      </c>
+      <c r="AD168">
+        <v>-0.34</v>
       </c>
       <c r="AE168" t="s">
         <v>0</v>
@@ -21107,7 +21321,7 @@
         <v>0</v>
       </c>
       <c r="AH168">
-        <v>-2.74</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="AI168" t="s">
         <v>54</v>
@@ -21116,54 +21330,54 @@
         <v>0</v>
       </c>
       <c r="AK168" t="s">
-        <v>591</v>
+        <v>0</v>
       </c>
       <c r="AL168" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C169" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="D169" t="s">
-        <v>588</v>
+        <v>686</v>
       </c>
       <c r="E169" t="s">
-        <v>589</v>
+        <v>687</v>
       </c>
       <c r="F169" t="s">
-        <v>590</v>
+        <v>688</v>
       </c>
       <c r="G169" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>592</v>
+        <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K169">
-        <v>16.98</v>
+        <v>-2.09</v>
       </c>
       <c r="L169" t="s">
         <v>54</v>
       </c>
       <c r="M169" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N169">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O169" t="s">
         <v>55</v>
@@ -21175,24 +21389,24 @@
         <v>0</v>
       </c>
       <c r="R169">
-        <v>187483035573</v>
-      </c>
-      <c r="S169">
-        <v>10074747271119</v>
+        <v>187473669696</v>
+      </c>
+      <c r="S169" t="s">
+        <v>0</v>
       </c>
       <c r="T169" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U169" t="s">
-        <v>372</v>
-      </c>
-      <c r="V169">
-        <v>1</v>
-      </c>
-      <c r="W169">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="V169" t="s">
+        <v>0</v>
+      </c>
+      <c r="W169" t="s">
+        <v>0</v>
+      </c>
+      <c r="X169" t="s">
         <v>0</v>
       </c>
       <c r="Y169" t="s">
@@ -21204,14 +21418,14 @@
       <c r="AA169" s="2">
         <v>0</v>
       </c>
-      <c r="AB169">
-        <v>-0.36</v>
-      </c>
-      <c r="AC169">
-        <v>-1.57</v>
-      </c>
-      <c r="AD169">
-        <v>-0.08</v>
+      <c r="AB169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>0</v>
       </c>
       <c r="AE169" t="s">
         <v>0</v>
@@ -21223,7 +21437,7 @@
         <v>0</v>
       </c>
       <c r="AH169">
-        <v>18.989999999999998</v>
+        <v>-2.09</v>
       </c>
       <c r="AI169" t="s">
         <v>54</v>
@@ -21232,54 +21446,54 @@
         <v>0</v>
       </c>
       <c r="AK169" t="s">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="AL169" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B170" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
-        <v>593</v>
+        <v>686</v>
       </c>
       <c r="D170" t="s">
-        <v>593</v>
+        <v>686</v>
       </c>
       <c r="E170" t="s">
-        <v>594</v>
+        <v>687</v>
       </c>
       <c r="F170" t="s">
-        <v>595</v>
+        <v>688</v>
       </c>
       <c r="G170" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="H170" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="I170" t="s">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="J170" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K170">
-        <v>-2.74</v>
+        <v>12.17</v>
       </c>
       <c r="L170" t="s">
         <v>54</v>
       </c>
       <c r="M170" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N170">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O170" t="s">
         <v>55</v>
@@ -21291,24 +21505,24 @@
         <v>0</v>
       </c>
       <c r="R170">
-        <v>187483035573</v>
-      </c>
-      <c r="S170" t="s">
-        <v>0</v>
+        <v>187473669696</v>
+      </c>
+      <c r="S170">
+        <v>10074818257914</v>
       </c>
       <c r="T170" t="s">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="U170" t="s">
-        <v>0</v>
-      </c>
-      <c r="V170" t="s">
-        <v>0</v>
-      </c>
-      <c r="W170" t="s">
-        <v>0</v>
-      </c>
-      <c r="X170" t="s">
+        <v>692</v>
+      </c>
+      <c r="V170">
+        <v>1</v>
+      </c>
+      <c r="W170">
+        <v>14.49</v>
+      </c>
+      <c r="X170">
         <v>0</v>
       </c>
       <c r="Y170" t="s">
@@ -21320,14 +21534,14 @@
       <c r="AA170" s="2">
         <v>0</v>
       </c>
-      <c r="AB170" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC170" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD170" t="s">
-        <v>0</v>
+      <c r="AB170">
+        <v>-0.36</v>
+      </c>
+      <c r="AC170">
+        <v>-1.9</v>
+      </c>
+      <c r="AD170">
+        <v>-0.06</v>
       </c>
       <c r="AE170" t="s">
         <v>0</v>
@@ -21339,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="AH170">
-        <v>-2.74</v>
+        <v>14.49</v>
       </c>
       <c r="AI170" t="s">
         <v>54</v>
@@ -21348,54 +21562,54 @@
         <v>0</v>
       </c>
       <c r="AK170" t="s">
-        <v>596</v>
+        <v>0</v>
       </c>
       <c r="AL170" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45886</v>
+        <v>45887</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C171" t="s">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>594</v>
+        <v>0</v>
       </c>
       <c r="F171" t="s">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="G171" t="s">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>598</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K171">
-        <v>16.98</v>
+        <v>-0.12</v>
       </c>
       <c r="L171" t="s">
         <v>54</v>
       </c>
       <c r="M171" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N171">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O171" t="s">
         <v>55</v>
@@ -21407,24 +21621,24 @@
         <v>0</v>
       </c>
       <c r="R171">
-        <v>187483035573</v>
-      </c>
-      <c r="S171">
-        <v>10074816126710</v>
+        <v>187499607305</v>
+      </c>
+      <c r="S171" t="s">
+        <v>0</v>
       </c>
       <c r="T171" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U171" t="s">
-        <v>372</v>
-      </c>
-      <c r="V171">
-        <v>1</v>
-      </c>
-      <c r="W171">
-        <v>18.989999999999998</v>
-      </c>
-      <c r="X171">
+        <v>0</v>
+      </c>
+      <c r="V171" t="s">
+        <v>0</v>
+      </c>
+      <c r="W171" t="s">
+        <v>0</v>
+      </c>
+      <c r="X171" t="s">
         <v>0</v>
       </c>
       <c r="Y171" t="s">
@@ -21436,14 +21650,14 @@
       <c r="AA171" s="2">
         <v>0</v>
       </c>
-      <c r="AB171">
-        <v>-0.36</v>
-      </c>
-      <c r="AC171">
-        <v>-1.57</v>
-      </c>
-      <c r="AD171">
-        <v>-0.08</v>
+      <c r="AB171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>0</v>
       </c>
       <c r="AE171" t="s">
         <v>0</v>
@@ -21455,7 +21669,7 @@
         <v>0</v>
       </c>
       <c r="AH171">
-        <v>18.989999999999998</v>
+        <v>-0.12</v>
       </c>
       <c r="AI171" t="s">
         <v>54</v>
@@ -21464,30 +21678,30 @@
         <v>0</v>
       </c>
       <c r="AK171" t="s">
-        <v>0</v>
+        <v>693</v>
       </c>
       <c r="AL171" t="s">
-        <v>0</v>
+        <v>287</v>
       </c>
     </row>
     <row r="172" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B172" t="s">
         <v>58</v>
       </c>
       <c r="C172" t="s">
-        <v>599</v>
+        <v>694</v>
       </c>
       <c r="D172" t="s">
-        <v>599</v>
+        <v>694</v>
       </c>
       <c r="E172" t="s">
-        <v>600</v>
+        <v>695</v>
       </c>
       <c r="F172" t="s">
-        <v>601</v>
+        <v>696</v>
       </c>
       <c r="G172" t="s">
         <v>0</v>
@@ -21502,16 +21716,16 @@
         <v>0</v>
       </c>
       <c r="K172">
-        <v>-1.26</v>
+        <v>-1.22</v>
       </c>
       <c r="L172" t="s">
         <v>54</v>
       </c>
       <c r="M172" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N172">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O172" t="s">
         <v>55</v>
@@ -21571,7 +21785,7 @@
         <v>0</v>
       </c>
       <c r="AH172">
-        <v>-1.26</v>
+        <v>-1.22</v>
       </c>
       <c r="AI172" t="s">
         <v>54</v>
@@ -21580,7 +21794,7 @@
         <v>0</v>
       </c>
       <c r="AK172" t="s">
-        <v>602</v>
+        <v>697</v>
       </c>
       <c r="AL172" t="s">
         <v>59</v>
@@ -21588,46 +21802,46 @@
     </row>
     <row r="173" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B173" t="s">
         <v>52</v>
       </c>
       <c r="C173" t="s">
-        <v>599</v>
+        <v>694</v>
       </c>
       <c r="D173" t="s">
-        <v>599</v>
+        <v>694</v>
       </c>
       <c r="E173" t="s">
-        <v>600</v>
+        <v>695</v>
       </c>
       <c r="F173" t="s">
-        <v>601</v>
+        <v>696</v>
       </c>
       <c r="G173" t="s">
-        <v>277</v>
+        <v>698</v>
       </c>
       <c r="H173" t="s">
-        <v>296</v>
+        <v>72</v>
       </c>
       <c r="I173" t="s">
-        <v>603</v>
+        <v>699</v>
       </c>
       <c r="J173" t="s">
         <v>53</v>
       </c>
       <c r="K173">
-        <v>6.74</v>
+        <v>7.1</v>
       </c>
       <c r="L173" t="s">
         <v>54</v>
       </c>
       <c r="M173" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N173">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O173" t="s">
         <v>55</v>
@@ -21642,7 +21856,7 @@
         <v>187480578811</v>
       </c>
       <c r="S173">
-        <v>10073942003825</v>
+        <v>10074366600705</v>
       </c>
       <c r="T173" t="s">
         <v>280</v>
@@ -21654,7 +21868,7 @@
         <v>1</v>
       </c>
       <c r="W173">
-        <v>8.0500000000000007</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="X173">
         <v>0</v>
@@ -21672,7 +21886,7 @@
         <v>-0.12</v>
       </c>
       <c r="AC173">
-        <v>-1.1499999999999999</v>
+        <v>-1.21</v>
       </c>
       <c r="AD173">
         <v>-0.04</v>
@@ -21687,7 +21901,7 @@
         <v>0</v>
       </c>
       <c r="AH173">
-        <v>8.0500000000000007</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="AI173" t="s">
         <v>54</v>
@@ -21704,22 +21918,22 @@
     </row>
     <row r="174" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B174" t="s">
         <v>58</v>
       </c>
       <c r="C174" t="s">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="D174" t="s">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="E174" t="s">
-        <v>605</v>
+        <v>701</v>
       </c>
       <c r="F174" t="s">
-        <v>606</v>
+        <v>702</v>
       </c>
       <c r="G174" t="s">
         <v>0</v>
@@ -21734,16 +21948,16 @@
         <v>0</v>
       </c>
       <c r="K174">
-        <v>-8.35</v>
+        <v>-1.22</v>
       </c>
       <c r="L174" t="s">
         <v>54</v>
       </c>
       <c r="M174" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N174">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O174" t="s">
         <v>55</v>
@@ -21755,7 +21969,7 @@
         <v>0</v>
       </c>
       <c r="R174">
-        <v>187473652251</v>
+        <v>187480578811</v>
       </c>
       <c r="S174" t="s">
         <v>0</v>
@@ -21803,7 +22017,7 @@
         <v>0</v>
       </c>
       <c r="AH174">
-        <v>-8.35</v>
+        <v>-1.22</v>
       </c>
       <c r="AI174" t="s">
         <v>54</v>
@@ -21812,7 +22026,7 @@
         <v>0</v>
       </c>
       <c r="AK174" t="s">
-        <v>607</v>
+        <v>703</v>
       </c>
       <c r="AL174" t="s">
         <v>59</v>
@@ -21820,46 +22034,46 @@
     </row>
     <row r="175" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B175" t="s">
         <v>52</v>
       </c>
       <c r="C175" t="s">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="D175" t="s">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="E175" t="s">
-        <v>605</v>
+        <v>701</v>
       </c>
       <c r="F175" t="s">
-        <v>606</v>
+        <v>702</v>
       </c>
       <c r="G175" t="s">
-        <v>608</v>
+        <v>704</v>
       </c>
       <c r="H175" t="s">
-        <v>609</v>
+        <v>296</v>
       </c>
       <c r="I175" t="s">
-        <v>610</v>
+        <v>705</v>
       </c>
       <c r="J175" t="s">
         <v>53</v>
       </c>
       <c r="K175">
-        <v>47.03</v>
+        <v>7.1</v>
       </c>
       <c r="L175" t="s">
         <v>54</v>
       </c>
       <c r="M175" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N175">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O175" t="s">
         <v>55</v>
@@ -21871,22 +22085,22 @@
         <v>0</v>
       </c>
       <c r="R175">
-        <v>187473652251</v>
+        <v>187480578811</v>
       </c>
       <c r="S175">
-        <v>10074161430808</v>
+        <v>10074851076910</v>
       </c>
       <c r="T175" t="s">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="U175" t="s">
-        <v>93</v>
+        <v>547</v>
       </c>
       <c r="V175">
         <v>1</v>
       </c>
       <c r="W175">
-        <v>57.99</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="X175">
         <v>0</v>
@@ -21901,16 +22115,16 @@
         <v>0</v>
       </c>
       <c r="AB175">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC175">
-        <v>-7.58</v>
+        <v>-1.21</v>
       </c>
       <c r="AD175">
-        <v>-0.24</v>
-      </c>
-      <c r="AE175">
-        <v>-2.78</v>
+        <v>-0.04</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>0</v>
       </c>
       <c r="AF175" t="s">
         <v>0</v>
@@ -21919,7 +22133,7 @@
         <v>0</v>
       </c>
       <c r="AH175">
-        <v>57.99</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="AI175" t="s">
         <v>54</v>
@@ -21936,22 +22150,22 @@
     </row>
     <row r="176" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B176" t="s">
         <v>58</v>
       </c>
       <c r="C176" t="s">
-        <v>474</v>
+        <v>706</v>
       </c>
       <c r="D176" t="s">
-        <v>474</v>
+        <v>706</v>
       </c>
       <c r="E176" t="s">
-        <v>475</v>
+        <v>707</v>
       </c>
       <c r="F176" t="s">
-        <v>476</v>
+        <v>708</v>
       </c>
       <c r="G176" t="s">
         <v>0</v>
@@ -21966,16 +22180,16 @@
         <v>0</v>
       </c>
       <c r="K176">
-        <v>-5.89</v>
+        <v>-8.35</v>
       </c>
       <c r="L176" t="s">
         <v>54</v>
       </c>
       <c r="M176" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N176">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O176" t="s">
         <v>55</v>
@@ -21987,7 +22201,7 @@
         <v>0</v>
       </c>
       <c r="R176">
-        <v>187492038669</v>
+        <v>187473652251</v>
       </c>
       <c r="S176" t="s">
         <v>0</v>
@@ -22035,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="AH176">
-        <v>-5.89</v>
+        <v>-8.35</v>
       </c>
       <c r="AI176" t="s">
         <v>54</v>
@@ -22044,7 +22258,7 @@
         <v>0</v>
       </c>
       <c r="AK176" t="s">
-        <v>611</v>
+        <v>709</v>
       </c>
       <c r="AL176" t="s">
         <v>59</v>
@@ -22052,46 +22266,46 @@
     </row>
     <row r="177" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B177" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C177" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="D177" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="E177" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="F177" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
       <c r="G177" t="s">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="H177" t="s">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="I177" t="s">
-        <v>0</v>
+        <v>712</v>
       </c>
       <c r="J177" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K177">
-        <v>-2.1</v>
+        <v>47.03</v>
       </c>
       <c r="L177" t="s">
         <v>54</v>
       </c>
       <c r="M177" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N177">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O177" t="s">
         <v>55</v>
@@ -22103,24 +22317,24 @@
         <v>0</v>
       </c>
       <c r="R177">
-        <v>187473651729</v>
-      </c>
-      <c r="S177" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S177">
+        <v>10079316897121</v>
       </c>
       <c r="T177" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="U177" t="s">
-        <v>0</v>
-      </c>
-      <c r="V177" t="s">
-        <v>0</v>
-      </c>
-      <c r="W177" t="s">
-        <v>0</v>
-      </c>
-      <c r="X177" t="s">
+        <v>93</v>
+      </c>
+      <c r="V177">
+        <v>1</v>
+      </c>
+      <c r="W177">
+        <v>57.99</v>
+      </c>
+      <c r="X177">
         <v>0</v>
       </c>
       <c r="Y177" t="s">
@@ -22132,17 +22346,17 @@
       <c r="AA177" s="2">
         <v>0</v>
       </c>
-      <c r="AB177" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC177" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD177" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE177" t="s">
-        <v>0</v>
+      <c r="AB177">
+        <v>-0.36</v>
+      </c>
+      <c r="AC177">
+        <v>-7.58</v>
+      </c>
+      <c r="AD177">
+        <v>-0.24</v>
+      </c>
+      <c r="AE177">
+        <v>-2.78</v>
       </c>
       <c r="AF177" t="s">
         <v>0</v>
@@ -22151,7 +22365,7 @@
         <v>0</v>
       </c>
       <c r="AH177">
-        <v>-2.1</v>
+        <v>57.99</v>
       </c>
       <c r="AI177" t="s">
         <v>54</v>
@@ -22160,30 +22374,30 @@
         <v>0</v>
       </c>
       <c r="AK177" t="s">
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="AL177" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B178" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C178" t="s">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="D178" t="s">
-        <v>616</v>
+        <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="F178" t="s">
-        <v>618</v>
+        <v>0</v>
       </c>
       <c r="G178" t="s">
         <v>0</v>
@@ -22198,13 +22412,13 @@
         <v>0</v>
       </c>
       <c r="K178">
-        <v>-2.74</v>
+        <v>-312.18</v>
       </c>
       <c r="L178" t="s">
         <v>54</v>
       </c>
-      <c r="M178" s="1">
-        <v>45887</v>
+      <c r="M178" t="s">
+        <v>0</v>
       </c>
       <c r="N178">
         <v>7028615675</v>
@@ -22218,8 +22432,8 @@
       <c r="Q178" t="s">
         <v>0</v>
       </c>
-      <c r="R178">
-        <v>187483035573</v>
+      <c r="R178" t="s">
+        <v>0</v>
       </c>
       <c r="S178" t="s">
         <v>0</v>
@@ -22267,7 +22481,7 @@
         <v>0</v>
       </c>
       <c r="AH178">
-        <v>-2.74</v>
+        <v>-312.18</v>
       </c>
       <c r="AI178" t="s">
         <v>54</v>
@@ -22276,45 +22490,45 @@
         <v>0</v>
       </c>
       <c r="AK178" t="s">
-        <v>619</v>
+        <v>510</v>
       </c>
       <c r="AL178" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C179" t="s">
-        <v>612</v>
+        <v>511</v>
       </c>
       <c r="D179" t="s">
-        <v>612</v>
+        <v>511</v>
       </c>
       <c r="E179" t="s">
-        <v>613</v>
+        <v>512</v>
       </c>
       <c r="F179" t="s">
-        <v>614</v>
+        <v>513</v>
       </c>
       <c r="G179" t="s">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K179">
-        <v>15.61</v>
+        <v>-1.58</v>
       </c>
       <c r="L179" t="s">
         <v>54</v>
@@ -22335,24 +22549,24 @@
         <v>0</v>
       </c>
       <c r="R179">
-        <v>187473651729</v>
-      </c>
-      <c r="S179">
-        <v>10073937949526</v>
+        <v>187492038669</v>
+      </c>
+      <c r="S179" t="s">
+        <v>0</v>
       </c>
       <c r="T179" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U179" t="s">
-        <v>75</v>
-      </c>
-      <c r="V179">
-        <v>1</v>
-      </c>
-      <c r="W179">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="X179">
+        <v>0</v>
+      </c>
+      <c r="V179" t="s">
+        <v>0</v>
+      </c>
+      <c r="W179" t="s">
+        <v>0</v>
+      </c>
+      <c r="X179" t="s">
         <v>0</v>
       </c>
       <c r="Y179" t="s">
@@ -22364,14 +22578,14 @@
       <c r="AA179" s="2">
         <v>0</v>
       </c>
-      <c r="AB179">
-        <v>-0.36</v>
-      </c>
-      <c r="AC179">
-        <v>-1.45</v>
-      </c>
-      <c r="AD179">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>0</v>
       </c>
       <c r="AE179" t="s">
         <v>0</v>
@@ -22383,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="AH179">
-        <v>17.489999999999998</v>
+        <v>-1.58</v>
       </c>
       <c r="AI179" t="s">
         <v>54</v>
@@ -22392,54 +22606,54 @@
         <v>0</v>
       </c>
       <c r="AK179" t="s">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="AL179" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="180" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="B180" t="s">
         <v>52</v>
       </c>
       <c r="C180" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="D180" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="E180" t="s">
-        <v>617</v>
+        <v>512</v>
       </c>
       <c r="F180" t="s">
-        <v>618</v>
+        <v>513</v>
       </c>
       <c r="G180" t="s">
-        <v>622</v>
+        <v>170</v>
       </c>
       <c r="H180" t="s">
-        <v>623</v>
+        <v>137</v>
       </c>
       <c r="I180" t="s">
-        <v>624</v>
+        <v>515</v>
       </c>
       <c r="J180" t="s">
         <v>53</v>
       </c>
       <c r="K180">
-        <v>16.98</v>
+        <v>9.01</v>
       </c>
       <c r="L180" t="s">
         <v>54</v>
       </c>
       <c r="M180" s="1">
-        <v>45887</v>
+        <v>45888</v>
       </c>
       <c r="N180">
-        <v>7028615675</v>
+        <v>7030244651</v>
       </c>
       <c r="O180" t="s">
         <v>55</v>
@@ -22451,22 +22665,22 @@
         <v>0</v>
       </c>
       <c r="R180">
-        <v>187483035573</v>
+        <v>187492038669</v>
       </c>
       <c r="S180">
-        <v>10074360351822</v>
+        <v>10075017216303</v>
       </c>
       <c r="T180" t="s">
-        <v>371</v>
+        <v>480</v>
       </c>
       <c r="U180" t="s">
-        <v>372</v>
+        <v>481</v>
       </c>
       <c r="V180">
         <v>1</v>
       </c>
       <c r="W180">
-        <v>18.989999999999998</v>
+        <v>10.99</v>
       </c>
       <c r="X180">
         <v>0</v>
@@ -22487,7 +22701,7 @@
         <v>-1.57</v>
       </c>
       <c r="AD180">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
       <c r="AE180" t="s">
         <v>0</v>
@@ -22499,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="AH180">
-        <v>18.989999999999998</v>
+        <v>10.99</v>
       </c>
       <c r="AI180" t="s">
         <v>54</v>
@@ -22516,22 +22730,22 @@
     </row>
     <row r="181" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B181" t="s">
         <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>625</v>
+        <v>516</v>
       </c>
       <c r="D181" t="s">
-        <v>625</v>
+        <v>516</v>
       </c>
       <c r="E181" t="s">
-        <v>626</v>
+        <v>517</v>
       </c>
       <c r="F181" t="s">
-        <v>627</v>
+        <v>518</v>
       </c>
       <c r="G181" t="s">
         <v>0</v>
@@ -22546,7 +22760,7 @@
         <v>0</v>
       </c>
       <c r="K181">
-        <v>-2.74</v>
+        <v>-2.81</v>
       </c>
       <c r="L181" t="s">
         <v>54</v>
@@ -22615,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="AH181">
-        <v>-2.74</v>
+        <v>-2.81</v>
       </c>
       <c r="AI181" t="s">
         <v>54</v>
@@ -22624,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="AK181" t="s">
-        <v>628</v>
+        <v>519</v>
       </c>
       <c r="AL181" t="s">
         <v>59</v>
@@ -22632,37 +22846,37 @@
     </row>
     <row r="182" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B182" t="s">
         <v>52</v>
       </c>
       <c r="C182" t="s">
-        <v>625</v>
+        <v>516</v>
       </c>
       <c r="D182" t="s">
-        <v>625</v>
+        <v>516</v>
       </c>
       <c r="E182" t="s">
-        <v>626</v>
+        <v>517</v>
       </c>
       <c r="F182" t="s">
-        <v>627</v>
+        <v>518</v>
       </c>
       <c r="G182" t="s">
-        <v>629</v>
+        <v>520</v>
       </c>
       <c r="H182" t="s">
-        <v>630</v>
+        <v>521</v>
       </c>
       <c r="I182" t="s">
-        <v>631</v>
+        <v>522</v>
       </c>
       <c r="J182" t="s">
         <v>53</v>
       </c>
       <c r="K182">
-        <v>16.98</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L182" t="s">
         <v>54</v>
@@ -22686,7 +22900,7 @@
         <v>187483035573</v>
       </c>
       <c r="S182">
-        <v>10079276279721</v>
+        <v>10074838802810</v>
       </c>
       <c r="T182" t="s">
         <v>371</v>
@@ -22698,7 +22912,7 @@
         <v>1</v>
       </c>
       <c r="W182">
-        <v>18.989999999999998</v>
+        <v>19.47</v>
       </c>
       <c r="X182">
         <v>0</v>
@@ -22716,7 +22930,7 @@
         <v>-0.36</v>
       </c>
       <c r="AC182">
-        <v>-1.57</v>
+        <v>-1.61</v>
       </c>
       <c r="AD182">
         <v>-0.08</v>
@@ -22731,7 +22945,7 @@
         <v>0</v>
       </c>
       <c r="AH182">
-        <v>18.989999999999998</v>
+        <v>19.47</v>
       </c>
       <c r="AI182" t="s">
         <v>54</v>
@@ -22748,22 +22962,22 @@
     </row>
     <row r="183" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B183" t="s">
         <v>58</v>
       </c>
       <c r="C183" t="s">
-        <v>632</v>
+        <v>523</v>
       </c>
       <c r="D183" t="s">
-        <v>632</v>
+        <v>523</v>
       </c>
       <c r="E183" t="s">
-        <v>633</v>
+        <v>524</v>
       </c>
       <c r="F183" t="s">
-        <v>634</v>
+        <v>525</v>
       </c>
       <c r="G183" t="s">
         <v>0</v>
@@ -22778,7 +22992,7 @@
         <v>0</v>
       </c>
       <c r="K183">
-        <v>-2.74</v>
+        <v>-11.38</v>
       </c>
       <c r="L183" t="s">
         <v>54</v>
@@ -22799,7 +23013,7 @@
         <v>0</v>
       </c>
       <c r="R183">
-        <v>187483035573</v>
+        <v>187494085885</v>
       </c>
       <c r="S183" t="s">
         <v>0</v>
@@ -22847,7 +23061,7 @@
         <v>0</v>
       </c>
       <c r="AH183">
-        <v>-2.74</v>
+        <v>-11.38</v>
       </c>
       <c r="AI183" t="s">
         <v>54</v>
@@ -22856,7 +23070,7 @@
         <v>0</v>
       </c>
       <c r="AK183" t="s">
-        <v>635</v>
+        <v>526</v>
       </c>
       <c r="AL183" t="s">
         <v>59</v>
@@ -22864,37 +23078,37 @@
     </row>
     <row r="184" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B184" t="s">
         <v>52</v>
       </c>
       <c r="C184" t="s">
-        <v>632</v>
+        <v>523</v>
       </c>
       <c r="D184" t="s">
-        <v>632</v>
+        <v>523</v>
       </c>
       <c r="E184" t="s">
-        <v>633</v>
+        <v>524</v>
       </c>
       <c r="F184" t="s">
-        <v>634</v>
+        <v>525</v>
       </c>
       <c r="G184" t="s">
-        <v>636</v>
+        <v>527</v>
       </c>
       <c r="H184" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I184" t="s">
-        <v>637</v>
+        <v>528</v>
       </c>
       <c r="J184" t="s">
         <v>53</v>
       </c>
       <c r="K184">
-        <v>16.98</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="L184" t="s">
         <v>54</v>
@@ -22915,22 +23129,22 @@
         <v>0</v>
       </c>
       <c r="R184">
-        <v>187483035573</v>
+        <v>187494085885</v>
       </c>
       <c r="S184">
-        <v>10074091967620</v>
+        <v>10073961435426</v>
       </c>
       <c r="T184" t="s">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="U184" t="s">
-        <v>372</v>
+        <v>530</v>
       </c>
       <c r="V184">
         <v>1</v>
       </c>
       <c r="W184">
-        <v>18.989999999999998</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="X184">
         <v>0</v>
@@ -22948,10 +23162,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC184">
-        <v>-1.57</v>
+        <v>-11.28</v>
       </c>
       <c r="AD184">
-        <v>-0.08</v>
+        <v>-0.34</v>
       </c>
       <c r="AE184" t="s">
         <v>0</v>
@@ -22963,7 +23177,7 @@
         <v>0</v>
       </c>
       <c r="AH184">
-        <v>18.989999999999998</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="AI184" t="s">
         <v>54</v>
@@ -22980,22 +23194,22 @@
     </row>
     <row r="185" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B185" t="s">
         <v>58</v>
       </c>
       <c r="C185" t="s">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="D185" t="s">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="E185" t="s">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="F185" t="s">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="G185" t="s">
         <v>0</v>
@@ -23010,7 +23224,7 @@
         <v>0</v>
       </c>
       <c r="K185">
-        <v>-0.12</v>
+        <v>-3.14</v>
       </c>
       <c r="L185" t="s">
         <v>54</v>
@@ -23031,7 +23245,7 @@
         <v>0</v>
       </c>
       <c r="R185">
-        <v>187494224842</v>
+        <v>186821285299</v>
       </c>
       <c r="S185" t="s">
         <v>0</v>
@@ -23079,7 +23293,7 @@
         <v>0</v>
       </c>
       <c r="AH185">
-        <v>-0.12</v>
+        <v>-3.14</v>
       </c>
       <c r="AI185" t="s">
         <v>54</v>
@@ -23088,45 +23302,45 @@
         <v>0</v>
       </c>
       <c r="AK185" t="s">
-        <v>638</v>
+        <v>534</v>
       </c>
       <c r="AL185" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
     </row>
     <row r="186" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C186" t="s">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="D186" t="s">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="E186" t="s">
-        <v>0</v>
+        <v>532</v>
       </c>
       <c r="F186" t="s">
-        <v>0</v>
+        <v>533</v>
       </c>
       <c r="G186" t="s">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="H186" t="s">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="I186" t="s">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="J186" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K186">
-        <v>-0.12</v>
+        <v>17.48</v>
       </c>
       <c r="L186" t="s">
         <v>54</v>
@@ -23147,24 +23361,24 @@
         <v>0</v>
       </c>
       <c r="R186">
-        <v>187494085885</v>
-      </c>
-      <c r="S186" t="s">
-        <v>0</v>
+        <v>186821285299</v>
+      </c>
+      <c r="S186">
+        <v>10074411711902</v>
       </c>
       <c r="T186" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U186" t="s">
-        <v>0</v>
-      </c>
-      <c r="V186" t="s">
-        <v>0</v>
-      </c>
-      <c r="W186" t="s">
-        <v>0</v>
-      </c>
-      <c r="X186" t="s">
+        <v>228</v>
+      </c>
+      <c r="V186">
+        <v>1</v>
+      </c>
+      <c r="W186">
+        <v>21.84</v>
+      </c>
+      <c r="X186">
         <v>0</v>
       </c>
       <c r="Y186" t="s">
@@ -23176,17 +23390,17 @@
       <c r="AA186" s="2">
         <v>0</v>
       </c>
-      <c r="AB186" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC186" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD186" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE186" t="s">
-        <v>0</v>
+      <c r="AB186">
+        <v>-0.36</v>
+      </c>
+      <c r="AC186">
+        <v>-2.86</v>
+      </c>
+      <c r="AD186">
+        <v>-0.1</v>
+      </c>
+      <c r="AE186">
+        <v>-1.04</v>
       </c>
       <c r="AF186" t="s">
         <v>0</v>
@@ -23195,7 +23409,7 @@
         <v>0</v>
       </c>
       <c r="AH186">
-        <v>-0.12</v>
+        <v>21.84</v>
       </c>
       <c r="AI186" t="s">
         <v>54</v>
@@ -23204,30 +23418,30 @@
         <v>0</v>
       </c>
       <c r="AK186" t="s">
-        <v>639</v>
+        <v>0</v>
       </c>
       <c r="AL186" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45885</v>
+        <v>45886</v>
       </c>
       <c r="B187" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C187" t="s">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="D187" t="s">
-        <v>0</v>
+        <v>538</v>
       </c>
       <c r="E187" t="s">
-        <v>0</v>
+        <v>539</v>
       </c>
       <c r="F187" t="s">
-        <v>0</v>
+        <v>540</v>
       </c>
       <c r="G187" t="s">
         <v>0</v>
@@ -23242,16 +23456,16 @@
         <v>0</v>
       </c>
       <c r="K187">
-        <v>-112.5</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="L187" t="s">
         <v>54</v>
       </c>
-      <c r="M187" t="s">
-        <v>0</v>
+      <c r="M187" s="1">
+        <v>45887</v>
       </c>
       <c r="N187">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O187" t="s">
         <v>55</v>
@@ -23262,8 +23476,8 @@
       <c r="Q187" t="s">
         <v>0</v>
       </c>
-      <c r="R187" t="s">
-        <v>0</v>
+      <c r="R187">
+        <v>187480578811</v>
       </c>
       <c r="S187" t="s">
         <v>0</v>
@@ -23311,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="AH187">
-        <v>-112.5</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AI187" t="s">
         <v>54</v>
@@ -23320,30 +23534,30 @@
         <v>0</v>
       </c>
       <c r="AK187" t="s">
-        <v>467</v>
+        <v>541</v>
       </c>
       <c r="AL187" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="188" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B188" t="s">
         <v>58</v>
       </c>
       <c r="C188" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="D188" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="E188" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="F188" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="G188" t="s">
         <v>0</v>
@@ -23358,16 +23572,16 @@
         <v>0</v>
       </c>
       <c r="K188">
-        <v>-2.81</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="L188" t="s">
         <v>54</v>
       </c>
       <c r="M188" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N188">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O188" t="s">
         <v>55</v>
@@ -23379,7 +23593,7 @@
         <v>0</v>
       </c>
       <c r="R188">
-        <v>186905975156</v>
+        <v>187480578811</v>
       </c>
       <c r="S188" t="s">
         <v>0</v>
@@ -23427,7 +23641,7 @@
         <v>0</v>
       </c>
       <c r="AH188">
-        <v>-2.81</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AI188" t="s">
         <v>54</v>
@@ -23436,7 +23650,7 @@
         <v>0</v>
       </c>
       <c r="AK188" t="s">
-        <v>471</v>
+        <v>544</v>
       </c>
       <c r="AL188" t="s">
         <v>59</v>
@@ -23444,37 +23658,37 @@
     </row>
     <row r="189" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B189" t="s">
         <v>52</v>
       </c>
       <c r="C189" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="D189" t="s">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="E189" t="s">
-        <v>469</v>
+        <v>539</v>
       </c>
       <c r="F189" t="s">
-        <v>470</v>
+        <v>543</v>
       </c>
       <c r="G189" t="s">
-        <v>472</v>
+        <v>545</v>
       </c>
       <c r="H189" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="I189" t="s">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="J189" t="s">
         <v>53</v>
       </c>
       <c r="K189">
-        <v>17.420000000000002</v>
+        <v>6.74</v>
       </c>
       <c r="L189" t="s">
         <v>54</v>
@@ -23495,22 +23709,22 @@
         <v>0</v>
       </c>
       <c r="R189">
-        <v>186905975156</v>
+        <v>187480578811</v>
       </c>
       <c r="S189">
-        <v>10074840794711</v>
+        <v>10074700263704</v>
       </c>
       <c r="T189" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="U189" t="s">
-        <v>372</v>
+        <v>547</v>
       </c>
       <c r="V189">
         <v>1</v>
       </c>
       <c r="W189">
-        <v>19.47</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="X189">
         <v>0</v>
@@ -23525,13 +23739,13 @@
         <v>0</v>
       </c>
       <c r="AB189">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC189">
-        <v>-1.61</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AD189">
-        <v>-0.08</v>
+        <v>-0.04</v>
       </c>
       <c r="AE189" t="s">
         <v>0</v>
@@ -23543,7 +23757,7 @@
         <v>0</v>
       </c>
       <c r="AH189">
-        <v>19.47</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AI189" t="s">
         <v>54</v>
@@ -23560,46 +23774,46 @@
     </row>
     <row r="190" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B190" t="s">
         <v>52</v>
       </c>
       <c r="C190" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="D190" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
       <c r="E190" t="s">
-        <v>475</v>
+        <v>539</v>
       </c>
       <c r="F190" t="s">
-        <v>476</v>
+        <v>540</v>
       </c>
       <c r="G190" t="s">
-        <v>477</v>
+        <v>548</v>
       </c>
       <c r="H190" t="s">
-        <v>478</v>
+        <v>192</v>
       </c>
       <c r="I190" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="J190" t="s">
         <v>53</v>
       </c>
       <c r="K190">
-        <v>33.619999999999997</v>
+        <v>6.74</v>
       </c>
       <c r="L190" t="s">
         <v>54</v>
       </c>
       <c r="M190" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N190">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O190" t="s">
         <v>55</v>
@@ -23611,22 +23825,22 @@
         <v>0</v>
       </c>
       <c r="R190">
-        <v>187492038669</v>
+        <v>187480578811</v>
       </c>
       <c r="S190">
-        <v>10073917068725</v>
+        <v>10074132029124</v>
       </c>
       <c r="T190" t="s">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="U190" t="s">
-        <v>481</v>
+        <v>547</v>
       </c>
       <c r="V190">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W190">
-        <v>39.56</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="X190">
         <v>0</v>
@@ -23644,10 +23858,10 @@
         <v>-0.12</v>
       </c>
       <c r="AC190">
-        <v>-5.65</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AD190">
-        <v>-0.17</v>
+        <v>-0.04</v>
       </c>
       <c r="AE190" t="s">
         <v>0</v>
@@ -23659,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="AH190">
-        <v>39.56</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="AI190" t="s">
         <v>54</v>
@@ -23676,22 +23890,22 @@
     </row>
     <row r="191" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B191" t="s">
         <v>58</v>
       </c>
       <c r="C191" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="D191" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="E191" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="F191" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="G191" t="s">
         <v>0</v>
@@ -23706,16 +23920,16 @@
         <v>0</v>
       </c>
       <c r="K191">
-        <v>-1.04</v>
+        <v>-2.81</v>
       </c>
       <c r="L191" t="s">
         <v>54</v>
       </c>
       <c r="M191" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N191">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O191" t="s">
         <v>55</v>
@@ -23727,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="R191">
-        <v>186821285299</v>
+        <v>187483035573</v>
       </c>
       <c r="S191" t="s">
         <v>0</v>
@@ -23775,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="AH191">
-        <v>-1.04</v>
+        <v>-2.81</v>
       </c>
       <c r="AI191" t="s">
         <v>54</v>
@@ -23784,7 +23998,7 @@
         <v>0</v>
       </c>
       <c r="AK191" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="AL191" t="s">
         <v>59</v>
@@ -23792,46 +24006,46 @@
     </row>
     <row r="192" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B192" t="s">
         <v>52</v>
       </c>
       <c r="C192" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="D192" t="s">
-        <v>482</v>
+        <v>550</v>
       </c>
       <c r="E192" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="F192" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="G192" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="H192" t="s">
-        <v>487</v>
+        <v>109</v>
       </c>
       <c r="I192" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="J192" t="s">
         <v>53</v>
       </c>
       <c r="K192">
-        <v>7.01</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L192" t="s">
         <v>54</v>
       </c>
       <c r="M192" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N192">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O192" t="s">
         <v>55</v>
@@ -23843,22 +24057,22 @@
         <v>0</v>
       </c>
       <c r="R192">
-        <v>186821285299</v>
+        <v>187483035573</v>
       </c>
       <c r="S192">
-        <v>10079182588507</v>
+        <v>10074759109019</v>
       </c>
       <c r="T192" t="s">
-        <v>57</v>
+        <v>371</v>
       </c>
       <c r="U192" t="s">
-        <v>489</v>
+        <v>372</v>
       </c>
       <c r="V192">
         <v>1</v>
       </c>
       <c r="W192">
-        <v>9.02</v>
+        <v>19.47</v>
       </c>
       <c r="X192">
         <v>0</v>
@@ -23876,13 +24090,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC192">
-        <v>-1.18</v>
+        <v>-1.61</v>
       </c>
       <c r="AD192">
-        <v>-0.04</v>
-      </c>
-      <c r="AE192">
-        <v>-0.43</v>
+        <v>-0.08</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>0</v>
       </c>
       <c r="AF192" t="s">
         <v>0</v>
@@ -23891,7 +24105,7 @@
         <v>0</v>
       </c>
       <c r="AH192">
-        <v>9.02</v>
+        <v>19.47</v>
       </c>
       <c r="AI192" t="s">
         <v>54</v>
@@ -23908,22 +24122,22 @@
     </row>
     <row r="193" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B193" t="s">
         <v>58</v>
       </c>
       <c r="C193" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="D193" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="E193" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="F193" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="G193" t="s">
         <v>0</v>
@@ -23938,16 +24152,16 @@
         <v>0</v>
       </c>
       <c r="K193">
-        <v>-8.35</v>
+        <v>-1.5</v>
       </c>
       <c r="L193" t="s">
         <v>54</v>
       </c>
       <c r="M193" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N193">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O193" t="s">
         <v>55</v>
@@ -23959,7 +24173,7 @@
         <v>0</v>
       </c>
       <c r="R193">
-        <v>187473652251</v>
+        <v>187473655879</v>
       </c>
       <c r="S193" t="s">
         <v>0</v>
@@ -24007,7 +24221,7 @@
         <v>0</v>
       </c>
       <c r="AH193">
-        <v>-8.35</v>
+        <v>-1.5</v>
       </c>
       <c r="AI193" t="s">
         <v>54</v>
@@ -24016,7 +24230,7 @@
         <v>0</v>
       </c>
       <c r="AK193" t="s">
-        <v>493</v>
+        <v>559</v>
       </c>
       <c r="AL193" t="s">
         <v>59</v>
@@ -24024,46 +24238,46 @@
     </row>
     <row r="194" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B194" t="s">
         <v>52</v>
       </c>
       <c r="C194" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="D194" t="s">
-        <v>490</v>
+        <v>556</v>
       </c>
       <c r="E194" t="s">
-        <v>491</v>
+        <v>557</v>
       </c>
       <c r="F194" t="s">
-        <v>492</v>
+        <v>558</v>
       </c>
       <c r="G194" t="s">
-        <v>494</v>
+        <v>560</v>
       </c>
       <c r="H194" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="I194" t="s">
-        <v>496</v>
+        <v>562</v>
       </c>
       <c r="J194" t="s">
         <v>53</v>
       </c>
       <c r="K194">
-        <v>47.03</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="L194" t="s">
         <v>54</v>
       </c>
       <c r="M194" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N194">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O194" t="s">
         <v>55</v>
@@ -24075,22 +24289,22 @@
         <v>0</v>
       </c>
       <c r="R194">
-        <v>187473652251</v>
+        <v>187473655879</v>
       </c>
       <c r="S194">
-        <v>10074365778202</v>
+        <v>10074179478608</v>
       </c>
       <c r="T194" t="s">
-        <v>92</v>
+        <v>165</v>
       </c>
       <c r="U194" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="V194">
         <v>1</v>
       </c>
       <c r="W194">
-        <v>57.99</v>
+        <v>10.4</v>
       </c>
       <c r="X194">
         <v>0</v>
@@ -24108,13 +24322,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC194">
-        <v>-7.58</v>
+        <v>-1.36</v>
       </c>
       <c r="AD194">
-        <v>-0.24</v>
+        <v>-0.05</v>
       </c>
       <c r="AE194">
-        <v>-2.78</v>
+        <v>-0.5</v>
       </c>
       <c r="AF194" t="s">
         <v>0</v>
@@ -24123,7 +24337,7 @@
         <v>0</v>
       </c>
       <c r="AH194">
-        <v>57.99</v>
+        <v>10.4</v>
       </c>
       <c r="AI194" t="s">
         <v>54</v>
@@ -24140,22 +24354,22 @@
     </row>
     <row r="195" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B195" t="s">
         <v>58</v>
       </c>
       <c r="C195" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="D195" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="E195" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="F195" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="G195" t="s">
         <v>0</v>
@@ -24170,16 +24384,16 @@
         <v>0</v>
       </c>
       <c r="K195">
-        <v>-4.67</v>
+        <v>-2.1</v>
       </c>
       <c r="L195" t="s">
         <v>54</v>
       </c>
       <c r="M195" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N195">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O195" t="s">
         <v>55</v>
@@ -24191,7 +24405,7 @@
         <v>0</v>
       </c>
       <c r="R195">
-        <v>187473645996</v>
+        <v>187483035573</v>
       </c>
       <c r="S195" t="s">
         <v>0</v>
@@ -24239,7 +24453,7 @@
         <v>0</v>
       </c>
       <c r="AH195">
-        <v>-4.67</v>
+        <v>-2.1</v>
       </c>
       <c r="AI195" t="s">
         <v>54</v>
@@ -24248,7 +24462,7 @@
         <v>0</v>
       </c>
       <c r="AK195" t="s">
-        <v>500</v>
+        <v>566</v>
       </c>
       <c r="AL195" t="s">
         <v>59</v>
@@ -24256,46 +24470,46 @@
     </row>
     <row r="196" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B196" t="s">
         <v>52</v>
       </c>
       <c r="C196" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="D196" t="s">
-        <v>497</v>
+        <v>563</v>
       </c>
       <c r="E196" t="s">
-        <v>498</v>
+        <v>564</v>
       </c>
       <c r="F196" t="s">
-        <v>499</v>
+        <v>565</v>
       </c>
       <c r="G196" t="s">
-        <v>501</v>
+        <v>567</v>
       </c>
       <c r="H196" t="s">
-        <v>502</v>
+        <v>219</v>
       </c>
       <c r="I196" t="s">
-        <v>503</v>
+        <v>568</v>
       </c>
       <c r="J196" t="s">
         <v>53</v>
       </c>
       <c r="K196">
-        <v>26.75</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L196" t="s">
         <v>54</v>
       </c>
       <c r="M196" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N196">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O196" t="s">
         <v>55</v>
@@ -24307,22 +24521,22 @@
         <v>0</v>
       </c>
       <c r="R196">
-        <v>187473645996</v>
+        <v>187483035573</v>
       </c>
       <c r="S196">
-        <v>10074299824805</v>
+        <v>10078308458127</v>
       </c>
       <c r="T196" t="s">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="U196" t="s">
-        <v>102</v>
+        <v>372</v>
       </c>
       <c r="V196">
         <v>1</v>
       </c>
       <c r="W196">
-        <v>31.34</v>
+        <v>19.47</v>
       </c>
       <c r="X196">
         <v>0</v>
@@ -24340,10 +24554,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC196">
-        <v>-4.0999999999999996</v>
+        <v>-1.61</v>
       </c>
       <c r="AD196">
-        <v>-0.13</v>
+        <v>-0.08</v>
       </c>
       <c r="AE196" t="s">
         <v>0</v>
@@ -24355,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="AH196">
-        <v>31.34</v>
+        <v>19.47</v>
       </c>
       <c r="AI196" t="s">
         <v>54</v>
@@ -24372,22 +24586,22 @@
     </row>
     <row r="197" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B197" t="s">
         <v>58</v>
       </c>
       <c r="C197" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="D197" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="E197" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="F197" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="G197" t="s">
         <v>0</v>
@@ -24402,16 +24616,16 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>-2.52</v>
+        <v>-2.74</v>
       </c>
       <c r="L197" t="s">
         <v>54</v>
       </c>
       <c r="M197" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N197">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O197" t="s">
         <v>55</v>
@@ -24423,7 +24637,7 @@
         <v>0</v>
       </c>
       <c r="R197">
-        <v>186821285299</v>
+        <v>187483035573</v>
       </c>
       <c r="S197" t="s">
         <v>0</v>
@@ -24471,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="AH197">
-        <v>-2.52</v>
+        <v>-2.74</v>
       </c>
       <c r="AI197" t="s">
         <v>54</v>
@@ -24480,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="AK197" t="s">
-        <v>507</v>
+        <v>572</v>
       </c>
       <c r="AL197" t="s">
         <v>59</v>
@@ -24488,46 +24702,46 @@
     </row>
     <row r="198" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B198" t="s">
         <v>52</v>
       </c>
       <c r="C198" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="D198" t="s">
-        <v>504</v>
+        <v>569</v>
       </c>
       <c r="E198" t="s">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="F198" t="s">
-        <v>506</v>
+        <v>571</v>
       </c>
       <c r="G198" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="H198" t="s">
         <v>137</v>
       </c>
       <c r="I198" t="s">
-        <v>509</v>
+        <v>574</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
       </c>
       <c r="K198">
-        <v>17.48</v>
+        <v>16.98</v>
       </c>
       <c r="L198" t="s">
         <v>54</v>
       </c>
       <c r="M198" s="1">
-        <v>45885</v>
+        <v>45887</v>
       </c>
       <c r="N198">
-        <v>7025493539</v>
+        <v>7028615675</v>
       </c>
       <c r="O198" t="s">
         <v>55</v>
@@ -24539,22 +24753,22 @@
         <v>0</v>
       </c>
       <c r="R198">
-        <v>186821285299</v>
+        <v>187483035573</v>
       </c>
       <c r="S198">
-        <v>10073912362525</v>
+        <v>10074405319302</v>
       </c>
       <c r="T198" t="s">
-        <v>57</v>
+        <v>371</v>
       </c>
       <c r="U198" t="s">
-        <v>228</v>
+        <v>372</v>
       </c>
       <c r="V198">
         <v>1</v>
       </c>
       <c r="W198">
-        <v>21.84</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="X198">
         <v>0</v>
@@ -24572,13 +24786,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC198">
-        <v>-2.86</v>
+        <v>-1.57</v>
       </c>
       <c r="AD198">
-        <v>-0.1</v>
-      </c>
-      <c r="AE198">
-        <v>-1.04</v>
+        <v>-0.08</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>0</v>
       </c>
       <c r="AF198" t="s">
         <v>0</v>
@@ -24587,7 +24801,7 @@
         <v>0</v>
       </c>
       <c r="AH198">
-        <v>21.84</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="AI198" t="s">
         <v>54</v>
@@ -24604,22 +24818,22 @@
     </row>
     <row r="199" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="B199" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C199" t="s">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="D199" t="s">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="E199" t="s">
-        <v>0</v>
+        <v>576</v>
       </c>
       <c r="F199" t="s">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="G199" t="s">
         <v>0</v>
@@ -24634,16 +24848,16 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>-102.46</v>
+        <v>-2.74</v>
       </c>
       <c r="L199" t="s">
         <v>54</v>
       </c>
-      <c r="M199" t="s">
-        <v>0</v>
+      <c r="M199" s="1">
+        <v>45887</v>
       </c>
       <c r="N199">
-        <v>7023633011</v>
+        <v>7028615675</v>
       </c>
       <c r="O199" t="s">
         <v>55</v>
@@ -24654,8 +24868,8 @@
       <c r="Q199" t="s">
         <v>0</v>
       </c>
-      <c r="R199" t="s">
-        <v>0</v>
+      <c r="R199">
+        <v>187483035573</v>
       </c>
       <c r="S199" t="s">
         <v>0</v>
@@ -24703,7 +24917,7 @@
         <v>0</v>
       </c>
       <c r="AH199">
-        <v>-102.46</v>
+        <v>-2.74</v>
       </c>
       <c r="AI199" t="s">
         <v>54</v>
@@ -24712,9 +24926,2677 @@
         <v>0</v>
       </c>
       <c r="AK199" t="s">
-        <v>418</v>
+        <v>578</v>
       </c>
       <c r="AL199" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="200" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B200" t="s">
+        <v>52</v>
+      </c>
+      <c r="C200" t="s">
+        <v>575</v>
+      </c>
+      <c r="D200" t="s">
+        <v>575</v>
+      </c>
+      <c r="E200" t="s">
+        <v>576</v>
+      </c>
+      <c r="F200" t="s">
+        <v>577</v>
+      </c>
+      <c r="G200" t="s">
+        <v>579</v>
+      </c>
+      <c r="H200" t="s">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>580</v>
+      </c>
+      <c r="J200" t="s">
+        <v>53</v>
+      </c>
+      <c r="K200">
+        <v>16.98</v>
+      </c>
+      <c r="L200" t="s">
+        <v>54</v>
+      </c>
+      <c r="M200" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N200">
+        <v>7028615675</v>
+      </c>
+      <c r="O200" t="s">
+        <v>55</v>
+      </c>
+      <c r="P200" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>0</v>
+      </c>
+      <c r="R200">
+        <v>187483035573</v>
+      </c>
+      <c r="S200">
+        <v>10074789507614</v>
+      </c>
+      <c r="T200" t="s">
+        <v>371</v>
+      </c>
+      <c r="U200" t="s">
+        <v>372</v>
+      </c>
+      <c r="V200">
+        <v>1</v>
+      </c>
+      <c r="W200">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB200">
+        <v>-0.36</v>
+      </c>
+      <c r="AC200">
+        <v>-1.57</v>
+      </c>
+      <c r="AD200">
+        <v>-0.08</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH200">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI200" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ200" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK200" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B201" t="s">
+        <v>58</v>
+      </c>
+      <c r="C201" t="s">
+        <v>581</v>
+      </c>
+      <c r="D201" t="s">
+        <v>581</v>
+      </c>
+      <c r="E201" t="s">
+        <v>582</v>
+      </c>
+      <c r="F201" t="s">
+        <v>583</v>
+      </c>
+      <c r="G201" t="s">
+        <v>0</v>
+      </c>
+      <c r="H201" t="s">
+        <v>0</v>
+      </c>
+      <c r="I201" t="s">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>-1.99</v>
+      </c>
+      <c r="L201" t="s">
+        <v>54</v>
+      </c>
+      <c r="M201" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N201">
+        <v>7028615675</v>
+      </c>
+      <c r="O201" t="s">
+        <v>55</v>
+      </c>
+      <c r="P201" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>187473651729</v>
+      </c>
+      <c r="S201" t="s">
+        <v>0</v>
+      </c>
+      <c r="T201" t="s">
+        <v>0</v>
+      </c>
+      <c r="U201" t="s">
+        <v>0</v>
+      </c>
+      <c r="V201" t="s">
+        <v>0</v>
+      </c>
+      <c r="W201" t="s">
+        <v>0</v>
+      </c>
+      <c r="X201" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH201">
+        <v>-1.99</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ201" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK201" t="s">
+        <v>584</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="202" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B202" t="s">
+        <v>52</v>
+      </c>
+      <c r="C202" t="s">
+        <v>581</v>
+      </c>
+      <c r="D202" t="s">
+        <v>581</v>
+      </c>
+      <c r="E202" t="s">
+        <v>582</v>
+      </c>
+      <c r="F202" t="s">
+        <v>583</v>
+      </c>
+      <c r="G202" t="s">
+        <v>585</v>
+      </c>
+      <c r="H202" t="s">
+        <v>586</v>
+      </c>
+      <c r="I202" t="s">
+        <v>587</v>
+      </c>
+      <c r="J202" t="s">
+        <v>53</v>
+      </c>
+      <c r="K202">
+        <v>14.81</v>
+      </c>
+      <c r="L202" t="s">
+        <v>54</v>
+      </c>
+      <c r="M202" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N202">
+        <v>7028615675</v>
+      </c>
+      <c r="O202" t="s">
+        <v>55</v>
+      </c>
+      <c r="P202" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>187473651729</v>
+      </c>
+      <c r="S202">
+        <v>10074339214205</v>
+      </c>
+      <c r="T202" t="s">
+        <v>74</v>
+      </c>
+      <c r="U202" t="s">
+        <v>75</v>
+      </c>
+      <c r="V202">
+        <v>1</v>
+      </c>
+      <c r="W202">
+        <v>16.62</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB202">
+        <v>-0.36</v>
+      </c>
+      <c r="AC202">
+        <v>-1.38</v>
+      </c>
+      <c r="AD202">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH202">
+        <v>16.62</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK202" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B203" t="s">
+        <v>58</v>
+      </c>
+      <c r="C203" t="s">
+        <v>588</v>
+      </c>
+      <c r="D203" t="s">
+        <v>588</v>
+      </c>
+      <c r="E203" t="s">
+        <v>589</v>
+      </c>
+      <c r="F203" t="s">
+        <v>590</v>
+      </c>
+      <c r="G203" t="s">
+        <v>0</v>
+      </c>
+      <c r="H203" t="s">
+        <v>0</v>
+      </c>
+      <c r="I203" t="s">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>-2.74</v>
+      </c>
+      <c r="L203" t="s">
+        <v>54</v>
+      </c>
+      <c r="M203" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N203">
+        <v>7028615675</v>
+      </c>
+      <c r="O203" t="s">
+        <v>55</v>
+      </c>
+      <c r="P203" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>0</v>
+      </c>
+      <c r="R203">
+        <v>187483035573</v>
+      </c>
+      <c r="S203" t="s">
+        <v>0</v>
+      </c>
+      <c r="T203" t="s">
+        <v>0</v>
+      </c>
+      <c r="U203" t="s">
+        <v>0</v>
+      </c>
+      <c r="V203" t="s">
+        <v>0</v>
+      </c>
+      <c r="W203" t="s">
+        <v>0</v>
+      </c>
+      <c r="X203" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH203">
+        <v>-2.74</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK203" t="s">
+        <v>591</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="204" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B204" t="s">
+        <v>52</v>
+      </c>
+      <c r="C204" t="s">
+        <v>588</v>
+      </c>
+      <c r="D204" t="s">
+        <v>588</v>
+      </c>
+      <c r="E204" t="s">
+        <v>589</v>
+      </c>
+      <c r="F204" t="s">
+        <v>590</v>
+      </c>
+      <c r="G204" t="s">
+        <v>145</v>
+      </c>
+      <c r="H204" t="s">
+        <v>145</v>
+      </c>
+      <c r="I204" t="s">
+        <v>592</v>
+      </c>
+      <c r="J204" t="s">
+        <v>53</v>
+      </c>
+      <c r="K204">
+        <v>16.98</v>
+      </c>
+      <c r="L204" t="s">
+        <v>54</v>
+      </c>
+      <c r="M204" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N204">
+        <v>7028615675</v>
+      </c>
+      <c r="O204" t="s">
+        <v>55</v>
+      </c>
+      <c r="P204" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>187483035573</v>
+      </c>
+      <c r="S204">
+        <v>10074747271119</v>
+      </c>
+      <c r="T204" t="s">
+        <v>371</v>
+      </c>
+      <c r="U204" t="s">
+        <v>372</v>
+      </c>
+      <c r="V204">
+        <v>1</v>
+      </c>
+      <c r="W204">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>-0.36</v>
+      </c>
+      <c r="AC204">
+        <v>-1.57</v>
+      </c>
+      <c r="AD204">
+        <v>-0.08</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH204">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK204" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B205" t="s">
+        <v>58</v>
+      </c>
+      <c r="C205" t="s">
+        <v>593</v>
+      </c>
+      <c r="D205" t="s">
+        <v>593</v>
+      </c>
+      <c r="E205" t="s">
+        <v>594</v>
+      </c>
+      <c r="F205" t="s">
+        <v>595</v>
+      </c>
+      <c r="G205" t="s">
+        <v>0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>0</v>
+      </c>
+      <c r="I205" t="s">
+        <v>0</v>
+      </c>
+      <c r="J205" t="s">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>-2.74</v>
+      </c>
+      <c r="L205" t="s">
+        <v>54</v>
+      </c>
+      <c r="M205" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N205">
+        <v>7028615675</v>
+      </c>
+      <c r="O205" t="s">
+        <v>55</v>
+      </c>
+      <c r="P205" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>187483035573</v>
+      </c>
+      <c r="S205" t="s">
+        <v>0</v>
+      </c>
+      <c r="T205" t="s">
+        <v>0</v>
+      </c>
+      <c r="U205" t="s">
+        <v>0</v>
+      </c>
+      <c r="V205" t="s">
+        <v>0</v>
+      </c>
+      <c r="W205" t="s">
+        <v>0</v>
+      </c>
+      <c r="X205" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH205">
+        <v>-2.74</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK205" t="s">
+        <v>596</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B206" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" t="s">
+        <v>593</v>
+      </c>
+      <c r="D206" t="s">
+        <v>593</v>
+      </c>
+      <c r="E206" t="s">
+        <v>594</v>
+      </c>
+      <c r="F206" t="s">
+        <v>595</v>
+      </c>
+      <c r="G206" t="s">
+        <v>597</v>
+      </c>
+      <c r="H206" t="s">
+        <v>163</v>
+      </c>
+      <c r="I206" t="s">
+        <v>598</v>
+      </c>
+      <c r="J206" t="s">
+        <v>53</v>
+      </c>
+      <c r="K206">
+        <v>16.98</v>
+      </c>
+      <c r="L206" t="s">
+        <v>54</v>
+      </c>
+      <c r="M206" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N206">
+        <v>7028615675</v>
+      </c>
+      <c r="O206" t="s">
+        <v>55</v>
+      </c>
+      <c r="P206" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>187483035573</v>
+      </c>
+      <c r="S206">
+        <v>10074816126710</v>
+      </c>
+      <c r="T206" t="s">
+        <v>371</v>
+      </c>
+      <c r="U206" t="s">
+        <v>372</v>
+      </c>
+      <c r="V206">
+        <v>1</v>
+      </c>
+      <c r="W206">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA206" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB206">
+        <v>-0.36</v>
+      </c>
+      <c r="AC206">
+        <v>-1.57</v>
+      </c>
+      <c r="AD206">
+        <v>-0.08</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH206">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B207" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207" t="s">
+        <v>599</v>
+      </c>
+      <c r="D207" t="s">
+        <v>599</v>
+      </c>
+      <c r="E207" t="s">
+        <v>600</v>
+      </c>
+      <c r="F207" t="s">
+        <v>601</v>
+      </c>
+      <c r="G207" t="s">
+        <v>0</v>
+      </c>
+      <c r="H207" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>-1.26</v>
+      </c>
+      <c r="L207" t="s">
+        <v>54</v>
+      </c>
+      <c r="M207" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N207">
+        <v>7028615675</v>
+      </c>
+      <c r="O207" t="s">
+        <v>55</v>
+      </c>
+      <c r="P207" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>0</v>
+      </c>
+      <c r="R207">
+        <v>187480578811</v>
+      </c>
+      <c r="S207" t="s">
+        <v>0</v>
+      </c>
+      <c r="T207" t="s">
+        <v>0</v>
+      </c>
+      <c r="U207" t="s">
+        <v>0</v>
+      </c>
+      <c r="V207" t="s">
+        <v>0</v>
+      </c>
+      <c r="W207" t="s">
+        <v>0</v>
+      </c>
+      <c r="X207" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA207" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH207">
+        <v>-1.26</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK207" t="s">
+        <v>602</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="208" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B208" t="s">
+        <v>52</v>
+      </c>
+      <c r="C208" t="s">
+        <v>599</v>
+      </c>
+      <c r="D208" t="s">
+        <v>599</v>
+      </c>
+      <c r="E208" t="s">
+        <v>600</v>
+      </c>
+      <c r="F208" t="s">
+        <v>601</v>
+      </c>
+      <c r="G208" t="s">
+        <v>277</v>
+      </c>
+      <c r="H208" t="s">
+        <v>296</v>
+      </c>
+      <c r="I208" t="s">
+        <v>603</v>
+      </c>
+      <c r="J208" t="s">
+        <v>53</v>
+      </c>
+      <c r="K208">
+        <v>6.74</v>
+      </c>
+      <c r="L208" t="s">
+        <v>54</v>
+      </c>
+      <c r="M208" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N208">
+        <v>7028615675</v>
+      </c>
+      <c r="O208" t="s">
+        <v>55</v>
+      </c>
+      <c r="P208" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>0</v>
+      </c>
+      <c r="R208">
+        <v>187480578811</v>
+      </c>
+      <c r="S208">
+        <v>10073942003825</v>
+      </c>
+      <c r="T208" t="s">
+        <v>280</v>
+      </c>
+      <c r="U208" t="s">
+        <v>547</v>
+      </c>
+      <c r="V208">
+        <v>1</v>
+      </c>
+      <c r="W208">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA208" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>-0.12</v>
+      </c>
+      <c r="AC208">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AD208">
+        <v>-0.04</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH208">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK208" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B209" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" t="s">
+        <v>604</v>
+      </c>
+      <c r="D209" t="s">
+        <v>604</v>
+      </c>
+      <c r="E209" t="s">
+        <v>605</v>
+      </c>
+      <c r="F209" t="s">
+        <v>606</v>
+      </c>
+      <c r="G209" t="s">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>-8.35</v>
+      </c>
+      <c r="L209" t="s">
+        <v>54</v>
+      </c>
+      <c r="M209" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N209">
+        <v>7028615675</v>
+      </c>
+      <c r="O209" t="s">
+        <v>55</v>
+      </c>
+      <c r="P209" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>0</v>
+      </c>
+      <c r="R209">
+        <v>187473652251</v>
+      </c>
+      <c r="S209" t="s">
+        <v>0</v>
+      </c>
+      <c r="T209" t="s">
+        <v>0</v>
+      </c>
+      <c r="U209" t="s">
+        <v>0</v>
+      </c>
+      <c r="V209" t="s">
+        <v>0</v>
+      </c>
+      <c r="W209" t="s">
+        <v>0</v>
+      </c>
+      <c r="X209" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA209" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH209">
+        <v>-8.35</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK209" t="s">
+        <v>607</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="210" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B210" t="s">
+        <v>52</v>
+      </c>
+      <c r="C210" t="s">
+        <v>604</v>
+      </c>
+      <c r="D210" t="s">
+        <v>604</v>
+      </c>
+      <c r="E210" t="s">
+        <v>605</v>
+      </c>
+      <c r="F210" t="s">
+        <v>606</v>
+      </c>
+      <c r="G210" t="s">
+        <v>608</v>
+      </c>
+      <c r="H210" t="s">
+        <v>609</v>
+      </c>
+      <c r="I210" t="s">
+        <v>610</v>
+      </c>
+      <c r="J210" t="s">
+        <v>53</v>
+      </c>
+      <c r="K210">
+        <v>47.03</v>
+      </c>
+      <c r="L210" t="s">
+        <v>54</v>
+      </c>
+      <c r="M210" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N210">
+        <v>7028615675</v>
+      </c>
+      <c r="O210" t="s">
+        <v>55</v>
+      </c>
+      <c r="P210" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>0</v>
+      </c>
+      <c r="R210">
+        <v>187473652251</v>
+      </c>
+      <c r="S210">
+        <v>10074161430808</v>
+      </c>
+      <c r="T210" t="s">
+        <v>92</v>
+      </c>
+      <c r="U210" t="s">
+        <v>93</v>
+      </c>
+      <c r="V210">
+        <v>1</v>
+      </c>
+      <c r="W210">
+        <v>57.99</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA210" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB210">
+        <v>-0.36</v>
+      </c>
+      <c r="AC210">
+        <v>-7.58</v>
+      </c>
+      <c r="AD210">
+        <v>-0.24</v>
+      </c>
+      <c r="AE210">
+        <v>-2.78</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH210">
+        <v>57.99</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B211" t="s">
+        <v>58</v>
+      </c>
+      <c r="C211" t="s">
+        <v>474</v>
+      </c>
+      <c r="D211" t="s">
+        <v>474</v>
+      </c>
+      <c r="E211" t="s">
+        <v>475</v>
+      </c>
+      <c r="F211" t="s">
+        <v>476</v>
+      </c>
+      <c r="G211" t="s">
+        <v>0</v>
+      </c>
+      <c r="H211" t="s">
+        <v>0</v>
+      </c>
+      <c r="I211" t="s">
+        <v>0</v>
+      </c>
+      <c r="J211" t="s">
+        <v>0</v>
+      </c>
+      <c r="K211">
+        <v>-5.89</v>
+      </c>
+      <c r="L211" t="s">
+        <v>54</v>
+      </c>
+      <c r="M211" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N211">
+        <v>7028615675</v>
+      </c>
+      <c r="O211" t="s">
+        <v>55</v>
+      </c>
+      <c r="P211" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>187492038669</v>
+      </c>
+      <c r="S211" t="s">
+        <v>0</v>
+      </c>
+      <c r="T211" t="s">
+        <v>0</v>
+      </c>
+      <c r="U211" t="s">
+        <v>0</v>
+      </c>
+      <c r="V211" t="s">
+        <v>0</v>
+      </c>
+      <c r="W211" t="s">
+        <v>0</v>
+      </c>
+      <c r="X211" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA211" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH211">
+        <v>-5.89</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK211" t="s">
+        <v>611</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="212" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B212" t="s">
+        <v>58</v>
+      </c>
+      <c r="C212" t="s">
+        <v>612</v>
+      </c>
+      <c r="D212" t="s">
+        <v>612</v>
+      </c>
+      <c r="E212" t="s">
+        <v>613</v>
+      </c>
+      <c r="F212" t="s">
+        <v>614</v>
+      </c>
+      <c r="G212" t="s">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>-2.1</v>
+      </c>
+      <c r="L212" t="s">
+        <v>54</v>
+      </c>
+      <c r="M212" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N212">
+        <v>7028615675</v>
+      </c>
+      <c r="O212" t="s">
+        <v>55</v>
+      </c>
+      <c r="P212" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>0</v>
+      </c>
+      <c r="R212">
+        <v>187473651729</v>
+      </c>
+      <c r="S212" t="s">
+        <v>0</v>
+      </c>
+      <c r="T212" t="s">
+        <v>0</v>
+      </c>
+      <c r="U212" t="s">
+        <v>0</v>
+      </c>
+      <c r="V212" t="s">
+        <v>0</v>
+      </c>
+      <c r="W212" t="s">
+        <v>0</v>
+      </c>
+      <c r="X212" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA212" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH212">
+        <v>-2.1</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>615</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="213" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B213" t="s">
+        <v>58</v>
+      </c>
+      <c r="C213" t="s">
+        <v>616</v>
+      </c>
+      <c r="D213" t="s">
+        <v>616</v>
+      </c>
+      <c r="E213" t="s">
+        <v>617</v>
+      </c>
+      <c r="F213" t="s">
+        <v>618</v>
+      </c>
+      <c r="G213" t="s">
+        <v>0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>0</v>
+      </c>
+      <c r="I213" t="s">
+        <v>0</v>
+      </c>
+      <c r="J213" t="s">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>-2.74</v>
+      </c>
+      <c r="L213" t="s">
+        <v>54</v>
+      </c>
+      <c r="M213" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N213">
+        <v>7028615675</v>
+      </c>
+      <c r="O213" t="s">
+        <v>55</v>
+      </c>
+      <c r="P213" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>0</v>
+      </c>
+      <c r="R213">
+        <v>187483035573</v>
+      </c>
+      <c r="S213" t="s">
+        <v>0</v>
+      </c>
+      <c r="T213" t="s">
+        <v>0</v>
+      </c>
+      <c r="U213" t="s">
+        <v>0</v>
+      </c>
+      <c r="V213" t="s">
+        <v>0</v>
+      </c>
+      <c r="W213" t="s">
+        <v>0</v>
+      </c>
+      <c r="X213" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA213" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH213">
+        <v>-2.74</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>619</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="214" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B214" t="s">
+        <v>52</v>
+      </c>
+      <c r="C214" t="s">
+        <v>612</v>
+      </c>
+      <c r="D214" t="s">
+        <v>612</v>
+      </c>
+      <c r="E214" t="s">
+        <v>613</v>
+      </c>
+      <c r="F214" t="s">
+        <v>614</v>
+      </c>
+      <c r="G214" t="s">
+        <v>620</v>
+      </c>
+      <c r="H214" t="s">
+        <v>163</v>
+      </c>
+      <c r="I214" t="s">
+        <v>621</v>
+      </c>
+      <c r="J214" t="s">
+        <v>53</v>
+      </c>
+      <c r="K214">
+        <v>15.61</v>
+      </c>
+      <c r="L214" t="s">
+        <v>54</v>
+      </c>
+      <c r="M214" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N214">
+        <v>7028615675</v>
+      </c>
+      <c r="O214" t="s">
+        <v>55</v>
+      </c>
+      <c r="P214" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>187473651729</v>
+      </c>
+      <c r="S214">
+        <v>10073937949526</v>
+      </c>
+      <c r="T214" t="s">
+        <v>74</v>
+      </c>
+      <c r="U214" t="s">
+        <v>75</v>
+      </c>
+      <c r="V214">
+        <v>1</v>
+      </c>
+      <c r="W214">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA214" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB214">
+        <v>-0.36</v>
+      </c>
+      <c r="AC214">
+        <v>-1.45</v>
+      </c>
+      <c r="AD214">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH214">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B215" t="s">
+        <v>52</v>
+      </c>
+      <c r="C215" t="s">
+        <v>616</v>
+      </c>
+      <c r="D215" t="s">
+        <v>616</v>
+      </c>
+      <c r="E215" t="s">
+        <v>617</v>
+      </c>
+      <c r="F215" t="s">
+        <v>618</v>
+      </c>
+      <c r="G215" t="s">
+        <v>622</v>
+      </c>
+      <c r="H215" t="s">
+        <v>623</v>
+      </c>
+      <c r="I215" t="s">
+        <v>624</v>
+      </c>
+      <c r="J215" t="s">
+        <v>53</v>
+      </c>
+      <c r="K215">
+        <v>16.98</v>
+      </c>
+      <c r="L215" t="s">
+        <v>54</v>
+      </c>
+      <c r="M215" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N215">
+        <v>7028615675</v>
+      </c>
+      <c r="O215" t="s">
+        <v>55</v>
+      </c>
+      <c r="P215" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>187483035573</v>
+      </c>
+      <c r="S215">
+        <v>10074360351822</v>
+      </c>
+      <c r="T215" t="s">
+        <v>371</v>
+      </c>
+      <c r="U215" t="s">
+        <v>372</v>
+      </c>
+      <c r="V215">
+        <v>1</v>
+      </c>
+      <c r="W215">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA215" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB215">
+        <v>-0.36</v>
+      </c>
+      <c r="AC215">
+        <v>-1.57</v>
+      </c>
+      <c r="AD215">
+        <v>-0.08</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH215">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B216" t="s">
+        <v>58</v>
+      </c>
+      <c r="C216" t="s">
+        <v>625</v>
+      </c>
+      <c r="D216" t="s">
+        <v>625</v>
+      </c>
+      <c r="E216" t="s">
+        <v>626</v>
+      </c>
+      <c r="F216" t="s">
+        <v>627</v>
+      </c>
+      <c r="G216" t="s">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>0</v>
+      </c>
+      <c r="I216" t="s">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>-2.74</v>
+      </c>
+      <c r="L216" t="s">
+        <v>54</v>
+      </c>
+      <c r="M216" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N216">
+        <v>7028615675</v>
+      </c>
+      <c r="O216" t="s">
+        <v>55</v>
+      </c>
+      <c r="P216" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>187483035573</v>
+      </c>
+      <c r="S216" t="s">
+        <v>0</v>
+      </c>
+      <c r="T216" t="s">
+        <v>0</v>
+      </c>
+      <c r="U216" t="s">
+        <v>0</v>
+      </c>
+      <c r="V216" t="s">
+        <v>0</v>
+      </c>
+      <c r="W216" t="s">
+        <v>0</v>
+      </c>
+      <c r="X216" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA216" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH216">
+        <v>-2.74</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>628</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="217" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B217" t="s">
+        <v>52</v>
+      </c>
+      <c r="C217" t="s">
+        <v>625</v>
+      </c>
+      <c r="D217" t="s">
+        <v>625</v>
+      </c>
+      <c r="E217" t="s">
+        <v>626</v>
+      </c>
+      <c r="F217" t="s">
+        <v>627</v>
+      </c>
+      <c r="G217" t="s">
+        <v>629</v>
+      </c>
+      <c r="H217" t="s">
+        <v>630</v>
+      </c>
+      <c r="I217" t="s">
+        <v>631</v>
+      </c>
+      <c r="J217" t="s">
+        <v>53</v>
+      </c>
+      <c r="K217">
+        <v>16.98</v>
+      </c>
+      <c r="L217" t="s">
+        <v>54</v>
+      </c>
+      <c r="M217" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N217">
+        <v>7028615675</v>
+      </c>
+      <c r="O217" t="s">
+        <v>55</v>
+      </c>
+      <c r="P217" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>0</v>
+      </c>
+      <c r="R217">
+        <v>187483035573</v>
+      </c>
+      <c r="S217">
+        <v>10079276279721</v>
+      </c>
+      <c r="T217" t="s">
+        <v>371</v>
+      </c>
+      <c r="U217" t="s">
+        <v>372</v>
+      </c>
+      <c r="V217">
+        <v>1</v>
+      </c>
+      <c r="W217">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA217" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB217">
+        <v>-0.36</v>
+      </c>
+      <c r="AC217">
+        <v>-1.57</v>
+      </c>
+      <c r="AD217">
+        <v>-0.08</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH217">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B218" t="s">
+        <v>58</v>
+      </c>
+      <c r="C218" t="s">
+        <v>632</v>
+      </c>
+      <c r="D218" t="s">
+        <v>632</v>
+      </c>
+      <c r="E218" t="s">
+        <v>633</v>
+      </c>
+      <c r="F218" t="s">
+        <v>634</v>
+      </c>
+      <c r="G218" t="s">
+        <v>0</v>
+      </c>
+      <c r="H218" t="s">
+        <v>0</v>
+      </c>
+      <c r="I218" t="s">
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>-2.74</v>
+      </c>
+      <c r="L218" t="s">
+        <v>54</v>
+      </c>
+      <c r="M218" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N218">
+        <v>7028615675</v>
+      </c>
+      <c r="O218" t="s">
+        <v>55</v>
+      </c>
+      <c r="P218" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>0</v>
+      </c>
+      <c r="R218">
+        <v>187483035573</v>
+      </c>
+      <c r="S218" t="s">
+        <v>0</v>
+      </c>
+      <c r="T218" t="s">
+        <v>0</v>
+      </c>
+      <c r="U218" t="s">
+        <v>0</v>
+      </c>
+      <c r="V218" t="s">
+        <v>0</v>
+      </c>
+      <c r="W218" t="s">
+        <v>0</v>
+      </c>
+      <c r="X218" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA218" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH218">
+        <v>-2.74</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK218" t="s">
+        <v>635</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="219" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B219" t="s">
+        <v>52</v>
+      </c>
+      <c r="C219" t="s">
+        <v>632</v>
+      </c>
+      <c r="D219" t="s">
+        <v>632</v>
+      </c>
+      <c r="E219" t="s">
+        <v>633</v>
+      </c>
+      <c r="F219" t="s">
+        <v>634</v>
+      </c>
+      <c r="G219" t="s">
+        <v>636</v>
+      </c>
+      <c r="H219" t="s">
+        <v>61</v>
+      </c>
+      <c r="I219" t="s">
+        <v>637</v>
+      </c>
+      <c r="J219" t="s">
+        <v>53</v>
+      </c>
+      <c r="K219">
+        <v>16.98</v>
+      </c>
+      <c r="L219" t="s">
+        <v>54</v>
+      </c>
+      <c r="M219" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N219">
+        <v>7028615675</v>
+      </c>
+      <c r="O219" t="s">
+        <v>55</v>
+      </c>
+      <c r="P219" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>0</v>
+      </c>
+      <c r="R219">
+        <v>187483035573</v>
+      </c>
+      <c r="S219">
+        <v>10074091967620</v>
+      </c>
+      <c r="T219" t="s">
+        <v>371</v>
+      </c>
+      <c r="U219" t="s">
+        <v>372</v>
+      </c>
+      <c r="V219">
+        <v>1</v>
+      </c>
+      <c r="W219">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA219" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB219">
+        <v>-0.36</v>
+      </c>
+      <c r="AC219">
+        <v>-1.57</v>
+      </c>
+      <c r="AD219">
+        <v>-0.08</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH219">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B220" t="s">
+        <v>58</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>0</v>
+      </c>
+      <c r="F220" t="s">
+        <v>0</v>
+      </c>
+      <c r="G220" t="s">
+        <v>0</v>
+      </c>
+      <c r="H220" t="s">
+        <v>0</v>
+      </c>
+      <c r="I220" t="s">
+        <v>0</v>
+      </c>
+      <c r="J220" t="s">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>-0.12</v>
+      </c>
+      <c r="L220" t="s">
+        <v>54</v>
+      </c>
+      <c r="M220" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N220">
+        <v>7028615675</v>
+      </c>
+      <c r="O220" t="s">
+        <v>55</v>
+      </c>
+      <c r="P220" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>0</v>
+      </c>
+      <c r="R220">
+        <v>187494224842</v>
+      </c>
+      <c r="S220" t="s">
+        <v>0</v>
+      </c>
+      <c r="T220" t="s">
+        <v>0</v>
+      </c>
+      <c r="U220" t="s">
+        <v>0</v>
+      </c>
+      <c r="V220" t="s">
+        <v>0</v>
+      </c>
+      <c r="W220" t="s">
+        <v>0</v>
+      </c>
+      <c r="X220" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA220" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH220">
+        <v>-0.12</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>638</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="221" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B221" t="s">
+        <v>58</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>0</v>
+      </c>
+      <c r="F221" t="s">
+        <v>0</v>
+      </c>
+      <c r="G221" t="s">
+        <v>0</v>
+      </c>
+      <c r="H221" t="s">
+        <v>0</v>
+      </c>
+      <c r="I221" t="s">
+        <v>0</v>
+      </c>
+      <c r="J221" t="s">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>-0.12</v>
+      </c>
+      <c r="L221" t="s">
+        <v>54</v>
+      </c>
+      <c r="M221" s="1">
+        <v>45887</v>
+      </c>
+      <c r="N221">
+        <v>7028615675</v>
+      </c>
+      <c r="O221" t="s">
+        <v>55</v>
+      </c>
+      <c r="P221" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>0</v>
+      </c>
+      <c r="R221">
+        <v>187494085885</v>
+      </c>
+      <c r="S221" t="s">
+        <v>0</v>
+      </c>
+      <c r="T221" t="s">
+        <v>0</v>
+      </c>
+      <c r="U221" t="s">
+        <v>0</v>
+      </c>
+      <c r="V221" t="s">
+        <v>0</v>
+      </c>
+      <c r="W221" t="s">
+        <v>0</v>
+      </c>
+      <c r="X221" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH221">
+        <v>-0.12</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>639</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="222" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45885</v>
+      </c>
+      <c r="B222" t="s">
+        <v>64</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>0</v>
+      </c>
+      <c r="F222" t="s">
+        <v>0</v>
+      </c>
+      <c r="G222" t="s">
+        <v>0</v>
+      </c>
+      <c r="H222" t="s">
+        <v>0</v>
+      </c>
+      <c r="I222" t="s">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>-112.5</v>
+      </c>
+      <c r="L222" t="s">
+        <v>54</v>
+      </c>
+      <c r="M222" t="s">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>7025493539</v>
+      </c>
+      <c r="O222" t="s">
+        <v>55</v>
+      </c>
+      <c r="P222" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>0</v>
+      </c>
+      <c r="R222" t="s">
+        <v>0</v>
+      </c>
+      <c r="S222" t="s">
+        <v>0</v>
+      </c>
+      <c r="T222" t="s">
+        <v>0</v>
+      </c>
+      <c r="U222" t="s">
+        <v>0</v>
+      </c>
+      <c r="V222" t="s">
+        <v>0</v>
+      </c>
+      <c r="W222" t="s">
+        <v>0</v>
+      </c>
+      <c r="X222" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA222" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>-112.5</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>467</v>
+      </c>
+      <c r="AL222" t="s">
         <v>66</v>
       </c>
     </row>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6550" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7283" uniqueCount="856">
   <si>
     <t>--</t>
   </si>
@@ -2397,6 +2397,213 @@
   </si>
   <si>
     <t>EH21 6NA</t>
+  </si>
+  <si>
+    <t>23-13458-33473</t>
+  </si>
+  <si>
+    <t>bulpi.luk</t>
+  </si>
+  <si>
+    <t>Luke Bulpitt</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>SO183NG</t>
+  </si>
+  <si>
+    <t>Cancellation ID 5410176314</t>
+  </si>
+  <si>
+    <t>24-13472-90451</t>
+  </si>
+  <si>
+    <t>the.wood-15</t>
+  </si>
+  <si>
+    <t>Adrian Coote</t>
+  </si>
+  <si>
+    <t>FEE-6612524031817_11</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>IP1 6PZ</t>
+  </si>
+  <si>
+    <t>Bank reference ID TIZNGCESSGYBU6F</t>
+  </si>
+  <si>
+    <t>09-13477-26696</t>
+  </si>
+  <si>
+    <t>FEE-6611988269217_11</t>
+  </si>
+  <si>
+    <t>FEE-6611872267317_11</t>
+  </si>
+  <si>
+    <t>27-13452-83135</t>
+  </si>
+  <si>
+    <t>norman9108</t>
+  </si>
+  <si>
+    <t>norman marshall</t>
+  </si>
+  <si>
+    <t>FEE-6611734513517_11</t>
+  </si>
+  <si>
+    <t>dundee</t>
+  </si>
+  <si>
+    <t>Dundee (City of)</t>
+  </si>
+  <si>
+    <t>dd49re</t>
+  </si>
+  <si>
+    <t>04-13482-99875</t>
+  </si>
+  <si>
+    <t>saintaustin</t>
+  </si>
+  <si>
+    <t>MARK HOLLAND</t>
+  </si>
+  <si>
+    <t>FEE-6611422797417_11</t>
+  </si>
+  <si>
+    <t>ABERTILLERY</t>
+  </si>
+  <si>
+    <t>Blaenau Gwent</t>
+  </si>
+  <si>
+    <t>NP13 1HD</t>
+  </si>
+  <si>
+    <t>FEE-6611397632617_11</t>
+  </si>
+  <si>
+    <t>19-13462-45681</t>
+  </si>
+  <si>
+    <t>cas_tara</t>
+  </si>
+  <si>
+    <t>Ronald Beaton</t>
+  </si>
+  <si>
+    <t>FEE-6611270916217_11</t>
+  </si>
+  <si>
+    <t>Ryde</t>
+  </si>
+  <si>
+    <t>Isle of Wight</t>
+  </si>
+  <si>
+    <t>PO33 3SD</t>
+  </si>
+  <si>
+    <t>13-13470-64205</t>
+  </si>
+  <si>
+    <t>jidevin_6</t>
+  </si>
+  <si>
+    <t>jim devine</t>
+  </si>
+  <si>
+    <t>FEE-6611225871517_11</t>
+  </si>
+  <si>
+    <t>Kilwinning</t>
+  </si>
+  <si>
+    <t>North Ayrshire</t>
+  </si>
+  <si>
+    <t>KA13 7JT</t>
+  </si>
+  <si>
+    <t>03-13483-41421</t>
+  </si>
+  <si>
+    <t>rafish4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray Fisher </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worthing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Sussex </t>
+  </si>
+  <si>
+    <t>BN14 8DD</t>
+  </si>
+  <si>
+    <t>Single Air Bed Inflatable Camping Air Mattress Build inElectric Pump High Raised</t>
+  </si>
+  <si>
+    <t>Air Bed Test 0001</t>
+  </si>
+  <si>
+    <t>FEE-6610905420117_11</t>
+  </si>
+  <si>
+    <t>FEE-5124320723-FeePromotedListingFeature_42</t>
+  </si>
+  <si>
+    <t>Refund ID 5168351276</t>
+  </si>
+  <si>
+    <t>07-13477-56533</t>
+  </si>
+  <si>
+    <t>rik_ugoji</t>
+  </si>
+  <si>
+    <t>Richard Ugoji</t>
+  </si>
+  <si>
+    <t>FEE-6610592718517_11</t>
+  </si>
+  <si>
+    <t>Edinburgh</t>
+  </si>
+  <si>
+    <t>EH16 4TT</t>
+  </si>
+  <si>
+    <t>14-13467-62643</t>
+  </si>
+  <si>
+    <t>discovery06mark</t>
+  </si>
+  <si>
+    <t>Mark Holt</t>
+  </si>
+  <si>
+    <t>FEE-6610239799717_11</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>NP11 5DX</t>
+  </si>
+  <si>
+    <t>Bank reference ID CGSXR2WTRJHII62</t>
   </si>
 </sst>
 </file>
@@ -3205,10 +3412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL245"/>
+  <dimension ref="A1:AL271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197:XFD245"/>
+    <sheetView tabSelected="1" topLeftCell="A258" workbookViewId="0">
+      <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24813,22 +25020,22 @@
     </row>
     <row r="197" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="B197" t="s">
         <v>58</v>
       </c>
       <c r="C197" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
       <c r="D197" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
       <c r="E197" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="F197" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="G197" t="s">
         <v>0</v>
@@ -24843,16 +25050,16 @@
         <v>0</v>
       </c>
       <c r="K197">
-        <v>-3.9</v>
+        <v>-8.59</v>
       </c>
       <c r="L197" t="s">
         <v>54</v>
       </c>
       <c r="M197" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N197">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O197" t="s">
         <v>55</v>
@@ -24864,7 +25071,7 @@
         <v>0</v>
       </c>
       <c r="R197">
-        <v>187473659746</v>
+        <v>187483325602</v>
       </c>
       <c r="S197" t="s">
         <v>0</v>
@@ -24912,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="AH197">
-        <v>-3.9</v>
+        <v>-8.59</v>
       </c>
       <c r="AI197" t="s">
         <v>54</v>
@@ -24921,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="AK197" t="s">
-        <v>716</v>
+        <v>649</v>
       </c>
       <c r="AL197" t="s">
         <v>59</v>
@@ -24929,73 +25136,73 @@
     </row>
     <row r="198" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="B198" t="s">
         <v>52</v>
       </c>
       <c r="C198" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
       <c r="D198" t="s">
-        <v>713</v>
+        <v>646</v>
       </c>
       <c r="E198" t="s">
-        <v>714</v>
+        <v>647</v>
       </c>
       <c r="F198" t="s">
-        <v>715</v>
+        <v>648</v>
       </c>
       <c r="G198" t="s">
-        <v>717</v>
+        <v>650</v>
       </c>
       <c r="H198" t="s">
-        <v>502</v>
+        <v>132</v>
       </c>
       <c r="I198" t="s">
-        <v>718</v>
+        <v>651</v>
       </c>
       <c r="J198" t="s">
         <v>53</v>
       </c>
       <c r="K198">
-        <v>21.81</v>
+        <v>48.36</v>
       </c>
       <c r="L198" t="s">
         <v>54</v>
       </c>
-      <c r="M198" t="s">
-        <v>0</v>
-      </c>
-      <c r="N198" t="s">
-        <v>0</v>
+      <c r="M198" s="1">
+        <v>45888</v>
+      </c>
+      <c r="N198">
+        <v>7030244651</v>
       </c>
       <c r="O198" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P198" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q198" t="s">
         <v>0</v>
       </c>
       <c r="R198">
-        <v>187473659746</v>
+        <v>187483325602</v>
       </c>
       <c r="S198">
-        <v>10074022616726</v>
+        <v>10074922723311</v>
       </c>
       <c r="T198" t="s">
-        <v>172</v>
+        <v>652</v>
       </c>
       <c r="U198" t="s">
-        <v>173</v>
+        <v>653</v>
       </c>
       <c r="V198">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W198">
-        <v>25.99</v>
+        <v>59.64</v>
       </c>
       <c r="X198">
         <v>0</v>
@@ -25013,13 +25220,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC198">
-        <v>-3.71</v>
+        <v>-7.8</v>
       </c>
       <c r="AD198">
-        <v>-0.11</v>
-      </c>
-      <c r="AE198" t="s">
-        <v>0</v>
+        <v>-0.25</v>
+      </c>
+      <c r="AE198">
+        <v>-2.87</v>
       </c>
       <c r="AF198" t="s">
         <v>0</v>
@@ -25028,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="AH198">
-        <v>25.99</v>
+        <v>59.64</v>
       </c>
       <c r="AI198" t="s">
         <v>54</v>
@@ -25045,22 +25252,22 @@
     </row>
     <row r="199" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="B199" t="s">
         <v>58</v>
       </c>
       <c r="C199" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="D199" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="E199" t="s">
-        <v>720</v>
+        <v>655</v>
       </c>
       <c r="F199" t="s">
-        <v>721</v>
+        <v>656</v>
       </c>
       <c r="G199" t="s">
         <v>0</v>
@@ -25075,16 +25282,16 @@
         <v>0</v>
       </c>
       <c r="K199">
-        <v>-2.16</v>
+        <v>-1.21</v>
       </c>
       <c r="L199" t="s">
         <v>54</v>
       </c>
       <c r="M199" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N199">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O199" t="s">
         <v>55</v>
@@ -25096,7 +25303,7 @@
         <v>0</v>
       </c>
       <c r="R199">
-        <v>187486331471</v>
+        <v>187480578811</v>
       </c>
       <c r="S199" t="s">
         <v>0</v>
@@ -25144,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="AH199">
-        <v>-2.16</v>
+        <v>-1.21</v>
       </c>
       <c r="AI199" t="s">
         <v>54</v>
@@ -25153,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="AK199" t="s">
-        <v>722</v>
+        <v>657</v>
       </c>
       <c r="AL199" t="s">
         <v>59</v>
@@ -25161,73 +25368,73 @@
     </row>
     <row r="200" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="B200" t="s">
         <v>52</v>
       </c>
       <c r="C200" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="D200" t="s">
-        <v>719</v>
+        <v>654</v>
       </c>
       <c r="E200" t="s">
-        <v>720</v>
+        <v>655</v>
       </c>
       <c r="F200" t="s">
-        <v>721</v>
+        <v>656</v>
       </c>
       <c r="G200" t="s">
-        <v>723</v>
+        <v>658</v>
       </c>
       <c r="H200" t="s">
-        <v>137</v>
+        <v>536</v>
       </c>
       <c r="I200" t="s">
-        <v>724</v>
+        <v>659</v>
       </c>
       <c r="J200" t="s">
         <v>53</v>
       </c>
       <c r="K200">
-        <v>12.79</v>
+        <v>7.08</v>
       </c>
       <c r="L200" t="s">
         <v>54</v>
       </c>
-      <c r="M200" t="s">
-        <v>0</v>
-      </c>
-      <c r="N200" t="s">
-        <v>0</v>
+      <c r="M200" s="1">
+        <v>45888</v>
+      </c>
+      <c r="N200">
+        <v>7030244651</v>
       </c>
       <c r="O200" t="s">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="P200" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="Q200" t="s">
         <v>0</v>
       </c>
       <c r="R200">
-        <v>187486331471</v>
+        <v>187480578811</v>
       </c>
       <c r="S200">
-        <v>10074866650016</v>
+        <v>10074831823817</v>
       </c>
       <c r="T200" t="s">
-        <v>725</v>
+        <v>280</v>
       </c>
       <c r="U200" t="s">
-        <v>726</v>
+        <v>281</v>
       </c>
       <c r="V200">
         <v>1</v>
       </c>
       <c r="W200">
-        <v>14.99</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="X200">
         <v>0</v>
@@ -25242,13 +25449,13 @@
         <v>0</v>
       </c>
       <c r="AB200">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC200">
-        <v>-1.78</v>
+        <v>-1.21</v>
       </c>
       <c r="AD200">
-        <v>-0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="AE200" t="s">
         <v>0</v>
@@ -25260,7 +25467,7 @@
         <v>0</v>
       </c>
       <c r="AH200">
-        <v>14.99</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="AI200" t="s">
         <v>54</v>
@@ -25277,22 +25484,22 @@
     </row>
     <row r="201" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B201" t="s">
         <v>58</v>
       </c>
       <c r="C201" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="D201" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="E201" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="F201" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
       <c r="G201" t="s">
         <v>0</v>
@@ -25307,16 +25514,16 @@
         <v>0</v>
       </c>
       <c r="K201">
-        <v>-2.5299999999999998</v>
+        <v>-4.91</v>
       </c>
       <c r="L201" t="s">
         <v>54</v>
       </c>
       <c r="M201" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N201">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O201" t="s">
         <v>55</v>
@@ -25328,7 +25535,7 @@
         <v>0</v>
       </c>
       <c r="R201">
-        <v>187499629184</v>
+        <v>187473645996</v>
       </c>
       <c r="S201" t="s">
         <v>0</v>
@@ -25376,7 +25583,7 @@
         <v>0</v>
       </c>
       <c r="AH201">
-        <v>-2.5299999999999998</v>
+        <v>-4.91</v>
       </c>
       <c r="AI201" t="s">
         <v>54</v>
@@ -25385,7 +25592,7 @@
         <v>0</v>
       </c>
       <c r="AK201" t="s">
-        <v>730</v>
+        <v>663</v>
       </c>
       <c r="AL201" t="s">
         <v>59</v>
@@ -25393,46 +25600,46 @@
     </row>
     <row r="202" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B202" t="s">
         <v>52</v>
       </c>
       <c r="C202" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="D202" t="s">
-        <v>727</v>
+        <v>660</v>
       </c>
       <c r="E202" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="F202" t="s">
-        <v>729</v>
+        <v>662</v>
       </c>
       <c r="G202" t="s">
-        <v>731</v>
+        <v>664</v>
       </c>
       <c r="H202" t="s">
-        <v>732</v>
+        <v>665</v>
       </c>
       <c r="I202" t="s">
-        <v>733</v>
+        <v>666</v>
       </c>
       <c r="J202" t="s">
         <v>53</v>
       </c>
       <c r="K202">
-        <v>17.59</v>
+        <v>28.17</v>
       </c>
       <c r="L202" t="s">
         <v>54</v>
       </c>
       <c r="M202" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N202">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O202" t="s">
         <v>55</v>
@@ -25444,22 +25651,22 @@
         <v>0</v>
       </c>
       <c r="R202">
-        <v>187499629184</v>
+        <v>187473645996</v>
       </c>
       <c r="S202">
-        <v>10074179891520</v>
+        <v>10075054253006</v>
       </c>
       <c r="T202" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="U202" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="V202">
         <v>1</v>
       </c>
       <c r="W202">
-        <v>21.99</v>
+        <v>32.99</v>
       </c>
       <c r="X202">
         <v>0</v>
@@ -25477,13 +25684,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC202">
-        <v>-2.88</v>
+        <v>-4.32</v>
       </c>
       <c r="AD202">
-        <v>-0.1</v>
-      </c>
-      <c r="AE202">
-        <v>-1.06</v>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>0</v>
       </c>
       <c r="AF202" t="s">
         <v>0</v>
@@ -25492,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="AH202">
-        <v>21.99</v>
+        <v>32.99</v>
       </c>
       <c r="AI202" t="s">
         <v>54</v>
@@ -25509,22 +25716,22 @@
     </row>
     <row r="203" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B203" t="s">
         <v>58</v>
       </c>
       <c r="C203" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="D203" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="E203" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
       <c r="F203" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
       <c r="G203" t="s">
         <v>0</v>
@@ -25539,16 +25746,16 @@
         <v>0</v>
       </c>
       <c r="K203">
-        <v>-2.5299999999999998</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="L203" t="s">
         <v>54</v>
       </c>
       <c r="M203" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N203">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O203" t="s">
         <v>55</v>
@@ -25560,7 +25767,7 @@
         <v>0</v>
       </c>
       <c r="R203">
-        <v>187499629184</v>
+        <v>187473652251</v>
       </c>
       <c r="S203" t="s">
         <v>0</v>
@@ -25608,7 +25815,7 @@
         <v>0</v>
       </c>
       <c r="AH203">
-        <v>-2.5299999999999998</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="AI203" t="s">
         <v>54</v>
@@ -25617,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="AK203" t="s">
-        <v>737</v>
+        <v>670</v>
       </c>
       <c r="AL203" t="s">
         <v>59</v>
@@ -25625,46 +25832,46 @@
     </row>
     <row r="204" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B204" t="s">
         <v>52</v>
       </c>
       <c r="C204" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="D204" t="s">
-        <v>734</v>
+        <v>667</v>
       </c>
       <c r="E204" t="s">
-        <v>735</v>
+        <v>668</v>
       </c>
       <c r="F204" t="s">
-        <v>736</v>
+        <v>669</v>
       </c>
       <c r="G204" t="s">
-        <v>738</v>
+        <v>671</v>
       </c>
       <c r="H204" t="s">
-        <v>609</v>
+        <v>672</v>
       </c>
       <c r="I204" t="s">
-        <v>739</v>
+        <v>673</v>
       </c>
       <c r="J204" t="s">
         <v>53</v>
       </c>
       <c r="K204">
-        <v>17.59</v>
+        <v>47.03</v>
       </c>
       <c r="L204" t="s">
         <v>54</v>
       </c>
       <c r="M204" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N204">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O204" t="s">
         <v>55</v>
@@ -25676,22 +25883,22 @@
         <v>0</v>
       </c>
       <c r="R204">
-        <v>187499629184</v>
+        <v>187473652251</v>
       </c>
       <c r="S204">
-        <v>10079286565807</v>
+        <v>10079321591621</v>
       </c>
       <c r="T204" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="U204" t="s">
-        <v>228</v>
+        <v>93</v>
       </c>
       <c r="V204">
         <v>1</v>
       </c>
       <c r="W204">
-        <v>21.99</v>
+        <v>57.99</v>
       </c>
       <c r="X204">
         <v>0</v>
@@ -25709,13 +25916,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC204">
-        <v>-2.88</v>
+        <v>-7.58</v>
       </c>
       <c r="AD204">
-        <v>-0.1</v>
+        <v>-0.24</v>
       </c>
       <c r="AE204">
-        <v>-1.06</v>
+        <v>-2.78</v>
       </c>
       <c r="AF204" t="s">
         <v>0</v>
@@ -25724,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="AH204">
-        <v>21.99</v>
+        <v>57.99</v>
       </c>
       <c r="AI204" t="s">
         <v>54</v>
@@ -25741,22 +25948,22 @@
     </row>
     <row r="205" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B205" t="s">
         <v>58</v>
       </c>
       <c r="C205" t="s">
-        <v>740</v>
+        <v>674</v>
       </c>
       <c r="D205" t="s">
-        <v>740</v>
+        <v>674</v>
       </c>
       <c r="E205" t="s">
-        <v>741</v>
+        <v>675</v>
       </c>
       <c r="F205" t="s">
-        <v>742</v>
+        <v>676</v>
       </c>
       <c r="G205" t="s">
         <v>0</v>
@@ -25771,16 +25978,16 @@
         <v>0</v>
       </c>
       <c r="K205">
-        <v>-0.91</v>
+        <v>-2.95</v>
       </c>
       <c r="L205" t="s">
         <v>54</v>
       </c>
       <c r="M205" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N205">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O205" t="s">
         <v>55</v>
@@ -25792,7 +25999,7 @@
         <v>0</v>
       </c>
       <c r="R205">
-        <v>187480578811</v>
+        <v>187483035573</v>
       </c>
       <c r="S205" t="s">
         <v>0</v>
@@ -25840,7 +26047,7 @@
         <v>0</v>
       </c>
       <c r="AH205">
-        <v>-0.91</v>
+        <v>-2.95</v>
       </c>
       <c r="AI205" t="s">
         <v>54</v>
@@ -25849,7 +26056,7 @@
         <v>0</v>
       </c>
       <c r="AK205" t="s">
-        <v>743</v>
+        <v>677</v>
       </c>
       <c r="AL205" t="s">
         <v>59</v>
@@ -25857,46 +26064,46 @@
     </row>
     <row r="206" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B206" t="s">
         <v>52</v>
       </c>
       <c r="C206" t="s">
-        <v>740</v>
+        <v>674</v>
       </c>
       <c r="D206" t="s">
-        <v>740</v>
+        <v>674</v>
       </c>
       <c r="E206" t="s">
-        <v>741</v>
+        <v>675</v>
       </c>
       <c r="F206" t="s">
-        <v>742</v>
+        <v>676</v>
       </c>
       <c r="G206" t="s">
-        <v>744</v>
+        <v>678</v>
       </c>
       <c r="H206" t="s">
         <v>61</v>
       </c>
       <c r="I206" t="s">
-        <v>745</v>
+        <v>679</v>
       </c>
       <c r="J206" t="s">
         <v>53</v>
       </c>
       <c r="K206">
-        <v>7.1</v>
+        <v>18.36</v>
       </c>
       <c r="L206" t="s">
         <v>54</v>
       </c>
       <c r="M206" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N206">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O206" t="s">
         <v>55</v>
@@ -25908,22 +26115,22 @@
         <v>0</v>
       </c>
       <c r="R206">
-        <v>187480578811</v>
+        <v>187483035573</v>
       </c>
       <c r="S206">
-        <v>10074407472805</v>
+        <v>10074824902815</v>
       </c>
       <c r="T206" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="U206" t="s">
-        <v>547</v>
+        <v>372</v>
       </c>
       <c r="V206">
         <v>1</v>
       </c>
       <c r="W206">
-        <v>8.4700000000000006</v>
+        <v>20.49</v>
       </c>
       <c r="X206">
         <v>0</v>
@@ -25938,13 +26145,13 @@
         <v>0</v>
       </c>
       <c r="AB206">
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="AC206">
-        <v>-1.21</v>
+        <v>-1.69</v>
       </c>
       <c r="AD206">
-        <v>-0.04</v>
+        <v>-0.08</v>
       </c>
       <c r="AE206" t="s">
         <v>0</v>
@@ -25956,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="AH206">
-        <v>8.4700000000000006</v>
+        <v>20.49</v>
       </c>
       <c r="AI206" t="s">
         <v>54</v>
@@ -25973,46 +26180,46 @@
     </row>
     <row r="207" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B207" t="s">
+        <v>58</v>
+      </c>
+      <c r="C207" t="s">
+        <v>680</v>
+      </c>
+      <c r="D207" t="s">
+        <v>680</v>
+      </c>
+      <c r="E207" t="s">
+        <v>681</v>
+      </c>
+      <c r="F207" t="s">
+        <v>682</v>
+      </c>
+      <c r="G207" t="s">
+        <v>0</v>
+      </c>
+      <c r="H207" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>-11.38</v>
+      </c>
+      <c r="L207" t="s">
+        <v>54</v>
+      </c>
+      <c r="M207" s="1">
         <v>45888</v>
       </c>
-      <c r="B207" t="s">
-        <v>52</v>
-      </c>
-      <c r="C207" t="s">
-        <v>746</v>
-      </c>
-      <c r="D207" t="s">
-        <v>746</v>
-      </c>
-      <c r="E207" t="s">
-        <v>747</v>
-      </c>
-      <c r="F207" t="s">
-        <v>748</v>
-      </c>
-      <c r="G207" t="s">
-        <v>749</v>
-      </c>
-      <c r="H207" t="s">
-        <v>732</v>
-      </c>
-      <c r="I207" t="s">
-        <v>750</v>
-      </c>
-      <c r="J207" t="s">
-        <v>53</v>
-      </c>
-      <c r="K207">
-        <v>6.67</v>
-      </c>
-      <c r="L207" t="s">
-        <v>54</v>
-      </c>
-      <c r="M207" s="1">
-        <v>45889</v>
-      </c>
       <c r="N207">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O207" t="s">
         <v>55</v>
@@ -26024,24 +26231,24 @@
         <v>0</v>
       </c>
       <c r="R207">
-        <v>187483121488</v>
-      </c>
-      <c r="S207">
-        <v>10079284042407</v>
+        <v>187494085885</v>
+      </c>
+      <c r="S207" t="s">
+        <v>0</v>
       </c>
       <c r="T207" t="s">
-        <v>751</v>
+        <v>0</v>
       </c>
       <c r="U207" t="s">
-        <v>547</v>
-      </c>
-      <c r="V207">
-        <v>1</v>
-      </c>
-      <c r="W207">
-        <v>7.97</v>
-      </c>
-      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="V207" t="s">
+        <v>0</v>
+      </c>
+      <c r="W207" t="s">
+        <v>0</v>
+      </c>
+      <c r="X207" t="s">
         <v>0</v>
       </c>
       <c r="Y207" t="s">
@@ -26053,14 +26260,14 @@
       <c r="AA207" s="2">
         <v>0</v>
       </c>
-      <c r="AB207">
-        <v>-0.12</v>
-      </c>
-      <c r="AC207">
-        <v>-1.1399999999999999</v>
-      </c>
-      <c r="AD207">
-        <v>-0.04</v>
+      <c r="AB207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>0</v>
       </c>
       <c r="AE207" t="s">
         <v>0</v>
@@ -26072,7 +26279,7 @@
         <v>0</v>
       </c>
       <c r="AH207">
-        <v>7.97</v>
+        <v>-11.38</v>
       </c>
       <c r="AI207" t="s">
         <v>54</v>
@@ -26081,54 +26288,54 @@
         <v>0</v>
       </c>
       <c r="AK207" t="s">
-        <v>0</v>
+        <v>683</v>
       </c>
       <c r="AL207" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B208" t="s">
+        <v>52</v>
+      </c>
+      <c r="C208" t="s">
+        <v>680</v>
+      </c>
+      <c r="D208" t="s">
+        <v>680</v>
+      </c>
+      <c r="E208" t="s">
+        <v>681</v>
+      </c>
+      <c r="F208" t="s">
+        <v>682</v>
+      </c>
+      <c r="G208" t="s">
+        <v>684</v>
+      </c>
+      <c r="H208" t="s">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
+        <v>685</v>
+      </c>
+      <c r="J208" t="s">
+        <v>53</v>
+      </c>
+      <c r="K208">
+        <v>67.010000000000005</v>
+      </c>
+      <c r="L208" t="s">
+        <v>54</v>
+      </c>
+      <c r="M208" s="1">
         <v>45888</v>
       </c>
-      <c r="B208" t="s">
-        <v>58</v>
-      </c>
-      <c r="C208" t="s">
-        <v>752</v>
-      </c>
-      <c r="D208" t="s">
-        <v>752</v>
-      </c>
-      <c r="E208" t="s">
-        <v>753</v>
-      </c>
-      <c r="F208" t="s">
-        <v>754</v>
-      </c>
-      <c r="G208" t="s">
-        <v>0</v>
-      </c>
-      <c r="H208" t="s">
-        <v>0</v>
-      </c>
-      <c r="I208" t="s">
-        <v>0</v>
-      </c>
-      <c r="J208" t="s">
-        <v>0</v>
-      </c>
-      <c r="K208">
-        <v>-0.91</v>
-      </c>
-      <c r="L208" t="s">
-        <v>54</v>
-      </c>
-      <c r="M208" s="1">
-        <v>45889</v>
-      </c>
       <c r="N208">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O208" t="s">
         <v>55</v>
@@ -26140,24 +26347,24 @@
         <v>0</v>
       </c>
       <c r="R208">
-        <v>187480578811</v>
-      </c>
-      <c r="S208" t="s">
-        <v>0</v>
+        <v>187494085885</v>
+      </c>
+      <c r="S208">
+        <v>10075048559406</v>
       </c>
       <c r="T208" t="s">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="U208" t="s">
-        <v>0</v>
-      </c>
-      <c r="V208" t="s">
-        <v>0</v>
-      </c>
-      <c r="W208" t="s">
-        <v>0</v>
-      </c>
-      <c r="X208" t="s">
+        <v>530</v>
+      </c>
+      <c r="V208">
+        <v>1</v>
+      </c>
+      <c r="W208">
+        <v>78.989999999999995</v>
+      </c>
+      <c r="X208">
         <v>0</v>
       </c>
       <c r="Y208" t="s">
@@ -26169,14 +26376,14 @@
       <c r="AA208" s="2">
         <v>0</v>
       </c>
-      <c r="AB208" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC208" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD208" t="s">
-        <v>0</v>
+      <c r="AB208">
+        <v>-0.36</v>
+      </c>
+      <c r="AC208">
+        <v>-11.28</v>
+      </c>
+      <c r="AD208">
+        <v>-0.34</v>
       </c>
       <c r="AE208" t="s">
         <v>0</v>
@@ -26188,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="AH208">
-        <v>-0.91</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="AI208" t="s">
         <v>54</v>
@@ -26197,54 +26404,54 @@
         <v>0</v>
       </c>
       <c r="AK208" t="s">
-        <v>755</v>
+        <v>0</v>
       </c>
       <c r="AL208" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B209" t="s">
+        <v>58</v>
+      </c>
+      <c r="C209" t="s">
+        <v>686</v>
+      </c>
+      <c r="D209" t="s">
+        <v>686</v>
+      </c>
+      <c r="E209" t="s">
+        <v>687</v>
+      </c>
+      <c r="F209" t="s">
+        <v>688</v>
+      </c>
+      <c r="G209" t="s">
+        <v>0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>-2.09</v>
+      </c>
+      <c r="L209" t="s">
+        <v>54</v>
+      </c>
+      <c r="M209" s="1">
         <v>45888</v>
       </c>
-      <c r="B209" t="s">
-        <v>52</v>
-      </c>
-      <c r="C209" t="s">
-        <v>752</v>
-      </c>
-      <c r="D209" t="s">
-        <v>752</v>
-      </c>
-      <c r="E209" t="s">
-        <v>753</v>
-      </c>
-      <c r="F209" t="s">
-        <v>754</v>
-      </c>
-      <c r="G209" t="s">
-        <v>756</v>
-      </c>
-      <c r="H209" t="s">
-        <v>163</v>
-      </c>
-      <c r="I209" t="s">
-        <v>757</v>
-      </c>
-      <c r="J209" t="s">
-        <v>53</v>
-      </c>
-      <c r="K209">
-        <v>7.08</v>
-      </c>
-      <c r="L209" t="s">
-        <v>54</v>
-      </c>
-      <c r="M209" s="1">
-        <v>45889</v>
-      </c>
       <c r="N209">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O209" t="s">
         <v>55</v>
@@ -26256,24 +26463,24 @@
         <v>0</v>
       </c>
       <c r="R209">
-        <v>187480578811</v>
-      </c>
-      <c r="S209">
-        <v>10074267869001</v>
+        <v>187473669696</v>
+      </c>
+      <c r="S209" t="s">
+        <v>0</v>
       </c>
       <c r="T209" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="U209" t="s">
-        <v>281</v>
-      </c>
-      <c r="V209">
-        <v>1</v>
-      </c>
-      <c r="W209">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="V209" t="s">
+        <v>0</v>
+      </c>
+      <c r="W209" t="s">
+        <v>0</v>
+      </c>
+      <c r="X209" t="s">
         <v>0</v>
       </c>
       <c r="Y209" t="s">
@@ -26285,14 +26492,14 @@
       <c r="AA209" s="2">
         <v>0</v>
       </c>
-      <c r="AB209">
-        <v>-0.12</v>
-      </c>
-      <c r="AC209">
-        <v>-1.21</v>
-      </c>
-      <c r="AD209">
-        <v>-0.04</v>
+      <c r="AB209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>0</v>
       </c>
       <c r="AE209" t="s">
         <v>0</v>
@@ -26304,7 +26511,7 @@
         <v>0</v>
       </c>
       <c r="AH209">
-        <v>8.4499999999999993</v>
+        <v>-2.09</v>
       </c>
       <c r="AI209" t="s">
         <v>54</v>
@@ -26313,54 +26520,54 @@
         <v>0</v>
       </c>
       <c r="AK209" t="s">
-        <v>0</v>
+        <v>689</v>
       </c>
       <c r="AL209" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B210" t="s">
+        <v>52</v>
+      </c>
+      <c r="C210" t="s">
+        <v>686</v>
+      </c>
+      <c r="D210" t="s">
+        <v>686</v>
+      </c>
+      <c r="E210" t="s">
+        <v>687</v>
+      </c>
+      <c r="F210" t="s">
+        <v>688</v>
+      </c>
+      <c r="G210" t="s">
+        <v>145</v>
+      </c>
+      <c r="H210" t="s">
+        <v>145</v>
+      </c>
+      <c r="I210" t="s">
+        <v>690</v>
+      </c>
+      <c r="J210" t="s">
+        <v>53</v>
+      </c>
+      <c r="K210">
+        <v>12.17</v>
+      </c>
+      <c r="L210" t="s">
+        <v>54</v>
+      </c>
+      <c r="M210" s="1">
         <v>45888</v>
       </c>
-      <c r="B210" t="s">
-        <v>58</v>
-      </c>
-      <c r="C210" t="s">
-        <v>640</v>
-      </c>
-      <c r="D210" t="s">
-        <v>640</v>
-      </c>
-      <c r="E210" t="s">
-        <v>641</v>
-      </c>
-      <c r="F210" t="s">
-        <v>642</v>
-      </c>
-      <c r="G210" t="s">
-        <v>0</v>
-      </c>
-      <c r="H210" t="s">
-        <v>0</v>
-      </c>
-      <c r="I210" t="s">
-        <v>0</v>
-      </c>
-      <c r="J210" t="s">
-        <v>0</v>
-      </c>
-      <c r="K210">
-        <v>-1.0900000000000001</v>
-      </c>
-      <c r="L210" t="s">
-        <v>54</v>
-      </c>
-      <c r="M210" s="1">
-        <v>45889</v>
-      </c>
       <c r="N210">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O210" t="s">
         <v>55</v>
@@ -26372,24 +26579,24 @@
         <v>0</v>
       </c>
       <c r="R210">
-        <v>187499629184</v>
-      </c>
-      <c r="S210" t="s">
-        <v>0</v>
+        <v>187473669696</v>
+      </c>
+      <c r="S210">
+        <v>10074818257914</v>
       </c>
       <c r="T210" t="s">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="U210" t="s">
-        <v>0</v>
-      </c>
-      <c r="V210" t="s">
-        <v>0</v>
-      </c>
-      <c r="W210" t="s">
-        <v>0</v>
-      </c>
-      <c r="X210" t="s">
+        <v>692</v>
+      </c>
+      <c r="V210">
+        <v>1</v>
+      </c>
+      <c r="W210">
+        <v>14.49</v>
+      </c>
+      <c r="X210">
         <v>0</v>
       </c>
       <c r="Y210" t="s">
@@ -26401,14 +26608,14 @@
       <c r="AA210" s="2">
         <v>0</v>
       </c>
-      <c r="AB210" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC210" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD210" t="s">
-        <v>0</v>
+      <c r="AB210">
+        <v>-0.36</v>
+      </c>
+      <c r="AC210">
+        <v>-1.9</v>
+      </c>
+      <c r="AD210">
+        <v>-0.06</v>
       </c>
       <c r="AE210" t="s">
         <v>0</v>
@@ -26420,7 +26627,7 @@
         <v>0</v>
       </c>
       <c r="AH210">
-        <v>-1.0900000000000001</v>
+        <v>14.49</v>
       </c>
       <c r="AI210" t="s">
         <v>54</v>
@@ -26429,30 +26636,30 @@
         <v>0</v>
       </c>
       <c r="AK210" t="s">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="AL210" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B211" t="s">
         <v>58</v>
       </c>
       <c r="C211" t="s">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E211" t="s">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="F211" t="s">
-        <v>761</v>
+        <v>0</v>
       </c>
       <c r="G211" t="s">
         <v>0</v>
@@ -26467,16 +26674,16 @@
         <v>0</v>
       </c>
       <c r="K211">
-        <v>-3.07</v>
+        <v>-0.12</v>
       </c>
       <c r="L211" t="s">
         <v>54</v>
       </c>
       <c r="M211" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N211">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O211" t="s">
         <v>55</v>
@@ -26488,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="R211">
-        <v>187483035573</v>
+        <v>187499607305</v>
       </c>
       <c r="S211" t="s">
         <v>0</v>
@@ -26536,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="AH211">
-        <v>-3.07</v>
+        <v>-0.12</v>
       </c>
       <c r="AI211" t="s">
         <v>54</v>
@@ -26545,54 +26752,54 @@
         <v>0</v>
       </c>
       <c r="AK211" t="s">
-        <v>762</v>
+        <v>693</v>
       </c>
       <c r="AL211" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
     </row>
     <row r="212" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B212" t="s">
+        <v>58</v>
+      </c>
+      <c r="C212" t="s">
+        <v>694</v>
+      </c>
+      <c r="D212" t="s">
+        <v>694</v>
+      </c>
+      <c r="E212" t="s">
+        <v>695</v>
+      </c>
+      <c r="F212" t="s">
+        <v>696</v>
+      </c>
+      <c r="G212" t="s">
+        <v>0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>-1.22</v>
+      </c>
+      <c r="L212" t="s">
+        <v>54</v>
+      </c>
+      <c r="M212" s="1">
         <v>45888</v>
       </c>
-      <c r="B212" t="s">
-        <v>52</v>
-      </c>
-      <c r="C212" t="s">
-        <v>759</v>
-      </c>
-      <c r="D212" t="s">
-        <v>759</v>
-      </c>
-      <c r="E212" t="s">
-        <v>760</v>
-      </c>
-      <c r="F212" t="s">
-        <v>761</v>
-      </c>
-      <c r="G212" t="s">
-        <v>763</v>
-      </c>
-      <c r="H212" t="s">
-        <v>249</v>
-      </c>
-      <c r="I212" t="s">
-        <v>764</v>
-      </c>
-      <c r="J212" t="s">
-        <v>53</v>
-      </c>
-      <c r="K212">
-        <v>18.36</v>
-      </c>
-      <c r="L212" t="s">
-        <v>54</v>
-      </c>
-      <c r="M212" s="1">
-        <v>45889</v>
-      </c>
       <c r="N212">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O212" t="s">
         <v>55</v>
@@ -26604,24 +26811,24 @@
         <v>0</v>
       </c>
       <c r="R212">
-        <v>187483035573</v>
-      </c>
-      <c r="S212">
-        <v>10074462645802</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S212" t="s">
+        <v>0</v>
       </c>
       <c r="T212" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U212" t="s">
-        <v>372</v>
-      </c>
-      <c r="V212">
-        <v>1</v>
-      </c>
-      <c r="W212">
-        <v>20.49</v>
-      </c>
-      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="V212" t="s">
+        <v>0</v>
+      </c>
+      <c r="W212" t="s">
+        <v>0</v>
+      </c>
+      <c r="X212" t="s">
         <v>0</v>
       </c>
       <c r="Y212" t="s">
@@ -26633,14 +26840,14 @@
       <c r="AA212" s="2">
         <v>0</v>
       </c>
-      <c r="AB212">
-        <v>-0.36</v>
-      </c>
-      <c r="AC212">
-        <v>-1.69</v>
-      </c>
-      <c r="AD212">
-        <v>-0.08</v>
+      <c r="AB212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>0</v>
       </c>
       <c r="AE212" t="s">
         <v>0</v>
@@ -26652,7 +26859,7 @@
         <v>0</v>
       </c>
       <c r="AH212">
-        <v>20.49</v>
+        <v>-1.22</v>
       </c>
       <c r="AI212" t="s">
         <v>54</v>
@@ -26661,54 +26868,54 @@
         <v>0</v>
       </c>
       <c r="AK212" t="s">
-        <v>0</v>
+        <v>697</v>
       </c>
       <c r="AL212" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="213" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B213" t="s">
+        <v>52</v>
+      </c>
+      <c r="C213" t="s">
+        <v>694</v>
+      </c>
+      <c r="D213" t="s">
+        <v>694</v>
+      </c>
+      <c r="E213" t="s">
+        <v>695</v>
+      </c>
+      <c r="F213" t="s">
+        <v>696</v>
+      </c>
+      <c r="G213" t="s">
+        <v>698</v>
+      </c>
+      <c r="H213" t="s">
+        <v>72</v>
+      </c>
+      <c r="I213" t="s">
+        <v>699</v>
+      </c>
+      <c r="J213" t="s">
+        <v>53</v>
+      </c>
+      <c r="K213">
+        <v>7.1</v>
+      </c>
+      <c r="L213" t="s">
+        <v>54</v>
+      </c>
+      <c r="M213" s="1">
         <v>45888</v>
       </c>
-      <c r="B213" t="s">
-        <v>58</v>
-      </c>
-      <c r="C213" t="s">
-        <v>765</v>
-      </c>
-      <c r="D213" t="s">
-        <v>765</v>
-      </c>
-      <c r="E213" t="s">
-        <v>766</v>
-      </c>
-      <c r="F213" t="s">
-        <v>767</v>
-      </c>
-      <c r="G213" t="s">
-        <v>0</v>
-      </c>
-      <c r="H213" t="s">
-        <v>0</v>
-      </c>
-      <c r="I213" t="s">
-        <v>0</v>
-      </c>
-      <c r="J213" t="s">
-        <v>0</v>
-      </c>
-      <c r="K213">
-        <v>-2.77</v>
-      </c>
-      <c r="L213" t="s">
-        <v>54</v>
-      </c>
-      <c r="M213" s="1">
-        <v>45889</v>
-      </c>
       <c r="N213">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O213" t="s">
         <v>55</v>
@@ -26720,24 +26927,24 @@
         <v>0</v>
       </c>
       <c r="R213">
-        <v>186905975156</v>
-      </c>
-      <c r="S213" t="s">
-        <v>0</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S213">
+        <v>10074366600705</v>
       </c>
       <c r="T213" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="U213" t="s">
-        <v>0</v>
-      </c>
-      <c r="V213" t="s">
-        <v>0</v>
-      </c>
-      <c r="W213" t="s">
-        <v>0</v>
-      </c>
-      <c r="X213" t="s">
+        <v>547</v>
+      </c>
+      <c r="V213">
+        <v>1</v>
+      </c>
+      <c r="W213">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="X213">
         <v>0</v>
       </c>
       <c r="Y213" t="s">
@@ -26749,14 +26956,14 @@
       <c r="AA213" s="2">
         <v>0</v>
       </c>
-      <c r="AB213" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC213" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD213" t="s">
-        <v>0</v>
+      <c r="AB213">
+        <v>-0.12</v>
+      </c>
+      <c r="AC213">
+        <v>-1.21</v>
+      </c>
+      <c r="AD213">
+        <v>-0.04</v>
       </c>
       <c r="AE213" t="s">
         <v>0</v>
@@ -26768,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="AH213">
-        <v>-2.77</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="AI213" t="s">
         <v>54</v>
@@ -26777,54 +26984,54 @@
         <v>0</v>
       </c>
       <c r="AK213" t="s">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AL213" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B214" t="s">
+        <v>58</v>
+      </c>
+      <c r="C214" t="s">
+        <v>700</v>
+      </c>
+      <c r="D214" t="s">
+        <v>700</v>
+      </c>
+      <c r="E214" t="s">
+        <v>701</v>
+      </c>
+      <c r="F214" t="s">
+        <v>702</v>
+      </c>
+      <c r="G214" t="s">
+        <v>0</v>
+      </c>
+      <c r="H214" t="s">
+        <v>0</v>
+      </c>
+      <c r="I214" t="s">
+        <v>0</v>
+      </c>
+      <c r="J214" t="s">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>-1.22</v>
+      </c>
+      <c r="L214" t="s">
+        <v>54</v>
+      </c>
+      <c r="M214" s="1">
         <v>45888</v>
       </c>
-      <c r="B214" t="s">
-        <v>52</v>
-      </c>
-      <c r="C214" t="s">
-        <v>765</v>
-      </c>
-      <c r="D214" t="s">
-        <v>765</v>
-      </c>
-      <c r="E214" t="s">
-        <v>766</v>
-      </c>
-      <c r="F214" t="s">
-        <v>767</v>
-      </c>
-      <c r="G214" t="s">
-        <v>769</v>
-      </c>
-      <c r="H214" t="s">
-        <v>770</v>
-      </c>
-      <c r="I214" t="s">
-        <v>771</v>
-      </c>
-      <c r="J214" t="s">
-        <v>53</v>
-      </c>
-      <c r="K214">
-        <v>16.52</v>
-      </c>
-      <c r="L214" t="s">
-        <v>54</v>
-      </c>
-      <c r="M214" s="1">
-        <v>45889</v>
-      </c>
       <c r="N214">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O214" t="s">
         <v>55</v>
@@ -26836,24 +27043,24 @@
         <v>0</v>
       </c>
       <c r="R214">
-        <v>186905975156</v>
-      </c>
-      <c r="S214">
-        <v>10076157507813</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S214" t="s">
+        <v>0</v>
       </c>
       <c r="T214" t="s">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="U214" t="s">
-        <v>772</v>
-      </c>
-      <c r="V214">
-        <v>1</v>
-      </c>
-      <c r="W214">
-        <v>18.489999999999998</v>
-      </c>
-      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="V214" t="s">
+        <v>0</v>
+      </c>
+      <c r="W214" t="s">
+        <v>0</v>
+      </c>
+      <c r="X214" t="s">
         <v>0</v>
       </c>
       <c r="Y214" t="s">
@@ -26865,14 +27072,14 @@
       <c r="AA214" s="2">
         <v>0</v>
       </c>
-      <c r="AB214">
-        <v>-0.36</v>
-      </c>
-      <c r="AC214">
-        <v>-1.54</v>
-      </c>
-      <c r="AD214">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>0</v>
       </c>
       <c r="AE214" t="s">
         <v>0</v>
@@ -26884,7 +27091,7 @@
         <v>0</v>
       </c>
       <c r="AH214">
-        <v>18.489999999999998</v>
+        <v>-1.22</v>
       </c>
       <c r="AI214" t="s">
         <v>54</v>
@@ -26893,54 +27100,54 @@
         <v>0</v>
       </c>
       <c r="AK214" t="s">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="AL214" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="215" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B215" t="s">
+        <v>52</v>
+      </c>
+      <c r="C215" t="s">
+        <v>700</v>
+      </c>
+      <c r="D215" t="s">
+        <v>700</v>
+      </c>
+      <c r="E215" t="s">
+        <v>701</v>
+      </c>
+      <c r="F215" t="s">
+        <v>702</v>
+      </c>
+      <c r="G215" t="s">
+        <v>704</v>
+      </c>
+      <c r="H215" t="s">
+        <v>296</v>
+      </c>
+      <c r="I215" t="s">
+        <v>705</v>
+      </c>
+      <c r="J215" t="s">
+        <v>53</v>
+      </c>
+      <c r="K215">
+        <v>7.1</v>
+      </c>
+      <c r="L215" t="s">
+        <v>54</v>
+      </c>
+      <c r="M215" s="1">
         <v>45888</v>
       </c>
-      <c r="B215" t="s">
-        <v>58</v>
-      </c>
-      <c r="C215" t="s">
-        <v>773</v>
-      </c>
-      <c r="D215" t="s">
-        <v>773</v>
-      </c>
-      <c r="E215" t="s">
-        <v>774</v>
-      </c>
-      <c r="F215" t="s">
-        <v>775</v>
-      </c>
-      <c r="G215" t="s">
-        <v>0</v>
-      </c>
-      <c r="H215" t="s">
-        <v>0</v>
-      </c>
-      <c r="I215" t="s">
-        <v>0</v>
-      </c>
-      <c r="J215" t="s">
-        <v>0</v>
-      </c>
-      <c r="K215">
-        <v>-2.44</v>
-      </c>
-      <c r="L215" t="s">
-        <v>54</v>
-      </c>
-      <c r="M215" s="1">
-        <v>45889</v>
-      </c>
       <c r="N215">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O215" t="s">
         <v>55</v>
@@ -26952,24 +27159,24 @@
         <v>0</v>
       </c>
       <c r="R215">
-        <v>187483325602</v>
-      </c>
-      <c r="S215" t="s">
-        <v>0</v>
+        <v>187480578811</v>
+      </c>
+      <c r="S215">
+        <v>10074851076910</v>
       </c>
       <c r="T215" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="U215" t="s">
-        <v>0</v>
-      </c>
-      <c r="V215" t="s">
-        <v>0</v>
-      </c>
-      <c r="W215" t="s">
-        <v>0</v>
-      </c>
-      <c r="X215" t="s">
+        <v>547</v>
+      </c>
+      <c r="V215">
+        <v>1</v>
+      </c>
+      <c r="W215">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="X215">
         <v>0</v>
       </c>
       <c r="Y215" t="s">
@@ -26981,14 +27188,14 @@
       <c r="AA215" s="2">
         <v>0</v>
       </c>
-      <c r="AB215" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC215" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD215" t="s">
-        <v>0</v>
+      <c r="AB215">
+        <v>-0.12</v>
+      </c>
+      <c r="AC215">
+        <v>-1.21</v>
+      </c>
+      <c r="AD215">
+        <v>-0.04</v>
       </c>
       <c r="AE215" t="s">
         <v>0</v>
@@ -27000,7 +27207,7 @@
         <v>0</v>
       </c>
       <c r="AH215">
-        <v>-2.44</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="AI215" t="s">
         <v>54</v>
@@ -27009,54 +27216,54 @@
         <v>0</v>
       </c>
       <c r="AK215" t="s">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="AL215" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B216" t="s">
+        <v>58</v>
+      </c>
+      <c r="C216" t="s">
+        <v>706</v>
+      </c>
+      <c r="D216" t="s">
+        <v>706</v>
+      </c>
+      <c r="E216" t="s">
+        <v>707</v>
+      </c>
+      <c r="F216" t="s">
+        <v>708</v>
+      </c>
+      <c r="G216" t="s">
+        <v>0</v>
+      </c>
+      <c r="H216" t="s">
+        <v>0</v>
+      </c>
+      <c r="I216" t="s">
+        <v>0</v>
+      </c>
+      <c r="J216" t="s">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>-8.35</v>
+      </c>
+      <c r="L216" t="s">
+        <v>54</v>
+      </c>
+      <c r="M216" s="1">
         <v>45888</v>
       </c>
-      <c r="B216" t="s">
-        <v>52</v>
-      </c>
-      <c r="C216" t="s">
-        <v>773</v>
-      </c>
-      <c r="D216" t="s">
-        <v>773</v>
-      </c>
-      <c r="E216" t="s">
-        <v>774</v>
-      </c>
-      <c r="F216" t="s">
-        <v>775</v>
-      </c>
-      <c r="G216" t="s">
-        <v>777</v>
-      </c>
-      <c r="H216" t="s">
-        <v>137</v>
-      </c>
-      <c r="I216" t="s">
-        <v>778</v>
-      </c>
-      <c r="J216" t="s">
-        <v>53</v>
-      </c>
-      <c r="K216">
-        <v>13.48</v>
-      </c>
-      <c r="L216" t="s">
-        <v>54</v>
-      </c>
-      <c r="M216" s="1">
-        <v>45889</v>
-      </c>
       <c r="N216">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O216" t="s">
         <v>55</v>
@@ -27068,24 +27275,24 @@
         <v>0</v>
       </c>
       <c r="R216">
-        <v>187483325602</v>
-      </c>
-      <c r="S216">
-        <v>10074177219124</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S216" t="s">
+        <v>0</v>
       </c>
       <c r="T216" t="s">
-        <v>652</v>
+        <v>0</v>
       </c>
       <c r="U216" t="s">
-        <v>653</v>
-      </c>
-      <c r="V216">
-        <v>1</v>
-      </c>
-      <c r="W216">
-        <v>16.95</v>
-      </c>
-      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="V216" t="s">
+        <v>0</v>
+      </c>
+      <c r="W216" t="s">
+        <v>0</v>
+      </c>
+      <c r="X216" t="s">
         <v>0</v>
       </c>
       <c r="Y216" t="s">
@@ -27097,17 +27304,17 @@
       <c r="AA216" s="2">
         <v>0</v>
       </c>
-      <c r="AB216">
-        <v>-0.36</v>
-      </c>
-      <c r="AC216">
-        <v>-2.2200000000000002</v>
-      </c>
-      <c r="AD216">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE216">
-        <v>-0.82</v>
+      <c r="AB216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>0</v>
       </c>
       <c r="AF216" t="s">
         <v>0</v>
@@ -27116,7 +27323,7 @@
         <v>0</v>
       </c>
       <c r="AH216">
-        <v>16.95</v>
+        <v>-8.35</v>
       </c>
       <c r="AI216" t="s">
         <v>54</v>
@@ -27125,54 +27332,54 @@
         <v>0</v>
       </c>
       <c r="AK216" t="s">
-        <v>0</v>
+        <v>709</v>
       </c>
       <c r="AL216" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="217" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B217" t="s">
+        <v>52</v>
+      </c>
+      <c r="C217" t="s">
+        <v>706</v>
+      </c>
+      <c r="D217" t="s">
+        <v>706</v>
+      </c>
+      <c r="E217" t="s">
+        <v>707</v>
+      </c>
+      <c r="F217" t="s">
+        <v>708</v>
+      </c>
+      <c r="G217" t="s">
+        <v>710</v>
+      </c>
+      <c r="H217" t="s">
+        <v>711</v>
+      </c>
+      <c r="I217" t="s">
+        <v>712</v>
+      </c>
+      <c r="J217" t="s">
+        <v>53</v>
+      </c>
+      <c r="K217">
+        <v>47.03</v>
+      </c>
+      <c r="L217" t="s">
+        <v>54</v>
+      </c>
+      <c r="M217" s="1">
         <v>45888</v>
       </c>
-      <c r="B217" t="s">
-        <v>58</v>
-      </c>
-      <c r="C217" t="s">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>0</v>
-      </c>
-      <c r="E217" t="s">
-        <v>0</v>
-      </c>
-      <c r="F217" t="s">
-        <v>0</v>
-      </c>
-      <c r="G217" t="s">
-        <v>0</v>
-      </c>
-      <c r="H217" t="s">
-        <v>0</v>
-      </c>
-      <c r="I217" t="s">
-        <v>0</v>
-      </c>
-      <c r="J217" t="s">
-        <v>0</v>
-      </c>
-      <c r="K217">
-        <v>-0.12</v>
-      </c>
-      <c r="L217" t="s">
-        <v>54</v>
-      </c>
-      <c r="M217" s="1">
-        <v>45889</v>
-      </c>
       <c r="N217">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O217" t="s">
         <v>55</v>
@@ -27184,24 +27391,24 @@
         <v>0</v>
       </c>
       <c r="R217">
-        <v>187501688808</v>
-      </c>
-      <c r="S217" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S217">
+        <v>10079316897121</v>
       </c>
       <c r="T217" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="U217" t="s">
-        <v>0</v>
-      </c>
-      <c r="V217" t="s">
-        <v>0</v>
-      </c>
-      <c r="W217" t="s">
-        <v>0</v>
-      </c>
-      <c r="X217" t="s">
+        <v>93</v>
+      </c>
+      <c r="V217">
+        <v>1</v>
+      </c>
+      <c r="W217">
+        <v>57.99</v>
+      </c>
+      <c r="X217">
         <v>0</v>
       </c>
       <c r="Y217" t="s">
@@ -27213,17 +27420,17 @@
       <c r="AA217" s="2">
         <v>0</v>
       </c>
-      <c r="AB217" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC217" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD217" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE217" t="s">
-        <v>0</v>
+      <c r="AB217">
+        <v>-0.36</v>
+      </c>
+      <c r="AC217">
+        <v>-7.58</v>
+      </c>
+      <c r="AD217">
+        <v>-0.24</v>
+      </c>
+      <c r="AE217">
+        <v>-2.78</v>
       </c>
       <c r="AF217" t="s">
         <v>0</v>
@@ -27232,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="AH217">
-        <v>-0.12</v>
+        <v>57.99</v>
       </c>
       <c r="AI217" t="s">
         <v>54</v>
@@ -27241,30 +27448,30 @@
         <v>0</v>
       </c>
       <c r="AK217" t="s">
-        <v>779</v>
+        <v>0</v>
       </c>
       <c r="AL217" t="s">
-        <v>287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B218" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C218" t="s">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="D218" t="s">
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="E218" t="s">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="F218" t="s">
-        <v>782</v>
+        <v>0</v>
       </c>
       <c r="G218" t="s">
         <v>0</v>
@@ -27279,16 +27486,16 @@
         <v>0</v>
       </c>
       <c r="K218">
-        <v>-2.39</v>
+        <v>-312.18</v>
       </c>
       <c r="L218" t="s">
         <v>54</v>
       </c>
-      <c r="M218" s="1">
-        <v>45889</v>
+      <c r="M218" t="s">
+        <v>0</v>
       </c>
       <c r="N218">
-        <v>7032308579</v>
+        <v>7028615675</v>
       </c>
       <c r="O218" t="s">
         <v>55</v>
@@ -27299,8 +27506,8 @@
       <c r="Q218" t="s">
         <v>0</v>
       </c>
-      <c r="R218">
-        <v>187473651729</v>
+      <c r="R218" t="s">
+        <v>0</v>
       </c>
       <c r="S218" t="s">
         <v>0</v>
@@ -27348,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="AH218">
-        <v>-2.39</v>
+        <v>-312.18</v>
       </c>
       <c r="AI218" t="s">
         <v>54</v>
@@ -27357,54 +27564,54 @@
         <v>0</v>
       </c>
       <c r="AK218" t="s">
-        <v>783</v>
+        <v>510</v>
       </c>
       <c r="AL218" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="219" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B219" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C219" t="s">
-        <v>780</v>
+        <v>511</v>
       </c>
       <c r="D219" t="s">
-        <v>780</v>
+        <v>511</v>
       </c>
       <c r="E219" t="s">
-        <v>781</v>
+        <v>512</v>
       </c>
       <c r="F219" t="s">
-        <v>782</v>
+        <v>513</v>
       </c>
       <c r="G219" t="s">
-        <v>784</v>
+        <v>0</v>
       </c>
       <c r="H219" t="s">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>786</v>
+        <v>0</v>
       </c>
       <c r="J219" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K219">
-        <v>14.81</v>
+        <v>-1.58</v>
       </c>
       <c r="L219" t="s">
         <v>54</v>
       </c>
       <c r="M219" s="1">
-        <v>45889</v>
+        <v>45887</v>
       </c>
       <c r="N219">
-        <v>7032308579</v>
+        <v>7028615675</v>
       </c>
       <c r="O219" t="s">
         <v>55</v>
@@ -27416,24 +27623,24 @@
         <v>0</v>
       </c>
       <c r="R219">
-        <v>187473651729</v>
-      </c>
-      <c r="S219">
-        <v>10074255661601</v>
+        <v>187492038669</v>
+      </c>
+      <c r="S219" t="s">
+        <v>0</v>
       </c>
       <c r="T219" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="U219" t="s">
-        <v>75</v>
-      </c>
-      <c r="V219">
-        <v>1</v>
-      </c>
-      <c r="W219">
-        <v>16.62</v>
-      </c>
-      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="V219" t="s">
+        <v>0</v>
+      </c>
+      <c r="W219" t="s">
+        <v>0</v>
+      </c>
+      <c r="X219" t="s">
         <v>0</v>
       </c>
       <c r="Y219" t="s">
@@ -27445,14 +27652,14 @@
       <c r="AA219" s="2">
         <v>0</v>
       </c>
-      <c r="AB219">
-        <v>-0.36</v>
-      </c>
-      <c r="AC219">
-        <v>-1.38</v>
-      </c>
-      <c r="AD219">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>0</v>
       </c>
       <c r="AE219" t="s">
         <v>0</v>
@@ -27464,7 +27671,7 @@
         <v>0</v>
       </c>
       <c r="AH219">
-        <v>16.62</v>
+        <v>-1.58</v>
       </c>
       <c r="AI219" t="s">
         <v>54</v>
@@ -27473,54 +27680,54 @@
         <v>0</v>
       </c>
       <c r="AK219" t="s">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="AL219" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="220" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45888</v>
+        <v>45887</v>
       </c>
       <c r="B220" t="s">
         <v>52</v>
       </c>
       <c r="C220" t="s">
-        <v>640</v>
+        <v>511</v>
       </c>
       <c r="D220" t="s">
-        <v>640</v>
+        <v>511</v>
       </c>
       <c r="E220" t="s">
-        <v>641</v>
+        <v>512</v>
       </c>
       <c r="F220" t="s">
-        <v>642</v>
+        <v>513</v>
       </c>
       <c r="G220" t="s">
-        <v>643</v>
+        <v>170</v>
       </c>
       <c r="H220" t="s">
-        <v>296</v>
+        <v>137</v>
       </c>
       <c r="I220" t="s">
-        <v>644</v>
+        <v>515</v>
       </c>
       <c r="J220" t="s">
         <v>53</v>
       </c>
       <c r="K220">
-        <v>7.39</v>
+        <v>9.01</v>
       </c>
       <c r="L220" t="s">
         <v>54</v>
       </c>
       <c r="M220" s="1">
-        <v>45889</v>
+        <v>45888</v>
       </c>
       <c r="N220">
-        <v>7032308579</v>
+        <v>7030244651</v>
       </c>
       <c r="O220" t="s">
         <v>55</v>
@@ -27532,22 +27739,22 @@
         <v>0</v>
       </c>
       <c r="R220">
-        <v>187499629184</v>
+        <v>187492038669</v>
       </c>
       <c r="S220">
-        <v>10074390710905</v>
+        <v>10075017216303</v>
       </c>
       <c r="T220" t="s">
-        <v>57</v>
+        <v>480</v>
       </c>
       <c r="U220" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="V220">
         <v>1</v>
       </c>
       <c r="W220">
-        <v>9.49</v>
+        <v>10.99</v>
       </c>
       <c r="X220">
         <v>0</v>
@@ -27565,13 +27772,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC220">
-        <v>-1.24</v>
+        <v>-1.57</v>
       </c>
       <c r="AD220">
-        <v>-0.04</v>
-      </c>
-      <c r="AE220">
-        <v>-0.46</v>
+        <v>-0.05</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>0</v>
       </c>
       <c r="AF220" t="s">
         <v>0</v>
@@ -27580,7 +27787,7 @@
         <v>0</v>
       </c>
       <c r="AH220">
-        <v>9.49</v>
+        <v>10.99</v>
       </c>
       <c r="AI220" t="s">
         <v>54</v>
@@ -27597,37 +27804,37 @@
     </row>
     <row r="221" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B221" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="C221" t="s">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="D221" t="s">
-        <v>0</v>
+        <v>787</v>
       </c>
       <c r="E221" t="s">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="F221" t="s">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="G221" t="s">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="H221" t="s">
         <v>0</v>
       </c>
       <c r="I221" t="s">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="J221" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K221">
-        <v>-247.68</v>
+        <v>-6.67</v>
       </c>
       <c r="L221" t="s">
         <v>54</v>
@@ -27635,14 +27842,14 @@
       <c r="M221" t="s">
         <v>0</v>
       </c>
-      <c r="N221">
-        <v>7030244651</v>
+      <c r="N221" t="s">
+        <v>0</v>
       </c>
       <c r="O221" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P221" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q221" t="s">
         <v>0</v>
@@ -27654,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="T221" t="s">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="U221" t="s">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="V221" t="s">
         <v>0</v>
@@ -27677,14 +27884,14 @@
       <c r="AA221" s="2">
         <v>0</v>
       </c>
-      <c r="AB221" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC221" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD221" t="s">
-        <v>0</v>
+      <c r="AB221">
+        <v>0.12</v>
+      </c>
+      <c r="AC221">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="AD221">
+        <v>0.04</v>
       </c>
       <c r="AE221" t="s">
         <v>0</v>
@@ -27696,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="AH221">
-        <v>-247.68</v>
+        <v>-7.97</v>
       </c>
       <c r="AI221" t="s">
         <v>54</v>
@@ -27705,30 +27912,30 @@
         <v>0</v>
       </c>
       <c r="AK221" t="s">
-        <v>645</v>
+        <v>792</v>
       </c>
       <c r="AL221" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B222" t="s">
         <v>58</v>
       </c>
       <c r="C222" t="s">
-        <v>646</v>
+        <v>793</v>
       </c>
       <c r="D222" t="s">
-        <v>646</v>
+        <v>793</v>
       </c>
       <c r="E222" t="s">
-        <v>647</v>
+        <v>794</v>
       </c>
       <c r="F222" t="s">
-        <v>648</v>
+        <v>795</v>
       </c>
       <c r="G222" t="s">
         <v>0</v>
@@ -27743,28 +27950,28 @@
         <v>0</v>
       </c>
       <c r="K222">
-        <v>-8.59</v>
+        <v>-2.69</v>
       </c>
       <c r="L222" t="s">
         <v>54</v>
       </c>
-      <c r="M222" s="1">
-        <v>45888</v>
-      </c>
-      <c r="N222">
-        <v>7030244651</v>
+      <c r="M222" t="s">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
+        <v>0</v>
       </c>
       <c r="O222" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P222" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q222" t="s">
         <v>0</v>
       </c>
       <c r="R222">
-        <v>187483325602</v>
+        <v>187483035573</v>
       </c>
       <c r="S222" t="s">
         <v>0</v>
@@ -27812,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="AH222">
-        <v>-8.59</v>
+        <v>-2.69</v>
       </c>
       <c r="AI222" t="s">
         <v>54</v>
@@ -27821,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="AK222" t="s">
-        <v>649</v>
+        <v>796</v>
       </c>
       <c r="AL222" t="s">
         <v>59</v>
@@ -27829,73 +28036,73 @@
     </row>
     <row r="223" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B223" t="s">
         <v>52</v>
       </c>
       <c r="C223" t="s">
-        <v>646</v>
+        <v>793</v>
       </c>
       <c r="D223" t="s">
-        <v>646</v>
+        <v>793</v>
       </c>
       <c r="E223" t="s">
-        <v>647</v>
+        <v>794</v>
       </c>
       <c r="F223" t="s">
-        <v>648</v>
+        <v>795</v>
       </c>
       <c r="G223" t="s">
-        <v>650</v>
+        <v>797</v>
       </c>
       <c r="H223" t="s">
-        <v>132</v>
+        <v>586</v>
       </c>
       <c r="I223" t="s">
-        <v>651</v>
+        <v>798</v>
       </c>
       <c r="J223" t="s">
         <v>53</v>
       </c>
       <c r="K223">
-        <v>48.36</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="L223" t="s">
         <v>54</v>
       </c>
-      <c r="M223" s="1">
-        <v>45888</v>
-      </c>
-      <c r="N223">
-        <v>7030244651</v>
+      <c r="M223" t="s">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
+        <v>0</v>
       </c>
       <c r="O223" t="s">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="P223" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q223" t="s">
         <v>0</v>
       </c>
       <c r="R223">
-        <v>187483325602</v>
+        <v>187483035573</v>
       </c>
       <c r="S223">
-        <v>10074922723311</v>
+        <v>10074222273524</v>
       </c>
       <c r="T223" t="s">
-        <v>652</v>
+        <v>371</v>
       </c>
       <c r="U223" t="s">
-        <v>653</v>
+        <v>372</v>
       </c>
       <c r="V223">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W223">
-        <v>59.64</v>
+        <v>19.47</v>
       </c>
       <c r="X223">
         <v>0</v>
@@ -27913,13 +28120,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC223">
-        <v>-7.8</v>
+        <v>-1.61</v>
       </c>
       <c r="AD223">
-        <v>-0.25</v>
-      </c>
-      <c r="AE223">
-        <v>-2.87</v>
+        <v>-0.08</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>0</v>
       </c>
       <c r="AF223" t="s">
         <v>0</v>
@@ -27928,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="AH223">
-        <v>59.64</v>
+        <v>19.47</v>
       </c>
       <c r="AI223" t="s">
         <v>54</v>
@@ -27945,22 +28152,22 @@
     </row>
     <row r="224" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="B224" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C224" t="s">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="D224" t="s">
-        <v>654</v>
+        <v>0</v>
       </c>
       <c r="E224" t="s">
-        <v>655</v>
+        <v>0</v>
       </c>
       <c r="F224" t="s">
-        <v>656</v>
+        <v>0</v>
       </c>
       <c r="G224" t="s">
         <v>0</v>
@@ -27975,16 +28182,16 @@
         <v>0</v>
       </c>
       <c r="K224">
-        <v>-1.21</v>
+        <v>-135.25</v>
       </c>
       <c r="L224" t="s">
         <v>54</v>
       </c>
-      <c r="M224" s="1">
-        <v>45888</v>
+      <c r="M224" t="s">
+        <v>0</v>
       </c>
       <c r="N224">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O224" t="s">
         <v>55</v>
@@ -27995,8 +28202,8 @@
       <c r="Q224" t="s">
         <v>0</v>
       </c>
-      <c r="R224">
-        <v>187480578811</v>
+      <c r="R224" t="s">
+        <v>0</v>
       </c>
       <c r="S224" t="s">
         <v>0</v>
@@ -28044,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="AH224">
-        <v>-1.21</v>
+        <v>-135.25</v>
       </c>
       <c r="AI224" t="s">
         <v>54</v>
@@ -28053,54 +28260,54 @@
         <v>0</v>
       </c>
       <c r="AK224" t="s">
-        <v>657</v>
+        <v>799</v>
       </c>
       <c r="AL224" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="225" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B225" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C225" t="s">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="D225" t="s">
-        <v>654</v>
+        <v>800</v>
       </c>
       <c r="E225" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="F225" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="G225" t="s">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="H225" t="s">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>659</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K225">
-        <v>7.08</v>
+        <v>-2.7</v>
       </c>
       <c r="L225" t="s">
         <v>54</v>
       </c>
       <c r="M225" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N225">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O225" t="s">
         <v>55</v>
@@ -28112,24 +28319,24 @@
         <v>0</v>
       </c>
       <c r="R225">
-        <v>187480578811</v>
-      </c>
-      <c r="S225">
-        <v>10074831823817</v>
+        <v>186821285299</v>
+      </c>
+      <c r="S225" t="s">
+        <v>0</v>
       </c>
       <c r="T225" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="U225" t="s">
-        <v>281</v>
-      </c>
-      <c r="V225">
-        <v>1</v>
-      </c>
-      <c r="W225">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="V225" t="s">
+        <v>0</v>
+      </c>
+      <c r="W225" t="s">
+        <v>0</v>
+      </c>
+      <c r="X225" t="s">
         <v>0</v>
       </c>
       <c r="Y225" t="s">
@@ -28141,14 +28348,14 @@
       <c r="AA225" s="2">
         <v>0</v>
       </c>
-      <c r="AB225">
-        <v>-0.12</v>
-      </c>
-      <c r="AC225">
-        <v>-1.21</v>
-      </c>
-      <c r="AD225">
-        <v>-0.04</v>
+      <c r="AB225" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>0</v>
       </c>
       <c r="AE225" t="s">
         <v>0</v>
@@ -28160,7 +28367,7 @@
         <v>0</v>
       </c>
       <c r="AH225">
-        <v>8.4499999999999993</v>
+        <v>-2.7</v>
       </c>
       <c r="AI225" t="s">
         <v>54</v>
@@ -28169,54 +28376,54 @@
         <v>0</v>
       </c>
       <c r="AK225" t="s">
-        <v>0</v>
+        <v>801</v>
       </c>
       <c r="AL225" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B226" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C226" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="D226" t="s">
-        <v>660</v>
+        <v>800</v>
       </c>
       <c r="E226" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="F226" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="G226" t="s">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="H226" t="s">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="I226" t="s">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="J226" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K226">
-        <v>-4.91</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="L226" t="s">
         <v>54</v>
       </c>
       <c r="M226" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N226">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O226" t="s">
         <v>55</v>
@@ -28228,24 +28435,24 @@
         <v>0</v>
       </c>
       <c r="R226">
-        <v>187473645996</v>
-      </c>
-      <c r="S226" t="s">
-        <v>0</v>
+        <v>186821285299</v>
+      </c>
+      <c r="S226">
+        <v>10074197401609</v>
       </c>
       <c r="T226" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U226" t="s">
-        <v>0</v>
-      </c>
-      <c r="V226" t="s">
-        <v>0</v>
-      </c>
-      <c r="W226" t="s">
-        <v>0</v>
-      </c>
-      <c r="X226" t="s">
+        <v>228</v>
+      </c>
+      <c r="V226">
+        <v>1</v>
+      </c>
+      <c r="W226">
+        <v>22.49</v>
+      </c>
+      <c r="X226">
         <v>0</v>
       </c>
       <c r="Y226" t="s">
@@ -28257,17 +28464,17 @@
       <c r="AA226" s="2">
         <v>0</v>
       </c>
-      <c r="AB226" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC226" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD226" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE226" t="s">
-        <v>0</v>
+      <c r="AB226">
+        <v>-0.36</v>
+      </c>
+      <c r="AC226">
+        <v>-2.94</v>
+      </c>
+      <c r="AD226">
+        <v>-0.1</v>
+      </c>
+      <c r="AE226">
+        <v>-1.08</v>
       </c>
       <c r="AF226" t="s">
         <v>0</v>
@@ -28276,7 +28483,7 @@
         <v>0</v>
       </c>
       <c r="AH226">
-        <v>-4.91</v>
+        <v>22.49</v>
       </c>
       <c r="AI226" t="s">
         <v>54</v>
@@ -28285,54 +28492,54 @@
         <v>0</v>
       </c>
       <c r="AK226" t="s">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="AL226" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B227" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C227" t="s">
-        <v>660</v>
+        <v>787</v>
       </c>
       <c r="D227" t="s">
-        <v>660</v>
+        <v>787</v>
       </c>
       <c r="E227" t="s">
-        <v>661</v>
+        <v>788</v>
       </c>
       <c r="F227" t="s">
-        <v>662</v>
+        <v>789</v>
       </c>
       <c r="G227" t="s">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="I227" t="s">
-        <v>666</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K227">
-        <v>28.17</v>
+        <v>-1.06</v>
       </c>
       <c r="L227" t="s">
         <v>54</v>
       </c>
       <c r="M227" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N227">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O227" t="s">
         <v>55</v>
@@ -28344,24 +28551,24 @@
         <v>0</v>
       </c>
       <c r="R227">
-        <v>187473645996</v>
-      </c>
-      <c r="S227">
-        <v>10075054253006</v>
+        <v>187483121488</v>
+      </c>
+      <c r="S227" t="s">
+        <v>0</v>
       </c>
       <c r="T227" t="s">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="U227" t="s">
-        <v>102</v>
-      </c>
-      <c r="V227">
-        <v>1</v>
-      </c>
-      <c r="W227">
-        <v>32.99</v>
-      </c>
-      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="V227" t="s">
+        <v>0</v>
+      </c>
+      <c r="W227" t="s">
+        <v>0</v>
+      </c>
+      <c r="X227" t="s">
         <v>0</v>
       </c>
       <c r="Y227" t="s">
@@ -28373,14 +28580,14 @@
       <c r="AA227" s="2">
         <v>0</v>
       </c>
-      <c r="AB227">
-        <v>-0.36</v>
-      </c>
-      <c r="AC227">
-        <v>-4.32</v>
-      </c>
-      <c r="AD227">
-        <v>-0.14000000000000001</v>
+      <c r="AB227" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>0</v>
       </c>
       <c r="AE227" t="s">
         <v>0</v>
@@ -28392,7 +28599,7 @@
         <v>0</v>
       </c>
       <c r="AH227">
-        <v>32.99</v>
+        <v>-1.06</v>
       </c>
       <c r="AI227" t="s">
         <v>54</v>
@@ -28401,54 +28608,54 @@
         <v>0</v>
       </c>
       <c r="AK227" t="s">
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="AL227" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="228" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B228" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C228" t="s">
-        <v>667</v>
+        <v>787</v>
       </c>
       <c r="D228" t="s">
-        <v>667</v>
+        <v>787</v>
       </c>
       <c r="E228" t="s">
-        <v>668</v>
+        <v>788</v>
       </c>
       <c r="F228" t="s">
-        <v>669</v>
+        <v>789</v>
       </c>
       <c r="G228" t="s">
-        <v>0</v>
+        <v>790</v>
       </c>
       <c r="H228" t="s">
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>0</v>
+        <v>791</v>
       </c>
       <c r="J228" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K228">
-        <v>-8.6999999999999993</v>
+        <v>6.67</v>
       </c>
       <c r="L228" t="s">
         <v>54</v>
       </c>
       <c r="M228" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N228">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O228" t="s">
         <v>55</v>
@@ -28460,24 +28667,24 @@
         <v>0</v>
       </c>
       <c r="R228">
-        <v>187473652251</v>
-      </c>
-      <c r="S228" t="s">
-        <v>0</v>
+        <v>187483121488</v>
+      </c>
+      <c r="S228">
+        <v>10074419543823</v>
       </c>
       <c r="T228" t="s">
-        <v>0</v>
+        <v>751</v>
       </c>
       <c r="U228" t="s">
-        <v>0</v>
-      </c>
-      <c r="V228" t="s">
-        <v>0</v>
-      </c>
-      <c r="W228" t="s">
-        <v>0</v>
-      </c>
-      <c r="X228" t="s">
+        <v>547</v>
+      </c>
+      <c r="V228">
+        <v>1</v>
+      </c>
+      <c r="W228">
+        <v>7.97</v>
+      </c>
+      <c r="X228">
         <v>0</v>
       </c>
       <c r="Y228" t="s">
@@ -28489,14 +28696,14 @@
       <c r="AA228" s="2">
         <v>0</v>
       </c>
-      <c r="AB228" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC228" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD228" t="s">
-        <v>0</v>
+      <c r="AB228">
+        <v>-0.12</v>
+      </c>
+      <c r="AC228">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="AD228">
+        <v>-0.04</v>
       </c>
       <c r="AE228" t="s">
         <v>0</v>
@@ -28508,7 +28715,7 @@
         <v>0</v>
       </c>
       <c r="AH228">
-        <v>-8.6999999999999993</v>
+        <v>7.97</v>
       </c>
       <c r="AI228" t="s">
         <v>54</v>
@@ -28517,54 +28724,54 @@
         <v>0</v>
       </c>
       <c r="AK228" t="s">
-        <v>670</v>
+        <v>0</v>
       </c>
       <c r="AL228" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B229" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C229" t="s">
-        <v>667</v>
+        <v>803</v>
       </c>
       <c r="D229" t="s">
-        <v>667</v>
+        <v>803</v>
       </c>
       <c r="E229" t="s">
-        <v>668</v>
+        <v>804</v>
       </c>
       <c r="F229" t="s">
-        <v>669</v>
+        <v>805</v>
       </c>
       <c r="G229" t="s">
-        <v>671</v>
+        <v>0</v>
       </c>
       <c r="H229" t="s">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="I229" t="s">
-        <v>673</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K229">
-        <v>47.03</v>
+        <v>-2.83</v>
       </c>
       <c r="L229" t="s">
         <v>54</v>
       </c>
       <c r="M229" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N229">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O229" t="s">
         <v>55</v>
@@ -28576,24 +28783,24 @@
         <v>0</v>
       </c>
       <c r="R229">
-        <v>187473652251</v>
-      </c>
-      <c r="S229">
-        <v>10079321591621</v>
+        <v>187483035573</v>
+      </c>
+      <c r="S229" t="s">
+        <v>0</v>
       </c>
       <c r="T229" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="U229" t="s">
-        <v>93</v>
-      </c>
-      <c r="V229">
-        <v>1</v>
-      </c>
-      <c r="W229">
-        <v>57.99</v>
-      </c>
-      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="V229" t="s">
+        <v>0</v>
+      </c>
+      <c r="W229" t="s">
+        <v>0</v>
+      </c>
+      <c r="X229" t="s">
         <v>0</v>
       </c>
       <c r="Y229" t="s">
@@ -28605,17 +28812,17 @@
       <c r="AA229" s="2">
         <v>0</v>
       </c>
-      <c r="AB229">
-        <v>-0.36</v>
-      </c>
-      <c r="AC229">
-        <v>-7.58</v>
-      </c>
-      <c r="AD229">
-        <v>-0.24</v>
-      </c>
-      <c r="AE229">
-        <v>-2.78</v>
+      <c r="AB229" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD229" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>0</v>
       </c>
       <c r="AF229" t="s">
         <v>0</v>
@@ -28624,7 +28831,7 @@
         <v>0</v>
       </c>
       <c r="AH229">
-        <v>57.99</v>
+        <v>-2.83</v>
       </c>
       <c r="AI229" t="s">
         <v>54</v>
@@ -28633,54 +28840,54 @@
         <v>0</v>
       </c>
       <c r="AK229" t="s">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="AL229" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="230" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B230" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C230" t="s">
-        <v>674</v>
+        <v>803</v>
       </c>
       <c r="D230" t="s">
-        <v>674</v>
+        <v>803</v>
       </c>
       <c r="E230" t="s">
-        <v>675</v>
+        <v>804</v>
       </c>
       <c r="F230" t="s">
-        <v>676</v>
+        <v>805</v>
       </c>
       <c r="G230" t="s">
-        <v>0</v>
+        <v>807</v>
       </c>
       <c r="H230" t="s">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="I230" t="s">
-        <v>0</v>
+        <v>809</v>
       </c>
       <c r="J230" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K230">
-        <v>-2.95</v>
+        <v>18.36</v>
       </c>
       <c r="L230" t="s">
         <v>54</v>
       </c>
       <c r="M230" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N230">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O230" t="s">
         <v>55</v>
@@ -28694,22 +28901,22 @@
       <c r="R230">
         <v>187483035573</v>
       </c>
-      <c r="S230" t="s">
-        <v>0</v>
+      <c r="S230">
+        <v>10078395507827</v>
       </c>
       <c r="T230" t="s">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="U230" t="s">
-        <v>0</v>
-      </c>
-      <c r="V230" t="s">
-        <v>0</v>
-      </c>
-      <c r="W230" t="s">
-        <v>0</v>
-      </c>
-      <c r="X230" t="s">
+        <v>372</v>
+      </c>
+      <c r="V230">
+        <v>1</v>
+      </c>
+      <c r="W230">
+        <v>20.49</v>
+      </c>
+      <c r="X230">
         <v>0</v>
       </c>
       <c r="Y230" t="s">
@@ -28721,14 +28928,14 @@
       <c r="AA230" s="2">
         <v>0</v>
       </c>
-      <c r="AB230" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC230" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD230" t="s">
-        <v>0</v>
+      <c r="AB230">
+        <v>-0.36</v>
+      </c>
+      <c r="AC230">
+        <v>-1.69</v>
+      </c>
+      <c r="AD230">
+        <v>-0.08</v>
       </c>
       <c r="AE230" t="s">
         <v>0</v>
@@ -28740,7 +28947,7 @@
         <v>0</v>
       </c>
       <c r="AH230">
-        <v>-2.95</v>
+        <v>20.49</v>
       </c>
       <c r="AI230" t="s">
         <v>54</v>
@@ -28749,54 +28956,54 @@
         <v>0</v>
       </c>
       <c r="AK230" t="s">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="AL230" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B231" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C231" t="s">
-        <v>674</v>
+        <v>810</v>
       </c>
       <c r="D231" t="s">
-        <v>674</v>
+        <v>810</v>
       </c>
       <c r="E231" t="s">
-        <v>675</v>
+        <v>811</v>
       </c>
       <c r="F231" t="s">
-        <v>676</v>
+        <v>812</v>
       </c>
       <c r="G231" t="s">
-        <v>678</v>
+        <v>0</v>
       </c>
       <c r="H231" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="I231" t="s">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K231">
-        <v>18.36</v>
+        <v>-2.95</v>
       </c>
       <c r="L231" t="s">
         <v>54</v>
       </c>
       <c r="M231" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N231">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O231" t="s">
         <v>55</v>
@@ -28808,24 +29015,24 @@
         <v>0</v>
       </c>
       <c r="R231">
-        <v>187483035573</v>
-      </c>
-      <c r="S231">
-        <v>10074824902815</v>
+        <v>187499629184</v>
+      </c>
+      <c r="S231" t="s">
+        <v>0</v>
       </c>
       <c r="T231" t="s">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="U231" t="s">
-        <v>372</v>
-      </c>
-      <c r="V231">
-        <v>1</v>
-      </c>
-      <c r="W231">
-        <v>20.49</v>
-      </c>
-      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="V231" t="s">
+        <v>0</v>
+      </c>
+      <c r="W231" t="s">
+        <v>0</v>
+      </c>
+      <c r="X231" t="s">
         <v>0</v>
       </c>
       <c r="Y231" t="s">
@@ -28837,14 +29044,14 @@
       <c r="AA231" s="2">
         <v>0</v>
       </c>
-      <c r="AB231">
-        <v>-0.36</v>
-      </c>
-      <c r="AC231">
-        <v>-1.69</v>
-      </c>
-      <c r="AD231">
-        <v>-0.08</v>
+      <c r="AB231" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>0</v>
       </c>
       <c r="AE231" t="s">
         <v>0</v>
@@ -28856,7 +29063,7 @@
         <v>0</v>
       </c>
       <c r="AH231">
-        <v>20.49</v>
+        <v>-2.95</v>
       </c>
       <c r="AI231" t="s">
         <v>54</v>
@@ -28865,54 +29072,54 @@
         <v>0</v>
       </c>
       <c r="AK231" t="s">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="AL231" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="232" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B232" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C232" t="s">
-        <v>680</v>
+        <v>810</v>
       </c>
       <c r="D232" t="s">
-        <v>680</v>
+        <v>810</v>
       </c>
       <c r="E232" t="s">
-        <v>681</v>
+        <v>811</v>
       </c>
       <c r="F232" t="s">
-        <v>682</v>
+        <v>812</v>
       </c>
       <c r="G232" t="s">
-        <v>0</v>
+        <v>814</v>
       </c>
       <c r="H232" t="s">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="I232" t="s">
-        <v>0</v>
+        <v>816</v>
       </c>
       <c r="J232" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K232">
-        <v>-11.38</v>
+        <v>17.59</v>
       </c>
       <c r="L232" t="s">
         <v>54</v>
       </c>
       <c r="M232" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N232">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O232" t="s">
         <v>55</v>
@@ -28924,24 +29131,24 @@
         <v>0</v>
       </c>
       <c r="R232">
-        <v>187494085885</v>
-      </c>
-      <c r="S232" t="s">
-        <v>0</v>
+        <v>187499629184</v>
+      </c>
+      <c r="S232">
+        <v>10074778506904</v>
       </c>
       <c r="T232" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="U232" t="s">
-        <v>0</v>
-      </c>
-      <c r="V232" t="s">
-        <v>0</v>
-      </c>
-      <c r="W232" t="s">
-        <v>0</v>
-      </c>
-      <c r="X232" t="s">
+        <v>228</v>
+      </c>
+      <c r="V232">
+        <v>1</v>
+      </c>
+      <c r="W232">
+        <v>21.99</v>
+      </c>
+      <c r="X232">
         <v>0</v>
       </c>
       <c r="Y232" t="s">
@@ -28953,17 +29160,17 @@
       <c r="AA232" s="2">
         <v>0</v>
       </c>
-      <c r="AB232" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC232" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD232" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE232" t="s">
-        <v>0</v>
+      <c r="AB232">
+        <v>-0.36</v>
+      </c>
+      <c r="AC232">
+        <v>-2.88</v>
+      </c>
+      <c r="AD232">
+        <v>-0.1</v>
+      </c>
+      <c r="AE232">
+        <v>-1.06</v>
       </c>
       <c r="AF232" t="s">
         <v>0</v>
@@ -28972,7 +29179,7 @@
         <v>0</v>
       </c>
       <c r="AH232">
-        <v>-11.38</v>
+        <v>21.99</v>
       </c>
       <c r="AI232" t="s">
         <v>54</v>
@@ -28981,54 +29188,54 @@
         <v>0</v>
       </c>
       <c r="AK232" t="s">
-        <v>683</v>
+        <v>0</v>
       </c>
       <c r="AL232" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C233" t="s">
-        <v>680</v>
+        <v>746</v>
       </c>
       <c r="D233" t="s">
-        <v>680</v>
+        <v>746</v>
       </c>
       <c r="E233" t="s">
-        <v>681</v>
+        <v>747</v>
       </c>
       <c r="F233" t="s">
-        <v>682</v>
+        <v>748</v>
       </c>
       <c r="G233" t="s">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="H233" t="s">
         <v>0</v>
       </c>
       <c r="I233" t="s">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="J233" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K233">
-        <v>67.010000000000005</v>
+        <v>-1.06</v>
       </c>
       <c r="L233" t="s">
         <v>54</v>
       </c>
       <c r="M233" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N233">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O233" t="s">
         <v>55</v>
@@ -29040,24 +29247,24 @@
         <v>0</v>
       </c>
       <c r="R233">
-        <v>187494085885</v>
-      </c>
-      <c r="S233">
-        <v>10075048559406</v>
+        <v>187483121488</v>
+      </c>
+      <c r="S233" t="s">
+        <v>0</v>
       </c>
       <c r="T233" t="s">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="U233" t="s">
-        <v>530</v>
-      </c>
-      <c r="V233">
-        <v>1</v>
-      </c>
-      <c r="W233">
-        <v>78.989999999999995</v>
-      </c>
-      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="V233" t="s">
+        <v>0</v>
+      </c>
+      <c r="W233" t="s">
+        <v>0</v>
+      </c>
+      <c r="X233" t="s">
         <v>0</v>
       </c>
       <c r="Y233" t="s">
@@ -29069,14 +29276,14 @@
       <c r="AA233" s="2">
         <v>0</v>
       </c>
-      <c r="AB233">
-        <v>-0.36</v>
-      </c>
-      <c r="AC233">
-        <v>-11.28</v>
-      </c>
-      <c r="AD233">
-        <v>-0.34</v>
+      <c r="AB233" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>0</v>
       </c>
       <c r="AE233" t="s">
         <v>0</v>
@@ -29088,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="AH233">
-        <v>78.989999999999995</v>
+        <v>-1.06</v>
       </c>
       <c r="AI233" t="s">
         <v>54</v>
@@ -29097,30 +29304,30 @@
         <v>0</v>
       </c>
       <c r="AK233" t="s">
-        <v>0</v>
+        <v>817</v>
       </c>
       <c r="AL233" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="234" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B234" t="s">
         <v>58</v>
       </c>
       <c r="C234" t="s">
-        <v>686</v>
+        <v>818</v>
       </c>
       <c r="D234" t="s">
-        <v>686</v>
+        <v>818</v>
       </c>
       <c r="E234" t="s">
-        <v>687</v>
+        <v>819</v>
       </c>
       <c r="F234" t="s">
-        <v>688</v>
+        <v>820</v>
       </c>
       <c r="G234" t="s">
         <v>0</v>
@@ -29135,16 +29342,16 @@
         <v>0</v>
       </c>
       <c r="K234">
-        <v>-2.09</v>
+        <v>-1.74</v>
       </c>
       <c r="L234" t="s">
         <v>54</v>
       </c>
       <c r="M234" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N234">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O234" t="s">
         <v>55</v>
@@ -29156,7 +29363,7 @@
         <v>0</v>
       </c>
       <c r="R234">
-        <v>187473669696</v>
+        <v>187499629184</v>
       </c>
       <c r="S234" t="s">
         <v>0</v>
@@ -29204,7 +29411,7 @@
         <v>0</v>
       </c>
       <c r="AH234">
-        <v>-2.09</v>
+        <v>-1.74</v>
       </c>
       <c r="AI234" t="s">
         <v>54</v>
@@ -29213,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="AK234" t="s">
-        <v>689</v>
+        <v>821</v>
       </c>
       <c r="AL234" t="s">
         <v>59</v>
@@ -29221,46 +29428,46 @@
     </row>
     <row r="235" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B235" t="s">
         <v>52</v>
       </c>
       <c r="C235" t="s">
-        <v>686</v>
+        <v>818</v>
       </c>
       <c r="D235" t="s">
-        <v>686</v>
+        <v>818</v>
       </c>
       <c r="E235" t="s">
-        <v>687</v>
+        <v>819</v>
       </c>
       <c r="F235" t="s">
-        <v>688</v>
+        <v>820</v>
       </c>
       <c r="G235" t="s">
-        <v>145</v>
+        <v>822</v>
       </c>
       <c r="H235" t="s">
-        <v>145</v>
+        <v>823</v>
       </c>
       <c r="I235" t="s">
-        <v>690</v>
+        <v>824</v>
       </c>
       <c r="J235" t="s">
         <v>53</v>
       </c>
       <c r="K235">
-        <v>12.17</v>
+        <v>10.25</v>
       </c>
       <c r="L235" t="s">
         <v>54</v>
       </c>
       <c r="M235" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N235">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O235" t="s">
         <v>55</v>
@@ -29272,22 +29479,22 @@
         <v>0</v>
       </c>
       <c r="R235">
-        <v>187473669696</v>
+        <v>187499629184</v>
       </c>
       <c r="S235">
-        <v>10074818257914</v>
+        <v>10074841180619</v>
       </c>
       <c r="T235" t="s">
-        <v>691</v>
+        <v>57</v>
       </c>
       <c r="U235" t="s">
-        <v>692</v>
+        <v>410</v>
       </c>
       <c r="V235">
         <v>1</v>
       </c>
       <c r="W235">
-        <v>14.49</v>
+        <v>12.99</v>
       </c>
       <c r="X235">
         <v>0</v>
@@ -29305,13 +29512,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC235">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AD235">
         <v>-0.06</v>
       </c>
-      <c r="AE235" t="s">
-        <v>0</v>
+      <c r="AE235">
+        <v>-0.62</v>
       </c>
       <c r="AF235" t="s">
         <v>0</v>
@@ -29320,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="AH235">
-        <v>14.49</v>
+        <v>12.99</v>
       </c>
       <c r="AI235" t="s">
         <v>54</v>
@@ -29337,22 +29544,22 @@
     </row>
     <row r="236" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B236" t="s">
         <v>58</v>
       </c>
       <c r="C236" t="s">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="D236" t="s">
-        <v>0</v>
+        <v>825</v>
       </c>
       <c r="E236" t="s">
-        <v>0</v>
+        <v>826</v>
       </c>
       <c r="F236" t="s">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="G236" t="s">
         <v>0</v>
@@ -29367,16 +29574,16 @@
         <v>0</v>
       </c>
       <c r="K236">
-        <v>-0.12</v>
+        <v>-1.26</v>
       </c>
       <c r="L236" t="s">
         <v>54</v>
       </c>
       <c r="M236" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N236">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O236" t="s">
         <v>55</v>
@@ -29388,7 +29595,7 @@
         <v>0</v>
       </c>
       <c r="R236">
-        <v>187499607305</v>
+        <v>187473655879</v>
       </c>
       <c r="S236" t="s">
         <v>0</v>
@@ -29436,7 +29643,7 @@
         <v>0</v>
       </c>
       <c r="AH236">
-        <v>-0.12</v>
+        <v>-1.26</v>
       </c>
       <c r="AI236" t="s">
         <v>54</v>
@@ -29445,54 +29652,54 @@
         <v>0</v>
       </c>
       <c r="AK236" t="s">
-        <v>693</v>
+        <v>828</v>
       </c>
       <c r="AL236" t="s">
-        <v>287</v>
+        <v>59</v>
       </c>
     </row>
     <row r="237" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B237" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C237" t="s">
-        <v>694</v>
+        <v>825</v>
       </c>
       <c r="D237" t="s">
-        <v>694</v>
+        <v>825</v>
       </c>
       <c r="E237" t="s">
-        <v>695</v>
+        <v>826</v>
       </c>
       <c r="F237" t="s">
-        <v>696</v>
+        <v>827</v>
       </c>
       <c r="G237" t="s">
-        <v>0</v>
+        <v>829</v>
       </c>
       <c r="H237" t="s">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="I237" t="s">
-        <v>0</v>
+        <v>831</v>
       </c>
       <c r="J237" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K237">
-        <v>-1.22</v>
+        <v>8.58</v>
       </c>
       <c r="L237" t="s">
         <v>54</v>
       </c>
       <c r="M237" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N237">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O237" t="s">
         <v>55</v>
@@ -29504,24 +29711,24 @@
         <v>0</v>
       </c>
       <c r="R237">
-        <v>187480578811</v>
-      </c>
-      <c r="S237" t="s">
-        <v>0</v>
+        <v>187473655879</v>
+      </c>
+      <c r="S237">
+        <v>10076187422113</v>
       </c>
       <c r="T237" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="U237" t="s">
-        <v>0</v>
-      </c>
-      <c r="V237" t="s">
-        <v>0</v>
-      </c>
-      <c r="W237" t="s">
-        <v>0</v>
-      </c>
-      <c r="X237" t="s">
+        <v>166</v>
+      </c>
+      <c r="V237">
+        <v>1</v>
+      </c>
+      <c r="W237">
+        <v>10.95</v>
+      </c>
+      <c r="X237">
         <v>0</v>
       </c>
       <c r="Y237" t="s">
@@ -29533,17 +29740,17 @@
       <c r="AA237" s="2">
         <v>0</v>
       </c>
-      <c r="AB237" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC237" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD237" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE237" t="s">
-        <v>0</v>
+      <c r="AB237">
+        <v>-0.36</v>
+      </c>
+      <c r="AC237">
+        <v>-1.43</v>
+      </c>
+      <c r="AD237">
+        <v>-0.05</v>
+      </c>
+      <c r="AE237">
+        <v>-0.53</v>
       </c>
       <c r="AF237" t="s">
         <v>0</v>
@@ -29552,7 +29759,7 @@
         <v>0</v>
       </c>
       <c r="AH237">
-        <v>-1.22</v>
+        <v>10.95</v>
       </c>
       <c r="AI237" t="s">
         <v>54</v>
@@ -29561,54 +29768,54 @@
         <v>0</v>
       </c>
       <c r="AK237" t="s">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="AL237" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B238" t="s">
         <v>52</v>
       </c>
       <c r="C238" t="s">
-        <v>694</v>
+        <v>832</v>
       </c>
       <c r="D238" t="s">
-        <v>694</v>
+        <v>832</v>
       </c>
       <c r="E238" t="s">
-        <v>695</v>
+        <v>833</v>
       </c>
       <c r="F238" t="s">
-        <v>696</v>
+        <v>834</v>
       </c>
       <c r="G238" t="s">
-        <v>698</v>
+        <v>835</v>
       </c>
       <c r="H238" t="s">
-        <v>72</v>
+        <v>836</v>
       </c>
       <c r="I238" t="s">
-        <v>699</v>
+        <v>837</v>
       </c>
       <c r="J238" t="s">
         <v>53</v>
       </c>
       <c r="K238">
-        <v>7.1</v>
+        <v>27.75</v>
       </c>
       <c r="L238" t="s">
         <v>54</v>
       </c>
       <c r="M238" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N238">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O238" t="s">
         <v>55</v>
@@ -29620,22 +29827,22 @@
         <v>0</v>
       </c>
       <c r="R238">
-        <v>187480578811</v>
+        <v>187504934851</v>
       </c>
       <c r="S238">
-        <v>10074366600705</v>
+        <v>10075082199503</v>
       </c>
       <c r="T238" t="s">
-        <v>280</v>
+        <v>838</v>
       </c>
       <c r="U238" t="s">
-        <v>547</v>
+        <v>839</v>
       </c>
       <c r="V238">
         <v>1</v>
       </c>
       <c r="W238">
-        <v>8.4700000000000006</v>
+        <v>32.49</v>
       </c>
       <c r="X238">
         <v>0</v>
@@ -29650,13 +29857,13 @@
         <v>0</v>
       </c>
       <c r="AB238">
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="AC238">
-        <v>-1.21</v>
+        <v>-4.25</v>
       </c>
       <c r="AD238">
-        <v>-0.04</v>
+        <v>-0.13</v>
       </c>
       <c r="AE238" t="s">
         <v>0</v>
@@ -29668,7 +29875,7 @@
         <v>0</v>
       </c>
       <c r="AH238">
-        <v>8.4700000000000006</v>
+        <v>32.49</v>
       </c>
       <c r="AI238" t="s">
         <v>54</v>
@@ -29685,22 +29892,22 @@
     </row>
     <row r="239" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B239" t="s">
         <v>58</v>
       </c>
       <c r="C239" t="s">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="E239" t="s">
-        <v>701</v>
+        <v>0</v>
       </c>
       <c r="F239" t="s">
-        <v>702</v>
+        <v>0</v>
       </c>
       <c r="G239" t="s">
         <v>0</v>
@@ -29715,16 +29922,16 @@
         <v>0</v>
       </c>
       <c r="K239">
-        <v>-1.22</v>
+        <v>-0.12</v>
       </c>
       <c r="L239" t="s">
         <v>54</v>
       </c>
       <c r="M239" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N239">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O239" t="s">
         <v>55</v>
@@ -29736,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="R239">
-        <v>187480578811</v>
+        <v>187504934851</v>
       </c>
       <c r="S239" t="s">
         <v>0</v>
@@ -29784,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="AH239">
-        <v>-1.22</v>
+        <v>-0.12</v>
       </c>
       <c r="AI239" t="s">
         <v>54</v>
@@ -29793,54 +30000,54 @@
         <v>0</v>
       </c>
       <c r="AK239" t="s">
-        <v>703</v>
+        <v>840</v>
       </c>
       <c r="AL239" t="s">
-        <v>59</v>
+        <v>287</v>
       </c>
     </row>
     <row r="240" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B240" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C240" t="s">
-        <v>700</v>
+        <v>311</v>
       </c>
       <c r="D240" t="s">
-        <v>700</v>
+        <v>311</v>
       </c>
       <c r="E240" t="s">
-        <v>701</v>
+        <v>312</v>
       </c>
       <c r="F240" t="s">
-        <v>702</v>
+        <v>313</v>
       </c>
       <c r="G240" t="s">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="H240" t="s">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="I240" t="s">
-        <v>705</v>
+        <v>0</v>
       </c>
       <c r="J240" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K240">
-        <v>7.1</v>
+        <v>1.84</v>
       </c>
       <c r="L240" t="s">
         <v>54</v>
       </c>
       <c r="M240" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N240">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O240" t="s">
         <v>55</v>
@@ -29852,24 +30059,24 @@
         <v>0</v>
       </c>
       <c r="R240">
-        <v>187480578811</v>
-      </c>
-      <c r="S240">
-        <v>10074851076910</v>
+        <v>187473651729</v>
+      </c>
+      <c r="S240" t="s">
+        <v>0</v>
       </c>
       <c r="T240" t="s">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="U240" t="s">
-        <v>547</v>
-      </c>
-      <c r="V240">
-        <v>1</v>
-      </c>
-      <c r="W240">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="V240" t="s">
+        <v>0</v>
+      </c>
+      <c r="W240" t="s">
+        <v>0</v>
+      </c>
+      <c r="X240" t="s">
         <v>0</v>
       </c>
       <c r="Y240" t="s">
@@ -29881,14 +30088,14 @@
       <c r="AA240" s="2">
         <v>0</v>
       </c>
-      <c r="AB240">
-        <v>-0.12</v>
-      </c>
-      <c r="AC240">
-        <v>-1.21</v>
-      </c>
-      <c r="AD240">
-        <v>-0.04</v>
+      <c r="AB240" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>0</v>
       </c>
       <c r="AE240" t="s">
         <v>0</v>
@@ -29900,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="AH240">
-        <v>8.4700000000000006</v>
+        <v>1.84</v>
       </c>
       <c r="AI240" t="s">
         <v>54</v>
@@ -29909,54 +30116,54 @@
         <v>0</v>
       </c>
       <c r="AK240" t="s">
-        <v>0</v>
+        <v>841</v>
       </c>
       <c r="AL240" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="241" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B241" t="s">
-        <v>58</v>
+        <v>397</v>
       </c>
       <c r="C241" t="s">
-        <v>706</v>
+        <v>311</v>
       </c>
       <c r="D241" t="s">
-        <v>706</v>
+        <v>311</v>
       </c>
       <c r="E241" t="s">
-        <v>707</v>
+        <v>312</v>
       </c>
       <c r="F241" t="s">
-        <v>708</v>
+        <v>313</v>
       </c>
       <c r="G241" t="s">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="H241" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I241" t="s">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="J241" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K241">
-        <v>-8.35</v>
+        <v>-13.6</v>
       </c>
       <c r="L241" t="s">
         <v>54</v>
       </c>
       <c r="M241" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N241">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O241" t="s">
         <v>55</v>
@@ -29967,17 +30174,17 @@
       <c r="Q241" t="s">
         <v>0</v>
       </c>
-      <c r="R241">
-        <v>187473652251</v>
+      <c r="R241" t="s">
+        <v>0</v>
       </c>
       <c r="S241" t="s">
         <v>0</v>
       </c>
       <c r="T241" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="U241" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="V241" t="s">
         <v>0</v>
@@ -29997,14 +30204,14 @@
       <c r="AA241" s="2">
         <v>0</v>
       </c>
-      <c r="AB241" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC241" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD241" t="s">
-        <v>0</v>
+      <c r="AB241">
+        <v>0.36</v>
+      </c>
+      <c r="AC241">
+        <v>1.27</v>
+      </c>
+      <c r="AD241">
+        <v>0.06</v>
       </c>
       <c r="AE241" t="s">
         <v>0</v>
@@ -30016,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="AH241">
-        <v>-8.35</v>
+        <v>-15.29</v>
       </c>
       <c r="AI241" t="s">
         <v>54</v>
@@ -30025,54 +30232,54 @@
         <v>0</v>
       </c>
       <c r="AK241" t="s">
-        <v>709</v>
+        <v>842</v>
       </c>
       <c r="AL241" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B242" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C242" t="s">
-        <v>706</v>
+        <v>843</v>
       </c>
       <c r="D242" t="s">
-        <v>706</v>
+        <v>843</v>
       </c>
       <c r="E242" t="s">
-        <v>707</v>
+        <v>844</v>
       </c>
       <c r="F242" t="s">
-        <v>708</v>
+        <v>845</v>
       </c>
       <c r="G242" t="s">
-        <v>710</v>
+        <v>0</v>
       </c>
       <c r="H242" t="s">
-        <v>711</v>
+        <v>0</v>
       </c>
       <c r="I242" t="s">
-        <v>712</v>
+        <v>0</v>
       </c>
       <c r="J242" t="s">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K242">
-        <v>47.03</v>
+        <v>-2.34</v>
       </c>
       <c r="L242" t="s">
         <v>54</v>
       </c>
       <c r="M242" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N242">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O242" t="s">
         <v>55</v>
@@ -30084,24 +30291,24 @@
         <v>0</v>
       </c>
       <c r="R242">
-        <v>187473652251</v>
-      </c>
-      <c r="S242">
-        <v>10079316897121</v>
+        <v>187473651729</v>
+      </c>
+      <c r="S242" t="s">
+        <v>0</v>
       </c>
       <c r="T242" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="U242" t="s">
-        <v>93</v>
-      </c>
-      <c r="V242">
-        <v>1</v>
-      </c>
-      <c r="W242">
-        <v>57.99</v>
-      </c>
-      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="V242" t="s">
+        <v>0</v>
+      </c>
+      <c r="W242" t="s">
+        <v>0</v>
+      </c>
+      <c r="X242" t="s">
         <v>0</v>
       </c>
       <c r="Y242" t="s">
@@ -30113,17 +30320,17 @@
       <c r="AA242" s="2">
         <v>0</v>
       </c>
-      <c r="AB242">
-        <v>-0.36</v>
-      </c>
-      <c r="AC242">
-        <v>-7.58</v>
-      </c>
-      <c r="AD242">
-        <v>-0.24</v>
-      </c>
-      <c r="AE242">
-        <v>-2.78</v>
+      <c r="AB242" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>0</v>
       </c>
       <c r="AF242" t="s">
         <v>0</v>
@@ -30132,7 +30339,7 @@
         <v>0</v>
       </c>
       <c r="AH242">
-        <v>57.99</v>
+        <v>-2.34</v>
       </c>
       <c r="AI242" t="s">
         <v>54</v>
@@ -30141,54 +30348,54 @@
         <v>0</v>
       </c>
       <c r="AK242" t="s">
-        <v>0</v>
+        <v>846</v>
       </c>
       <c r="AL242" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="243" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B243" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C243" t="s">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="D243" t="s">
-        <v>0</v>
+        <v>843</v>
       </c>
       <c r="E243" t="s">
-        <v>0</v>
+        <v>844</v>
       </c>
       <c r="F243" t="s">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="G243" t="s">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="H243" t="s">
         <v>0</v>
       </c>
       <c r="I243" t="s">
-        <v>0</v>
+        <v>848</v>
       </c>
       <c r="J243" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="K243">
-        <v>-312.18</v>
+        <v>14</v>
       </c>
       <c r="L243" t="s">
         <v>54</v>
       </c>
-      <c r="M243" t="s">
-        <v>0</v>
+      <c r="M243" s="1">
+        <v>45890</v>
       </c>
       <c r="N243">
-        <v>7028615675</v>
+        <v>7034635211</v>
       </c>
       <c r="O243" t="s">
         <v>55</v>
@@ -30199,25 +30406,25 @@
       <c r="Q243" t="s">
         <v>0</v>
       </c>
-      <c r="R243" t="s">
-        <v>0</v>
-      </c>
-      <c r="S243" t="s">
-        <v>0</v>
+      <c r="R243">
+        <v>187473651729</v>
+      </c>
+      <c r="S243">
+        <v>10079297286207</v>
       </c>
       <c r="T243" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="U243" t="s">
-        <v>0</v>
-      </c>
-      <c r="V243" t="s">
-        <v>0</v>
-      </c>
-      <c r="W243" t="s">
-        <v>0</v>
-      </c>
-      <c r="X243" t="s">
+        <v>75</v>
+      </c>
+      <c r="V243">
+        <v>1</v>
+      </c>
+      <c r="W243">
+        <v>15.74</v>
+      </c>
+      <c r="X243">
         <v>0</v>
       </c>
       <c r="Y243" t="s">
@@ -30229,14 +30436,14 @@
       <c r="AA243" s="2">
         <v>0</v>
       </c>
-      <c r="AB243" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC243" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD243" t="s">
-        <v>0</v>
+      <c r="AB243">
+        <v>-0.36</v>
+      </c>
+      <c r="AC243">
+        <v>-1.31</v>
+      </c>
+      <c r="AD243">
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE243" t="s">
         <v>0</v>
@@ -30248,7 +30455,7 @@
         <v>0</v>
       </c>
       <c r="AH243">
-        <v>-312.18</v>
+        <v>15.74</v>
       </c>
       <c r="AI243" t="s">
         <v>54</v>
@@ -30257,30 +30464,30 @@
         <v>0</v>
       </c>
       <c r="AK243" t="s">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="AL243" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B244" t="s">
         <v>58</v>
       </c>
       <c r="C244" t="s">
-        <v>511</v>
+        <v>849</v>
       </c>
       <c r="D244" t="s">
-        <v>511</v>
+        <v>849</v>
       </c>
       <c r="E244" t="s">
-        <v>512</v>
+        <v>850</v>
       </c>
       <c r="F244" t="s">
-        <v>513</v>
+        <v>851</v>
       </c>
       <c r="G244" t="s">
         <v>0</v>
@@ -30295,16 +30502,16 @@
         <v>0</v>
       </c>
       <c r="K244">
-        <v>-1.58</v>
+        <v>-1.32</v>
       </c>
       <c r="L244" t="s">
         <v>54</v>
       </c>
       <c r="M244" s="1">
-        <v>45887</v>
+        <v>45890</v>
       </c>
       <c r="N244">
-        <v>7028615675</v>
+        <v>7034635211</v>
       </c>
       <c r="O244" t="s">
         <v>55</v>
@@ -30316,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="R244">
-        <v>187492038669</v>
+        <v>187473655879</v>
       </c>
       <c r="S244" t="s">
         <v>0</v>
@@ -30364,7 +30571,7 @@
         <v>0</v>
       </c>
       <c r="AH244">
-        <v>-1.58</v>
+        <v>-1.32</v>
       </c>
       <c r="AI244" t="s">
         <v>54</v>
@@ -30373,7 +30580,7 @@
         <v>0</v>
       </c>
       <c r="AK244" t="s">
-        <v>514</v>
+        <v>852</v>
       </c>
       <c r="AL244" t="s">
         <v>59</v>
@@ -30381,46 +30588,46 @@
     </row>
     <row r="245" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B245" t="s">
         <v>52</v>
       </c>
       <c r="C245" t="s">
-        <v>511</v>
+        <v>849</v>
       </c>
       <c r="D245" t="s">
-        <v>511</v>
+        <v>849</v>
       </c>
       <c r="E245" t="s">
-        <v>512</v>
+        <v>850</v>
       </c>
       <c r="F245" t="s">
-        <v>513</v>
+        <v>851</v>
       </c>
       <c r="G245" t="s">
-        <v>170</v>
+        <v>853</v>
       </c>
       <c r="H245" t="s">
-        <v>137</v>
+        <v>815</v>
       </c>
       <c r="I245" t="s">
-        <v>515</v>
+        <v>854</v>
       </c>
       <c r="J245" t="s">
         <v>53</v>
       </c>
       <c r="K245">
-        <v>9.01</v>
+        <v>8.58</v>
       </c>
       <c r="L245" t="s">
         <v>54</v>
       </c>
       <c r="M245" s="1">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="N245">
-        <v>7030244651</v>
+        <v>7034635211</v>
       </c>
       <c r="O245" t="s">
         <v>55</v>
@@ -30432,22 +30639,22 @@
         <v>0</v>
       </c>
       <c r="R245">
-        <v>187492038669</v>
+        <v>187473655879</v>
       </c>
       <c r="S245">
-        <v>10075017216303</v>
+        <v>10074870053414</v>
       </c>
       <c r="T245" t="s">
-        <v>480</v>
+        <v>165</v>
       </c>
       <c r="U245" t="s">
-        <v>481</v>
+        <v>166</v>
       </c>
       <c r="V245">
         <v>1</v>
       </c>
       <c r="W245">
-        <v>10.99</v>
+        <v>10.95</v>
       </c>
       <c r="X245">
         <v>0</v>
@@ -30465,13 +30672,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC245">
-        <v>-1.57</v>
+        <v>-1.43</v>
       </c>
       <c r="AD245">
         <v>-0.05</v>
       </c>
-      <c r="AE245" t="s">
-        <v>0</v>
+      <c r="AE245">
+        <v>-0.53</v>
       </c>
       <c r="AF245" t="s">
         <v>0</v>
@@ -30480,7 +30687,7 @@
         <v>0</v>
       </c>
       <c r="AH245">
-        <v>10.99</v>
+        <v>10.95</v>
       </c>
       <c r="AI245" t="s">
         <v>54</v>
@@ -30493,6 +30700,3022 @@
       </c>
       <c r="AL245" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B246" t="s">
+        <v>64</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>0</v>
+      </c>
+      <c r="F246" t="s">
+        <v>0</v>
+      </c>
+      <c r="G246" t="s">
+        <v>0</v>
+      </c>
+      <c r="H246" t="s">
+        <v>0</v>
+      </c>
+      <c r="I246" t="s">
+        <v>0</v>
+      </c>
+      <c r="J246" t="s">
+        <v>0</v>
+      </c>
+      <c r="K246">
+        <v>-101.77</v>
+      </c>
+      <c r="L246" t="s">
+        <v>54</v>
+      </c>
+      <c r="M246" t="s">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>7032308579</v>
+      </c>
+      <c r="O246" t="s">
+        <v>55</v>
+      </c>
+      <c r="P246" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>0</v>
+      </c>
+      <c r="R246" t="s">
+        <v>0</v>
+      </c>
+      <c r="S246" t="s">
+        <v>0</v>
+      </c>
+      <c r="T246" t="s">
+        <v>0</v>
+      </c>
+      <c r="U246" t="s">
+        <v>0</v>
+      </c>
+      <c r="V246" t="s">
+        <v>0</v>
+      </c>
+      <c r="W246" t="s">
+        <v>0</v>
+      </c>
+      <c r="X246" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA246" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH246">
+        <v>-101.77</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>855</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="247" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B247" t="s">
+        <v>58</v>
+      </c>
+      <c r="C247" t="s">
+        <v>713</v>
+      </c>
+      <c r="D247" t="s">
+        <v>713</v>
+      </c>
+      <c r="E247" t="s">
+        <v>714</v>
+      </c>
+      <c r="F247" t="s">
+        <v>715</v>
+      </c>
+      <c r="G247" t="s">
+        <v>0</v>
+      </c>
+      <c r="H247" t="s">
+        <v>0</v>
+      </c>
+      <c r="I247" t="s">
+        <v>0</v>
+      </c>
+      <c r="J247" t="s">
+        <v>0</v>
+      </c>
+      <c r="K247">
+        <v>-3.9</v>
+      </c>
+      <c r="L247" t="s">
+        <v>54</v>
+      </c>
+      <c r="M247" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N247">
+        <v>7032308579</v>
+      </c>
+      <c r="O247" t="s">
+        <v>55</v>
+      </c>
+      <c r="P247" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>187473659746</v>
+      </c>
+      <c r="S247" t="s">
+        <v>0</v>
+      </c>
+      <c r="T247" t="s">
+        <v>0</v>
+      </c>
+      <c r="U247" t="s">
+        <v>0</v>
+      </c>
+      <c r="V247" t="s">
+        <v>0</v>
+      </c>
+      <c r="W247" t="s">
+        <v>0</v>
+      </c>
+      <c r="X247" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA247" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH247">
+        <v>-3.9</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK247" t="s">
+        <v>716</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="248" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B248" t="s">
+        <v>52</v>
+      </c>
+      <c r="C248" t="s">
+        <v>713</v>
+      </c>
+      <c r="D248" t="s">
+        <v>713</v>
+      </c>
+      <c r="E248" t="s">
+        <v>714</v>
+      </c>
+      <c r="F248" t="s">
+        <v>715</v>
+      </c>
+      <c r="G248" t="s">
+        <v>717</v>
+      </c>
+      <c r="H248" t="s">
+        <v>502</v>
+      </c>
+      <c r="I248" t="s">
+        <v>718</v>
+      </c>
+      <c r="J248" t="s">
+        <v>53</v>
+      </c>
+      <c r="K248">
+        <v>21.81</v>
+      </c>
+      <c r="L248" t="s">
+        <v>54</v>
+      </c>
+      <c r="M248" s="1">
+        <v>45890</v>
+      </c>
+      <c r="N248">
+        <v>7034635211</v>
+      </c>
+      <c r="O248" t="s">
+        <v>55</v>
+      </c>
+      <c r="P248" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>187473659746</v>
+      </c>
+      <c r="S248">
+        <v>10074022616726</v>
+      </c>
+      <c r="T248" t="s">
+        <v>172</v>
+      </c>
+      <c r="U248" t="s">
+        <v>173</v>
+      </c>
+      <c r="V248">
+        <v>1</v>
+      </c>
+      <c r="W248">
+        <v>25.99</v>
+      </c>
+      <c r="X248">
+        <v>0</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA248" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB248">
+        <v>-0.36</v>
+      </c>
+      <c r="AC248">
+        <v>-3.71</v>
+      </c>
+      <c r="AD248">
+        <v>-0.11</v>
+      </c>
+      <c r="AE248" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF248" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH248">
+        <v>25.99</v>
+      </c>
+      <c r="AI248" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ248" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK248" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B249" t="s">
+        <v>58</v>
+      </c>
+      <c r="C249" t="s">
+        <v>719</v>
+      </c>
+      <c r="D249" t="s">
+        <v>719</v>
+      </c>
+      <c r="E249" t="s">
+        <v>720</v>
+      </c>
+      <c r="F249" t="s">
+        <v>721</v>
+      </c>
+      <c r="G249" t="s">
+        <v>0</v>
+      </c>
+      <c r="H249" t="s">
+        <v>0</v>
+      </c>
+      <c r="I249" t="s">
+        <v>0</v>
+      </c>
+      <c r="J249" t="s">
+        <v>0</v>
+      </c>
+      <c r="K249">
+        <v>-2.16</v>
+      </c>
+      <c r="L249" t="s">
+        <v>54</v>
+      </c>
+      <c r="M249" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N249">
+        <v>7032308579</v>
+      </c>
+      <c r="O249" t="s">
+        <v>55</v>
+      </c>
+      <c r="P249" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>187486331471</v>
+      </c>
+      <c r="S249" t="s">
+        <v>0</v>
+      </c>
+      <c r="T249" t="s">
+        <v>0</v>
+      </c>
+      <c r="U249" t="s">
+        <v>0</v>
+      </c>
+      <c r="V249" t="s">
+        <v>0</v>
+      </c>
+      <c r="W249" t="s">
+        <v>0</v>
+      </c>
+      <c r="X249" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA249" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH249">
+        <v>-2.16</v>
+      </c>
+      <c r="AI249" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ249" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK249" t="s">
+        <v>722</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="250" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B250" t="s">
+        <v>52</v>
+      </c>
+      <c r="C250" t="s">
+        <v>719</v>
+      </c>
+      <c r="D250" t="s">
+        <v>719</v>
+      </c>
+      <c r="E250" t="s">
+        <v>720</v>
+      </c>
+      <c r="F250" t="s">
+        <v>721</v>
+      </c>
+      <c r="G250" t="s">
+        <v>723</v>
+      </c>
+      <c r="H250" t="s">
+        <v>137</v>
+      </c>
+      <c r="I250" t="s">
+        <v>724</v>
+      </c>
+      <c r="J250" t="s">
+        <v>53</v>
+      </c>
+      <c r="K250">
+        <v>12.79</v>
+      </c>
+      <c r="L250" t="s">
+        <v>54</v>
+      </c>
+      <c r="M250" s="1">
+        <v>45890</v>
+      </c>
+      <c r="N250">
+        <v>7034635211</v>
+      </c>
+      <c r="O250" t="s">
+        <v>55</v>
+      </c>
+      <c r="P250" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>187486331471</v>
+      </c>
+      <c r="S250">
+        <v>10074866650016</v>
+      </c>
+      <c r="T250" t="s">
+        <v>725</v>
+      </c>
+      <c r="U250" t="s">
+        <v>726</v>
+      </c>
+      <c r="V250">
+        <v>1</v>
+      </c>
+      <c r="W250">
+        <v>14.99</v>
+      </c>
+      <c r="X250">
+        <v>0</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA250" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB250">
+        <v>-0.36</v>
+      </c>
+      <c r="AC250">
+        <v>-1.78</v>
+      </c>
+      <c r="AD250">
+        <v>-0.06</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF250" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH250">
+        <v>14.99</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B251" t="s">
+        <v>58</v>
+      </c>
+      <c r="C251" t="s">
+        <v>727</v>
+      </c>
+      <c r="D251" t="s">
+        <v>727</v>
+      </c>
+      <c r="E251" t="s">
+        <v>728</v>
+      </c>
+      <c r="F251" t="s">
+        <v>729</v>
+      </c>
+      <c r="G251" t="s">
+        <v>0</v>
+      </c>
+      <c r="H251" t="s">
+        <v>0</v>
+      </c>
+      <c r="I251" t="s">
+        <v>0</v>
+      </c>
+      <c r="J251" t="s">
+        <v>0</v>
+      </c>
+      <c r="K251">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="L251" t="s">
+        <v>54</v>
+      </c>
+      <c r="M251" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N251">
+        <v>7032308579</v>
+      </c>
+      <c r="O251" t="s">
+        <v>55</v>
+      </c>
+      <c r="P251" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>0</v>
+      </c>
+      <c r="R251">
+        <v>187499629184</v>
+      </c>
+      <c r="S251" t="s">
+        <v>0</v>
+      </c>
+      <c r="T251" t="s">
+        <v>0</v>
+      </c>
+      <c r="U251" t="s">
+        <v>0</v>
+      </c>
+      <c r="V251" t="s">
+        <v>0</v>
+      </c>
+      <c r="W251" t="s">
+        <v>0</v>
+      </c>
+      <c r="X251" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA251" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH251">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>730</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="252" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B252" t="s">
+        <v>52</v>
+      </c>
+      <c r="C252" t="s">
+        <v>727</v>
+      </c>
+      <c r="D252" t="s">
+        <v>727</v>
+      </c>
+      <c r="E252" t="s">
+        <v>728</v>
+      </c>
+      <c r="F252" t="s">
+        <v>729</v>
+      </c>
+      <c r="G252" t="s">
+        <v>731</v>
+      </c>
+      <c r="H252" t="s">
+        <v>732</v>
+      </c>
+      <c r="I252" t="s">
+        <v>733</v>
+      </c>
+      <c r="J252" t="s">
+        <v>53</v>
+      </c>
+      <c r="K252">
+        <v>17.59</v>
+      </c>
+      <c r="L252" t="s">
+        <v>54</v>
+      </c>
+      <c r="M252" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N252">
+        <v>7032308579</v>
+      </c>
+      <c r="O252" t="s">
+        <v>55</v>
+      </c>
+      <c r="P252" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>187499629184</v>
+      </c>
+      <c r="S252">
+        <v>10074179891520</v>
+      </c>
+      <c r="T252" t="s">
+        <v>57</v>
+      </c>
+      <c r="U252" t="s">
+        <v>228</v>
+      </c>
+      <c r="V252">
+        <v>1</v>
+      </c>
+      <c r="W252">
+        <v>21.99</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA252" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB252">
+        <v>-0.36</v>
+      </c>
+      <c r="AC252">
+        <v>-2.88</v>
+      </c>
+      <c r="AD252">
+        <v>-0.1</v>
+      </c>
+      <c r="AE252">
+        <v>-1.06</v>
+      </c>
+      <c r="AF252" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH252">
+        <v>21.99</v>
+      </c>
+      <c r="AI252" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ252" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK252" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B253" t="s">
+        <v>58</v>
+      </c>
+      <c r="C253" t="s">
+        <v>734</v>
+      </c>
+      <c r="D253" t="s">
+        <v>734</v>
+      </c>
+      <c r="E253" t="s">
+        <v>735</v>
+      </c>
+      <c r="F253" t="s">
+        <v>736</v>
+      </c>
+      <c r="G253" t="s">
+        <v>0</v>
+      </c>
+      <c r="H253" t="s">
+        <v>0</v>
+      </c>
+      <c r="I253" t="s">
+        <v>0</v>
+      </c>
+      <c r="J253" t="s">
+        <v>0</v>
+      </c>
+      <c r="K253">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="L253" t="s">
+        <v>54</v>
+      </c>
+      <c r="M253" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N253">
+        <v>7032308579</v>
+      </c>
+      <c r="O253" t="s">
+        <v>55</v>
+      </c>
+      <c r="P253" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>187499629184</v>
+      </c>
+      <c r="S253" t="s">
+        <v>0</v>
+      </c>
+      <c r="T253" t="s">
+        <v>0</v>
+      </c>
+      <c r="U253" t="s">
+        <v>0</v>
+      </c>
+      <c r="V253" t="s">
+        <v>0</v>
+      </c>
+      <c r="W253" t="s">
+        <v>0</v>
+      </c>
+      <c r="X253" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA253" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH253">
+        <v>-2.5299999999999998</v>
+      </c>
+      <c r="AI253" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK253" t="s">
+        <v>737</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B254" t="s">
+        <v>52</v>
+      </c>
+      <c r="C254" t="s">
+        <v>734</v>
+      </c>
+      <c r="D254" t="s">
+        <v>734</v>
+      </c>
+      <c r="E254" t="s">
+        <v>735</v>
+      </c>
+      <c r="F254" t="s">
+        <v>736</v>
+      </c>
+      <c r="G254" t="s">
+        <v>738</v>
+      </c>
+      <c r="H254" t="s">
+        <v>609</v>
+      </c>
+      <c r="I254" t="s">
+        <v>739</v>
+      </c>
+      <c r="J254" t="s">
+        <v>53</v>
+      </c>
+      <c r="K254">
+        <v>17.59</v>
+      </c>
+      <c r="L254" t="s">
+        <v>54</v>
+      </c>
+      <c r="M254" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N254">
+        <v>7032308579</v>
+      </c>
+      <c r="O254" t="s">
+        <v>55</v>
+      </c>
+      <c r="P254" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>187499629184</v>
+      </c>
+      <c r="S254">
+        <v>10079286565807</v>
+      </c>
+      <c r="T254" t="s">
+        <v>57</v>
+      </c>
+      <c r="U254" t="s">
+        <v>228</v>
+      </c>
+      <c r="V254">
+        <v>1</v>
+      </c>
+      <c r="W254">
+        <v>21.99</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA254" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB254">
+        <v>-0.36</v>
+      </c>
+      <c r="AC254">
+        <v>-2.88</v>
+      </c>
+      <c r="AD254">
+        <v>-0.1</v>
+      </c>
+      <c r="AE254">
+        <v>-1.06</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH254">
+        <v>21.99</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B255" t="s">
+        <v>58</v>
+      </c>
+      <c r="C255" t="s">
+        <v>740</v>
+      </c>
+      <c r="D255" t="s">
+        <v>740</v>
+      </c>
+      <c r="E255" t="s">
+        <v>741</v>
+      </c>
+      <c r="F255" t="s">
+        <v>742</v>
+      </c>
+      <c r="G255" t="s">
+        <v>0</v>
+      </c>
+      <c r="H255" t="s">
+        <v>0</v>
+      </c>
+      <c r="I255" t="s">
+        <v>0</v>
+      </c>
+      <c r="J255" t="s">
+        <v>0</v>
+      </c>
+      <c r="K255">
+        <v>-0.91</v>
+      </c>
+      <c r="L255" t="s">
+        <v>54</v>
+      </c>
+      <c r="M255" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N255">
+        <v>7032308579</v>
+      </c>
+      <c r="O255" t="s">
+        <v>55</v>
+      </c>
+      <c r="P255" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>0</v>
+      </c>
+      <c r="R255">
+        <v>187480578811</v>
+      </c>
+      <c r="S255" t="s">
+        <v>0</v>
+      </c>
+      <c r="T255" t="s">
+        <v>0</v>
+      </c>
+      <c r="U255" t="s">
+        <v>0</v>
+      </c>
+      <c r="V255" t="s">
+        <v>0</v>
+      </c>
+      <c r="W255" t="s">
+        <v>0</v>
+      </c>
+      <c r="X255" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA255" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH255">
+        <v>-0.91</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>743</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B256" t="s">
+        <v>52</v>
+      </c>
+      <c r="C256" t="s">
+        <v>740</v>
+      </c>
+      <c r="D256" t="s">
+        <v>740</v>
+      </c>
+      <c r="E256" t="s">
+        <v>741</v>
+      </c>
+      <c r="F256" t="s">
+        <v>742</v>
+      </c>
+      <c r="G256" t="s">
+        <v>744</v>
+      </c>
+      <c r="H256" t="s">
+        <v>61</v>
+      </c>
+      <c r="I256" t="s">
+        <v>745</v>
+      </c>
+      <c r="J256" t="s">
+        <v>53</v>
+      </c>
+      <c r="K256">
+        <v>7.1</v>
+      </c>
+      <c r="L256" t="s">
+        <v>54</v>
+      </c>
+      <c r="M256" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N256">
+        <v>7032308579</v>
+      </c>
+      <c r="O256" t="s">
+        <v>55</v>
+      </c>
+      <c r="P256" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>0</v>
+      </c>
+      <c r="R256">
+        <v>187480578811</v>
+      </c>
+      <c r="S256">
+        <v>10074407472805</v>
+      </c>
+      <c r="T256" t="s">
+        <v>280</v>
+      </c>
+      <c r="U256" t="s">
+        <v>547</v>
+      </c>
+      <c r="V256">
+        <v>1</v>
+      </c>
+      <c r="W256">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="X256">
+        <v>0</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA256" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB256">
+        <v>-0.12</v>
+      </c>
+      <c r="AC256">
+        <v>-1.21</v>
+      </c>
+      <c r="AD256">
+        <v>-0.04</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF256" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH256">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B257" t="s">
+        <v>52</v>
+      </c>
+      <c r="C257" t="s">
+        <v>746</v>
+      </c>
+      <c r="D257" t="s">
+        <v>746</v>
+      </c>
+      <c r="E257" t="s">
+        <v>747</v>
+      </c>
+      <c r="F257" t="s">
+        <v>748</v>
+      </c>
+      <c r="G257" t="s">
+        <v>749</v>
+      </c>
+      <c r="H257" t="s">
+        <v>732</v>
+      </c>
+      <c r="I257" t="s">
+        <v>750</v>
+      </c>
+      <c r="J257" t="s">
+        <v>53</v>
+      </c>
+      <c r="K257">
+        <v>6.67</v>
+      </c>
+      <c r="L257" t="s">
+        <v>54</v>
+      </c>
+      <c r="M257" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N257">
+        <v>7032308579</v>
+      </c>
+      <c r="O257" t="s">
+        <v>55</v>
+      </c>
+      <c r="P257" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>0</v>
+      </c>
+      <c r="R257">
+        <v>187483121488</v>
+      </c>
+      <c r="S257">
+        <v>10079284042407</v>
+      </c>
+      <c r="T257" t="s">
+        <v>751</v>
+      </c>
+      <c r="U257" t="s">
+        <v>547</v>
+      </c>
+      <c r="V257">
+        <v>1</v>
+      </c>
+      <c r="W257">
+        <v>7.97</v>
+      </c>
+      <c r="X257">
+        <v>0</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA257" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB257">
+        <v>-0.12</v>
+      </c>
+      <c r="AC257">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="AD257">
+        <v>-0.04</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH257">
+        <v>7.97</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B258" t="s">
+        <v>58</v>
+      </c>
+      <c r="C258" t="s">
+        <v>752</v>
+      </c>
+      <c r="D258" t="s">
+        <v>752</v>
+      </c>
+      <c r="E258" t="s">
+        <v>753</v>
+      </c>
+      <c r="F258" t="s">
+        <v>754</v>
+      </c>
+      <c r="G258" t="s">
+        <v>0</v>
+      </c>
+      <c r="H258" t="s">
+        <v>0</v>
+      </c>
+      <c r="I258" t="s">
+        <v>0</v>
+      </c>
+      <c r="J258" t="s">
+        <v>0</v>
+      </c>
+      <c r="K258">
+        <v>-0.91</v>
+      </c>
+      <c r="L258" t="s">
+        <v>54</v>
+      </c>
+      <c r="M258" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N258">
+        <v>7032308579</v>
+      </c>
+      <c r="O258" t="s">
+        <v>55</v>
+      </c>
+      <c r="P258" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>0</v>
+      </c>
+      <c r="R258">
+        <v>187480578811</v>
+      </c>
+      <c r="S258" t="s">
+        <v>0</v>
+      </c>
+      <c r="T258" t="s">
+        <v>0</v>
+      </c>
+      <c r="U258" t="s">
+        <v>0</v>
+      </c>
+      <c r="V258" t="s">
+        <v>0</v>
+      </c>
+      <c r="W258" t="s">
+        <v>0</v>
+      </c>
+      <c r="X258" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA258" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH258">
+        <v>-0.91</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>755</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="259" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B259" t="s">
+        <v>52</v>
+      </c>
+      <c r="C259" t="s">
+        <v>752</v>
+      </c>
+      <c r="D259" t="s">
+        <v>752</v>
+      </c>
+      <c r="E259" t="s">
+        <v>753</v>
+      </c>
+      <c r="F259" t="s">
+        <v>754</v>
+      </c>
+      <c r="G259" t="s">
+        <v>756</v>
+      </c>
+      <c r="H259" t="s">
+        <v>163</v>
+      </c>
+      <c r="I259" t="s">
+        <v>757</v>
+      </c>
+      <c r="J259" t="s">
+        <v>53</v>
+      </c>
+      <c r="K259">
+        <v>7.08</v>
+      </c>
+      <c r="L259" t="s">
+        <v>54</v>
+      </c>
+      <c r="M259" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N259">
+        <v>7032308579</v>
+      </c>
+      <c r="O259" t="s">
+        <v>55</v>
+      </c>
+      <c r="P259" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>0</v>
+      </c>
+      <c r="R259">
+        <v>187480578811</v>
+      </c>
+      <c r="S259">
+        <v>10074267869001</v>
+      </c>
+      <c r="T259" t="s">
+        <v>280</v>
+      </c>
+      <c r="U259" t="s">
+        <v>281</v>
+      </c>
+      <c r="V259">
+        <v>1</v>
+      </c>
+      <c r="W259">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="X259">
+        <v>0</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA259" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB259">
+        <v>-0.12</v>
+      </c>
+      <c r="AC259">
+        <v>-1.21</v>
+      </c>
+      <c r="AD259">
+        <v>-0.04</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF259" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH259">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ259" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK259" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B260" t="s">
+        <v>58</v>
+      </c>
+      <c r="C260" t="s">
+        <v>640</v>
+      </c>
+      <c r="D260" t="s">
+        <v>640</v>
+      </c>
+      <c r="E260" t="s">
+        <v>641</v>
+      </c>
+      <c r="F260" t="s">
+        <v>642</v>
+      </c>
+      <c r="G260" t="s">
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>0</v>
+      </c>
+      <c r="I260" t="s">
+        <v>0</v>
+      </c>
+      <c r="J260" t="s">
+        <v>0</v>
+      </c>
+      <c r="K260">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="L260" t="s">
+        <v>54</v>
+      </c>
+      <c r="M260" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N260">
+        <v>7032308579</v>
+      </c>
+      <c r="O260" t="s">
+        <v>55</v>
+      </c>
+      <c r="P260" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>0</v>
+      </c>
+      <c r="R260">
+        <v>187499629184</v>
+      </c>
+      <c r="S260" t="s">
+        <v>0</v>
+      </c>
+      <c r="T260" t="s">
+        <v>0</v>
+      </c>
+      <c r="U260" t="s">
+        <v>0</v>
+      </c>
+      <c r="V260" t="s">
+        <v>0</v>
+      </c>
+      <c r="W260" t="s">
+        <v>0</v>
+      </c>
+      <c r="X260" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA260" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH260">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ260" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK260" t="s">
+        <v>758</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B261" t="s">
+        <v>58</v>
+      </c>
+      <c r="C261" t="s">
+        <v>759</v>
+      </c>
+      <c r="D261" t="s">
+        <v>759</v>
+      </c>
+      <c r="E261" t="s">
+        <v>760</v>
+      </c>
+      <c r="F261" t="s">
+        <v>761</v>
+      </c>
+      <c r="G261" t="s">
+        <v>0</v>
+      </c>
+      <c r="H261" t="s">
+        <v>0</v>
+      </c>
+      <c r="I261" t="s">
+        <v>0</v>
+      </c>
+      <c r="J261" t="s">
+        <v>0</v>
+      </c>
+      <c r="K261">
+        <v>-3.07</v>
+      </c>
+      <c r="L261" t="s">
+        <v>54</v>
+      </c>
+      <c r="M261" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N261">
+        <v>7032308579</v>
+      </c>
+      <c r="O261" t="s">
+        <v>55</v>
+      </c>
+      <c r="P261" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>0</v>
+      </c>
+      <c r="R261">
+        <v>187483035573</v>
+      </c>
+      <c r="S261" t="s">
+        <v>0</v>
+      </c>
+      <c r="T261" t="s">
+        <v>0</v>
+      </c>
+      <c r="U261" t="s">
+        <v>0</v>
+      </c>
+      <c r="V261" t="s">
+        <v>0</v>
+      </c>
+      <c r="W261" t="s">
+        <v>0</v>
+      </c>
+      <c r="X261" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA261" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH261">
+        <v>-3.07</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>762</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="262" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B262" t="s">
+        <v>52</v>
+      </c>
+      <c r="C262" t="s">
+        <v>759</v>
+      </c>
+      <c r="D262" t="s">
+        <v>759</v>
+      </c>
+      <c r="E262" t="s">
+        <v>760</v>
+      </c>
+      <c r="F262" t="s">
+        <v>761</v>
+      </c>
+      <c r="G262" t="s">
+        <v>763</v>
+      </c>
+      <c r="H262" t="s">
+        <v>249</v>
+      </c>
+      <c r="I262" t="s">
+        <v>764</v>
+      </c>
+      <c r="J262" t="s">
+        <v>53</v>
+      </c>
+      <c r="K262">
+        <v>18.36</v>
+      </c>
+      <c r="L262" t="s">
+        <v>54</v>
+      </c>
+      <c r="M262" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N262">
+        <v>7032308579</v>
+      </c>
+      <c r="O262" t="s">
+        <v>55</v>
+      </c>
+      <c r="P262" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>0</v>
+      </c>
+      <c r="R262">
+        <v>187483035573</v>
+      </c>
+      <c r="S262">
+        <v>10074462645802</v>
+      </c>
+      <c r="T262" t="s">
+        <v>371</v>
+      </c>
+      <c r="U262" t="s">
+        <v>372</v>
+      </c>
+      <c r="V262">
+        <v>1</v>
+      </c>
+      <c r="W262">
+        <v>20.49</v>
+      </c>
+      <c r="X262">
+        <v>0</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA262" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB262">
+        <v>-0.36</v>
+      </c>
+      <c r="AC262">
+        <v>-1.69</v>
+      </c>
+      <c r="AD262">
+        <v>-0.08</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH262">
+        <v>20.49</v>
+      </c>
+      <c r="AI262" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ262" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK262" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B263" t="s">
+        <v>58</v>
+      </c>
+      <c r="C263" t="s">
+        <v>765</v>
+      </c>
+      <c r="D263" t="s">
+        <v>765</v>
+      </c>
+      <c r="E263" t="s">
+        <v>766</v>
+      </c>
+      <c r="F263" t="s">
+        <v>767</v>
+      </c>
+      <c r="G263" t="s">
+        <v>0</v>
+      </c>
+      <c r="H263" t="s">
+        <v>0</v>
+      </c>
+      <c r="I263" t="s">
+        <v>0</v>
+      </c>
+      <c r="J263" t="s">
+        <v>0</v>
+      </c>
+      <c r="K263">
+        <v>-2.77</v>
+      </c>
+      <c r="L263" t="s">
+        <v>54</v>
+      </c>
+      <c r="M263" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N263">
+        <v>7032308579</v>
+      </c>
+      <c r="O263" t="s">
+        <v>55</v>
+      </c>
+      <c r="P263" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>0</v>
+      </c>
+      <c r="R263">
+        <v>186905975156</v>
+      </c>
+      <c r="S263" t="s">
+        <v>0</v>
+      </c>
+      <c r="T263" t="s">
+        <v>0</v>
+      </c>
+      <c r="U263" t="s">
+        <v>0</v>
+      </c>
+      <c r="V263" t="s">
+        <v>0</v>
+      </c>
+      <c r="W263" t="s">
+        <v>0</v>
+      </c>
+      <c r="X263" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA263" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH263">
+        <v>-2.77</v>
+      </c>
+      <c r="AI263" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ263" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK263" t="s">
+        <v>768</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B264" t="s">
+        <v>52</v>
+      </c>
+      <c r="C264" t="s">
+        <v>765</v>
+      </c>
+      <c r="D264" t="s">
+        <v>765</v>
+      </c>
+      <c r="E264" t="s">
+        <v>766</v>
+      </c>
+      <c r="F264" t="s">
+        <v>767</v>
+      </c>
+      <c r="G264" t="s">
+        <v>769</v>
+      </c>
+      <c r="H264" t="s">
+        <v>770</v>
+      </c>
+      <c r="I264" t="s">
+        <v>771</v>
+      </c>
+      <c r="J264" t="s">
+        <v>53</v>
+      </c>
+      <c r="K264">
+        <v>16.52</v>
+      </c>
+      <c r="L264" t="s">
+        <v>54</v>
+      </c>
+      <c r="M264" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N264">
+        <v>7032308579</v>
+      </c>
+      <c r="O264" t="s">
+        <v>55</v>
+      </c>
+      <c r="P264" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>0</v>
+      </c>
+      <c r="R264">
+        <v>186905975156</v>
+      </c>
+      <c r="S264">
+        <v>10076157507813</v>
+      </c>
+      <c r="T264" t="s">
+        <v>265</v>
+      </c>
+      <c r="U264" t="s">
+        <v>772</v>
+      </c>
+      <c r="V264">
+        <v>1</v>
+      </c>
+      <c r="W264">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="X264">
+        <v>0</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA264" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB264">
+        <v>-0.36</v>
+      </c>
+      <c r="AC264">
+        <v>-1.54</v>
+      </c>
+      <c r="AD264">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH264">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B265" t="s">
+        <v>58</v>
+      </c>
+      <c r="C265" t="s">
+        <v>773</v>
+      </c>
+      <c r="D265" t="s">
+        <v>773</v>
+      </c>
+      <c r="E265" t="s">
+        <v>774</v>
+      </c>
+      <c r="F265" t="s">
+        <v>775</v>
+      </c>
+      <c r="G265" t="s">
+        <v>0</v>
+      </c>
+      <c r="H265" t="s">
+        <v>0</v>
+      </c>
+      <c r="I265" t="s">
+        <v>0</v>
+      </c>
+      <c r="J265" t="s">
+        <v>0</v>
+      </c>
+      <c r="K265">
+        <v>-2.44</v>
+      </c>
+      <c r="L265" t="s">
+        <v>54</v>
+      </c>
+      <c r="M265" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N265">
+        <v>7032308579</v>
+      </c>
+      <c r="O265" t="s">
+        <v>55</v>
+      </c>
+      <c r="P265" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>0</v>
+      </c>
+      <c r="R265">
+        <v>187483325602</v>
+      </c>
+      <c r="S265" t="s">
+        <v>0</v>
+      </c>
+      <c r="T265" t="s">
+        <v>0</v>
+      </c>
+      <c r="U265" t="s">
+        <v>0</v>
+      </c>
+      <c r="V265" t="s">
+        <v>0</v>
+      </c>
+      <c r="W265" t="s">
+        <v>0</v>
+      </c>
+      <c r="X265" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA265" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH265">
+        <v>-2.44</v>
+      </c>
+      <c r="AI265" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ265" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK265" t="s">
+        <v>776</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="266" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B266" t="s">
+        <v>52</v>
+      </c>
+      <c r="C266" t="s">
+        <v>773</v>
+      </c>
+      <c r="D266" t="s">
+        <v>773</v>
+      </c>
+      <c r="E266" t="s">
+        <v>774</v>
+      </c>
+      <c r="F266" t="s">
+        <v>775</v>
+      </c>
+      <c r="G266" t="s">
+        <v>777</v>
+      </c>
+      <c r="H266" t="s">
+        <v>137</v>
+      </c>
+      <c r="I266" t="s">
+        <v>778</v>
+      </c>
+      <c r="J266" t="s">
+        <v>53</v>
+      </c>
+      <c r="K266">
+        <v>13.48</v>
+      </c>
+      <c r="L266" t="s">
+        <v>54</v>
+      </c>
+      <c r="M266" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N266">
+        <v>7032308579</v>
+      </c>
+      <c r="O266" t="s">
+        <v>55</v>
+      </c>
+      <c r="P266" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>0</v>
+      </c>
+      <c r="R266">
+        <v>187483325602</v>
+      </c>
+      <c r="S266">
+        <v>10074177219124</v>
+      </c>
+      <c r="T266" t="s">
+        <v>652</v>
+      </c>
+      <c r="U266" t="s">
+        <v>653</v>
+      </c>
+      <c r="V266">
+        <v>1</v>
+      </c>
+      <c r="W266">
+        <v>16.95</v>
+      </c>
+      <c r="X266">
+        <v>0</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA266" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB266">
+        <v>-0.36</v>
+      </c>
+      <c r="AC266">
+        <v>-2.2200000000000002</v>
+      </c>
+      <c r="AD266">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE266">
+        <v>-0.82</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH266">
+        <v>16.95</v>
+      </c>
+      <c r="AI266" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ266" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK266" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B267" t="s">
+        <v>58</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267" t="s">
+        <v>0</v>
+      </c>
+      <c r="E267" t="s">
+        <v>0</v>
+      </c>
+      <c r="F267" t="s">
+        <v>0</v>
+      </c>
+      <c r="G267" t="s">
+        <v>0</v>
+      </c>
+      <c r="H267" t="s">
+        <v>0</v>
+      </c>
+      <c r="I267" t="s">
+        <v>0</v>
+      </c>
+      <c r="J267" t="s">
+        <v>0</v>
+      </c>
+      <c r="K267">
+        <v>-0.12</v>
+      </c>
+      <c r="L267" t="s">
+        <v>54</v>
+      </c>
+      <c r="M267" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N267">
+        <v>7032308579</v>
+      </c>
+      <c r="O267" t="s">
+        <v>55</v>
+      </c>
+      <c r="P267" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>0</v>
+      </c>
+      <c r="R267">
+        <v>187501688808</v>
+      </c>
+      <c r="S267" t="s">
+        <v>0</v>
+      </c>
+      <c r="T267" t="s">
+        <v>0</v>
+      </c>
+      <c r="U267" t="s">
+        <v>0</v>
+      </c>
+      <c r="V267" t="s">
+        <v>0</v>
+      </c>
+      <c r="W267" t="s">
+        <v>0</v>
+      </c>
+      <c r="X267" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA267" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH267">
+        <v>-0.12</v>
+      </c>
+      <c r="AI267" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ267" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK267" t="s">
+        <v>779</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="268" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B268" t="s">
+        <v>58</v>
+      </c>
+      <c r="C268" t="s">
+        <v>780</v>
+      </c>
+      <c r="D268" t="s">
+        <v>780</v>
+      </c>
+      <c r="E268" t="s">
+        <v>781</v>
+      </c>
+      <c r="F268" t="s">
+        <v>782</v>
+      </c>
+      <c r="G268" t="s">
+        <v>0</v>
+      </c>
+      <c r="H268" t="s">
+        <v>0</v>
+      </c>
+      <c r="I268" t="s">
+        <v>0</v>
+      </c>
+      <c r="J268" t="s">
+        <v>0</v>
+      </c>
+      <c r="K268">
+        <v>-2.39</v>
+      </c>
+      <c r="L268" t="s">
+        <v>54</v>
+      </c>
+      <c r="M268" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N268">
+        <v>7032308579</v>
+      </c>
+      <c r="O268" t="s">
+        <v>55</v>
+      </c>
+      <c r="P268" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>0</v>
+      </c>
+      <c r="R268">
+        <v>187473651729</v>
+      </c>
+      <c r="S268" t="s">
+        <v>0</v>
+      </c>
+      <c r="T268" t="s">
+        <v>0</v>
+      </c>
+      <c r="U268" t="s">
+        <v>0</v>
+      </c>
+      <c r="V268" t="s">
+        <v>0</v>
+      </c>
+      <c r="W268" t="s">
+        <v>0</v>
+      </c>
+      <c r="X268" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA268" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH268">
+        <v>-2.39</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ268" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK268" t="s">
+        <v>783</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="269" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B269" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269" t="s">
+        <v>780</v>
+      </c>
+      <c r="D269" t="s">
+        <v>780</v>
+      </c>
+      <c r="E269" t="s">
+        <v>781</v>
+      </c>
+      <c r="F269" t="s">
+        <v>782</v>
+      </c>
+      <c r="G269" t="s">
+        <v>784</v>
+      </c>
+      <c r="H269" t="s">
+        <v>785</v>
+      </c>
+      <c r="I269" t="s">
+        <v>786</v>
+      </c>
+      <c r="J269" t="s">
+        <v>53</v>
+      </c>
+      <c r="K269">
+        <v>14.81</v>
+      </c>
+      <c r="L269" t="s">
+        <v>54</v>
+      </c>
+      <c r="M269" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N269">
+        <v>7032308579</v>
+      </c>
+      <c r="O269" t="s">
+        <v>55</v>
+      </c>
+      <c r="P269" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>0</v>
+      </c>
+      <c r="R269">
+        <v>187473651729</v>
+      </c>
+      <c r="S269">
+        <v>10074255661601</v>
+      </c>
+      <c r="T269" t="s">
+        <v>74</v>
+      </c>
+      <c r="U269" t="s">
+        <v>75</v>
+      </c>
+      <c r="V269">
+        <v>1</v>
+      </c>
+      <c r="W269">
+        <v>16.62</v>
+      </c>
+      <c r="X269">
+        <v>0</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA269" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB269">
+        <v>-0.36</v>
+      </c>
+      <c r="AC269">
+        <v>-1.38</v>
+      </c>
+      <c r="AD269">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH269">
+        <v>16.62</v>
+      </c>
+      <c r="AI269" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ269" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK269" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B270" t="s">
+        <v>52</v>
+      </c>
+      <c r="C270" t="s">
+        <v>640</v>
+      </c>
+      <c r="D270" t="s">
+        <v>640</v>
+      </c>
+      <c r="E270" t="s">
+        <v>641</v>
+      </c>
+      <c r="F270" t="s">
+        <v>642</v>
+      </c>
+      <c r="G270" t="s">
+        <v>643</v>
+      </c>
+      <c r="H270" t="s">
+        <v>296</v>
+      </c>
+      <c r="I270" t="s">
+        <v>644</v>
+      </c>
+      <c r="J270" t="s">
+        <v>53</v>
+      </c>
+      <c r="K270">
+        <v>7.39</v>
+      </c>
+      <c r="L270" t="s">
+        <v>54</v>
+      </c>
+      <c r="M270" s="1">
+        <v>45889</v>
+      </c>
+      <c r="N270">
+        <v>7032308579</v>
+      </c>
+      <c r="O270" t="s">
+        <v>55</v>
+      </c>
+      <c r="P270" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>0</v>
+      </c>
+      <c r="R270">
+        <v>187499629184</v>
+      </c>
+      <c r="S270">
+        <v>10074390710905</v>
+      </c>
+      <c r="T270" t="s">
+        <v>57</v>
+      </c>
+      <c r="U270" t="s">
+        <v>489</v>
+      </c>
+      <c r="V270">
+        <v>1</v>
+      </c>
+      <c r="W270">
+        <v>9.49</v>
+      </c>
+      <c r="X270">
+        <v>0</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA270" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB270">
+        <v>-0.36</v>
+      </c>
+      <c r="AC270">
+        <v>-1.24</v>
+      </c>
+      <c r="AD270">
+        <v>-0.04</v>
+      </c>
+      <c r="AE270">
+        <v>-0.46</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG270" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH270">
+        <v>9.49</v>
+      </c>
+      <c r="AI270" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ270" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK270" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL270" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>45888</v>
+      </c>
+      <c r="B271" t="s">
+        <v>64</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271" t="s">
+        <v>0</v>
+      </c>
+      <c r="E271" t="s">
+        <v>0</v>
+      </c>
+      <c r="F271" t="s">
+        <v>0</v>
+      </c>
+      <c r="G271" t="s">
+        <v>0</v>
+      </c>
+      <c r="H271" t="s">
+        <v>0</v>
+      </c>
+      <c r="I271" t="s">
+        <v>0</v>
+      </c>
+      <c r="J271" t="s">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>-247.68</v>
+      </c>
+      <c r="L271" t="s">
+        <v>54</v>
+      </c>
+      <c r="M271" t="s">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>7030244651</v>
+      </c>
+      <c r="O271" t="s">
+        <v>55</v>
+      </c>
+      <c r="P271" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>0</v>
+      </c>
+      <c r="R271" t="s">
+        <v>0</v>
+      </c>
+      <c r="S271" t="s">
+        <v>0</v>
+      </c>
+      <c r="T271" t="s">
+        <v>0</v>
+      </c>
+      <c r="U271" t="s">
+        <v>0</v>
+      </c>
+      <c r="V271" t="s">
+        <v>0</v>
+      </c>
+      <c r="W271" t="s">
+        <v>0</v>
+      </c>
+      <c r="X271" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA271" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH271">
+        <v>-247.68</v>
+      </c>
+      <c r="AI271" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ271" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK271" t="s">
+        <v>645</v>
+      </c>
+      <c r="AL271" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E781DA4-FC05-4A0B-9806-6870C1B912DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A07469B-3367-4FBD-BBAA-B56C18E9D8DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2835,6 +2835,732 @@
     <t>FEE-9323903419_42</t>
   </si>
   <si>
+    <t>Bank reference ID US7YSNTEIWJDJ68</t>
+  </si>
+  <si>
+    <t>15-13488-94692</t>
+  </si>
+  <si>
+    <t>mark9771blue</t>
+  </si>
+  <si>
+    <t>Mark Lloyd</t>
+  </si>
+  <si>
+    <t>FEE-6624202030117_11</t>
+  </si>
+  <si>
+    <t>Fincham</t>
+  </si>
+  <si>
+    <t>PE33 9ER</t>
+  </si>
+  <si>
+    <t>09-13496-95491</t>
+  </si>
+  <si>
+    <t>baby-9175</t>
+  </si>
+  <si>
+    <t>abdual khan</t>
+  </si>
+  <si>
+    <t>FEE-6624188936517_11</t>
+  </si>
+  <si>
+    <t>Bracknell</t>
+  </si>
+  <si>
+    <t>Berkshire</t>
+  </si>
+  <si>
+    <t>RG42 1AD</t>
+  </si>
+  <si>
+    <t>26-13473-70141</t>
+  </si>
+  <si>
+    <t>kierah_x</t>
+  </si>
+  <si>
+    <t>Kierah Calver</t>
+  </si>
+  <si>
+    <t>FEE-6623982655817_11</t>
+  </si>
+  <si>
+    <t>IP5 2YH</t>
+  </si>
+  <si>
+    <t>05-13501-51636</t>
+  </si>
+  <si>
+    <t>pher80</t>
+  </si>
+  <si>
+    <t>christopher warrington</t>
+  </si>
+  <si>
+    <t>FEE-6623600845617_11</t>
+  </si>
+  <si>
+    <t>le7 2eg</t>
+  </si>
+  <si>
+    <t>11-13492-93456</t>
+  </si>
+  <si>
+    <t>djuk04921</t>
+  </si>
+  <si>
+    <t>Darryn Jones</t>
+  </si>
+  <si>
+    <t>FEE-6623581416017_11</t>
+  </si>
+  <si>
+    <t>Kingswinford</t>
+  </si>
+  <si>
+    <t>DY60LL</t>
+  </si>
+  <si>
+    <t>25-13474-17186</t>
+  </si>
+  <si>
+    <t>crocket1212</t>
+  </si>
+  <si>
+    <t>D Acheson</t>
+  </si>
+  <si>
+    <t>FEE-6623539912717_11</t>
+  </si>
+  <si>
+    <t>taunton</t>
+  </si>
+  <si>
+    <t>ta37sf</t>
+  </si>
+  <si>
+    <t>18-13483-45222</t>
+  </si>
+  <si>
+    <t>jasmin_margaret</t>
+  </si>
+  <si>
+    <t>Margaret Lambert</t>
+  </si>
+  <si>
+    <t>FEE-6623528374217_11</t>
+  </si>
+  <si>
+    <t>Burnham on crouch</t>
+  </si>
+  <si>
+    <t>CM0 8DY</t>
+  </si>
+  <si>
+    <t>23-13476-42897</t>
+  </si>
+  <si>
+    <t>jaguar44</t>
+  </si>
+  <si>
+    <t>richard  white</t>
+  </si>
+  <si>
+    <t>FEE-6623368702317_11</t>
+  </si>
+  <si>
+    <t>lutterworth</t>
+  </si>
+  <si>
+    <t>LE174rh</t>
+  </si>
+  <si>
+    <t>25-13473-80949</t>
+  </si>
+  <si>
+    <t>alan20080_0</t>
+  </si>
+  <si>
+    <t>alan black</t>
+  </si>
+  <si>
+    <t>FEE-6623348603117_11</t>
+  </si>
+  <si>
+    <t>11-13492-46188</t>
+  </si>
+  <si>
+    <t>nabila786x</t>
+  </si>
+  <si>
+    <t>Nabila Raja</t>
+  </si>
+  <si>
+    <t>FEE-6623340234517_11</t>
+  </si>
+  <si>
+    <t>Derby, Alvaston</t>
+  </si>
+  <si>
+    <t>DE24 0BS</t>
+  </si>
+  <si>
+    <t>Halifax</t>
+  </si>
+  <si>
+    <t>hx1 3yd</t>
+  </si>
+  <si>
+    <t>13-13489-85590</t>
+  </si>
+  <si>
+    <t>ellen-jane-50</t>
+  </si>
+  <si>
+    <t>Ellen Garratt</t>
+  </si>
+  <si>
+    <t>FEE-6623267666817_11</t>
+  </si>
+  <si>
+    <t>02-13504-65051</t>
+  </si>
+  <si>
+    <t>susawilstea-0</t>
+  </si>
+  <si>
+    <t>Susan Wilstead</t>
+  </si>
+  <si>
+    <t>FEE-6623263257217_11</t>
+  </si>
+  <si>
+    <t>letchworth Garden City</t>
+  </si>
+  <si>
+    <t>SG6 1QR</t>
+  </si>
+  <si>
+    <t>Ebbw Vale</t>
+  </si>
+  <si>
+    <t>NP23 7RX</t>
+  </si>
+  <si>
+    <t>06-13499-19417</t>
+  </si>
+  <si>
+    <t>hordbog-0</t>
+  </si>
+  <si>
+    <t>Legwear International Ltd (Bogdan Hordobet)</t>
+  </si>
+  <si>
+    <t>FEE-6623233027517_11</t>
+  </si>
+  <si>
+    <t>17-13484-09671</t>
+  </si>
+  <si>
+    <t>FEE-6623230479017_11</t>
+  </si>
+  <si>
+    <t>Alfreton, Somercotes, Clover Nook Industrial Park</t>
+  </si>
+  <si>
+    <t>DE55 4QT</t>
+  </si>
+  <si>
+    <t>Pendent Light Black 250601000021 + 6pc bulb</t>
+  </si>
+  <si>
+    <t>24-13489-27994</t>
+  </si>
+  <si>
+    <t>roysie123</t>
+  </si>
+  <si>
+    <t>Anthony Killington</t>
+  </si>
+  <si>
+    <t>FEE-6623168749317_11</t>
+  </si>
+  <si>
+    <t>DA16 3RS</t>
+  </si>
+  <si>
+    <t>03-13502-66430</t>
+  </si>
+  <si>
+    <t>andreiv90</t>
+  </si>
+  <si>
+    <t>Andrei Vlasa</t>
+  </si>
+  <si>
+    <t>FEE-6623101757417_11</t>
+  </si>
+  <si>
+    <t>FEE-6623101773517_11</t>
+  </si>
+  <si>
+    <t>Taunton</t>
+  </si>
+  <si>
+    <t>TA2 7EU</t>
+  </si>
+  <si>
+    <t>24-13489-10363</t>
+  </si>
+  <si>
+    <t>kez_lee19</t>
+  </si>
+  <si>
+    <t>kerry lee</t>
+  </si>
+  <si>
+    <t>FEE-6623045873617_11</t>
+  </si>
+  <si>
+    <t>worcester</t>
+  </si>
+  <si>
+    <t>wr4 0ua</t>
+  </si>
+  <si>
+    <t>Camping Toaster 4 Slice Folding Gas Toaster, Camping Mini Toaster for Gas Stoves</t>
+  </si>
+  <si>
+    <t>Folding Toaster 0021</t>
+  </si>
+  <si>
+    <t>16-13484-84251</t>
+  </si>
+  <si>
+    <t>laursirman5</t>
+  </si>
+  <si>
+    <t>laura sirmane</t>
+  </si>
+  <si>
+    <t>FEE-6622871299017_11</t>
+  </si>
+  <si>
+    <t>Coventry</t>
+  </si>
+  <si>
+    <t>CV6 1NR</t>
+  </si>
+  <si>
+    <t>01-13503-85163</t>
+  </si>
+  <si>
+    <t>martbayer</t>
+  </si>
+  <si>
+    <t>Martin Armstrong</t>
+  </si>
+  <si>
+    <t>FEE-6621977535717_11</t>
+  </si>
+  <si>
+    <t>Oswestry</t>
+  </si>
+  <si>
+    <t>Shropshire</t>
+  </si>
+  <si>
+    <t>SY10 9DJ</t>
+  </si>
+  <si>
+    <t>12-13488-51052</t>
+  </si>
+  <si>
+    <t>shqu_68</t>
+  </si>
+  <si>
+    <t>Shane Quinn</t>
+  </si>
+  <si>
+    <t>FEE-6621868617917_11</t>
+  </si>
+  <si>
+    <t>Cookstown</t>
+  </si>
+  <si>
+    <t>Tyrone</t>
+  </si>
+  <si>
+    <t>BT80 0HU</t>
+  </si>
+  <si>
+    <t>07-13495-10099</t>
+  </si>
+  <si>
+    <t>gardenpianoman</t>
+  </si>
+  <si>
+    <t>Jim Colvin</t>
+  </si>
+  <si>
+    <t>FEE-6621800035217_11</t>
+  </si>
+  <si>
+    <t>Ballymoney</t>
+  </si>
+  <si>
+    <t>BT53 7ED</t>
+  </si>
+  <si>
+    <t>01-13502-87772</t>
+  </si>
+  <si>
+    <t>dahump4307</t>
+  </si>
+  <si>
+    <t>David Humphrey</t>
+  </si>
+  <si>
+    <t>FEE-6621525696817_11</t>
+  </si>
+  <si>
+    <t>Thatcham</t>
+  </si>
+  <si>
+    <t>RG184EB</t>
+  </si>
+  <si>
+    <t>08-13492-35518</t>
+  </si>
+  <si>
+    <t>tihack8</t>
+  </si>
+  <si>
+    <t>Tim Hackett</t>
+  </si>
+  <si>
+    <t>FEE-6621292283017_11</t>
+  </si>
+  <si>
+    <t>Tredegar</t>
+  </si>
+  <si>
+    <t>NP22 4NT</t>
+  </si>
+  <si>
+    <t>Hold</t>
+  </si>
+  <si>
+    <t>Return ID 5299477423</t>
+  </si>
+  <si>
+    <t>Hold placed</t>
+  </si>
+  <si>
+    <t>23-13471-96556</t>
+  </si>
+  <si>
+    <t>phantom121212</t>
+  </si>
+  <si>
+    <t>melvin jones</t>
+  </si>
+  <si>
+    <t>FEE-6620999444517_11</t>
+  </si>
+  <si>
+    <t>Cowes</t>
+  </si>
+  <si>
+    <t>Hampshire</t>
+  </si>
+  <si>
+    <t>PO31 8RL</t>
+  </si>
+  <si>
+    <t>Electric Drill 250601000001 (with 2 Battery)</t>
+  </si>
+  <si>
+    <t>15-13482-46044</t>
+  </si>
+  <si>
+    <t>s65g_42</t>
+  </si>
+  <si>
+    <t>Steve Oneil</t>
+  </si>
+  <si>
+    <t>FEE-6620964911617_11</t>
+  </si>
+  <si>
+    <t>27-13466-60995</t>
+  </si>
+  <si>
+    <t>appledore10</t>
+  </si>
+  <si>
+    <t>Hilary Mason</t>
+  </si>
+  <si>
+    <t>FEE-6620929493117_11</t>
+  </si>
+  <si>
+    <t>Newton Stewart</t>
+  </si>
+  <si>
+    <t>DG8 9AN</t>
+  </si>
+  <si>
+    <t>Doncaster, Harworth</t>
+  </si>
+  <si>
+    <t>DN11 8NT</t>
+  </si>
+  <si>
+    <t>Pendent Light Black 250601000021 + Bulb 6pc</t>
+  </si>
+  <si>
+    <t>18-13477-94783</t>
+  </si>
+  <si>
+    <t>natam-68</t>
+  </si>
+  <si>
+    <t>NATALIJA MURANE</t>
+  </si>
+  <si>
+    <t>FEE-6620337297117_11</t>
+  </si>
+  <si>
+    <t>Barton-upon-Humber</t>
+  </si>
+  <si>
+    <t>DN18 5RB</t>
+  </si>
+  <si>
+    <t>Bank reference ID CEGTF4ZTZ2NHU6N</t>
+  </si>
+  <si>
+    <t>15-13480-90323</t>
+  </si>
+  <si>
+    <t>ashrafbrmy</t>
+  </si>
+  <si>
+    <t>mohammed ashraf</t>
+  </si>
+  <si>
+    <t>FEE-6619636760917_11</t>
+  </si>
+  <si>
+    <t>birmingham</t>
+  </si>
+  <si>
+    <t>b111ql</t>
+  </si>
+  <si>
+    <t>12-13484-97248</t>
+  </si>
+  <si>
+    <t>williaml4486</t>
+  </si>
+  <si>
+    <t>Gladys Laidlaw</t>
+  </si>
+  <si>
+    <t>FEE-6619436113417_11</t>
+  </si>
+  <si>
+    <t>Ouston</t>
+  </si>
+  <si>
+    <t>Dh2 1ta</t>
+  </si>
+  <si>
+    <t>08-13489-98859</t>
+  </si>
+  <si>
+    <t>mi_569668</t>
+  </si>
+  <si>
+    <t>Mihir L</t>
+  </si>
+  <si>
+    <t>FEE-6619426583417_11</t>
+  </si>
+  <si>
+    <t>Croydon</t>
+  </si>
+  <si>
+    <t>CR0 4UB</t>
+  </si>
+  <si>
+    <t>20-13473-80976</t>
+  </si>
+  <si>
+    <t>a-s--21</t>
+  </si>
+  <si>
+    <t>asif iqbal</t>
+  </si>
+  <si>
+    <t>FEE-6619314372317_11</t>
+  </si>
+  <si>
+    <t>Kirkcaldy</t>
+  </si>
+  <si>
+    <t>KY2 6NY</t>
+  </si>
+  <si>
+    <t>Battery only (1pc)</t>
+  </si>
+  <si>
+    <t>11-13485-72554</t>
+  </si>
+  <si>
+    <t>sunnyroad123</t>
+  </si>
+  <si>
+    <t>stephen crossley</t>
+  </si>
+  <si>
+    <t>FEE-6619177292617_11</t>
+  </si>
+  <si>
+    <t>callington</t>
+  </si>
+  <si>
+    <t>Cornwall</t>
+  </si>
+  <si>
+    <t>pl17 8al</t>
+  </si>
+  <si>
+    <t>26-13465-25952</t>
+  </si>
+  <si>
+    <t>futsalfun</t>
+  </si>
+  <si>
+    <t>Patrick Lewis</t>
+  </si>
+  <si>
+    <t>FEE-6619024764817_11</t>
+  </si>
+  <si>
+    <t>Bromyard</t>
+  </si>
+  <si>
+    <t>Herefordshire</t>
+  </si>
+  <si>
+    <t>HR7 4UT</t>
+  </si>
+  <si>
+    <t>19-13473-85989</t>
+  </si>
+  <si>
+    <t>billy75marialaura</t>
+  </si>
+  <si>
+    <t>laura bantouna</t>
+  </si>
+  <si>
+    <t>FEE-6618518722617_11</t>
+  </si>
+  <si>
+    <t>25-13465-89411</t>
+  </si>
+  <si>
+    <t>allisonyellow6</t>
+  </si>
+  <si>
+    <t>ally wort</t>
+  </si>
+  <si>
+    <t>FEE-6618516581017_11</t>
+  </si>
+  <si>
+    <t>witham</t>
+  </si>
+  <si>
+    <t>cm8 2st</t>
+  </si>
+  <si>
+    <t>Peterlee</t>
+  </si>
+  <si>
+    <t>SR8 2BD</t>
+  </si>
+  <si>
+    <t>08-13488-39129</t>
+  </si>
+  <si>
+    <t>smileypj</t>
+  </si>
+  <si>
+    <t>Paul James</t>
+  </si>
+  <si>
+    <t>FEE-6618489753317_11</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>LE3 2TW</t>
+  </si>
+  <si>
+    <t>24-13481-66291</t>
+  </si>
+  <si>
+    <t>gemmamorgan2009</t>
+  </si>
+  <si>
+    <t>gemma morgan</t>
+  </si>
+  <si>
+    <t>FEE-6618432404817_11</t>
+  </si>
+  <si>
+    <t>03-13495-13012</t>
+  </si>
+  <si>
+    <t>robdor077843</t>
+  </si>
+  <si>
+    <t>Robert lawson</t>
+  </si>
+  <si>
+    <t>FEE-6618432013817_11</t>
+  </si>
+  <si>
+    <t>b32 4aw</t>
+  </si>
+  <si>
+    <t>CA1 3PZ</t>
+  </si>
+  <si>
+    <t>12-13483-10160</t>
+  </si>
+  <si>
+    <t>mibri_9708</t>
+  </si>
+  <si>
+    <t>Mike Briggs</t>
+  </si>
+  <si>
+    <t>FEE-6618323560017_11</t>
+  </si>
+  <si>
+    <t>HX4 8JW</t>
+  </si>
+  <si>
     <t>27-13462-26919</t>
   </si>
   <si>
@@ -3097,732 +3823,6 @@
   </si>
   <si>
     <t>OX145HN</t>
-  </si>
-  <si>
-    <t>01-13503-85163</t>
-  </si>
-  <si>
-    <t>martbayer</t>
-  </si>
-  <si>
-    <t>Martin Armstrong</t>
-  </si>
-  <si>
-    <t>FEE-6621977535717_11</t>
-  </si>
-  <si>
-    <t>Oswestry</t>
-  </si>
-  <si>
-    <t>Shropshire</t>
-  </si>
-  <si>
-    <t>SY10 9DJ</t>
-  </si>
-  <si>
-    <t>12-13488-51052</t>
-  </si>
-  <si>
-    <t>shqu_68</t>
-  </si>
-  <si>
-    <t>Shane Quinn</t>
-  </si>
-  <si>
-    <t>FEE-6621868617917_11</t>
-  </si>
-  <si>
-    <t>Cookstown</t>
-  </si>
-  <si>
-    <t>Tyrone</t>
-  </si>
-  <si>
-    <t>BT80 0HU</t>
-  </si>
-  <si>
-    <t>07-13495-10099</t>
-  </si>
-  <si>
-    <t>gardenpianoman</t>
-  </si>
-  <si>
-    <t>Jim Colvin</t>
-  </si>
-  <si>
-    <t>FEE-6621800035217_11</t>
-  </si>
-  <si>
-    <t>Ballymoney</t>
-  </si>
-  <si>
-    <t>BT53 7ED</t>
-  </si>
-  <si>
-    <t>01-13502-87772</t>
-  </si>
-  <si>
-    <t>dahump4307</t>
-  </si>
-  <si>
-    <t>David Humphrey</t>
-  </si>
-  <si>
-    <t>FEE-6621525696817_11</t>
-  </si>
-  <si>
-    <t>Thatcham</t>
-  </si>
-  <si>
-    <t>Berkshire</t>
-  </si>
-  <si>
-    <t>RG184EB</t>
-  </si>
-  <si>
-    <t>08-13492-35518</t>
-  </si>
-  <si>
-    <t>tihack8</t>
-  </si>
-  <si>
-    <t>Tim Hackett</t>
-  </si>
-  <si>
-    <t>FEE-6621292283017_11</t>
-  </si>
-  <si>
-    <t>Tredegar</t>
-  </si>
-  <si>
-    <t>NP22 4NT</t>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Return ID 5299477423</t>
-  </si>
-  <si>
-    <t>Hold placed</t>
-  </si>
-  <si>
-    <t>23-13471-96556</t>
-  </si>
-  <si>
-    <t>phantom121212</t>
-  </si>
-  <si>
-    <t>melvin jones</t>
-  </si>
-  <si>
-    <t>FEE-6620999444517_11</t>
-  </si>
-  <si>
-    <t>Cowes</t>
-  </si>
-  <si>
-    <t>Hampshire</t>
-  </si>
-  <si>
-    <t>PO31 8RL</t>
-  </si>
-  <si>
-    <t>Electric Drill 250601000001 (with 2 Battery)</t>
-  </si>
-  <si>
-    <t>15-13482-46044</t>
-  </si>
-  <si>
-    <t>s65g_42</t>
-  </si>
-  <si>
-    <t>Steve Oneil</t>
-  </si>
-  <si>
-    <t>FEE-6620964911617_11</t>
-  </si>
-  <si>
-    <t>27-13466-60995</t>
-  </si>
-  <si>
-    <t>appledore10</t>
-  </si>
-  <si>
-    <t>Hilary Mason</t>
-  </si>
-  <si>
-    <t>FEE-6620929493117_11</t>
-  </si>
-  <si>
-    <t>Newton Stewart</t>
-  </si>
-  <si>
-    <t>DG8 9AN</t>
-  </si>
-  <si>
-    <t>Doncaster, Harworth</t>
-  </si>
-  <si>
-    <t>DN11 8NT</t>
-  </si>
-  <si>
-    <t>Pendent Light Black 250601000021 + Bulb 6pc</t>
-  </si>
-  <si>
-    <t>18-13477-94783</t>
-  </si>
-  <si>
-    <t>natam-68</t>
-  </si>
-  <si>
-    <t>NATALIJA MURANE</t>
-  </si>
-  <si>
-    <t>FEE-6620337297117_11</t>
-  </si>
-  <si>
-    <t>Barton-upon-Humber</t>
-  </si>
-  <si>
-    <t>DN18 5RB</t>
-  </si>
-  <si>
-    <t>Bank reference ID CEGTF4ZTZ2NHU6N</t>
-  </si>
-  <si>
-    <t>15-13480-90323</t>
-  </si>
-  <si>
-    <t>ashrafbrmy</t>
-  </si>
-  <si>
-    <t>mohammed ashraf</t>
-  </si>
-  <si>
-    <t>FEE-6619636760917_11</t>
-  </si>
-  <si>
-    <t>birmingham</t>
-  </si>
-  <si>
-    <t>b111ql</t>
-  </si>
-  <si>
-    <t>12-13484-97248</t>
-  </si>
-  <si>
-    <t>williaml4486</t>
-  </si>
-  <si>
-    <t>Gladys Laidlaw</t>
-  </si>
-  <si>
-    <t>FEE-6619436113417_11</t>
-  </si>
-  <si>
-    <t>Ouston</t>
-  </si>
-  <si>
-    <t>Dh2 1ta</t>
-  </si>
-  <si>
-    <t>08-13489-98859</t>
-  </si>
-  <si>
-    <t>mi_569668</t>
-  </si>
-  <si>
-    <t>Mihir L</t>
-  </si>
-  <si>
-    <t>FEE-6619426583417_11</t>
-  </si>
-  <si>
-    <t>Croydon</t>
-  </si>
-  <si>
-    <t>CR0 4UB</t>
-  </si>
-  <si>
-    <t>20-13473-80976</t>
-  </si>
-  <si>
-    <t>a-s--21</t>
-  </si>
-  <si>
-    <t>asif iqbal</t>
-  </si>
-  <si>
-    <t>FEE-6619314372317_11</t>
-  </si>
-  <si>
-    <t>Kirkcaldy</t>
-  </si>
-  <si>
-    <t>KY2 6NY</t>
-  </si>
-  <si>
-    <t>Battery only (1pc)</t>
-  </si>
-  <si>
-    <t>11-13485-72554</t>
-  </si>
-  <si>
-    <t>sunnyroad123</t>
-  </si>
-  <si>
-    <t>stephen crossley</t>
-  </si>
-  <si>
-    <t>FEE-6619177292617_11</t>
-  </si>
-  <si>
-    <t>callington</t>
-  </si>
-  <si>
-    <t>Cornwall</t>
-  </si>
-  <si>
-    <t>pl17 8al</t>
-  </si>
-  <si>
-    <t>26-13465-25952</t>
-  </si>
-  <si>
-    <t>futsalfun</t>
-  </si>
-  <si>
-    <t>Patrick Lewis</t>
-  </si>
-  <si>
-    <t>FEE-6619024764817_11</t>
-  </si>
-  <si>
-    <t>Bromyard</t>
-  </si>
-  <si>
-    <t>Herefordshire</t>
-  </si>
-  <si>
-    <t>HR7 4UT</t>
-  </si>
-  <si>
-    <t>19-13473-85989</t>
-  </si>
-  <si>
-    <t>billy75marialaura</t>
-  </si>
-  <si>
-    <t>laura bantouna</t>
-  </si>
-  <si>
-    <t>FEE-6618518722617_11</t>
-  </si>
-  <si>
-    <t>25-13465-89411</t>
-  </si>
-  <si>
-    <t>allisonyellow6</t>
-  </si>
-  <si>
-    <t>ally wort</t>
-  </si>
-  <si>
-    <t>FEE-6618516581017_11</t>
-  </si>
-  <si>
-    <t>witham</t>
-  </si>
-  <si>
-    <t>cm8 2st</t>
-  </si>
-  <si>
-    <t>Peterlee</t>
-  </si>
-  <si>
-    <t>SR8 2BD</t>
-  </si>
-  <si>
-    <t>08-13488-39129</t>
-  </si>
-  <si>
-    <t>smileypj</t>
-  </si>
-  <si>
-    <t>Paul James</t>
-  </si>
-  <si>
-    <t>FEE-6618489753317_11</t>
-  </si>
-  <si>
-    <t>Leicester</t>
-  </si>
-  <si>
-    <t>LE3 2TW</t>
-  </si>
-  <si>
-    <t>24-13481-66291</t>
-  </si>
-  <si>
-    <t>gemmamorgan2009</t>
-  </si>
-  <si>
-    <t>gemma morgan</t>
-  </si>
-  <si>
-    <t>FEE-6618432404817_11</t>
-  </si>
-  <si>
-    <t>03-13495-13012</t>
-  </si>
-  <si>
-    <t>robdor077843</t>
-  </si>
-  <si>
-    <t>Robert lawson</t>
-  </si>
-  <si>
-    <t>FEE-6618432013817_11</t>
-  </si>
-  <si>
-    <t>b32 4aw</t>
-  </si>
-  <si>
-    <t>CA1 3PZ</t>
-  </si>
-  <si>
-    <t>12-13483-10160</t>
-  </si>
-  <si>
-    <t>mibri_9708</t>
-  </si>
-  <si>
-    <t>Mike Briggs</t>
-  </si>
-  <si>
-    <t>FEE-6618323560017_11</t>
-  </si>
-  <si>
-    <t>Halifax</t>
-  </si>
-  <si>
-    <t>HX4 8JW</t>
-  </si>
-  <si>
-    <t>Bank reference ID US7YSNTEIWJDJ68</t>
-  </si>
-  <si>
-    <t>15-13488-94692</t>
-  </si>
-  <si>
-    <t>mark9771blue</t>
-  </si>
-  <si>
-    <t>Mark Lloyd</t>
-  </si>
-  <si>
-    <t>FEE-6624202030117_11</t>
-  </si>
-  <si>
-    <t>Fincham</t>
-  </si>
-  <si>
-    <t>PE33 9ER</t>
-  </si>
-  <si>
-    <t>09-13496-95491</t>
-  </si>
-  <si>
-    <t>baby-9175</t>
-  </si>
-  <si>
-    <t>abdual khan</t>
-  </si>
-  <si>
-    <t>FEE-6624188936517_11</t>
-  </si>
-  <si>
-    <t>Bracknell</t>
-  </si>
-  <si>
-    <t>RG42 1AD</t>
-  </si>
-  <si>
-    <t>26-13473-70141</t>
-  </si>
-  <si>
-    <t>kierah_x</t>
-  </si>
-  <si>
-    <t>Kierah Calver</t>
-  </si>
-  <si>
-    <t>FEE-6623982655817_11</t>
-  </si>
-  <si>
-    <t>IP5 2YH</t>
-  </si>
-  <si>
-    <t>05-13501-51636</t>
-  </si>
-  <si>
-    <t>pher80</t>
-  </si>
-  <si>
-    <t>christopher warrington</t>
-  </si>
-  <si>
-    <t>FEE-6623600845617_11</t>
-  </si>
-  <si>
-    <t>le7 2eg</t>
-  </si>
-  <si>
-    <t>11-13492-93456</t>
-  </si>
-  <si>
-    <t>djuk04921</t>
-  </si>
-  <si>
-    <t>Darryn Jones</t>
-  </si>
-  <si>
-    <t>FEE-6623581416017_11</t>
-  </si>
-  <si>
-    <t>Kingswinford</t>
-  </si>
-  <si>
-    <t>DY60LL</t>
-  </si>
-  <si>
-    <t>25-13474-17186</t>
-  </si>
-  <si>
-    <t>crocket1212</t>
-  </si>
-  <si>
-    <t>D Acheson</t>
-  </si>
-  <si>
-    <t>FEE-6623539912717_11</t>
-  </si>
-  <si>
-    <t>taunton</t>
-  </si>
-  <si>
-    <t>ta37sf</t>
-  </si>
-  <si>
-    <t>18-13483-45222</t>
-  </si>
-  <si>
-    <t>jasmin_margaret</t>
-  </si>
-  <si>
-    <t>Margaret Lambert</t>
-  </si>
-  <si>
-    <t>FEE-6623528374217_11</t>
-  </si>
-  <si>
-    <t>Burnham on crouch</t>
-  </si>
-  <si>
-    <t>CM0 8DY</t>
-  </si>
-  <si>
-    <t>23-13476-42897</t>
-  </si>
-  <si>
-    <t>jaguar44</t>
-  </si>
-  <si>
-    <t>richard  white</t>
-  </si>
-  <si>
-    <t>FEE-6623368702317_11</t>
-  </si>
-  <si>
-    <t>lutterworth</t>
-  </si>
-  <si>
-    <t>LE174rh</t>
-  </si>
-  <si>
-    <t>25-13473-80949</t>
-  </si>
-  <si>
-    <t>alan20080_0</t>
-  </si>
-  <si>
-    <t>alan black</t>
-  </si>
-  <si>
-    <t>FEE-6623348603117_11</t>
-  </si>
-  <si>
-    <t>11-13492-46188</t>
-  </si>
-  <si>
-    <t>nabila786x</t>
-  </si>
-  <si>
-    <t>Nabila Raja</t>
-  </si>
-  <si>
-    <t>FEE-6623340234517_11</t>
-  </si>
-  <si>
-    <t>Derby, Alvaston</t>
-  </si>
-  <si>
-    <t>DE24 0BS</t>
-  </si>
-  <si>
-    <t>hx1 3yd</t>
-  </si>
-  <si>
-    <t>13-13489-85590</t>
-  </si>
-  <si>
-    <t>ellen-jane-50</t>
-  </si>
-  <si>
-    <t>Ellen Garratt</t>
-  </si>
-  <si>
-    <t>FEE-6623267666817_11</t>
-  </si>
-  <si>
-    <t>02-13504-65051</t>
-  </si>
-  <si>
-    <t>susawilstea-0</t>
-  </si>
-  <si>
-    <t>Susan Wilstead</t>
-  </si>
-  <si>
-    <t>FEE-6623263257217_11</t>
-  </si>
-  <si>
-    <t>letchworth Garden City</t>
-  </si>
-  <si>
-    <t>SG6 1QR</t>
-  </si>
-  <si>
-    <t>Ebbw Vale</t>
-  </si>
-  <si>
-    <t>NP23 7RX</t>
-  </si>
-  <si>
-    <t>06-13499-19417</t>
-  </si>
-  <si>
-    <t>hordbog-0</t>
-  </si>
-  <si>
-    <t>Legwear International Ltd (Bogdan Hordobet)</t>
-  </si>
-  <si>
-    <t>FEE-6623233027517_11</t>
-  </si>
-  <si>
-    <t>17-13484-09671</t>
-  </si>
-  <si>
-    <t>FEE-6623230479017_11</t>
-  </si>
-  <si>
-    <t>Alfreton, Somercotes, Clover Nook Industrial Park</t>
-  </si>
-  <si>
-    <t>DE55 4QT</t>
-  </si>
-  <si>
-    <t>Pendent Light Black 250601000021 + 6pc bulb</t>
-  </si>
-  <si>
-    <t>24-13489-27994</t>
-  </si>
-  <si>
-    <t>roysie123</t>
-  </si>
-  <si>
-    <t>Anthony Killington</t>
-  </si>
-  <si>
-    <t>FEE-6623168749317_11</t>
-  </si>
-  <si>
-    <t>DA16 3RS</t>
-  </si>
-  <si>
-    <t>03-13502-66430</t>
-  </si>
-  <si>
-    <t>andreiv90</t>
-  </si>
-  <si>
-    <t>Andrei Vlasa</t>
-  </si>
-  <si>
-    <t>FEE-6623101757417_11</t>
-  </si>
-  <si>
-    <t>FEE-6623101773517_11</t>
-  </si>
-  <si>
-    <t>Taunton</t>
-  </si>
-  <si>
-    <t>TA2 7EU</t>
-  </si>
-  <si>
-    <t>24-13489-10363</t>
-  </si>
-  <si>
-    <t>kez_lee19</t>
-  </si>
-  <si>
-    <t>kerry lee</t>
-  </si>
-  <si>
-    <t>FEE-6623045873617_11</t>
-  </si>
-  <si>
-    <t>worcester</t>
-  </si>
-  <si>
-    <t>wr4 0ua</t>
-  </si>
-  <si>
-    <t>Camping Toaster 4 Slice Folding Gas Toaster, Camping Mini Toaster for Gas Stoves</t>
-  </si>
-  <si>
-    <t>Folding Toaster 0021</t>
-  </si>
-  <si>
-    <t>16-13484-84251</t>
-  </si>
-  <si>
-    <t>laursirman5</t>
-  </si>
-  <si>
-    <t>laura sirmane</t>
-  </si>
-  <si>
-    <t>FEE-6622871299017_11</t>
-  </si>
-  <si>
-    <t>Coventry</t>
-  </si>
-  <si>
-    <t>CV6 1NR</t>
   </si>
   <si>
     <t>Pressure Gun 0975</t>
@@ -4648,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD419"/>
+    <sheetView tabSelected="1" topLeftCell="A392" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:AL419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="AK13" t="s">
-        <v>1160</v>
+        <v>935</v>
       </c>
       <c r="AL13" t="s">
         <v>66</v>
@@ -5032,16 +5032,16 @@
         <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>1161</v>
+        <v>936</v>
       </c>
       <c r="D14" t="s">
-        <v>1161</v>
+        <v>936</v>
       </c>
       <c r="E14" t="s">
-        <v>1162</v>
+        <v>937</v>
       </c>
       <c r="F14" t="s">
-        <v>1163</v>
+        <v>938</v>
       </c>
       <c r="G14" t="s">
         <v>0</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="AK14" t="s">
-        <v>1164</v>
+        <v>939</v>
       </c>
       <c r="AL14" t="s">
         <v>59</v>
@@ -5148,25 +5148,25 @@
         <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>1161</v>
+        <v>936</v>
       </c>
       <c r="D15" t="s">
-        <v>1161</v>
+        <v>936</v>
       </c>
       <c r="E15" t="s">
-        <v>1162</v>
+        <v>937</v>
       </c>
       <c r="F15" t="s">
-        <v>1163</v>
+        <v>938</v>
       </c>
       <c r="G15" t="s">
-        <v>1165</v>
+        <v>940</v>
       </c>
       <c r="H15" t="s">
         <v>860</v>
       </c>
       <c r="I15" t="s">
-        <v>1166</v>
+        <v>941</v>
       </c>
       <c r="J15" t="s">
         <v>53</v>
@@ -5264,16 +5264,16 @@
         <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>1167</v>
+        <v>942</v>
       </c>
       <c r="D16" t="s">
-        <v>1167</v>
+        <v>942</v>
       </c>
       <c r="E16" t="s">
-        <v>1168</v>
+        <v>943</v>
       </c>
       <c r="F16" t="s">
-        <v>1169</v>
+        <v>944</v>
       </c>
       <c r="G16" t="s">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AK16" t="s">
-        <v>1170</v>
+        <v>945</v>
       </c>
       <c r="AL16" t="s">
         <v>59</v>
@@ -5380,25 +5380,25 @@
         <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>1167</v>
+        <v>942</v>
       </c>
       <c r="D17" t="s">
-        <v>1167</v>
+        <v>942</v>
       </c>
       <c r="E17" t="s">
-        <v>1168</v>
+        <v>943</v>
       </c>
       <c r="F17" t="s">
-        <v>1169</v>
+        <v>944</v>
       </c>
       <c r="G17" t="s">
-        <v>1171</v>
+        <v>946</v>
       </c>
       <c r="H17" t="s">
-        <v>1048</v>
+        <v>947</v>
       </c>
       <c r="I17" t="s">
-        <v>1172</v>
+        <v>948</v>
       </c>
       <c r="J17" t="s">
         <v>53</v>
@@ -5496,16 +5496,16 @@
         <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>1173</v>
+        <v>949</v>
       </c>
       <c r="D18" t="s">
-        <v>1173</v>
+        <v>949</v>
       </c>
       <c r="E18" t="s">
-        <v>1174</v>
+        <v>950</v>
       </c>
       <c r="F18" t="s">
-        <v>1175</v>
+        <v>951</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="AK18" t="s">
-        <v>1176</v>
+        <v>952</v>
       </c>
       <c r="AL18" t="s">
         <v>59</v>
@@ -5612,16 +5612,16 @@
         <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>1173</v>
+        <v>949</v>
       </c>
       <c r="D19" t="s">
-        <v>1173</v>
+        <v>949</v>
       </c>
       <c r="E19" t="s">
-        <v>1174</v>
+        <v>950</v>
       </c>
       <c r="F19" t="s">
-        <v>1175</v>
+        <v>951</v>
       </c>
       <c r="G19" t="s">
         <v>796</v>
@@ -5630,7 +5630,7 @@
         <v>585</v>
       </c>
       <c r="I19" t="s">
-        <v>1177</v>
+        <v>953</v>
       </c>
       <c r="J19" t="s">
         <v>53</v>
@@ -5728,16 +5728,16 @@
         <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>1178</v>
+        <v>954</v>
       </c>
       <c r="D20" t="s">
-        <v>1178</v>
+        <v>954</v>
       </c>
       <c r="E20" t="s">
-        <v>1179</v>
+        <v>955</v>
       </c>
       <c r="F20" t="s">
-        <v>1180</v>
+        <v>956</v>
       </c>
       <c r="G20" t="s">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="AK20" t="s">
-        <v>1181</v>
+        <v>957</v>
       </c>
       <c r="AL20" t="s">
         <v>59</v>
@@ -5844,16 +5844,16 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>1178</v>
+        <v>954</v>
       </c>
       <c r="D21" t="s">
-        <v>1178</v>
+        <v>954</v>
       </c>
       <c r="E21" t="s">
-        <v>1179</v>
+        <v>955</v>
       </c>
       <c r="F21" t="s">
-        <v>1180</v>
+        <v>956</v>
       </c>
       <c r="G21" t="s">
         <v>913</v>
@@ -5862,7 +5862,7 @@
         <v>731</v>
       </c>
       <c r="I21" t="s">
-        <v>1182</v>
+        <v>958</v>
       </c>
       <c r="J21" t="s">
         <v>53</v>
@@ -5960,16 +5960,16 @@
         <v>58</v>
       </c>
       <c r="C22" t="s">
-        <v>1183</v>
+        <v>959</v>
       </c>
       <c r="D22" t="s">
-        <v>1183</v>
+        <v>959</v>
       </c>
       <c r="E22" t="s">
-        <v>1184</v>
+        <v>960</v>
       </c>
       <c r="F22" t="s">
-        <v>1185</v>
+        <v>961</v>
       </c>
       <c r="G22" t="s">
         <v>0</v>
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="AK22" t="s">
-        <v>1186</v>
+        <v>962</v>
       </c>
       <c r="AL22" t="s">
         <v>59</v>
@@ -6076,25 +6076,25 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>1183</v>
+        <v>959</v>
       </c>
       <c r="D23" t="s">
-        <v>1183</v>
+        <v>959</v>
       </c>
       <c r="E23" t="s">
-        <v>1184</v>
+        <v>960</v>
       </c>
       <c r="F23" t="s">
-        <v>1185</v>
+        <v>961</v>
       </c>
       <c r="G23" t="s">
-        <v>1187</v>
+        <v>963</v>
       </c>
       <c r="H23" t="s">
         <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>1188</v>
+        <v>964</v>
       </c>
       <c r="J23" t="s">
         <v>53</v>
@@ -6192,16 +6192,16 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>1189</v>
+        <v>965</v>
       </c>
       <c r="D24" t="s">
-        <v>1189</v>
+        <v>965</v>
       </c>
       <c r="E24" t="s">
-        <v>1190</v>
+        <v>966</v>
       </c>
       <c r="F24" t="s">
-        <v>1191</v>
+        <v>967</v>
       </c>
       <c r="G24" t="s">
         <v>0</v>
@@ -6294,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="AK24" t="s">
-        <v>1192</v>
+        <v>968</v>
       </c>
       <c r="AL24" t="s">
         <v>59</v>
@@ -6308,25 +6308,25 @@
         <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>1189</v>
+        <v>965</v>
       </c>
       <c r="D25" t="s">
-        <v>1189</v>
+        <v>965</v>
       </c>
       <c r="E25" t="s">
-        <v>1190</v>
+        <v>966</v>
       </c>
       <c r="F25" t="s">
-        <v>1191</v>
+        <v>967</v>
       </c>
       <c r="G25" t="s">
-        <v>1193</v>
+        <v>969</v>
       </c>
       <c r="H25" t="s">
         <v>520</v>
       </c>
       <c r="I25" t="s">
-        <v>1194</v>
+        <v>970</v>
       </c>
       <c r="J25" t="s">
         <v>53</v>
@@ -6424,16 +6424,16 @@
         <v>58</v>
       </c>
       <c r="C26" t="s">
-        <v>1195</v>
+        <v>971</v>
       </c>
       <c r="D26" t="s">
-        <v>1195</v>
+        <v>971</v>
       </c>
       <c r="E26" t="s">
-        <v>1196</v>
+        <v>972</v>
       </c>
       <c r="F26" t="s">
-        <v>1197</v>
+        <v>973</v>
       </c>
       <c r="G26" t="s">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="AK26" t="s">
-        <v>1198</v>
+        <v>974</v>
       </c>
       <c r="AL26" t="s">
         <v>59</v>
@@ -6540,25 +6540,25 @@
         <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>1195</v>
+        <v>971</v>
       </c>
       <c r="D27" t="s">
-        <v>1195</v>
+        <v>971</v>
       </c>
       <c r="E27" t="s">
-        <v>1196</v>
+        <v>972</v>
       </c>
       <c r="F27" t="s">
-        <v>1197</v>
+        <v>973</v>
       </c>
       <c r="G27" t="s">
-        <v>1199</v>
+        <v>975</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>1200</v>
+        <v>976</v>
       </c>
       <c r="J27" t="s">
         <v>53</v>
@@ -6656,16 +6656,16 @@
         <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>1201</v>
+        <v>977</v>
       </c>
       <c r="D28" t="s">
-        <v>1201</v>
+        <v>977</v>
       </c>
       <c r="E28" t="s">
-        <v>1202</v>
+        <v>978</v>
       </c>
       <c r="F28" t="s">
-        <v>1203</v>
+        <v>979</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="AK28" t="s">
-        <v>1204</v>
+        <v>980</v>
       </c>
       <c r="AL28" t="s">
         <v>59</v>
@@ -6772,25 +6772,25 @@
         <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>1201</v>
+        <v>977</v>
       </c>
       <c r="D29" t="s">
-        <v>1201</v>
+        <v>977</v>
       </c>
       <c r="E29" t="s">
-        <v>1202</v>
+        <v>978</v>
       </c>
       <c r="F29" t="s">
-        <v>1203</v>
+        <v>979</v>
       </c>
       <c r="G29" t="s">
-        <v>1205</v>
+        <v>981</v>
       </c>
       <c r="H29" t="s">
         <v>731</v>
       </c>
       <c r="I29" t="s">
-        <v>1206</v>
+        <v>982</v>
       </c>
       <c r="J29" t="s">
         <v>53</v>
@@ -6888,16 +6888,16 @@
         <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>1207</v>
+        <v>983</v>
       </c>
       <c r="D30" t="s">
-        <v>1207</v>
+        <v>983</v>
       </c>
       <c r="E30" t="s">
-        <v>1208</v>
+        <v>984</v>
       </c>
       <c r="F30" t="s">
-        <v>1209</v>
+        <v>985</v>
       </c>
       <c r="G30" t="s">
         <v>0</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="s">
-        <v>1210</v>
+        <v>986</v>
       </c>
       <c r="AL30" t="s">
         <v>59</v>
@@ -7004,16 +7004,16 @@
         <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>1211</v>
+        <v>987</v>
       </c>
       <c r="D31" t="s">
-        <v>1211</v>
+        <v>987</v>
       </c>
       <c r="E31" t="s">
-        <v>1212</v>
+        <v>988</v>
       </c>
       <c r="F31" t="s">
-        <v>1213</v>
+        <v>989</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -7106,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="s">
-        <v>1214</v>
+        <v>990</v>
       </c>
       <c r="AL31" t="s">
         <v>59</v>
@@ -7120,25 +7120,25 @@
         <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>1207</v>
+        <v>983</v>
       </c>
       <c r="D32" t="s">
-        <v>1207</v>
+        <v>983</v>
       </c>
       <c r="E32" t="s">
-        <v>1208</v>
+        <v>984</v>
       </c>
       <c r="F32" t="s">
-        <v>1209</v>
+        <v>985</v>
       </c>
       <c r="G32" t="s">
-        <v>1215</v>
+        <v>991</v>
       </c>
       <c r="H32" t="s">
         <v>295</v>
       </c>
       <c r="I32" t="s">
-        <v>1216</v>
+        <v>992</v>
       </c>
       <c r="J32" t="s">
         <v>53</v>
@@ -7236,25 +7236,25 @@
         <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>1211</v>
+        <v>987</v>
       </c>
       <c r="D33" t="s">
-        <v>1211</v>
+        <v>987</v>
       </c>
       <c r="E33" t="s">
-        <v>1212</v>
+        <v>988</v>
       </c>
       <c r="F33" t="s">
-        <v>1213</v>
+        <v>989</v>
       </c>
       <c r="G33" t="s">
-        <v>1158</v>
+        <v>993</v>
       </c>
       <c r="H33" t="s">
         <v>664</v>
       </c>
       <c r="I33" t="s">
-        <v>1217</v>
+        <v>994</v>
       </c>
       <c r="J33" t="s">
         <v>53</v>
@@ -7352,16 +7352,16 @@
         <v>58</v>
       </c>
       <c r="C34" t="s">
-        <v>1218</v>
+        <v>995</v>
       </c>
       <c r="D34" t="s">
-        <v>1218</v>
+        <v>995</v>
       </c>
       <c r="E34" t="s">
-        <v>1219</v>
+        <v>996</v>
       </c>
       <c r="F34" t="s">
-        <v>1220</v>
+        <v>997</v>
       </c>
       <c r="G34" t="s">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="AK34" t="s">
-        <v>1221</v>
+        <v>998</v>
       </c>
       <c r="AL34" t="s">
         <v>59</v>
@@ -7468,16 +7468,16 @@
         <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>1222</v>
+        <v>999</v>
       </c>
       <c r="D35" t="s">
-        <v>1222</v>
+        <v>999</v>
       </c>
       <c r="E35" t="s">
-        <v>1223</v>
+        <v>1000</v>
       </c>
       <c r="F35" t="s">
-        <v>1224</v>
+        <v>1001</v>
       </c>
       <c r="G35" t="s">
         <v>0</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="AK35" t="s">
-        <v>1225</v>
+        <v>1002</v>
       </c>
       <c r="AL35" t="s">
         <v>59</v>
@@ -7584,25 +7584,25 @@
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>1218</v>
+        <v>995</v>
       </c>
       <c r="D36" t="s">
-        <v>1218</v>
+        <v>995</v>
       </c>
       <c r="E36" t="s">
-        <v>1219</v>
+        <v>996</v>
       </c>
       <c r="F36" t="s">
-        <v>1220</v>
+        <v>997</v>
       </c>
       <c r="G36" t="s">
-        <v>1226</v>
+        <v>1003</v>
       </c>
       <c r="H36" t="s">
         <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>1227</v>
+        <v>1004</v>
       </c>
       <c r="J36" t="s">
         <v>53</v>
@@ -7700,25 +7700,25 @@
         <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>1222</v>
+        <v>999</v>
       </c>
       <c r="D37" t="s">
-        <v>1222</v>
+        <v>999</v>
       </c>
       <c r="E37" t="s">
-        <v>1223</v>
+        <v>1000</v>
       </c>
       <c r="F37" t="s">
-        <v>1224</v>
+        <v>1001</v>
       </c>
       <c r="G37" t="s">
-        <v>1228</v>
+        <v>1005</v>
       </c>
       <c r="H37" t="s">
         <v>814</v>
       </c>
       <c r="I37" t="s">
-        <v>1229</v>
+        <v>1006</v>
       </c>
       <c r="J37" t="s">
         <v>53</v>
@@ -7816,16 +7816,16 @@
         <v>58</v>
       </c>
       <c r="C38" t="s">
-        <v>1230</v>
+        <v>1007</v>
       </c>
       <c r="D38" t="s">
-        <v>1230</v>
+        <v>1007</v>
       </c>
       <c r="E38" t="s">
-        <v>1231</v>
+        <v>1008</v>
       </c>
       <c r="F38" t="s">
-        <v>1232</v>
+        <v>1009</v>
       </c>
       <c r="G38" t="s">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="AK38" t="s">
-        <v>1233</v>
+        <v>1010</v>
       </c>
       <c r="AL38" t="s">
         <v>59</v>
@@ -7932,16 +7932,16 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>1234</v>
+        <v>1011</v>
       </c>
       <c r="D39" t="s">
-        <v>1234</v>
+        <v>1011</v>
       </c>
       <c r="E39" t="s">
-        <v>1231</v>
+        <v>1008</v>
       </c>
       <c r="F39" t="s">
-        <v>1232</v>
+        <v>1009</v>
       </c>
       <c r="G39" t="s">
         <v>0</v>
@@ -8034,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="AK39" t="s">
-        <v>1235</v>
+        <v>1012</v>
       </c>
       <c r="AL39" t="s">
         <v>59</v>
@@ -8048,25 +8048,25 @@
         <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>1230</v>
+        <v>1007</v>
       </c>
       <c r="D40" t="s">
-        <v>1230</v>
+        <v>1007</v>
       </c>
       <c r="E40" t="s">
-        <v>1231</v>
+        <v>1008</v>
       </c>
       <c r="F40" t="s">
-        <v>1232</v>
+        <v>1009</v>
       </c>
       <c r="G40" t="s">
-        <v>1236</v>
+        <v>1013</v>
       </c>
       <c r="H40" t="s">
         <v>295</v>
       </c>
       <c r="I40" t="s">
-        <v>1237</v>
+        <v>1014</v>
       </c>
       <c r="J40" t="s">
         <v>53</v>
@@ -8164,25 +8164,25 @@
         <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>1234</v>
+        <v>1011</v>
       </c>
       <c r="D41" t="s">
-        <v>1234</v>
+        <v>1011</v>
       </c>
       <c r="E41" t="s">
-        <v>1231</v>
+        <v>1008</v>
       </c>
       <c r="F41" t="s">
-        <v>1232</v>
+        <v>1009</v>
       </c>
       <c r="G41" t="s">
-        <v>1236</v>
+        <v>1013</v>
       </c>
       <c r="H41" t="s">
         <v>295</v>
       </c>
       <c r="I41" t="s">
-        <v>1237</v>
+        <v>1014</v>
       </c>
       <c r="J41" t="s">
         <v>53</v>
@@ -8218,7 +8218,7 @@
         <v>479</v>
       </c>
       <c r="U41" t="s">
-        <v>1238</v>
+        <v>1015</v>
       </c>
       <c r="V41">
         <v>1</v>
@@ -8280,16 +8280,16 @@
         <v>58</v>
       </c>
       <c r="C42" t="s">
-        <v>1239</v>
+        <v>1016</v>
       </c>
       <c r="D42" t="s">
-        <v>1239</v>
+        <v>1016</v>
       </c>
       <c r="E42" t="s">
-        <v>1240</v>
+        <v>1017</v>
       </c>
       <c r="F42" t="s">
-        <v>1241</v>
+        <v>1018</v>
       </c>
       <c r="G42" t="s">
         <v>0</v>
@@ -8382,7 +8382,7 @@
         <v>0</v>
       </c>
       <c r="AK42" t="s">
-        <v>1242</v>
+        <v>1019</v>
       </c>
       <c r="AL42" t="s">
         <v>59</v>
@@ -8396,16 +8396,16 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>1239</v>
+        <v>1016</v>
       </c>
       <c r="D43" t="s">
-        <v>1239</v>
+        <v>1016</v>
       </c>
       <c r="E43" t="s">
-        <v>1240</v>
+        <v>1017</v>
       </c>
       <c r="F43" t="s">
-        <v>1241</v>
+        <v>1018</v>
       </c>
       <c r="G43" t="s">
         <v>61</v>
@@ -8414,7 +8414,7 @@
         <v>61</v>
       </c>
       <c r="I43" t="s">
-        <v>1243</v>
+        <v>1020</v>
       </c>
       <c r="J43" t="s">
         <v>53</v>
@@ -8512,16 +8512,16 @@
         <v>58</v>
       </c>
       <c r="C44" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="D44" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="E44" t="s">
-        <v>1245</v>
+        <v>1022</v>
       </c>
       <c r="F44" t="s">
-        <v>1246</v>
+        <v>1023</v>
       </c>
       <c r="G44" t="s">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="AK44" t="s">
-        <v>1247</v>
+        <v>1024</v>
       </c>
       <c r="AL44" t="s">
         <v>59</v>
@@ -8628,16 +8628,16 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="D45" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="E45" t="s">
-        <v>1245</v>
+        <v>1022</v>
       </c>
       <c r="F45" t="s">
-        <v>1246</v>
+        <v>1023</v>
       </c>
       <c r="G45" t="s">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="AK45" t="s">
-        <v>1248</v>
+        <v>1025</v>
       </c>
       <c r="AL45" t="s">
         <v>59</v>
@@ -8744,25 +8744,25 @@
         <v>52</v>
       </c>
       <c r="C46" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="D46" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="E46" t="s">
-        <v>1245</v>
+        <v>1022</v>
       </c>
       <c r="F46" t="s">
-        <v>1246</v>
+        <v>1023</v>
       </c>
       <c r="G46" t="s">
-        <v>1249</v>
+        <v>1026</v>
       </c>
       <c r="H46" t="s">
         <v>520</v>
       </c>
       <c r="I46" t="s">
-        <v>1250</v>
+        <v>1027</v>
       </c>
       <c r="J46" t="s">
         <v>53</v>
@@ -8860,25 +8860,25 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="D47" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="E47" t="s">
-        <v>1245</v>
+        <v>1022</v>
       </c>
       <c r="F47" t="s">
-        <v>1246</v>
+        <v>1023</v>
       </c>
       <c r="G47" t="s">
-        <v>1249</v>
+        <v>1026</v>
       </c>
       <c r="H47" t="s">
         <v>520</v>
       </c>
       <c r="I47" t="s">
-        <v>1250</v>
+        <v>1027</v>
       </c>
       <c r="J47" t="s">
         <v>53</v>
@@ -8976,25 +8976,25 @@
         <v>52</v>
       </c>
       <c r="C48" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="D48" t="s">
-        <v>1244</v>
+        <v>1021</v>
       </c>
       <c r="E48" t="s">
-        <v>1245</v>
+        <v>1022</v>
       </c>
       <c r="F48" t="s">
-        <v>1246</v>
+        <v>1023</v>
       </c>
       <c r="G48" t="s">
-        <v>1249</v>
+        <v>1026</v>
       </c>
       <c r="H48" t="s">
         <v>520</v>
       </c>
       <c r="I48" t="s">
-        <v>1250</v>
+        <v>1027</v>
       </c>
       <c r="J48" t="s">
         <v>53</v>
@@ -9092,16 +9092,16 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>1251</v>
+        <v>1028</v>
       </c>
       <c r="D49" t="s">
-        <v>1251</v>
+        <v>1028</v>
       </c>
       <c r="E49" t="s">
-        <v>1252</v>
+        <v>1029</v>
       </c>
       <c r="F49" t="s">
-        <v>1253</v>
+        <v>1030</v>
       </c>
       <c r="G49" t="s">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="AK49" t="s">
-        <v>1254</v>
+        <v>1031</v>
       </c>
       <c r="AL49" t="s">
         <v>59</v>
@@ -9208,25 +9208,25 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>1251</v>
+        <v>1028</v>
       </c>
       <c r="D50" t="s">
-        <v>1251</v>
+        <v>1028</v>
       </c>
       <c r="E50" t="s">
-        <v>1252</v>
+        <v>1029</v>
       </c>
       <c r="F50" t="s">
-        <v>1253</v>
+        <v>1030</v>
       </c>
       <c r="G50" t="s">
-        <v>1255</v>
+        <v>1032</v>
       </c>
       <c r="H50" t="s">
         <v>415</v>
       </c>
       <c r="I50" t="s">
-        <v>1256</v>
+        <v>1033</v>
       </c>
       <c r="J50" t="s">
         <v>53</v>
@@ -9259,10 +9259,10 @@
         <v>10074315430724</v>
       </c>
       <c r="T50" t="s">
-        <v>1257</v>
+        <v>1034</v>
       </c>
       <c r="U50" t="s">
-        <v>1258</v>
+        <v>1035</v>
       </c>
       <c r="V50">
         <v>1</v>
@@ -9324,16 +9324,16 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>1259</v>
+        <v>1036</v>
       </c>
       <c r="D51" t="s">
-        <v>1259</v>
+        <v>1036</v>
       </c>
       <c r="E51" t="s">
-        <v>1260</v>
+        <v>1037</v>
       </c>
       <c r="F51" t="s">
-        <v>1261</v>
+        <v>1038</v>
       </c>
       <c r="G51" t="s">
         <v>0</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AK51" t="s">
-        <v>1262</v>
+        <v>1039</v>
       </c>
       <c r="AL51" t="s">
         <v>59</v>
@@ -9440,25 +9440,25 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>1259</v>
+        <v>1036</v>
       </c>
       <c r="D52" t="s">
-        <v>1259</v>
+        <v>1036</v>
       </c>
       <c r="E52" t="s">
-        <v>1260</v>
+        <v>1037</v>
       </c>
       <c r="F52" t="s">
-        <v>1261</v>
+        <v>1038</v>
       </c>
       <c r="G52" t="s">
-        <v>1263</v>
+        <v>1040</v>
       </c>
       <c r="H52" t="s">
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>1264</v>
+        <v>1041</v>
       </c>
       <c r="J52" t="s">
         <v>53</v>
@@ -9556,16 +9556,16 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="D53" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="E53" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="F53" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="G53" t="s">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="AK53" t="s">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="AL53" t="s">
         <v>59</v>
@@ -9672,25 +9672,25 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="D54" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="E54" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="F54" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="G54" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="H54" t="s">
-        <v>1028</v>
+        <v>1047</v>
       </c>
       <c r="I54" t="s">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="J54" t="s">
         <v>53</v>
@@ -9788,16 +9788,16 @@
         <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="D55" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="E55" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="F55" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="G55" t="s">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="AK55" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="AL55" t="s">
         <v>59</v>
@@ -9904,25 +9904,25 @@
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="D56" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="E56" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="F56" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="G56" t="s">
-        <v>1034</v>
+        <v>1053</v>
       </c>
       <c r="H56" t="s">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="I56" t="s">
-        <v>1036</v>
+        <v>1055</v>
       </c>
       <c r="J56" t="s">
         <v>53</v>
@@ -10020,16 +10020,16 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="D57" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="E57" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
       <c r="F57" t="s">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="G57" t="s">
         <v>0</v>
@@ -10122,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="AK57" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="AL57" t="s">
         <v>59</v>
@@ -10136,25 +10136,25 @@
         <v>52</v>
       </c>
       <c r="C58" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="D58" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="E58" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
       <c r="F58" t="s">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="G58" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="H58" t="s">
         <v>501</v>
       </c>
       <c r="I58" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
       <c r="J58" t="s">
         <v>53</v>
@@ -10252,16 +10252,16 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="D59" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="E59" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
       <c r="F59" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="G59" t="s">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="AK59" t="s">
-        <v>1046</v>
+        <v>1065</v>
       </c>
       <c r="AL59" t="s">
         <v>59</v>
@@ -10368,25 +10368,25 @@
         <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="D60" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="E60" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
       <c r="F60" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="G60" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="H60" t="s">
-        <v>1048</v>
+        <v>947</v>
       </c>
       <c r="I60" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="J60" t="s">
         <v>53</v>
@@ -10484,16 +10484,16 @@
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="D61" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="E61" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="F61" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="G61" t="s">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="AK61" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="AL61" t="s">
         <v>59</v>
@@ -10600,25 +10600,25 @@
         <v>52</v>
       </c>
       <c r="C62" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="D62" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="E62" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="F62" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="G62" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="H62" t="s">
         <v>814</v>
       </c>
       <c r="I62" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="J62" t="s">
         <v>53</v>
@@ -10713,7 +10713,7 @@
         <v>45893</v>
       </c>
       <c r="B63" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="C63" t="s">
         <v>439</v>
@@ -10818,10 +10818,10 @@
         <v>0</v>
       </c>
       <c r="AK63" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="AL63" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="64" spans="1:38" x14ac:dyDescent="0.25">
@@ -10832,16 +10832,16 @@
         <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="D64" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="E64" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="F64" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="G64" t="s">
         <v>0</v>
@@ -10934,7 +10934,7 @@
         <v>0</v>
       </c>
       <c r="AK64" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="AL64" t="s">
         <v>59</v>
@@ -10948,25 +10948,25 @@
         <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="D65" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="E65" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="F65" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
       <c r="G65" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="H65" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="I65" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="J65" t="s">
         <v>53</v>
@@ -11002,7 +11002,7 @@
         <v>264</v>
       </c>
       <c r="U65" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="V65">
         <v>1</v>
@@ -11064,16 +11064,16 @@
         <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="D66" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="E66" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="F66" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="G66" t="s">
         <v>0</v>
@@ -11166,7 +11166,7 @@
         <v>0</v>
       </c>
       <c r="AK66" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="AL66" t="s">
         <v>59</v>
@@ -11180,16 +11180,16 @@
         <v>58</v>
       </c>
       <c r="C67" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="D67" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="E67" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="F67" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="G67" t="s">
         <v>0</v>
@@ -11282,7 +11282,7 @@
         <v>0</v>
       </c>
       <c r="AK67" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="AL67" t="s">
         <v>59</v>
@@ -11296,25 +11296,25 @@
         <v>52</v>
       </c>
       <c r="C68" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="D68" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="E68" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="F68" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="G68" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="H68" t="s">
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="J68" t="s">
         <v>53</v>
@@ -11412,25 +11412,25 @@
         <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="D69" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="E69" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="F69" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="G69" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
       <c r="H69" t="s">
         <v>239</v>
       </c>
       <c r="I69" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
       <c r="J69" t="s">
         <v>53</v>
@@ -11466,7 +11466,7 @@
         <v>479</v>
       </c>
       <c r="U69" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="V69">
         <v>1</v>
@@ -11528,16 +11528,16 @@
         <v>58</v>
       </c>
       <c r="C70" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="D70" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="E70" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="F70" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="G70" t="s">
         <v>0</v>
@@ -11630,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="AK70" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="AL70" t="s">
         <v>59</v>
@@ -11644,25 +11644,25 @@
         <v>52</v>
       </c>
       <c r="C71" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="D71" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="E71" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
       <c r="F71" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="G71" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="H71" t="s">
         <v>109</v>
       </c>
       <c r="I71" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="J71" t="s">
         <v>53</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AK72" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="AL72" t="s">
         <v>66</v>
@@ -11876,16 +11876,16 @@
         <v>58</v>
       </c>
       <c r="C73" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="D73" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="E73" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="F73" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="G73" t="s">
         <v>0</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="AK73" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="AL73" t="s">
         <v>59</v>
@@ -11992,25 +11992,25 @@
         <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="D74" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="E74" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="F74" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="G74" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="H74" t="s">
         <v>162</v>
       </c>
       <c r="I74" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="J74" t="s">
         <v>53</v>
@@ -12108,16 +12108,16 @@
         <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="D75" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="E75" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="F75" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="G75" t="s">
         <v>0</v>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="AK75" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="AL75" t="s">
         <v>59</v>
@@ -12224,25 +12224,25 @@
         <v>52</v>
       </c>
       <c r="C76" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="D76" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="E76" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="F76" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="G76" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="H76" t="s">
         <v>62</v>
       </c>
       <c r="I76" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="J76" t="s">
         <v>53</v>
@@ -12340,16 +12340,16 @@
         <v>58</v>
       </c>
       <c r="C77" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="D77" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="E77" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="F77" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="G77" t="s">
         <v>0</v>
@@ -12442,7 +12442,7 @@
         <v>0</v>
       </c>
       <c r="AK77" t="s">
-        <v>1102</v>
+        <v>1120</v>
       </c>
       <c r="AL77" t="s">
         <v>59</v>
@@ -12456,25 +12456,25 @@
         <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="D78" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="E78" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="F78" t="s">
-        <v>1101</v>
+        <v>1119</v>
       </c>
       <c r="G78" t="s">
-        <v>1103</v>
+        <v>1121</v>
       </c>
       <c r="H78" t="s">
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>1104</v>
+        <v>1122</v>
       </c>
       <c r="J78" t="s">
         <v>53</v>
@@ -12572,16 +12572,16 @@
         <v>58</v>
       </c>
       <c r="C79" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="D79" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="E79" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="F79" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="G79" t="s">
         <v>0</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AK79" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="AL79" t="s">
         <v>59</v>
@@ -12688,25 +12688,25 @@
         <v>52</v>
       </c>
       <c r="C80" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="D80" t="s">
-        <v>1105</v>
+        <v>1123</v>
       </c>
       <c r="E80" t="s">
-        <v>1106</v>
+        <v>1124</v>
       </c>
       <c r="F80" t="s">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="G80" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="H80" t="s">
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>1110</v>
+        <v>1128</v>
       </c>
       <c r="J80" t="s">
         <v>53</v>
@@ -12742,7 +12742,7 @@
         <v>57</v>
       </c>
       <c r="U80" t="s">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="V80">
         <v>1</v>
@@ -12804,16 +12804,16 @@
         <v>58</v>
       </c>
       <c r="C81" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="D81" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="E81" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="F81" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="G81" t="s">
         <v>0</v>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="AK81" t="s">
-        <v>1115</v>
+        <v>1133</v>
       </c>
       <c r="AL81" t="s">
         <v>59</v>
@@ -12920,25 +12920,25 @@
         <v>52</v>
       </c>
       <c r="C82" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="D82" t="s">
-        <v>1112</v>
+        <v>1130</v>
       </c>
       <c r="E82" t="s">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="F82" t="s">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="G82" t="s">
-        <v>1116</v>
+        <v>1134</v>
       </c>
       <c r="H82" t="s">
-        <v>1117</v>
+        <v>1135</v>
       </c>
       <c r="I82" t="s">
-        <v>1118</v>
+        <v>1136</v>
       </c>
       <c r="J82" t="s">
         <v>53</v>
@@ -13036,16 +13036,16 @@
         <v>58</v>
       </c>
       <c r="C83" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="D83" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="E83" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="F83" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="G83" t="s">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="AK83" t="s">
-        <v>1122</v>
+        <v>1140</v>
       </c>
       <c r="AL83" t="s">
         <v>59</v>
@@ -13152,25 +13152,25 @@
         <v>52</v>
       </c>
       <c r="C84" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="D84" t="s">
-        <v>1119</v>
+        <v>1137</v>
       </c>
       <c r="E84" t="s">
-        <v>1120</v>
+        <v>1138</v>
       </c>
       <c r="F84" t="s">
-        <v>1121</v>
+        <v>1139</v>
       </c>
       <c r="G84" t="s">
-        <v>1123</v>
+        <v>1141</v>
       </c>
       <c r="H84" t="s">
-        <v>1124</v>
+        <v>1142</v>
       </c>
       <c r="I84" t="s">
-        <v>1125</v>
+        <v>1143</v>
       </c>
       <c r="J84" t="s">
         <v>53</v>
@@ -13268,16 +13268,16 @@
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="D85" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="E85" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
       <c r="F85" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
       <c r="G85" t="s">
         <v>0</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="AK85" t="s">
-        <v>1129</v>
+        <v>1147</v>
       </c>
       <c r="AL85" t="s">
         <v>59</v>
@@ -13384,16 +13384,16 @@
         <v>58</v>
       </c>
       <c r="C86" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="D86" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="E86" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="F86" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="G86" t="s">
         <v>0</v>
@@ -13486,7 +13486,7 @@
         <v>0</v>
       </c>
       <c r="AK86" t="s">
-        <v>1133</v>
+        <v>1151</v>
       </c>
       <c r="AL86" t="s">
         <v>59</v>
@@ -13500,25 +13500,25 @@
         <v>52</v>
       </c>
       <c r="C87" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="D87" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="E87" t="s">
-        <v>1127</v>
+        <v>1145</v>
       </c>
       <c r="F87" t="s">
-        <v>1128</v>
+        <v>1146</v>
       </c>
       <c r="G87" t="s">
-        <v>1134</v>
+        <v>1152</v>
       </c>
       <c r="H87" t="s">
         <v>477</v>
       </c>
       <c r="I87" t="s">
-        <v>1135</v>
+        <v>1153</v>
       </c>
       <c r="J87" t="s">
         <v>53</v>
@@ -13616,25 +13616,25 @@
         <v>52</v>
       </c>
       <c r="C88" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="D88" t="s">
-        <v>1130</v>
+        <v>1148</v>
       </c>
       <c r="E88" t="s">
-        <v>1131</v>
+        <v>1149</v>
       </c>
       <c r="F88" t="s">
-        <v>1132</v>
+        <v>1150</v>
       </c>
       <c r="G88" t="s">
-        <v>1136</v>
+        <v>1154</v>
       </c>
       <c r="H88" t="s">
         <v>62</v>
       </c>
       <c r="I88" t="s">
-        <v>1137</v>
+        <v>1155</v>
       </c>
       <c r="J88" t="s">
         <v>53</v>
@@ -13732,16 +13732,16 @@
         <v>58</v>
       </c>
       <c r="C89" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="D89" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="E89" t="s">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="F89" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="G89" t="s">
         <v>0</v>
@@ -13834,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="AK89" t="s">
-        <v>1141</v>
+        <v>1159</v>
       </c>
       <c r="AL89" t="s">
         <v>59</v>
@@ -13848,25 +13848,25 @@
         <v>52</v>
       </c>
       <c r="C90" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="D90" t="s">
-        <v>1138</v>
+        <v>1156</v>
       </c>
       <c r="E90" t="s">
-        <v>1139</v>
+        <v>1157</v>
       </c>
       <c r="F90" t="s">
-        <v>1140</v>
+        <v>1158</v>
       </c>
       <c r="G90" t="s">
-        <v>1142</v>
+        <v>1160</v>
       </c>
       <c r="H90" t="s">
         <v>731</v>
       </c>
       <c r="I90" t="s">
-        <v>1143</v>
+        <v>1161</v>
       </c>
       <c r="J90" t="s">
         <v>53</v>
@@ -13964,16 +13964,16 @@
         <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="D91" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="E91" t="s">
-        <v>1145</v>
+        <v>1163</v>
       </c>
       <c r="F91" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="G91" t="s">
         <v>0</v>
@@ -14066,7 +14066,7 @@
         <v>0</v>
       </c>
       <c r="AK91" t="s">
-        <v>1147</v>
+        <v>1165</v>
       </c>
       <c r="AL91" t="s">
         <v>59</v>
@@ -14080,16 +14080,16 @@
         <v>58</v>
       </c>
       <c r="C92" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="D92" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="E92" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="F92" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="G92" t="s">
         <v>0</v>
@@ -14182,7 +14182,7 @@
         <v>0</v>
       </c>
       <c r="AK92" t="s">
-        <v>1151</v>
+        <v>1169</v>
       </c>
       <c r="AL92" t="s">
         <v>59</v>
@@ -14196,25 +14196,25 @@
         <v>52</v>
       </c>
       <c r="C93" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="D93" t="s">
-        <v>1144</v>
+        <v>1162</v>
       </c>
       <c r="E93" t="s">
-        <v>1145</v>
+        <v>1163</v>
       </c>
       <c r="F93" t="s">
-        <v>1146</v>
+        <v>1164</v>
       </c>
       <c r="G93" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="H93" t="s">
         <v>162</v>
       </c>
       <c r="I93" t="s">
-        <v>1152</v>
+        <v>1170</v>
       </c>
       <c r="J93" t="s">
         <v>53</v>
@@ -14312,16 +14312,16 @@
         <v>52</v>
       </c>
       <c r="C94" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="D94" t="s">
-        <v>1148</v>
+        <v>1166</v>
       </c>
       <c r="E94" t="s">
-        <v>1149</v>
+        <v>1167</v>
       </c>
       <c r="F94" t="s">
-        <v>1150</v>
+        <v>1168</v>
       </c>
       <c r="G94" t="s">
         <v>463</v>
@@ -14330,7 +14330,7 @@
         <v>464</v>
       </c>
       <c r="I94" t="s">
-        <v>1153</v>
+        <v>1171</v>
       </c>
       <c r="J94" t="s">
         <v>53</v>
@@ -14428,16 +14428,16 @@
         <v>58</v>
       </c>
       <c r="C95" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="D95" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="E95" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
       <c r="F95" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="G95" t="s">
         <v>0</v>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
       <c r="AK95" t="s">
-        <v>1157</v>
+        <v>1175</v>
       </c>
       <c r="AL95" t="s">
         <v>59</v>
@@ -14544,25 +14544,25 @@
         <v>52</v>
       </c>
       <c r="C96" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="D96" t="s">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="E96" t="s">
-        <v>1155</v>
+        <v>1173</v>
       </c>
       <c r="F96" t="s">
-        <v>1156</v>
+        <v>1174</v>
       </c>
       <c r="G96" t="s">
-        <v>1158</v>
+        <v>993</v>
       </c>
       <c r="H96" t="s">
         <v>664</v>
       </c>
       <c r="I96" t="s">
-        <v>1159</v>
+        <v>1176</v>
       </c>
       <c r="J96" t="s">
         <v>53</v>
@@ -14660,16 +14660,16 @@
         <v>58</v>
       </c>
       <c r="C97" t="s">
-        <v>935</v>
+        <v>1177</v>
       </c>
       <c r="D97" t="s">
-        <v>935</v>
+        <v>1177</v>
       </c>
       <c r="E97" t="s">
-        <v>936</v>
+        <v>1178</v>
       </c>
       <c r="F97" t="s">
-        <v>937</v>
+        <v>1179</v>
       </c>
       <c r="G97" t="s">
         <v>0</v>
@@ -14762,7 +14762,7 @@
         <v>0</v>
       </c>
       <c r="AK97" t="s">
-        <v>938</v>
+        <v>1180</v>
       </c>
       <c r="AL97" t="s">
         <v>59</v>
@@ -14776,25 +14776,25 @@
         <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>935</v>
+        <v>1177</v>
       </c>
       <c r="D98" t="s">
-        <v>935</v>
+        <v>1177</v>
       </c>
       <c r="E98" t="s">
-        <v>936</v>
+        <v>1178</v>
       </c>
       <c r="F98" t="s">
-        <v>937</v>
+        <v>1179</v>
       </c>
       <c r="G98" t="s">
         <v>716</v>
       </c>
       <c r="H98" t="s">
-        <v>939</v>
+        <v>1181</v>
       </c>
       <c r="I98" t="s">
-        <v>940</v>
+        <v>1182</v>
       </c>
       <c r="J98" t="s">
         <v>53</v>
@@ -14994,7 +14994,7 @@
         <v>0</v>
       </c>
       <c r="AK99" t="s">
-        <v>941</v>
+        <v>1183</v>
       </c>
       <c r="AL99" t="s">
         <v>66</v>
@@ -15008,16 +15008,16 @@
         <v>58</v>
       </c>
       <c r="C100" t="s">
-        <v>942</v>
+        <v>1184</v>
       </c>
       <c r="D100" t="s">
-        <v>942</v>
+        <v>1184</v>
       </c>
       <c r="E100" t="s">
-        <v>943</v>
+        <v>1185</v>
       </c>
       <c r="F100" t="s">
-        <v>944</v>
+        <v>1186</v>
       </c>
       <c r="G100" t="s">
         <v>0</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AK100" t="s">
-        <v>945</v>
+        <v>1187</v>
       </c>
       <c r="AL100" t="s">
         <v>59</v>
@@ -15124,25 +15124,25 @@
         <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>942</v>
+        <v>1184</v>
       </c>
       <c r="D101" t="s">
-        <v>942</v>
+        <v>1184</v>
       </c>
       <c r="E101" t="s">
-        <v>943</v>
+        <v>1185</v>
       </c>
       <c r="F101" t="s">
-        <v>944</v>
+        <v>1186</v>
       </c>
       <c r="G101" t="s">
-        <v>946</v>
+        <v>1188</v>
       </c>
       <c r="H101" t="s">
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>947</v>
+        <v>1189</v>
       </c>
       <c r="J101" t="s">
         <v>53</v>
@@ -15240,16 +15240,16 @@
         <v>58</v>
       </c>
       <c r="C102" t="s">
-        <v>948</v>
+        <v>1190</v>
       </c>
       <c r="D102" t="s">
-        <v>948</v>
+        <v>1190</v>
       </c>
       <c r="E102" t="s">
-        <v>949</v>
+        <v>1191</v>
       </c>
       <c r="F102" t="s">
-        <v>950</v>
+        <v>1192</v>
       </c>
       <c r="G102" t="s">
         <v>0</v>
@@ -15342,7 +15342,7 @@
         <v>0</v>
       </c>
       <c r="AK102" t="s">
-        <v>951</v>
+        <v>1193</v>
       </c>
       <c r="AL102" t="s">
         <v>59</v>
@@ -15356,16 +15356,16 @@
         <v>52</v>
       </c>
       <c r="C103" t="s">
-        <v>948</v>
+        <v>1190</v>
       </c>
       <c r="D103" t="s">
-        <v>948</v>
+        <v>1190</v>
       </c>
       <c r="E103" t="s">
-        <v>949</v>
+        <v>1191</v>
       </c>
       <c r="F103" t="s">
-        <v>950</v>
+        <v>1192</v>
       </c>
       <c r="G103" t="s">
         <v>169</v>
@@ -15374,7 +15374,7 @@
         <v>535</v>
       </c>
       <c r="I103" t="s">
-        <v>952</v>
+        <v>1194</v>
       </c>
       <c r="J103" t="s">
         <v>53</v>
@@ -15472,16 +15472,16 @@
         <v>58</v>
       </c>
       <c r="C104" t="s">
-        <v>953</v>
+        <v>1195</v>
       </c>
       <c r="D104" t="s">
-        <v>953</v>
+        <v>1195</v>
       </c>
       <c r="E104" t="s">
-        <v>954</v>
+        <v>1196</v>
       </c>
       <c r="F104" t="s">
-        <v>955</v>
+        <v>1197</v>
       </c>
       <c r="G104" t="s">
         <v>0</v>
@@ -15574,7 +15574,7 @@
         <v>0</v>
       </c>
       <c r="AK104" t="s">
-        <v>956</v>
+        <v>1198</v>
       </c>
       <c r="AL104" t="s">
         <v>59</v>
@@ -15588,25 +15588,25 @@
         <v>52</v>
       </c>
       <c r="C105" t="s">
-        <v>953</v>
+        <v>1195</v>
       </c>
       <c r="D105" t="s">
-        <v>953</v>
+        <v>1195</v>
       </c>
       <c r="E105" t="s">
-        <v>954</v>
+        <v>1196</v>
       </c>
       <c r="F105" t="s">
-        <v>955</v>
+        <v>1197</v>
       </c>
       <c r="G105" t="s">
-        <v>957</v>
+        <v>1199</v>
       </c>
       <c r="H105" t="s">
         <v>355</v>
       </c>
       <c r="I105" t="s">
-        <v>958</v>
+        <v>1200</v>
       </c>
       <c r="J105" t="s">
         <v>53</v>
@@ -15704,16 +15704,16 @@
         <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>959</v>
+        <v>1201</v>
       </c>
       <c r="D106" t="s">
-        <v>959</v>
+        <v>1201</v>
       </c>
       <c r="E106" t="s">
-        <v>960</v>
+        <v>1202</v>
       </c>
       <c r="F106" t="s">
-        <v>961</v>
+        <v>1203</v>
       </c>
       <c r="G106" t="s">
         <v>0</v>
@@ -15806,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="AK106" t="s">
-        <v>962</v>
+        <v>1204</v>
       </c>
       <c r="AL106" t="s">
         <v>59</v>
@@ -15820,25 +15820,25 @@
         <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>959</v>
+        <v>1201</v>
       </c>
       <c r="D107" t="s">
-        <v>959</v>
+        <v>1201</v>
       </c>
       <c r="E107" t="s">
-        <v>960</v>
+        <v>1202</v>
       </c>
       <c r="F107" t="s">
-        <v>961</v>
+        <v>1203</v>
       </c>
       <c r="G107" t="s">
-        <v>963</v>
+        <v>1205</v>
       </c>
       <c r="H107" t="s">
         <v>211</v>
       </c>
       <c r="I107" t="s">
-        <v>964</v>
+        <v>1206</v>
       </c>
       <c r="J107" t="s">
         <v>53</v>
@@ -15936,16 +15936,16 @@
         <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>965</v>
+        <v>1207</v>
       </c>
       <c r="D108" t="s">
-        <v>965</v>
+        <v>1207</v>
       </c>
       <c r="E108" t="s">
-        <v>966</v>
+        <v>1208</v>
       </c>
       <c r="F108" t="s">
-        <v>967</v>
+        <v>1209</v>
       </c>
       <c r="G108" t="s">
         <v>0</v>
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="AK108" t="s">
-        <v>968</v>
+        <v>1210</v>
       </c>
       <c r="AL108" t="s">
         <v>59</v>
@@ -16052,16 +16052,16 @@
         <v>58</v>
       </c>
       <c r="C109" t="s">
-        <v>969</v>
+        <v>1211</v>
       </c>
       <c r="D109" t="s">
-        <v>969</v>
+        <v>1211</v>
       </c>
       <c r="E109" t="s">
-        <v>970</v>
+        <v>1212</v>
       </c>
       <c r="F109" t="s">
-        <v>971</v>
+        <v>1213</v>
       </c>
       <c r="G109" t="s">
         <v>0</v>
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="AK109" t="s">
-        <v>972</v>
+        <v>1214</v>
       </c>
       <c r="AL109" t="s">
         <v>59</v>
@@ -16168,16 +16168,16 @@
         <v>52</v>
       </c>
       <c r="C110" t="s">
-        <v>965</v>
+        <v>1207</v>
       </c>
       <c r="D110" t="s">
-        <v>965</v>
+        <v>1207</v>
       </c>
       <c r="E110" t="s">
-        <v>966</v>
+        <v>1208</v>
       </c>
       <c r="F110" t="s">
-        <v>967</v>
+        <v>1209</v>
       </c>
       <c r="G110" t="s">
         <v>144</v>
@@ -16186,7 +16186,7 @@
         <v>144</v>
       </c>
       <c r="I110" t="s">
-        <v>973</v>
+        <v>1215</v>
       </c>
       <c r="J110" t="s">
         <v>53</v>
@@ -16284,25 +16284,25 @@
         <v>52</v>
       </c>
       <c r="C111" t="s">
-        <v>969</v>
+        <v>1211</v>
       </c>
       <c r="D111" t="s">
-        <v>969</v>
+        <v>1211</v>
       </c>
       <c r="E111" t="s">
-        <v>970</v>
+        <v>1212</v>
       </c>
       <c r="F111" t="s">
-        <v>971</v>
+        <v>1213</v>
       </c>
       <c r="G111" t="s">
-        <v>974</v>
+        <v>1216</v>
       </c>
       <c r="H111" t="s">
         <v>72</v>
       </c>
       <c r="I111" t="s">
-        <v>975</v>
+        <v>1217</v>
       </c>
       <c r="J111" t="s">
         <v>53</v>
@@ -16400,16 +16400,16 @@
         <v>58</v>
       </c>
       <c r="C112" t="s">
-        <v>976</v>
+        <v>1218</v>
       </c>
       <c r="D112" t="s">
-        <v>976</v>
+        <v>1218</v>
       </c>
       <c r="E112" t="s">
-        <v>977</v>
+        <v>1219</v>
       </c>
       <c r="F112" t="s">
-        <v>978</v>
+        <v>1220</v>
       </c>
       <c r="G112" t="s">
         <v>0</v>
@@ -16502,7 +16502,7 @@
         <v>0</v>
       </c>
       <c r="AK112" t="s">
-        <v>979</v>
+        <v>1221</v>
       </c>
       <c r="AL112" t="s">
         <v>59</v>
@@ -16516,16 +16516,16 @@
         <v>52</v>
       </c>
       <c r="C113" t="s">
-        <v>976</v>
+        <v>1218</v>
       </c>
       <c r="D113" t="s">
-        <v>976</v>
+        <v>1218</v>
       </c>
       <c r="E113" t="s">
-        <v>977</v>
+        <v>1219</v>
       </c>
       <c r="F113" t="s">
-        <v>978</v>
+        <v>1220</v>
       </c>
       <c r="G113" t="s">
         <v>144</v>
@@ -16534,7 +16534,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>980</v>
+        <v>1222</v>
       </c>
       <c r="J113" t="s">
         <v>53</v>
@@ -16632,16 +16632,16 @@
         <v>58</v>
       </c>
       <c r="C114" t="s">
-        <v>981</v>
+        <v>1223</v>
       </c>
       <c r="D114" t="s">
-        <v>981</v>
+        <v>1223</v>
       </c>
       <c r="E114" t="s">
-        <v>982</v>
+        <v>1224</v>
       </c>
       <c r="F114" t="s">
-        <v>983</v>
+        <v>1225</v>
       </c>
       <c r="G114" t="s">
         <v>0</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="AK114" t="s">
-        <v>984</v>
+        <v>1226</v>
       </c>
       <c r="AL114" t="s">
         <v>59</v>
@@ -16748,16 +16748,16 @@
         <v>58</v>
       </c>
       <c r="C115" t="s">
-        <v>985</v>
+        <v>1227</v>
       </c>
       <c r="D115" t="s">
-        <v>985</v>
+        <v>1227</v>
       </c>
       <c r="E115" t="s">
-        <v>986</v>
+        <v>1228</v>
       </c>
       <c r="F115" t="s">
-        <v>987</v>
+        <v>1229</v>
       </c>
       <c r="G115" t="s">
         <v>0</v>
@@ -16850,7 +16850,7 @@
         <v>0</v>
       </c>
       <c r="AK115" t="s">
-        <v>988</v>
+        <v>1230</v>
       </c>
       <c r="AL115" t="s">
         <v>59</v>
@@ -16864,25 +16864,25 @@
         <v>52</v>
       </c>
       <c r="C116" t="s">
-        <v>981</v>
+        <v>1223</v>
       </c>
       <c r="D116" t="s">
-        <v>981</v>
+        <v>1223</v>
       </c>
       <c r="E116" t="s">
-        <v>982</v>
+        <v>1224</v>
       </c>
       <c r="F116" t="s">
-        <v>983</v>
+        <v>1225</v>
       </c>
       <c r="G116" t="s">
-        <v>989</v>
+        <v>1231</v>
       </c>
       <c r="H116" t="s">
-        <v>990</v>
+        <v>1232</v>
       </c>
       <c r="I116" t="s">
-        <v>991</v>
+        <v>1233</v>
       </c>
       <c r="J116" t="s">
         <v>53</v>
@@ -16980,25 +16980,25 @@
         <v>52</v>
       </c>
       <c r="C117" t="s">
-        <v>985</v>
+        <v>1227</v>
       </c>
       <c r="D117" t="s">
-        <v>985</v>
+        <v>1227</v>
       </c>
       <c r="E117" t="s">
-        <v>986</v>
+        <v>1228</v>
       </c>
       <c r="F117" t="s">
-        <v>987</v>
+        <v>1229</v>
       </c>
       <c r="G117" t="s">
-        <v>992</v>
+        <v>1234</v>
       </c>
       <c r="H117" t="s">
         <v>784</v>
       </c>
       <c r="I117" t="s">
-        <v>993</v>
+        <v>1235</v>
       </c>
       <c r="J117" t="s">
         <v>53</v>
@@ -17096,16 +17096,16 @@
         <v>58</v>
       </c>
       <c r="C118" t="s">
-        <v>994</v>
+        <v>1236</v>
       </c>
       <c r="D118" t="s">
-        <v>994</v>
+        <v>1236</v>
       </c>
       <c r="E118" t="s">
-        <v>995</v>
+        <v>1237</v>
       </c>
       <c r="F118" t="s">
-        <v>996</v>
+        <v>1238</v>
       </c>
       <c r="G118" t="s">
         <v>0</v>
@@ -17198,7 +17198,7 @@
         <v>0</v>
       </c>
       <c r="AK118" t="s">
-        <v>997</v>
+        <v>1239</v>
       </c>
       <c r="AL118" t="s">
         <v>59</v>
@@ -17212,25 +17212,25 @@
         <v>52</v>
       </c>
       <c r="C119" t="s">
-        <v>994</v>
+        <v>1236</v>
       </c>
       <c r="D119" t="s">
-        <v>994</v>
+        <v>1236</v>
       </c>
       <c r="E119" t="s">
-        <v>995</v>
+        <v>1237</v>
       </c>
       <c r="F119" t="s">
-        <v>996</v>
+        <v>1238</v>
       </c>
       <c r="G119" t="s">
-        <v>998</v>
+        <v>1240</v>
       </c>
       <c r="H119" t="s">
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>999</v>
+        <v>1241</v>
       </c>
       <c r="J119" t="s">
         <v>53</v>
@@ -17328,10 +17328,10 @@
         <v>58</v>
       </c>
       <c r="C120" t="s">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="D120" t="s">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="E120" t="s">
         <v>694</v>
@@ -17430,7 +17430,7 @@
         <v>0</v>
       </c>
       <c r="AK120" t="s">
-        <v>1001</v>
+        <v>1243</v>
       </c>
       <c r="AL120" t="s">
         <v>59</v>
@@ -17444,10 +17444,10 @@
         <v>52</v>
       </c>
       <c r="C121" t="s">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="D121" t="s">
-        <v>1000</v>
+        <v>1242</v>
       </c>
       <c r="E121" t="s">
         <v>694</v>
@@ -17560,16 +17560,16 @@
         <v>58</v>
       </c>
       <c r="C122" t="s">
-        <v>1002</v>
+        <v>1244</v>
       </c>
       <c r="D122" t="s">
-        <v>1002</v>
+        <v>1244</v>
       </c>
       <c r="E122" t="s">
-        <v>1003</v>
+        <v>1245</v>
       </c>
       <c r="F122" t="s">
-        <v>1004</v>
+        <v>1246</v>
       </c>
       <c r="G122" t="s">
         <v>0</v>
@@ -17662,7 +17662,7 @@
         <v>0</v>
       </c>
       <c r="AK122" t="s">
-        <v>1005</v>
+        <v>1247</v>
       </c>
       <c r="AL122" t="s">
         <v>59</v>
@@ -17676,25 +17676,25 @@
         <v>52</v>
       </c>
       <c r="C123" t="s">
-        <v>1002</v>
+        <v>1244</v>
       </c>
       <c r="D123" t="s">
-        <v>1002</v>
+        <v>1244</v>
       </c>
       <c r="E123" t="s">
-        <v>1003</v>
+        <v>1245</v>
       </c>
       <c r="F123" t="s">
-        <v>1004</v>
+        <v>1246</v>
       </c>
       <c r="G123" t="s">
-        <v>1006</v>
+        <v>1248</v>
       </c>
       <c r="H123" t="s">
         <v>664</v>
       </c>
       <c r="I123" t="s">
-        <v>1007</v>
+        <v>1249</v>
       </c>
       <c r="J123" t="s">
         <v>53</v>
@@ -17792,16 +17792,16 @@
         <v>58</v>
       </c>
       <c r="C124" t="s">
-        <v>1008</v>
+        <v>1250</v>
       </c>
       <c r="D124" t="s">
-        <v>1008</v>
+        <v>1250</v>
       </c>
       <c r="E124" t="s">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="F124" t="s">
-        <v>1010</v>
+        <v>1252</v>
       </c>
       <c r="G124" t="s">
         <v>0</v>
@@ -17894,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="AK124" t="s">
-        <v>1011</v>
+        <v>1253</v>
       </c>
       <c r="AL124" t="s">
         <v>59</v>
@@ -17908,25 +17908,25 @@
         <v>52</v>
       </c>
       <c r="C125" t="s">
-        <v>1008</v>
+        <v>1250</v>
       </c>
       <c r="D125" t="s">
-        <v>1008</v>
+        <v>1250</v>
       </c>
       <c r="E125" t="s">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="F125" t="s">
-        <v>1010</v>
+        <v>1252</v>
       </c>
       <c r="G125" t="s">
-        <v>1012</v>
+        <v>1254</v>
       </c>
       <c r="H125" t="s">
         <v>477</v>
       </c>
       <c r="I125" t="s">
-        <v>1013</v>
+        <v>1255</v>
       </c>
       <c r="J125" t="s">
         <v>53</v>
@@ -18126,7 +18126,7 @@
         <v>0</v>
       </c>
       <c r="AK126" t="s">
-        <v>1014</v>
+        <v>1256</v>
       </c>
       <c r="AL126" t="s">
         <v>286</v>
@@ -18242,7 +18242,7 @@
         <v>0</v>
       </c>
       <c r="AK127" t="s">
-        <v>1015</v>
+        <v>1257</v>
       </c>
       <c r="AL127" t="s">
         <v>59</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AK128" t="s">
-        <v>1016</v>
+        <v>1258</v>
       </c>
       <c r="AL128" t="s">
         <v>0</v>
@@ -18372,16 +18372,16 @@
         <v>58</v>
       </c>
       <c r="C129" t="s">
-        <v>1017</v>
+        <v>1259</v>
       </c>
       <c r="D129" t="s">
-        <v>1017</v>
+        <v>1259</v>
       </c>
       <c r="E129" t="s">
-        <v>1018</v>
+        <v>1260</v>
       </c>
       <c r="F129" t="s">
-        <v>1019</v>
+        <v>1261</v>
       </c>
       <c r="G129" t="s">
         <v>0</v>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="AK129" t="s">
-        <v>1020</v>
+        <v>1262</v>
       </c>
       <c r="AL129" t="s">
         <v>59</v>
@@ -18488,25 +18488,25 @@
         <v>52</v>
       </c>
       <c r="C130" t="s">
-        <v>1017</v>
+        <v>1259</v>
       </c>
       <c r="D130" t="s">
-        <v>1017</v>
+        <v>1259</v>
       </c>
       <c r="E130" t="s">
-        <v>1018</v>
+        <v>1260</v>
       </c>
       <c r="F130" t="s">
-        <v>1019</v>
+        <v>1261</v>
       </c>
       <c r="G130" t="s">
-        <v>1021</v>
+        <v>1263</v>
       </c>
       <c r="H130" t="s">
         <v>893</v>
       </c>
       <c r="I130" t="s">
-        <v>1022</v>
+        <v>1264</v>
       </c>
       <c r="J130" t="s">
         <v>53</v>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PURU AARU\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4B5E82-EBC7-43F4-9865-B666CF84A016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0AB5EC-FD87-4E99-8B78-1248210E8E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transaction-Aug-31-2025-23_22_1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -6169,7 +6169,7 @@
   <dimension ref="A1:AL1279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Raw Sales Data/Buckchi.xlsx
+++ b/Raw Sales Data/Buckchi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17753" uniqueCount="1880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18384" uniqueCount="1942">
   <si>
     <t>--</t>
   </si>
@@ -5334,18 +5334,6 @@
     <t>Pressure Gun 0975</t>
   </si>
   <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Charge for accrued selling costs from MasterCard ending in 9263</t>
-  </si>
-  <si>
-    <t>Fee ID 6563034002717_11</t>
-  </si>
-  <si>
-    <t>Shop (Basic): Subscription fee 1 - 31 Aug</t>
-  </si>
-  <si>
     <t>02/12/2024 00:00:00 AM GMT</t>
   </si>
   <si>
@@ -5659,6 +5647,204 @@
   </si>
   <si>
     <t>NG12 3SS</t>
+  </si>
+  <si>
+    <t>Bank reference ID F66GTNFSGK8RI61</t>
+  </si>
+  <si>
+    <t>18-13523-49159</t>
+  </si>
+  <si>
+    <t>davidbourner</t>
+  </si>
+  <si>
+    <t>David Bourner</t>
+  </si>
+  <si>
+    <t>FEE-6645816304317_11</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>BN27GP</t>
+  </si>
+  <si>
+    <t>06-13539-80641</t>
+  </si>
+  <si>
+    <t>FEE-6645761715217_11</t>
+  </si>
+  <si>
+    <t>19-13521-87281</t>
+  </si>
+  <si>
+    <t>fondah2007</t>
+  </si>
+  <si>
+    <t>fonda hamilton</t>
+  </si>
+  <si>
+    <t>FEE-6645665750117_11</t>
+  </si>
+  <si>
+    <t>N9 9RS</t>
+  </si>
+  <si>
+    <t>03-13543-17693</t>
+  </si>
+  <si>
+    <t>201-79</t>
+  </si>
+  <si>
+    <t>Mike Paul</t>
+  </si>
+  <si>
+    <t>FEE-6645589938517_11</t>
+  </si>
+  <si>
+    <t>Liverpool, Fazakerley</t>
+  </si>
+  <si>
+    <t>L10 0AG</t>
+  </si>
+  <si>
+    <t>04-13541-83555</t>
+  </si>
+  <si>
+    <t>1bob1007</t>
+  </si>
+  <si>
+    <t>bob martin</t>
+  </si>
+  <si>
+    <t>FEE-6645531913017_11</t>
+  </si>
+  <si>
+    <t>poole</t>
+  </si>
+  <si>
+    <t>Dorset</t>
+  </si>
+  <si>
+    <t>Bh12 5EZ</t>
+  </si>
+  <si>
+    <t>17-13523-42028</t>
+  </si>
+  <si>
+    <t>carilo</t>
+  </si>
+  <si>
+    <t>Mike Pugliese</t>
+  </si>
+  <si>
+    <t>FEE-6645218860117_11</t>
+  </si>
+  <si>
+    <t>Bridgend, Pencoed</t>
+  </si>
+  <si>
+    <t>CF35 5LP</t>
+  </si>
+  <si>
+    <t>09-13534-04656</t>
+  </si>
+  <si>
+    <t>glenn140781</t>
+  </si>
+  <si>
+    <t>Glenn Davies</t>
+  </si>
+  <si>
+    <t>FEE-6645170962517_11</t>
+  </si>
+  <si>
+    <t>Cannock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staffordshire </t>
+  </si>
+  <si>
+    <t>WS12 4LP</t>
+  </si>
+  <si>
+    <t>04-13540-83541</t>
+  </si>
+  <si>
+    <t>elainelawson1963</t>
+  </si>
+  <si>
+    <t>elaine lawson</t>
+  </si>
+  <si>
+    <t>FEE-6645120847817_11</t>
+  </si>
+  <si>
+    <t>newcastle upon tyne</t>
+  </si>
+  <si>
+    <t>ne15 6tf</t>
+  </si>
+  <si>
+    <t>22-13515-94834</t>
+  </si>
+  <si>
+    <t>teresa51reading</t>
+  </si>
+  <si>
+    <t>MISS CATHERINE REED</t>
+  </si>
+  <si>
+    <t>FEE-6644814254117_11</t>
+  </si>
+  <si>
+    <t>HUNTINGDON</t>
+  </si>
+  <si>
+    <t>PE29 1NP</t>
+  </si>
+  <si>
+    <t>Pressure Washer Gun 250601000024 + Car Cleaner Test 0002</t>
+  </si>
+  <si>
+    <t>13-13528-24299</t>
+  </si>
+  <si>
+    <t>snoopkitten</t>
+  </si>
+  <si>
+    <t>Julie Freeman</t>
+  </si>
+  <si>
+    <t>FEE-6644749028317_11</t>
+  </si>
+  <si>
+    <t>Stoke-on-Trent</t>
+  </si>
+  <si>
+    <t>ST3 5HW</t>
+  </si>
+  <si>
+    <t>10-13531-74699</t>
+  </si>
+  <si>
+    <t>gheoand_13</t>
+  </si>
+  <si>
+    <t>Gheorghe Andoni</t>
+  </si>
+  <si>
+    <t>FEE-6644621572817_11</t>
+  </si>
+  <si>
+    <t>UB5 4RN</t>
+  </si>
+  <si>
+    <t>FEE-6644417675617_11</t>
+  </si>
+  <si>
+    <t>FEE-6644362721717_11</t>
   </si>
 </sst>
 </file>
@@ -6468,10 +6654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL1274"/>
+  <dimension ref="A1:AL1248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A634" workbookViewId="0">
-      <selection activeCell="A651" sqref="A651"/>
+    <sheetView tabSelected="1" topLeftCell="A657" workbookViewId="0">
+      <selection activeCell="B672" sqref="B672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6566,7 +6752,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -6574,7 +6760,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -6660,10 +6846,10 @@
         <v>38</v>
       </c>
       <c r="AB12" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="AC12" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="AD12" t="s">
         <v>39</v>
@@ -75367,10 +75553,10 @@
     </row>
     <row r="605" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
-        <v>45871</v>
+        <v>45901</v>
       </c>
       <c r="B605" t="s">
-        <v>1771</v>
+        <v>48</v>
       </c>
       <c r="C605" t="s">
         <v>0</v>
@@ -75397,16 +75583,16 @@
         <v>0</v>
       </c>
       <c r="K605">
-        <v>32.4</v>
+        <v>-32.4</v>
       </c>
       <c r="L605" t="s">
         <v>52</v>
       </c>
       <c r="M605" s="1">
-        <v>45879</v>
+        <v>45902</v>
       </c>
       <c r="N605">
-        <v>7015109387</v>
+        <v>7053952139</v>
       </c>
       <c r="O605" t="s">
         <v>74</v>
@@ -75466,7 +75652,7 @@
         <v>0</v>
       </c>
       <c r="AH605">
-        <v>32.4</v>
+        <v>-32.4</v>
       </c>
       <c r="AI605" t="s">
         <v>52</v>
@@ -75475,30 +75661,30 @@
         <v>0</v>
       </c>
       <c r="AK605" t="s">
-        <v>0</v>
+        <v>1843</v>
       </c>
       <c r="AL605" t="s">
-        <v>1772</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="606" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
-        <v>45870</v>
+        <v>45901</v>
       </c>
       <c r="B606" t="s">
         <v>48</v>
       </c>
       <c r="C606" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D606" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E606" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F606" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G606" t="s">
         <v>0</v>
@@ -75513,16 +75699,16 @@
         <v>0</v>
       </c>
       <c r="K606">
-        <v>-32.4</v>
+        <v>-1.79</v>
       </c>
       <c r="L606" t="s">
         <v>52</v>
       </c>
       <c r="M606" s="1">
-        <v>45879</v>
+        <v>45902</v>
       </c>
       <c r="N606">
-        <v>7015109387</v>
+        <v>7053952139</v>
       </c>
       <c r="O606" t="s">
         <v>74</v>
@@ -75533,8 +75719,8 @@
       <c r="Q606" t="s">
         <v>0</v>
       </c>
-      <c r="R606" t="s">
-        <v>0</v>
+      <c r="R606">
+        <v>187524338812</v>
       </c>
       <c r="S606" t="s">
         <v>0</v>
@@ -75582,7 +75768,7 @@
         <v>0</v>
       </c>
       <c r="AH606">
-        <v>-32.4</v>
+        <v>-1.79</v>
       </c>
       <c r="AI606" t="s">
         <v>52</v>
@@ -75591,30 +75777,30 @@
         <v>0</v>
       </c>
       <c r="AK606" t="s">
-        <v>1773</v>
+        <v>1845</v>
       </c>
       <c r="AL606" t="s">
-        <v>1774</v>
+        <v>54</v>
       </c>
     </row>
     <row r="607" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
-        <v>45903</v>
+        <v>45901</v>
       </c>
       <c r="B607" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C607" t="s">
-        <v>0</v>
+        <v>1846</v>
       </c>
       <c r="D607" t="s">
-        <v>0</v>
+        <v>1846</v>
       </c>
       <c r="E607" t="s">
-        <v>0</v>
+        <v>1847</v>
       </c>
       <c r="F607" t="s">
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="G607" t="s">
         <v>0</v>
@@ -75629,16 +75815,16 @@
         <v>0</v>
       </c>
       <c r="K607">
-        <v>-156.44</v>
+        <v>-3.37</v>
       </c>
       <c r="L607" t="s">
         <v>52</v>
       </c>
-      <c r="M607" t="s">
-        <v>0</v>
+      <c r="M607" s="1">
+        <v>45902</v>
       </c>
       <c r="N607">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O607" t="s">
         <v>74</v>
@@ -75649,8 +75835,8 @@
       <c r="Q607" t="s">
         <v>0</v>
       </c>
-      <c r="R607" t="s">
-        <v>0</v>
+      <c r="R607">
+        <v>187521939817</v>
       </c>
       <c r="S607" t="s">
         <v>0</v>
@@ -75698,7 +75884,7 @@
         <v>0</v>
       </c>
       <c r="AH607">
-        <v>-156.44</v>
+        <v>-3.37</v>
       </c>
       <c r="AI607" t="s">
         <v>52</v>
@@ -75707,54 +75893,54 @@
         <v>0</v>
       </c>
       <c r="AK607" t="s">
-        <v>1779</v>
+        <v>1849</v>
       </c>
       <c r="AL607" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="608" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B608" t="s">
+        <v>55</v>
+      </c>
+      <c r="C608" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D608" t="s">
+        <v>1846</v>
+      </c>
+      <c r="E608" t="s">
+        <v>1847</v>
+      </c>
+      <c r="F608" t="s">
+        <v>1848</v>
+      </c>
+      <c r="G608" t="s">
+        <v>1850</v>
+      </c>
+      <c r="H608" t="s">
+        <v>165</v>
+      </c>
+      <c r="I608" t="s">
+        <v>1851</v>
+      </c>
+      <c r="J608" t="s">
+        <v>59</v>
+      </c>
+      <c r="K608">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="L608" t="s">
+        <v>52</v>
+      </c>
+      <c r="M608" s="1">
         <v>45902</v>
       </c>
-      <c r="B608" t="s">
-        <v>48</v>
-      </c>
-      <c r="C608" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D608" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E608" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F608" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G608" t="s">
-        <v>0</v>
-      </c>
-      <c r="H608" t="s">
-        <v>0</v>
-      </c>
-      <c r="I608" t="s">
-        <v>0</v>
-      </c>
-      <c r="J608" t="s">
-        <v>0</v>
-      </c>
-      <c r="K608">
-        <v>-2.38</v>
-      </c>
-      <c r="L608" t="s">
-        <v>52</v>
-      </c>
-      <c r="M608" s="1">
-        <v>45903</v>
-      </c>
       <c r="N608">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O608" t="s">
         <v>74</v>
@@ -75766,24 +75952,24 @@
         <v>0</v>
       </c>
       <c r="R608">
-        <v>187492038669</v>
-      </c>
-      <c r="S608" t="s">
-        <v>0</v>
+        <v>187521939817</v>
+      </c>
+      <c r="S608">
+        <v>10075184966815</v>
       </c>
       <c r="T608" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="U608" t="s">
-        <v>0</v>
-      </c>
-      <c r="V608" t="s">
-        <v>0</v>
-      </c>
-      <c r="W608" t="s">
-        <v>0</v>
-      </c>
-      <c r="X608" t="s">
+        <v>1852</v>
+      </c>
+      <c r="V608">
+        <v>1</v>
+      </c>
+      <c r="W608">
+        <v>22.49</v>
+      </c>
+      <c r="X608">
         <v>0</v>
       </c>
       <c r="Y608" t="s">
@@ -75795,14 +75981,14 @@
       <c r="AA608" s="2">
         <v>0</v>
       </c>
-      <c r="AB608" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC608" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD608" t="s">
-        <v>0</v>
+      <c r="AB608">
+        <v>-0.36</v>
+      </c>
+      <c r="AC608">
+        <v>-1.86</v>
+      </c>
+      <c r="AD608">
+        <v>-0.1</v>
       </c>
       <c r="AE608" t="s">
         <v>0</v>
@@ -75814,7 +76000,7 @@
         <v>0</v>
       </c>
       <c r="AH608">
-        <v>-2.38</v>
+        <v>22.49</v>
       </c>
       <c r="AI608" t="s">
         <v>52</v>
@@ -75823,54 +76009,54 @@
         <v>0</v>
       </c>
       <c r="AK608" t="s">
-        <v>1783</v>
+        <v>0</v>
       </c>
       <c r="AL608" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B609" t="s">
+        <v>48</v>
+      </c>
+      <c r="C609" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D609" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E609" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F609" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G609" t="s">
+        <v>0</v>
+      </c>
+      <c r="H609" t="s">
+        <v>0</v>
+      </c>
+      <c r="I609" t="s">
+        <v>0</v>
+      </c>
+      <c r="J609" t="s">
+        <v>0</v>
+      </c>
+      <c r="K609">
+        <v>-9.6</v>
+      </c>
+      <c r="L609" t="s">
+        <v>52</v>
+      </c>
+      <c r="M609" s="1">
         <v>45902</v>
       </c>
-      <c r="B609" t="s">
-        <v>55</v>
-      </c>
-      <c r="C609" t="s">
-        <v>1780</v>
-      </c>
-      <c r="D609" t="s">
-        <v>1780</v>
-      </c>
-      <c r="E609" t="s">
-        <v>1781</v>
-      </c>
-      <c r="F609" t="s">
-        <v>1782</v>
-      </c>
-      <c r="G609" t="s">
-        <v>83</v>
-      </c>
-      <c r="H609" t="s">
-        <v>84</v>
-      </c>
-      <c r="I609" t="s">
-        <v>1784</v>
-      </c>
-      <c r="J609" t="s">
-        <v>59</v>
-      </c>
-      <c r="K609">
-        <v>14.99</v>
-      </c>
-      <c r="L609" t="s">
-        <v>52</v>
-      </c>
-      <c r="M609" s="1">
-        <v>45903</v>
-      </c>
       <c r="N609">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O609" t="s">
         <v>74</v>
@@ -75882,24 +76068,24 @@
         <v>0</v>
       </c>
       <c r="R609">
-        <v>187492038669</v>
-      </c>
-      <c r="S609">
-        <v>10075420446506</v>
+        <v>187509210775</v>
+      </c>
+      <c r="S609" t="s">
+        <v>0</v>
       </c>
       <c r="T609" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="U609" t="s">
-        <v>355</v>
-      </c>
-      <c r="V609">
-        <v>1</v>
-      </c>
-      <c r="W609">
-        <v>17.989999999999998</v>
-      </c>
-      <c r="X609">
+        <v>0</v>
+      </c>
+      <c r="V609" t="s">
+        <v>0</v>
+      </c>
+      <c r="W609" t="s">
+        <v>0</v>
+      </c>
+      <c r="X609" t="s">
         <v>0</v>
       </c>
       <c r="Y609" t="s">
@@ -75911,14 +76097,14 @@
       <c r="AA609" s="2">
         <v>0</v>
       </c>
-      <c r="AB609">
-        <v>-0.36</v>
-      </c>
-      <c r="AC609">
-        <v>-2.57</v>
-      </c>
-      <c r="AD609">
-        <v>-7.0000000000000007E-2</v>
+      <c r="AB609" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC609" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD609" t="s">
+        <v>0</v>
       </c>
       <c r="AE609" t="s">
         <v>0</v>
@@ -75930,7 +76116,7 @@
         <v>0</v>
       </c>
       <c r="AH609">
-        <v>17.989999999999998</v>
+        <v>-9.6</v>
       </c>
       <c r="AI609" t="s">
         <v>52</v>
@@ -75939,54 +76125,54 @@
         <v>0</v>
       </c>
       <c r="AK609" t="s">
-        <v>0</v>
+        <v>1856</v>
       </c>
       <c r="AL609" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="610" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B610" t="s">
+        <v>55</v>
+      </c>
+      <c r="C610" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D610" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E610" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F610" t="s">
+        <v>1855</v>
+      </c>
+      <c r="G610" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H610" t="s">
+        <v>94</v>
+      </c>
+      <c r="I610" t="s">
+        <v>1858</v>
+      </c>
+      <c r="J610" t="s">
+        <v>59</v>
+      </c>
+      <c r="K610">
+        <v>67.87</v>
+      </c>
+      <c r="L610" t="s">
+        <v>52</v>
+      </c>
+      <c r="M610" s="1">
         <v>45902</v>
       </c>
-      <c r="B610" t="s">
-        <v>48</v>
-      </c>
-      <c r="C610" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D610" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E610" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F610" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G610" t="s">
-        <v>0</v>
-      </c>
-      <c r="H610" t="s">
-        <v>0</v>
-      </c>
-      <c r="I610" t="s">
-        <v>0</v>
-      </c>
-      <c r="J610" t="s">
-        <v>0</v>
-      </c>
-      <c r="K610">
-        <v>-0.64</v>
-      </c>
-      <c r="L610" t="s">
-        <v>52</v>
-      </c>
-      <c r="M610" s="1">
-        <v>45903</v>
-      </c>
       <c r="N610">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O610" t="s">
         <v>74</v>
@@ -75998,24 +76184,24 @@
         <v>0</v>
       </c>
       <c r="R610">
-        <v>187504862805</v>
-      </c>
-      <c r="S610" t="s">
-        <v>0</v>
+        <v>187509210775</v>
+      </c>
+      <c r="S610">
+        <v>10075141556519</v>
       </c>
       <c r="T610" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="U610" t="s">
-        <v>0</v>
-      </c>
-      <c r="V610" t="s">
-        <v>0</v>
-      </c>
-      <c r="W610" t="s">
-        <v>0</v>
-      </c>
-      <c r="X610" t="s">
+        <v>168</v>
+      </c>
+      <c r="V610">
+        <v>1</v>
+      </c>
+      <c r="W610">
+        <v>79.989999999999995</v>
+      </c>
+      <c r="X610">
         <v>0</v>
       </c>
       <c r="Y610" t="s">
@@ -76027,14 +76213,14 @@
       <c r="AA610" s="2">
         <v>0</v>
       </c>
-      <c r="AB610" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC610" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD610" t="s">
-        <v>0</v>
+      <c r="AB610">
+        <v>-0.36</v>
+      </c>
+      <c r="AC610">
+        <v>-11.42</v>
+      </c>
+      <c r="AD610">
+        <v>-0.34</v>
       </c>
       <c r="AE610" t="s">
         <v>0</v>
@@ -76046,7 +76232,7 @@
         <v>0</v>
       </c>
       <c r="AH610">
-        <v>-0.64</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="AI610" t="s">
         <v>52</v>
@@ -76055,54 +76241,54 @@
         <v>0</v>
       </c>
       <c r="AK610" t="s">
-        <v>1788</v>
+        <v>0</v>
       </c>
       <c r="AL610" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B611" t="s">
+        <v>48</v>
+      </c>
+      <c r="C611" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D611" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E611" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F611" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G611" t="s">
+        <v>0</v>
+      </c>
+      <c r="H611" t="s">
+        <v>0</v>
+      </c>
+      <c r="I611" t="s">
+        <v>0</v>
+      </c>
+      <c r="J611" t="s">
+        <v>0</v>
+      </c>
+      <c r="K611">
+        <v>-2.09</v>
+      </c>
+      <c r="L611" t="s">
+        <v>52</v>
+      </c>
+      <c r="M611" s="1">
         <v>45902</v>
       </c>
-      <c r="B611" t="s">
-        <v>55</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D611" t="s">
-        <v>1785</v>
-      </c>
-      <c r="E611" t="s">
-        <v>1786</v>
-      </c>
-      <c r="F611" t="s">
-        <v>1787</v>
-      </c>
-      <c r="G611" t="s">
-        <v>1789</v>
-      </c>
-      <c r="H611" t="s">
-        <v>84</v>
-      </c>
-      <c r="I611" t="s">
-        <v>1790</v>
-      </c>
-      <c r="J611" t="s">
-        <v>59</v>
-      </c>
-      <c r="K611">
-        <v>4.45</v>
-      </c>
-      <c r="L611" t="s">
-        <v>52</v>
-      </c>
-      <c r="M611" s="1">
-        <v>45903</v>
-      </c>
       <c r="N611">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O611" t="s">
         <v>74</v>
@@ -76114,24 +76300,24 @@
         <v>0</v>
       </c>
       <c r="R611">
-        <v>187504862805</v>
-      </c>
-      <c r="S611">
-        <v>10075220317015</v>
+        <v>187473669696</v>
+      </c>
+      <c r="S611" t="s">
+        <v>0</v>
       </c>
       <c r="T611" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="U611" t="s">
-        <v>159</v>
-      </c>
-      <c r="V611">
-        <v>1</v>
-      </c>
-      <c r="W611">
-        <v>5.89</v>
-      </c>
-      <c r="X611">
+        <v>0</v>
+      </c>
+      <c r="V611" t="s">
+        <v>0</v>
+      </c>
+      <c r="W611" t="s">
+        <v>0</v>
+      </c>
+      <c r="X611" t="s">
         <v>0</v>
       </c>
       <c r="Y611" t="s">
@@ -76143,17 +76329,17 @@
       <c r="AA611" s="2">
         <v>0</v>
       </c>
-      <c r="AB611">
-        <v>-0.36</v>
-      </c>
-      <c r="AC611">
-        <v>-0.77</v>
-      </c>
-      <c r="AD611">
-        <v>-0.02</v>
-      </c>
-      <c r="AE611">
-        <v>-0.28999999999999998</v>
+      <c r="AB611" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC611" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD611" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE611" t="s">
+        <v>0</v>
       </c>
       <c r="AF611" t="s">
         <v>0</v>
@@ -76162,7 +76348,7 @@
         <v>0</v>
       </c>
       <c r="AH611">
-        <v>5.89</v>
+        <v>-2.09</v>
       </c>
       <c r="AI611" t="s">
         <v>52</v>
@@ -76171,54 +76357,54 @@
         <v>0</v>
       </c>
       <c r="AK611" t="s">
-        <v>0</v>
+        <v>1862</v>
       </c>
       <c r="AL611" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="612" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B612" t="s">
+        <v>55</v>
+      </c>
+      <c r="C612" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D612" t="s">
+        <v>1859</v>
+      </c>
+      <c r="E612" t="s">
+        <v>1860</v>
+      </c>
+      <c r="F612" t="s">
+        <v>1861</v>
+      </c>
+      <c r="G612" t="s">
+        <v>1863</v>
+      </c>
+      <c r="H612" t="s">
+        <v>218</v>
+      </c>
+      <c r="I612" t="s">
+        <v>1864</v>
+      </c>
+      <c r="J612" t="s">
+        <v>59</v>
+      </c>
+      <c r="K612">
+        <v>12.17</v>
+      </c>
+      <c r="L612" t="s">
+        <v>52</v>
+      </c>
+      <c r="M612" s="1">
         <v>45902</v>
       </c>
-      <c r="B612" t="s">
-        <v>48</v>
-      </c>
-      <c r="C612" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D612" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E612" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F612" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G612" t="s">
-        <v>0</v>
-      </c>
-      <c r="H612" t="s">
-        <v>0</v>
-      </c>
-      <c r="I612" t="s">
-        <v>0</v>
-      </c>
-      <c r="J612" t="s">
-        <v>0</v>
-      </c>
-      <c r="K612">
-        <v>-3.11</v>
-      </c>
-      <c r="L612" t="s">
-        <v>52</v>
-      </c>
-      <c r="M612" s="1">
-        <v>45903</v>
-      </c>
       <c r="N612">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O612" t="s">
         <v>74</v>
@@ -76230,24 +76416,24 @@
         <v>0</v>
       </c>
       <c r="R612">
-        <v>187492038669</v>
-      </c>
-      <c r="S612" t="s">
-        <v>0</v>
+        <v>187473669696</v>
+      </c>
+      <c r="S612">
+        <v>10076486824013</v>
       </c>
       <c r="T612" t="s">
-        <v>0</v>
+        <v>932</v>
       </c>
       <c r="U612" t="s">
-        <v>0</v>
-      </c>
-      <c r="V612" t="s">
-        <v>0</v>
-      </c>
-      <c r="W612" t="s">
-        <v>0</v>
-      </c>
-      <c r="X612" t="s">
+        <v>933</v>
+      </c>
+      <c r="V612">
+        <v>1</v>
+      </c>
+      <c r="W612">
+        <v>14.49</v>
+      </c>
+      <c r="X612">
         <v>0</v>
       </c>
       <c r="Y612" t="s">
@@ -76259,14 +76445,14 @@
       <c r="AA612" s="2">
         <v>0</v>
       </c>
-      <c r="AB612" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC612" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD612" t="s">
-        <v>0</v>
+      <c r="AB612">
+        <v>-0.36</v>
+      </c>
+      <c r="AC612">
+        <v>-1.9</v>
+      </c>
+      <c r="AD612">
+        <v>-0.06</v>
       </c>
       <c r="AE612" t="s">
         <v>0</v>
@@ -76278,7 +76464,7 @@
         <v>0</v>
       </c>
       <c r="AH612">
-        <v>-3.11</v>
+        <v>14.49</v>
       </c>
       <c r="AI612" t="s">
         <v>52</v>
@@ -76287,54 +76473,54 @@
         <v>0</v>
       </c>
       <c r="AK612" t="s">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="AL612" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B613" t="s">
+        <v>48</v>
+      </c>
+      <c r="C613" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D613" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E613" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F613" t="s">
+        <v>1867</v>
+      </c>
+      <c r="G613" t="s">
+        <v>0</v>
+      </c>
+      <c r="H613" t="s">
+        <v>0</v>
+      </c>
+      <c r="I613" t="s">
+        <v>0</v>
+      </c>
+      <c r="J613" t="s">
+        <v>0</v>
+      </c>
+      <c r="K613">
+        <v>-0.83</v>
+      </c>
+      <c r="L613" t="s">
+        <v>52</v>
+      </c>
+      <c r="M613" s="1">
         <v>45902</v>
       </c>
-      <c r="B613" t="s">
-        <v>55</v>
-      </c>
-      <c r="C613" t="s">
-        <v>1791</v>
-      </c>
-      <c r="D613" t="s">
-        <v>1791</v>
-      </c>
-      <c r="E613" t="s">
-        <v>1792</v>
-      </c>
-      <c r="F613" t="s">
-        <v>1793</v>
-      </c>
-      <c r="G613" t="s">
-        <v>1795</v>
-      </c>
-      <c r="H613" t="s">
-        <v>1796</v>
-      </c>
-      <c r="I613" t="s">
-        <v>1797</v>
-      </c>
-      <c r="J613" t="s">
-        <v>59</v>
-      </c>
-      <c r="K613">
-        <v>19.68</v>
-      </c>
-      <c r="L613" t="s">
-        <v>52</v>
-      </c>
-      <c r="M613" s="1">
-        <v>45903</v>
-      </c>
       <c r="N613">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O613" t="s">
         <v>74</v>
@@ -76346,24 +76532,24 @@
         <v>0</v>
       </c>
       <c r="R613">
-        <v>187492038669</v>
-      </c>
-      <c r="S613">
-        <v>10075413713406</v>
+        <v>187483121488</v>
+      </c>
+      <c r="S613" t="s">
+        <v>0</v>
       </c>
       <c r="T613" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="U613" t="s">
-        <v>1285</v>
-      </c>
-      <c r="V613">
-        <v>2</v>
-      </c>
-      <c r="W613">
-        <v>23.5</v>
-      </c>
-      <c r="X613">
+        <v>0</v>
+      </c>
+      <c r="V613" t="s">
+        <v>0</v>
+      </c>
+      <c r="W613" t="s">
+        <v>0</v>
+      </c>
+      <c r="X613" t="s">
         <v>0</v>
       </c>
       <c r="Y613" t="s">
@@ -76375,14 +76561,14 @@
       <c r="AA613" s="2">
         <v>0</v>
       </c>
-      <c r="AB613">
-        <v>-0.36</v>
-      </c>
-      <c r="AC613">
-        <v>-3.36</v>
-      </c>
-      <c r="AD613">
-        <v>-0.1</v>
+      <c r="AB613" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC613" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD613" t="s">
+        <v>0</v>
       </c>
       <c r="AE613" t="s">
         <v>0</v>
@@ -76394,7 +76580,7 @@
         <v>0</v>
       </c>
       <c r="AH613">
-        <v>23.5</v>
+        <v>-0.83</v>
       </c>
       <c r="AI613" t="s">
         <v>52</v>
@@ -76403,54 +76589,54 @@
         <v>0</v>
       </c>
       <c r="AK613" t="s">
-        <v>0</v>
+        <v>1868</v>
       </c>
       <c r="AL613" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="614" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="B614" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C614" t="s">
-        <v>1116</v>
+        <v>1865</v>
       </c>
       <c r="D614" t="s">
-        <v>1116</v>
+        <v>1865</v>
       </c>
       <c r="E614" t="s">
-        <v>1117</v>
+        <v>1866</v>
       </c>
       <c r="F614" t="s">
-        <v>1118</v>
+        <v>1867</v>
       </c>
       <c r="G614" t="s">
-        <v>1120</v>
+        <v>443</v>
       </c>
       <c r="H614" t="s">
-        <v>1121</v>
+        <v>128</v>
       </c>
       <c r="I614" t="s">
-        <v>1122</v>
+        <v>1869</v>
       </c>
       <c r="J614" t="s">
         <v>59</v>
       </c>
       <c r="K614">
-        <v>-12.99</v>
+        <v>6.79</v>
       </c>
       <c r="L614" t="s">
         <v>52</v>
       </c>
       <c r="M614" s="1">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="N614">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O614" t="s">
         <v>74</v>
@@ -76462,24 +76648,24 @@
         <v>0</v>
       </c>
       <c r="R614">
-        <v>187499629184</v>
+        <v>187483121488</v>
       </c>
       <c r="S614">
-        <v>10074841180619</v>
+        <v>10075212701510</v>
       </c>
       <c r="T614" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="U614" t="s">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="V614">
         <v>1</v>
       </c>
       <c r="W614">
-        <v>12.99</v>
-      </c>
-      <c r="X614" t="s">
+        <v>8.1</v>
+      </c>
+      <c r="X614">
         <v>0</v>
       </c>
       <c r="Y614" t="s">
@@ -76491,14 +76677,14 @@
       <c r="AA614" s="2">
         <v>0</v>
       </c>
-      <c r="AB614" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC614" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD614" t="s">
-        <v>0</v>
+      <c r="AB614">
+        <v>-0.12</v>
+      </c>
+      <c r="AC614">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="AD614">
+        <v>-0.04</v>
       </c>
       <c r="AE614" t="s">
         <v>0</v>
@@ -76510,7 +76696,7 @@
         <v>0</v>
       </c>
       <c r="AH614">
-        <v>-12.99</v>
+        <v>8.1</v>
       </c>
       <c r="AI614" t="s">
         <v>52</v>
@@ -76519,54 +76705,54 @@
         <v>0</v>
       </c>
       <c r="AK614" t="s">
-        <v>1798</v>
+        <v>0</v>
       </c>
       <c r="AL614" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B615" t="s">
+        <v>169</v>
+      </c>
+      <c r="C615" t="s">
+        <v>809</v>
+      </c>
+      <c r="D615" t="s">
+        <v>809</v>
+      </c>
+      <c r="E615" t="s">
+        <v>810</v>
+      </c>
+      <c r="F615" t="s">
+        <v>811</v>
+      </c>
+      <c r="G615" t="s">
+        <v>813</v>
+      </c>
+      <c r="H615" t="s">
+        <v>748</v>
+      </c>
+      <c r="I615" t="s">
+        <v>814</v>
+      </c>
+      <c r="J615" t="s">
+        <v>59</v>
+      </c>
+      <c r="K615">
+        <v>-10.95</v>
+      </c>
+      <c r="L615" t="s">
+        <v>52</v>
+      </c>
+      <c r="M615" s="1">
         <v>45902</v>
       </c>
-      <c r="B615" t="s">
-        <v>48</v>
-      </c>
-      <c r="C615" t="s">
-        <v>1799</v>
-      </c>
-      <c r="D615" t="s">
-        <v>1799</v>
-      </c>
-      <c r="E615" t="s">
-        <v>1800</v>
-      </c>
-      <c r="F615" t="s">
-        <v>1801</v>
-      </c>
-      <c r="G615" t="s">
-        <v>0</v>
-      </c>
-      <c r="H615" t="s">
-        <v>0</v>
-      </c>
-      <c r="I615" t="s">
-        <v>0</v>
-      </c>
-      <c r="J615" t="s">
-        <v>0</v>
-      </c>
-      <c r="K615">
-        <v>-0.79</v>
-      </c>
-      <c r="L615" t="s">
-        <v>52</v>
-      </c>
-      <c r="M615" s="1">
-        <v>45903</v>
-      </c>
       <c r="N615">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O615" t="s">
         <v>74</v>
@@ -76578,22 +76764,22 @@
         <v>0</v>
       </c>
       <c r="R615">
-        <v>187480578811</v>
-      </c>
-      <c r="S615" t="s">
-        <v>0</v>
+        <v>187473655879</v>
+      </c>
+      <c r="S615">
+        <v>10074345877608</v>
       </c>
       <c r="T615" t="s">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="U615" t="s">
         <v>0</v>
       </c>
-      <c r="V615" t="s">
-        <v>0</v>
-      </c>
-      <c r="W615" t="s">
-        <v>0</v>
+      <c r="V615">
+        <v>1</v>
+      </c>
+      <c r="W615">
+        <v>10.95</v>
       </c>
       <c r="X615" t="s">
         <v>0</v>
@@ -76626,7 +76812,7 @@
         <v>0</v>
       </c>
       <c r="AH615">
-        <v>-0.79</v>
+        <v>-10.95</v>
       </c>
       <c r="AI615" t="s">
         <v>52</v>
@@ -76635,30 +76821,30 @@
         <v>0</v>
       </c>
       <c r="AK615" t="s">
-        <v>1802</v>
+        <v>1870</v>
       </c>
       <c r="AL615" t="s">
-        <v>54</v>
+        <v>263</v>
       </c>
     </row>
     <row r="616" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="B616" t="s">
         <v>48</v>
       </c>
       <c r="C616" t="s">
-        <v>1803</v>
+        <v>1871</v>
       </c>
       <c r="D616" t="s">
-        <v>1803</v>
+        <v>1871</v>
       </c>
       <c r="E616" t="s">
-        <v>1804</v>
+        <v>1872</v>
       </c>
       <c r="F616" t="s">
-        <v>1805</v>
+        <v>1873</v>
       </c>
       <c r="G616" t="s">
         <v>0</v>
@@ -76673,16 +76859,16 @@
         <v>0</v>
       </c>
       <c r="K616">
-        <v>-1.96</v>
+        <v>-8.5299999999999994</v>
       </c>
       <c r="L616" t="s">
         <v>52</v>
       </c>
       <c r="M616" s="1">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="N616">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O616" t="s">
         <v>74</v>
@@ -76694,7 +76880,7 @@
         <v>0</v>
       </c>
       <c r="R616">
-        <v>187499629184</v>
+        <v>187494085885</v>
       </c>
       <c r="S616" t="s">
         <v>0</v>
@@ -76742,7 +76928,7 @@
         <v>0</v>
       </c>
       <c r="AH616">
-        <v>-1.96</v>
+        <v>-8.5299999999999994</v>
       </c>
       <c r="AI616" t="s">
         <v>52</v>
@@ -76751,7 +76937,7 @@
         <v>0</v>
       </c>
       <c r="AK616" t="s">
-        <v>1806</v>
+        <v>1874</v>
       </c>
       <c r="AL616" t="s">
         <v>54</v>
@@ -76759,46 +76945,46 @@
     </row>
     <row r="617" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="B617" t="s">
         <v>55</v>
       </c>
       <c r="C617" t="s">
-        <v>1799</v>
+        <v>1871</v>
       </c>
       <c r="D617" t="s">
-        <v>1799</v>
+        <v>1871</v>
       </c>
       <c r="E617" t="s">
-        <v>1800</v>
+        <v>1872</v>
       </c>
       <c r="F617" t="s">
-        <v>1801</v>
+        <v>1873</v>
       </c>
       <c r="G617" t="s">
-        <v>1807</v>
+        <v>192</v>
       </c>
       <c r="H617" t="s">
-        <v>1808</v>
+        <v>193</v>
       </c>
       <c r="I617" t="s">
-        <v>1809</v>
+        <v>1875</v>
       </c>
       <c r="J617" t="s">
         <v>59</v>
       </c>
       <c r="K617">
-        <v>6.94</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="L617" t="s">
         <v>52</v>
       </c>
       <c r="M617" s="1">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="N617">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O617" t="s">
         <v>74</v>
@@ -76810,22 +76996,22 @@
         <v>0</v>
       </c>
       <c r="R617">
-        <v>187480578811</v>
+        <v>187494085885</v>
       </c>
       <c r="S617">
-        <v>10074342700425</v>
+        <v>10074684018323</v>
       </c>
       <c r="T617" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="U617" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="V617">
         <v>1</v>
       </c>
       <c r="W617">
-        <v>8.2899999999999991</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="X617">
         <v>0</v>
@@ -76840,13 +77026,13 @@
         <v>0</v>
       </c>
       <c r="AB617">
-        <v>-0.12</v>
+        <v>-0.36</v>
       </c>
       <c r="AC617">
-        <v>-1.19</v>
+        <v>-11.28</v>
       </c>
       <c r="AD617">
-        <v>-0.04</v>
+        <v>-0.34</v>
       </c>
       <c r="AE617" t="s">
         <v>0</v>
@@ -76858,7 +77044,7 @@
         <v>0</v>
       </c>
       <c r="AH617">
-        <v>8.2899999999999991</v>
+        <v>78.989999999999995</v>
       </c>
       <c r="AI617" t="s">
         <v>52</v>
@@ -76875,46 +77061,46 @@
     </row>
     <row r="618" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B618" t="s">
+        <v>48</v>
+      </c>
+      <c r="C618" t="s">
+        <v>49</v>
+      </c>
+      <c r="D618" t="s">
+        <v>49</v>
+      </c>
+      <c r="E618" t="s">
+        <v>50</v>
+      </c>
+      <c r="F618" t="s">
+        <v>51</v>
+      </c>
+      <c r="G618" t="s">
+        <v>0</v>
+      </c>
+      <c r="H618" t="s">
+        <v>0</v>
+      </c>
+      <c r="I618" t="s">
+        <v>0</v>
+      </c>
+      <c r="J618" t="s">
+        <v>0</v>
+      </c>
+      <c r="K618">
+        <v>-13.01</v>
+      </c>
+      <c r="L618" t="s">
+        <v>52</v>
+      </c>
+      <c r="M618" s="1">
         <v>45902</v>
       </c>
-      <c r="B618" t="s">
-        <v>55</v>
-      </c>
-      <c r="C618" t="s">
-        <v>1803</v>
-      </c>
-      <c r="D618" t="s">
-        <v>1803</v>
-      </c>
-      <c r="E618" t="s">
-        <v>1804</v>
-      </c>
-      <c r="F618" t="s">
-        <v>1805</v>
-      </c>
-      <c r="G618" t="s">
-        <v>1810</v>
-      </c>
-      <c r="H618" t="s">
-        <v>1811</v>
-      </c>
-      <c r="I618" t="s">
-        <v>1812</v>
-      </c>
-      <c r="J618" t="s">
-        <v>59</v>
-      </c>
-      <c r="K618">
-        <v>12.94</v>
-      </c>
-      <c r="L618" t="s">
-        <v>52</v>
-      </c>
-      <c r="M618" s="1">
-        <v>45903</v>
-      </c>
       <c r="N618">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O618" t="s">
         <v>74</v>
@@ -76926,24 +77112,24 @@
         <v>0</v>
       </c>
       <c r="R618">
-        <v>187499629184</v>
-      </c>
-      <c r="S618">
-        <v>10075409858106</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S618" t="s">
+        <v>0</v>
       </c>
       <c r="T618" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="U618" t="s">
-        <v>1813</v>
-      </c>
-      <c r="V618">
-        <v>1</v>
-      </c>
-      <c r="W618">
-        <v>16.29</v>
-      </c>
-      <c r="X618">
+        <v>0</v>
+      </c>
+      <c r="V618" t="s">
+        <v>0</v>
+      </c>
+      <c r="W618" t="s">
+        <v>0</v>
+      </c>
+      <c r="X618" t="s">
         <v>0</v>
       </c>
       <c r="Y618" t="s">
@@ -76955,17 +77141,17 @@
       <c r="AA618" s="2">
         <v>0</v>
       </c>
-      <c r="AB618">
-        <v>-0.36</v>
-      </c>
-      <c r="AC618">
-        <v>-2.14</v>
-      </c>
-      <c r="AD618">
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="AE618">
-        <v>-0.78</v>
+      <c r="AB618" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC618" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD618" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE618" t="s">
+        <v>0</v>
       </c>
       <c r="AF618" t="s">
         <v>0</v>
@@ -76974,7 +77160,7 @@
         <v>0</v>
       </c>
       <c r="AH618">
-        <v>16.29</v>
+        <v>-13.01</v>
       </c>
       <c r="AI618" t="s">
         <v>52</v>
@@ -76983,54 +77169,54 @@
         <v>0</v>
       </c>
       <c r="AK618" t="s">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AL618" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="619" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B619" t="s">
+        <v>55</v>
+      </c>
+      <c r="C619" t="s">
+        <v>49</v>
+      </c>
+      <c r="D619" t="s">
+        <v>49</v>
+      </c>
+      <c r="E619" t="s">
+        <v>50</v>
+      </c>
+      <c r="F619" t="s">
+        <v>51</v>
+      </c>
+      <c r="G619" t="s">
+        <v>56</v>
+      </c>
+      <c r="H619" t="s">
+        <v>57</v>
+      </c>
+      <c r="I619" t="s">
+        <v>58</v>
+      </c>
+      <c r="J619" t="s">
+        <v>59</v>
+      </c>
+      <c r="K619">
+        <v>88.17</v>
+      </c>
+      <c r="L619" t="s">
+        <v>52</v>
+      </c>
+      <c r="M619" s="1">
         <v>45902</v>
       </c>
-      <c r="B619" t="s">
-        <v>48</v>
-      </c>
-      <c r="C619" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D619" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E619" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F619" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G619" t="s">
-        <v>0</v>
-      </c>
-      <c r="H619" t="s">
-        <v>0</v>
-      </c>
-      <c r="I619" t="s">
-        <v>0</v>
-      </c>
-      <c r="J619" t="s">
-        <v>0</v>
-      </c>
-      <c r="K619">
-        <v>-2.4500000000000002</v>
-      </c>
-      <c r="L619" t="s">
-        <v>52</v>
-      </c>
-      <c r="M619" s="1">
-        <v>45903</v>
-      </c>
       <c r="N619">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O619" t="s">
         <v>74</v>
@@ -77042,24 +77228,24 @@
         <v>0</v>
       </c>
       <c r="R619">
-        <v>187483035573</v>
-      </c>
-      <c r="S619" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S619">
+        <v>10075177117616</v>
       </c>
       <c r="T619" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U619" t="s">
-        <v>0</v>
-      </c>
-      <c r="V619" t="s">
-        <v>0</v>
-      </c>
-      <c r="W619" t="s">
-        <v>0</v>
-      </c>
-      <c r="X619" t="s">
+        <v>61</v>
+      </c>
+      <c r="V619">
+        <v>2</v>
+      </c>
+      <c r="W619">
+        <v>108.36</v>
+      </c>
+      <c r="X619">
         <v>0</v>
       </c>
       <c r="Y619" t="s">
@@ -77071,17 +77257,17 @@
       <c r="AA619" s="2">
         <v>0</v>
       </c>
-      <c r="AB619" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC619" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD619" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE619" t="s">
-        <v>0</v>
+      <c r="AB619">
+        <v>-0.36</v>
+      </c>
+      <c r="AC619">
+        <v>-14.17</v>
+      </c>
+      <c r="AD619">
+        <v>-0.46</v>
+      </c>
+      <c r="AE619">
+        <v>-5.2</v>
       </c>
       <c r="AF619" t="s">
         <v>0</v>
@@ -77090,7 +77276,7 @@
         <v>0</v>
       </c>
       <c r="AH619">
-        <v>-2.4500000000000002</v>
+        <v>108.36</v>
       </c>
       <c r="AI619" t="s">
         <v>52</v>
@@ -77099,54 +77285,54 @@
         <v>0</v>
       </c>
       <c r="AK619" t="s">
-        <v>1817</v>
+        <v>0</v>
       </c>
       <c r="AL619" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B620" t="s">
+        <v>48</v>
+      </c>
+      <c r="C620" t="s">
+        <v>62</v>
+      </c>
+      <c r="D620" t="s">
+        <v>62</v>
+      </c>
+      <c r="E620" t="s">
+        <v>63</v>
+      </c>
+      <c r="F620" t="s">
+        <v>64</v>
+      </c>
+      <c r="G620" t="s">
+        <v>0</v>
+      </c>
+      <c r="H620" t="s">
+        <v>0</v>
+      </c>
+      <c r="I620" t="s">
+        <v>0</v>
+      </c>
+      <c r="J620" t="s">
+        <v>0</v>
+      </c>
+      <c r="K620">
+        <v>1.93</v>
+      </c>
+      <c r="L620" t="s">
+        <v>52</v>
+      </c>
+      <c r="M620" s="1">
         <v>45902</v>
       </c>
-      <c r="B620" t="s">
-        <v>55</v>
-      </c>
-      <c r="C620" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D620" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E620" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F620" t="s">
-        <v>1816</v>
-      </c>
-      <c r="G620" t="s">
-        <v>1818</v>
-      </c>
-      <c r="H620" t="s">
-        <v>103</v>
-      </c>
-      <c r="I620" t="s">
-        <v>1819</v>
-      </c>
-      <c r="J620" t="s">
-        <v>59</v>
-      </c>
-      <c r="K620">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="L620" t="s">
-        <v>52</v>
-      </c>
-      <c r="M620" s="1">
-        <v>45903</v>
-      </c>
       <c r="N620">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O620" t="s">
         <v>74</v>
@@ -77158,24 +77344,24 @@
         <v>0</v>
       </c>
       <c r="R620">
-        <v>187483035573</v>
-      </c>
-      <c r="S620">
-        <v>10076515397113</v>
+        <v>187521939817</v>
+      </c>
+      <c r="S620" t="s">
+        <v>0</v>
       </c>
       <c r="T620" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="U620" t="s">
-        <v>203</v>
-      </c>
-      <c r="V620">
-        <v>1</v>
-      </c>
-      <c r="W620">
-        <v>20.39</v>
-      </c>
-      <c r="X620">
+        <v>0</v>
+      </c>
+      <c r="V620" t="s">
+        <v>0</v>
+      </c>
+      <c r="W620" t="s">
+        <v>0</v>
+      </c>
+      <c r="X620" t="s">
         <v>0</v>
       </c>
       <c r="Y620" t="s">
@@ -77187,14 +77373,14 @@
       <c r="AA620" s="2">
         <v>0</v>
       </c>
-      <c r="AB620">
-        <v>-0.36</v>
-      </c>
-      <c r="AC620">
-        <v>-1.69</v>
-      </c>
-      <c r="AD620">
-        <v>-0.08</v>
+      <c r="AB620" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC620" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD620" t="s">
+        <v>0</v>
       </c>
       <c r="AE620" t="s">
         <v>0</v>
@@ -77206,7 +77392,7 @@
         <v>0</v>
       </c>
       <c r="AH620">
-        <v>20.39</v>
+        <v>1.93</v>
       </c>
       <c r="AI620" t="s">
         <v>52</v>
@@ -77215,54 +77401,54 @@
         <v>0</v>
       </c>
       <c r="AK620" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AL620" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="621" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="B621" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="C621" t="s">
-        <v>519</v>
+        <v>62</v>
       </c>
       <c r="D621" t="s">
-        <v>519</v>
+        <v>62</v>
       </c>
       <c r="E621" t="s">
-        <v>520</v>
+        <v>63</v>
       </c>
       <c r="F621" t="s">
-        <v>521</v>
+        <v>64</v>
       </c>
       <c r="G621" t="s">
-        <v>410</v>
+        <v>67</v>
       </c>
       <c r="H621" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I621" t="s">
-        <v>523</v>
+        <v>69</v>
       </c>
       <c r="J621" t="s">
         <v>59</v>
       </c>
       <c r="K621">
-        <v>-16.97</v>
+        <v>-12.77</v>
       </c>
       <c r="L621" t="s">
         <v>52</v>
       </c>
       <c r="M621" s="1">
-        <v>45903</v>
+        <v>45902</v>
       </c>
       <c r="N621">
-        <v>7055485955</v>
+        <v>7053952139</v>
       </c>
       <c r="O621" t="s">
         <v>74</v>
@@ -77273,23 +77459,23 @@
       <c r="Q621" t="s">
         <v>0</v>
       </c>
-      <c r="R621">
-        <v>187499629184</v>
-      </c>
-      <c r="S621">
-        <v>10075253050103</v>
+      <c r="R621" t="s">
+        <v>0</v>
+      </c>
+      <c r="S621" t="s">
+        <v>0</v>
       </c>
       <c r="T621" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="U621" t="s">
-        <v>0</v>
-      </c>
-      <c r="V621">
-        <v>1</v>
-      </c>
-      <c r="W621">
-        <v>16.97</v>
+        <v>71</v>
+      </c>
+      <c r="V621" t="s">
+        <v>0</v>
+      </c>
+      <c r="W621" t="s">
+        <v>0</v>
       </c>
       <c r="X621" t="s">
         <v>0</v>
@@ -77306,11 +77492,11 @@
       <c r="AB621" t="s">
         <v>0</v>
       </c>
-      <c r="AC621" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD621" t="s">
-        <v>0</v>
+      <c r="AC621">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="AD621">
+        <v>0.06</v>
       </c>
       <c r="AE621" t="s">
         <v>0</v>
@@ -77322,7 +77508,7 @@
         <v>0</v>
       </c>
       <c r="AH621">
-        <v>-16.97</v>
+        <v>-13.99</v>
       </c>
       <c r="AI621" t="s">
         <v>52</v>
@@ -77331,30 +77517,30 @@
         <v>0</v>
       </c>
       <c r="AK621" t="s">
-        <v>1820</v>
+        <v>72</v>
       </c>
       <c r="AL621" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
-        <v>45902</v>
+        <v>45901</v>
       </c>
       <c r="B622" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C622" t="s">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="D622" t="s">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="E622" t="s">
-        <v>1822</v>
+        <v>0</v>
       </c>
       <c r="F622" t="s">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="G622" t="s">
         <v>0</v>
@@ -77369,16 +77555,16 @@
         <v>0</v>
       </c>
       <c r="K622">
-        <v>-2.64</v>
+        <v>-275.99</v>
       </c>
       <c r="L622" t="s">
         <v>52</v>
       </c>
-      <c r="M622" s="1">
-        <v>45903</v>
+      <c r="M622" t="s">
+        <v>0</v>
       </c>
       <c r="N622">
-        <v>7055485955</v>
+        <v>7051952531</v>
       </c>
       <c r="O622" t="s">
         <v>74</v>
@@ -77389,8 +77575,8 @@
       <c r="Q622" t="s">
         <v>0</v>
       </c>
-      <c r="R622">
-        <v>187499629184</v>
+      <c r="R622" t="s">
+        <v>0</v>
       </c>
       <c r="S622" t="s">
         <v>0</v>
@@ -77438,7 +77624,7 @@
         <v>0</v>
       </c>
       <c r="AH622">
-        <v>-2.64</v>
+        <v>-275.99</v>
       </c>
       <c r="AI622" t="s">
         <v>52</v>
@@ -77447,54 +77633,54 @@
         <v>0</v>
       </c>
       <c r="AK622" t="s">
-        <v>1824</v>
+        <v>76</v>
       </c>
       <c r="AL622" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="623" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B623" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C623" t="s">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="D623" t="s">
-        <v>1821</v>
+        <v>0</v>
       </c>
       <c r="E623" t="s">
-        <v>1822</v>
+        <v>0</v>
       </c>
       <c r="F623" t="s">
-        <v>1823</v>
+        <v>0</v>
       </c>
       <c r="G623" t="s">
-        <v>1825</v>
+        <v>0</v>
       </c>
       <c r="H623" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I623" t="s">
-        <v>1826</v>
+        <v>0</v>
       </c>
       <c r="J623" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K623">
-        <v>17.59</v>
+        <v>-166.8</v>
       </c>
       <c r="L623" t="s">
         <v>52</v>
       </c>
-      <c r="M623" s="1">
-        <v>45903</v>
+      <c r="M623" t="s">
+        <v>0</v>
       </c>
       <c r="N623">
-        <v>7055485955</v>
+        <v>7057564547</v>
       </c>
       <c r="O623" t="s">
         <v>74</v>
@@ -77505,25 +77691,25 @@
       <c r="Q623" t="s">
         <v>0</v>
       </c>
-      <c r="R623">
-        <v>187499629184</v>
-      </c>
-      <c r="S623">
-        <v>10079675040721</v>
+      <c r="R623" t="s">
+        <v>0</v>
+      </c>
+      <c r="S623" t="s">
+        <v>0</v>
       </c>
       <c r="T623" t="s">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="U623" t="s">
-        <v>195</v>
-      </c>
-      <c r="V623">
-        <v>1</v>
-      </c>
-      <c r="W623">
-        <v>21.99</v>
-      </c>
-      <c r="X623">
+        <v>0</v>
+      </c>
+      <c r="V623" t="s">
+        <v>0</v>
+      </c>
+      <c r="W623" t="s">
+        <v>0</v>
+      </c>
+      <c r="X623" t="s">
         <v>0</v>
       </c>
       <c r="Y623" t="s">
@@ -77535,17 +77721,17 @@
       <c r="AA623" s="2">
         <v>0</v>
       </c>
-      <c r="AB623">
-        <v>-0.36</v>
-      </c>
-      <c r="AC623">
-        <v>-2.88</v>
-      </c>
-      <c r="AD623">
-        <v>-0.1</v>
-      </c>
-      <c r="AE623">
-        <v>-1.06</v>
+      <c r="AB623" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC623" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD623" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE623" t="s">
+        <v>0</v>
       </c>
       <c r="AF623" t="s">
         <v>0</v>
@@ -77554,7 +77740,7 @@
         <v>0</v>
       </c>
       <c r="AH623">
-        <v>21.99</v>
+        <v>-166.8</v>
       </c>
       <c r="AI623" t="s">
         <v>52</v>
@@ -77563,30 +77749,30 @@
         <v>0</v>
       </c>
       <c r="AK623" t="s">
-        <v>0</v>
+        <v>1876</v>
       </c>
       <c r="AL623" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="624" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B624" t="s">
         <v>48</v>
       </c>
       <c r="C624" t="s">
-        <v>1827</v>
+        <v>1877</v>
       </c>
       <c r="D624" t="s">
-        <v>1827</v>
+        <v>1877</v>
       </c>
       <c r="E624" t="s">
-        <v>1792</v>
+        <v>1878</v>
       </c>
       <c r="F624" t="s">
-        <v>1828</v>
+        <v>1879</v>
       </c>
       <c r="G624" t="s">
         <v>0</v>
@@ -77601,16 +77787,16 @@
         <v>0</v>
       </c>
       <c r="K624">
-        <v>-3.11</v>
+        <v>-2.33</v>
       </c>
       <c r="L624" t="s">
         <v>52</v>
       </c>
       <c r="M624" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="N624">
-        <v>7055485955</v>
+        <v>7057564547</v>
       </c>
       <c r="O624" t="s">
         <v>74</v>
@@ -77622,7 +77808,7 @@
         <v>0</v>
       </c>
       <c r="R624">
-        <v>187492038669</v>
+        <v>187473651729</v>
       </c>
       <c r="S624" t="s">
         <v>0</v>
@@ -77670,7 +77856,7 @@
         <v>0</v>
       </c>
       <c r="AH624">
-        <v>-3.11</v>
+        <v>-2.33</v>
       </c>
       <c r="AI624" t="s">
         <v>52</v>
@@ -77679,7 +77865,7 @@
         <v>0</v>
       </c>
       <c r="AK624" t="s">
-        <v>1829</v>
+        <v>1880</v>
       </c>
       <c r="AL624" t="s">
         <v>54</v>
@@ -77687,46 +77873,46 @@
     </row>
     <row r="625" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B625" t="s">
         <v>55</v>
       </c>
       <c r="C625" t="s">
-        <v>1827</v>
+        <v>1877</v>
       </c>
       <c r="D625" t="s">
-        <v>1827</v>
+        <v>1877</v>
       </c>
       <c r="E625" t="s">
-        <v>1792</v>
+        <v>1878</v>
       </c>
       <c r="F625" t="s">
-        <v>1828</v>
+        <v>1879</v>
       </c>
       <c r="G625" t="s">
-        <v>1830</v>
+        <v>1881</v>
       </c>
       <c r="H625" t="s">
-        <v>450</v>
+        <v>530</v>
       </c>
       <c r="I625" t="s">
-        <v>1831</v>
+        <v>1882</v>
       </c>
       <c r="J625" t="s">
         <v>59</v>
       </c>
       <c r="K625">
-        <v>19.68</v>
+        <v>14.42</v>
       </c>
       <c r="L625" t="s">
         <v>52</v>
       </c>
       <c r="M625" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="N625">
-        <v>7055485955</v>
+        <v>7057564547</v>
       </c>
       <c r="O625" t="s">
         <v>74</v>
@@ -77738,22 +77924,22 @@
         <v>0</v>
       </c>
       <c r="R625">
-        <v>187492038669</v>
+        <v>187473651729</v>
       </c>
       <c r="S625">
-        <v>10074757532422</v>
+        <v>10078254697418</v>
       </c>
       <c r="T625" t="s">
-        <v>354</v>
+        <v>801</v>
       </c>
       <c r="U625" t="s">
-        <v>1285</v>
+        <v>802</v>
       </c>
       <c r="V625">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W625">
-        <v>23.5</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="X625">
         <v>0</v>
@@ -77771,10 +77957,10 @@
         <v>-0.36</v>
       </c>
       <c r="AC625">
-        <v>-3.36</v>
+        <v>-1.34</v>
       </c>
       <c r="AD625">
-        <v>-0.1</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE625" t="s">
         <v>0</v>
@@ -77786,7 +77972,7 @@
         <v>0</v>
       </c>
       <c r="AH625">
-        <v>23.5</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="AI625" t="s">
         <v>52</v>
@@ -77803,22 +77989,22 @@
     </row>
     <row r="626" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B626" t="s">
         <v>48</v>
       </c>
       <c r="C626" t="s">
-        <v>1832</v>
+        <v>1883</v>
       </c>
       <c r="D626" t="s">
-        <v>1832</v>
+        <v>1883</v>
       </c>
       <c r="E626" t="s">
-        <v>1833</v>
+        <v>430</v>
       </c>
       <c r="F626" t="s">
-        <v>1834</v>
+        <v>431</v>
       </c>
       <c r="G626" t="s">
         <v>0</v>
@@ -77833,16 +78019,16 @@
         <v>0</v>
       </c>
       <c r="K626">
-        <v>-11.7</v>
+        <v>-1.22</v>
       </c>
       <c r="L626" t="s">
         <v>52</v>
       </c>
       <c r="M626" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="N626">
-        <v>7055485955</v>
+        <v>7057564547</v>
       </c>
       <c r="O626" t="s">
         <v>74</v>
@@ -77854,7 +78040,7 @@
         <v>0</v>
       </c>
       <c r="R626">
-        <v>187473652251</v>
+        <v>187480578811</v>
       </c>
       <c r="S626" t="s">
         <v>0</v>
@@ -77902,7 +78088,7 @@
         <v>0</v>
       </c>
       <c r="AH626">
-        <v>-11.7</v>
+        <v>-1.22</v>
       </c>
       <c r="AI626" t="s">
         <v>52</v>
@@ -77911,7 +78097,7 @@
         <v>0</v>
       </c>
       <c r="AK626" t="s">
-        <v>1835</v>
+        <v>1884</v>
       </c>
       <c r="AL626" t="s">
         <v>54</v>
@@ -77919,46 +78105,46 @@
     </row>
     <row r="627" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B627" t="s">
         <v>55</v>
       </c>
       <c r="C627" t="s">
-        <v>1832</v>
+        <v>1883</v>
       </c>
       <c r="D627" t="s">
-        <v>1832</v>
+        <v>1883</v>
       </c>
       <c r="E627" t="s">
-        <v>1833</v>
+        <v>430</v>
       </c>
       <c r="F627" t="s">
-        <v>1834</v>
+        <v>431</v>
       </c>
       <c r="G627" t="s">
-        <v>1836</v>
+        <v>352</v>
       </c>
       <c r="H627" t="s">
-        <v>1837</v>
+        <v>128</v>
       </c>
       <c r="I627" t="s">
-        <v>1838</v>
+        <v>438</v>
       </c>
       <c r="J627" t="s">
         <v>59</v>
       </c>
       <c r="K627">
-        <v>88.17</v>
+        <v>7.12</v>
       </c>
       <c r="L627" t="s">
         <v>52</v>
       </c>
       <c r="M627" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="N627">
-        <v>7055485955</v>
+        <v>7057564547</v>
       </c>
       <c r="O627" t="s">
         <v>74</v>
@@ -77970,22 +78156,22 @@
         <v>0</v>
       </c>
       <c r="R627">
-        <v>187473652251</v>
+        <v>187480578811</v>
       </c>
       <c r="S627">
-        <v>10075252015512</v>
+        <v>10075445331806</v>
       </c>
       <c r="T627" t="s">
-        <v>60</v>
+        <v>249</v>
       </c>
       <c r="U627" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="V627">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W627">
-        <v>108.36</v>
+        <v>8.49</v>
       </c>
       <c r="X627">
         <v>0</v>
@@ -78000,16 +78186,16 @@
         <v>0</v>
       </c>
       <c r="AB627">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC627">
-        <v>-14.17</v>
+        <v>-1.21</v>
       </c>
       <c r="AD627">
-        <v>-0.46</v>
-      </c>
-      <c r="AE627">
-        <v>-5.2</v>
+        <v>-0.04</v>
+      </c>
+      <c r="AE627" t="s">
+        <v>0</v>
       </c>
       <c r="AF627" t="s">
         <v>0</v>
@@ -78018,7 +78204,7 @@
         <v>0</v>
       </c>
       <c r="AH627">
-        <v>108.36</v>
+        <v>8.49</v>
       </c>
       <c r="AI627" t="s">
         <v>52</v>
@@ -78035,22 +78221,22 @@
     </row>
     <row r="628" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B628" t="s">
         <v>48</v>
       </c>
       <c r="C628" t="s">
-        <v>1839</v>
+        <v>1885</v>
       </c>
       <c r="D628" t="s">
-        <v>1839</v>
+        <v>1885</v>
       </c>
       <c r="E628" t="s">
-        <v>1840</v>
+        <v>1886</v>
       </c>
       <c r="F628" t="s">
-        <v>1841</v>
+        <v>1887</v>
       </c>
       <c r="G628" t="s">
         <v>0</v>
@@ -78065,16 +78251,16 @@
         <v>0</v>
       </c>
       <c r="K628">
-        <v>-1.94</v>
+        <v>-1.22</v>
       </c>
       <c r="L628" t="s">
         <v>52</v>
       </c>
       <c r="M628" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="N628">
-        <v>7055485955</v>
+        <v>7057564547</v>
       </c>
       <c r="O628" t="s">
         <v>74</v>
@@ -78086,7 +78272,7 @@
         <v>0</v>
       </c>
       <c r="R628">
-        <v>187473651729</v>
+        <v>187480578811</v>
       </c>
       <c r="S628" t="s">
         <v>0</v>
@@ -78134,7 +78320,7 @@
         <v>0</v>
       </c>
       <c r="AH628">
-        <v>-1.94</v>
+        <v>-1.22</v>
       </c>
       <c r="AI628" t="s">
         <v>52</v>
@@ -78143,7 +78329,7 @@
         <v>0</v>
       </c>
       <c r="AK628" t="s">
-        <v>1842</v>
+        <v>1888</v>
       </c>
       <c r="AL628" t="s">
         <v>54</v>
@@ -78151,46 +78337,46 @@
     </row>
     <row r="629" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B629" t="s">
         <v>55</v>
       </c>
       <c r="C629" t="s">
-        <v>1839</v>
+        <v>1885</v>
       </c>
       <c r="D629" t="s">
-        <v>1839</v>
+        <v>1885</v>
       </c>
       <c r="E629" t="s">
-        <v>1840</v>
+        <v>1886</v>
       </c>
       <c r="F629" t="s">
-        <v>1841</v>
+        <v>1887</v>
       </c>
       <c r="G629" t="s">
-        <v>1843</v>
+        <v>410</v>
       </c>
       <c r="H629" t="s">
-        <v>1844</v>
+        <v>410</v>
       </c>
       <c r="I629" t="s">
-        <v>1845</v>
+        <v>1889</v>
       </c>
       <c r="J629" t="s">
         <v>59</v>
       </c>
       <c r="K629">
-        <v>14.42</v>
+        <v>7.12</v>
       </c>
       <c r="L629" t="s">
         <v>52</v>
       </c>
       <c r="M629" s="1">
-        <v>45903</v>
+        <v>45904</v>
       </c>
       <c r="N629">
-        <v>7055485955</v>
+        <v>7057564547</v>
       </c>
       <c r="O629" t="s">
         <v>74</v>
@@ -78202,22 +78388,22 @@
         <v>0</v>
       </c>
       <c r="R629">
-        <v>187473651729</v>
+        <v>187480578811</v>
       </c>
       <c r="S629">
-        <v>10076509420813</v>
+        <v>10075209226819</v>
       </c>
       <c r="T629" t="s">
-        <v>801</v>
+        <v>249</v>
       </c>
       <c r="U629" t="s">
-        <v>802</v>
+        <v>87</v>
       </c>
       <c r="V629">
         <v>1</v>
       </c>
       <c r="W629">
-        <v>16.190000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="X629">
         <v>0</v>
@@ -78232,13 +78418,13 @@
         <v>0</v>
       </c>
       <c r="AB629">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC629">
-        <v>-1.34</v>
+        <v>-1.21</v>
       </c>
       <c r="AD629">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="AE629" t="s">
         <v>0</v>
@@ -78250,7 +78436,7 @@
         <v>0</v>
       </c>
       <c r="AH629">
-        <v>16.190000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="AI629" t="s">
         <v>52</v>
@@ -78267,22 +78453,22 @@
     </row>
     <row r="630" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B630" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="C630" t="s">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="D630" t="s">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="E630" t="s">
-        <v>0</v>
+        <v>1891</v>
       </c>
       <c r="F630" t="s">
-        <v>0</v>
+        <v>1892</v>
       </c>
       <c r="G630" t="s">
         <v>0</v>
@@ -78297,16 +78483,16 @@
         <v>0</v>
       </c>
       <c r="K630">
-        <v>-168.77</v>
+        <v>-1.22</v>
       </c>
       <c r="L630" t="s">
         <v>52</v>
       </c>
-      <c r="M630" t="s">
-        <v>0</v>
+      <c r="M630" s="1">
+        <v>45904</v>
       </c>
       <c r="N630">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O630" t="s">
         <v>74</v>
@@ -78317,8 +78503,8 @@
       <c r="Q630" t="s">
         <v>0</v>
       </c>
-      <c r="R630" t="s">
-        <v>0</v>
+      <c r="R630">
+        <v>187480578811</v>
       </c>
       <c r="S630" t="s">
         <v>0</v>
@@ -78366,7 +78552,7 @@
         <v>0</v>
       </c>
       <c r="AH630">
-        <v>-168.77</v>
+        <v>-1.22</v>
       </c>
       <c r="AI630" t="s">
         <v>52</v>
@@ -78375,54 +78561,54 @@
         <v>0</v>
       </c>
       <c r="AK630" t="s">
-        <v>1846</v>
+        <v>1893</v>
       </c>
       <c r="AL630" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="631" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B631" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C631" t="s">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="D631" t="s">
-        <v>0</v>
+        <v>1890</v>
       </c>
       <c r="E631" t="s">
-        <v>0</v>
+        <v>1891</v>
       </c>
       <c r="F631" t="s">
-        <v>0</v>
+        <v>1892</v>
       </c>
       <c r="G631" t="s">
-        <v>0</v>
+        <v>1894</v>
       </c>
       <c r="H631" t="s">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="I631" t="s">
-        <v>0</v>
+        <v>1895</v>
       </c>
       <c r="J631" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K631">
-        <v>-32.4</v>
+        <v>7.12</v>
       </c>
       <c r="L631" t="s">
         <v>52</v>
       </c>
       <c r="M631" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N631">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O631" t="s">
         <v>74</v>
@@ -78433,25 +78619,25 @@
       <c r="Q631" t="s">
         <v>0</v>
       </c>
-      <c r="R631" t="s">
-        <v>0</v>
-      </c>
-      <c r="S631" t="s">
-        <v>0</v>
+      <c r="R631">
+        <v>187480578811</v>
+      </c>
+      <c r="S631">
+        <v>10075423402203</v>
       </c>
       <c r="T631" t="s">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="U631" t="s">
-        <v>0</v>
-      </c>
-      <c r="V631" t="s">
-        <v>0</v>
-      </c>
-      <c r="W631" t="s">
-        <v>0</v>
-      </c>
-      <c r="X631" t="s">
+        <v>87</v>
+      </c>
+      <c r="V631">
+        <v>1</v>
+      </c>
+      <c r="W631">
+        <v>8.49</v>
+      </c>
+      <c r="X631">
         <v>0</v>
       </c>
       <c r="Y631" t="s">
@@ -78463,14 +78649,14 @@
       <c r="AA631" s="2">
         <v>0</v>
       </c>
-      <c r="AB631" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC631" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD631" t="s">
-        <v>0</v>
+      <c r="AB631">
+        <v>-0.12</v>
+      </c>
+      <c r="AC631">
+        <v>-1.21</v>
+      </c>
+      <c r="AD631">
+        <v>-0.04</v>
       </c>
       <c r="AE631" t="s">
         <v>0</v>
@@ -78482,7 +78668,7 @@
         <v>0</v>
       </c>
       <c r="AH631">
-        <v>-32.4</v>
+        <v>8.49</v>
       </c>
       <c r="AI631" t="s">
         <v>52</v>
@@ -78491,30 +78677,30 @@
         <v>0</v>
       </c>
       <c r="AK631" t="s">
-        <v>1847</v>
+        <v>0</v>
       </c>
       <c r="AL631" t="s">
-        <v>1848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B632" t="s">
         <v>48</v>
       </c>
       <c r="C632" t="s">
-        <v>90</v>
+        <v>1896</v>
       </c>
       <c r="D632" t="s">
-        <v>90</v>
+        <v>1896</v>
       </c>
       <c r="E632" t="s">
-        <v>91</v>
+        <v>1897</v>
       </c>
       <c r="F632" t="s">
-        <v>92</v>
+        <v>1898</v>
       </c>
       <c r="G632" t="s">
         <v>0</v>
@@ -78529,16 +78715,16 @@
         <v>0</v>
       </c>
       <c r="K632">
-        <v>-1.79</v>
+        <v>-2.34</v>
       </c>
       <c r="L632" t="s">
         <v>52</v>
       </c>
       <c r="M632" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N632">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O632" t="s">
         <v>74</v>
@@ -78550,7 +78736,7 @@
         <v>0</v>
       </c>
       <c r="R632">
-        <v>187524338812</v>
+        <v>187483325602</v>
       </c>
       <c r="S632" t="s">
         <v>0</v>
@@ -78598,7 +78784,7 @@
         <v>0</v>
       </c>
       <c r="AH632">
-        <v>-1.79</v>
+        <v>-2.34</v>
       </c>
       <c r="AI632" t="s">
         <v>52</v>
@@ -78607,7 +78793,7 @@
         <v>0</v>
       </c>
       <c r="AK632" t="s">
-        <v>1849</v>
+        <v>1899</v>
       </c>
       <c r="AL632" t="s">
         <v>54</v>
@@ -78615,46 +78801,46 @@
     </row>
     <row r="633" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B633" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C633" t="s">
-        <v>1850</v>
+        <v>1896</v>
       </c>
       <c r="D633" t="s">
-        <v>1850</v>
+        <v>1896</v>
       </c>
       <c r="E633" t="s">
-        <v>1851</v>
+        <v>1897</v>
       </c>
       <c r="F633" t="s">
-        <v>1852</v>
+        <v>1898</v>
       </c>
       <c r="G633" t="s">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="H633" t="s">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="I633" t="s">
-        <v>0</v>
+        <v>1902</v>
       </c>
       <c r="J633" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K633">
-        <v>-3.37</v>
+        <v>12.94</v>
       </c>
       <c r="L633" t="s">
         <v>52</v>
       </c>
       <c r="M633" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N633">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O633" t="s">
         <v>74</v>
@@ -78666,24 +78852,24 @@
         <v>0</v>
       </c>
       <c r="R633">
-        <v>187521939817</v>
-      </c>
-      <c r="S633" t="s">
-        <v>0</v>
+        <v>187483325602</v>
+      </c>
+      <c r="S633">
+        <v>10075114721704</v>
       </c>
       <c r="T633" t="s">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="U633" t="s">
-        <v>0</v>
-      </c>
-      <c r="V633" t="s">
-        <v>0</v>
-      </c>
-      <c r="W633" t="s">
-        <v>0</v>
-      </c>
-      <c r="X633" t="s">
+        <v>437</v>
+      </c>
+      <c r="V633">
+        <v>1</v>
+      </c>
+      <c r="W633">
+        <v>16.29</v>
+      </c>
+      <c r="X633">
         <v>0</v>
       </c>
       <c r="Y633" t="s">
@@ -78695,17 +78881,17 @@
       <c r="AA633" s="2">
         <v>0</v>
       </c>
-      <c r="AB633" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC633" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD633" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE633" t="s">
-        <v>0</v>
+      <c r="AB633">
+        <v>-0.36</v>
+      </c>
+      <c r="AC633">
+        <v>-2.14</v>
+      </c>
+      <c r="AD633">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE633">
+        <v>-0.78</v>
       </c>
       <c r="AF633" t="s">
         <v>0</v>
@@ -78714,7 +78900,7 @@
         <v>0</v>
       </c>
       <c r="AH633">
-        <v>-3.37</v>
+        <v>16.29</v>
       </c>
       <c r="AI633" t="s">
         <v>52</v>
@@ -78723,54 +78909,54 @@
         <v>0</v>
       </c>
       <c r="AK633" t="s">
-        <v>1853</v>
+        <v>0</v>
       </c>
       <c r="AL633" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B634" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C634" t="s">
-        <v>1850</v>
+        <v>1903</v>
       </c>
       <c r="D634" t="s">
-        <v>1850</v>
+        <v>1903</v>
       </c>
       <c r="E634" t="s">
-        <v>1851</v>
+        <v>1904</v>
       </c>
       <c r="F634" t="s">
-        <v>1852</v>
+        <v>1905</v>
       </c>
       <c r="G634" t="s">
-        <v>1854</v>
+        <v>0</v>
       </c>
       <c r="H634" t="s">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="I634" t="s">
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="J634" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K634">
-        <v>20.170000000000002</v>
+        <v>-7.96</v>
       </c>
       <c r="L634" t="s">
         <v>52</v>
       </c>
       <c r="M634" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N634">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O634" t="s">
         <v>74</v>
@@ -78782,24 +78968,24 @@
         <v>0</v>
       </c>
       <c r="R634">
-        <v>187521939817</v>
-      </c>
-      <c r="S634">
-        <v>10075184966815</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S634" t="s">
+        <v>0</v>
       </c>
       <c r="T634" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="U634" t="s">
-        <v>1856</v>
-      </c>
-      <c r="V634">
-        <v>1</v>
-      </c>
-      <c r="W634">
-        <v>22.49</v>
-      </c>
-      <c r="X634">
+        <v>0</v>
+      </c>
+      <c r="V634" t="s">
+        <v>0</v>
+      </c>
+      <c r="W634" t="s">
+        <v>0</v>
+      </c>
+      <c r="X634" t="s">
         <v>0</v>
       </c>
       <c r="Y634" t="s">
@@ -78811,14 +78997,14 @@
       <c r="AA634" s="2">
         <v>0</v>
       </c>
-      <c r="AB634">
-        <v>-0.36</v>
-      </c>
-      <c r="AC634">
-        <v>-1.86</v>
-      </c>
-      <c r="AD634">
-        <v>-0.1</v>
+      <c r="AB634" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC634" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD634" t="s">
+        <v>0</v>
       </c>
       <c r="AE634" t="s">
         <v>0</v>
@@ -78830,7 +79016,7 @@
         <v>0</v>
       </c>
       <c r="AH634">
-        <v>22.49</v>
+        <v>-7.96</v>
       </c>
       <c r="AI634" t="s">
         <v>52</v>
@@ -78839,54 +79025,54 @@
         <v>0</v>
       </c>
       <c r="AK634" t="s">
-        <v>0</v>
+        <v>1906</v>
       </c>
       <c r="AL634" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="635" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B635" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C635" t="s">
-        <v>1857</v>
+        <v>1903</v>
       </c>
       <c r="D635" t="s">
-        <v>1857</v>
+        <v>1903</v>
       </c>
       <c r="E635" t="s">
-        <v>1858</v>
+        <v>1904</v>
       </c>
       <c r="F635" t="s">
-        <v>1859</v>
+        <v>1905</v>
       </c>
       <c r="G635" t="s">
-        <v>0</v>
+        <v>1907</v>
       </c>
       <c r="H635" t="s">
         <v>0</v>
       </c>
       <c r="I635" t="s">
-        <v>0</v>
+        <v>1908</v>
       </c>
       <c r="J635" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K635">
-        <v>-9.6</v>
+        <v>44.81</v>
       </c>
       <c r="L635" t="s">
         <v>52</v>
       </c>
       <c r="M635" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N635">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O635" t="s">
         <v>74</v>
@@ -78898,24 +79084,24 @@
         <v>0</v>
       </c>
       <c r="R635">
-        <v>187509210775</v>
-      </c>
-      <c r="S635" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S635">
+        <v>10075242525417</v>
       </c>
       <c r="T635" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U635" t="s">
-        <v>0</v>
-      </c>
-      <c r="V635" t="s">
-        <v>0</v>
-      </c>
-      <c r="W635" t="s">
-        <v>0</v>
-      </c>
-      <c r="X635" t="s">
+        <v>61</v>
+      </c>
+      <c r="V635">
+        <v>1</v>
+      </c>
+      <c r="W635">
+        <v>55.29</v>
+      </c>
+      <c r="X635">
         <v>0</v>
       </c>
       <c r="Y635" t="s">
@@ -78927,17 +79113,17 @@
       <c r="AA635" s="2">
         <v>0</v>
       </c>
-      <c r="AB635" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC635" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD635" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE635" t="s">
-        <v>0</v>
+      <c r="AB635">
+        <v>-0.36</v>
+      </c>
+      <c r="AC635">
+        <v>-7.24</v>
+      </c>
+      <c r="AD635">
+        <v>-0.23</v>
+      </c>
+      <c r="AE635">
+        <v>-2.65</v>
       </c>
       <c r="AF635" t="s">
         <v>0</v>
@@ -78946,7 +79132,7 @@
         <v>0</v>
       </c>
       <c r="AH635">
-        <v>-9.6</v>
+        <v>55.29</v>
       </c>
       <c r="AI635" t="s">
         <v>52</v>
@@ -78955,54 +79141,54 @@
         <v>0</v>
       </c>
       <c r="AK635" t="s">
-        <v>1860</v>
+        <v>0</v>
       </c>
       <c r="AL635" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B636" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C636" t="s">
-        <v>1857</v>
+        <v>1909</v>
       </c>
       <c r="D636" t="s">
-        <v>1857</v>
+        <v>1909</v>
       </c>
       <c r="E636" t="s">
-        <v>1858</v>
+        <v>1910</v>
       </c>
       <c r="F636" t="s">
-        <v>1859</v>
+        <v>1911</v>
       </c>
       <c r="G636" t="s">
-        <v>1861</v>
+        <v>0</v>
       </c>
       <c r="H636" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I636" t="s">
-        <v>1862</v>
+        <v>0</v>
       </c>
       <c r="J636" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K636">
-        <v>67.87</v>
+        <v>-7.96</v>
       </c>
       <c r="L636" t="s">
         <v>52</v>
       </c>
       <c r="M636" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N636">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O636" t="s">
         <v>74</v>
@@ -79014,24 +79200,24 @@
         <v>0</v>
       </c>
       <c r="R636">
-        <v>187509210775</v>
-      </c>
-      <c r="S636">
-        <v>10075141556519</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S636" t="s">
+        <v>0</v>
       </c>
       <c r="T636" t="s">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="U636" t="s">
-        <v>168</v>
-      </c>
-      <c r="V636">
-        <v>1</v>
-      </c>
-      <c r="W636">
-        <v>79.989999999999995</v>
-      </c>
-      <c r="X636">
+        <v>0</v>
+      </c>
+      <c r="V636" t="s">
+        <v>0</v>
+      </c>
+      <c r="W636" t="s">
+        <v>0</v>
+      </c>
+      <c r="X636" t="s">
         <v>0</v>
       </c>
       <c r="Y636" t="s">
@@ -79043,14 +79229,14 @@
       <c r="AA636" s="2">
         <v>0</v>
       </c>
-      <c r="AB636">
-        <v>-0.36</v>
-      </c>
-      <c r="AC636">
-        <v>-11.42</v>
-      </c>
-      <c r="AD636">
-        <v>-0.34</v>
+      <c r="AB636" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC636" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD636" t="s">
+        <v>0</v>
       </c>
       <c r="AE636" t="s">
         <v>0</v>
@@ -79062,7 +79248,7 @@
         <v>0</v>
       </c>
       <c r="AH636">
-        <v>79.989999999999995</v>
+        <v>-7.96</v>
       </c>
       <c r="AI636" t="s">
         <v>52</v>
@@ -79071,54 +79257,54 @@
         <v>0</v>
       </c>
       <c r="AK636" t="s">
-        <v>0</v>
+        <v>1912</v>
       </c>
       <c r="AL636" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="637" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B637" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C637" t="s">
-        <v>1863</v>
+        <v>1909</v>
       </c>
       <c r="D637" t="s">
-        <v>1863</v>
+        <v>1909</v>
       </c>
       <c r="E637" t="s">
-        <v>1864</v>
+        <v>1910</v>
       </c>
       <c r="F637" t="s">
-        <v>1865</v>
+        <v>1911</v>
       </c>
       <c r="G637" t="s">
-        <v>0</v>
+        <v>1913</v>
       </c>
       <c r="H637" t="s">
-        <v>0</v>
+        <v>1914</v>
       </c>
       <c r="I637" t="s">
-        <v>0</v>
+        <v>1915</v>
       </c>
       <c r="J637" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K637">
-        <v>-2.09</v>
+        <v>44.81</v>
       </c>
       <c r="L637" t="s">
         <v>52</v>
       </c>
       <c r="M637" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N637">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O637" t="s">
         <v>74</v>
@@ -79130,24 +79316,24 @@
         <v>0</v>
       </c>
       <c r="R637">
-        <v>187473669696</v>
-      </c>
-      <c r="S637" t="s">
-        <v>0</v>
+        <v>187473652251</v>
+      </c>
+      <c r="S637">
+        <v>10074522003609</v>
       </c>
       <c r="T637" t="s">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U637" t="s">
-        <v>0</v>
-      </c>
-      <c r="V637" t="s">
-        <v>0</v>
-      </c>
-      <c r="W637" t="s">
-        <v>0</v>
-      </c>
-      <c r="X637" t="s">
+        <v>61</v>
+      </c>
+      <c r="V637">
+        <v>1</v>
+      </c>
+      <c r="W637">
+        <v>55.29</v>
+      </c>
+      <c r="X637">
         <v>0</v>
       </c>
       <c r="Y637" t="s">
@@ -79159,17 +79345,17 @@
       <c r="AA637" s="2">
         <v>0</v>
       </c>
-      <c r="AB637" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC637" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD637" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE637" t="s">
-        <v>0</v>
+      <c r="AB637">
+        <v>-0.36</v>
+      </c>
+      <c r="AC637">
+        <v>-7.24</v>
+      </c>
+      <c r="AD637">
+        <v>-0.23</v>
+      </c>
+      <c r="AE637">
+        <v>-2.65</v>
       </c>
       <c r="AF637" t="s">
         <v>0</v>
@@ -79178,7 +79364,7 @@
         <v>0</v>
       </c>
       <c r="AH637">
-        <v>-2.09</v>
+        <v>55.29</v>
       </c>
       <c r="AI637" t="s">
         <v>52</v>
@@ -79187,54 +79373,54 @@
         <v>0</v>
       </c>
       <c r="AK637" t="s">
-        <v>1866</v>
+        <v>0</v>
       </c>
       <c r="AL637" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B638" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C638" t="s">
-        <v>1863</v>
+        <v>1916</v>
       </c>
       <c r="D638" t="s">
-        <v>1863</v>
+        <v>1916</v>
       </c>
       <c r="E638" t="s">
-        <v>1864</v>
+        <v>1917</v>
       </c>
       <c r="F638" t="s">
-        <v>1865</v>
+        <v>1918</v>
       </c>
       <c r="G638" t="s">
-        <v>1867</v>
+        <v>0</v>
       </c>
       <c r="H638" t="s">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="I638" t="s">
-        <v>1868</v>
+        <v>0</v>
       </c>
       <c r="J638" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K638">
-        <v>12.17</v>
+        <v>-4.32</v>
       </c>
       <c r="L638" t="s">
         <v>52</v>
       </c>
       <c r="M638" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N638">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O638" t="s">
         <v>74</v>
@@ -79246,24 +79432,24 @@
         <v>0</v>
       </c>
       <c r="R638">
-        <v>187473669696</v>
-      </c>
-      <c r="S638">
-        <v>10076486824013</v>
+        <v>187494224842</v>
+      </c>
+      <c r="S638" t="s">
+        <v>0</v>
       </c>
       <c r="T638" t="s">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="U638" t="s">
-        <v>933</v>
-      </c>
-      <c r="V638">
-        <v>1</v>
-      </c>
-      <c r="W638">
-        <v>14.49</v>
-      </c>
-      <c r="X638">
+        <v>0</v>
+      </c>
+      <c r="V638" t="s">
+        <v>0</v>
+      </c>
+      <c r="W638" t="s">
+        <v>0</v>
+      </c>
+      <c r="X638" t="s">
         <v>0</v>
       </c>
       <c r="Y638" t="s">
@@ -79275,14 +79461,14 @@
       <c r="AA638" s="2">
         <v>0</v>
       </c>
-      <c r="AB638">
-        <v>-0.36</v>
-      </c>
-      <c r="AC638">
-        <v>-1.9</v>
-      </c>
-      <c r="AD638">
-        <v>-0.06</v>
+      <c r="AB638" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC638" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD638" t="s">
+        <v>0</v>
       </c>
       <c r="AE638" t="s">
         <v>0</v>
@@ -79294,7 +79480,7 @@
         <v>0</v>
       </c>
       <c r="AH638">
-        <v>14.49</v>
+        <v>-4.32</v>
       </c>
       <c r="AI638" t="s">
         <v>52</v>
@@ -79303,54 +79489,54 @@
         <v>0</v>
       </c>
       <c r="AK638" t="s">
-        <v>0</v>
+        <v>1919</v>
       </c>
       <c r="AL638" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="639" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B639" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C639" t="s">
-        <v>1869</v>
+        <v>1916</v>
       </c>
       <c r="D639" t="s">
-        <v>1869</v>
+        <v>1916</v>
       </c>
       <c r="E639" t="s">
-        <v>1870</v>
+        <v>1917</v>
       </c>
       <c r="F639" t="s">
-        <v>1871</v>
+        <v>1918</v>
       </c>
       <c r="G639" t="s">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="H639" t="s">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I639" t="s">
-        <v>0</v>
+        <v>1921</v>
       </c>
       <c r="J639" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K639">
-        <v>-0.83</v>
+        <v>25.59</v>
       </c>
       <c r="L639" t="s">
         <v>52</v>
       </c>
       <c r="M639" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N639">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O639" t="s">
         <v>74</v>
@@ -79362,24 +79548,24 @@
         <v>0</v>
       </c>
       <c r="R639">
-        <v>187483121488</v>
-      </c>
-      <c r="S639" t="s">
-        <v>0</v>
+        <v>187494224842</v>
+      </c>
+      <c r="S639">
+        <v>10075109154004</v>
       </c>
       <c r="T639" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="U639" t="s">
-        <v>0</v>
-      </c>
-      <c r="V639" t="s">
-        <v>0</v>
-      </c>
-      <c r="W639" t="s">
-        <v>0</v>
-      </c>
-      <c r="X639" t="s">
+        <v>137</v>
+      </c>
+      <c r="V639">
+        <v>1</v>
+      </c>
+      <c r="W639">
+        <v>29.99</v>
+      </c>
+      <c r="X639">
         <v>0</v>
       </c>
       <c r="Y639" t="s">
@@ -79391,14 +79577,14 @@
       <c r="AA639" s="2">
         <v>0</v>
       </c>
-      <c r="AB639" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC639" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD639" t="s">
-        <v>0</v>
+      <c r="AB639">
+        <v>-0.36</v>
+      </c>
+      <c r="AC639">
+        <v>-3.92</v>
+      </c>
+      <c r="AD639">
+        <v>-0.12</v>
       </c>
       <c r="AE639" t="s">
         <v>0</v>
@@ -79410,7 +79596,7 @@
         <v>0</v>
       </c>
       <c r="AH639">
-        <v>-0.83</v>
+        <v>29.99</v>
       </c>
       <c r="AI639" t="s">
         <v>52</v>
@@ -79419,54 +79605,54 @@
         <v>0</v>
       </c>
       <c r="AK639" t="s">
-        <v>1872</v>
+        <v>0</v>
       </c>
       <c r="AL639" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B640" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C640" t="s">
-        <v>1869</v>
+        <v>1922</v>
       </c>
       <c r="D640" t="s">
-        <v>1869</v>
+        <v>1922</v>
       </c>
       <c r="E640" t="s">
-        <v>1870</v>
+        <v>1923</v>
       </c>
       <c r="F640" t="s">
-        <v>1871</v>
+        <v>1924</v>
       </c>
       <c r="G640" t="s">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="H640" t="s">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="I640" t="s">
-        <v>1873</v>
+        <v>0</v>
       </c>
       <c r="J640" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K640">
-        <v>6.79</v>
+        <v>-3.38</v>
       </c>
       <c r="L640" t="s">
         <v>52</v>
       </c>
       <c r="M640" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N640">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O640" t="s">
         <v>74</v>
@@ -79478,24 +79664,24 @@
         <v>0</v>
       </c>
       <c r="R640">
-        <v>187483121488</v>
-      </c>
-      <c r="S640">
-        <v>10075212701510</v>
+        <v>187524396818</v>
+      </c>
+      <c r="S640" t="s">
+        <v>0</v>
       </c>
       <c r="T640" t="s">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="U640" t="s">
-        <v>88</v>
-      </c>
-      <c r="V640">
-        <v>1</v>
-      </c>
-      <c r="W640">
-        <v>8.1</v>
-      </c>
-      <c r="X640">
+        <v>0</v>
+      </c>
+      <c r="V640" t="s">
+        <v>0</v>
+      </c>
+      <c r="W640" t="s">
+        <v>0</v>
+      </c>
+      <c r="X640" t="s">
         <v>0</v>
       </c>
       <c r="Y640" t="s">
@@ -79507,14 +79693,14 @@
       <c r="AA640" s="2">
         <v>0</v>
       </c>
-      <c r="AB640">
-        <v>-0.12</v>
-      </c>
-      <c r="AC640">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="AD640">
-        <v>-0.04</v>
+      <c r="AB640" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC640" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD640" t="s">
+        <v>0</v>
       </c>
       <c r="AE640" t="s">
         <v>0</v>
@@ -79526,7 +79712,7 @@
         <v>0</v>
       </c>
       <c r="AH640">
-        <v>8.1</v>
+        <v>-3.38</v>
       </c>
       <c r="AI640" t="s">
         <v>52</v>
@@ -79535,54 +79721,54 @@
         <v>0</v>
       </c>
       <c r="AK640" t="s">
-        <v>0</v>
+        <v>1925</v>
       </c>
       <c r="AL640" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="641" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B641" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="C641" t="s">
-        <v>809</v>
+        <v>1922</v>
       </c>
       <c r="D641" t="s">
-        <v>809</v>
+        <v>1922</v>
       </c>
       <c r="E641" t="s">
-        <v>810</v>
+        <v>1923</v>
       </c>
       <c r="F641" t="s">
-        <v>811</v>
+        <v>1924</v>
       </c>
       <c r="G641" t="s">
-        <v>813</v>
+        <v>1926</v>
       </c>
       <c r="H641" t="s">
-        <v>748</v>
+        <v>1001</v>
       </c>
       <c r="I641" t="s">
-        <v>814</v>
+        <v>1927</v>
       </c>
       <c r="J641" t="s">
         <v>59</v>
       </c>
       <c r="K641">
-        <v>-10.95</v>
+        <v>18.829999999999998</v>
       </c>
       <c r="L641" t="s">
         <v>52</v>
       </c>
       <c r="M641" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N641">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O641" t="s">
         <v>74</v>
@@ -79594,24 +79780,24 @@
         <v>0</v>
       </c>
       <c r="R641">
-        <v>187473655879</v>
+        <v>187524396818</v>
       </c>
       <c r="S641">
-        <v>10074345877608</v>
+        <v>10074788066022</v>
       </c>
       <c r="T641" t="s">
-        <v>471</v>
+        <v>176</v>
       </c>
       <c r="U641" t="s">
-        <v>0</v>
+        <v>1928</v>
       </c>
       <c r="V641">
         <v>1</v>
       </c>
       <c r="W641">
-        <v>10.95</v>
-      </c>
-      <c r="X641" t="s">
+        <v>23.49</v>
+      </c>
+      <c r="X641">
         <v>0</v>
       </c>
       <c r="Y641" t="s">
@@ -79623,17 +79809,17 @@
       <c r="AA641" s="2">
         <v>0</v>
       </c>
-      <c r="AB641" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC641" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD641" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE641" t="s">
-        <v>0</v>
+      <c r="AB641">
+        <v>-0.36</v>
+      </c>
+      <c r="AC641">
+        <v>-3.07</v>
+      </c>
+      <c r="AD641">
+        <v>-0.1</v>
+      </c>
+      <c r="AE641">
+        <v>-1.1299999999999999</v>
       </c>
       <c r="AF641" t="s">
         <v>0</v>
@@ -79642,7 +79828,7 @@
         <v>0</v>
       </c>
       <c r="AH641">
-        <v>-10.95</v>
+        <v>23.49</v>
       </c>
       <c r="AI641" t="s">
         <v>52</v>
@@ -79651,30 +79837,30 @@
         <v>0</v>
       </c>
       <c r="AK641" t="s">
-        <v>1874</v>
+        <v>0</v>
       </c>
       <c r="AL641" t="s">
-        <v>263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B642" t="s">
         <v>48</v>
       </c>
       <c r="C642" t="s">
-        <v>1875</v>
+        <v>1929</v>
       </c>
       <c r="D642" t="s">
-        <v>1875</v>
+        <v>1929</v>
       </c>
       <c r="E642" t="s">
-        <v>1876</v>
+        <v>1930</v>
       </c>
       <c r="F642" t="s">
-        <v>1877</v>
+        <v>1931</v>
       </c>
       <c r="G642" t="s">
         <v>0</v>
@@ -79689,16 +79875,16 @@
         <v>0</v>
       </c>
       <c r="K642">
-        <v>-8.5299999999999994</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="L642" t="s">
         <v>52</v>
       </c>
       <c r="M642" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N642">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O642" t="s">
         <v>74</v>
@@ -79710,7 +79896,7 @@
         <v>0</v>
       </c>
       <c r="R642">
-        <v>187494085885</v>
+        <v>187483121488</v>
       </c>
       <c r="S642" t="s">
         <v>0</v>
@@ -79758,7 +79944,7 @@
         <v>0</v>
       </c>
       <c r="AH642">
-        <v>-8.5299999999999994</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="AI642" t="s">
         <v>52</v>
@@ -79767,7 +79953,7 @@
         <v>0</v>
       </c>
       <c r="AK642" t="s">
-        <v>1878</v>
+        <v>1932</v>
       </c>
       <c r="AL642" t="s">
         <v>54</v>
@@ -79775,46 +79961,46 @@
     </row>
     <row r="643" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B643" t="s">
         <v>55</v>
       </c>
       <c r="C643" t="s">
-        <v>1875</v>
+        <v>1929</v>
       </c>
       <c r="D643" t="s">
-        <v>1875</v>
+        <v>1929</v>
       </c>
       <c r="E643" t="s">
-        <v>1876</v>
+        <v>1930</v>
       </c>
       <c r="F643" t="s">
-        <v>1877</v>
+        <v>1931</v>
       </c>
       <c r="G643" t="s">
-        <v>192</v>
+        <v>1933</v>
       </c>
       <c r="H643" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="I643" t="s">
-        <v>1879</v>
+        <v>1934</v>
       </c>
       <c r="J643" t="s">
         <v>59</v>
       </c>
       <c r="K643">
-        <v>67.010000000000005</v>
+        <v>6.79</v>
       </c>
       <c r="L643" t="s">
         <v>52</v>
       </c>
       <c r="M643" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N643">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O643" t="s">
         <v>74</v>
@@ -79826,22 +80012,22 @@
         <v>0</v>
       </c>
       <c r="R643">
-        <v>187494085885</v>
+        <v>187483121488</v>
       </c>
       <c r="S643">
-        <v>10074684018323</v>
+        <v>10076544634413</v>
       </c>
       <c r="T643" t="s">
-        <v>167</v>
+        <v>86</v>
       </c>
       <c r="U643" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="V643">
         <v>1</v>
       </c>
       <c r="W643">
-        <v>78.989999999999995</v>
+        <v>8.1</v>
       </c>
       <c r="X643">
         <v>0</v>
@@ -79856,13 +80042,13 @@
         <v>0</v>
       </c>
       <c r="AB643">
-        <v>-0.36</v>
+        <v>-0.12</v>
       </c>
       <c r="AC643">
-        <v>-11.28</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="AD643">
-        <v>-0.34</v>
+        <v>-0.04</v>
       </c>
       <c r="AE643" t="s">
         <v>0</v>
@@ -79874,7 +80060,7 @@
         <v>0</v>
       </c>
       <c r="AH643">
-        <v>78.989999999999995</v>
+        <v>8.1</v>
       </c>
       <c r="AI643" t="s">
         <v>52</v>
@@ -79891,22 +80077,22 @@
     </row>
     <row r="644" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B644" t="s">
         <v>48</v>
       </c>
       <c r="C644" t="s">
-        <v>49</v>
+        <v>1935</v>
       </c>
       <c r="D644" t="s">
-        <v>49</v>
+        <v>1935</v>
       </c>
       <c r="E644" t="s">
-        <v>50</v>
+        <v>1936</v>
       </c>
       <c r="F644" t="s">
-        <v>51</v>
+        <v>1937</v>
       </c>
       <c r="G644" t="s">
         <v>0</v>
@@ -79921,16 +80107,16 @@
         <v>0</v>
       </c>
       <c r="K644">
-        <v>-13.01</v>
+        <v>-2.34</v>
       </c>
       <c r="L644" t="s">
         <v>52</v>
       </c>
       <c r="M644" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N644">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O644" t="s">
         <v>74</v>
@@ -79942,7 +80128,7 @@
         <v>0</v>
       </c>
       <c r="R644">
-        <v>187473652251</v>
+        <v>187483325602</v>
       </c>
       <c r="S644" t="s">
         <v>0</v>
@@ -79990,7 +80176,7 @@
         <v>0</v>
       </c>
       <c r="AH644">
-        <v>-13.01</v>
+        <v>-2.34</v>
       </c>
       <c r="AI644" t="s">
         <v>52</v>
@@ -79999,7 +80185,7 @@
         <v>0</v>
       </c>
       <c r="AK644" t="s">
-        <v>53</v>
+        <v>1938</v>
       </c>
       <c r="AL644" t="s">
         <v>54</v>
@@ -80007,46 +80193,46 @@
     </row>
     <row r="645" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B645" t="s">
         <v>55</v>
       </c>
       <c r="C645" t="s">
-        <v>49</v>
+        <v>1935</v>
       </c>
       <c r="D645" t="s">
-        <v>49</v>
+        <v>1935</v>
       </c>
       <c r="E645" t="s">
-        <v>50</v>
+        <v>1936</v>
       </c>
       <c r="F645" t="s">
-        <v>51</v>
+        <v>1937</v>
       </c>
       <c r="G645" t="s">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="H645" t="s">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I645" t="s">
-        <v>58</v>
+        <v>1939</v>
       </c>
       <c r="J645" t="s">
         <v>59</v>
       </c>
       <c r="K645">
-        <v>88.17</v>
+        <v>12.94</v>
       </c>
       <c r="L645" t="s">
         <v>52</v>
       </c>
       <c r="M645" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N645">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O645" t="s">
         <v>74</v>
@@ -80058,22 +80244,22 @@
         <v>0</v>
       </c>
       <c r="R645">
-        <v>187473652251</v>
+        <v>187483325602</v>
       </c>
       <c r="S645">
-        <v>10075177117616</v>
+        <v>10075269791110</v>
       </c>
       <c r="T645" t="s">
-        <v>60</v>
+        <v>436</v>
       </c>
       <c r="U645" t="s">
-        <v>61</v>
+        <v>437</v>
       </c>
       <c r="V645">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W645">
-        <v>108.36</v>
+        <v>16.29</v>
       </c>
       <c r="X645">
         <v>0</v>
@@ -80091,13 +80277,13 @@
         <v>-0.36</v>
       </c>
       <c r="AC645">
-        <v>-14.17</v>
+        <v>-2.14</v>
       </c>
       <c r="AD645">
-        <v>-0.46</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="AE645">
-        <v>-5.2</v>
+        <v>-0.78</v>
       </c>
       <c r="AF645" t="s">
         <v>0</v>
@@ -80106,7 +80292,7 @@
         <v>0</v>
       </c>
       <c r="AH645">
-        <v>108.36</v>
+        <v>16.29</v>
       </c>
       <c r="AI645" t="s">
         <v>52</v>
@@ -80123,22 +80309,22 @@
     </row>
     <row r="646" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B646" t="s">
         <v>48</v>
       </c>
       <c r="C646" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D646" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E646" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F646" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G646" t="s">
         <v>0</v>
@@ -80153,16 +80339,16 @@
         <v>0</v>
       </c>
       <c r="K646">
-        <v>1.93</v>
+        <v>-0.12</v>
       </c>
       <c r="L646" t="s">
         <v>52</v>
       </c>
       <c r="M646" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N646">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O646" t="s">
         <v>74</v>
@@ -80174,7 +80360,7 @@
         <v>0</v>
       </c>
       <c r="R646">
-        <v>187521939817</v>
+        <v>187539847227</v>
       </c>
       <c r="S646" t="s">
         <v>0</v>
@@ -80222,7 +80408,7 @@
         <v>0</v>
       </c>
       <c r="AH646">
-        <v>1.93</v>
+        <v>-0.12</v>
       </c>
       <c r="AI646" t="s">
         <v>52</v>
@@ -80231,54 +80417,54 @@
         <v>0</v>
       </c>
       <c r="AK646" t="s">
-        <v>65</v>
+        <v>1940</v>
       </c>
       <c r="AL646" t="s">
-        <v>54</v>
+        <v>262</v>
       </c>
     </row>
     <row r="647" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B647" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="C647" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D647" t="s">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E647" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F647" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="G647" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H647" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I647" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="J647" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="K647">
-        <v>-12.77</v>
+        <v>-0.12</v>
       </c>
       <c r="L647" t="s">
         <v>52</v>
       </c>
       <c r="M647" s="1">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="N647">
-        <v>7053952139</v>
+        <v>7057564547</v>
       </c>
       <c r="O647" t="s">
         <v>74</v>
@@ -80289,17 +80475,17 @@
       <c r="Q647" t="s">
         <v>0</v>
       </c>
-      <c r="R647" t="s">
-        <v>0</v>
+      <c r="R647">
+        <v>187539790437</v>
       </c>
       <c r="S647" t="s">
         <v>0</v>
       </c>
       <c r="T647" t="s">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="U647" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="V647" t="s">
         <v>0</v>
@@ -80322,11 +80508,11 @@
       <c r="AB647" t="s">
         <v>0</v>
       </c>
-      <c r="AC647">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="AD647">
-        <v>0.06</v>
+      <c r="AC647" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD647" t="s">
+        <v>0</v>
       </c>
       <c r="AE647" t="s">
         <v>0</v>
@@ -80338,7 +80524,7 @@
         <v>0</v>
       </c>
       <c r="AH647">
-        <v>-13.99</v>
+        <v>-0.12</v>
       </c>
       <c r="AI647" t="s">
         <v>52</v>
@@ -80347,15 +80533,15 @@
         <v>0</v>
       </c>
       <c r="AK647" t="s">
-        <v>72</v>
+        <v>1941</v>
       </c>
       <c r="AL647" t="s">
-        <v>0</v>
+        <v>262</v>
       </c>
     </row>
     <row r="648" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B648" t="s">
         <v>73</v>
@@ -80385,7 +80571,7 @@
         <v>0</v>
       </c>
       <c r="K648">
-        <v>-275.99</v>
+        <v>-156.44</v>
       </c>
       <c r="L648" t="s">
         <v>52</v>
@@ -80394,7 +80580,7 @@
         <v>0</v>
       </c>
       <c r="N648">
-        <v>7051952531</v>
+        <v>7055485955</v>
       </c>
       <c r="O648" t="s">
         <v>74</v>
@@ -80454,7 +80640,7 @@
         <v>0</v>
       </c>
       <c r="AH648">
-        <v>-275.99</v>
+        <v>-156.44</v>
       </c>
       <c r="AI648" t="s">
         <v>52</v>
@@ -80463,128 +80649,2681 @@
         <v>0</v>
       </c>
       <c r="AK648" t="s">
-        <v>76</v>
+        <v>1775</v>
       </c>
       <c r="AL648" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="649" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A649" s="1"/>
-      <c r="M649" s="1"/>
-      <c r="AA649" s="2"/>
+      <c r="A649" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B649" t="s">
+        <v>48</v>
+      </c>
+      <c r="C649" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D649" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E649" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F649" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G649" t="s">
+        <v>0</v>
+      </c>
+      <c r="H649" t="s">
+        <v>0</v>
+      </c>
+      <c r="I649" t="s">
+        <v>0</v>
+      </c>
+      <c r="J649" t="s">
+        <v>0</v>
+      </c>
+      <c r="K649">
+        <v>-2.38</v>
+      </c>
+      <c r="L649" t="s">
+        <v>52</v>
+      </c>
+      <c r="M649" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N649">
+        <v>7055485955</v>
+      </c>
+      <c r="O649" t="s">
+        <v>74</v>
+      </c>
+      <c r="P649" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q649" t="s">
+        <v>0</v>
+      </c>
+      <c r="R649">
+        <v>187492038669</v>
+      </c>
+      <c r="S649" t="s">
+        <v>0</v>
+      </c>
+      <c r="T649" t="s">
+        <v>0</v>
+      </c>
+      <c r="U649" t="s">
+        <v>0</v>
+      </c>
+      <c r="V649" t="s">
+        <v>0</v>
+      </c>
+      <c r="W649" t="s">
+        <v>0</v>
+      </c>
+      <c r="X649" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y649" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA649" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH649">
+        <v>-2.38</v>
+      </c>
+      <c r="AI649" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ649" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK649" t="s">
+        <v>1779</v>
+      </c>
+      <c r="AL649" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="650" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A650" s="1"/>
-      <c r="M650" s="1"/>
-      <c r="AA650" s="2"/>
+      <c r="A650" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B650" t="s">
+        <v>55</v>
+      </c>
+      <c r="C650" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D650" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E650" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F650" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G650" t="s">
+        <v>83</v>
+      </c>
+      <c r="H650" t="s">
+        <v>84</v>
+      </c>
+      <c r="I650" t="s">
+        <v>1780</v>
+      </c>
+      <c r="J650" t="s">
+        <v>59</v>
+      </c>
+      <c r="K650">
+        <v>14.99</v>
+      </c>
+      <c r="L650" t="s">
+        <v>52</v>
+      </c>
+      <c r="M650" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N650">
+        <v>7055485955</v>
+      </c>
+      <c r="O650" t="s">
+        <v>74</v>
+      </c>
+      <c r="P650" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q650" t="s">
+        <v>0</v>
+      </c>
+      <c r="R650">
+        <v>187492038669</v>
+      </c>
+      <c r="S650">
+        <v>10075420446506</v>
+      </c>
+      <c r="T650" t="s">
+        <v>354</v>
+      </c>
+      <c r="U650" t="s">
+        <v>355</v>
+      </c>
+      <c r="V650">
+        <v>1</v>
+      </c>
+      <c r="W650">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="X650">
+        <v>0</v>
+      </c>
+      <c r="Y650" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z650" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA650" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB650">
+        <v>-0.36</v>
+      </c>
+      <c r="AC650">
+        <v>-2.57</v>
+      </c>
+      <c r="AD650">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE650" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF650" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG650" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH650">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="AI650" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ650" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK650" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL650" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="651" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A651" s="1"/>
-      <c r="M651" s="1"/>
-      <c r="AA651" s="2"/>
+      <c r="A651" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B651" t="s">
+        <v>48</v>
+      </c>
+      <c r="C651" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D651" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E651" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F651" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G651" t="s">
+        <v>0</v>
+      </c>
+      <c r="H651" t="s">
+        <v>0</v>
+      </c>
+      <c r="I651" t="s">
+        <v>0</v>
+      </c>
+      <c r="J651" t="s">
+        <v>0</v>
+      </c>
+      <c r="K651">
+        <v>-0.64</v>
+      </c>
+      <c r="L651" t="s">
+        <v>52</v>
+      </c>
+      <c r="M651" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N651">
+        <v>7055485955</v>
+      </c>
+      <c r="O651" t="s">
+        <v>74</v>
+      </c>
+      <c r="P651" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q651" t="s">
+        <v>0</v>
+      </c>
+      <c r="R651">
+        <v>187504862805</v>
+      </c>
+      <c r="S651" t="s">
+        <v>0</v>
+      </c>
+      <c r="T651" t="s">
+        <v>0</v>
+      </c>
+      <c r="U651" t="s">
+        <v>0</v>
+      </c>
+      <c r="V651" t="s">
+        <v>0</v>
+      </c>
+      <c r="W651" t="s">
+        <v>0</v>
+      </c>
+      <c r="X651" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y651" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA651" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH651">
+        <v>-0.64</v>
+      </c>
+      <c r="AI651" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ651" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK651" t="s">
+        <v>1784</v>
+      </c>
+      <c r="AL651" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="652" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A652" s="1"/>
-      <c r="M652" s="1"/>
-      <c r="AA652" s="2"/>
+      <c r="A652" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B652" t="s">
+        <v>55</v>
+      </c>
+      <c r="C652" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D652" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E652" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F652" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G652" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H652" t="s">
+        <v>84</v>
+      </c>
+      <c r="I652" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J652" t="s">
+        <v>59</v>
+      </c>
+      <c r="K652">
+        <v>4.45</v>
+      </c>
+      <c r="L652" t="s">
+        <v>52</v>
+      </c>
+      <c r="M652" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N652">
+        <v>7055485955</v>
+      </c>
+      <c r="O652" t="s">
+        <v>74</v>
+      </c>
+      <c r="P652" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q652" t="s">
+        <v>0</v>
+      </c>
+      <c r="R652">
+        <v>187504862805</v>
+      </c>
+      <c r="S652">
+        <v>10075220317015</v>
+      </c>
+      <c r="T652" t="s">
+        <v>158</v>
+      </c>
+      <c r="U652" t="s">
+        <v>159</v>
+      </c>
+      <c r="V652">
+        <v>1</v>
+      </c>
+      <c r="W652">
+        <v>5.89</v>
+      </c>
+      <c r="X652">
+        <v>0</v>
+      </c>
+      <c r="Y652" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z652" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA652" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB652">
+        <v>-0.36</v>
+      </c>
+      <c r="AC652">
+        <v>-0.77</v>
+      </c>
+      <c r="AD652">
+        <v>-0.02</v>
+      </c>
+      <c r="AE652">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="AF652" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG652" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH652">
+        <v>5.89</v>
+      </c>
+      <c r="AI652" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ652" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK652" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL652" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="653" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A653" s="1"/>
-      <c r="M653" s="1"/>
-      <c r="AA653" s="2"/>
+      <c r="A653" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B653" t="s">
+        <v>48</v>
+      </c>
+      <c r="C653" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D653" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E653" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F653" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G653" t="s">
+        <v>0</v>
+      </c>
+      <c r="H653" t="s">
+        <v>0</v>
+      </c>
+      <c r="I653" t="s">
+        <v>0</v>
+      </c>
+      <c r="J653" t="s">
+        <v>0</v>
+      </c>
+      <c r="K653">
+        <v>-3.11</v>
+      </c>
+      <c r="L653" t="s">
+        <v>52</v>
+      </c>
+      <c r="M653" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N653">
+        <v>7055485955</v>
+      </c>
+      <c r="O653" t="s">
+        <v>74</v>
+      </c>
+      <c r="P653" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q653" t="s">
+        <v>0</v>
+      </c>
+      <c r="R653">
+        <v>187492038669</v>
+      </c>
+      <c r="S653" t="s">
+        <v>0</v>
+      </c>
+      <c r="T653" t="s">
+        <v>0</v>
+      </c>
+      <c r="U653" t="s">
+        <v>0</v>
+      </c>
+      <c r="V653" t="s">
+        <v>0</v>
+      </c>
+      <c r="W653" t="s">
+        <v>0</v>
+      </c>
+      <c r="X653" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y653" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA653" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH653">
+        <v>-3.11</v>
+      </c>
+      <c r="AI653" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ653" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK653" t="s">
+        <v>1790</v>
+      </c>
+      <c r="AL653" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="654" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A654" s="1"/>
-      <c r="M654" s="1"/>
-      <c r="AA654" s="2"/>
+      <c r="A654" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B654" t="s">
+        <v>55</v>
+      </c>
+      <c r="C654" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D654" t="s">
+        <v>1787</v>
+      </c>
+      <c r="E654" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F654" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G654" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H654" t="s">
+        <v>1792</v>
+      </c>
+      <c r="I654" t="s">
+        <v>1793</v>
+      </c>
+      <c r="J654" t="s">
+        <v>59</v>
+      </c>
+      <c r="K654">
+        <v>19.68</v>
+      </c>
+      <c r="L654" t="s">
+        <v>52</v>
+      </c>
+      <c r="M654" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N654">
+        <v>7055485955</v>
+      </c>
+      <c r="O654" t="s">
+        <v>74</v>
+      </c>
+      <c r="P654" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q654" t="s">
+        <v>0</v>
+      </c>
+      <c r="R654">
+        <v>187492038669</v>
+      </c>
+      <c r="S654">
+        <v>10075413713406</v>
+      </c>
+      <c r="T654" t="s">
+        <v>354</v>
+      </c>
+      <c r="U654" t="s">
+        <v>1285</v>
+      </c>
+      <c r="V654">
+        <v>2</v>
+      </c>
+      <c r="W654">
+        <v>23.5</v>
+      </c>
+      <c r="X654">
+        <v>0</v>
+      </c>
+      <c r="Y654" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z654" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA654" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB654">
+        <v>-0.36</v>
+      </c>
+      <c r="AC654">
+        <v>-3.36</v>
+      </c>
+      <c r="AD654">
+        <v>-0.1</v>
+      </c>
+      <c r="AE654" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF654" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG654" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH654">
+        <v>23.5</v>
+      </c>
+      <c r="AI654" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ654" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK654" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL654" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="655" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A655" s="1"/>
-      <c r="M655" s="1"/>
-      <c r="AA655" s="2"/>
+      <c r="A655" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B655" t="s">
+        <v>169</v>
+      </c>
+      <c r="C655" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D655" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E655" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F655" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G655" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H655" t="s">
+        <v>1121</v>
+      </c>
+      <c r="I655" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J655" t="s">
+        <v>59</v>
+      </c>
+      <c r="K655">
+        <v>-12.99</v>
+      </c>
+      <c r="L655" t="s">
+        <v>52</v>
+      </c>
+      <c r="M655" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N655">
+        <v>7055485955</v>
+      </c>
+      <c r="O655" t="s">
+        <v>74</v>
+      </c>
+      <c r="P655" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q655" t="s">
+        <v>0</v>
+      </c>
+      <c r="R655">
+        <v>187499629184</v>
+      </c>
+      <c r="S655">
+        <v>10074841180619</v>
+      </c>
+      <c r="T655" t="s">
+        <v>176</v>
+      </c>
+      <c r="U655" t="s">
+        <v>0</v>
+      </c>
+      <c r="V655">
+        <v>1</v>
+      </c>
+      <c r="W655">
+        <v>12.99</v>
+      </c>
+      <c r="X655" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y655" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA655" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH655">
+        <v>-12.99</v>
+      </c>
+      <c r="AI655" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ655" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK655" t="s">
+        <v>1794</v>
+      </c>
+      <c r="AL655" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="656" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A656" s="1"/>
-      <c r="M656" s="1"/>
-      <c r="AA656" s="2"/>
-    </row>
-    <row r="657" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A657" s="1"/>
-      <c r="M657" s="1"/>
-      <c r="AA657" s="2"/>
-    </row>
-    <row r="658" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A658" s="1"/>
-      <c r="M658" s="1"/>
-      <c r="AA658" s="2"/>
-    </row>
-    <row r="659" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A659" s="1"/>
-      <c r="M659" s="1"/>
-      <c r="AA659" s="2"/>
-    </row>
-    <row r="660" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A660" s="1"/>
-      <c r="M660" s="1"/>
-      <c r="AA660" s="2"/>
-    </row>
-    <row r="661" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A661" s="1"/>
-      <c r="M661" s="1"/>
-      <c r="AA661" s="2"/>
-    </row>
-    <row r="662" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A662" s="1"/>
-      <c r="M662" s="1"/>
-      <c r="AA662" s="2"/>
-    </row>
-    <row r="663" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A663" s="1"/>
-      <c r="M663" s="1"/>
-      <c r="AA663" s="2"/>
-    </row>
-    <row r="664" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A664" s="1"/>
-      <c r="M664" s="1"/>
-      <c r="AA664" s="2"/>
-    </row>
-    <row r="665" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A665" s="1"/>
-      <c r="M665" s="1"/>
-      <c r="AA665" s="2"/>
-    </row>
-    <row r="666" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A666" s="1"/>
-      <c r="M666" s="1"/>
-      <c r="AA666" s="2"/>
-    </row>
-    <row r="667" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A667" s="1"/>
-      <c r="M667" s="1"/>
-      <c r="AA667" s="2"/>
-    </row>
-    <row r="668" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A668" s="1"/>
-      <c r="M668" s="1"/>
-      <c r="AA668" s="2"/>
-    </row>
-    <row r="669" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A669" s="1"/>
-      <c r="M669" s="1"/>
-      <c r="AA669" s="2"/>
-    </row>
-    <row r="670" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A670" s="1"/>
-      <c r="M670" s="1"/>
-      <c r="AA670" s="2"/>
-    </row>
-    <row r="671" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A671" s="1"/>
-      <c r="M671" s="1"/>
-      <c r="AA671" s="2"/>
-    </row>
-    <row r="672" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A656" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B656" t="s">
+        <v>48</v>
+      </c>
+      <c r="C656" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D656" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E656" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F656" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G656" t="s">
+        <v>0</v>
+      </c>
+      <c r="H656" t="s">
+        <v>0</v>
+      </c>
+      <c r="I656" t="s">
+        <v>0</v>
+      </c>
+      <c r="J656" t="s">
+        <v>0</v>
+      </c>
+      <c r="K656">
+        <v>-0.79</v>
+      </c>
+      <c r="L656" t="s">
+        <v>52</v>
+      </c>
+      <c r="M656" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N656">
+        <v>7055485955</v>
+      </c>
+      <c r="O656" t="s">
+        <v>74</v>
+      </c>
+      <c r="P656" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q656" t="s">
+        <v>0</v>
+      </c>
+      <c r="R656">
+        <v>187480578811</v>
+      </c>
+      <c r="S656" t="s">
+        <v>0</v>
+      </c>
+      <c r="T656" t="s">
+        <v>0</v>
+      </c>
+      <c r="U656" t="s">
+        <v>0</v>
+      </c>
+      <c r="V656" t="s">
+        <v>0</v>
+      </c>
+      <c r="W656" t="s">
+        <v>0</v>
+      </c>
+      <c r="X656" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y656" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA656" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH656">
+        <v>-0.79</v>
+      </c>
+      <c r="AI656" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ656" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK656" t="s">
+        <v>1798</v>
+      </c>
+      <c r="AL656" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="657" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A657" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B657" t="s">
+        <v>48</v>
+      </c>
+      <c r="C657" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D657" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E657" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F657" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G657" t="s">
+        <v>0</v>
+      </c>
+      <c r="H657" t="s">
+        <v>0</v>
+      </c>
+      <c r="I657" t="s">
+        <v>0</v>
+      </c>
+      <c r="J657" t="s">
+        <v>0</v>
+      </c>
+      <c r="K657">
+        <v>-1.96</v>
+      </c>
+      <c r="L657" t="s">
+        <v>52</v>
+      </c>
+      <c r="M657" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N657">
+        <v>7055485955</v>
+      </c>
+      <c r="O657" t="s">
+        <v>74</v>
+      </c>
+      <c r="P657" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q657" t="s">
+        <v>0</v>
+      </c>
+      <c r="R657">
+        <v>187499629184</v>
+      </c>
+      <c r="S657" t="s">
+        <v>0</v>
+      </c>
+      <c r="T657" t="s">
+        <v>0</v>
+      </c>
+      <c r="U657" t="s">
+        <v>0</v>
+      </c>
+      <c r="V657" t="s">
+        <v>0</v>
+      </c>
+      <c r="W657" t="s">
+        <v>0</v>
+      </c>
+      <c r="X657" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y657" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA657" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH657">
+        <v>-1.96</v>
+      </c>
+      <c r="AI657" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ657" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK657" t="s">
+        <v>1802</v>
+      </c>
+      <c r="AL657" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="658" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A658" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B658" t="s">
+        <v>55</v>
+      </c>
+      <c r="C658" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D658" t="s">
+        <v>1795</v>
+      </c>
+      <c r="E658" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F658" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G658" t="s">
+        <v>1803</v>
+      </c>
+      <c r="H658" t="s">
+        <v>1804</v>
+      </c>
+      <c r="I658" t="s">
+        <v>1805</v>
+      </c>
+      <c r="J658" t="s">
+        <v>59</v>
+      </c>
+      <c r="K658">
+        <v>6.94</v>
+      </c>
+      <c r="L658" t="s">
+        <v>52</v>
+      </c>
+      <c r="M658" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N658">
+        <v>7055485955</v>
+      </c>
+      <c r="O658" t="s">
+        <v>74</v>
+      </c>
+      <c r="P658" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q658" t="s">
+        <v>0</v>
+      </c>
+      <c r="R658">
+        <v>187480578811</v>
+      </c>
+      <c r="S658">
+        <v>10074342700425</v>
+      </c>
+      <c r="T658" t="s">
+        <v>249</v>
+      </c>
+      <c r="U658" t="s">
+        <v>88</v>
+      </c>
+      <c r="V658">
+        <v>1</v>
+      </c>
+      <c r="W658">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="X658">
+        <v>0</v>
+      </c>
+      <c r="Y658" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z658" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA658" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB658">
+        <v>-0.12</v>
+      </c>
+      <c r="AC658">
+        <v>-1.19</v>
+      </c>
+      <c r="AD658">
+        <v>-0.04</v>
+      </c>
+      <c r="AE658" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF658" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG658" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH658">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="AI658" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ658" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK658" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL658" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A659" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B659" t="s">
+        <v>55</v>
+      </c>
+      <c r="C659" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D659" t="s">
+        <v>1799</v>
+      </c>
+      <c r="E659" t="s">
+        <v>1800</v>
+      </c>
+      <c r="F659" t="s">
+        <v>1801</v>
+      </c>
+      <c r="G659" t="s">
+        <v>1806</v>
+      </c>
+      <c r="H659" t="s">
+        <v>1807</v>
+      </c>
+      <c r="I659" t="s">
+        <v>1808</v>
+      </c>
+      <c r="J659" t="s">
+        <v>59</v>
+      </c>
+      <c r="K659">
+        <v>12.94</v>
+      </c>
+      <c r="L659" t="s">
+        <v>52</v>
+      </c>
+      <c r="M659" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N659">
+        <v>7055485955</v>
+      </c>
+      <c r="O659" t="s">
+        <v>74</v>
+      </c>
+      <c r="P659" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q659" t="s">
+        <v>0</v>
+      </c>
+      <c r="R659">
+        <v>187499629184</v>
+      </c>
+      <c r="S659">
+        <v>10075409858106</v>
+      </c>
+      <c r="T659" t="s">
+        <v>176</v>
+      </c>
+      <c r="U659" t="s">
+        <v>1809</v>
+      </c>
+      <c r="V659">
+        <v>1</v>
+      </c>
+      <c r="W659">
+        <v>16.29</v>
+      </c>
+      <c r="X659">
+        <v>0</v>
+      </c>
+      <c r="Y659" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z659" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA659" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB659">
+        <v>-0.36</v>
+      </c>
+      <c r="AC659">
+        <v>-2.14</v>
+      </c>
+      <c r="AD659">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE659">
+        <v>-0.78</v>
+      </c>
+      <c r="AF659" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG659" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH659">
+        <v>16.29</v>
+      </c>
+      <c r="AI659" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ659" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK659" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL659" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A660" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B660" t="s">
+        <v>48</v>
+      </c>
+      <c r="C660" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D660" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E660" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F660" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G660" t="s">
+        <v>0</v>
+      </c>
+      <c r="H660" t="s">
+        <v>0</v>
+      </c>
+      <c r="I660" t="s">
+        <v>0</v>
+      </c>
+      <c r="J660" t="s">
+        <v>0</v>
+      </c>
+      <c r="K660">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="L660" t="s">
+        <v>52</v>
+      </c>
+      <c r="M660" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N660">
+        <v>7055485955</v>
+      </c>
+      <c r="O660" t="s">
+        <v>74</v>
+      </c>
+      <c r="P660" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q660" t="s">
+        <v>0</v>
+      </c>
+      <c r="R660">
+        <v>187483035573</v>
+      </c>
+      <c r="S660" t="s">
+        <v>0</v>
+      </c>
+      <c r="T660" t="s">
+        <v>0</v>
+      </c>
+      <c r="U660" t="s">
+        <v>0</v>
+      </c>
+      <c r="V660" t="s">
+        <v>0</v>
+      </c>
+      <c r="W660" t="s">
+        <v>0</v>
+      </c>
+      <c r="X660" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y660" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA660" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH660">
+        <v>-2.4500000000000002</v>
+      </c>
+      <c r="AI660" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ660" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK660" t="s">
+        <v>1813</v>
+      </c>
+      <c r="AL660" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="661" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A661" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B661" t="s">
+        <v>55</v>
+      </c>
+      <c r="C661" t="s">
+        <v>1810</v>
+      </c>
+      <c r="D661" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E661" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F661" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G661" t="s">
+        <v>1814</v>
+      </c>
+      <c r="H661" t="s">
+        <v>103</v>
+      </c>
+      <c r="I661" t="s">
+        <v>1815</v>
+      </c>
+      <c r="J661" t="s">
+        <v>59</v>
+      </c>
+      <c r="K661">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="L661" t="s">
+        <v>52</v>
+      </c>
+      <c r="M661" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N661">
+        <v>7055485955</v>
+      </c>
+      <c r="O661" t="s">
+        <v>74</v>
+      </c>
+      <c r="P661" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q661" t="s">
+        <v>0</v>
+      </c>
+      <c r="R661">
+        <v>187483035573</v>
+      </c>
+      <c r="S661">
+        <v>10076515397113</v>
+      </c>
+      <c r="T661" t="s">
+        <v>202</v>
+      </c>
+      <c r="U661" t="s">
+        <v>203</v>
+      </c>
+      <c r="V661">
+        <v>1</v>
+      </c>
+      <c r="W661">
+        <v>20.39</v>
+      </c>
+      <c r="X661">
+        <v>0</v>
+      </c>
+      <c r="Y661" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z661" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA661" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB661">
+        <v>-0.36</v>
+      </c>
+      <c r="AC661">
+        <v>-1.69</v>
+      </c>
+      <c r="AD661">
+        <v>-0.08</v>
+      </c>
+      <c r="AE661" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF661" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG661" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH661">
+        <v>20.39</v>
+      </c>
+      <c r="AI661" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ661" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK661" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL661" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A662" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B662" t="s">
+        <v>169</v>
+      </c>
+      <c r="C662" t="s">
+        <v>519</v>
+      </c>
+      <c r="D662" t="s">
+        <v>519</v>
+      </c>
+      <c r="E662" t="s">
+        <v>520</v>
+      </c>
+      <c r="F662" t="s">
+        <v>521</v>
+      </c>
+      <c r="G662" t="s">
+        <v>410</v>
+      </c>
+      <c r="H662" t="s">
+        <v>0</v>
+      </c>
+      <c r="I662" t="s">
+        <v>523</v>
+      </c>
+      <c r="J662" t="s">
+        <v>59</v>
+      </c>
+      <c r="K662">
+        <v>-16.97</v>
+      </c>
+      <c r="L662" t="s">
+        <v>52</v>
+      </c>
+      <c r="M662" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N662">
+        <v>7055485955</v>
+      </c>
+      <c r="O662" t="s">
+        <v>74</v>
+      </c>
+      <c r="P662" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q662" t="s">
+        <v>0</v>
+      </c>
+      <c r="R662">
+        <v>187499629184</v>
+      </c>
+      <c r="S662">
+        <v>10075253050103</v>
+      </c>
+      <c r="T662" t="s">
+        <v>176</v>
+      </c>
+      <c r="U662" t="s">
+        <v>0</v>
+      </c>
+      <c r="V662">
+        <v>1</v>
+      </c>
+      <c r="W662">
+        <v>16.97</v>
+      </c>
+      <c r="X662" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y662" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA662" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH662">
+        <v>-16.97</v>
+      </c>
+      <c r="AI662" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ662" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK662" t="s">
+        <v>1816</v>
+      </c>
+      <c r="AL662" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="663" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A663" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B663" t="s">
+        <v>48</v>
+      </c>
+      <c r="C663" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D663" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E663" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F663" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G663" t="s">
+        <v>0</v>
+      </c>
+      <c r="H663" t="s">
+        <v>0</v>
+      </c>
+      <c r="I663" t="s">
+        <v>0</v>
+      </c>
+      <c r="J663" t="s">
+        <v>0</v>
+      </c>
+      <c r="K663">
+        <v>-2.64</v>
+      </c>
+      <c r="L663" t="s">
+        <v>52</v>
+      </c>
+      <c r="M663" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N663">
+        <v>7055485955</v>
+      </c>
+      <c r="O663" t="s">
+        <v>74</v>
+      </c>
+      <c r="P663" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q663" t="s">
+        <v>0</v>
+      </c>
+      <c r="R663">
+        <v>187499629184</v>
+      </c>
+      <c r="S663" t="s">
+        <v>0</v>
+      </c>
+      <c r="T663" t="s">
+        <v>0</v>
+      </c>
+      <c r="U663" t="s">
+        <v>0</v>
+      </c>
+      <c r="V663" t="s">
+        <v>0</v>
+      </c>
+      <c r="W663" t="s">
+        <v>0</v>
+      </c>
+      <c r="X663" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y663" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA663" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH663">
+        <v>-2.64</v>
+      </c>
+      <c r="AI663" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ663" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK663" t="s">
+        <v>1820</v>
+      </c>
+      <c r="AL663" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="664" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A664" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B664" t="s">
+        <v>55</v>
+      </c>
+      <c r="C664" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D664" t="s">
+        <v>1817</v>
+      </c>
+      <c r="E664" t="s">
+        <v>1818</v>
+      </c>
+      <c r="F664" t="s">
+        <v>1819</v>
+      </c>
+      <c r="G664" t="s">
+        <v>1821</v>
+      </c>
+      <c r="H664" t="s">
+        <v>68</v>
+      </c>
+      <c r="I664" t="s">
+        <v>1822</v>
+      </c>
+      <c r="J664" t="s">
+        <v>59</v>
+      </c>
+      <c r="K664">
+        <v>17.59</v>
+      </c>
+      <c r="L664" t="s">
+        <v>52</v>
+      </c>
+      <c r="M664" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N664">
+        <v>7055485955</v>
+      </c>
+      <c r="O664" t="s">
+        <v>74</v>
+      </c>
+      <c r="P664" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q664" t="s">
+        <v>0</v>
+      </c>
+      <c r="R664">
+        <v>187499629184</v>
+      </c>
+      <c r="S664">
+        <v>10079675040721</v>
+      </c>
+      <c r="T664" t="s">
+        <v>176</v>
+      </c>
+      <c r="U664" t="s">
+        <v>195</v>
+      </c>
+      <c r="V664">
+        <v>1</v>
+      </c>
+      <c r="W664">
+        <v>21.99</v>
+      </c>
+      <c r="X664">
+        <v>0</v>
+      </c>
+      <c r="Y664" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z664" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA664" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB664">
+        <v>-0.36</v>
+      </c>
+      <c r="AC664">
+        <v>-2.88</v>
+      </c>
+      <c r="AD664">
+        <v>-0.1</v>
+      </c>
+      <c r="AE664">
+        <v>-1.06</v>
+      </c>
+      <c r="AF664" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG664" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH664">
+        <v>21.99</v>
+      </c>
+      <c r="AI664" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ664" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK664" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL664" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A665" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B665" t="s">
+        <v>48</v>
+      </c>
+      <c r="C665" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D665" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E665" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F665" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G665" t="s">
+        <v>0</v>
+      </c>
+      <c r="H665" t="s">
+        <v>0</v>
+      </c>
+      <c r="I665" t="s">
+        <v>0</v>
+      </c>
+      <c r="J665" t="s">
+        <v>0</v>
+      </c>
+      <c r="K665">
+        <v>-3.11</v>
+      </c>
+      <c r="L665" t="s">
+        <v>52</v>
+      </c>
+      <c r="M665" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N665">
+        <v>7055485955</v>
+      </c>
+      <c r="O665" t="s">
+        <v>74</v>
+      </c>
+      <c r="P665" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q665" t="s">
+        <v>0</v>
+      </c>
+      <c r="R665">
+        <v>187492038669</v>
+      </c>
+      <c r="S665" t="s">
+        <v>0</v>
+      </c>
+      <c r="T665" t="s">
+        <v>0</v>
+      </c>
+      <c r="U665" t="s">
+        <v>0</v>
+      </c>
+      <c r="V665" t="s">
+        <v>0</v>
+      </c>
+      <c r="W665" t="s">
+        <v>0</v>
+      </c>
+      <c r="X665" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y665" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA665" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH665">
+        <v>-3.11</v>
+      </c>
+      <c r="AI665" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ665" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK665" t="s">
+        <v>1825</v>
+      </c>
+      <c r="AL665" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="666" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A666" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B666" t="s">
+        <v>55</v>
+      </c>
+      <c r="C666" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D666" t="s">
+        <v>1823</v>
+      </c>
+      <c r="E666" t="s">
+        <v>1788</v>
+      </c>
+      <c r="F666" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G666" t="s">
+        <v>1826</v>
+      </c>
+      <c r="H666" t="s">
+        <v>450</v>
+      </c>
+      <c r="I666" t="s">
+        <v>1827</v>
+      </c>
+      <c r="J666" t="s">
+        <v>59</v>
+      </c>
+      <c r="K666">
+        <v>19.68</v>
+      </c>
+      <c r="L666" t="s">
+        <v>52</v>
+      </c>
+      <c r="M666" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N666">
+        <v>7055485955</v>
+      </c>
+      <c r="O666" t="s">
+        <v>74</v>
+      </c>
+      <c r="P666" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q666" t="s">
+        <v>0</v>
+      </c>
+      <c r="R666">
+        <v>187492038669</v>
+      </c>
+      <c r="S666">
+        <v>10074757532422</v>
+      </c>
+      <c r="T666" t="s">
+        <v>354</v>
+      </c>
+      <c r="U666" t="s">
+        <v>1285</v>
+      </c>
+      <c r="V666">
+        <v>2</v>
+      </c>
+      <c r="W666">
+        <v>23.5</v>
+      </c>
+      <c r="X666">
+        <v>0</v>
+      </c>
+      <c r="Y666" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z666" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA666" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB666">
+        <v>-0.36</v>
+      </c>
+      <c r="AC666">
+        <v>-3.36</v>
+      </c>
+      <c r="AD666">
+        <v>-0.1</v>
+      </c>
+      <c r="AE666" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF666" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG666" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH666">
+        <v>23.5</v>
+      </c>
+      <c r="AI666" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ666" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK666" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL666" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A667" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B667" t="s">
+        <v>48</v>
+      </c>
+      <c r="C667" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D667" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E667" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F667" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G667" t="s">
+        <v>0</v>
+      </c>
+      <c r="H667" t="s">
+        <v>0</v>
+      </c>
+      <c r="I667" t="s">
+        <v>0</v>
+      </c>
+      <c r="J667" t="s">
+        <v>0</v>
+      </c>
+      <c r="K667">
+        <v>-11.7</v>
+      </c>
+      <c r="L667" t="s">
+        <v>52</v>
+      </c>
+      <c r="M667" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N667">
+        <v>7055485955</v>
+      </c>
+      <c r="O667" t="s">
+        <v>74</v>
+      </c>
+      <c r="P667" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q667" t="s">
+        <v>0</v>
+      </c>
+      <c r="R667">
+        <v>187473652251</v>
+      </c>
+      <c r="S667" t="s">
+        <v>0</v>
+      </c>
+      <c r="T667" t="s">
+        <v>0</v>
+      </c>
+      <c r="U667" t="s">
+        <v>0</v>
+      </c>
+      <c r="V667" t="s">
+        <v>0</v>
+      </c>
+      <c r="W667" t="s">
+        <v>0</v>
+      </c>
+      <c r="X667" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y667" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA667" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH667">
+        <v>-11.7</v>
+      </c>
+      <c r="AI667" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ667" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK667" t="s">
+        <v>1831</v>
+      </c>
+      <c r="AL667" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="668" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A668" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B668" t="s">
+        <v>55</v>
+      </c>
+      <c r="C668" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D668" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E668" t="s">
+        <v>1829</v>
+      </c>
+      <c r="F668" t="s">
+        <v>1830</v>
+      </c>
+      <c r="G668" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H668" t="s">
+        <v>1833</v>
+      </c>
+      <c r="I668" t="s">
+        <v>1834</v>
+      </c>
+      <c r="J668" t="s">
+        <v>59</v>
+      </c>
+      <c r="K668">
+        <v>88.17</v>
+      </c>
+      <c r="L668" t="s">
+        <v>52</v>
+      </c>
+      <c r="M668" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N668">
+        <v>7055485955</v>
+      </c>
+      <c r="O668" t="s">
+        <v>74</v>
+      </c>
+      <c r="P668" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q668" t="s">
+        <v>0</v>
+      </c>
+      <c r="R668">
+        <v>187473652251</v>
+      </c>
+      <c r="S668">
+        <v>10075252015512</v>
+      </c>
+      <c r="T668" t="s">
+        <v>60</v>
+      </c>
+      <c r="U668" t="s">
+        <v>61</v>
+      </c>
+      <c r="V668">
+        <v>2</v>
+      </c>
+      <c r="W668">
+        <v>108.36</v>
+      </c>
+      <c r="X668">
+        <v>0</v>
+      </c>
+      <c r="Y668" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z668" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA668" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB668">
+        <v>-0.36</v>
+      </c>
+      <c r="AC668">
+        <v>-14.17</v>
+      </c>
+      <c r="AD668">
+        <v>-0.46</v>
+      </c>
+      <c r="AE668">
+        <v>-5.2</v>
+      </c>
+      <c r="AF668" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG668" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH668">
+        <v>108.36</v>
+      </c>
+      <c r="AI668" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ668" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK668" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL668" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A669" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B669" t="s">
+        <v>48</v>
+      </c>
+      <c r="C669" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D669" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E669" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F669" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G669" t="s">
+        <v>0</v>
+      </c>
+      <c r="H669" t="s">
+        <v>0</v>
+      </c>
+      <c r="I669" t="s">
+        <v>0</v>
+      </c>
+      <c r="J669" t="s">
+        <v>0</v>
+      </c>
+      <c r="K669">
+        <v>-1.94</v>
+      </c>
+      <c r="L669" t="s">
+        <v>52</v>
+      </c>
+      <c r="M669" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N669">
+        <v>7055485955</v>
+      </c>
+      <c r="O669" t="s">
+        <v>74</v>
+      </c>
+      <c r="P669" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q669" t="s">
+        <v>0</v>
+      </c>
+      <c r="R669">
+        <v>187473651729</v>
+      </c>
+      <c r="S669" t="s">
+        <v>0</v>
+      </c>
+      <c r="T669" t="s">
+        <v>0</v>
+      </c>
+      <c r="U669" t="s">
+        <v>0</v>
+      </c>
+      <c r="V669" t="s">
+        <v>0</v>
+      </c>
+      <c r="W669" t="s">
+        <v>0</v>
+      </c>
+      <c r="X669" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y669" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA669" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH669">
+        <v>-1.94</v>
+      </c>
+      <c r="AI669" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ669" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK669" t="s">
+        <v>1838</v>
+      </c>
+      <c r="AL669" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="670" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A670" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B670" t="s">
+        <v>55</v>
+      </c>
+      <c r="C670" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D670" t="s">
+        <v>1835</v>
+      </c>
+      <c r="E670" t="s">
+        <v>1836</v>
+      </c>
+      <c r="F670" t="s">
+        <v>1837</v>
+      </c>
+      <c r="G670" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H670" t="s">
+        <v>1840</v>
+      </c>
+      <c r="I670" t="s">
+        <v>1841</v>
+      </c>
+      <c r="J670" t="s">
+        <v>59</v>
+      </c>
+      <c r="K670">
+        <v>14.42</v>
+      </c>
+      <c r="L670" t="s">
+        <v>52</v>
+      </c>
+      <c r="M670" s="1">
+        <v>45903</v>
+      </c>
+      <c r="N670">
+        <v>7055485955</v>
+      </c>
+      <c r="O670" t="s">
+        <v>74</v>
+      </c>
+      <c r="P670" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q670" t="s">
+        <v>0</v>
+      </c>
+      <c r="R670">
+        <v>187473651729</v>
+      </c>
+      <c r="S670">
+        <v>10076509420813</v>
+      </c>
+      <c r="T670" t="s">
+        <v>801</v>
+      </c>
+      <c r="U670" t="s">
+        <v>802</v>
+      </c>
+      <c r="V670">
+        <v>1</v>
+      </c>
+      <c r="W670">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="X670">
+        <v>0</v>
+      </c>
+      <c r="Y670" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z670" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA670" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB670">
+        <v>-0.36</v>
+      </c>
+      <c r="AC670">
+        <v>-1.34</v>
+      </c>
+      <c r="AD670">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="AE670" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF670" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG670" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH670">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="AI670" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ670" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK670" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL670" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A671" s="1">
+        <v>45902</v>
+      </c>
+      <c r="B671" t="s">
+        <v>73</v>
+      </c>
+      <c r="C671" t="s">
+        <v>0</v>
+      </c>
+      <c r="D671" t="s">
+        <v>0</v>
+      </c>
+      <c r="E671" t="s">
+        <v>0</v>
+      </c>
+      <c r="F671" t="s">
+        <v>0</v>
+      </c>
+      <c r="G671" t="s">
+        <v>0</v>
+      </c>
+      <c r="H671" t="s">
+        <v>0</v>
+      </c>
+      <c r="I671" t="s">
+        <v>0</v>
+      </c>
+      <c r="J671" t="s">
+        <v>0</v>
+      </c>
+      <c r="K671">
+        <v>-168.77</v>
+      </c>
+      <c r="L671" t="s">
+        <v>52</v>
+      </c>
+      <c r="M671" t="s">
+        <v>0</v>
+      </c>
+      <c r="N671">
+        <v>7053952139</v>
+      </c>
+      <c r="O671" t="s">
+        <v>74</v>
+      </c>
+      <c r="P671" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q671" t="s">
+        <v>0</v>
+      </c>
+      <c r="R671" t="s">
+        <v>0</v>
+      </c>
+      <c r="S671" t="s">
+        <v>0</v>
+      </c>
+      <c r="T671" t="s">
+        <v>0</v>
+      </c>
+      <c r="U671" t="s">
+        <v>0</v>
+      </c>
+      <c r="V671" t="s">
+        <v>0</v>
+      </c>
+      <c r="W671" t="s">
+        <v>0</v>
+      </c>
+      <c r="X671" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y671" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA671" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH671">
+        <v>-168.77</v>
+      </c>
+      <c r="AI671" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ671" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK671" t="s">
+        <v>1842</v>
+      </c>
+      <c r="AL671" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="672" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A672" s="1"/>
       <c r="M672" s="1"/>
       <c r="AA672" s="2"/>
@@ -80681,7 +83420,6 @@
     </row>
     <row r="691" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A691" s="1"/>
-      <c r="M691" s="1"/>
       <c r="AA691" s="2"/>
     </row>
     <row r="692" spans="1:27" x14ac:dyDescent="0.25">
@@ -80811,6 +83549,7 @@
     </row>
     <row r="717" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A717" s="1"/>
+      <c r="M717" s="1"/>
       <c r="AA717" s="2"/>
     </row>
     <row r="718" spans="1:27" x14ac:dyDescent="0.25">
@@ -80988,163 +83727,163 @@
       <c r="M752" s="1"/>
       <c r="AA752" s="2"/>
     </row>
-    <row r="753" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A753" s="1"/>
       <c r="M753" s="1"/>
       <c r="AA753" s="2"/>
     </row>
-    <row r="754" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A754" s="1"/>
       <c r="M754" s="1"/>
       <c r="AA754" s="2"/>
     </row>
-    <row r="755" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A755" s="1"/>
       <c r="M755" s="1"/>
       <c r="AA755" s="2"/>
     </row>
-    <row r="756" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A756" s="1"/>
-      <c r="M756" s="1"/>
+      <c r="K756" s="3"/>
       <c r="AA756" s="2"/>
-    </row>
-    <row r="757" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AH756" s="3"/>
+    </row>
+    <row r="757" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A757" s="1"/>
       <c r="M757" s="1"/>
       <c r="AA757" s="2"/>
     </row>
-    <row r="758" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A758" s="1"/>
       <c r="M758" s="1"/>
       <c r="AA758" s="2"/>
     </row>
-    <row r="759" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A759" s="1"/>
       <c r="M759" s="1"/>
       <c r="AA759" s="2"/>
     </row>
-    <row r="760" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A760" s="1"/>
       <c r="M760" s="1"/>
       <c r="AA760" s="2"/>
     </row>
-    <row r="761" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A761" s="1"/>
       <c r="M761" s="1"/>
       <c r="AA761" s="2"/>
     </row>
-    <row r="762" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A762" s="1"/>
       <c r="M762" s="1"/>
       <c r="AA762" s="2"/>
     </row>
-    <row r="763" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A763" s="1"/>
       <c r="M763" s="1"/>
       <c r="AA763" s="2"/>
     </row>
-    <row r="764" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A764" s="1"/>
       <c r="M764" s="1"/>
       <c r="AA764" s="2"/>
     </row>
-    <row r="765" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A765" s="1"/>
       <c r="M765" s="1"/>
       <c r="AA765" s="2"/>
     </row>
-    <row r="766" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A766" s="1"/>
       <c r="M766" s="1"/>
       <c r="AA766" s="2"/>
     </row>
-    <row r="767" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A767" s="1"/>
       <c r="M767" s="1"/>
       <c r="AA767" s="2"/>
     </row>
-    <row r="768" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A768" s="1"/>
       <c r="M768" s="1"/>
       <c r="AA768" s="2"/>
     </row>
-    <row r="769" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A769" s="1"/>
       <c r="M769" s="1"/>
       <c r="AA769" s="2"/>
     </row>
-    <row r="770" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A770" s="1"/>
       <c r="M770" s="1"/>
       <c r="AA770" s="2"/>
     </row>
-    <row r="771" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A771" s="1"/>
       <c r="M771" s="1"/>
       <c r="AA771" s="2"/>
     </row>
-    <row r="772" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A772" s="1"/>
       <c r="M772" s="1"/>
       <c r="AA772" s="2"/>
     </row>
-    <row r="773" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A773" s="1"/>
       <c r="M773" s="1"/>
       <c r="AA773" s="2"/>
     </row>
-    <row r="774" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A774" s="1"/>
       <c r="M774" s="1"/>
       <c r="AA774" s="2"/>
     </row>
-    <row r="775" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A775" s="1"/>
       <c r="M775" s="1"/>
       <c r="AA775" s="2"/>
     </row>
-    <row r="776" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A776" s="1"/>
       <c r="M776" s="1"/>
       <c r="AA776" s="2"/>
     </row>
-    <row r="777" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A777" s="1"/>
       <c r="M777" s="1"/>
       <c r="AA777" s="2"/>
     </row>
-    <row r="778" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A778" s="1"/>
       <c r="M778" s="1"/>
       <c r="AA778" s="2"/>
     </row>
-    <row r="779" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A779" s="1"/>
       <c r="M779" s="1"/>
       <c r="AA779" s="2"/>
     </row>
-    <row r="780" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A780" s="1"/>
       <c r="M780" s="1"/>
       <c r="AA780" s="2"/>
     </row>
-    <row r="781" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A781" s="1"/>
       <c r="M781" s="1"/>
       <c r="AA781" s="2"/>
     </row>
-    <row r="782" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A782" s="1"/>
-      <c r="K782" s="3"/>
+      <c r="M782" s="1"/>
       <c r="AA782" s="2"/>
-      <c r="AH782" s="3"/>
-    </row>
-    <row r="783" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="783" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A783" s="1"/>
       <c r="M783" s="1"/>
       <c r="AA783" s="2"/>
     </row>
-    <row r="784" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A784" s="1"/>
       <c r="M784" s="1"/>
       <c r="AA784" s="2"/>
@@ -81596,7 +84335,6 @@
     </row>
     <row r="874" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A874" s="1"/>
-      <c r="M874" s="1"/>
       <c r="AA874" s="2"/>
     </row>
     <row r="875" spans="1:27" x14ac:dyDescent="0.25">
@@ -81726,6 +84464,7 @@
     </row>
     <row r="900" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A900" s="1"/>
+      <c r="M900" s="1"/>
       <c r="AA900" s="2"/>
     </row>
     <row r="901" spans="1:27" x14ac:dyDescent="0.25">
@@ -82060,7 +84799,6 @@
     </row>
     <row r="967" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A967" s="1"/>
-      <c r="M967" s="1"/>
       <c r="AA967" s="2"/>
     </row>
     <row r="968" spans="1:27" x14ac:dyDescent="0.25">
@@ -82190,6 +84928,7 @@
     </row>
     <row r="993" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A993" s="1"/>
+      <c r="M993" s="1"/>
       <c r="AA993" s="2"/>
     </row>
     <row r="994" spans="1:27" x14ac:dyDescent="0.25">
@@ -82249,7 +84988,6 @@
     </row>
     <row r="1005" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1005" s="1"/>
-      <c r="M1005" s="1"/>
       <c r="AA1005" s="2"/>
     </row>
     <row r="1006" spans="1:27" x14ac:dyDescent="0.25">
@@ -82379,6 +85117,7 @@
     </row>
     <row r="1031" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1031" s="1"/>
+      <c r="M1031" s="1"/>
       <c r="AA1031" s="2"/>
     </row>
     <row r="1032" spans="1:27" x14ac:dyDescent="0.25">
@@ -82666,163 +85405,163 @@
       <c r="M1088" s="1"/>
       <c r="AA1088" s="2"/>
     </row>
-    <row r="1089" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1089" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1089" s="1"/>
       <c r="M1089" s="1"/>
       <c r="AA1089" s="2"/>
     </row>
-    <row r="1090" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1090" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1090" s="1"/>
       <c r="M1090" s="1"/>
       <c r="AA1090" s="2"/>
     </row>
-    <row r="1091" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1091" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1091" s="1"/>
-      <c r="M1091" s="1"/>
+      <c r="K1091" s="3"/>
       <c r="AA1091" s="2"/>
-    </row>
-    <row r="1092" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AH1091" s="3"/>
+    </row>
+    <row r="1092" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1092" s="1"/>
       <c r="M1092" s="1"/>
       <c r="AA1092" s="2"/>
     </row>
-    <row r="1093" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1093" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1093" s="1"/>
       <c r="M1093" s="1"/>
       <c r="AA1093" s="2"/>
     </row>
-    <row r="1094" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1094" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1094" s="1"/>
       <c r="M1094" s="1"/>
       <c r="AA1094" s="2"/>
     </row>
-    <row r="1095" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1095" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1095" s="1"/>
       <c r="M1095" s="1"/>
       <c r="AA1095" s="2"/>
     </row>
-    <row r="1096" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1096" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1096" s="1"/>
       <c r="M1096" s="1"/>
       <c r="AA1096" s="2"/>
     </row>
-    <row r="1097" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1097" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1097" s="1"/>
       <c r="M1097" s="1"/>
       <c r="AA1097" s="2"/>
     </row>
-    <row r="1098" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1098" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1098" s="1"/>
       <c r="M1098" s="1"/>
       <c r="AA1098" s="2"/>
     </row>
-    <row r="1099" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1099" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1099" s="1"/>
       <c r="M1099" s="1"/>
       <c r="AA1099" s="2"/>
     </row>
-    <row r="1100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1100" s="1"/>
       <c r="M1100" s="1"/>
       <c r="AA1100" s="2"/>
     </row>
-    <row r="1101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1101" s="1"/>
       <c r="M1101" s="1"/>
       <c r="AA1101" s="2"/>
     </row>
-    <row r="1102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1102" s="1"/>
       <c r="M1102" s="1"/>
       <c r="AA1102" s="2"/>
     </row>
-    <row r="1103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1103" s="1"/>
       <c r="M1103" s="1"/>
       <c r="AA1103" s="2"/>
     </row>
-    <row r="1104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1104" s="1"/>
       <c r="M1104" s="1"/>
       <c r="AA1104" s="2"/>
     </row>
-    <row r="1105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1105" s="1"/>
       <c r="M1105" s="1"/>
       <c r="AA1105" s="2"/>
     </row>
-    <row r="1106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1106" s="1"/>
       <c r="M1106" s="1"/>
       <c r="AA1106" s="2"/>
     </row>
-    <row r="1107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1107" s="1"/>
       <c r="M1107" s="1"/>
       <c r="AA1107" s="2"/>
     </row>
-    <row r="1108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1108" s="1"/>
       <c r="M1108" s="1"/>
       <c r="AA1108" s="2"/>
     </row>
-    <row r="1109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1109" s="1"/>
       <c r="M1109" s="1"/>
       <c r="AA1109" s="2"/>
     </row>
-    <row r="1110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1110" s="1"/>
       <c r="M1110" s="1"/>
       <c r="AA1110" s="2"/>
     </row>
-    <row r="1111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1111" s="1"/>
       <c r="M1111" s="1"/>
       <c r="AA1111" s="2"/>
     </row>
-    <row r="1112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1112" s="1"/>
       <c r="M1112" s="1"/>
       <c r="AA1112" s="2"/>
     </row>
-    <row r="1113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1113" s="1"/>
       <c r="M1113" s="1"/>
       <c r="AA1113" s="2"/>
     </row>
-    <row r="1114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1114" s="1"/>
       <c r="M1114" s="1"/>
       <c r="AA1114" s="2"/>
     </row>
-    <row r="1115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1115" s="1"/>
       <c r="M1115" s="1"/>
       <c r="AA1115" s="2"/>
     </row>
-    <row r="1116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1116" s="1"/>
       <c r="M1116" s="1"/>
       <c r="AA1116" s="2"/>
     </row>
-    <row r="1117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1117" s="1"/>
-      <c r="K1117" s="3"/>
+      <c r="M1117" s="1"/>
       <c r="AA1117" s="2"/>
-      <c r="AH1117" s="3"/>
-    </row>
-    <row r="1118" spans="1:34" x14ac:dyDescent="0.25">
+    </row>
+    <row r="1118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1118" s="1"/>
       <c r="M1118" s="1"/>
       <c r="AA1118" s="2"/>
     </row>
-    <row r="1119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1119" s="1"/>
       <c r="M1119" s="1"/>
       <c r="AA1119" s="2"/>
     </row>
-    <row r="1120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1120" s="1"/>
       <c r="M1120" s="1"/>
       <c r="AA1120" s="2"/>
@@ -83189,7 +85928,6 @@
     </row>
     <row r="1193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1193" s="1"/>
-      <c r="M1193" s="1"/>
       <c r="AA1193" s="2"/>
     </row>
     <row r="1194" spans="1:27" x14ac:dyDescent="0.25">
@@ -83319,6 +86057,7 @@
     </row>
     <row r="1219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1219" s="1"/>
+      <c r="M1219" s="1"/>
       <c r="AA1219" s="2"/>
     </row>
     <row r="1220" spans="1:27" x14ac:dyDescent="0.25">
@@ -83466,136 +86205,6 @@
       <c r="M1248" s="1"/>
       <c r="AA1248" s="2"/>
     </row>
-    <row r="1249" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1249" s="1"/>
-      <c r="M1249" s="1"/>
-      <c r="AA1249" s="2"/>
-    </row>
-    <row r="1250" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1250" s="1"/>
-      <c r="M1250" s="1"/>
-      <c r="AA1250" s="2"/>
-    </row>
-    <row r="1251" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1251" s="1"/>
-      <c r="M1251" s="1"/>
-      <c r="AA1251" s="2"/>
-    </row>
-    <row r="1252" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1252" s="1"/>
-      <c r="M1252" s="1"/>
-      <c r="AA1252" s="2"/>
-    </row>
-    <row r="1253" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1253" s="1"/>
-      <c r="M1253" s="1"/>
-      <c r="AA1253" s="2"/>
-    </row>
-    <row r="1254" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1254" s="1"/>
-      <c r="M1254" s="1"/>
-      <c r="AA1254" s="2"/>
-    </row>
-    <row r="1255" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1255" s="1"/>
-      <c r="M1255" s="1"/>
-      <c r="AA1255" s="2"/>
-    </row>
-    <row r="1256" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1256" s="1"/>
-      <c r="M1256" s="1"/>
-      <c r="AA1256" s="2"/>
-    </row>
-    <row r="1257" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1257" s="1"/>
-      <c r="M1257" s="1"/>
-      <c r="AA1257" s="2"/>
-    </row>
-    <row r="1258" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1258" s="1"/>
-      <c r="M1258" s="1"/>
-      <c r="AA1258" s="2"/>
-    </row>
-    <row r="1259" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1259" s="1"/>
-      <c r="M1259" s="1"/>
-      <c r="AA1259" s="2"/>
-    </row>
-    <row r="1260" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1260" s="1"/>
-      <c r="M1260" s="1"/>
-      <c r="AA1260" s="2"/>
-    </row>
-    <row r="1261" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1261" s="1"/>
-      <c r="M1261" s="1"/>
-      <c r="AA1261" s="2"/>
-    </row>
-    <row r="1262" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1262" s="1"/>
-      <c r="M1262" s="1"/>
-      <c r="AA1262" s="2"/>
-    </row>
-    <row r="1263" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1263" s="1"/>
-      <c r="M1263" s="1"/>
-      <c r="AA1263" s="2"/>
-    </row>
-    <row r="1264" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1264" s="1"/>
-      <c r="M1264" s="1"/>
-      <c r="AA1264" s="2"/>
-    </row>
-    <row r="1265" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1265" s="1"/>
-      <c r="M1265" s="1"/>
-      <c r="AA1265" s="2"/>
-    </row>
-    <row r="1266" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1266" s="1"/>
-      <c r="M1266" s="1"/>
-      <c r="AA1266" s="2"/>
-    </row>
-    <row r="1267" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1267" s="1"/>
-      <c r="M1267" s="1"/>
-      <c r="AA1267" s="2"/>
-    </row>
-    <row r="1268" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1268" s="1"/>
-      <c r="M1268" s="1"/>
-      <c r="AA1268" s="2"/>
-    </row>
-    <row r="1269" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1269" s="1"/>
-      <c r="M1269" s="1"/>
-      <c r="AA1269" s="2"/>
-    </row>
-    <row r="1270" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1270" s="1"/>
-      <c r="M1270" s="1"/>
-      <c r="AA1270" s="2"/>
-    </row>
-    <row r="1271" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1271" s="1"/>
-      <c r="M1271" s="1"/>
-      <c r="AA1271" s="2"/>
-    </row>
-    <row r="1272" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1272" s="1"/>
-      <c r="M1272" s="1"/>
-      <c r="AA1272" s="2"/>
-    </row>
-    <row r="1273" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1273" s="1"/>
-      <c r="M1273" s="1"/>
-      <c r="AA1273" s="2"/>
-    </row>
-    <row r="1274" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1274" s="1"/>
-      <c r="M1274" s="1"/>
-      <c r="AA1274" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
